--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1719">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60815238952637</t>
+    <t xml:space="preserve">9.60815334320068</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70897769927979</t>
+    <t xml:space="preserve">9.7089786529541</t>
   </si>
   <si>
     <t xml:space="preserve">9.52511787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50732517242432</t>
+    <t xml:space="preserve">9.50732612609863</t>
   </si>
   <si>
     <t xml:space="preserve">9.40649890899658</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">9.27008724212646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45394611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34125804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13367557525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93795299530029</t>
+    <t xml:space="preserve">9.45394706726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34125900268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13367462158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93795204162598</t>
   </si>
   <si>
     <t xml:space="preserve">9.00319385528564</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">8.80747222900391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84898853302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66513061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39230537414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.279616355896</t>
+    <t xml:space="preserve">8.84899044036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66512775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39230442047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27961730957031</t>
   </si>
   <si>
     <t xml:space="preserve">7.94155311584473</t>
@@ -101,28 +101,28 @@
     <t xml:space="preserve">8.17879104614258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03644943237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73396825790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54417848587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114587783813</t>
+    <t xml:space="preserve">8.03644847869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73397016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54418039321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114540100098</t>
   </si>
   <si>
     <t xml:space="preserve">7.25949192047119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03411626815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74942970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10528659820557</t>
+    <t xml:space="preserve">7.0341157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74943017959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10528707504272</t>
   </si>
   <si>
     <t xml:space="preserve">6.50032997131348</t>
@@ -131,13 +131,13 @@
     <t xml:space="preserve">6.61301755905151</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87991237640381</t>
+    <t xml:space="preserve">6.87991189956665</t>
   </si>
   <si>
     <t xml:space="preserve">6.90363502502441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06377029418945</t>
+    <t xml:space="preserve">7.06377124786377</t>
   </si>
   <si>
     <t xml:space="preserve">7.01632308959961</t>
@@ -149,121 +149,121 @@
     <t xml:space="preserve">7.19425249099731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18831920623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25356149673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57383394241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755754470825</t>
+    <t xml:space="preserve">7.18832063674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25356101989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57383346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755659103394</t>
   </si>
   <si>
     <t xml:space="preserve">7.65686655044556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7754864692688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76955556869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69245338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55603981018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63314247131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69838333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68652105331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24403095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17285919189453</t>
+    <t xml:space="preserve">7.77548599243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76955604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69245290756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55604028701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63314199447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69838285446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68652153015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24403190612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17286014556885</t>
   </si>
   <si>
     <t xml:space="preserve">8.12541103363037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21437644958496</t>
+    <t xml:space="preserve">8.21437835693359</t>
   </si>
   <si>
     <t xml:space="preserve">8.23217010498047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09575653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00086116790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85258769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68058919906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74583101272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80514144897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72803831100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61535024642944</t>
+    <t xml:space="preserve">8.0957555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00086307525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90003538131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85258817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68058967590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74583148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80514049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72803735733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6153507232666</t>
   </si>
   <si>
     <t xml:space="preserve">7.52638483047485</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28321695327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30693864822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14680337905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35438680648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44335269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46707630157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75176191329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8170018196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7992091178894</t>
+    <t xml:space="preserve">7.28321599960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30694007873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14680528640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3543872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44335222244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46707725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7517614364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81700325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79920816421509</t>
   </si>
   <si>
     <t xml:space="preserve">7.87038135528564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92375946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08389568328857</t>
+    <t xml:space="preserve">7.92375993728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08389663696289</t>
   </si>
   <si>
     <t xml:space="preserve">8.16692924499512</t>
@@ -272,55 +272,55 @@
     <t xml:space="preserve">8.11948108673096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19065380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13727474212646</t>
+    <t xml:space="preserve">8.19065284729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13727283477783</t>
   </si>
   <si>
     <t xml:space="preserve">8.1076192855835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89410495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71024560928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66872978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85851812362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38404273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4730076789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36032009124756</t>
+    <t xml:space="preserve">7.89410448074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71024513244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66872930526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85852003097534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38404321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47300815582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36031770706177</t>
   </si>
   <si>
     <t xml:space="preserve">7.41962814331055</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56197166442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63111686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07113170623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18427848815918</t>
+    <t xml:space="preserve">7.56197071075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63111734390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07113265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18427658081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.24713706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28485298156738</t>
+    <t xml:space="preserve">8.2848539352417</t>
   </si>
   <si>
     <t xml:space="preserve">8.19056415557861</t>
@@ -335,154 +335,154 @@
     <t xml:space="preserve">7.86998224258423</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85740900039673</t>
+    <t xml:space="preserve">7.85740804672241</t>
   </si>
   <si>
     <t xml:space="preserve">7.98941469192505</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14027690887451</t>
+    <t xml:space="preserve">8.1402759552002</t>
   </si>
   <si>
     <t xml:space="preserve">8.10256099700928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73797702789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48653984069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27281713485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29796123504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21624517440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49911165237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72540473937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86369514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90769720077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86423254013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2827844619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38021659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53107881546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63165378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70708560943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51850700378418</t>
+    <t xml:space="preserve">7.73797655105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4865403175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27281856536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29796028137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21624422073364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49911308288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72540426254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86369562149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9076976776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86423301696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28278493881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38021564483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53107833862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63165283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70708513259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5185079574585</t>
   </si>
   <si>
     <t xml:space="preserve">6.39278841018677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16963768005371</t>
+    <t xml:space="preserve">6.16963815689087</t>
   </si>
   <si>
     <t xml:space="preserve">6.18221044540405</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66308403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71337032318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05281114578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98366641998291</t>
+    <t xml:space="preserve">6.66308355331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71337080001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.052809715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98366546630859</t>
   </si>
   <si>
     <t xml:space="preserve">7.16595792770386</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09681367874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13452863693237</t>
+    <t xml:space="preserve">7.0968132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13452816009521</t>
   </si>
   <si>
     <t xml:space="preserve">7.04652452468872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14081382751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06538391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97109365463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10309886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90823459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40482330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37339305877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08424091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36710739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51796913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60597276687622</t>
+    <t xml:space="preserve">7.14081335067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0653829574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138185501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97109460830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10309934616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90823364257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40482187271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37339210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08424043655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36710786819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51797008514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6059718132019</t>
   </si>
   <si>
     <t xml:space="preserve">7.61225843429565</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65625953674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38596439361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18481492996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20367383956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02766704559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34196424484253</t>
+    <t xml:space="preserve">7.65626049041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38596487045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18481588363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20367336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02766752243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34196329116821</t>
   </si>
   <si>
     <t xml:space="preserve">7.31682014465332</t>
@@ -491,28 +491,28 @@
     <t xml:space="preserve">7.10938453674316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03395223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566278457642</t>
+    <t xml:space="preserve">7.03395318984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566230773926</t>
   </si>
   <si>
     <t xml:space="preserve">7.07166910171509</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24138832092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29167604446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23510313034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1785306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27910327911377</t>
+    <t xml:space="preserve">7.24138879776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29167747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23510408401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17852973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27910423278809</t>
   </si>
   <si>
     <t xml:space="preserve">7.46139574050903</t>
@@ -521,16 +521,16 @@
     <t xml:space="preserve">7.56825685501099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98995208740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91452121734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01509618759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09052562713623</t>
+    <t xml:space="preserve">6.98995161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91452074050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01509571075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09052658081055</t>
   </si>
   <si>
     <t xml:space="preserve">7.04023885726929</t>
@@ -539,46 +539,46 @@
     <t xml:space="preserve">6.87680435180664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84537601470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85794734954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88937616348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82651615142822</t>
+    <t xml:space="preserve">6.84537649154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85794687271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88937664031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82651710510254</t>
   </si>
   <si>
     <t xml:space="preserve">6.79508829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77622985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15338516235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14710140228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282598495483</t>
+    <t xml:space="preserve">6.77623081207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0590968132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15338563919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14709949493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282550811768</t>
   </si>
   <si>
     <t xml:space="preserve">7.47396802902222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50539684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59968757629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58082914352417</t>
+    <t xml:space="preserve">7.5053973197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59968662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58082962036133</t>
   </si>
   <si>
     <t xml:space="preserve">7.6436882019043</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">7.62483072280884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44882392883301</t>
+    <t xml:space="preserve">7.44882440567017</t>
   </si>
   <si>
     <t xml:space="preserve">7.39853763580322</t>
@@ -596,43 +596,43 @@
     <t xml:space="preserve">7.28538990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95852088928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12824249267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39225149154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37967872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17224311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3231053352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11567068099976</t>
+    <t xml:space="preserve">6.95852184295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12824201583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39225101470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37967920303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17224407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11566972732544</t>
   </si>
   <si>
     <t xml:space="preserve">7.75683450698853</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66883087158203</t>
+    <t xml:space="preserve">7.66883230209351</t>
   </si>
   <si>
     <t xml:space="preserve">8.06484508514404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65572357177734</t>
+    <t xml:space="preserve">8.65572261810303</t>
   </si>
   <si>
     <t xml:space="preserve">9.05173587799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81287002563477</t>
+    <t xml:space="preserve">8.8128719329834</t>
   </si>
   <si>
     <t xml:space="preserve">8.83801460266113</t>
@@ -641,16 +641,16 @@
     <t xml:space="preserve">8.77515506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68715190887451</t>
+    <t xml:space="preserve">8.6871509552002</t>
   </si>
   <si>
     <t xml:space="preserve">8.90715885162354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92601680755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00773429870605</t>
+    <t xml:space="preserve">8.92601776123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00773334503174</t>
   </si>
   <si>
     <t xml:space="preserve">8.9511604309082</t>
@@ -659,37 +659,37 @@
     <t xml:space="preserve">8.9637336730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03287792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03916454315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9197301864624</t>
+    <t xml:space="preserve">9.03287887573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03916358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91973114013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.86944389343262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87573051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02030563354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08316612243652</t>
+    <t xml:space="preserve">8.87572956085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02030658721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08316516876221</t>
   </si>
   <si>
     <t xml:space="preserve">9.12716770172119</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07059478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08945178985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88830184936523</t>
+    <t xml:space="preserve">9.07059383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08945274353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88830280303955</t>
   </si>
   <si>
     <t xml:space="preserve">8.8505859375</t>
@@ -698,85 +698,85 @@
     <t xml:space="preserve">8.74372482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61172199249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58657836914062</t>
+    <t xml:space="preserve">8.61172008514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58657646179199</t>
   </si>
   <si>
     <t xml:space="preserve">8.51743316650391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62429332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61800765991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744705200195</t>
+    <t xml:space="preserve">8.62429141998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61800670623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744800567627</t>
   </si>
   <si>
     <t xml:space="preserve">9.69290065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78718948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8249044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68033027648926</t>
+    <t xml:space="preserve">9.78719043731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82490539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68032836914062</t>
   </si>
   <si>
     <t xml:space="preserve">9.37231826782227</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26545810699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22774219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39117622375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41631889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19631290435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14602565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04545021057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11459541320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28431510925293</t>
+    <t xml:space="preserve">9.26545715332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22774124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39117527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41632080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19631195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14602470397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04545116424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11459445953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28431606292725</t>
   </si>
   <si>
     <t xml:space="preserve">9.43517684936523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25917148590088</t>
+    <t xml:space="preserve">9.25916957855225</t>
   </si>
   <si>
     <t xml:space="preserve">9.290602684021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34088802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20888423919678</t>
+    <t xml:space="preserve">9.34088897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20888519287109</t>
   </si>
   <si>
     <t xml:space="preserve">9.19002628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12088203430176</t>
+    <t xml:space="preserve">9.12088108062744</t>
   </si>
   <si>
     <t xml:space="preserve">9.02659225463867</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">8.82544231414795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9323034286499</t>
+    <t xml:space="preserve">8.93230247497559</t>
   </si>
   <si>
     <t xml:space="preserve">9.16488265991211</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">9.17745494842529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17116832733154</t>
+    <t xml:space="preserve">9.17116928100586</t>
   </si>
   <si>
     <t xml:space="preserve">9.15859603881836</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">9.24660015106201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36603164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18374061584473</t>
+    <t xml:space="preserve">9.36603260040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18373870849609</t>
   </si>
   <si>
     <t xml:space="preserve">9.00144863128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97630405426025</t>
+    <t xml:space="preserve">8.97630500793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.83172798156738</t>
@@ -833,28 +833,28 @@
     <t xml:space="preserve">8.71858215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31574535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13345336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25288677215576</t>
+    <t xml:space="preserve">9.3157434463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13345432281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25288581848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.42889213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58604049682617</t>
+    <t xml:space="preserve">9.58603858947754</t>
   </si>
   <si>
     <t xml:space="preserve">9.60489749908447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63632774353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61118316650391</t>
+    <t xml:space="preserve">9.63632678985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61118412017822</t>
   </si>
   <si>
     <t xml:space="preserve">9.3283166885376</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">9.27174282073975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42260551452637</t>
+    <t xml:space="preserve">9.42260646820068</t>
   </si>
   <si>
     <t xml:space="preserve">9.46032238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5106086730957</t>
+    <t xml:space="preserve">9.51060771942139</t>
   </si>
   <si>
     <t xml:space="preserve">9.7030782699585</t>
@@ -878,43 +878,43 @@
     <t xml:space="preserve">9.73626232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57697772979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55043029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52388191223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33141326904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21195030212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32477760314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42433071136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19204044342041</t>
+    <t xml:space="preserve">9.57697677612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55043125152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52388286590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33141422271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21195125579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3247766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42432975769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19204139709473</t>
   </si>
   <si>
     <t xml:space="preserve">9.13230991363525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11239814758301</t>
+    <t xml:space="preserve">9.11239719390869</t>
   </si>
   <si>
     <t xml:space="preserve">9.27168273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33805084228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43760395050049</t>
+    <t xml:space="preserve">9.33804988861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43760299682617</t>
   </si>
   <si>
     <t xml:space="preserve">9.62343597412109</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">9.63007259368896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56370258331299</t>
+    <t xml:space="preserve">9.56370449066162</t>
   </si>
   <si>
     <t xml:space="preserve">9.68316745758057</t>
@@ -935,25 +935,25 @@
     <t xml:space="preserve">9.58361434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74953556060791</t>
+    <t xml:space="preserve">9.74953460693359</t>
   </si>
   <si>
     <t xml:space="preserve">9.64998245239258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61679840087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64334678649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68980407714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72962474822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7827205657959</t>
+    <t xml:space="preserve">9.61679744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64334583282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68980503082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7296257019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78271961212158</t>
   </si>
   <si>
     <t xml:space="preserve">9.98846244812012</t>
@@ -962,31 +962,31 @@
     <t xml:space="preserve">9.95527839660645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94864177703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0614681243896</t>
+    <t xml:space="preserve">9.94864082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0614671707153</t>
   </si>
   <si>
     <t xml:space="preserve">10.2141151428223</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2804822921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1012887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97518825531006</t>
+    <t xml:space="preserve">10.2804832458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1012878417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97518730163574</t>
   </si>
   <si>
     <t xml:space="preserve">9.93536758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.174295425415</t>
+    <t xml:space="preserve">10.1742935180664</t>
   </si>
   <si>
     <t xml:space="preserve">10.1942052841187</t>
@@ -1004,31 +1004,31 @@
     <t xml:space="preserve">10.5725049972534</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6720590591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6322383880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4928636550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4331312179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2472991943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2871217727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2406625747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2937574386597</t>
+    <t xml:space="preserve">10.6720600128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6322364807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.492862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4331321716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2473001480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2871208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326943397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2406635284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.293758392334</t>
   </si>
   <si>
     <t xml:space="preserve">10.2008409500122</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">10.1145620346069</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0946531295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1079263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0747423171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94200325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92873096466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98182487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.028284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0880136489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.041558265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.008373260498</t>
+    <t xml:space="preserve">10.0946502685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1079254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0747413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94200420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92873001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98182678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0282831192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0880155563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0415563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0083723068237</t>
   </si>
   <si>
     <t xml:space="preserve">10.3136682510376</t>
@@ -1076,13 +1076,13 @@
     <t xml:space="preserve">10.3733997344971</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1676568984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3203058242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402166366577</t>
+    <t xml:space="preserve">10.1676578521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3203048706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402156829834</t>
   </si>
   <si>
     <t xml:space="preserve">10.3003931045532</t>
@@ -1103,25 +1103,25 @@
     <t xml:space="preserve">10.2672100067139</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2738475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2539367675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1411104202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.426495552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3866739273071</t>
+    <t xml:space="preserve">10.2738466262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2539348602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1411094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4264945983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3866729736328</t>
   </si>
   <si>
     <t xml:space="preserve">10.4464044570923</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3800354003906</t>
+    <t xml:space="preserve">10.3800373077393</t>
   </si>
   <si>
     <t xml:space="preserve">10.5592317581177</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">10.4530420303345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3667621612549</t>
+    <t xml:space="preserve">10.3667640686035</t>
   </si>
   <si>
     <t xml:space="preserve">10.3070316314697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4663162231445</t>
+    <t xml:space="preserve">10.4663152694702</t>
   </si>
   <si>
     <t xml:space="preserve">10.2074785232544</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">10.0481939315796</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99509906768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0216464996338</t>
+    <t xml:space="preserve">9.9951000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0216455459595</t>
   </si>
   <si>
     <t xml:space="preserve">10.0813779830933</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">10.161021232605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1477460861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.227388381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543827056885</t>
+    <t xml:space="preserve">10.1477470397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2273893356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543836593628</t>
   </si>
   <si>
     <t xml:space="preserve">10.1211986541748</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">9.88227272033691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4065856933594</t>
+    <t xml:space="preserve">10.3999481201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4065837860107</t>
   </si>
   <si>
     <t xml:space="preserve">10.5127735137939</t>
@@ -1187,25 +1187,25 @@
     <t xml:space="preserve">10.4862270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7317905426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7450647354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6388740539551</t>
+    <t xml:space="preserve">10.7317895889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6388750076294</t>
   </si>
   <si>
     <t xml:space="preserve">10.7517004013062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7649736404419</t>
+    <t xml:space="preserve">10.7649745941162</t>
   </si>
   <si>
     <t xml:space="preserve">10.6090068817139</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5990533828735</t>
+    <t xml:space="preserve">10.5990514755249</t>
   </si>
   <si>
     <t xml:space="preserve">10.5824613571167</t>
@@ -1214,16 +1214,16 @@
     <t xml:space="preserve">10.4198579788208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1875677108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2904386520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.237343788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1975231170654</t>
+    <t xml:space="preserve">10.1875686645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2904396057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2373447418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1975240707397</t>
   </si>
   <si>
     <t xml:space="preserve">10.2340259552002</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">9.76944637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0647859573364</t>
+    <t xml:space="preserve">10.0647878646851</t>
   </si>
   <si>
     <t xml:space="preserve">10.2771644592285</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">10.1643390655518</t>
   </si>
   <si>
-    <t xml:space="preserve">10.436450958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4132194519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3534908294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3700828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3966283798218</t>
+    <t xml:space="preserve">10.4364500045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4132204055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3534898757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.370080947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3966274261475</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5957336425781</t>
+    <t xml:space="preserve">10.5957345962524</t>
   </si>
   <si>
     <t xml:space="preserve">10.7550191879272</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">10.735107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7882022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8811187744141</t>
+    <t xml:space="preserve">10.7882032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8811197280884</t>
   </si>
   <si>
     <t xml:space="preserve">10.9806709289551</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">11.2262353897095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3191509246826</t>
+    <t xml:space="preserve">11.3191499710083</t>
   </si>
   <si>
     <t xml:space="preserve">11.0868616104126</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">11.0370845794678</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1100902557373</t>
+    <t xml:space="preserve">11.1100912094116</t>
   </si>
   <si>
     <t xml:space="preserve">11.1665048599243</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1631841659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1366386413574</t>
+    <t xml:space="preserve">11.1631851196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1366376876831</t>
   </si>
   <si>
     <t xml:space="preserve">10.9773540496826</t>
@@ -1316,31 +1316,31 @@
     <t xml:space="preserve">10.990626335144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8877553939819</t>
+    <t xml:space="preserve">10.8877563476562</t>
   </si>
   <si>
     <t xml:space="preserve">10.9508056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9574432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7384262084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7749300003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6986064910889</t>
+    <t xml:space="preserve">10.9574422836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7384271621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7749290466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6986055374146</t>
   </si>
   <si>
     <t xml:space="preserve">10.7266311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6915988922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565486907959</t>
+    <t xml:space="preserve">10.6915998458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5654859542847</t>
   </si>
   <si>
     <t xml:space="preserve">10.4428758621216</t>
@@ -1349,22 +1349,22 @@
     <t xml:space="preserve">10.4218578338623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2607126235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90339088439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96294593811035</t>
+    <t xml:space="preserve">10.2607135772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90339183807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96294498443604</t>
   </si>
   <si>
     <t xml:space="preserve">10.1941528320312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3062534332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2922410964966</t>
+    <t xml:space="preserve">10.3062543869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2922401428223</t>
   </si>
   <si>
     <t xml:space="preserve">10.068039894104</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">10.0925617218018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92791366577148</t>
+    <t xml:space="preserve">9.92791271209717</t>
   </si>
   <si>
     <t xml:space="preserve">10.218674659729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1696310043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2011594772339</t>
+    <t xml:space="preserve">10.1696319580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2011585235596</t>
   </si>
   <si>
     <t xml:space="preserve">10.323769569397</t>
@@ -1391,46 +1391,46 @@
     <t xml:space="preserve">10.2256803512573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1801414489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2502031326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1135807037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1871452331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0119895935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.029504776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93141746520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92440986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.022500038147</t>
+    <t xml:space="preserve">10.1801404953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2502021789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.113579750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1871461868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0119886398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93141651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92441082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0224990844727</t>
   </si>
   <si>
     <t xml:space="preserve">10.0014791488647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2291841506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906509399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451082229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0645351409912</t>
+    <t xml:space="preserve">10.2291851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451091766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0645360946655</t>
   </si>
   <si>
     <t xml:space="preserve">10.0750455856323</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">10.120587348938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2712211608887</t>
+    <t xml:space="preserve">10.271222114563</t>
   </si>
   <si>
     <t xml:space="preserve">10.2782287597656</t>
@@ -1448,34 +1448,34 @@
     <t xml:space="preserve">10.2361898422241</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1661291122437</t>
+    <t xml:space="preserve">10.1661281585693</t>
   </si>
   <si>
     <t xml:space="preserve">10.3132600784302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3272733688354</t>
+    <t xml:space="preserve">10.3272724151611</t>
   </si>
   <si>
     <t xml:space="preserve">10.3482913970947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3973350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4779062271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6495609283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5444669723511</t>
+    <t xml:space="preserve">10.3973360061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4779071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.649561882019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5444679260254</t>
   </si>
   <si>
     <t xml:space="preserve">10.3798189163208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4673976898193</t>
+    <t xml:space="preserve">10.467396736145</t>
   </si>
   <si>
     <t xml:space="preserve">10.4288635253906</t>
@@ -1502,28 +1502,28 @@
     <t xml:space="preserve">10.2747249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3517942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.407844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3447875976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0505237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1836423873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3623037338257</t>
+    <t xml:space="preserve">10.3517932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4078435897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3447885513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0505228042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1836433410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3623046875</t>
   </si>
   <si>
     <t xml:space="preserve">10.3868255615234</t>
   </si>
   <si>
-    <t xml:space="preserve">10.369309425354</t>
+    <t xml:space="preserve">10.3693103790283</t>
   </si>
   <si>
     <t xml:space="preserve">10.5970153808594</t>
@@ -1532,10 +1532,10 @@
     <t xml:space="preserve">10.5339584350586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5199460983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5900068283081</t>
+    <t xml:space="preserve">10.5199451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5900077819824</t>
   </si>
   <si>
     <t xml:space="preserve">10.6075239181519</t>
@@ -1544,16 +1544,16 @@
     <t xml:space="preserve">10.6180334091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7371397018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8597497940063</t>
+    <t xml:space="preserve">10.7371406555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8597507476807</t>
   </si>
   <si>
     <t xml:space="preserve">10.8772668838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.814208984375</t>
+    <t xml:space="preserve">10.8142108917236</t>
   </si>
   <si>
     <t xml:space="preserve">10.4253616333008</t>
@@ -1562,34 +1562,34 @@
     <t xml:space="preserve">10.3097562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3938322067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.355297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1240901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1065740585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0049829483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90689563751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0260009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97345447540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81581401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84383869171143</t>
+    <t xml:space="preserve">10.3938312530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3552980422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1240882873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.106575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0049839019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90689468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0260019302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97345542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8158130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84383773803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.81231021881104</t>
@@ -1598,19 +1598,19 @@
     <t xml:space="preserve">9.68619632720947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63364887237549</t>
+    <t xml:space="preserve">9.6336498260498</t>
   </si>
   <si>
     <t xml:space="preserve">9.84033489227295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73173809051514</t>
+    <t xml:space="preserve">9.73173713684082</t>
   </si>
   <si>
     <t xml:space="preserve">9.94192600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0785484313965</t>
+    <t xml:space="preserve">10.0785493850708</t>
   </si>
   <si>
     <t xml:space="preserve">10.0365114212036</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">10.0715427398682</t>
   </si>
   <si>
-    <t xml:space="preserve">10.082052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0470199584961</t>
+    <t xml:space="preserve">10.0820531845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0470209121704</t>
   </si>
   <si>
     <t xml:space="preserve">9.98396396636963</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">9.92090797424316</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0084867477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96644878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98746776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2396926879883</t>
+    <t xml:space="preserve">10.0084857940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9664478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98746681213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2396936416626</t>
   </si>
   <si>
     <t xml:space="preserve">10.2992467880249</t>
@@ -1652,22 +1652,22 @@
     <t xml:space="preserve">10.3377819061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4323654174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5164422988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4008369445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98045921325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0995683670044</t>
+    <t xml:space="preserve">10.4323663711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5164413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4008388519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98046112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0995674133301</t>
   </si>
   <si>
     <t xml:space="preserve">10.1626243591309</t>
@@ -1676,16 +1676,16 @@
     <t xml:space="preserve">10.3202648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2817325592041</t>
+    <t xml:space="preserve">10.2817316055298</t>
   </si>
   <si>
     <t xml:space="preserve">10.3763160705566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4498825073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.474404335022</t>
+    <t xml:space="preserve">10.4498834609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4744052886963</t>
   </si>
   <si>
     <t xml:space="preserve">10.4954233169556</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">10.7686681747437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7861843109131</t>
+    <t xml:space="preserve">10.7861852645874</t>
   </si>
   <si>
     <t xml:space="preserve">10.7301340103149</t>
@@ -1709,73 +1709,73 @@
     <t xml:space="preserve">10.754656791687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.828221321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8212146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7161226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6355485916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7336368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5619821548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6425561904907</t>
+    <t xml:space="preserve">10.8282222747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8212156295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.716121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6355495452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7336378097534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024290084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5619831085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6425552368164</t>
   </si>
   <si>
     <t xml:space="preserve">10.7231283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.625039100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6670780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6635751724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7126178741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8247194290161</t>
+    <t xml:space="preserve">10.6250410079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6670770645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6635732650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7126188278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8247175216675</t>
   </si>
   <si>
     <t xml:space="preserve">10.8737621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8807687759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9963731765747</t>
+    <t xml:space="preserve">10.8807697296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9963722229004</t>
   </si>
   <si>
     <t xml:space="preserve">11.0629329681396</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1294927597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1224870681763</t>
+    <t xml:space="preserve">11.1294937133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.122486114502</t>
   </si>
   <si>
     <t xml:space="preserve">11.1995544433594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0664348602295</t>
+    <t xml:space="preserve">11.0664367675781</t>
   </si>
   <si>
     <t xml:space="preserve">11.0173921585083</t>
@@ -1784,37 +1784,37 @@
     <t xml:space="preserve">11.0699396133423</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0454177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0769462585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2135667800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.448278427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5463666915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5323524475098</t>
+    <t xml:space="preserve">11.0454187393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0769453048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2135677337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4482793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5463676452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5323534011841</t>
   </si>
   <si>
     <t xml:space="preserve">11.5043287277222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5428647994995</t>
+    <t xml:space="preserve">11.5428638458252</t>
   </si>
   <si>
     <t xml:space="preserve">11.4552850723267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4412727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4798078536987</t>
+    <t xml:space="preserve">11.4412717819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4798059463501</t>
   </si>
   <si>
     <t xml:space="preserve">11.5603790283203</t>
@@ -1823,61 +1823,61 @@
     <t xml:space="preserve">11.6829891204834</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6549644470215</t>
+    <t xml:space="preserve">11.6549634933472</t>
   </si>
   <si>
     <t xml:space="preserve">11.7110137939453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.704008102417</t>
+    <t xml:space="preserve">11.7040090560913</t>
   </si>
   <si>
     <t xml:space="preserve">11.651460647583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6970024108887</t>
+    <t xml:space="preserve">11.6970014572144</t>
   </si>
   <si>
     <t xml:space="preserve">11.6794862747192</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7075099945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.781078338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8441352844238</t>
+    <t xml:space="preserve">11.7075109481812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7810773849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8441343307495</t>
   </si>
   <si>
     <t xml:space="preserve">11.9106941223145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0508213043213</t>
+    <t xml:space="preserve">12.050820350647</t>
   </si>
   <si>
     <t xml:space="preserve">11.9422235488892</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9176998138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9527311325073</t>
+    <t xml:space="preserve">11.9177007675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9527320861816</t>
   </si>
   <si>
     <t xml:space="preserve">12.0788450241089</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0473146438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208810806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1173801422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278877258301</t>
+    <t xml:space="preserve">12.0473155975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208829879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1173782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278886795044</t>
   </si>
   <si>
     <t xml:space="preserve">12.0192918777466</t>
@@ -1889,19 +1889,19 @@
     <t xml:space="preserve">11.9597368240356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.809103012085</t>
+    <t xml:space="preserve">11.8091020584106</t>
   </si>
   <si>
     <t xml:space="preserve">11.8511409759521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9036874771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017747879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9141960144043</t>
+    <t xml:space="preserve">11.9036884307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017757415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9141969680786</t>
   </si>
   <si>
     <t xml:space="preserve">12.0584535598755</t>
@@ -1910,49 +1910,49 @@
     <t xml:space="preserve">12.0806474685669</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0547542572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8032293319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0399599075317</t>
+    <t xml:space="preserve">12.0547552108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8032302856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0399589538574</t>
   </si>
   <si>
     <t xml:space="preserve">11.9031000137329</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8180255889893</t>
+    <t xml:space="preserve">11.8180246353149</t>
   </si>
   <si>
     <t xml:space="preserve">11.6922626495361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.758843421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6256818771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5997905731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7551441192627</t>
+    <t xml:space="preserve">11.7588424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6256809234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5997896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7551431655884</t>
   </si>
   <si>
     <t xml:space="preserve">11.658971786499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6996583938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7292518615723</t>
+    <t xml:space="preserve">11.6996593475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7292499542236</t>
   </si>
   <si>
     <t xml:space="preserve">11.821722984314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9437885284424</t>
+    <t xml:space="preserve">11.9437875747681</t>
   </si>
   <si>
     <t xml:space="preserve">11.917896270752</t>
@@ -1961,13 +1961,13 @@
     <t xml:space="preserve">11.9696807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">11.93639087677</t>
+    <t xml:space="preserve">11.9363899230957</t>
   </si>
   <si>
     <t xml:space="preserve">12.010368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2470998764038</t>
+    <t xml:space="preserve">12.2470989227295</t>
   </si>
   <si>
     <t xml:space="preserve">12.3173780441284</t>
@@ -1997,19 +1997,19 @@
     <t xml:space="preserve">12.6243886947632</t>
   </si>
   <si>
-    <t xml:space="preserve">12.650279045105</t>
+    <t xml:space="preserve">12.6502799987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.5873975753784</t>
   </si>
   <si>
-    <t xml:space="preserve">12.661376953125</t>
+    <t xml:space="preserve">12.6613779067993</t>
   </si>
   <si>
     <t xml:space="preserve">12.6983671188354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7316551208496</t>
+    <t xml:space="preserve">12.7316560745239</t>
   </si>
   <si>
     <t xml:space="preserve">12.7279586791992</t>
@@ -2021,19 +2021,19 @@
     <t xml:space="preserve">12.7020645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6354837417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5023231506348</t>
+    <t xml:space="preserve">12.6354846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5023221969604</t>
   </si>
   <si>
     <t xml:space="preserve">12.5393142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5245180130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5726022720337</t>
+    <t xml:space="preserve">12.5245170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.572603225708</t>
   </si>
   <si>
     <t xml:space="preserve">12.48752784729</t>
@@ -2042,28 +2042,28 @@
     <t xml:space="preserve">12.5097217559814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3617639541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4579381942749</t>
+    <t xml:space="preserve">12.3617649078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4579372406006</t>
   </si>
   <si>
     <t xml:space="preserve">12.469033241272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1620235443115</t>
+    <t xml:space="preserve">12.1620244979858</t>
   </si>
   <si>
     <t xml:space="preserve">12.0843448638916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0658521652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1583242416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8291206359863</t>
+    <t xml:space="preserve">12.0658512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1583251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8291215896606</t>
   </si>
   <si>
     <t xml:space="preserve">11.8661117553711</t>
@@ -2072,16 +2072,16 @@
     <t xml:space="preserve">11.9326906204224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7773361206055</t>
+    <t xml:space="preserve">11.7773370742798</t>
   </si>
   <si>
     <t xml:space="preserve">11.9659805297852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9992713928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1139364242554</t>
+    <t xml:space="preserve">11.9992723464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1139373779297</t>
   </si>
   <si>
     <t xml:space="preserve">12.0732498168945</t>
@@ -2096,19 +2096,19 @@
     <t xml:space="preserve">12.1546268463135</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0325613021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1472272872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1842174530029</t>
+    <t xml:space="preserve">12.0325603485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1472282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1842164993286</t>
   </si>
   <si>
     <t xml:space="preserve">12.210108757019</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2397012710571</t>
+    <t xml:space="preserve">12.2397003173828</t>
   </si>
   <si>
     <t xml:space="preserve">12.4542379379272</t>
@@ -2117,58 +2117,58 @@
     <t xml:space="preserve">12.6095933914185</t>
   </si>
   <si>
-    <t xml:space="preserve">12.653980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7242603302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7057647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8278274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9461917877197</t>
+    <t xml:space="preserve">12.6539793014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7242593765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7057628631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8278284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.946192741394</t>
   </si>
   <si>
     <t xml:space="preserve">12.9276990890503</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8537197113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8167324066162</t>
+    <t xml:space="preserve">12.853720664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8167333602905</t>
   </si>
   <si>
     <t xml:space="preserve">13.2310104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2014188766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2495050430298</t>
+    <t xml:space="preserve">13.2014169692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2495040893555</t>
   </si>
   <si>
     <t xml:space="preserve">13.2162132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2864923477173</t>
+    <t xml:space="preserve">13.2864933013916</t>
   </si>
   <si>
     <t xml:space="preserve">13.2421064376831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2125158309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1533327102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.123740196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9055042266846</t>
+    <t xml:space="preserve">13.2125148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1533317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1237392425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9055051803589</t>
   </si>
   <si>
     <t xml:space="preserve">12.9757852554321</t>
@@ -2177,25 +2177,25 @@
     <t xml:space="preserve">13.0571613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1459350585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1274404525757</t>
+    <t xml:space="preserve">13.1459341049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.12744140625</t>
   </si>
   <si>
     <t xml:space="preserve">13.1903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2199125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3641691207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2901926040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.393759727478</t>
+    <t xml:space="preserve">13.219913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3641710281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2901906967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3937606811523</t>
   </si>
   <si>
     <t xml:space="preserve">13.3974609375</t>
@@ -2210,19 +2210,19 @@
     <t xml:space="preserve">13.5935029983521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5787048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6045989990234</t>
+    <t xml:space="preserve">13.5787057876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6045999526978</t>
   </si>
   <si>
     <t xml:space="preserve">13.6119966506958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6082992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.586106300354</t>
+    <t xml:space="preserve">13.6083002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5861053466797</t>
   </si>
   <si>
     <t xml:space="preserve">13.4899339675903</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">13.4455451965332</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6859750747681</t>
+    <t xml:space="preserve">13.6859760284424</t>
   </si>
   <si>
     <t xml:space="preserve">13.7525568008423</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">13.7562532424927</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2260160446167</t>
+    <t xml:space="preserve">14.2260150909424</t>
   </si>
   <si>
     <t xml:space="preserve">14.1890287399292</t>
@@ -2249,16 +2249,16 @@
     <t xml:space="preserve">14.1964263916016</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4257593154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3036956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1816291809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928554534912</t>
+    <t xml:space="preserve">14.4257583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3036937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1816301345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928544998169</t>
   </si>
   <si>
     <t xml:space="preserve">13.8339319229126</t>
@@ -2270,10 +2270,10 @@
     <t xml:space="preserve">13.8006420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7155666351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8265361785889</t>
+    <t xml:space="preserve">13.7155675888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8265352249146</t>
   </si>
   <si>
     <t xml:space="preserve">13.8302326202393</t>
@@ -2285,34 +2285,34 @@
     <t xml:space="preserve">13.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5158271789551</t>
+    <t xml:space="preserve">13.5158281326294</t>
   </si>
   <si>
     <t xml:space="preserve">13.493634223938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4714384078979</t>
+    <t xml:space="preserve">13.4714393615723</t>
   </si>
   <si>
     <t xml:space="preserve">13.478835105896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5084285736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824069976807</t>
+    <t xml:space="preserve">13.5084276199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.582407951355</t>
   </si>
   <si>
     <t xml:space="preserve">13.5676107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6748790740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6933727264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7414608001709</t>
+    <t xml:space="preserve">13.674880027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6933736801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7414598464966</t>
   </si>
   <si>
     <t xml:space="preserve">13.682276725769</t>
@@ -2321,28 +2321,28 @@
     <t xml:space="preserve">14.037371635437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8191366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599544525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6230936050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5232248306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.663782119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6341915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4640417098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5343208312988</t>
+    <t xml:space="preserve">13.8191375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.759955406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6230945587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5232238769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6637811660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6341905593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4640426635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5343198776245</t>
   </si>
   <si>
     <t xml:space="preserve">13.5417184829712</t>
@@ -2354,25 +2354,25 @@
     <t xml:space="preserve">13.4159555435181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2679977416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4196529388428</t>
+    <t xml:space="preserve">13.2679967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4196538925171</t>
   </si>
   <si>
     <t xml:space="preserve">13.1089448928833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.497332572937</t>
+    <t xml:space="preserve">13.4973316192627</t>
   </si>
   <si>
     <t xml:space="preserve">13.2347087860107</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0164737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0830516815186</t>
+    <t xml:space="preserve">13.0164728164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0830526351929</t>
   </si>
   <si>
     <t xml:space="preserve">13.2753963470459</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">13.5565147399902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6415891647339</t>
+    <t xml:space="preserve">13.6415882110596</t>
   </si>
   <si>
     <t xml:space="preserve">13.8487272262573</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">13.9670925140381</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8981075286865</t>
+    <t xml:space="preserve">12.8981056213379</t>
   </si>
   <si>
     <t xml:space="preserve">12.8241281509399</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">12.7723436355591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.028862953186</t>
+    <t xml:space="preserve">12.0288619995117</t>
   </si>
   <si>
     <t xml:space="preserve">11.8883037567139</t>
@@ -2417,28 +2417,28 @@
     <t xml:space="preserve">11.274284362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1794080734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0240526199341</t>
+    <t xml:space="preserve">10.1794090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0240535736084</t>
   </si>
   <si>
     <t xml:space="preserve">8.72573471069336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92917537689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35584163665771</t>
+    <t xml:space="preserve">8.92917442321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35584259033203</t>
   </si>
   <si>
     <t xml:space="preserve">8.02663993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68264102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94156360626221</t>
+    <t xml:space="preserve">7.68264198303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94156455993652</t>
   </si>
   <si>
     <t xml:space="preserve">8.05623149871826</t>
@@ -2453,73 +2453,73 @@
     <t xml:space="preserve">9.21029186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36564540863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15480804443359</t>
+    <t xml:space="preserve">9.36564636230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15480709075928</t>
   </si>
   <si>
     <t xml:space="preserve">9.14740943908691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18070030212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94766998291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12151718139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01424884796143</t>
+    <t xml:space="preserve">9.18069934844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94766807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1215181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01424980163574</t>
   </si>
   <si>
     <t xml:space="preserve">9.28057098388672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45811939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52100086212158</t>
+    <t xml:space="preserve">9.4581184387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52099990844727</t>
   </si>
   <si>
     <t xml:space="preserve">9.71704292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32125949859619</t>
+    <t xml:space="preserve">9.32126045227051</t>
   </si>
   <si>
     <t xml:space="preserve">9.16590595245361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2694730758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9994535446167</t>
+    <t xml:space="preserve">9.26947402954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99945259094238</t>
   </si>
   <si>
     <t xml:space="preserve">9.2213888168335</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15110778808594</t>
+    <t xml:space="preserve">9.15110874176025</t>
   </si>
   <si>
     <t xml:space="preserve">9.42852687835693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59497833251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83910655975342</t>
+    <t xml:space="preserve">9.59497928619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83910751342773</t>
   </si>
   <si>
     <t xml:space="preserve">9.62826919555664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39523696899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5690860748291</t>
+    <t xml:space="preserve">9.39523792266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56908702850342</t>
   </si>
   <si>
     <t xml:space="preserve">9.42113018035889</t>
@@ -2540,13 +2540,13 @@
     <t xml:space="preserve">9.29166889190674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.177001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56517887115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39567947387695</t>
+    <t xml:space="preserve">9.17700099945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5651798248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39567852020264</t>
   </si>
   <si>
     <t xml:space="preserve">9.44575786590576</t>
@@ -2561,10 +2561,10 @@
     <t xml:space="preserve">9.34559917449951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60370254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80016803741455</t>
+    <t xml:space="preserve">9.6037015914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80016708374023</t>
   </si>
   <si>
     <t xml:space="preserve">9.84254169464111</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">9.61911010742188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93114471435547</t>
+    <t xml:space="preserve">9.93114566802979</t>
   </si>
   <si>
     <t xml:space="preserve">10.2316207885742</t>
@@ -2582,19 +2582,19 @@
     <t xml:space="preserve">10.7439727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7902002334595</t>
+    <t xml:space="preserve">10.7902011871338</t>
   </si>
   <si>
     <t xml:space="preserve">11.0829725265503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.109938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.990517616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7632350921631</t>
+    <t xml:space="preserve">11.1099376678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9905185699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7632341384888</t>
   </si>
   <si>
     <t xml:space="preserve">10.347188949585</t>
@@ -2603,31 +2603,31 @@
     <t xml:space="preserve">10.343337059021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3279266357422</t>
+    <t xml:space="preserve">10.3279275894165</t>
   </si>
   <si>
     <t xml:space="preserve">10.559063911438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4820175170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3510417938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4897232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5012807846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.220064163208</t>
+    <t xml:space="preserve">10.4820184707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3510427474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4897222518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5012798309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2200632095337</t>
   </si>
   <si>
     <t xml:space="preserve">10.2470302581787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3394832611084</t>
+    <t xml:space="preserve">10.3394842147827</t>
   </si>
   <si>
     <t xml:space="preserve">10.3780088424683</t>
@@ -2642,25 +2642,25 @@
     <t xml:space="preserve">10.589882850647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6977462768555</t>
+    <t xml:space="preserve">10.6977453231812</t>
   </si>
   <si>
     <t xml:space="preserve">10.5975866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3202238082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3972682952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5089845657349</t>
+    <t xml:space="preserve">10.3202228546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3972692489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5089836120605</t>
   </si>
   <si>
     <t xml:space="preserve">10.5629167556763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6438131332397</t>
+    <t xml:space="preserve">10.6438140869141</t>
   </si>
   <si>
     <t xml:space="preserve">10.647665977478</t>
@@ -2669,34 +2669,34 @@
     <t xml:space="preserve">10.5475063323975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6168479919434</t>
+    <t xml:space="preserve">10.616847038269</t>
   </si>
   <si>
     <t xml:space="preserve">10.770938873291</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7170076370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4704627990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4126777648926</t>
+    <t xml:space="preserve">10.7170066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4704618453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4126787185669</t>
   </si>
   <si>
     <t xml:space="preserve">10.4011211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86950778961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75393962860107</t>
+    <t xml:space="preserve">9.86950874328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75394058227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.81172466278076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96581363677979</t>
+    <t xml:space="preserve">9.96581554412842</t>
   </si>
   <si>
     <t xml:space="preserve">10.0428600311279</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">10.2046556472778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1468706130981</t>
+    <t xml:space="preserve">10.1468715667725</t>
   </si>
   <si>
     <t xml:space="preserve">10.1006441116333</t>
@@ -2723,16 +2723,16 @@
     <t xml:space="preserve">10.0390071868896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96966743469238</t>
+    <t xml:space="preserve">9.96966648101807</t>
   </si>
   <si>
     <t xml:space="preserve">10.1815423965454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2393255233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2008018493652</t>
+    <t xml:space="preserve">10.2393245697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2008028030396</t>
   </si>
   <si>
     <t xml:space="preserve">10.0197458267212</t>
@@ -2741,16 +2741,16 @@
     <t xml:space="preserve">10.0351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.031304359436</t>
+    <t xml:space="preserve">10.0313034057617</t>
   </si>
   <si>
     <t xml:space="preserve">9.98507690429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87721347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77320098876953</t>
+    <t xml:space="preserve">9.87721252441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77320194244385</t>
   </si>
   <si>
     <t xml:space="preserve">9.97737216949463</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">9.12602043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07594013214111</t>
+    <t xml:space="preserve">9.07594108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.03741836547852</t>
@@ -2786,22 +2786,22 @@
     <t xml:space="preserve">8.89873695373535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24929332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19536209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26470184326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14142894744873</t>
+    <t xml:space="preserve">9.24929237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19536113739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26470279693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14142990112305</t>
   </si>
   <si>
     <t xml:space="preserve">9.29937171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5343599319458</t>
+    <t xml:space="preserve">9.53436088562012</t>
   </si>
   <si>
     <t xml:space="preserve">9.50354290008545</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">9.63837242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61525917053223</t>
+    <t xml:space="preserve">9.61525726318359</t>
   </si>
   <si>
     <t xml:space="preserve">9.51510047912598</t>
@@ -2825,22 +2825,22 @@
     <t xml:space="preserve">9.17995166778564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35330390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4033842086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42649745941162</t>
+    <t xml:space="preserve">9.35330486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40338325500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42649555206299</t>
   </si>
   <si>
     <t xml:space="preserve">9.19150924682617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20306587219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14913368225098</t>
+    <t xml:space="preserve">9.20306491851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14913463592529</t>
   </si>
   <si>
     <t xml:space="preserve">8.75234985351562</t>
@@ -2852,34 +2852,34 @@
     <t xml:space="preserve">8.86791896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09520244598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27240562438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39953136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5382137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1391658782959</t>
+    <t xml:space="preserve">9.0952033996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27240657806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3995304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53821468353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1391668319702</t>
   </si>
   <si>
     <t xml:space="preserve">10.3857116699219</t>
   </si>
   <si>
-    <t xml:space="preserve">10.370304107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5051317214966</t>
+    <t xml:space="preserve">10.3703031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5051326751709</t>
   </si>
   <si>
     <t xml:space="preserve">10.7593812942505</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8865060806274</t>
+    <t xml:space="preserve">10.8865051269531</t>
   </si>
   <si>
     <t xml:space="preserve">10.9635515213013</t>
@@ -2900,10 +2900,10 @@
     <t xml:space="preserve">11.1677227020264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1484613418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0328912734985</t>
+    <t xml:space="preserve">11.1484603881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0328922271729</t>
   </si>
   <si>
     <t xml:space="preserve">11.1137895584106</t>
@@ -2921,31 +2921,31 @@
     <t xml:space="preserve">11.0367450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0598583221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8518371582031</t>
+    <t xml:space="preserve">11.0598592758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8518362045288</t>
   </si>
   <si>
     <t xml:space="preserve">10.986665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0020742416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136308670044</t>
+    <t xml:space="preserve">11.0020751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136318206787</t>
   </si>
   <si>
     <t xml:space="preserve">10.7015972137451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633947372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0675630569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0290393829346</t>
+    <t xml:space="preserve">10.863392829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0675621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0290403366089</t>
   </si>
   <si>
     <t xml:space="preserve">10.7208585739136</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">11.1561651229858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2062435150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0945291519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1407566070557</t>
+    <t xml:space="preserve">11.206244468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0945281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1407556533813</t>
   </si>
   <si>
     <t xml:space="preserve">11.1754264831543</t>
@@ -2969,16 +2969,16 @@
     <t xml:space="preserve">11.4104156494141</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2909955978394</t>
+    <t xml:space="preserve">11.290994644165</t>
   </si>
   <si>
     <t xml:space="preserve">11.1792783737183</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0983810424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8556890487671</t>
+    <t xml:space="preserve">11.0983800888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8556880950928</t>
   </si>
   <si>
     <t xml:space="preserve">10.982813835144</t>
@@ -2987,43 +2987,43 @@
     <t xml:space="preserve">11.1523132324219</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5182781219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8803911209106</t>
+    <t xml:space="preserve">11.5182790756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.880392074585</t>
   </si>
   <si>
     <t xml:space="preserve">11.9689931869507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1115283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1885719299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1423463821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0961179733276</t>
+    <t xml:space="preserve">12.1115274429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.188572883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1423454284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.096118927002</t>
   </si>
   <si>
     <t xml:space="preserve">12.0691528320312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1924247741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1346416473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0614471435547</t>
+    <t xml:space="preserve">12.1924257278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1346397399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0614490509033</t>
   </si>
   <si>
     <t xml:space="preserve">11.8880958557129</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0036640167236</t>
+    <t xml:space="preserve">12.0036649703979</t>
   </si>
   <si>
     <t xml:space="preserve">11.9728450775146</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">12.2001295089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9805507659912</t>
+    <t xml:space="preserve">11.9805498123169</t>
   </si>
   <si>
     <t xml:space="preserve">12.1962766647339</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">12.2309484481812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3503694534302</t>
+    <t xml:space="preserve">12.3503675460815</t>
   </si>
   <si>
     <t xml:space="preserve">12.3850393295288</t>
@@ -3059,19 +3059,19 @@
     <t xml:space="preserve">12.7124814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">12.735595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8049373626709</t>
+    <t xml:space="preserve">12.7355947494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8049354553223</t>
   </si>
   <si>
     <t xml:space="preserve">12.916651725769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0245170593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9705810546875</t>
+    <t xml:space="preserve">13.0245161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9705820083618</t>
   </si>
   <si>
     <t xml:space="preserve">13.012957572937</t>
@@ -3083,16 +3083,16 @@
     <t xml:space="preserve">12.9898452758789</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8896856307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9474687576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9436159133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9628782272339</t>
+    <t xml:space="preserve">12.889684677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9474697113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9436178207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9628791809082</t>
   </si>
   <si>
     <t xml:space="preserve">13.0399227142334</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">13.1439342498779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2055711746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1208209991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2017202377319</t>
+    <t xml:space="preserve">13.2055702209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1208229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2017183303833</t>
   </si>
   <si>
     <t xml:space="preserve">13.228684425354</t>
@@ -3119,19 +3119,19 @@
     <t xml:space="preserve">13.0707426071167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1516389846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1631946563721</t>
+    <t xml:space="preserve">13.1516408920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1631956100464</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1901626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2710599899292</t>
+    <t xml:space="preserve">13.1901636123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2710609436035</t>
   </si>
   <si>
     <t xml:space="preserve">12.9782867431641</t>
@@ -3143,25 +3143,25 @@
     <t xml:space="preserve">12.9282083511353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8550128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0977077484131</t>
+    <t xml:space="preserve">12.8550148010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0977087020874</t>
   </si>
   <si>
     <t xml:space="preserve">12.9744348526001</t>
   </si>
   <si>
-    <t xml:space="preserve">13.13623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2672071456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.382776260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5291604995728</t>
+    <t xml:space="preserve">13.1362295150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2672052383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3827753067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5291614532471</t>
   </si>
   <si>
     <t xml:space="preserve">13.413592338562</t>
@@ -3170,22 +3170,22 @@
     <t xml:space="preserve">13.4675245285034</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5137529373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5907974243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.594651222229</t>
+    <t xml:space="preserve">13.5137538909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5907983779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5946493148804</t>
   </si>
   <si>
     <t xml:space="preserve">13.6216154098511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4328556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4405584335327</t>
+    <t xml:space="preserve">13.4328546524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.440559387207</t>
   </si>
   <si>
     <t xml:space="preserve">13.6062068939209</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">13.8105039596558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6797523498535</t>
+    <t xml:space="preserve">13.6797542572021</t>
   </si>
   <si>
     <t xml:space="preserve">13.5326595306396</t>
@@ -3212,49 +3212,49 @@
     <t xml:space="preserve">13.8350200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8513631820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9616832733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0965213775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0760908126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0393180847168</t>
+    <t xml:space="preserve">13.8513641357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9616842269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0965204238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0760917663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0393171310425</t>
   </si>
   <si>
     <t xml:space="preserve">13.9943714141846</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0066289901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0148010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.027060508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0883483886719</t>
+    <t xml:space="preserve">14.006628036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0148019790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0270595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0883493423462</t>
   </si>
   <si>
     <t xml:space="preserve">13.8023309707642</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8391065597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.798246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044809341431</t>
+    <t xml:space="preserve">13.8391056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7982473373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6102933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044799804688</t>
   </si>
   <si>
     <t xml:space="preserve">13.6879253387451</t>
@@ -3263,22 +3263,22 @@
     <t xml:space="preserve">13.7369565963745</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8145923614502</t>
+    <t xml:space="preserve">13.8145914077759</t>
   </si>
   <si>
     <t xml:space="preserve">13.9453411102295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.89222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0107154846191</t>
+    <t xml:space="preserve">13.8922233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0107164382935</t>
   </si>
   <si>
     <t xml:space="preserve">13.7614727020264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5408306121826</t>
+    <t xml:space="preserve">13.5408315658569</t>
   </si>
   <si>
     <t xml:space="preserve">13.8963079452515</t>
@@ -3290,16 +3290,16 @@
     <t xml:space="preserve">13.8309335708618</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7287836074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.675669670105</t>
+    <t xml:space="preserve">13.7287845611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6756677627563</t>
   </si>
   <si>
     <t xml:space="preserve">13.2589015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3937377929688</t>
+    <t xml:space="preserve">13.3937368392944</t>
   </si>
   <si>
     <t xml:space="preserve">13.6838407516479</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">13.7206134796143</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6920108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.769645690918</t>
+    <t xml:space="preserve">13.6920099258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7696447372437</t>
   </si>
   <si>
     <t xml:space="preserve">13.6266355514526</t>
@@ -3320,22 +3320,22 @@
     <t xml:space="preserve">13.5449180603027</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5857782363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7941598892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8636226654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9167385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0515737533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.14963722229</t>
+    <t xml:space="preserve">13.5857772827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7941589355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.863621711731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9167404174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0515747070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1496381759644</t>
   </si>
   <si>
     <t xml:space="preserve">14.1986684799194</t>
@@ -3344,49 +3344,49 @@
     <t xml:space="preserve">14.1169500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">14.121036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9494256973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0188875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9984579086304</t>
+    <t xml:space="preserve">14.1210374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.949426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0188884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9984560012817</t>
   </si>
   <si>
     <t xml:space="preserve">13.9575986862183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9861993789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1128644943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1782398223877</t>
+    <t xml:space="preserve">13.9862003326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.112865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.178240776062</t>
   </si>
   <si>
     <t xml:space="preserve">14.1945838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1537246704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3294200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4315671920776</t>
+    <t xml:space="preserve">14.1537237167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.329418182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.431568145752</t>
   </si>
   <si>
     <t xml:space="preserve">14.501030921936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2436141967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.423394203186</t>
+    <t xml:space="preserve">14.2436151504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4233951568604</t>
   </si>
   <si>
     <t xml:space="preserve">14.3825359344482</t>
@@ -3395,16 +3395,16 @@
     <t xml:space="preserve">14.4765138626099</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6031799316406</t>
+    <t xml:space="preserve">14.6031789779663</t>
   </si>
   <si>
     <t xml:space="preserve">14.4519968032837</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2599601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6930685043335</t>
+    <t xml:space="preserve">14.2599582672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6930694580078</t>
   </si>
   <si>
     <t xml:space="preserve">14.8115615844727</t>
@@ -3416,13 +3416,13 @@
     <t xml:space="preserve">15.220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9137105941772</t>
+    <t xml:space="preserve">14.9137115478516</t>
   </si>
   <si>
     <t xml:space="preserve">15.0526313781738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0281162261963</t>
+    <t xml:space="preserve">15.0281171798706</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444612503052</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">15.1874694824219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3304748535156</t>
+    <t xml:space="preserve">15.3304767608643</t>
   </si>
   <si>
     <t xml:space="preserve">15.3590784072876</t>
@@ -3482,31 +3482,31 @@
     <t xml:space="preserve">15.7110118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7822189331055</t>
+    <t xml:space="preserve">15.7822179794312</t>
   </si>
   <si>
     <t xml:space="preserve">15.7905960083008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8827409744263</t>
+    <t xml:space="preserve">15.8827428817749</t>
   </si>
   <si>
     <t xml:space="preserve">15.8994951248169</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9790782928467</t>
+    <t xml:space="preserve">15.979076385498</t>
   </si>
   <si>
     <t xml:space="preserve">15.9120616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0042095184326</t>
+    <t xml:space="preserve">16.004207611084</t>
   </si>
   <si>
     <t xml:space="preserve">15.8953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036855697632</t>
+    <t xml:space="preserve">15.9036836624146</t>
   </si>
   <si>
     <t xml:space="preserve">15.9330053329468</t>
@@ -3527,16 +3527,16 @@
     <t xml:space="preserve">15.5811710357666</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3172969818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.413631439209</t>
+    <t xml:space="preserve">15.3172960281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4136295318604</t>
   </si>
   <si>
     <t xml:space="preserve">15.3885011672974</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3466167449951</t>
+    <t xml:space="preserve">15.3466148376465</t>
   </si>
   <si>
     <t xml:space="preserve">14.7937355041504</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">14.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8523740768433</t>
+    <t xml:space="preserve">14.8523731231689</t>
   </si>
   <si>
     <t xml:space="preserve">15.1874532699585</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">15.2377157211304</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5895471572876</t>
+    <t xml:space="preserve">15.5895490646362</t>
   </si>
   <si>
     <t xml:space="preserve">15.6649417877197</t>
@@ -3572,13 +3572,13 @@
     <t xml:space="preserve">15.4974021911621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4555158615112</t>
+    <t xml:space="preserve">15.4555177688599</t>
   </si>
   <si>
     <t xml:space="preserve">15.3047304153442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.405255317688</t>
+    <t xml:space="preserve">15.4052534103394</t>
   </si>
   <si>
     <t xml:space="preserve">15.6104907989502</t>
@@ -3599,19 +3599,19 @@
     <t xml:space="preserve">15.9204378128052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8282909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4680833816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5560388565063</t>
+    <t xml:space="preserve">15.8282928466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4680814743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.556040763855</t>
   </si>
   <si>
     <t xml:space="preserve">15.4638919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5727949142456</t>
+    <t xml:space="preserve">15.572793006897</t>
   </si>
   <si>
     <t xml:space="preserve">15.7026376724243</t>
@@ -3632,10 +3632,10 @@
     <t xml:space="preserve">15.6816930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8115386962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9905939102173</t>
+    <t xml:space="preserve">15.8115367889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9905958175659</t>
   </si>
   <si>
     <t xml:space="preserve">15.120436668396</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">15.6356229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3675565719604</t>
+    <t xml:space="preserve">15.3675584793091</t>
   </si>
   <si>
     <t xml:space="preserve">15.6230554580688</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">15.5979251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3759355545044</t>
+    <t xml:space="preserve">15.3759346008301</t>
   </si>
   <si>
     <t xml:space="preserve">15.8785533905029</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">15.1790771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2209615707397</t>
+    <t xml:space="preserve">15.2209596633911</t>
   </si>
   <si>
     <t xml:space="preserve">14.6303853988647</t>
@@ -3680,22 +3680,22 @@
     <t xml:space="preserve">14.9864053726196</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5214834213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4293365478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.366509437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5958271026611</t>
+    <t xml:space="preserve">14.5214824676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4293375015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3665103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5958280563354</t>
   </si>
   <si>
     <t xml:space="preserve">13.2900686264038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5497531890869</t>
+    <t xml:space="preserve">13.5497541427612</t>
   </si>
   <si>
     <t xml:space="preserve">14.2073469161987</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">14.0733156204224</t>
   </si>
   <si>
-    <t xml:space="preserve">14.383264541626</t>
+    <t xml:space="preserve">14.3832635879517</t>
   </si>
   <si>
     <t xml:space="preserve">14.7811698913574</t>
@@ -3728,10 +3728,10 @@
     <t xml:space="preserve">16.2680835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8712253570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5277690887451</t>
+    <t xml:space="preserve">16.871223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5277671813965</t>
   </si>
   <si>
     <t xml:space="preserve">16.854471206665</t>
@@ -3743,10 +3743,10 @@
     <t xml:space="preserve">17.6837921142578</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0052547454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298629760742</t>
+    <t xml:space="preserve">17.005256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298610687256</t>
   </si>
   <si>
     <t xml:space="preserve">16.7371921539307</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">16.2178211212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063034057617</t>
+    <t xml:space="preserve">16.4063014984131</t>
   </si>
   <si>
     <t xml:space="preserve">16.2848377227783</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">15.6398096084595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.426197052002</t>
+    <t xml:space="preserve">15.4261980056763</t>
   </si>
   <si>
     <t xml:space="preserve">15.1288146972656</t>
@@ -3791,7 +3791,7 @@
     <t xml:space="preserve">15.0366697311401</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3340501785278</t>
+    <t xml:space="preserve">15.3340511322021</t>
   </si>
   <si>
     <t xml:space="preserve">15.2460918426514</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">15.0701761245728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8565635681152</t>
+    <t xml:space="preserve">14.8565626144409</t>
   </si>
   <si>
     <t xml:space="preserve">14.6094427108765</t>
@@ -3809,13 +3809,13 @@
     <t xml:space="preserve">14.8356189727783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8775062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8021116256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9235792160034</t>
+    <t xml:space="preserve">14.8775043487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8021125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9235782623291</t>
   </si>
   <si>
     <t xml:space="preserve">15.0743646621704</t>
@@ -5166,6 +5166,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.6399993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6499996185303</t>
   </si>
 </sst>
 </file>
@@ -61199,7 +61202,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.649525463</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>2155983</v>
@@ -61220,6 +61223,32 @@
         <v>1717</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6498148148</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>4004615</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>23.7299995422363</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>23.3899993896484</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>23.7299995422363</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>23.6499996185303</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1720">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,28 +47,28 @@
     <t xml:space="preserve">9.70897769927979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52511787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50732612609863</t>
+    <t xml:space="preserve">9.52511882781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50732707977295</t>
   </si>
   <si>
     <t xml:space="preserve">9.40649890899658</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13960647583008</t>
+    <t xml:space="preserve">9.13960552215576</t>
   </si>
   <si>
     <t xml:space="preserve">9.27008724212646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45394706726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34125804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13367557525635</t>
+    <t xml:space="preserve">9.45394515991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34125995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13367462158203</t>
   </si>
   <si>
     <t xml:space="preserve">8.93795299530029</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">8.64733695983887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80747222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84898948669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66512870788574</t>
+    <t xml:space="preserve">8.80747318267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84898853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66512966156006</t>
   </si>
   <si>
     <t xml:space="preserve">8.39230442047119</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">8.279616355896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94155263900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17879199981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03644752502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73396968841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54417896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4611439704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25949096679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03411531448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74943065643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10528802871704</t>
+    <t xml:space="preserve">7.94155168533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17879009246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03644847869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73396873474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54417848587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114540100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25949287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0341157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74942970275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10528755187988</t>
   </si>
   <si>
     <t xml:space="preserve">6.50032997131348</t>
@@ -131,13 +131,13 @@
     <t xml:space="preserve">6.61301755905151</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87991142272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90363645553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06377124786377</t>
+    <t xml:space="preserve">6.87991094589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90363454818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06377029418945</t>
   </si>
   <si>
     <t xml:space="preserve">7.01632308959961</t>
@@ -146,40 +146,40 @@
     <t xml:space="preserve">6.94515132904053</t>
   </si>
   <si>
-    <t xml:space="preserve">7.194251537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18832015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25356245040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57383346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755659103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65686702728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77548456192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76955509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6924524307251</t>
+    <t xml:space="preserve">7.19425249099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18832111358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25356197357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57383441925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65686559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7754864692688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76955556869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69245338439941</t>
   </si>
   <si>
     <t xml:space="preserve">7.55603981018066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63314390182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69838380813599</t>
+    <t xml:space="preserve">7.63314294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69838285446167</t>
   </si>
   <si>
     <t xml:space="preserve">7.68652105331421</t>
@@ -191,64 +191,64 @@
     <t xml:space="preserve">8.17286014556885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12541198730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21437644958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23217010498047</t>
+    <t xml:space="preserve">8.125412940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21437740325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23216915130615</t>
   </si>
   <si>
     <t xml:space="preserve">8.09575748443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00086116790771</t>
+    <t xml:space="preserve">8.00086212158203</t>
   </si>
   <si>
     <t xml:space="preserve">7.90003490447998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85258817672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68058967590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74583148956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80514097213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72803783416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61534881591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5263843536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28321599960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30693912506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14680480957031</t>
+    <t xml:space="preserve">7.85258769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68058919906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74583196640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80514049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72803831100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61534976959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52638578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28321647644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30694055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">7.35438776016235</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44335174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46707534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75176095962524</t>
+    <t xml:space="preserve">7.44335222244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46707582473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75176191329956</t>
   </si>
   <si>
     <t xml:space="preserve">7.81700277328491</t>
@@ -260,121 +260,121 @@
     <t xml:space="preserve">7.8703818321228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92375946044922</t>
+    <t xml:space="preserve">7.9237585067749</t>
   </si>
   <si>
     <t xml:space="preserve">8.08389472961426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16692924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11948204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19065284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13727474212646</t>
+    <t xml:space="preserve">8.16693019866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11948108673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19065380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13727378845215</t>
   </si>
   <si>
     <t xml:space="preserve">8.10761833190918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89410543441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71024465560913</t>
+    <t xml:space="preserve">7.89410638809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71024513244629</t>
   </si>
   <si>
     <t xml:space="preserve">7.66872882843018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85851955413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38404226303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4730076789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3603196144104</t>
+    <t xml:space="preserve">7.85851860046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38404273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47300720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36031818389893</t>
   </si>
   <si>
     <t xml:space="preserve">7.41962766647339</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56197118759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63111591339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07112979888916</t>
+    <t xml:space="preserve">7.56197023391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63111639022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07113170623779</t>
   </si>
   <si>
     <t xml:space="preserve">8.18427848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24713802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2848539352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19056510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14656257629395</t>
+    <t xml:space="preserve">8.24713706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28485298156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19056415557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14656162261963</t>
   </si>
   <si>
     <t xml:space="preserve">8.09627532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86998081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85740947723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98941326141357</t>
+    <t xml:space="preserve">7.86998176574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85740900039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98941421508789</t>
   </si>
   <si>
     <t xml:space="preserve">8.1402759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10256195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73797845840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48653984069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27281808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29796266555786</t>
+    <t xml:space="preserve">8.10256004333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73797798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48653936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27281856536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2979621887207</t>
   </si>
   <si>
     <t xml:space="preserve">7.2162446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49911165237427</t>
+    <t xml:space="preserve">7.49911212921143</t>
   </si>
   <si>
     <t xml:space="preserve">7.7254056930542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86369657516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90769672393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86423397064209</t>
+    <t xml:space="preserve">7.86369562149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9076976776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86423349380493</t>
   </si>
   <si>
     <t xml:space="preserve">6.28278493881226</t>
@@ -383,19 +383,19 @@
     <t xml:space="preserve">6.38021612167358</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53107881546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63165521621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70708465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51850700378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39278841018677</t>
+    <t xml:space="preserve">6.53107929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63165378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70708513259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51850748062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39278888702393</t>
   </si>
   <si>
     <t xml:space="preserve">6.16963768005371</t>
@@ -407,187 +407,187 @@
     <t xml:space="preserve">6.66308403015137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71337175369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05281114578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98366498947144</t>
+    <t xml:space="preserve">6.71337080001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05281066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98366641998291</t>
   </si>
   <si>
     <t xml:space="preserve">7.1659574508667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09681272506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13452768325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04652452468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0653829574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97109317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10309934616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90823411941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40482187271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37339305877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08424091339111</t>
+    <t xml:space="preserve">7.09681224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13452911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04652547836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081382751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06538200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138042449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97109365463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10309743881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90823459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4048228263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3733925819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08424043655396</t>
   </si>
   <si>
     <t xml:space="preserve">7.36710786819458</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5179705619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60597276687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6122579574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65626049041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38596487045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18481636047363</t>
+    <t xml:space="preserve">7.51796913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60597372055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61225891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65625953674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18481588363647</t>
   </si>
   <si>
     <t xml:space="preserve">7.20367336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02766799926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34196472167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31682014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10938453674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03395175933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566278457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07166910171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24138927459717</t>
+    <t xml:space="preserve">7.02766752243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34196281433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31681966781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10938501358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03395318984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8956618309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07166814804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24138879776001</t>
   </si>
   <si>
     <t xml:space="preserve">7.29167604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23510217666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17853021621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27910423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46139669418335</t>
+    <t xml:space="preserve">7.23510265350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17852878570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27910470962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46139717102051</t>
   </si>
   <si>
     <t xml:space="preserve">7.56825637817383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98995113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91452026367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01509571075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09052705764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0402398109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8768048286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84537601470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85794639587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88937664031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8265175819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79508876800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77622938156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15338659286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14709854125977</t>
+    <t xml:space="preserve">6.98995161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91452074050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01509618759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09052610397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87680435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84537649154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8579478263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88937711715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82651710510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79508829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77622985839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05909585952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15338563919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14710092544556</t>
   </si>
   <si>
     <t xml:space="preserve">7.49282598495483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47396755218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50539684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59968662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58082866668701</t>
+    <t xml:space="preserve">7.47396850585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5053973197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59968709945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58082962036133</t>
   </si>
   <si>
     <t xml:space="preserve">7.64368772506714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62483072280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44882488250732</t>
+    <t xml:space="preserve">7.624831199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44882535934448</t>
   </si>
   <si>
     <t xml:space="preserve">7.39853763580322</t>
@@ -602,37 +602,37 @@
     <t xml:space="preserve">7.12824249267578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39225101470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37967967987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17224359512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11566972732544</t>
+    <t xml:space="preserve">7.39225196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37967920303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17224311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310628890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11567068099976</t>
   </si>
   <si>
     <t xml:space="preserve">7.75683546066284</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66883182525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06484508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65572261810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05173587799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8128719329834</t>
+    <t xml:space="preserve">7.66883230209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06484413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65572357177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05173683166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81287097930908</t>
   </si>
   <si>
     <t xml:space="preserve">8.83801460266113</t>
@@ -641,52 +641,52 @@
     <t xml:space="preserve">8.77515506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68715286254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90715980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92601776123047</t>
+    <t xml:space="preserve">8.68715190887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90715885162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92601585388184</t>
   </si>
   <si>
     <t xml:space="preserve">9.00773429870605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9511604309082</t>
+    <t xml:space="preserve">8.95116138458252</t>
   </si>
   <si>
     <t xml:space="preserve">8.96373271942139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03287696838379</t>
+    <t xml:space="preserve">9.03287887573242</t>
   </si>
   <si>
     <t xml:space="preserve">9.03916454315186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9197301864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8694429397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87573051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02030658721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08316421508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12716674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07059383392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08945083618164</t>
+    <t xml:space="preserve">8.91973114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86944580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87572956085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02030754089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08316516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12716960906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07059288024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08945178985596</t>
   </si>
   <si>
     <t xml:space="preserve">8.88830184936523</t>
@@ -695,52 +695,52 @@
     <t xml:space="preserve">8.85058689117432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74372577667236</t>
+    <t xml:space="preserve">8.74372482299805</t>
   </si>
   <si>
     <t xml:space="preserve">8.61172103881836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58657646179199</t>
+    <t xml:space="preserve">8.58657741546631</t>
   </si>
   <si>
     <t xml:space="preserve">8.51743316650391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62429332733154</t>
+    <t xml:space="preserve">8.62429237365723</t>
   </si>
   <si>
     <t xml:space="preserve">8.61800670623779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95744609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69289970397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78718948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82490539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68032836914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37231922149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26545715332031</t>
+    <t xml:space="preserve">8.95744705200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69290161132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78718852996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8249044418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68032932281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37231826782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26545810699463</t>
   </si>
   <si>
     <t xml:space="preserve">9.22774219512939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39117622375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41631889343262</t>
+    <t xml:space="preserve">9.39117527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41631984710693</t>
   </si>
   <si>
     <t xml:space="preserve">9.19631290435791</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">9.14602565765381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04544925689697</t>
+    <t xml:space="preserve">9.04545021057129</t>
   </si>
   <si>
     <t xml:space="preserve">9.11459541320801</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">9.28431510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43517875671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2591724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29060077667236</t>
+    <t xml:space="preserve">9.43517780303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25917053222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29060173034668</t>
   </si>
   <si>
     <t xml:space="preserve">9.34088802337646</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">9.12088108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02659034729004</t>
+    <t xml:space="preserve">9.02659225463867</t>
   </si>
   <si>
     <t xml:space="preserve">8.86315822601318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49857425689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63057899475098</t>
+    <t xml:space="preserve">8.49857521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63057708740234</t>
   </si>
   <si>
     <t xml:space="preserve">8.91344547271729</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">8.82544231414795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93230247497559</t>
+    <t xml:space="preserve">8.9323034286499</t>
   </si>
   <si>
     <t xml:space="preserve">9.16488361358643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17745494842529</t>
+    <t xml:space="preserve">9.17745399475098</t>
   </si>
   <si>
     <t xml:space="preserve">9.17116832733154</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">9.15859699249268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24660110473633</t>
+    <t xml:space="preserve">9.2465991973877</t>
   </si>
   <si>
     <t xml:space="preserve">9.36603164672852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18374156951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00144863128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97630500793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8317289352417</t>
+    <t xml:space="preserve">9.18373966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0014476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97630405426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83172988891602</t>
   </si>
   <si>
     <t xml:space="preserve">8.71858215332031</t>
@@ -839,31 +839,31 @@
     <t xml:space="preserve">9.13345336914062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25288581848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4288911819458</t>
+    <t xml:space="preserve">9.25288486480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42889213562012</t>
   </si>
   <si>
     <t xml:space="preserve">9.58604049682617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60489654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63632774353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61118316650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32831764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27174472808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42260456085205</t>
+    <t xml:space="preserve">9.60489749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63632678985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61118507385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3283166885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27174377441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42260646820068</t>
   </si>
   <si>
     <t xml:space="preserve">9.46032238006592</t>
@@ -872,115 +872,115 @@
     <t xml:space="preserve">9.5106086730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70307731628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73626232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57697772979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55043029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52388286590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33141326904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21195030212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32477760314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42432975769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19204044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13230991363525</t>
+    <t xml:space="preserve">9.7030782699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73626136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57697677612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55042934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52388381958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33141422271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21195220947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3247766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42432880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19203948974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13230895996094</t>
   </si>
   <si>
     <t xml:space="preserve">9.11239624023438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2716817855835</t>
+    <t xml:space="preserve">9.27168273925781</t>
   </si>
   <si>
     <t xml:space="preserve">9.33805179595947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43760395050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62343597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63007259368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56370449066162</t>
+    <t xml:space="preserve">9.43760299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62343502044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63007164001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5637035369873</t>
   </si>
   <si>
     <t xml:space="preserve">9.68316650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69644165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58361434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74953460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64998245239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61679840087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64334678649902</t>
+    <t xml:space="preserve">9.69643974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58361339569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74953556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64998340606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61679935455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64334583282471</t>
   </si>
   <si>
     <t xml:space="preserve">9.68980407714844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7296257019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78271961212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98846340179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95527744293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94863986968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0614681243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2141160964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2804832458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1012878417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97518920898438</t>
+    <t xml:space="preserve">9.72962474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7827205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98846244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95527839660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94864177703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.061466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2141151428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2804841995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344728469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1012887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97518825531006</t>
   </si>
   <si>
     <t xml:space="preserve">9.93536758422852</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">10.1742944717407</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1942052841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2207508087158</t>
+    <t xml:space="preserve">10.1942043304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2207517623901</t>
   </si>
   <si>
     <t xml:space="preserve">10.5061359405518</t>
@@ -1001,19 +1001,19 @@
     <t xml:space="preserve">10.5194110870361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5725049972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6720581054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6322383880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4928636550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4331312179565</t>
+    <t xml:space="preserve">10.5725059509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6720571517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6322364807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.492862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4331321716309</t>
   </si>
   <si>
     <t xml:space="preserve">10.2472991943359</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">10.2871208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269414901733</t>
+    <t xml:space="preserve">10.3269424438477</t>
   </si>
   <si>
     <t xml:space="preserve">10.2406625747681</t>
@@ -1031,61 +1031,61 @@
     <t xml:space="preserve">10.2937574386597</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2008419036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.127836227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1145629882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0946521759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1079263687134</t>
+    <t xml:space="preserve">10.2008399963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1278371810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1145620346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0946531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1079254150391</t>
   </si>
   <si>
     <t xml:space="preserve">10.0747413635254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94200325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92873191833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98182487487793</t>
+    <t xml:space="preserve">9.94200420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92873001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98182392120361</t>
   </si>
   <si>
     <t xml:space="preserve">10.0282831192017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0880136489868</t>
+    <t xml:space="preserve">10.0880155563354</t>
   </si>
   <si>
     <t xml:space="preserve">10.0415573120117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0083723068237</t>
+    <t xml:space="preserve">10.008373260498</t>
   </si>
   <si>
     <t xml:space="preserve">10.3136682510376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3733997344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1676568984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3203058242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402147293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3003940582275</t>
+    <t xml:space="preserve">10.3733987808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1676588058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3203048706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3003959655762</t>
   </si>
   <si>
     <t xml:space="preserve">10.4596796035767</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">10.4994993209839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5658683776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3601264953613</t>
+    <t xml:space="preserve">10.5658693313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3601245880127</t>
   </si>
   <si>
     <t xml:space="preserve">10.2672100067139</t>
@@ -1106,43 +1106,43 @@
     <t xml:space="preserve">10.2738466262817</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2539367675781</t>
+    <t xml:space="preserve">10.2539358139038</t>
   </si>
   <si>
     <t xml:space="preserve">10.1411094665527</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4264936447144</t>
+    <t xml:space="preserve">10.4264945983887</t>
   </si>
   <si>
     <t xml:space="preserve">10.3866729736328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4464044570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3800373077393</t>
+    <t xml:space="preserve">10.4464054107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3800363540649</t>
   </si>
   <si>
     <t xml:space="preserve">10.5592308044434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4530420303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3667621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3070306777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4663171768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2074775695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0481948852539</t>
+    <t xml:space="preserve">10.4530429840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3667631149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3070316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4663162231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2074785232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0481929779053</t>
   </si>
   <si>
     <t xml:space="preserve">9.99509906768799</t>
@@ -1157,76 +1157,76 @@
     <t xml:space="preserve">10.1610202789307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1477460861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2273893356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1212005615234</t>
+    <t xml:space="preserve">10.1477479934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.227388381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1211996078491</t>
   </si>
   <si>
     <t xml:space="preserve">9.96855163574219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8822717666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3999471664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4065847396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5127725601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4862251281738</t>
+    <t xml:space="preserve">9.88227367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3999462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4065828323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5127735137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4862260818481</t>
   </si>
   <si>
     <t xml:space="preserve">10.7317895889282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7450637817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6388750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7517013549805</t>
+    <t xml:space="preserve">10.7450647354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6388740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7517004013062</t>
   </si>
   <si>
     <t xml:space="preserve">10.7649736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6090078353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5990524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5824604034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4198570251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1875686645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2904405593872</t>
+    <t xml:space="preserve">10.6090068817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5990533828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5824594497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4198579788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1875677108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2904396057129</t>
   </si>
   <si>
     <t xml:space="preserve">10.237343788147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1975240707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2340240478516</t>
+    <t xml:space="preserve">10.1975231170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2340259552002</t>
   </si>
   <si>
     <t xml:space="preserve">10.2240705490112</t>
@@ -1235,22 +1235,22 @@
     <t xml:space="preserve">9.76944637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0647850036621</t>
+    <t xml:space="preserve">10.0647859573364</t>
   </si>
   <si>
     <t xml:space="preserve">10.2771654129028</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1643390655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.436450958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4132194519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3534879684448</t>
+    <t xml:space="preserve">10.1643381118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4364500045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4132213592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3534889221191</t>
   </si>
   <si>
     <t xml:space="preserve">10.3700819015503</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">10.3966293334961</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795894622803</t>
+    <t xml:space="preserve">10.4795904159546</t>
   </si>
   <si>
     <t xml:space="preserve">10.5957336425781</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">10.7550182342529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7351083755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7882022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8811187744141</t>
+    <t xml:space="preserve">10.735107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7882032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8811197280884</t>
   </si>
   <si>
     <t xml:space="preserve">10.9806718826294</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">11.2262372970581</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3191509246826</t>
+    <t xml:space="preserve">11.3191518783569</t>
   </si>
   <si>
     <t xml:space="preserve">11.0868606567383</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1764583587646</t>
+    <t xml:space="preserve">11.176459312439</t>
   </si>
   <si>
     <t xml:space="preserve">11.0370845794678</t>
@@ -1301,25 +1301,25 @@
     <t xml:space="preserve">11.1100902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1665048599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1631851196289</t>
+    <t xml:space="preserve">11.16650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1631832122803</t>
   </si>
   <si>
     <t xml:space="preserve">11.1366376876831</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9773550033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8877563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9508066177368</t>
+    <t xml:space="preserve">10.9773540496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9906272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8877573013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9508075714111</t>
   </si>
   <si>
     <t xml:space="preserve">10.9574432373047</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">10.7384271621704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7749290466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6986074447632</t>
+    <t xml:space="preserve">10.7749300003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6986064910889</t>
   </si>
   <si>
     <t xml:space="preserve">10.7266311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6915998458862</t>
+    <t xml:space="preserve">10.6915988922119</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654859542847</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">10.4428758621216</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4218578338623</t>
+    <t xml:space="preserve">10.421856880188</t>
   </si>
   <si>
     <t xml:space="preserve">10.2607135772705</t>
@@ -1355,43 +1355,43 @@
     <t xml:space="preserve">9.90339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96294593811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1941528320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3062543869019</t>
+    <t xml:space="preserve">9.96294498443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1941537857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3062534332275</t>
   </si>
   <si>
     <t xml:space="preserve">10.2922401428223</t>
   </si>
   <si>
-    <t xml:space="preserve">10.068039894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0925607681274</t>
+    <t xml:space="preserve">10.0680389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0925617218018</t>
   </si>
   <si>
     <t xml:space="preserve">9.92791366577148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.218674659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1696319580078</t>
+    <t xml:space="preserve">10.2186756134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1696300506592</t>
   </si>
   <si>
     <t xml:space="preserve">10.2011594772339</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3237705230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2256803512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1801414489746</t>
+    <t xml:space="preserve">10.3237686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.225682258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.180139541626</t>
   </si>
   <si>
     <t xml:space="preserve">10.2502031326294</t>
@@ -1400,31 +1400,31 @@
     <t xml:space="preserve">10.1135807037354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1871461868286</t>
+    <t xml:space="preserve">10.1871452331543</t>
   </si>
   <si>
     <t xml:space="preserve">10.0119886398315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.029504776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93141746520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92440986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0224981307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0014791488647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2291841506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906490325928</t>
+    <t xml:space="preserve">10.0295038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93141651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92441082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0224990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0014781951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2291851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906480789185</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451091766357</t>
@@ -1433,37 +1433,37 @@
     <t xml:space="preserve">10.0645360946655</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0750465393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1205863952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2712230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2782278060913</t>
+    <t xml:space="preserve">10.075044631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.120587348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2712211608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2782287597656</t>
   </si>
   <si>
     <t xml:space="preserve">10.2361907958984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1661291122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3132591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3272714614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.348292350769</t>
+    <t xml:space="preserve">10.166127204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3132600784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3272724151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3482913970947</t>
   </si>
   <si>
     <t xml:space="preserve">10.3973350524902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4779081344604</t>
+    <t xml:space="preserve">10.4779071807861</t>
   </si>
   <si>
     <t xml:space="preserve">10.649561882019</t>
@@ -1472,25 +1472,25 @@
     <t xml:space="preserve">10.5444679260254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3798179626465</t>
+    <t xml:space="preserve">10.3798189163208</t>
   </si>
   <si>
     <t xml:space="preserve">10.4673976898193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4288625717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4989252090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5234489440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5059328079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2887372970581</t>
+    <t xml:space="preserve">10.4288635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4989261627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5234498977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.505931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2887382507324</t>
   </si>
   <si>
     <t xml:space="preserve">10.1275930404663</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">10.3517942428589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4078435897827</t>
+    <t xml:space="preserve">10.407844543457</t>
   </si>
   <si>
     <t xml:space="preserve">10.3447875976562</t>
@@ -1514,13 +1514,13 @@
     <t xml:space="preserve">10.0505247116089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1836433410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3868255615234</t>
+    <t xml:space="preserve">10.1836423873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3623056411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3868246078491</t>
   </si>
   <si>
     <t xml:space="preserve">10.3693103790283</t>
@@ -1529,34 +1529,34 @@
     <t xml:space="preserve">10.5970144271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5339574813843</t>
+    <t xml:space="preserve">10.5339584350586</t>
   </si>
   <si>
     <t xml:space="preserve">10.5199451446533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5900077819824</t>
+    <t xml:space="preserve">10.5900058746338</t>
   </si>
   <si>
     <t xml:space="preserve">10.6075248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6180324554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7371406555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8597497940063</t>
+    <t xml:space="preserve">10.618034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7371397018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8597507476807</t>
   </si>
   <si>
     <t xml:space="preserve">10.8772659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8142099380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4253616333008</t>
+    <t xml:space="preserve">10.814208984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4253606796265</t>
   </si>
   <si>
     <t xml:space="preserve">10.3097562789917</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">10.3938322067261</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3552980422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1240892410278</t>
+    <t xml:space="preserve">10.355297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1240901947021</t>
   </si>
   <si>
     <t xml:space="preserve">10.1065740585327</t>
@@ -1577,34 +1577,34 @@
     <t xml:space="preserve">10.0049829483032</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90689468383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0260028839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97345447540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8158130645752</t>
+    <t xml:space="preserve">9.90689373016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0260019302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97345542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81581401824951</t>
   </si>
   <si>
     <t xml:space="preserve">9.84383773803711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81230926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68619728088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63364887237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84033584594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73173713684082</t>
+    <t xml:space="preserve">9.81231117248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68619537353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6336498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84033489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73173904418945</t>
   </si>
   <si>
     <t xml:space="preserve">9.94192600250244</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">10.0785493850708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0365104675293</t>
+    <t xml:space="preserve">10.0365123748779</t>
   </si>
   <si>
     <t xml:space="preserve">10.0715427398682</t>
@@ -1622,55 +1622,55 @@
     <t xml:space="preserve">10.082052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0470209121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98396396636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1310958862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92090702056885</t>
+    <t xml:space="preserve">10.0470218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98396492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1310968399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92090797424316</t>
   </si>
   <si>
     <t xml:space="preserve">10.0084857940674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96644878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98746681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2396936416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2992477416992</t>
+    <t xml:space="preserve">9.9664478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98746585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2396945953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2992467880249</t>
   </si>
   <si>
     <t xml:space="preserve">10.3377819061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4323663711548</t>
+    <t xml:space="preserve">10.4323654174805</t>
   </si>
   <si>
     <t xml:space="preserve">10.5164422988892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4008388519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98046112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575304031372</t>
+    <t xml:space="preserve">10.4008378982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98046016693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575313568115</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995674133301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1626234054565</t>
+    <t xml:space="preserve">10.1626253128052</t>
   </si>
   <si>
     <t xml:space="preserve">10.3202657699585</t>
@@ -1679,10 +1679,10 @@
     <t xml:space="preserve">10.2817316055298</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3763160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4498815536499</t>
+    <t xml:space="preserve">10.376317024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4498834609985</t>
   </si>
   <si>
     <t xml:space="preserve">10.474404335022</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">10.768669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7861852645874</t>
+    <t xml:space="preserve">10.7861843109131</t>
   </si>
   <si>
     <t xml:space="preserve">10.7301340103149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7756748199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.754656791687</t>
+    <t xml:space="preserve">10.7756757736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7546558380127</t>
   </si>
   <si>
     <t xml:space="preserve">10.8282222747803</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">10.716121673584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6355485916138</t>
+    <t xml:space="preserve">10.6355504989624</t>
   </si>
   <si>
     <t xml:space="preserve">10.6845932006836</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">10.5024290084839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5619831085205</t>
+    <t xml:space="preserve">10.5619840621948</t>
   </si>
   <si>
     <t xml:space="preserve">10.6425552368164</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">10.7231283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.625039100647</t>
+    <t xml:space="preserve">10.6250400543213</t>
   </si>
   <si>
     <t xml:space="preserve">10.6670770645142</t>
@@ -1748,16 +1748,16 @@
     <t xml:space="preserve">10.66357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7126188278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8247184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8737621307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807697296143</t>
+    <t xml:space="preserve">10.7126178741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8247175216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8737630844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807687759399</t>
   </si>
   <si>
     <t xml:space="preserve">10.9963722229004</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">11.122486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1995544433594</t>
+    <t xml:space="preserve">11.1995553970337</t>
   </si>
   <si>
     <t xml:space="preserve">11.0664358139038</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">11.0173931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0699396133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0454177856445</t>
+    <t xml:space="preserve">11.069938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0454168319702</t>
   </si>
   <si>
     <t xml:space="preserve">11.0769462585449</t>
@@ -1796,31 +1796,31 @@
     <t xml:space="preserve">11.4482793807983</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5463676452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5323534011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5043306350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5428638458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4552841186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4412717819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4798078536987</t>
+    <t xml:space="preserve">11.5463666915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5323543548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5043287277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5428647994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4552850723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4412727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4798069000244</t>
   </si>
   <si>
     <t xml:space="preserve">11.5603790283203</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6829881668091</t>
+    <t xml:space="preserve">11.6829900741577</t>
   </si>
   <si>
     <t xml:space="preserve">11.6549644470215</t>
@@ -1835,55 +1835,55 @@
     <t xml:space="preserve">11.6514596939087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6970024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6794862747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7075099945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.781078338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8441343307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9106941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0508193969727</t>
+    <t xml:space="preserve">11.69700050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6794872283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7075109481812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7810773849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8441352844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9106950759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.050820350647</t>
   </si>
   <si>
     <t xml:space="preserve">11.9422225952148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9176998138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9527311325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0788440704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0473155975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208839416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1173791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278886795044</t>
+    <t xml:space="preserve">11.9176988601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9527320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0788450241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0473165512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1173782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278877258301</t>
   </si>
   <si>
     <t xml:space="preserve">12.0192918777466</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9737491607666</t>
+    <t xml:space="preserve">11.9737501144409</t>
   </si>
   <si>
     <t xml:space="preserve">11.9597368240356</t>
@@ -1892,43 +1892,43 @@
     <t xml:space="preserve">11.8091020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8511419296265</t>
+    <t xml:space="preserve">11.8511409759521</t>
   </si>
   <si>
     <t xml:space="preserve">11.9036874771118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0017757415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9141969680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584545135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0806474685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0547552108765</t>
+    <t xml:space="preserve">12.0017766952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9141960144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0584535598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0806484222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0547561645508</t>
   </si>
   <si>
     <t xml:space="preserve">11.8032293319702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0399599075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9031000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8180255889893</t>
+    <t xml:space="preserve">12.0399608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9031009674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8180246353149</t>
   </si>
   <si>
     <t xml:space="preserve">11.6922626495361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7588424682617</t>
+    <t xml:space="preserve">11.758843421936</t>
   </si>
   <si>
     <t xml:space="preserve">11.6256818771362</t>
@@ -1940,28 +1940,28 @@
     <t xml:space="preserve">11.7551441192627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6589727401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6996593475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7292509078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8217248916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9437885284424</t>
+    <t xml:space="preserve">11.658971786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6996583938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7292499542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8217239379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9437894821167</t>
   </si>
   <si>
     <t xml:space="preserve">11.917896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9696807861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9363889694214</t>
+    <t xml:space="preserve">11.9696798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.93639087677</t>
   </si>
   <si>
     <t xml:space="preserve">12.010368347168</t>
@@ -1973,25 +1973,25 @@
     <t xml:space="preserve">12.3173780441284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3395729064941</t>
+    <t xml:space="preserve">12.3395719528198</t>
   </si>
   <si>
     <t xml:space="preserve">12.3469696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">12.291485786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2507972717285</t>
+    <t xml:space="preserve">12.2914848327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2507963180542</t>
   </si>
   <si>
     <t xml:space="preserve">12.2138090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3025808334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4024524688721</t>
+    <t xml:space="preserve">12.3025817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4024534225464</t>
   </si>
   <si>
     <t xml:space="preserve">12.6243886947632</t>
@@ -2009,19 +2009,19 @@
     <t xml:space="preserve">12.6983661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7316560745239</t>
+    <t xml:space="preserve">12.7316551208496</t>
   </si>
   <si>
     <t xml:space="preserve">12.7279577255249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6761741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7020654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6354856491089</t>
+    <t xml:space="preserve">12.676173210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7020645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6354837417603</t>
   </si>
   <si>
     <t xml:space="preserve">12.5023231506348</t>
@@ -2030,37 +2030,37 @@
     <t xml:space="preserve">12.5393133163452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5245170593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5726041793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4875288009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5097227096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3617639541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4579362869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.469033241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1620244979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0843448638916</t>
+    <t xml:space="preserve">12.5245161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5726022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.48752784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5097217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3617658615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4579381942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4690351486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1620235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0843458175659</t>
   </si>
   <si>
     <t xml:space="preserve">12.0658512115479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1583251953125</t>
+    <t xml:space="preserve">12.1583242416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.8291215896606</t>
@@ -2072,22 +2072,22 @@
     <t xml:space="preserve">11.9326906204224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7773370742798</t>
+    <t xml:space="preserve">11.7773361206055</t>
   </si>
   <si>
     <t xml:space="preserve">11.9659805297852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9992713928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1139373779297</t>
+    <t xml:space="preserve">11.9992723464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1139364242554</t>
   </si>
   <si>
     <t xml:space="preserve">12.0732498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9585847854614</t>
+    <t xml:space="preserve">11.9585838317871</t>
   </si>
   <si>
     <t xml:space="preserve">11.9733791351318</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">12.1546258926392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0325603485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1472301483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1842164993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.210108757019</t>
+    <t xml:space="preserve">12.0325613021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1472282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1842174530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2101078033447</t>
   </si>
   <si>
     <t xml:space="preserve">12.2397012710571</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">12.4542379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6095924377441</t>
+    <t xml:space="preserve">12.6095933914185</t>
   </si>
   <si>
     <t xml:space="preserve">12.6539793014526</t>
@@ -2135,46 +2135,46 @@
     <t xml:space="preserve">12.9276990890503</t>
   </si>
   <si>
-    <t xml:space="preserve">12.853720664978</t>
+    <t xml:space="preserve">12.8537197113037</t>
   </si>
   <si>
     <t xml:space="preserve">12.8167324066162</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2310104370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2014169692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2495050430298</t>
+    <t xml:space="preserve">13.2310085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2014179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2495040893555</t>
   </si>
   <si>
     <t xml:space="preserve">13.2162132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2864933013916</t>
+    <t xml:space="preserve">13.2864923477173</t>
   </si>
   <si>
     <t xml:space="preserve">13.2421064376831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2125158309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1533336639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1237421035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9055051803589</t>
+    <t xml:space="preserve">13.2125177383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1533327102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1237411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9055042266846</t>
   </si>
   <si>
     <t xml:space="preserve">12.9757862091064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0571603775024</t>
+    <t xml:space="preserve">13.0571613311768</t>
   </si>
   <si>
     <t xml:space="preserve">13.1459350585938</t>
@@ -2189,55 +2189,55 @@
     <t xml:space="preserve">13.219913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3641719818115</t>
+    <t xml:space="preserve">13.3641700744629</t>
   </si>
   <si>
     <t xml:space="preserve">13.2901916503906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.393762588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3974609375</t>
+    <t xml:space="preserve">13.393759727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3974618911743</t>
   </si>
   <si>
     <t xml:space="preserve">13.390064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4603424072266</t>
+    <t xml:space="preserve">13.4603404998779</t>
   </si>
   <si>
     <t xml:space="preserve">13.5935039520264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5787076950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6045999526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6119976043701</t>
+    <t xml:space="preserve">13.578706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6045980453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6119966506958</t>
   </si>
   <si>
     <t xml:space="preserve">13.6083002090454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861043930054</t>
+    <t xml:space="preserve">13.586106300354</t>
   </si>
   <si>
     <t xml:space="preserve">13.489933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4455471038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6859769821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7525577545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7562551498413</t>
+    <t xml:space="preserve">13.4455442428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6859760284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.752555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.756254196167</t>
   </si>
   <si>
     <t xml:space="preserve">14.226016998291</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">14.1890287399292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1964244842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4257583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3036947250366</t>
+    <t xml:space="preserve">14.1964273452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4257593154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.303692817688</t>
   </si>
   <si>
     <t xml:space="preserve">14.1816310882568</t>
@@ -2261,34 +2261,34 @@
     <t xml:space="preserve">14.0928564071655</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8339338302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7895431518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006439208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7155685424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8265361785889</t>
+    <t xml:space="preserve">13.8339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7895441055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006429672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7155666351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8265352249146</t>
   </si>
   <si>
     <t xml:space="preserve">13.8302335739136</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7081689834595</t>
+    <t xml:space="preserve">13.7081699371338</t>
   </si>
   <si>
     <t xml:space="preserve">13.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5158252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936304092407</t>
+    <t xml:space="preserve">13.5158271789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4936332702637</t>
   </si>
   <si>
     <t xml:space="preserve">13.4714374542236</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">13.4788370132446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5084285736084</t>
+    <t xml:space="preserve">13.5084276199341</t>
   </si>
   <si>
     <t xml:space="preserve">13.5824069976807</t>
@@ -2306,46 +2306,46 @@
     <t xml:space="preserve">13.5676107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6748790740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6933746337891</t>
+    <t xml:space="preserve">13.674880027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6933736801147</t>
   </si>
   <si>
     <t xml:space="preserve">13.7414608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6822776794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0373735427856</t>
+    <t xml:space="preserve">13.682276725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0373725891113</t>
   </si>
   <si>
     <t xml:space="preserve">13.8191356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7599534988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6230955123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5232248306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.663782119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6341915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4640417098999</t>
+    <t xml:space="preserve">13.7599544525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6230964660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5232238769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6637811660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6341905593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4640426635742</t>
   </si>
   <si>
     <t xml:space="preserve">13.5343217849731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5417175292969</t>
+    <t xml:space="preserve">13.5417194366455</t>
   </si>
   <si>
     <t xml:space="preserve">13.5047283172607</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">13.4196538925171</t>
   </si>
   <si>
-    <t xml:space="preserve">13.108943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.497332572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2347068786621</t>
+    <t xml:space="preserve">13.1089458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4973306655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2347087860107</t>
   </si>
   <si>
     <t xml:space="preserve">13.016471862793</t>
@@ -2375,46 +2375,46 @@
     <t xml:space="preserve">13.0830526351929</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2753973007202</t>
+    <t xml:space="preserve">13.2753963470459</t>
   </si>
   <si>
     <t xml:space="preserve">13.5565156936646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6415901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8487272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8894166946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8931169509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670934677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8981075286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8241271972656</t>
+    <t xml:space="preserve">13.6415891647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8487253189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8894157409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8931159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670915603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8981065750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8241281509399</t>
   </si>
   <si>
     <t xml:space="preserve">12.7723436355591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.028862953186</t>
+    <t xml:space="preserve">12.0288639068604</t>
   </si>
   <si>
     <t xml:space="preserve">11.8883037567139</t>
   </si>
   <si>
-    <t xml:space="preserve">11.640477180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2742853164673</t>
+    <t xml:space="preserve">11.6404762268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2742834091187</t>
   </si>
   <si>
     <t xml:space="preserve">10.179407119751</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">10.0240526199341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72573375701904</t>
+    <t xml:space="preserve">8.72573471069336</t>
   </si>
   <si>
     <t xml:space="preserve">8.92917442321777</t>
@@ -2432,25 +2432,25 @@
     <t xml:space="preserve">8.35584259033203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02664089202881</t>
+    <t xml:space="preserve">8.02663993835449</t>
   </si>
   <si>
     <t xml:space="preserve">7.68264102935791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94156503677368</t>
+    <t xml:space="preserve">7.94156408309937</t>
   </si>
   <si>
     <t xml:space="preserve">8.05623149871826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05993175506592</t>
+    <t xml:space="preserve">8.0599308013916</t>
   </si>
   <si>
     <t xml:space="preserve">8.95136833190918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21029090881348</t>
+    <t xml:space="preserve">9.21029186248779</t>
   </si>
   <si>
     <t xml:space="preserve">9.36564636230469</t>
@@ -2462,22 +2462,22 @@
     <t xml:space="preserve">9.14741134643555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18070125579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94766998291016</t>
+    <t xml:space="preserve">9.18070030212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94766902923584</t>
   </si>
   <si>
     <t xml:space="preserve">9.1215181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01424980163574</t>
+    <t xml:space="preserve">9.01424884796143</t>
   </si>
   <si>
     <t xml:space="preserve">9.28057098388672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4581184387207</t>
+    <t xml:space="preserve">9.45811939239502</t>
   </si>
   <si>
     <t xml:space="preserve">9.52100086212158</t>
@@ -2486,31 +2486,31 @@
     <t xml:space="preserve">9.71704292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32125854492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16590595245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26947498321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9994535446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2213888168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15110874176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42852687835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59497928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83910655975342</t>
+    <t xml:space="preserve">9.32125949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1659049987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26947402954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99945449829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22138786315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15110969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42852878570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59497833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83910751342773</t>
   </si>
   <si>
     <t xml:space="preserve">9.62826919555664</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">9.39523696899414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5690860748291</t>
+    <t xml:space="preserve">9.56908702850342</t>
   </si>
   <si>
     <t xml:space="preserve">9.42113018035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48400974273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59867858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51360130310059</t>
+    <t xml:space="preserve">9.48401165008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59867763519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51360321044922</t>
   </si>
   <si>
     <t xml:space="preserve">9.47291564941406</t>
@@ -2540,13 +2540,13 @@
     <t xml:space="preserve">9.29166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17700290679932</t>
+    <t xml:space="preserve">9.177001953125</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39567947387695</t>
+    <t xml:space="preserve">9.39567852020264</t>
   </si>
   <si>
     <t xml:space="preserve">9.44575881958008</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">9.80016803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84254169464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61911106109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93114471435547</t>
+    <t xml:space="preserve">9.84254264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61911010742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93114376068115</t>
   </si>
   <si>
     <t xml:space="preserve">10.2316207885742</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">10.7439727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7901992797852</t>
+    <t xml:space="preserve">10.7902002334595</t>
   </si>
   <si>
     <t xml:space="preserve">11.0829725265503</t>
@@ -2594,19 +2594,19 @@
     <t xml:space="preserve">10.990517616272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7632331848145</t>
+    <t xml:space="preserve">10.7632341384888</t>
   </si>
   <si>
     <t xml:space="preserve">10.347188949585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.343337059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3279275894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.559063911438</t>
+    <t xml:space="preserve">10.3433361053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3279285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5590648651123</t>
   </si>
   <si>
     <t xml:space="preserve">10.4820184707642</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">10.3510408401489</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4897212982178</t>
+    <t xml:space="preserve">10.4897222518921</t>
   </si>
   <si>
     <t xml:space="preserve">10.5012798309326</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">10.2470302581787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3394861221313</t>
+    <t xml:space="preserve">10.339485168457</t>
   </si>
   <si>
     <t xml:space="preserve">10.3780069351196</t>
@@ -2639,13 +2639,13 @@
     <t xml:space="preserve">10.6592226028442</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5898818969727</t>
+    <t xml:space="preserve">10.5898809432983</t>
   </si>
   <si>
     <t xml:space="preserve">10.6977453231812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975866317749</t>
+    <t xml:space="preserve">10.5975856781006</t>
   </si>
   <si>
     <t xml:space="preserve">10.3202228546143</t>
@@ -2657,22 +2657,22 @@
     <t xml:space="preserve">10.5089855194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5629148483276</t>
+    <t xml:space="preserve">10.562915802002</t>
   </si>
   <si>
     <t xml:space="preserve">10.6438140869141</t>
   </si>
   <si>
-    <t xml:space="preserve">10.647665977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5475063323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6168479919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7709379196167</t>
+    <t xml:space="preserve">10.6476650238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5475072860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.616847038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.770938873291</t>
   </si>
   <si>
     <t xml:space="preserve">10.7170066833496</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">10.4011211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86950874328613</t>
+    <t xml:space="preserve">9.86950778961182</t>
   </si>
   <si>
     <t xml:space="preserve">9.75393962860107</t>
@@ -2699,40 +2699,40 @@
     <t xml:space="preserve">9.9658145904541</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0428590774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78861045837402</t>
+    <t xml:space="preserve">10.0428600311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78860950469971</t>
   </si>
   <si>
     <t xml:space="preserve">10.2046556472778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1468706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1006441116333</t>
+    <t xml:space="preserve">10.1468715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.100643157959</t>
   </si>
   <si>
     <t xml:space="preserve">9.94655323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1237592697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.039008140564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96966648101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1815414428711</t>
+    <t xml:space="preserve">10.1237573623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0390071868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96966743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1815423965454</t>
   </si>
   <si>
     <t xml:space="preserve">10.2393255233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2008037567139</t>
+    <t xml:space="preserve">10.2008028030396</t>
   </si>
   <si>
     <t xml:space="preserve">10.0197467803955</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">9.98507595062256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87721157073975</t>
+    <t xml:space="preserve">9.87721252441406</t>
   </si>
   <si>
     <t xml:space="preserve">9.77320194244385</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">9.97737121582031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89262104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88106536865234</t>
+    <t xml:space="preserve">9.89262199401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88106441497803</t>
   </si>
   <si>
     <t xml:space="preserve">9.86565589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7654972076416</t>
+    <t xml:space="preserve">9.76549625396729</t>
   </si>
   <si>
     <t xml:space="preserve">9.4958381652832</t>
@@ -2774,13 +2774,13 @@
     <t xml:space="preserve">9.12602138519287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07594013214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03741836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96422481536865</t>
+    <t xml:space="preserve">9.07594108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0374174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96422576904297</t>
   </si>
   <si>
     <t xml:space="preserve">8.89873695373535</t>
@@ -2804,10 +2804,10 @@
     <t xml:space="preserve">9.5343599319458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50354194641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69615745544434</t>
+    <t xml:space="preserve">9.50354290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69615650177002</t>
   </si>
   <si>
     <t xml:space="preserve">9.63837242126465</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">9.61525821685791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51510047912598</t>
+    <t xml:space="preserve">9.51509952545166</t>
   </si>
   <si>
     <t xml:space="preserve">9.5112476348877</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">8.75234985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77931690216064</t>
+    <t xml:space="preserve">8.77931594848633</t>
   </si>
   <si>
     <t xml:space="preserve">8.86791896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09520244598389</t>
+    <t xml:space="preserve">9.09520149230957</t>
   </si>
   <si>
     <t xml:space="preserve">9.27240657806396</t>
@@ -2864,13 +2864,13 @@
     <t xml:space="preserve">9.5382137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1391677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3857107162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3703031539917</t>
+    <t xml:space="preserve">10.1391668319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3857116699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3703022003174</t>
   </si>
   <si>
     <t xml:space="preserve">10.5051317214966</t>
@@ -2879,16 +2879,16 @@
     <t xml:space="preserve">10.7593812942505</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8865060806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.963550567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8402795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9442911148071</t>
+    <t xml:space="preserve">10.8865070343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9635515213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8402786254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9442901611328</t>
   </si>
   <si>
     <t xml:space="preserve">10.9558477401733</t>
@@ -2897,61 +2897,61 @@
     <t xml:space="preserve">11.0791206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1677217483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1484613418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0328922271729</t>
+    <t xml:space="preserve">11.1677227020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1484603881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0328931808472</t>
   </si>
   <si>
     <t xml:space="preserve">11.113790512085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2255067825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715745925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0637102127075</t>
+    <t xml:space="preserve">11.2255058288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.171573638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0637092590332</t>
   </si>
   <si>
     <t xml:space="preserve">11.0367450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0598583221436</t>
+    <t xml:space="preserve">11.0598573684692</t>
   </si>
   <si>
     <t xml:space="preserve">10.8518362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">10.986665725708</t>
+    <t xml:space="preserve">10.9866647720337</t>
   </si>
   <si>
     <t xml:space="preserve">11.0020742416382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0136318206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7015981674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.863392829895</t>
+    <t xml:space="preserve">11.0136308670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7015972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8633937835693</t>
   </si>
   <si>
     <t xml:space="preserve">11.0675630569458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0290393829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208595275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1561651229858</t>
+    <t xml:space="preserve">11.0290403366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208585739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1561641693115</t>
   </si>
   <si>
     <t xml:space="preserve">11.2062435150146</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">11.1407566070557</t>
   </si>
   <si>
-    <t xml:space="preserve">11.17542552948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4104156494141</t>
+    <t xml:space="preserve">11.1754264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4104146957397</t>
   </si>
   <si>
     <t xml:space="preserve">11.2909936904907</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1792802810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0983810424805</t>
+    <t xml:space="preserve">11.1792793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0983800888062</t>
   </si>
   <si>
     <t xml:space="preserve">10.8556890487671</t>
@@ -2990,28 +2990,28 @@
     <t xml:space="preserve">11.5182781219482</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8803911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9689931869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1115274429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.188572883606</t>
+    <t xml:space="preserve">11.880392074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.968994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1115283966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1885719299316</t>
   </si>
   <si>
     <t xml:space="preserve">12.1423454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0961179733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0691528320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1924247741699</t>
+    <t xml:space="preserve">12.096118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0691518783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1924257278442</t>
   </si>
   <si>
     <t xml:space="preserve">12.1346406936646</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">11.9921073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2001295089722</t>
+    <t xml:space="preserve">12.2001304626465</t>
   </si>
   <si>
     <t xml:space="preserve">11.9805517196655</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">12.3503694534302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3850393295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3311052322388</t>
+    <t xml:space="preserve">12.3850383758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3311061859131</t>
   </si>
   <si>
     <t xml:space="preserve">12.7124805450439</t>
@@ -3062,16 +3062,16 @@
     <t xml:space="preserve">12.7355947494507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8049354553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166507720947</t>
+    <t xml:space="preserve">12.8049364089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.916651725769</t>
   </si>
   <si>
     <t xml:space="preserve">13.0245141983032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9705829620361</t>
+    <t xml:space="preserve">12.9705820083618</t>
   </si>
   <si>
     <t xml:space="preserve">13.012957572937</t>
@@ -3080,40 +3080,40 @@
     <t xml:space="preserve">12.9050931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9898452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8896837234497</t>
+    <t xml:space="preserve">12.9898433685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.889684677124</t>
   </si>
   <si>
     <t xml:space="preserve">12.9474697113037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9436159133911</t>
+    <t xml:space="preserve">12.9436168670654</t>
   </si>
   <si>
     <t xml:space="preserve">12.9628791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0399236679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1439352035522</t>
+    <t xml:space="preserve">13.0399227142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1439361572266</t>
   </si>
   <si>
     <t xml:space="preserve">13.2055711746216</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1208219528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2017202377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2286853790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786050796509</t>
+    <t xml:space="preserve">13.1208229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2017192840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2286863327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786060333252</t>
   </si>
   <si>
     <t xml:space="preserve">13.0707426071167</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">13.1516389846802</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1631946563721</t>
+    <t xml:space="preserve">13.1631956100464</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169691085815</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">13.1901626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2710609436035</t>
+    <t xml:space="preserve">13.2710599899292</t>
   </si>
   <si>
     <t xml:space="preserve">12.9782867431641</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">12.9282093048096</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8550148010254</t>
+    <t xml:space="preserve">12.8550138473511</t>
   </si>
   <si>
     <t xml:space="preserve">13.0977077484131</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">13.2672071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3827753067017</t>
+    <t xml:space="preserve">13.382776260376</t>
   </si>
   <si>
     <t xml:space="preserve">13.5291614532471</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">13.4135932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4675254821777</t>
+    <t xml:space="preserve">13.4675245285034</t>
   </si>
   <si>
     <t xml:space="preserve">13.5137538909912</t>
@@ -3185,16 +3185,16 @@
     <t xml:space="preserve">13.4328556060791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.440559387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6062078475952</t>
+    <t xml:space="preserve">13.4405584335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6062068939209</t>
   </si>
   <si>
     <t xml:space="preserve">13.8105030059814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6797542572021</t>
+    <t xml:space="preserve">13.6797533035278</t>
   </si>
   <si>
     <t xml:space="preserve">13.5326595306396</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">13.7655582427979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7410440444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8350191116333</t>
+    <t xml:space="preserve">13.7410430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8350200653076</t>
   </si>
   <si>
     <t xml:space="preserve">13.8513650894165</t>
@@ -3218,13 +3218,13 @@
     <t xml:space="preserve">13.9616832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0965204238892</t>
+    <t xml:space="preserve">14.0965213775635</t>
   </si>
   <si>
     <t xml:space="preserve">14.0760908126831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0393180847168</t>
+    <t xml:space="preserve">14.0393171310425</t>
   </si>
   <si>
     <t xml:space="preserve">13.9943714141846</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">14.0066299438477</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0148000717163</t>
+    <t xml:space="preserve">14.0148010253906</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270595550537</t>
@@ -3242,13 +3242,13 @@
     <t xml:space="preserve">14.0883474349976</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8023309707642</t>
+    <t xml:space="preserve">13.8023319244385</t>
   </si>
   <si>
     <t xml:space="preserve">13.8391046524048</t>
   </si>
   <si>
-    <t xml:space="preserve">13.798246383667</t>
+    <t xml:space="preserve">13.7982473373413</t>
   </si>
   <si>
     <t xml:space="preserve">13.6102933883667</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">13.6879243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7369565963745</t>
+    <t xml:space="preserve">13.7369575500488</t>
   </si>
   <si>
     <t xml:space="preserve">13.8145895004272</t>
@@ -3287,25 +3287,25 @@
     <t xml:space="preserve">13.9003944396973</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8309335708618</t>
+    <t xml:space="preserve">13.8309326171875</t>
   </si>
   <si>
     <t xml:space="preserve">13.7287845611572</t>
   </si>
   <si>
-    <t xml:space="preserve">13.675669670105</t>
+    <t xml:space="preserve">13.6756687164307</t>
   </si>
   <si>
     <t xml:space="preserve">13.2589015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3937368392944</t>
+    <t xml:space="preserve">13.3937358856201</t>
   </si>
   <si>
     <t xml:space="preserve">13.6838407516479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7206134796143</t>
+    <t xml:space="preserve">13.7206144332886</t>
   </si>
   <si>
     <t xml:space="preserve">13.6920108795166</t>
@@ -3314,22 +3314,22 @@
     <t xml:space="preserve">13.7696447372437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6266355514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5449171066284</t>
+    <t xml:space="preserve">13.6266345977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5449180603027</t>
   </si>
   <si>
     <t xml:space="preserve">13.5857772827148</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7941608428955</t>
+    <t xml:space="preserve">13.7941598892212</t>
   </si>
   <si>
     <t xml:space="preserve">13.863621711731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9167394638062</t>
+    <t xml:space="preserve">13.9167404174805</t>
   </si>
   <si>
     <t xml:space="preserve">14.0515747070312</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">14.1986684799194</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1169500350952</t>
+    <t xml:space="preserve">14.1169490814209</t>
   </si>
   <si>
     <t xml:space="preserve">14.1210374832153</t>
@@ -3365,37 +3365,37 @@
     <t xml:space="preserve">14.1128644943237</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1782398223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945829391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1537246704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.329418182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4315690994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.501030921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.243616104126</t>
+    <t xml:space="preserve">14.1782388687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945838928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1537237167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3294191360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.431568145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5010299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2436151504517</t>
   </si>
   <si>
     <t xml:space="preserve">14.4233961105347</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3825368881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765138626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.603178024292</t>
+    <t xml:space="preserve">14.3825378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765129089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6031770706177</t>
   </si>
   <si>
     <t xml:space="preserve">14.451997756958</t>
@@ -3404,16 +3404,16 @@
     <t xml:space="preserve">14.2599592208862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6930685043335</t>
+    <t xml:space="preserve">14.6930675506592</t>
   </si>
   <si>
     <t xml:space="preserve">14.811559677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9790849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.220157623291</t>
+    <t xml:space="preserve">14.9790859222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2201557159424</t>
   </si>
   <si>
     <t xml:space="preserve">14.9137105941772</t>
@@ -3422,13 +3422,13 @@
     <t xml:space="preserve">15.0526323318481</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0281171798706</t>
+    <t xml:space="preserve">15.0281162261963</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444593429565</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158596038818</t>
+    <t xml:space="preserve">15.0158586502075</t>
   </si>
   <si>
     <t xml:space="preserve">15.3182191848755</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">15.4407968521118</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5184297561646</t>
+    <t xml:space="preserve">15.5184316635132</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3018751144409</t>
+    <t xml:space="preserve">15.3018770217896</t>
   </si>
   <si>
     <t xml:space="preserve">15.3549938201904</t>
@@ -5169,6 +5169,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.6499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9400005340576</t>
   </si>
 </sst>
 </file>
@@ -61254,7 +61257,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6495717593</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>3204595</v>
@@ -61275,6 +61278,32 @@
         <v>1708</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6493981481</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>2636730</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>23.9400005340576</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>23.5799999237061</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>23.8400001525879</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>23.9400005340576</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1721">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60815238952637</t>
+    <t xml:space="preserve">9.60815143585205</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70897769927979</t>
+    <t xml:space="preserve">9.7089786529541</t>
   </si>
   <si>
     <t xml:space="preserve">9.52511882781982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50732707977295</t>
+    <t xml:space="preserve">9.50732612609863</t>
   </si>
   <si>
     <t xml:space="preserve">9.40649890899658</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13960552215576</t>
+    <t xml:space="preserve">9.13960742950439</t>
   </si>
   <si>
     <t xml:space="preserve">9.27008724212646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45394515991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34125995635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13367462158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93795299530029</t>
+    <t xml:space="preserve">9.45394706726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34125900268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13367557525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93795204162598</t>
   </si>
   <si>
     <t xml:space="preserve">9.00319385528564</t>
@@ -80,109 +80,109 @@
     <t xml:space="preserve">8.64733695983887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80747318267822</t>
+    <t xml:space="preserve">8.80747222900391</t>
   </si>
   <si>
     <t xml:space="preserve">8.84898853302002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66512966156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39230442047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.279616355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94155168533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17879009246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03644847869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73396873474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54417848587036</t>
+    <t xml:space="preserve">8.66512870788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39230537414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27961730957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94155311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17878913879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03644752502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73396968841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54417753219604</t>
   </si>
   <si>
     <t xml:space="preserve">7.46114540100098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25949287414551</t>
+    <t xml:space="preserve">7.25949239730835</t>
   </si>
   <si>
     <t xml:space="preserve">7.0341157913208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74942970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10528755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50032997131348</t>
+    <t xml:space="preserve">6.74943017959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10528707504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50032949447632</t>
   </si>
   <si>
     <t xml:space="preserve">6.61301755905151</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87991094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90363454818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06377029418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01632308959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94515132904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19425249099731</t>
+    <t xml:space="preserve">6.87991142272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90363502502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06377124786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01632165908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94515085220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.194251537323</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832111358643</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25356197357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57383441925049</t>
+    <t xml:space="preserve">7.2535605430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57383346557617</t>
   </si>
   <si>
     <t xml:space="preserve">7.59755706787109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65686559677124</t>
+    <t xml:space="preserve">7.65686511993408</t>
   </si>
   <si>
     <t xml:space="preserve">7.7754864692688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76955556869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69245338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55603981018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63314294815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69838285446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68652105331421</t>
+    <t xml:space="preserve">7.76955509185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6924524307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55604028701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63314247131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69838190078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68652057647705</t>
   </si>
   <si>
     <t xml:space="preserve">8.24403190612793</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">8.17286014556885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.125412940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21437740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23216915130615</t>
+    <t xml:space="preserve">8.12541198730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21437644958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23217010498047</t>
   </si>
   <si>
     <t xml:space="preserve">8.09575748443604</t>
@@ -206,64 +206,64 @@
     <t xml:space="preserve">8.00086212158203</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90003490447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85258769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68058919906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74583196640015</t>
+    <t xml:space="preserve">7.90003728866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85258674621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68058967590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7458324432373</t>
   </si>
   <si>
     <t xml:space="preserve">7.80514049530029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72803831100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61534976959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52638578414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28321647644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30694055557251</t>
+    <t xml:space="preserve">7.72803735733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61534929275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52638483047485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28321599960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30694007873535</t>
   </si>
   <si>
     <t xml:space="preserve">7.14680433273315</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35438776016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44335222244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46707582473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75176191329956</t>
+    <t xml:space="preserve">7.3543872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44335174560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46707534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75176095962524</t>
   </si>
   <si>
     <t xml:space="preserve">7.81700277328491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7992091178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8703818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9237585067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08389472961426</t>
+    <t xml:space="preserve">7.79920959472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87038087844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92375898361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08389663696289</t>
   </si>
   <si>
     <t xml:space="preserve">8.16693019866943</t>
@@ -278,52 +278,52 @@
     <t xml:space="preserve">8.13727378845215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10761833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89410638809204</t>
+    <t xml:space="preserve">8.1076192855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89410448074341</t>
   </si>
   <si>
     <t xml:space="preserve">7.71024513244629</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66872882843018</t>
+    <t xml:space="preserve">7.66872835159302</t>
   </si>
   <si>
     <t xml:space="preserve">7.85851860046387</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38404273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47300720214844</t>
+    <t xml:space="preserve">7.38404226303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47300577163696</t>
   </si>
   <si>
     <t xml:space="preserve">7.36031818389893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41962766647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56197023391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63111639022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07113170623779</t>
+    <t xml:space="preserve">7.41962814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56197214126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63111543655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07113075256348</t>
   </si>
   <si>
     <t xml:space="preserve">8.18427848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24713706970215</t>
+    <t xml:space="preserve">8.24713611602783</t>
   </si>
   <si>
     <t xml:space="preserve">8.28485298156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19056415557861</t>
+    <t xml:space="preserve">8.1905632019043</t>
   </si>
   <si>
     <t xml:space="preserve">8.14656162261963</t>
@@ -344,28 +344,28 @@
     <t xml:space="preserve">8.1402759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10256004333496</t>
+    <t xml:space="preserve">8.10256099700928</t>
   </si>
   <si>
     <t xml:space="preserve">7.73797798156738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48653936386108</t>
+    <t xml:space="preserve">7.4865403175354</t>
   </si>
   <si>
     <t xml:space="preserve">7.27281856536865</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2979621887207</t>
+    <t xml:space="preserve">7.29796171188354</t>
   </si>
   <si>
     <t xml:space="preserve">7.2162446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49911212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7254056930542</t>
+    <t xml:space="preserve">7.49911260604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72540473937988</t>
   </si>
   <si>
     <t xml:space="preserve">7.86369562149048</t>
@@ -374,67 +374,67 @@
     <t xml:space="preserve">7.9076976776123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86423349380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28278493881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38021612167358</t>
+    <t xml:space="preserve">6.86423301696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2827844619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38021659851074</t>
   </si>
   <si>
     <t xml:space="preserve">6.53107929229736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63165378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70708513259888</t>
+    <t xml:space="preserve">6.63165330886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70708417892456</t>
   </si>
   <si>
     <t xml:space="preserve">6.51850748062134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39278888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16963768005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18221044540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66308403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71337080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05281066894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98366641998291</t>
+    <t xml:space="preserve">6.39278841018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16963815689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18220996856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66308355331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71336984634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05281019210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98366594314575</t>
   </si>
   <si>
     <t xml:space="preserve">7.1659574508667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09681224822998</t>
+    <t xml:space="preserve">7.0968132019043</t>
   </si>
   <si>
     <t xml:space="preserve">7.13452911376953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04652547836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081382751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06538200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138042449951</t>
+    <t xml:space="preserve">7.0465235710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081478118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0653829574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138137817383</t>
   </si>
   <si>
     <t xml:space="preserve">6.97109365463257</t>
@@ -443,49 +443,49 @@
     <t xml:space="preserve">7.10309743881226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90823459625244</t>
+    <t xml:space="preserve">6.90823411941528</t>
   </si>
   <si>
     <t xml:space="preserve">7.4048228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3733925819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08424043655396</t>
+    <t xml:space="preserve">7.37339353561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0842399597168</t>
   </si>
   <si>
     <t xml:space="preserve">7.36710786819458</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51796913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60597372055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61225891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65625953674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38596439361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18481588363647</t>
+    <t xml:space="preserve">7.51796960830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6059718132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6122579574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65626049041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38596487045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.184814453125</t>
   </si>
   <si>
     <t xml:space="preserve">7.20367336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02766752243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34196281433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31681966781616</t>
+    <t xml:space="preserve">7.0276665687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34196472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31682014465332</t>
   </si>
   <si>
     <t xml:space="preserve">7.10938501358032</t>
@@ -494,142 +494,142 @@
     <t xml:space="preserve">7.03395318984985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8956618309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07166814804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24138879776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29167604446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23510265350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17852878570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27910470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46139717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56825637817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98995161056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91452074050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01509618759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09052610397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87680435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84537649154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8579478263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88937711715698</t>
+    <t xml:space="preserve">6.89566278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07166862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24138832092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29167652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23510360717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17853021621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27910423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46139574050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56825685501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98995113372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91452026367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01509571075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09052658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87680387496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84537553787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85794734954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88937664031982</t>
   </si>
   <si>
     <t xml:space="preserve">6.82651710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79508829116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77622985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909585952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15338563919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14710092544556</t>
+    <t xml:space="preserve">6.79508781433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7762303352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05909633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15338611602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1471004486084</t>
   </si>
   <si>
     <t xml:space="preserve">7.49282598495483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47396850585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5053973197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59968709945679</t>
+    <t xml:space="preserve">7.47396898269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50539827346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59968614578247</t>
   </si>
   <si>
     <t xml:space="preserve">7.58082962036133</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64368772506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.624831199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44882535934448</t>
+    <t xml:space="preserve">7.64368867874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62483024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44882440567017</t>
   </si>
   <si>
     <t xml:space="preserve">7.39853763580322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28539037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95852184295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12824249267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39225196838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37967920303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17224311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310628890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11567068099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75683546066284</t>
+    <t xml:space="preserve">7.28539085388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9585223197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12824106216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39225149154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37967777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17224407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310581207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1156702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75683498382568</t>
   </si>
   <si>
     <t xml:space="preserve">7.66883230209351</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06484413146973</t>
+    <t xml:space="preserve">8.06484508514404</t>
   </si>
   <si>
     <t xml:space="preserve">8.65572357177734</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05173683166504</t>
+    <t xml:space="preserve">9.05173587799072</t>
   </si>
   <si>
     <t xml:space="preserve">8.81287097930908</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">8.77515506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68715190887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90715885162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92601585388184</t>
+    <t xml:space="preserve">8.68715286254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90715980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92601776123047</t>
   </si>
   <si>
     <t xml:space="preserve">9.00773429870605</t>
@@ -656,37 +656,37 @@
     <t xml:space="preserve">8.95116138458252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96373271942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03287887573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03916454315186</t>
+    <t xml:space="preserve">8.9637336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03287792205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03916358947754</t>
   </si>
   <si>
     <t xml:space="preserve">8.91973114013672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86944580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87572956085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02030754089355</t>
+    <t xml:space="preserve">8.86944389343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87573051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02030658721924</t>
   </si>
   <si>
     <t xml:space="preserve">9.08316516876221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12716960906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07059288024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08945178985596</t>
+    <t xml:space="preserve">9.12716865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07059383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08945274353027</t>
   </si>
   <si>
     <t xml:space="preserve">8.88830184936523</t>
@@ -704,25 +704,25 @@
     <t xml:space="preserve">8.58657741546631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51743316650391</t>
+    <t xml:space="preserve">8.51743221282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.62429237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61800670623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744705200195</t>
+    <t xml:space="preserve">8.61800765991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744800567627</t>
   </si>
   <si>
     <t xml:space="preserve">9.69290161132812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78718852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8249044418335</t>
+    <t xml:space="preserve">9.78718948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82490539550781</t>
   </si>
   <si>
     <t xml:space="preserve">9.68032932281494</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">9.37231826782227</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26545810699463</t>
+    <t xml:space="preserve">9.26545715332031</t>
   </si>
   <si>
     <t xml:space="preserve">9.22774219512939</t>
@@ -740,28 +740,28 @@
     <t xml:space="preserve">9.39117527008057</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41631984710693</t>
+    <t xml:space="preserve">9.41631889343262</t>
   </si>
   <si>
     <t xml:space="preserve">9.19631290435791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14602565765381</t>
+    <t xml:space="preserve">9.14602470397949</t>
   </si>
   <si>
     <t xml:space="preserve">9.04545021057129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11459541320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28431510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43517780303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25917053222656</t>
+    <t xml:space="preserve">9.11459445953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28431701660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43517875671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25917148590088</t>
   </si>
   <si>
     <t xml:space="preserve">9.29060173034668</t>
@@ -770,25 +770,25 @@
     <t xml:space="preserve">9.34088802337646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20888423919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19002628326416</t>
+    <t xml:space="preserve">9.20888519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19002532958984</t>
   </si>
   <si>
     <t xml:space="preserve">9.12088108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02659225463867</t>
+    <t xml:space="preserve">9.02659130096436</t>
   </si>
   <si>
     <t xml:space="preserve">8.86315822601318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49857521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63057708740234</t>
+    <t xml:space="preserve">8.49857425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63057804107666</t>
   </si>
   <si>
     <t xml:space="preserve">8.91344547271729</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">8.82544231414795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9323034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16488361358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17745399475098</t>
+    <t xml:space="preserve">8.93230438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16488265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17745494842529</t>
   </si>
   <si>
     <t xml:space="preserve">9.17116832733154</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">9.15859699249268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2465991973877</t>
+    <t xml:space="preserve">9.24660015106201</t>
   </si>
   <si>
     <t xml:space="preserve">9.36603164672852</t>
@@ -821,40 +821,40 @@
     <t xml:space="preserve">9.18373966217041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0014476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97630405426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83172988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71858215332031</t>
+    <t xml:space="preserve">9.00144863128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97630500793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83172798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71858310699463</t>
   </si>
   <si>
     <t xml:space="preserve">9.31574535369873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13345336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25288486480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42889213562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58604049682617</t>
+    <t xml:space="preserve">9.13345241546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25288581848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4288911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58603954315186</t>
   </si>
   <si>
     <t xml:space="preserve">9.60489749908447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63632678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61118507385254</t>
+    <t xml:space="preserve">9.63632583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61118412017822</t>
   </si>
   <si>
     <t xml:space="preserve">9.3283166885376</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">9.27174377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42260646820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46032238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5106086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7030782699585</t>
+    <t xml:space="preserve">9.42260551452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4603214263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51060962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70307731628418</t>
   </si>
   <si>
     <t xml:space="preserve">9.73626136779785</t>
@@ -881,10 +881,10 @@
     <t xml:space="preserve">9.57697677612305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55042934417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52388381958008</t>
+    <t xml:space="preserve">9.55043029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52388286590576</t>
   </si>
   <si>
     <t xml:space="preserve">9.33141422271729</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">9.21195220947266</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3247766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42432880401611</t>
+    <t xml:space="preserve">9.32477760314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42433071136475</t>
   </si>
   <si>
     <t xml:space="preserve">9.19203948974609</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">9.11239624023438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27168273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33805179595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43760299682617</t>
+    <t xml:space="preserve">9.2716817855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33805084228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43760395050049</t>
   </si>
   <si>
     <t xml:space="preserve">9.62343502044678</t>
@@ -932,16 +932,16 @@
     <t xml:space="preserve">9.69643974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58361339569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74953556060791</t>
+    <t xml:space="preserve">9.58361434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74953460693359</t>
   </si>
   <si>
     <t xml:space="preserve">9.64998340606689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61679935455322</t>
+    <t xml:space="preserve">9.61679840087891</t>
   </si>
   <si>
     <t xml:space="preserve">9.64334583282471</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">9.68980407714844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72962474822998</t>
+    <t xml:space="preserve">9.7296257019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.7827205657959</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">9.98846244812012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95527839660645</t>
+    <t xml:space="preserve">9.95527744293213</t>
   </si>
   <si>
     <t xml:space="preserve">9.94864177703857</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">10.2141151428223</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2804841995239</t>
+    <t xml:space="preserve">10.2804832458496</t>
   </si>
   <si>
     <t xml:space="preserve">10.1344728469849</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">9.93536758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742944717407</t>
+    <t xml:space="preserve">10.174295425415</t>
   </si>
   <si>
     <t xml:space="preserve">10.1942043304443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2207517623901</t>
+    <t xml:space="preserve">10.2207536697388</t>
   </si>
   <si>
     <t xml:space="preserve">10.5061359405518</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">10.5725059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6720571517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6322364807129</t>
+    <t xml:space="preserve">10.6720590591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6322374343872</t>
   </si>
   <si>
     <t xml:space="preserve">10.492862701416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4331321716309</t>
+    <t xml:space="preserve">10.4331302642822</t>
   </si>
   <si>
     <t xml:space="preserve">10.2472991943359</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">10.2871208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269424438477</t>
+    <t xml:space="preserve">10.3269414901733</t>
   </si>
   <si>
     <t xml:space="preserve">10.2406625747681</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">10.2008399963379</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1278371810913</t>
+    <t xml:space="preserve">10.127836227417</t>
   </si>
   <si>
     <t xml:space="preserve">10.1145620346069</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0946531295776</t>
+    <t xml:space="preserve">10.094651222229</t>
   </si>
   <si>
     <t xml:space="preserve">10.1079254150391</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">9.92873001098633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98182392120361</t>
+    <t xml:space="preserve">9.98182487487793</t>
   </si>
   <si>
     <t xml:space="preserve">10.0282831192017</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">10.3136682510376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3733987808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1676588058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3203048706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402156829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3003959655762</t>
+    <t xml:space="preserve">10.3734006881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1676578521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3203039169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402166366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3003950119019</t>
   </si>
   <si>
     <t xml:space="preserve">10.4596796035767</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">10.5658693313599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3601245880127</t>
+    <t xml:space="preserve">10.360125541687</t>
   </si>
   <si>
     <t xml:space="preserve">10.2672100067139</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">10.4264945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3866729736328</t>
+    <t xml:space="preserve">10.3866739273071</t>
   </si>
   <si>
     <t xml:space="preserve">10.4464054107666</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">10.3800363540649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5592308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4530429840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3667631149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3070316314697</t>
+    <t xml:space="preserve">10.559232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4530420303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3667621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3070306777954</t>
   </si>
   <si>
     <t xml:space="preserve">10.4663162231445</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">10.2074785232544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0481929779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99509906768799</t>
+    <t xml:space="preserve">10.0481948852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9951000213623</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216464996338</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">10.0813779830933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1610202789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1477479934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.227388381958</t>
+    <t xml:space="preserve">10.161021232605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1477451324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2273893356323</t>
   </si>
   <si>
     <t xml:space="preserve">10.1543846130371</t>
@@ -1175,19 +1175,19 @@
     <t xml:space="preserve">9.88227367401123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4065828323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5127735137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4862260818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7317895889282</t>
+    <t xml:space="preserve">10.3999481201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4065847396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5127744674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4862251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7317914962769</t>
   </si>
   <si>
     <t xml:space="preserve">10.7450647354126</t>
@@ -1196,31 +1196,31 @@
     <t xml:space="preserve">10.6388740539551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7517004013062</t>
+    <t xml:space="preserve">10.7517013549805</t>
   </si>
   <si>
     <t xml:space="preserve">10.7649736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6090068817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5990533828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5824594497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4198579788208</t>
+    <t xml:space="preserve">10.6090078353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5824604034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4198570251465</t>
   </si>
   <si>
     <t xml:space="preserve">10.1875677108765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2904396057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.237343788147</t>
+    <t xml:space="preserve">10.2904386520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2373428344727</t>
   </si>
   <si>
     <t xml:space="preserve">10.1975231170654</t>
@@ -1229,40 +1229,40 @@
     <t xml:space="preserve">10.2340259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2240705490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76944637298584</t>
+    <t xml:space="preserve">10.2240695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76944732666016</t>
   </si>
   <si>
     <t xml:space="preserve">10.0647859573364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2771654129028</t>
+    <t xml:space="preserve">10.2771644592285</t>
   </si>
   <si>
     <t xml:space="preserve">10.1643381118774</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4364500045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4132213592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3534889221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3700819015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3966293334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795904159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5957336425781</t>
+    <t xml:space="preserve">10.436450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4132204055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3534898757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.370080947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3966274261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795894622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5957345962524</t>
   </si>
   <si>
     <t xml:space="preserve">10.7550182342529</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">10.8811197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9806718826294</t>
+    <t xml:space="preserve">10.9806709289551</t>
   </si>
   <si>
     <t xml:space="preserve">11.0934982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262372970581</t>
+    <t xml:space="preserve">11.2262353897095</t>
   </si>
   <si>
     <t xml:space="preserve">11.3191518783569</t>
@@ -1292,43 +1292,43 @@
     <t xml:space="preserve">11.0868606567383</t>
   </si>
   <si>
-    <t xml:space="preserve">11.176459312439</t>
+    <t xml:space="preserve">11.1764602661133</t>
   </si>
   <si>
     <t xml:space="preserve">11.0370845794678</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1100902557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.16650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1631832122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1366376876831</t>
+    <t xml:space="preserve">11.110089302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1665048599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1631841659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1366395950317</t>
   </si>
   <si>
     <t xml:space="preserve">10.9773540496826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9906272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8877573013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9508075714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9574432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7384271621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7749300003052</t>
+    <t xml:space="preserve">10.9906253814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8877553939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9508056640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.957444190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7384281158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7749309539795</t>
   </si>
   <si>
     <t xml:space="preserve">10.6986064910889</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">10.5654859542847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4428758621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.421856880188</t>
+    <t xml:space="preserve">10.4428749084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4218578338623</t>
   </si>
   <si>
     <t xml:space="preserve">10.2607135772705</t>
@@ -1361,49 +1361,49 @@
     <t xml:space="preserve">10.1941537857056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3062534332275</t>
+    <t xml:space="preserve">10.3062524795532</t>
   </si>
   <si>
     <t xml:space="preserve">10.2922401428223</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0680389404297</t>
+    <t xml:space="preserve">10.0680379867554</t>
   </si>
   <si>
     <t xml:space="preserve">10.0925617218018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92791366577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2186756134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1696300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2011594772339</t>
+    <t xml:space="preserve">9.9279146194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.218674659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1696310043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2011604309082</t>
   </si>
   <si>
     <t xml:space="preserve">10.3237686157227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.225682258606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.180139541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2502031326294</t>
+    <t xml:space="preserve">10.2256813049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1801404953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2502021789551</t>
   </si>
   <si>
     <t xml:space="preserve">10.1135807037354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1871452331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0119886398315</t>
+    <t xml:space="preserve">10.1871461868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0119895935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.0295038223267</t>
@@ -1412,40 +1412,40 @@
     <t xml:space="preserve">9.93141651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92441082000732</t>
+    <t xml:space="preserve">9.92440986633301</t>
   </si>
   <si>
     <t xml:space="preserve">10.0224990844727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0014781951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2291851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906480789185</t>
+    <t xml:space="preserve">10.0014791488647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2291841506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906490325928</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451091766357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0645360946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.075044631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.120587348938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2712211608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2782287597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2361907958984</t>
+    <t xml:space="preserve">10.0645370483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0750455856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1205863952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.271222114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2782278060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2361898422241</t>
   </si>
   <si>
     <t xml:space="preserve">10.166127204895</t>
@@ -1463,19 +1463,19 @@
     <t xml:space="preserve">10.3973350524902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4779071807861</t>
+    <t xml:space="preserve">10.4779081344604</t>
   </si>
   <si>
     <t xml:space="preserve">10.649561882019</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5444679260254</t>
+    <t xml:space="preserve">10.5444669723511</t>
   </si>
   <si>
     <t xml:space="preserve">10.3798189163208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4673976898193</t>
+    <t xml:space="preserve">10.467396736145</t>
   </si>
   <si>
     <t xml:space="preserve">10.4288635253906</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">10.4989261627197</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5234498977661</t>
+    <t xml:space="preserve">10.5234489440918</t>
   </si>
   <si>
     <t xml:space="preserve">10.505931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2887382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1275930404663</t>
+    <t xml:space="preserve">10.2887372970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127592086792</t>
   </si>
   <si>
     <t xml:space="preserve">10.1486110687256</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">10.3517942428589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.407844543457</t>
+    <t xml:space="preserve">10.4078454971313</t>
   </si>
   <si>
     <t xml:space="preserve">10.3447875976562</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">10.1836423873901</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3623056411743</t>
+    <t xml:space="preserve">10.3623037338257</t>
   </si>
   <si>
     <t xml:space="preserve">10.3868246078491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3693103790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970144271851</t>
+    <t xml:space="preserve">10.369309425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970153808594</t>
   </si>
   <si>
     <t xml:space="preserve">10.5339584350586</t>
@@ -1535,10 +1535,10 @@
     <t xml:space="preserve">10.5199451446533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5900058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6075248718262</t>
+    <t xml:space="preserve">10.5900068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6075239181519</t>
   </si>
   <si>
     <t xml:space="preserve">10.618034362793</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">10.814208984375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4253606796265</t>
+    <t xml:space="preserve">10.4253597259521</t>
   </si>
   <si>
     <t xml:space="preserve">10.3097562789917</t>
@@ -1568,37 +1568,37 @@
     <t xml:space="preserve">10.355297088623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1240901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1065740585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0049829483032</t>
+    <t xml:space="preserve">10.1240892410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.106575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0049819946289</t>
   </si>
   <si>
     <t xml:space="preserve">9.90689373016357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0260019302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97345542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81581401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84383773803711</t>
+    <t xml:space="preserve">10.0260028839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97345447540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8158130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84383869171143</t>
   </si>
   <si>
     <t xml:space="preserve">9.81231117248535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68619537353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6336498260498</t>
+    <t xml:space="preserve">9.68619632720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63364887237549</t>
   </si>
   <si>
     <t xml:space="preserve">9.84033489227295</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">9.73173904418945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94192600250244</t>
+    <t xml:space="preserve">9.94192504882812</t>
   </si>
   <si>
     <t xml:space="preserve">10.0785493850708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0365123748779</t>
+    <t xml:space="preserve">10.0365114212036</t>
   </si>
   <si>
     <t xml:space="preserve">10.0715427398682</t>
@@ -1622,49 +1622,49 @@
     <t xml:space="preserve">10.082052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0470218658447</t>
+    <t xml:space="preserve">10.0470199584961</t>
   </si>
   <si>
     <t xml:space="preserve">9.98396492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1310968399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92090797424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0084857940674</t>
+    <t xml:space="preserve">10.1310958862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92090702056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0084867477417</t>
   </si>
   <si>
     <t xml:space="preserve">9.9664478302002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98746585845947</t>
+    <t xml:space="preserve">9.98746681213379</t>
   </si>
   <si>
     <t xml:space="preserve">10.2396945953369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2992467880249</t>
+    <t xml:space="preserve">10.2992458343506</t>
   </si>
   <si>
     <t xml:space="preserve">10.3377819061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4323654174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5164422988892</t>
+    <t xml:space="preserve">10.4323673248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5164432525635</t>
   </si>
   <si>
     <t xml:space="preserve">10.4008378982544</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98046016693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575313568115</t>
+    <t xml:space="preserve">9.98046112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575294494629</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995674133301</t>
@@ -1673,34 +1673,34 @@
     <t xml:space="preserve">10.1626253128052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3202657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2817316055298</t>
+    <t xml:space="preserve">10.3202648162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2817325592041</t>
   </si>
   <si>
     <t xml:space="preserve">10.376317024231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4498834609985</t>
+    <t xml:space="preserve">10.4498825073242</t>
   </si>
   <si>
     <t xml:space="preserve">10.474404335022</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4954223632812</t>
+    <t xml:space="preserve">10.4954233169556</t>
   </si>
   <si>
     <t xml:space="preserve">10.6705799102783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.768669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7861843109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7301340103149</t>
+    <t xml:space="preserve">10.7686672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7861852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7301330566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.7756757736206</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">10.716121673584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6355504989624</t>
+    <t xml:space="preserve">10.6355495452881</t>
   </si>
   <si>
     <t xml:space="preserve">10.6845932006836</t>
@@ -1727,16 +1727,16 @@
     <t xml:space="preserve">10.7336368560791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024290084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5619840621948</t>
+    <t xml:space="preserve">10.5024299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5619821548462</t>
   </si>
   <si>
     <t xml:space="preserve">10.6425552368164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7231283187866</t>
+    <t xml:space="preserve">10.7231273651123</t>
   </si>
   <si>
     <t xml:space="preserve">10.6250400543213</t>
@@ -1745,13 +1745,13 @@
     <t xml:space="preserve">10.6670770645142</t>
   </si>
   <si>
-    <t xml:space="preserve">10.66357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7126178741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8247175216675</t>
+    <t xml:space="preserve">10.6635751724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7126169204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8247184753418</t>
   </si>
   <si>
     <t xml:space="preserve">10.8737630844116</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">10.8807687759399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9963722229004</t>
+    <t xml:space="preserve">10.9963731765747</t>
   </si>
   <si>
     <t xml:space="preserve">11.0629329681396</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">11.1995553970337</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0664358139038</t>
+    <t xml:space="preserve">11.0664367675781</t>
   </si>
   <si>
     <t xml:space="preserve">11.0173931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.069938659668</t>
+    <t xml:space="preserve">11.0699377059937</t>
   </si>
   <si>
     <t xml:space="preserve">11.0454168319702</t>
@@ -1790,16 +1790,16 @@
     <t xml:space="preserve">11.0769462585449</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2135667800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4482793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5463666915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5323543548584</t>
+    <t xml:space="preserve">11.2135677337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.448278427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.546365737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5323534011841</t>
   </si>
   <si>
     <t xml:space="preserve">11.5043287277222</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">11.4412727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4798069000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5603790283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6829900741577</t>
+    <t xml:space="preserve">11.4798078536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5603799819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6829891204834</t>
   </si>
   <si>
     <t xml:space="preserve">11.6549644470215</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">11.704008102417</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6514596939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.69700050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6794872283936</t>
+    <t xml:space="preserve">11.651460647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6970014572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6794862747192</t>
   </si>
   <si>
     <t xml:space="preserve">11.7075109481812</t>
@@ -1847,25 +1847,25 @@
     <t xml:space="preserve">11.7810773849487</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8441352844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9106950759888</t>
+    <t xml:space="preserve">11.8441362380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9106941223145</t>
   </si>
   <si>
     <t xml:space="preserve">12.050820350647</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9422225952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9176988601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9527320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0788450241089</t>
+    <t xml:space="preserve">11.9422216415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9176998138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9527311325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0788440704346</t>
   </si>
   <si>
     <t xml:space="preserve">12.0473165512085</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">12.1173782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1278877258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0192918777466</t>
+    <t xml:space="preserve">12.1278886795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0192928314209</t>
   </si>
   <si>
     <t xml:space="preserve">11.9737501144409</t>
@@ -1892,10 +1892,10 @@
     <t xml:space="preserve">11.8091020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8511409759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9036874771118</t>
+    <t xml:space="preserve">11.8511400222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9036865234375</t>
   </si>
   <si>
     <t xml:space="preserve">12.0017766952515</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">12.0806484222412</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0547561645508</t>
+    <t xml:space="preserve">12.0547552108765</t>
   </si>
   <si>
     <t xml:space="preserve">11.8032293319702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0399608612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9031009674072</t>
+    <t xml:space="preserve">12.0399599075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9031000137329</t>
   </si>
   <si>
     <t xml:space="preserve">11.8180246353149</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">11.6922626495361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.758843421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6256818771362</t>
+    <t xml:space="preserve">11.7588424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6256828308105</t>
   </si>
   <si>
     <t xml:space="preserve">11.5997896194458</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">11.658971786499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6996583938599</t>
+    <t xml:space="preserve">11.6996593475342</t>
   </si>
   <si>
     <t xml:space="preserve">11.7292499542236</t>
@@ -1952,22 +1952,22 @@
     <t xml:space="preserve">11.8217239379883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9437894821167</t>
+    <t xml:space="preserve">11.9437885284424</t>
   </si>
   <si>
     <t xml:space="preserve">11.917896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9696798324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.93639087677</t>
+    <t xml:space="preserve">11.9696807861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9363899230957</t>
   </si>
   <si>
     <t xml:space="preserve">12.010368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2470989227295</t>
+    <t xml:space="preserve">12.2470979690552</t>
   </si>
   <si>
     <t xml:space="preserve">12.3173780441284</t>
@@ -1982,16 +1982,16 @@
     <t xml:space="preserve">12.2914848327637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2507963180542</t>
+    <t xml:space="preserve">12.2507972717285</t>
   </si>
   <si>
     <t xml:space="preserve">12.2138090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3025817871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4024534225464</t>
+    <t xml:space="preserve">12.3025808334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4024524688721</t>
   </si>
   <si>
     <t xml:space="preserve">12.6243886947632</t>
@@ -2009,19 +2009,19 @@
     <t xml:space="preserve">12.6983661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7316551208496</t>
+    <t xml:space="preserve">12.7316560745239</t>
   </si>
   <si>
     <t xml:space="preserve">12.7279577255249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.676173210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7020645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6354837417603</t>
+    <t xml:space="preserve">12.6761741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7020654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6354846954346</t>
   </si>
   <si>
     <t xml:space="preserve">12.5023231506348</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">12.5245161056519</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5726022720337</t>
+    <t xml:space="preserve">12.5726041793823</t>
   </si>
   <si>
     <t xml:space="preserve">12.48752784729</t>
@@ -2042,16 +2042,16 @@
     <t xml:space="preserve">12.5097217559814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3617658615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4579381942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4690351486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1620235443115</t>
+    <t xml:space="preserve">12.3617639541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4579362869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4690341949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1620244979858</t>
   </si>
   <si>
     <t xml:space="preserve">12.0843458175659</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">12.0658512115479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1583242416382</t>
+    <t xml:space="preserve">12.1583251953125</t>
   </si>
   <si>
     <t xml:space="preserve">11.8291215896606</t>
@@ -2072,22 +2072,22 @@
     <t xml:space="preserve">11.9326906204224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7773361206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9659805297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9992723464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1139364242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0732498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9585838317871</t>
+    <t xml:space="preserve">11.7773370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9659795761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9992713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1139373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0732488632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9585847854614</t>
   </si>
   <si>
     <t xml:space="preserve">11.9733791351318</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">12.1546258926392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0325613021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1472282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1842174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2101078033447</t>
+    <t xml:space="preserve">12.0325603485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1472291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1842164993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.210108757019</t>
   </si>
   <si>
     <t xml:space="preserve">12.2397012710571</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">12.4542379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6095933914185</t>
+    <t xml:space="preserve">12.6095924377441</t>
   </si>
   <si>
     <t xml:space="preserve">12.6539793014526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7242584228516</t>
+    <t xml:space="preserve">12.7242574691772</t>
   </si>
   <si>
     <t xml:space="preserve">12.7057647705078</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">12.946192741394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9276990890503</t>
+    <t xml:space="preserve">12.9277000427246</t>
   </si>
   <si>
     <t xml:space="preserve">12.8537197113037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8167324066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2310085296631</t>
+    <t xml:space="preserve">12.8167314529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2310094833374</t>
   </si>
   <si>
     <t xml:space="preserve">13.2014179229736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2495040893555</t>
+    <t xml:space="preserve">13.2495050430298</t>
   </si>
   <si>
     <t xml:space="preserve">13.2162132263184</t>
@@ -2159,22 +2159,22 @@
     <t xml:space="preserve">13.2421064376831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2125177383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1533327102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1237411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9055042266846</t>
+    <t xml:space="preserve">13.2125158309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1533336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1237421035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9055051803589</t>
   </si>
   <si>
     <t xml:space="preserve">12.9757862091064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0571613311768</t>
+    <t xml:space="preserve">13.0571603775024</t>
   </si>
   <si>
     <t xml:space="preserve">13.1459350585938</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">13.1274404525757</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1903209686279</t>
+    <t xml:space="preserve">13.1903200149536</t>
   </si>
   <si>
     <t xml:space="preserve">13.219913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3641700744629</t>
+    <t xml:space="preserve">13.3641710281372</t>
   </si>
   <si>
     <t xml:space="preserve">13.2901916503906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.393759727478</t>
+    <t xml:space="preserve">13.393762588501</t>
   </si>
   <si>
     <t xml:space="preserve">13.3974618911743</t>
@@ -2204,37 +2204,37 @@
     <t xml:space="preserve">13.390064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4603404998779</t>
+    <t xml:space="preserve">13.4603414535522</t>
   </si>
   <si>
     <t xml:space="preserve">13.5935039520264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.578706741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6045980453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6119966506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6083002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.586106300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.489933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4455442428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6859760284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.752555847168</t>
+    <t xml:space="preserve">13.5787076950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6045989990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6119976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6082992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5861053466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4899339675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4455471038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6859769821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7525568008423</t>
   </si>
   <si>
     <t xml:space="preserve">13.756254196167</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">14.1890287399292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1964273452759</t>
+    <t xml:space="preserve">14.1964254379272</t>
   </si>
   <si>
     <t xml:space="preserve">14.4257593154907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.303692817688</t>
+    <t xml:space="preserve">14.3036947250366</t>
   </si>
   <si>
     <t xml:space="preserve">14.1816310882568</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">14.0928564071655</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8339319229126</t>
+    <t xml:space="preserve">13.8339338302612</t>
   </si>
   <si>
     <t xml:space="preserve">13.7895441055298</t>
@@ -2270,10 +2270,10 @@
     <t xml:space="preserve">13.8006429672241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7155666351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8265352249146</t>
+    <t xml:space="preserve">13.7155685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8265361785889</t>
   </si>
   <si>
     <t xml:space="preserve">13.8302335739136</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">13.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5158271789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936332702637</t>
+    <t xml:space="preserve">13.5158252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.493631362915</t>
   </si>
   <si>
     <t xml:space="preserve">13.4714374542236</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">13.4788370132446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5084276199341</t>
+    <t xml:space="preserve">13.5084285736084</t>
   </si>
   <si>
     <t xml:space="preserve">13.5824069976807</t>
@@ -2306,19 +2306,19 @@
     <t xml:space="preserve">13.5676107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.674880027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6933736801147</t>
+    <t xml:space="preserve">13.6748790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6933746337891</t>
   </si>
   <si>
     <t xml:space="preserve">13.7414608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.682276725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0373725891113</t>
+    <t xml:space="preserve">13.6822776794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0373735427856</t>
   </si>
   <si>
     <t xml:space="preserve">13.8191356658936</t>
@@ -2327,28 +2327,28 @@
     <t xml:space="preserve">13.7599544525146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6230964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5232238769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6637811660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6341905593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4640426635742</t>
+    <t xml:space="preserve">13.6230955123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5232248306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.663782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6341924667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4640407562256</t>
   </si>
   <si>
     <t xml:space="preserve">13.5343217849731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5417194366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5047283172607</t>
+    <t xml:space="preserve">13.5417184829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5047292709351</t>
   </si>
   <si>
     <t xml:space="preserve">13.4159545898438</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">13.4196538925171</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1089458465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4973306655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2347087860107</t>
+    <t xml:space="preserve">13.1089448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.497332572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2347068786621</t>
   </si>
   <si>
     <t xml:space="preserve">13.016471862793</t>
@@ -2375,31 +2375,31 @@
     <t xml:space="preserve">13.0830526351929</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2753963470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5565156936646</t>
+    <t xml:space="preserve">13.2753973007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5565147399902</t>
   </si>
   <si>
     <t xml:space="preserve">13.6415891647339</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8487253189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8894157409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8931159973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670915603638</t>
+    <t xml:space="preserve">13.8487272262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8894166946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8931169509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670934677124</t>
   </si>
   <si>
     <t xml:space="preserve">12.8981065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8241281509399</t>
+    <t xml:space="preserve">12.8241271972656</t>
   </si>
   <si>
     <t xml:space="preserve">12.7723436355591</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">11.6404762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2742834091187</t>
+    <t xml:space="preserve">11.274284362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.179407119751</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">8.72573471069336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92917442321777</t>
+    <t xml:space="preserve">8.92917346954346</t>
   </si>
   <si>
     <t xml:space="preserve">8.35584259033203</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">8.05623149871826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0599308013916</t>
+    <t xml:space="preserve">8.05993175506592</t>
   </si>
   <si>
     <t xml:space="preserve">8.95136833190918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21029186248779</t>
+    <t xml:space="preserve">9.21029090881348</t>
   </si>
   <si>
     <t xml:space="preserve">9.36564636230469</t>
@@ -2462,16 +2462,16 @@
     <t xml:space="preserve">9.14741134643555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18070030212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94766902923584</t>
+    <t xml:space="preserve">9.18070125579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94766998291016</t>
   </si>
   <si>
     <t xml:space="preserve">9.1215181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01424884796143</t>
+    <t xml:space="preserve">9.01424980163574</t>
   </si>
   <si>
     <t xml:space="preserve">9.28057098388672</t>
@@ -2483,19 +2483,19 @@
     <t xml:space="preserve">9.52100086212158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71704292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32125949859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1659049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26947402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99945449829102</t>
+    <t xml:space="preserve">9.71704196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32125854492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16590595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26947498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9994535446167</t>
   </si>
   <si>
     <t xml:space="preserve">9.22138786315918</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">9.15110969543457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42852878570557</t>
+    <t xml:space="preserve">9.42852783203125</t>
   </si>
   <si>
     <t xml:space="preserve">9.59497833251953</t>
@@ -2516,22 +2516,22 @@
     <t xml:space="preserve">9.62826919555664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39523696899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56908702850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42113018035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48401165008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59867763519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51360321044922</t>
+    <t xml:space="preserve">9.39523601531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5690860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42112922668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48400974273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59867858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5136022567749</t>
   </si>
   <si>
     <t xml:space="preserve">9.47291564941406</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">9.29166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.177001953125</t>
+    <t xml:space="preserve">9.17700290679932</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517791748047</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">9.80016803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84254264831543</t>
+    <t xml:space="preserve">9.84254169464111</t>
   </si>
   <si>
     <t xml:space="preserve">9.61911010742188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93114376068115</t>
+    <t xml:space="preserve">9.93114471435547</t>
   </si>
   <si>
     <t xml:space="preserve">10.2316207885742</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">10.7439727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7902002334595</t>
+    <t xml:space="preserve">10.7901992797852</t>
   </si>
   <si>
     <t xml:space="preserve">11.0829725265503</t>
@@ -2594,19 +2594,19 @@
     <t xml:space="preserve">10.990517616272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7632341384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.347188949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3433361053467</t>
+    <t xml:space="preserve">10.7632331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3471879959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.343337059021</t>
   </si>
   <si>
     <t xml:space="preserve">10.3279285430908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5590648651123</t>
+    <t xml:space="preserve">10.559063911438</t>
   </si>
   <si>
     <t xml:space="preserve">10.4820184707642</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">10.3741550445557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6592226028442</t>
+    <t xml:space="preserve">10.6592235565186</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898809432983</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">10.6438140869141</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6476650238037</t>
+    <t xml:space="preserve">10.647665977478</t>
   </si>
   <si>
     <t xml:space="preserve">10.5475072860718</t>
   </si>
   <si>
-    <t xml:space="preserve">10.616847038269</t>
+    <t xml:space="preserve">10.6168479919434</t>
   </si>
   <si>
     <t xml:space="preserve">10.770938873291</t>
@@ -2696,43 +2696,43 @@
     <t xml:space="preserve">9.81172370910645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9658145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0428600311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78860950469971</t>
+    <t xml:space="preserve">9.96581554412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0428590774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78861045837402</t>
   </si>
   <si>
     <t xml:space="preserve">10.2046556472778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1468715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100643157959</t>
+    <t xml:space="preserve">10.1468706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1006441116333</t>
   </si>
   <si>
     <t xml:space="preserve">9.94655323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1237573623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0390071868896</t>
+    <t xml:space="preserve">10.12375831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.039008140564</t>
   </si>
   <si>
     <t xml:space="preserve">9.96966743469238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1815423965454</t>
+    <t xml:space="preserve">10.1815414428711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2393255233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2008028030396</t>
+    <t xml:space="preserve">10.2008037567139</t>
   </si>
   <si>
     <t xml:space="preserve">10.0197467803955</t>
@@ -2744,10 +2744,10 @@
     <t xml:space="preserve">10.0313034057617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98507595062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87721252441406</t>
+    <t xml:space="preserve">9.98507499694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87721157073975</t>
   </si>
   <si>
     <t xml:space="preserve">9.77320194244385</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">9.97737121582031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89262199401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88106441497803</t>
+    <t xml:space="preserve">9.89262104034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88106536865234</t>
   </si>
   <si>
     <t xml:space="preserve">9.86565589904785</t>
@@ -2804,10 +2804,10 @@
     <t xml:space="preserve">9.5343599319458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50354290008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69615650177002</t>
+    <t xml:space="preserve">9.50354194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69615745544434</t>
   </si>
   <si>
     <t xml:space="preserve">9.63837242126465</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">9.40338325500488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42649745941162</t>
+    <t xml:space="preserve">9.4264965057373</t>
   </si>
   <si>
     <t xml:space="preserve">9.19150924682617</t>
@@ -2861,16 +2861,16 @@
     <t xml:space="preserve">9.3995304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5382137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1391668319702</t>
+    <t xml:space="preserve">9.53821277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1391677856445</t>
   </si>
   <si>
     <t xml:space="preserve">10.3857116699219</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3703022003174</t>
+    <t xml:space="preserve">10.3703031539917</t>
   </si>
   <si>
     <t xml:space="preserve">10.5051317214966</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">10.8865070343018</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9635515213013</t>
+    <t xml:space="preserve">10.963550567627</t>
   </si>
   <si>
     <t xml:space="preserve">10.8402786254883</t>
@@ -2897,61 +2897,61 @@
     <t xml:space="preserve">11.0791206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1677227020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1484603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0328931808472</t>
+    <t xml:space="preserve">11.1677217483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1484613418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0328922271729</t>
   </si>
   <si>
     <t xml:space="preserve">11.113790512085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2255058288574</t>
+    <t xml:space="preserve">11.2255067825317</t>
   </si>
   <si>
     <t xml:space="preserve">11.171573638916</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0637092590332</t>
+    <t xml:space="preserve">11.0637102127075</t>
   </si>
   <si>
     <t xml:space="preserve">11.0367450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0598573684692</t>
+    <t xml:space="preserve">11.0598583221436</t>
   </si>
   <si>
     <t xml:space="preserve">10.8518362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9866647720337</t>
+    <t xml:space="preserve">10.986665725708</t>
   </si>
   <si>
     <t xml:space="preserve">11.0020742416382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0136308670044</t>
+    <t xml:space="preserve">11.0136318206787</t>
   </si>
   <si>
     <t xml:space="preserve">10.7015972137451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633937835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0675630569458</t>
+    <t xml:space="preserve">10.863392829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0675621032715</t>
   </si>
   <si>
     <t xml:space="preserve">11.0290403366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7208585739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1561641693115</t>
+    <t xml:space="preserve">10.7208595275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1561651229858</t>
   </si>
   <si>
     <t xml:space="preserve">11.2062435150146</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">11.1407566070557</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1754264831543</t>
+    <t xml:space="preserve">11.17542552948</t>
   </si>
   <si>
     <t xml:space="preserve">11.4104146957397</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">11.5182781219482</t>
   </si>
   <si>
-    <t xml:space="preserve">11.880392074585</t>
+    <t xml:space="preserve">11.8803911209106</t>
   </si>
   <si>
     <t xml:space="preserve">11.968994140625</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">12.1423454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.096118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0691518783569</t>
+    <t xml:space="preserve">12.0961179733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0691528320312</t>
   </si>
   <si>
     <t xml:space="preserve">12.1924257278442</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">11.972846031189</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9458799362183</t>
+    <t xml:space="preserve">11.9458808898926</t>
   </si>
   <si>
     <t xml:space="preserve">11.9921073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2001304626465</t>
+    <t xml:space="preserve">12.2001295089722</t>
   </si>
   <si>
     <t xml:space="preserve">11.9805517196655</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">12.3311061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7124805450439</t>
+    <t xml:space="preserve">12.7124814987183</t>
   </si>
   <si>
     <t xml:space="preserve">12.7355947494507</t>
@@ -3065,22 +3065,22 @@
     <t xml:space="preserve">12.8049364089966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.916651725769</t>
+    <t xml:space="preserve">12.9166507720947</t>
   </si>
   <si>
     <t xml:space="preserve">13.0245141983032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9705820083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.012957572937</t>
+    <t xml:space="preserve">12.9705829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0129566192627</t>
   </si>
   <si>
     <t xml:space="preserve">12.9050931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9898433685303</t>
+    <t xml:space="preserve">12.9898443222046</t>
   </si>
   <si>
     <t xml:space="preserve">12.889684677124</t>
@@ -3095,25 +3095,25 @@
     <t xml:space="preserve">12.9628791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0399227142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1439361572266</t>
+    <t xml:space="preserve">13.0399236679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1439352035522</t>
   </si>
   <si>
     <t xml:space="preserve">13.2055711746216</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1208229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2017192840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2286863327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786060333252</t>
+    <t xml:space="preserve">13.1208219528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2017202377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2286853790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786050796509</t>
   </si>
   <si>
     <t xml:space="preserve">13.0707426071167</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">13.2672071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">13.382776260376</t>
+    <t xml:space="preserve">13.3827753067017</t>
   </si>
   <si>
     <t xml:space="preserve">13.5291614532471</t>
@@ -3170,13 +3170,13 @@
     <t xml:space="preserve">13.4675245285034</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5137538909912</t>
+    <t xml:space="preserve">13.5137548446655</t>
   </si>
   <si>
     <t xml:space="preserve">13.5907964706421</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5946502685547</t>
+    <t xml:space="preserve">13.5946493148804</t>
   </si>
   <si>
     <t xml:space="preserve">13.6216154098511</t>
@@ -3188,13 +3188,13 @@
     <t xml:space="preserve">13.4405584335327</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6062068939209</t>
+    <t xml:space="preserve">13.6062078475952</t>
   </si>
   <si>
     <t xml:space="preserve">13.8105030059814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6797533035278</t>
+    <t xml:space="preserve">13.6797542572021</t>
   </si>
   <si>
     <t xml:space="preserve">13.5326595306396</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">13.7655582427979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7410430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8350200653076</t>
+    <t xml:space="preserve">13.7410440444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8350191116333</t>
   </si>
   <si>
     <t xml:space="preserve">13.8513650894165</t>
@@ -3218,13 +3218,13 @@
     <t xml:space="preserve">13.9616832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0965213775635</t>
+    <t xml:space="preserve">14.0965204238892</t>
   </si>
   <si>
     <t xml:space="preserve">14.0760908126831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0393171310425</t>
+    <t xml:space="preserve">14.0393180847168</t>
   </si>
   <si>
     <t xml:space="preserve">13.9943714141846</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">14.0066299438477</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0148010253906</t>
+    <t xml:space="preserve">14.0148000717163</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270595550537</t>
@@ -3242,13 +3242,13 @@
     <t xml:space="preserve">14.0883474349976</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8023319244385</t>
+    <t xml:space="preserve">13.8023309707642</t>
   </si>
   <si>
     <t xml:space="preserve">13.8391046524048</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7982473373413</t>
+    <t xml:space="preserve">13.798246383667</t>
   </si>
   <si>
     <t xml:space="preserve">13.6102933883667</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">13.6879243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7369575500488</t>
+    <t xml:space="preserve">13.7369565963745</t>
   </si>
   <si>
     <t xml:space="preserve">13.8145895004272</t>
@@ -3287,25 +3287,25 @@
     <t xml:space="preserve">13.9003944396973</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8309326171875</t>
+    <t xml:space="preserve">13.8309335708618</t>
   </si>
   <si>
     <t xml:space="preserve">13.7287845611572</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6756687164307</t>
+    <t xml:space="preserve">13.675669670105</t>
   </si>
   <si>
     <t xml:space="preserve">13.2589015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3937358856201</t>
+    <t xml:space="preserve">13.3937368392944</t>
   </si>
   <si>
     <t xml:space="preserve">13.6838407516479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7206144332886</t>
+    <t xml:space="preserve">13.7206134796143</t>
   </si>
   <si>
     <t xml:space="preserve">13.6920108795166</t>
@@ -3314,22 +3314,22 @@
     <t xml:space="preserve">13.7696447372437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6266345977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5449180603027</t>
+    <t xml:space="preserve">13.6266355514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5449171066284</t>
   </si>
   <si>
     <t xml:space="preserve">13.5857772827148</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7941598892212</t>
+    <t xml:space="preserve">13.7941608428955</t>
   </si>
   <si>
     <t xml:space="preserve">13.863621711731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9167404174805</t>
+    <t xml:space="preserve">13.9167394638062</t>
   </si>
   <si>
     <t xml:space="preserve">14.0515747070312</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">14.1986684799194</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1169490814209</t>
+    <t xml:space="preserve">14.1169500350952</t>
   </si>
   <si>
     <t xml:space="preserve">14.1210374832153</t>
@@ -3365,37 +3365,37 @@
     <t xml:space="preserve">14.1128644943237</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1782388687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1537237167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3294191360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.431568145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5010299682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2436151504517</t>
+    <t xml:space="preserve">14.1782398223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945829391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1537246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.329418182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4315690994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.501030921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.243616104126</t>
   </si>
   <si>
     <t xml:space="preserve">14.4233961105347</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3825378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765129089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6031770706177</t>
+    <t xml:space="preserve">14.3825368881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765138626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.603178024292</t>
   </si>
   <si>
     <t xml:space="preserve">14.451997756958</t>
@@ -3404,16 +3404,16 @@
     <t xml:space="preserve">14.2599592208862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6930675506592</t>
+    <t xml:space="preserve">14.6930685043335</t>
   </si>
   <si>
     <t xml:space="preserve">14.811559677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9790859222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2201557159424</t>
+    <t xml:space="preserve">14.9790849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.220157623291</t>
   </si>
   <si>
     <t xml:space="preserve">14.9137105941772</t>
@@ -3422,13 +3422,13 @@
     <t xml:space="preserve">15.0526323318481</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0281162261963</t>
+    <t xml:space="preserve">15.0281171798706</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444593429565</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158586502075</t>
+    <t xml:space="preserve">15.0158596038818</t>
   </si>
   <si>
     <t xml:space="preserve">15.3182191848755</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">15.4407968521118</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5184316635132</t>
+    <t xml:space="preserve">15.5184297561646</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3018770217896</t>
+    <t xml:space="preserve">15.3018751144409</t>
   </si>
   <si>
     <t xml:space="preserve">15.3549938201904</t>
@@ -5172,6 +5172,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.9400005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7900009155273</t>
   </si>
 </sst>
 </file>
@@ -61283,7 +61286,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6493981481</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>2636730</v>
@@ -61304,6 +61307,32 @@
         <v>1719</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6496296296</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>4336499</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>24.0699996948242</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>23.6399993896484</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>23.7900009155273</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1725">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,49 +44,49 @@
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70897769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52511882781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50732707977295</t>
+    <t xml:space="preserve">9.7089786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52511787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50732612609863</t>
   </si>
   <si>
     <t xml:space="preserve">9.40649890899658</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13960552215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27008819580078</t>
+    <t xml:space="preserve">9.13960647583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2700891494751</t>
   </si>
   <si>
     <t xml:space="preserve">9.45394706726074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34125804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13367366790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93795394897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00319480895996</t>
+    <t xml:space="preserve">9.34125900268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13367462158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93795299530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00319290161133</t>
   </si>
   <si>
     <t xml:space="preserve">8.64733695983887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80747127532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8489875793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66513061523438</t>
+    <t xml:space="preserve">8.80747318267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84898853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66512870788574</t>
   </si>
   <si>
     <t xml:space="preserve">8.39230537414551</t>
@@ -95,37 +95,37 @@
     <t xml:space="preserve">8.27961826324463</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94155311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17879009246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0364465713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73396968841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5441780090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114540100098</t>
+    <t xml:space="preserve">7.94155359268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17879104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03644847869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73396921157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54417943954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114492416382</t>
   </si>
   <si>
     <t xml:space="preserve">7.25949287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03411626815796</t>
+    <t xml:space="preserve">7.03411531448364</t>
   </si>
   <si>
     <t xml:space="preserve">6.74942970275879</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10528659820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50032997131348</t>
+    <t xml:space="preserve">7.10528755187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50033044815063</t>
   </si>
   <si>
     <t xml:space="preserve">6.61301755905151</t>
@@ -134,46 +134,46 @@
     <t xml:space="preserve">6.87991189956665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90363454818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06377077102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01632261276245</t>
+    <t xml:space="preserve">6.90363597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06376981735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01632213592529</t>
   </si>
   <si>
     <t xml:space="preserve">6.94515180587769</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19425249099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18832063674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2535605430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57383394241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755754470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65686655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7754864692688</t>
+    <t xml:space="preserve">7.19425201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18832015991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25356197357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57383441925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755897521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65686702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77548503875732</t>
   </si>
   <si>
     <t xml:space="preserve">7.76955461502075</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69245338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55603981018066</t>
+    <t xml:space="preserve">7.69245290756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55603933334351</t>
   </si>
   <si>
     <t xml:space="preserve">7.63314294815063</t>
@@ -182,19 +182,19 @@
     <t xml:space="preserve">7.69838333129883</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68652200698853</t>
+    <t xml:space="preserve">7.68652105331421</t>
   </si>
   <si>
     <t xml:space="preserve">8.24403190612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17286014556885</t>
+    <t xml:space="preserve">8.17285919189453</t>
   </si>
   <si>
     <t xml:space="preserve">8.125412940979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21437644958496</t>
+    <t xml:space="preserve">8.21437740325928</t>
   </si>
   <si>
     <t xml:space="preserve">8.23216915130615</t>
@@ -203,64 +203,64 @@
     <t xml:space="preserve">8.09575653076172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0008602142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85258865356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68059015274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74583101272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80514049530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72803640365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61535024642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52638483047485</t>
+    <t xml:space="preserve">8.00086116790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90003538131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85258769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68058919906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74583053588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80513906478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72803926467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61534929275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5263843536377</t>
   </si>
   <si>
     <t xml:space="preserve">7.28321647644043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30694103240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14680576324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35438632965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44335126876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46707487106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75176191329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81700372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79920816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87038135528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92375946044922</t>
+    <t xml:space="preserve">7.30694007873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14680337905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3543872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44335269927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46707534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75176239013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81700229644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7992091178894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87037992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92376041412354</t>
   </si>
   <si>
     <t xml:space="preserve">8.08389472961426</t>
@@ -269,28 +269,28 @@
     <t xml:space="preserve">8.16693019866943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11948204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19065380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13727283477783</t>
+    <t xml:space="preserve">8.11948013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19065189361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13727474212646</t>
   </si>
   <si>
     <t xml:space="preserve">8.1076192855835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89410495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71024465560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66872787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85851907730103</t>
+    <t xml:space="preserve">7.89410591125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71024608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66872835159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85851860046387</t>
   </si>
   <si>
     <t xml:space="preserve">7.38404226303101</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">7.47300720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36032056808472</t>
+    <t xml:space="preserve">7.36031770706177</t>
   </si>
   <si>
     <t xml:space="preserve">7.41962862014771</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">7.56197166442871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63111591339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07113265991211</t>
+    <t xml:space="preserve">7.63111686706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07113075256348</t>
   </si>
   <si>
     <t xml:space="preserve">8.18427848815918</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">8.24713706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28485202789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19056224822998</t>
+    <t xml:space="preserve">8.28485298156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19056510925293</t>
   </si>
   <si>
     <t xml:space="preserve">8.14656257629395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09627437591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86998224258423</t>
+    <t xml:space="preserve">8.09627628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86998176574707</t>
   </si>
   <si>
     <t xml:space="preserve">7.85740995407104</t>
@@ -341,28 +341,28 @@
     <t xml:space="preserve">7.98941469192505</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1402759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10256195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73797798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48654079437256</t>
+    <t xml:space="preserve">8.14027500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10256099700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73797750473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48653936386108</t>
   </si>
   <si>
     <t xml:space="preserve">7.27281856536865</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29796266555786</t>
+    <t xml:space="preserve">7.2979621887207</t>
   </si>
   <si>
     <t xml:space="preserve">7.2162446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49911260604858</t>
+    <t xml:space="preserve">7.49911165237427</t>
   </si>
   <si>
     <t xml:space="preserve">7.7254056930542</t>
@@ -371,19 +371,19 @@
     <t xml:space="preserve">7.86369609832764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90769624710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86423301696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28278541564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38021659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53107976913452</t>
+    <t xml:space="preserve">7.90769672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86423254013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28278493881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38021755218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53107833862305</t>
   </si>
   <si>
     <t xml:space="preserve">6.63165378570557</t>
@@ -392,49 +392,49 @@
     <t xml:space="preserve">6.70708465576172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51850652694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39278841018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16963768005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18221044540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66308355331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71337080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05281114578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98366641998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16595792770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0968132019043</t>
+    <t xml:space="preserve">6.51850700378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39278888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16963815689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18220996856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66308307647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71337127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05281162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98366594314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1659574508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09681224822998</t>
   </si>
   <si>
     <t xml:space="preserve">7.13452816009521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04652500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081478118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0653829574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138185501099</t>
+    <t xml:space="preserve">7.04652404785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081335067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06538343429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138137817383</t>
   </si>
   <si>
     <t xml:space="preserve">6.97109413146973</t>
@@ -443,10 +443,10 @@
     <t xml:space="preserve">7.10309886932373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90823459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4048228263855</t>
+    <t xml:space="preserve">6.90823411941528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40482234954834</t>
   </si>
   <si>
     <t xml:space="preserve">7.3733925819397</t>
@@ -455,136 +455,136 @@
     <t xml:space="preserve">7.08424091339111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36710739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51797103881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60597276687622</t>
+    <t xml:space="preserve">7.36710691452026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5179705619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60597133636475</t>
   </si>
   <si>
     <t xml:space="preserve">7.61225891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65626049041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38596439361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18481636047363</t>
+    <t xml:space="preserve">7.65626096725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38596487045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18481588363647</t>
   </si>
   <si>
     <t xml:space="preserve">7.20367240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02766609191895</t>
+    <t xml:space="preserve">7.0276665687561</t>
   </si>
   <si>
     <t xml:space="preserve">7.34196281433105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31682014465332</t>
+    <t xml:space="preserve">7.31682109832764</t>
   </si>
   <si>
     <t xml:space="preserve">7.10938501358032</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03395318984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566326141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07166719436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24138975143433</t>
+    <t xml:space="preserve">7.03395223617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07166814804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24138879776001</t>
   </si>
   <si>
     <t xml:space="preserve">7.29167699813843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23510313034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17852878570557</t>
+    <t xml:space="preserve">7.2351016998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17852973937988</t>
   </si>
   <si>
     <t xml:space="preserve">7.2791051864624</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46139669418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56825685501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9899525642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91452121734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01509523391724</t>
+    <t xml:space="preserve">7.46139621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56825733184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98995161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91451978683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01509571075439</t>
   </si>
   <si>
     <t xml:space="preserve">7.09052610397339</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04023838043213</t>
+    <t xml:space="preserve">7.04023885726929</t>
   </si>
   <si>
     <t xml:space="preserve">6.8768048286438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84537553787231</t>
+    <t xml:space="preserve">6.84537601470947</t>
   </si>
   <si>
     <t xml:space="preserve">6.85794734954834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88937664031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82651805877686</t>
+    <t xml:space="preserve">6.88937759399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82651662826538</t>
   </si>
   <si>
     <t xml:space="preserve">6.79508781433105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77622985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15338611602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1471004486084</t>
+    <t xml:space="preserve">6.77623081207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05909585952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15338516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14710092544556</t>
   </si>
   <si>
     <t xml:space="preserve">7.49282598495483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47396993637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50539779663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59968662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58082914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64368724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62482976913452</t>
+    <t xml:space="preserve">7.47396802902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5053973197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59968757629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58083009719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64368772506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62483072280884</t>
   </si>
   <si>
     <t xml:space="preserve">7.44882392883301</t>
@@ -593,40 +593,40 @@
     <t xml:space="preserve">7.39853715896606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28539037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9585223197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12824296951294</t>
+    <t xml:space="preserve">7.28539085388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95852327346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12824153900146</t>
   </si>
   <si>
     <t xml:space="preserve">7.39225149154663</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37967872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17224454879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310485839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11566877365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75683450698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66883087158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06484413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65572261810303</t>
+    <t xml:space="preserve">7.37968015670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17224359512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310581207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1156702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75683546066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66883134841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06484508514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65572357177734</t>
   </si>
   <si>
     <t xml:space="preserve">9.05173587799072</t>
@@ -635,154 +635,154 @@
     <t xml:space="preserve">8.81287097930908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83801460266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77515411376953</t>
+    <t xml:space="preserve">8.83801555633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77515602111816</t>
   </si>
   <si>
     <t xml:space="preserve">8.68715190887451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90715885162354</t>
+    <t xml:space="preserve">8.90715980529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.92601680755615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00773429870605</t>
+    <t xml:space="preserve">9.00773334503174</t>
   </si>
   <si>
     <t xml:space="preserve">8.95116138458252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9637336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03287696838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03916358947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91973114013672</t>
+    <t xml:space="preserve">8.96373271942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03287792205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03916454315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91973209381104</t>
   </si>
   <si>
     <t xml:space="preserve">8.86944389343262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87573146820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02030658721924</t>
+    <t xml:space="preserve">8.87572956085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02030563354492</t>
   </si>
   <si>
     <t xml:space="preserve">9.08316516876221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12716674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07059383392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08945274353027</t>
+    <t xml:space="preserve">9.12716770172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07059288024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08945178985596</t>
   </si>
   <si>
     <t xml:space="preserve">8.88830184936523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74372577667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61172103881836</t>
+    <t xml:space="preserve">8.85058689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74372482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61172199249268</t>
   </si>
   <si>
     <t xml:space="preserve">8.58657741546631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51743125915527</t>
+    <t xml:space="preserve">8.51743316650391</t>
   </si>
   <si>
     <t xml:space="preserve">8.62429332733154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61800765991211</t>
+    <t xml:space="preserve">8.61800861358643</t>
   </si>
   <si>
     <t xml:space="preserve">8.95744800567627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69290161132812</t>
+    <t xml:space="preserve">9.69290065765381</t>
   </si>
   <si>
     <t xml:space="preserve">9.78718948364258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82490539550781</t>
+    <t xml:space="preserve">9.82490730285645</t>
   </si>
   <si>
     <t xml:space="preserve">9.68032836914062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37231826782227</t>
+    <t xml:space="preserve">9.37231731414795</t>
   </si>
   <si>
     <t xml:space="preserve">9.26545810699463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22774219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39117622375488</t>
+    <t xml:space="preserve">9.22774124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39117527008057</t>
   </si>
   <si>
     <t xml:space="preserve">9.41631889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19631099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14602470397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04544925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11459541320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28431606292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43517971038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25917053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29060077667236</t>
+    <t xml:space="preserve">9.19631195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14602565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04545021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11459445953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28431415557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43517875671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25917148590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.290602684021</t>
   </si>
   <si>
     <t xml:space="preserve">9.34088897705078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20888423919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19002723693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12088203430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02659320831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8631591796875</t>
+    <t xml:space="preserve">9.20888328552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19002628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12088108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02659225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86315822601318</t>
   </si>
   <si>
     <t xml:space="preserve">8.49857521057129</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">8.63057899475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91344451904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82544231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9323034286499</t>
+    <t xml:space="preserve">8.91344547271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82544326782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93230438232422</t>
   </si>
   <si>
     <t xml:space="preserve">9.16488265991211</t>
@@ -806,55 +806,55 @@
     <t xml:space="preserve">9.17745494842529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17116832733154</t>
+    <t xml:space="preserve">9.17116928100586</t>
   </si>
   <si>
     <t xml:space="preserve">9.15859603881836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24660110473633</t>
+    <t xml:space="preserve">9.2465991973877</t>
   </si>
   <si>
     <t xml:space="preserve">9.36603164672852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18374156951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00144863128662</t>
+    <t xml:space="preserve">9.18373966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0014476776123</t>
   </si>
   <si>
     <t xml:space="preserve">8.97630405426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83172988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71858215332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31574535369873</t>
+    <t xml:space="preserve">8.83172798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71858310699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31574440002441</t>
   </si>
   <si>
     <t xml:space="preserve">9.13345336914062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25288677215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4288911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58604049682617</t>
+    <t xml:space="preserve">9.25288581848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42889213562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58603954315186</t>
   </si>
   <si>
     <t xml:space="preserve">9.60489654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63632678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61118221282959</t>
+    <t xml:space="preserve">9.63632774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61118412017822</t>
   </si>
   <si>
     <t xml:space="preserve">9.3283166885376</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">9.27174377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42260551452637</t>
+    <t xml:space="preserve">9.42260456085205</t>
   </si>
   <si>
     <t xml:space="preserve">9.4603214263916</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">9.70307731628418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73626136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57697677612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55043029785156</t>
+    <t xml:space="preserve">9.73626327514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57697772979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55042934417725</t>
   </si>
   <si>
     <t xml:space="preserve">9.52388381958008</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">9.42432975769043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19203948974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13230991363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11239719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2716817855835</t>
+    <t xml:space="preserve">9.19204044342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13230895996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11239814758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27168273925781</t>
   </si>
   <si>
     <t xml:space="preserve">9.33805084228516</t>
@@ -923,40 +923,40 @@
     <t xml:space="preserve">9.63007259368896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56370449066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68316650390625</t>
+    <t xml:space="preserve">9.5637035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68316745758057</t>
   </si>
   <si>
     <t xml:space="preserve">9.69644069671631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58361339569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74953556060791</t>
+    <t xml:space="preserve">9.58361434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74953365325928</t>
   </si>
   <si>
     <t xml:space="preserve">9.64998245239258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61679744720459</t>
+    <t xml:space="preserve">9.61679840087891</t>
   </si>
   <si>
     <t xml:space="preserve">9.64334583282471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68980407714844</t>
+    <t xml:space="preserve">9.68980312347412</t>
   </si>
   <si>
     <t xml:space="preserve">9.72962474822998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7827205657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98846340179443</t>
+    <t xml:space="preserve">9.78271961212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9884614944458</t>
   </si>
   <si>
     <t xml:space="preserve">9.95527839660645</t>
@@ -965,28 +965,28 @@
     <t xml:space="preserve">9.94864082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614671707153</t>
+    <t xml:space="preserve">10.0614681243896</t>
   </si>
   <si>
     <t xml:space="preserve">10.2141151428223</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2804832458496</t>
+    <t xml:space="preserve">10.2804822921753</t>
   </si>
   <si>
     <t xml:space="preserve">10.1344738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1012897491455</t>
+    <t xml:space="preserve">10.1012887954712</t>
   </si>
   <si>
     <t xml:space="preserve">9.97518920898438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93536758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1742925643921</t>
+    <t xml:space="preserve">9.93536853790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1742944717407</t>
   </si>
   <si>
     <t xml:space="preserve">10.1942043304443</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">10.2207517623901</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5061359405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5194101333618</t>
+    <t xml:space="preserve">10.5061368942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5194091796875</t>
   </si>
   <si>
     <t xml:space="preserve">10.5725049972534</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">10.6322374343872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4928636550903</t>
+    <t xml:space="preserve">10.492862701416</t>
   </si>
   <si>
     <t xml:space="preserve">10.4331312179565</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2472991943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2871208190918</t>
+    <t xml:space="preserve">10.2473001480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2871198654175</t>
   </si>
   <si>
     <t xml:space="preserve">10.3269424438477</t>
@@ -1028,37 +1028,37 @@
     <t xml:space="preserve">10.2406625747681</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2937574386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2008409500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1278371810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1145629882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0946531295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1079254150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0747413635254</t>
+    <t xml:space="preserve">10.293758392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2008428573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127836227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1145620346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.094651222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1079244613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0747423171997</t>
   </si>
   <si>
     <t xml:space="preserve">9.94200325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92873096466064</t>
+    <t xml:space="preserve">9.92873001098633</t>
   </si>
   <si>
     <t xml:space="preserve">9.98182582855225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0282831192017</t>
+    <t xml:space="preserve">10.028281211853</t>
   </si>
   <si>
     <t xml:space="preserve">10.0880146026611</t>
@@ -1067,55 +1067,55 @@
     <t xml:space="preserve">10.0415573120117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.008373260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3136682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3734006881714</t>
+    <t xml:space="preserve">10.0083723068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3136692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3733997344971</t>
   </si>
   <si>
     <t xml:space="preserve">10.1676568984985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3203058242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402166366577</t>
+    <t xml:space="preserve">10.3203039169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402156829834</t>
   </si>
   <si>
     <t xml:space="preserve">10.3003940582275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4596796035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4994993209839</t>
+    <t xml:space="preserve">10.4596786499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4994983673096</t>
   </si>
   <si>
     <t xml:space="preserve">10.5658693313599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3601264953613</t>
+    <t xml:space="preserve">10.360125541687</t>
   </si>
   <si>
     <t xml:space="preserve">10.2672100067139</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2738456726074</t>
+    <t xml:space="preserve">10.2738475799561</t>
   </si>
   <si>
     <t xml:space="preserve">10.2539358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1411094665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4264945983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3866729736328</t>
+    <t xml:space="preserve">10.1411085128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.426495552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3866739273071</t>
   </si>
   <si>
     <t xml:space="preserve">10.4464054107666</t>
@@ -1127,25 +1127,25 @@
     <t xml:space="preserve">10.5592317581177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4530410766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3667631149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3070316314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4663152694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2074775695801</t>
+    <t xml:space="preserve">10.4530420303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3667621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3070306777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4663171768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2074785232544</t>
   </si>
   <si>
     <t xml:space="preserve">10.0481939315796</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9951000213623</t>
+    <t xml:space="preserve">9.99510097503662</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216474533081</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">10.1610202789307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1477460861206</t>
+    <t xml:space="preserve">10.1477470397949</t>
   </si>
   <si>
     <t xml:space="preserve">10.2273893356323</t>
@@ -1166,16 +1166,16 @@
     <t xml:space="preserve">10.1543836593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1211996078491</t>
+    <t xml:space="preserve">10.1211986541748</t>
   </si>
   <si>
     <t xml:space="preserve">9.96855163574219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88227367401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3999471664429</t>
+    <t xml:space="preserve">9.88227272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3999481201172</t>
   </si>
   <si>
     <t xml:space="preserve">10.4065847396851</t>
@@ -1187,55 +1187,55 @@
     <t xml:space="preserve">10.4862260818481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7317895889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.745062828064</t>
+    <t xml:space="preserve">10.7317905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7450637817383</t>
   </si>
   <si>
     <t xml:space="preserve">10.6388740539551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7516994476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7649726867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6090078353882</t>
+    <t xml:space="preserve">10.7517004013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7649736404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6090059280396</t>
   </si>
   <si>
     <t xml:space="preserve">10.5990533828735</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5824604034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4198579788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1875658035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2904386520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2373428344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1975231170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2340259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2240686416626</t>
+    <t xml:space="preserve">10.5824594497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4198570251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1875686645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2904396057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2373456954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1975221633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2340250015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2240705490112</t>
   </si>
   <si>
     <t xml:space="preserve">9.76944637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0647869110107</t>
+    <t xml:space="preserve">10.0647859573364</t>
   </si>
   <si>
     <t xml:space="preserve">10.2771654129028</t>
@@ -1250,52 +1250,52 @@
     <t xml:space="preserve">10.4132204055786</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3534908294678</t>
+    <t xml:space="preserve">10.3534898757935</t>
   </si>
   <si>
     <t xml:space="preserve">10.3700819015503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3966293334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795904159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5957345962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7550182342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.735107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7882022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8811197280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9806728363037</t>
+    <t xml:space="preserve">10.3966283798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795894622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5957336425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7550191879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7351064682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7882013320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8811206817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9806718826294</t>
   </si>
   <si>
     <t xml:space="preserve">11.0934982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3191509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0868616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.176459312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0370845794678</t>
+    <t xml:space="preserve">11.2262353897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3191518783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0868606567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1764583587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0370836257935</t>
   </si>
   <si>
     <t xml:space="preserve">11.1100902557373</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">11.1665029525757</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1631841659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1366386413574</t>
+    <t xml:space="preserve">11.1631851196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1366376876831</t>
   </si>
   <si>
     <t xml:space="preserve">10.9773540496826</t>
@@ -1316,43 +1316,43 @@
     <t xml:space="preserve">10.990626335144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8877553939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9508066177368</t>
+    <t xml:space="preserve">10.8877563476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9508056640625</t>
   </si>
   <si>
     <t xml:space="preserve">10.9574432373047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384262084961</t>
+    <t xml:space="preserve">10.7384281158447</t>
   </si>
   <si>
     <t xml:space="preserve">10.7749300003052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6986064910889</t>
+    <t xml:space="preserve">10.6986045837402</t>
   </si>
   <si>
     <t xml:space="preserve">10.7266311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6916007995605</t>
+    <t xml:space="preserve">10.6915988922119</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654859542847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4428758621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.421856880188</t>
+    <t xml:space="preserve">10.4428768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4218578338623</t>
   </si>
   <si>
     <t xml:space="preserve">10.2607135772705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90339088439941</t>
+    <t xml:space="preserve">9.90339279174805</t>
   </si>
   <si>
     <t xml:space="preserve">9.96294593811035</t>
@@ -1361,28 +1361,28 @@
     <t xml:space="preserve">10.1941528320312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3062543869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2922410964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.068039894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0925607681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92791366577148</t>
+    <t xml:space="preserve">10.3062534332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2922401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0680389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0925617218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9279146194458</t>
   </si>
   <si>
     <t xml:space="preserve">10.218674659729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1696310043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2011594772339</t>
+    <t xml:space="preserve">10.1696300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2011604309082</t>
   </si>
   <si>
     <t xml:space="preserve">10.323769569397</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">10.2256813049316</t>
   </si>
   <si>
-    <t xml:space="preserve">10.180139541626</t>
+    <t xml:space="preserve">10.1801404953003</t>
   </si>
   <si>
     <t xml:space="preserve">10.2502031326294</t>
@@ -1403,31 +1403,31 @@
     <t xml:space="preserve">10.1871461868286</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0119905471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295057296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93141651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92441082000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0224981307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0014791488647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2291851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906499862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451082229614</t>
+    <t xml:space="preserve">10.0119895935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.029504776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93141841888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92441177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0224990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0014801025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2291841506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906490325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451091766357</t>
   </si>
   <si>
     <t xml:space="preserve">10.0645360946655</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">10.0750455856323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1205863952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2712211608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2782287597656</t>
+    <t xml:space="preserve">10.120587348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.271222114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2782278060913</t>
   </si>
   <si>
     <t xml:space="preserve">10.2361898422241</t>
@@ -1451,40 +1451,40 @@
     <t xml:space="preserve">10.1661281585693</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3132600784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3272733688354</t>
+    <t xml:space="preserve">10.3132591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3272724151611</t>
   </si>
   <si>
     <t xml:space="preserve">10.3482913970947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3973360061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4779071807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.649561882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5444669723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3798198699951</t>
+    <t xml:space="preserve">10.3973340988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4779081344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6495609283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5444679260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3798189163208</t>
   </si>
   <si>
     <t xml:space="preserve">10.4673986434937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4288635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.498927116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5234479904175</t>
+    <t xml:space="preserve">10.4288644790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4989252090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5234489440918</t>
   </si>
   <si>
     <t xml:space="preserve">10.505931854248</t>
@@ -1496,49 +1496,49 @@
     <t xml:space="preserve">10.127592086792</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1486129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2747249603271</t>
+    <t xml:space="preserve">10.1486101150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2747259140015</t>
   </si>
   <si>
     <t xml:space="preserve">10.3517932891846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4078426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3447895050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0505237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1836433410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3623046875</t>
+    <t xml:space="preserve">10.407844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3447885513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0505247116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1836423873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3623027801514</t>
   </si>
   <si>
     <t xml:space="preserve">10.3868255615234</t>
   </si>
   <si>
-    <t xml:space="preserve">10.369309425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970153808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5339593887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5199460983276</t>
+    <t xml:space="preserve">10.3693103790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970144271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5339574813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5199451446533</t>
   </si>
   <si>
     <t xml:space="preserve">10.5900077819824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6075239181519</t>
+    <t xml:space="preserve">10.6075248718262</t>
   </si>
   <si>
     <t xml:space="preserve">10.6180334091187</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">10.7371397018433</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8597497940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8772659301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8142099380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4253597259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.309757232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3938312530518</t>
+    <t xml:space="preserve">10.8597507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8772649765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.814208984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4253606796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3097562789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3938322067261</t>
   </si>
   <si>
     <t xml:space="preserve">10.355297088623</t>
@@ -1571,31 +1571,31 @@
     <t xml:space="preserve">10.1240892410278</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1065740585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0049829483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90689563751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0260028839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97345542907715</t>
+    <t xml:space="preserve">10.106575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0049819946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90689468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0260019302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97345447540283</t>
   </si>
   <si>
     <t xml:space="preserve">9.8158130645752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84383964538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81231021881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68619728088379</t>
+    <t xml:space="preserve">9.84383869171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81230926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68619632720947</t>
   </si>
   <si>
     <t xml:space="preserve">9.63364887237549</t>
@@ -1604,37 +1604,37 @@
     <t xml:space="preserve">9.84033489227295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73173904418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94192695617676</t>
+    <t xml:space="preserve">9.73173809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94192600250244</t>
   </si>
   <si>
     <t xml:space="preserve">10.0785493850708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0365114212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0715417861938</t>
+    <t xml:space="preserve">10.0365123748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0715427398682</t>
   </si>
   <si>
     <t xml:space="preserve">10.082052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0470209121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98396396636963</t>
+    <t xml:space="preserve">10.0470199584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98396301269531</t>
   </si>
   <si>
     <t xml:space="preserve">10.1310968399048</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92090797424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0084867477417</t>
+    <t xml:space="preserve">9.92090702056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0084857940674</t>
   </si>
   <si>
     <t xml:space="preserve">9.9664478302002</t>
@@ -1643,127 +1643,127 @@
     <t xml:space="preserve">9.98746776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2396936416626</t>
+    <t xml:space="preserve">10.2396945953369</t>
   </si>
   <si>
     <t xml:space="preserve">10.2992467880249</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3377819061279</t>
+    <t xml:space="preserve">10.3377809524536</t>
   </si>
   <si>
     <t xml:space="preserve">10.4323663711548</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5164432525635</t>
+    <t xml:space="preserve">10.5164422988892</t>
   </si>
   <si>
     <t xml:space="preserve">10.4008378982544</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98046112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575304031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0995674133301</t>
+    <t xml:space="preserve">9.98046016693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0995683670044</t>
   </si>
   <si>
     <t xml:space="preserve">10.1626243591309</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3202648162842</t>
+    <t xml:space="preserve">10.3202657699585</t>
   </si>
   <si>
     <t xml:space="preserve">10.2817325592041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3763179779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4498825073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4744033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954223632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6705799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7686681747437</t>
+    <t xml:space="preserve">10.3763160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4498834609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4744052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954233169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6705808639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7686672210693</t>
   </si>
   <si>
     <t xml:space="preserve">10.7861852645874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7301340103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.775673866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7546558380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.828221321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8212156295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7161207199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6355495452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845932006836</t>
+    <t xml:space="preserve">10.7301330566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7756748199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7546548843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282222747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.821216583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7161226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6355485916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845922470093</t>
   </si>
   <si>
     <t xml:space="preserve">10.7336368560791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5619831085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6425552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7231273651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6250400543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6670780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6635751724243</t>
+    <t xml:space="preserve">10.5024290084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5619821548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6425542831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7231283187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.625039100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6670770645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.66357421875</t>
   </si>
   <si>
     <t xml:space="preserve">10.7126178741455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8247184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8737621307373</t>
+    <t xml:space="preserve">10.8247194290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8737630844116</t>
   </si>
   <si>
     <t xml:space="preserve">10.8807687759399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.996374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0629329681396</t>
+    <t xml:space="preserve">10.9963722229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0629320144653</t>
   </si>
   <si>
     <t xml:space="preserve">11.1294927597046</t>
@@ -1778,19 +1778,19 @@
     <t xml:space="preserve">11.0664358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0173931121826</t>
+    <t xml:space="preserve">11.0173921585083</t>
   </si>
   <si>
     <t xml:space="preserve">11.069938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0454168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0769462585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2135667800903</t>
+    <t xml:space="preserve">11.0454177856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0769453048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2135677337646</t>
   </si>
   <si>
     <t xml:space="preserve">11.448278427124</t>
@@ -1802,16 +1802,16 @@
     <t xml:space="preserve">11.5323534011841</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5043296813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5428647994995</t>
+    <t xml:space="preserve">11.5043287277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5428638458252</t>
   </si>
   <si>
     <t xml:space="preserve">11.4552850723267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4412727355957</t>
+    <t xml:space="preserve">11.4412717819214</t>
   </si>
   <si>
     <t xml:space="preserve">11.4798078536987</t>
@@ -1823,28 +1823,28 @@
     <t xml:space="preserve">11.6829881668091</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6549654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7110147476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.704008102417</t>
+    <t xml:space="preserve">11.6549644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7110137939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7040071487427</t>
   </si>
   <si>
     <t xml:space="preserve">11.651460647583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6970014572144</t>
+    <t xml:space="preserve">11.6970024108887</t>
   </si>
   <si>
     <t xml:space="preserve">11.6794862747192</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7075109481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7810773849487</t>
+    <t xml:space="preserve">11.7075119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.781078338623</t>
   </si>
   <si>
     <t xml:space="preserve">11.8441352844238</t>
@@ -1853,19 +1853,19 @@
     <t xml:space="preserve">11.9106941223145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0508193969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9422235488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9176998138428</t>
+    <t xml:space="preserve">12.0508213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9422225952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9177007675171</t>
   </si>
   <si>
     <t xml:space="preserve">11.9527311325073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0788450241089</t>
+    <t xml:space="preserve">12.0788440704346</t>
   </si>
   <si>
     <t xml:space="preserve">12.0473155975342</t>
@@ -1877,28 +1877,28 @@
     <t xml:space="preserve">12.1173801422119</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1278877258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0192918777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9737520217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.95973777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.809103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8511419296265</t>
+    <t xml:space="preserve">12.1278886795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0192928314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9737501144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9597368240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8091020584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8511409759521</t>
   </si>
   <si>
     <t xml:space="preserve">11.9036874771118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0017738342285</t>
+    <t xml:space="preserve">12.0017757415771</t>
   </si>
   <si>
     <t xml:space="preserve">11.9141960144043</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">12.0547552108765</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8032302856445</t>
+    <t xml:space="preserve">11.8032293319702</t>
   </si>
   <si>
     <t xml:space="preserve">12.0399589538574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9031000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8180236816406</t>
+    <t xml:space="preserve">11.9031009674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8180255889893</t>
   </si>
   <si>
     <t xml:space="preserve">11.6922626495361</t>
@@ -1931,31 +1931,31 @@
     <t xml:space="preserve">11.7588424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6256809234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5997905731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7551441192627</t>
+    <t xml:space="preserve">11.6256818771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5997886657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.755145072937</t>
   </si>
   <si>
     <t xml:space="preserve">11.6589727401733</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6996583938599</t>
+    <t xml:space="preserve">11.6996593475342</t>
   </si>
   <si>
     <t xml:space="preserve">11.7292499542236</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8217220306396</t>
+    <t xml:space="preserve">11.8217239379883</t>
   </si>
   <si>
     <t xml:space="preserve">11.9437885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9178953170776</t>
+    <t xml:space="preserve">11.917896270752</t>
   </si>
   <si>
     <t xml:space="preserve">11.9696807861328</t>
@@ -1964,19 +1964,19 @@
     <t xml:space="preserve">11.93639087677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0103673934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2470998764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3173780441284</t>
+    <t xml:space="preserve">12.010368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2470989227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3173789978027</t>
   </si>
   <si>
     <t xml:space="preserve">12.3395719528198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3469696044922</t>
+    <t xml:space="preserve">12.3469686508179</t>
   </si>
   <si>
     <t xml:space="preserve">12.291485786438</t>
@@ -1988,25 +1988,25 @@
     <t xml:space="preserve">12.2138090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3025817871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4024524688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6243877410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6502799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5873975753784</t>
+    <t xml:space="preserve">12.3025808334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4024534225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6243886947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6502809524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5873985290527</t>
   </si>
   <si>
     <t xml:space="preserve">12.661376953125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6983671188354</t>
+    <t xml:space="preserve">12.6983680725098</t>
   </si>
   <si>
     <t xml:space="preserve">12.7316551208496</t>
@@ -2015,13 +2015,13 @@
     <t xml:space="preserve">12.7279567718506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6761722564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7020654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6354846954346</t>
+    <t xml:space="preserve">12.676173210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7020645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6354856491089</t>
   </si>
   <si>
     <t xml:space="preserve">12.5023231506348</t>
@@ -2030,22 +2030,22 @@
     <t xml:space="preserve">12.5393133163452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5245170593262</t>
+    <t xml:space="preserve">12.5245180130005</t>
   </si>
   <si>
     <t xml:space="preserve">12.5726041793823</t>
   </si>
   <si>
-    <t xml:space="preserve">12.48752784729</t>
+    <t xml:space="preserve">12.4875288009644</t>
   </si>
   <si>
     <t xml:space="preserve">12.5097217559814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3617639541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4579372406006</t>
+    <t xml:space="preserve">12.3617649078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4579362869263</t>
   </si>
   <si>
     <t xml:space="preserve">12.469033241272</t>
@@ -2057,10 +2057,10 @@
     <t xml:space="preserve">12.0843448638916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0658512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1583242416382</t>
+    <t xml:space="preserve">12.0658521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1583232879639</t>
   </si>
   <si>
     <t xml:space="preserve">11.8291215896606</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">11.9326906204224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7773380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9659805297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9992704391479</t>
+    <t xml:space="preserve">11.7773370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9659814834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9992713928223</t>
   </si>
   <si>
     <t xml:space="preserve">12.1139373779297</t>
@@ -2087,25 +2087,25 @@
     <t xml:space="preserve">12.0732498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9585847854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9733800888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1546258926392</t>
+    <t xml:space="preserve">11.9585838317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9733791351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1546249389648</t>
   </si>
   <si>
     <t xml:space="preserve">12.0325613021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1472282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1842164993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.210108757019</t>
+    <t xml:space="preserve">12.1472291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1842174530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2101097106934</t>
   </si>
   <si>
     <t xml:space="preserve">12.2397012710571</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">12.4542379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6095933914185</t>
+    <t xml:space="preserve">12.6095924377441</t>
   </si>
   <si>
     <t xml:space="preserve">12.6539793014526</t>
@@ -2129,73 +2129,73 @@
     <t xml:space="preserve">12.8278274536133</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9461946487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.927698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.853720664978</t>
+    <t xml:space="preserve">12.946192741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9277000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8537197113037</t>
   </si>
   <si>
     <t xml:space="preserve">12.8167314529419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.231011390686</t>
+    <t xml:space="preserve">13.2310094833374</t>
   </si>
   <si>
     <t xml:space="preserve">13.2014179229736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2495031356812</t>
+    <t xml:space="preserve">13.2495040893555</t>
   </si>
   <si>
     <t xml:space="preserve">13.2162132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.286491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2421054840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.212513923645</t>
+    <t xml:space="preserve">13.2864923477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2421064376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2125148773193</t>
   </si>
   <si>
     <t xml:space="preserve">13.1533327102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.123743057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9055042266846</t>
+    <t xml:space="preserve">13.1237411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9055061340332</t>
   </si>
   <si>
     <t xml:space="preserve">12.9757843017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0571613311768</t>
+    <t xml:space="preserve">13.0571603775024</t>
   </si>
   <si>
     <t xml:space="preserve">13.1459350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.12744140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1903200149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2199125289917</t>
+    <t xml:space="preserve">13.1274423599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1903219223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2199144363403</t>
   </si>
   <si>
     <t xml:space="preserve">13.3641700744629</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2901926040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3937616348267</t>
+    <t xml:space="preserve">13.2901916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.393762588501</t>
   </si>
   <si>
     <t xml:space="preserve">13.3974609375</t>
@@ -2204,100 +2204,100 @@
     <t xml:space="preserve">13.3900632858276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4603424072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5935020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787057876587</t>
+    <t xml:space="preserve">13.4603404998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5935010910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787086486816</t>
   </si>
   <si>
     <t xml:space="preserve">13.6045980453491</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6119976043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6082992553711</t>
+    <t xml:space="preserve">13.6119966506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6082983016968</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861034393311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4899349212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4455461502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6859760284424</t>
+    <t xml:space="preserve">13.4899339675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4455471038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6859769821167</t>
   </si>
   <si>
     <t xml:space="preserve">13.752555847168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.756254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2260160446167</t>
+    <t xml:space="preserve">13.7562532424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.226016998291</t>
   </si>
   <si>
     <t xml:space="preserve">14.1890277862549</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1964273452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4257583618164</t>
+    <t xml:space="preserve">14.1964254379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4257564544678</t>
   </si>
   <si>
     <t xml:space="preserve">14.303692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1816310882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928564071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8339319229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7895441055298</t>
+    <t xml:space="preserve">14.1816301345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8339328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7895450592041</t>
   </si>
   <si>
     <t xml:space="preserve">13.8006420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7155685424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8265361785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8302326202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7081708908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5306224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5158271789551</t>
+    <t xml:space="preserve">13.7155656814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8265371322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8302345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7081680297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5306215286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5158262252808</t>
   </si>
   <si>
     <t xml:space="preserve">13.4936323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4714393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4788360595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5084276199341</t>
+    <t xml:space="preserve">13.4714384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.478835105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5084285736084</t>
   </si>
   <si>
     <t xml:space="preserve">13.5824069976807</t>
@@ -2306,55 +2306,55 @@
     <t xml:space="preserve">13.5676107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.674880027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6933736801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7414588928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.682276725769</t>
+    <t xml:space="preserve">13.6748790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6933746337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7414598464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822786331177</t>
   </si>
   <si>
     <t xml:space="preserve">14.0373725891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8191385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.759955406189</t>
+    <t xml:space="preserve">13.8191366195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7599544525146</t>
   </si>
   <si>
     <t xml:space="preserve">13.6230955123901</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5232248306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6637830734253</t>
+    <t xml:space="preserve">13.5232238769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.663782119751</t>
   </si>
   <si>
     <t xml:space="preserve">13.6341915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4640426635742</t>
+    <t xml:space="preserve">13.4640407562256</t>
   </si>
   <si>
     <t xml:space="preserve">13.5343198776245</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5417165756226</t>
+    <t xml:space="preserve">13.5417175292969</t>
   </si>
   <si>
     <t xml:space="preserve">13.5047283172607</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4159555435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2679986953735</t>
+    <t xml:space="preserve">13.4159545898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2679977416992</t>
   </si>
   <si>
     <t xml:space="preserve">13.4196529388428</t>
@@ -2363,43 +2363,43 @@
     <t xml:space="preserve">13.1089448928833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4973316192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2347087860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.016471862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0830526351929</t>
+    <t xml:space="preserve">13.497332572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2347078323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0164709091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0830516815186</t>
   </si>
   <si>
     <t xml:space="preserve">13.2753963470459</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5565128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6415901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8487272262573</t>
+    <t xml:space="preserve">13.5565147399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6415910720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.848726272583</t>
   </si>
   <si>
     <t xml:space="preserve">13.8894157409668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931140899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670915603638</t>
+    <t xml:space="preserve">13.8931169509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670925140381</t>
   </si>
   <si>
     <t xml:space="preserve">12.8981065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8241281509399</t>
+    <t xml:space="preserve">12.8241291046143</t>
   </si>
   <si>
     <t xml:space="preserve">12.7723436355591</t>
@@ -2411,43 +2411,43 @@
     <t xml:space="preserve">11.8883047103882</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6404762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2742853164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1794080734253</t>
+    <t xml:space="preserve">11.640477180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.274284362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1794061660767</t>
   </si>
   <si>
     <t xml:space="preserve">10.0240526199341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72573566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92917537689209</t>
+    <t xml:space="preserve">8.72573375701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92917346954346</t>
   </si>
   <si>
     <t xml:space="preserve">8.35584259033203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02663993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68264198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94156360626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05623149871826</t>
+    <t xml:space="preserve">8.02663898468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68264102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94156455993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05623054504395</t>
   </si>
   <si>
     <t xml:space="preserve">8.05992984771729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95136737823486</t>
+    <t xml:space="preserve">8.95136833190918</t>
   </si>
   <si>
     <t xml:space="preserve">9.21029186248779</t>
@@ -2459,16 +2459,16 @@
     <t xml:space="preserve">9.15480709075928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14740943908691</t>
+    <t xml:space="preserve">9.14741039276123</t>
   </si>
   <si>
     <t xml:space="preserve">9.18070030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94766807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1215181350708</t>
+    <t xml:space="preserve">8.94766998291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12151718139648</t>
   </si>
   <si>
     <t xml:space="preserve">9.01425075531006</t>
@@ -2477,49 +2477,49 @@
     <t xml:space="preserve">9.28057193756104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45811939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52100086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71704196929932</t>
+    <t xml:space="preserve">9.4581184387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52099990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71704292297363</t>
   </si>
   <si>
     <t xml:space="preserve">9.32125949859619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1659049987793</t>
+    <t xml:space="preserve">9.16590595245361</t>
   </si>
   <si>
     <t xml:space="preserve">9.26947402954102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9994535446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22138977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15110778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42852687835693</t>
+    <t xml:space="preserve">8.99945449829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2213888168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15110874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42852878570557</t>
   </si>
   <si>
     <t xml:space="preserve">9.59497928619385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83910751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62826824188232</t>
+    <t xml:space="preserve">9.83910655975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62827014923096</t>
   </si>
   <si>
     <t xml:space="preserve">9.39523696899414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56908702850342</t>
+    <t xml:space="preserve">9.5690860748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.42112922668457</t>
@@ -2537,34 +2537,34 @@
     <t xml:space="preserve">9.47291564941406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29166889190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17700099945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5651798248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39567852020264</t>
+    <t xml:space="preserve">9.29166793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.177001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56517887115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39567947387695</t>
   </si>
   <si>
     <t xml:space="preserve">9.44575881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16454410552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38026905059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34559917449951</t>
+    <t xml:space="preserve">9.16454315185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38027000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34560012817383</t>
   </si>
   <si>
     <t xml:space="preserve">9.6037015914917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80016708374023</t>
+    <t xml:space="preserve">9.80016803741455</t>
   </si>
   <si>
     <t xml:space="preserve">9.84254169464111</t>
@@ -2573,16 +2573,16 @@
     <t xml:space="preserve">9.61911010742188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93114566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2316217422485</t>
+    <t xml:space="preserve">9.93114471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2316198348999</t>
   </si>
   <si>
     <t xml:space="preserve">10.7439727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7902002334595</t>
+    <t xml:space="preserve">10.7901992797852</t>
   </si>
   <si>
     <t xml:space="preserve">11.0829725265503</t>
@@ -2594,28 +2594,28 @@
     <t xml:space="preserve">10.9905185699463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7632341384888</t>
+    <t xml:space="preserve">10.7632350921631</t>
   </si>
   <si>
     <t xml:space="preserve">10.3471899032593</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3433380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3279285430908</t>
+    <t xml:space="preserve">10.3433361053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3279275894165</t>
   </si>
   <si>
     <t xml:space="preserve">10.559063911438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4820184707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3510427474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4897222518921</t>
+    <t xml:space="preserve">10.4820175170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3510417938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4897232055664</t>
   </si>
   <si>
     <t xml:space="preserve">10.5012798309326</t>
@@ -2624,13 +2624,13 @@
     <t xml:space="preserve">10.2200651168823</t>
   </si>
   <si>
-    <t xml:space="preserve">10.247031211853</t>
+    <t xml:space="preserve">10.2470302581787</t>
   </si>
   <si>
     <t xml:space="preserve">10.3394842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3780078887939</t>
+    <t xml:space="preserve">10.3780069351196</t>
   </si>
   <si>
     <t xml:space="preserve">10.3741550445557</t>
@@ -2642,13 +2642,13 @@
     <t xml:space="preserve">10.5898818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6977453231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3202238082886</t>
+    <t xml:space="preserve">10.6977462768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3202228546143</t>
   </si>
   <si>
     <t xml:space="preserve">10.3972692489624</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">10.5089845657349</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562915802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438131332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6476669311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5475063323975</t>
+    <t xml:space="preserve">10.5629167556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438140869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6476650238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5475053787231</t>
   </si>
   <si>
     <t xml:space="preserve">10.616847038269</t>
@@ -2675,10 +2675,10 @@
     <t xml:space="preserve">10.7709379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7170076370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4704618453979</t>
+    <t xml:space="preserve">10.7170066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4704608917236</t>
   </si>
   <si>
     <t xml:space="preserve">10.4126777648926</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">10.4011211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86950874328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75393962860107</t>
+    <t xml:space="preserve">9.86950778961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75394058227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.81172370910645</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">9.9658145904541</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0428600311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78861141204834</t>
+    <t xml:space="preserve">10.0428590774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78861045837402</t>
   </si>
   <si>
     <t xml:space="preserve">10.2046556472778</t>
@@ -2720,28 +2720,28 @@
     <t xml:space="preserve">10.12375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0390071868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96966743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1815414428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2393245697021</t>
+    <t xml:space="preserve">10.039008140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96966648101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1815423965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2393264770508</t>
   </si>
   <si>
     <t xml:space="preserve">10.2008028030396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0197458267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0351543426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0313034057617</t>
+    <t xml:space="preserve">10.0197467803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0351552963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.031304359436</t>
   </si>
   <si>
     <t xml:space="preserve">9.98507690429688</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">9.87721252441406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77320098876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97737216949463</t>
+    <t xml:space="preserve">9.77320194244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.977370262146</t>
   </si>
   <si>
     <t xml:space="preserve">9.89262199401855</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">9.88106441497803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86565589904785</t>
+    <t xml:space="preserve">9.86565685272217</t>
   </si>
   <si>
     <t xml:space="preserve">9.7654972076416</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">9.12602043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07594013214111</t>
+    <t xml:space="preserve">9.07594108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.0374174118042</t>
@@ -2789,10 +2789,10 @@
     <t xml:space="preserve">9.24929332733154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19536209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26470279693604</t>
+    <t xml:space="preserve">9.19536113739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26470184326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.14142990112305</t>
@@ -2807,31 +2807,31 @@
     <t xml:space="preserve">9.50354290008545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69615650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63837337493896</t>
+    <t xml:space="preserve">9.6961555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63837146759033</t>
   </si>
   <si>
     <t xml:space="preserve">9.61525821685791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51510047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51124858856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17995166778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35330390930176</t>
+    <t xml:space="preserve">9.51509952545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51124668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17995262145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35330486297607</t>
   </si>
   <si>
     <t xml:space="preserve">9.40338325500488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42649555206299</t>
+    <t xml:space="preserve">9.4264965057373</t>
   </si>
   <si>
     <t xml:space="preserve">9.19150924682617</t>
@@ -2840,43 +2840,43 @@
     <t xml:space="preserve">9.20306491851807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14913368225098</t>
+    <t xml:space="preserve">9.14913463592529</t>
   </si>
   <si>
     <t xml:space="preserve">8.75235080718994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77931690216064</t>
+    <t xml:space="preserve">8.77931785583496</t>
   </si>
   <si>
     <t xml:space="preserve">8.86791896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0952033996582</t>
+    <t xml:space="preserve">9.09520244598389</t>
   </si>
   <si>
     <t xml:space="preserve">9.27240657806396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39953136444092</t>
+    <t xml:space="preserve">9.3995304107666</t>
   </si>
   <si>
     <t xml:space="preserve">9.5382137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1391658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3857116699219</t>
+    <t xml:space="preserve">10.1391668319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3857107162476</t>
   </si>
   <si>
     <t xml:space="preserve">10.3703031539917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5051326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7593812942505</t>
+    <t xml:space="preserve">10.5051317214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7593822479248</t>
   </si>
   <si>
     <t xml:space="preserve">10.8865060806274</t>
@@ -2885,40 +2885,40 @@
     <t xml:space="preserve">10.9635515213013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8402786254883</t>
+    <t xml:space="preserve">10.8402795791626</t>
   </si>
   <si>
     <t xml:space="preserve">10.9442911148071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9558477401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.079119682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1677217483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1484603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0328922271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137895584106</t>
+    <t xml:space="preserve">10.955846786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0791206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1677227020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1484613418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0328931808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1137914657593</t>
   </si>
   <si>
     <t xml:space="preserve">11.2255058288574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.171573638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0637111663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0367460250854</t>
+    <t xml:space="preserve">11.1715745925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0637102127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0367450714111</t>
   </si>
   <si>
     <t xml:space="preserve">11.0598583221436</t>
@@ -2930,16 +2930,16 @@
     <t xml:space="preserve">10.986665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0020751953125</t>
+    <t xml:space="preserve">11.0020742416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.0136318206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7015981674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.863392829895</t>
+    <t xml:space="preserve">10.7015972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8633937835693</t>
   </si>
   <si>
     <t xml:space="preserve">11.0675630569458</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">11.0290403366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7208585739136</t>
+    <t xml:space="preserve">10.7208595275879</t>
   </si>
   <si>
     <t xml:space="preserve">11.1561651229858</t>
@@ -2957,16 +2957,16 @@
     <t xml:space="preserve">11.206244468689</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0945281982422</t>
+    <t xml:space="preserve">11.0945291519165</t>
   </si>
   <si>
     <t xml:space="preserve">11.1407556533813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1754264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4104166030884</t>
+    <t xml:space="preserve">11.17542552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4104146957397</t>
   </si>
   <si>
     <t xml:space="preserve">11.290994644165</t>
@@ -2975,25 +2975,25 @@
     <t xml:space="preserve">11.1792793273926</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0983800888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8556890487671</t>
+    <t xml:space="preserve">11.0983810424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8556880950928</t>
   </si>
   <si>
     <t xml:space="preserve">10.982813835144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1523132324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5182781219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8803911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9689931869507</t>
+    <t xml:space="preserve">11.1523122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5182790756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.880392074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.968994140625</t>
   </si>
   <si>
     <t xml:space="preserve">12.1115274429321</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">12.188572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1423454284668</t>
+    <t xml:space="preserve">12.1423463821411</t>
   </si>
   <si>
     <t xml:space="preserve">12.096118927002</t>
@@ -3011,22 +3011,22 @@
     <t xml:space="preserve">12.0691528320312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1924257278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1346397399902</t>
+    <t xml:space="preserve">12.1924247741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1346406936646</t>
   </si>
   <si>
     <t xml:space="preserve">12.061448097229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8880958557129</t>
+    <t xml:space="preserve">11.8880968093872</t>
   </si>
   <si>
     <t xml:space="preserve">12.0036640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9728450775146</t>
+    <t xml:space="preserve">11.972846031189</t>
   </si>
   <si>
     <t xml:space="preserve">11.9458799362183</t>
@@ -3035,16 +3035,16 @@
     <t xml:space="preserve">11.9921073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2001295089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9805498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1962766647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2309474945068</t>
+    <t xml:space="preserve">12.2001304626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9805507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1962776184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2309484481812</t>
   </si>
   <si>
     <t xml:space="preserve">12.3503684997559</t>
@@ -3053,25 +3053,25 @@
     <t xml:space="preserve">12.3850393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3311061859131</t>
+    <t xml:space="preserve">12.3311071395874</t>
   </si>
   <si>
     <t xml:space="preserve">12.7124814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7355947494507</t>
+    <t xml:space="preserve">12.7355966567993</t>
   </si>
   <si>
     <t xml:space="preserve">12.8049364089966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9166498184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0245161056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9705820083618</t>
+    <t xml:space="preserve">12.916651725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0245151519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9705829620361</t>
   </si>
   <si>
     <t xml:space="preserve">13.012957572937</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">12.9050951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9898452758789</t>
+    <t xml:space="preserve">12.9898443222046</t>
   </si>
   <si>
     <t xml:space="preserve">12.889684677124</t>
@@ -3092,10 +3092,10 @@
     <t xml:space="preserve">12.9436159133911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9628791809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0399227142334</t>
+    <t xml:space="preserve">12.9628782272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0399236679077</t>
   </si>
   <si>
     <t xml:space="preserve">13.1439352035522</t>
@@ -3104,61 +3104,61 @@
     <t xml:space="preserve">13.2055702209473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1208229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2017183303833</t>
+    <t xml:space="preserve">13.1208209991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2017192840576</t>
   </si>
   <si>
     <t xml:space="preserve">13.228684425354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786060333252</t>
+    <t xml:space="preserve">13.1786050796509</t>
   </si>
   <si>
     <t xml:space="preserve">13.0707426071167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1516389846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1631965637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1169700622559</t>
+    <t xml:space="preserve">13.1516399383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1631946563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1169681549072</t>
   </si>
   <si>
     <t xml:space="preserve">13.1901626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2710609436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9782876968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0014009475708</t>
+    <t xml:space="preserve">13.2710599899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9782867431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0014019012451</t>
   </si>
   <si>
     <t xml:space="preserve">12.9282083511353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8550138473511</t>
+    <t xml:space="preserve">12.8550128936768</t>
   </si>
   <si>
     <t xml:space="preserve">13.0977077484131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9744358062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1362295150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2672071456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.382776260376</t>
+    <t xml:space="preserve">12.9744348526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.13623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2672080993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3827753067017</t>
   </si>
   <si>
     <t xml:space="preserve">13.5291624069214</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">13.4135942459106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4675254821777</t>
+    <t xml:space="preserve">13.4675245285034</t>
   </si>
   <si>
     <t xml:space="preserve">13.5137519836426</t>
@@ -3176,25 +3176,25 @@
     <t xml:space="preserve">13.5907983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5946493148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6216173171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4328546524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4405584335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6062068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8105030059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6797523498535</t>
+    <t xml:space="preserve">13.5946521759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6216144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4328536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4405603408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6062078475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8105039596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6797533035278</t>
   </si>
   <si>
     <t xml:space="preserve">13.5326595306396</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">13.7655591964722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7410440444946</t>
+    <t xml:space="preserve">13.7410430908203</t>
   </si>
   <si>
     <t xml:space="preserve">13.8350200653076</t>
@@ -3218,28 +3218,28 @@
     <t xml:space="preserve">13.9616832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0965213775635</t>
+    <t xml:space="preserve">14.0965204238892</t>
   </si>
   <si>
     <t xml:space="preserve">14.0760898590088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0393171310425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9943714141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.006628036499</t>
+    <t xml:space="preserve">14.0393180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9943723678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066289901733</t>
   </si>
   <si>
     <t xml:space="preserve">14.0148010253906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.027060508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0883493423462</t>
+    <t xml:space="preserve">14.0270614624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0883483886719</t>
   </si>
   <si>
     <t xml:space="preserve">13.8023309707642</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">13.7369565963745</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8145914077759</t>
+    <t xml:space="preserve">13.8145904541016</t>
   </si>
   <si>
     <t xml:space="preserve">13.9453411102295</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">13.7614727020264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5408306121826</t>
+    <t xml:space="preserve">13.5408296585083</t>
   </si>
   <si>
     <t xml:space="preserve">13.8963079452515</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">13.7206144332886</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6920108795166</t>
+    <t xml:space="preserve">13.6920118331909</t>
   </si>
   <si>
     <t xml:space="preserve">13.769645690918</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">13.9167385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0515737533569</t>
+    <t xml:space="preserve">14.0515747070312</t>
   </si>
   <si>
     <t xml:space="preserve">14.14963722229</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">14.3294200897217</t>
   </si>
   <si>
-    <t xml:space="preserve">14.431568145752</t>
+    <t xml:space="preserve">14.4315690994263</t>
   </si>
   <si>
     <t xml:space="preserve">14.501030921936</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">14.3825359344482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4765138626099</t>
+    <t xml:space="preserve">14.4765129089355</t>
   </si>
   <si>
     <t xml:space="preserve">14.6031789779663</t>
@@ -3413,19 +3413,19 @@
     <t xml:space="preserve">14.9790859222412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2201557159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137105941772</t>
+    <t xml:space="preserve">15.2201547622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137096405029</t>
   </si>
   <si>
     <t xml:space="preserve">15.0526313781738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0281162261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0444612503052</t>
+    <t xml:space="preserve">15.028115272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0444602966309</t>
   </si>
   <si>
     <t xml:space="preserve">15.0158586502075</t>
@@ -3437,16 +3437,16 @@
     <t xml:space="preserve">15.1874694824219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3304767608643</t>
+    <t xml:space="preserve">15.3304758071899</t>
   </si>
   <si>
     <t xml:space="preserve">15.3590793609619</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4407978057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5184297561646</t>
+    <t xml:space="preserve">15.4407987594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5184288024902</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
@@ -3458,46 +3458,46 @@
     <t xml:space="preserve">15.3549928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.417820930481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4848356246948</t>
+    <t xml:space="preserve">15.4178199768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4848346710205</t>
   </si>
   <si>
     <t xml:space="preserve">15.6146774291992</t>
   </si>
   <si>
-    <t xml:space="preserve">15.560230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5937366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6565637588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7654638290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7110118865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7822179794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7905960083008</t>
+    <t xml:space="preserve">15.5602283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5937376022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6565647125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7654628753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.711012840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7905969619751</t>
   </si>
   <si>
     <t xml:space="preserve">15.8827428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8994951248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.979076385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120616912842</t>
+    <t xml:space="preserve">15.8994960784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9790782928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120607376099</t>
   </si>
   <si>
     <t xml:space="preserve">16.004207611084</t>
@@ -3506,16 +3506,16 @@
     <t xml:space="preserve">15.8953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036836624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9330053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0419044494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0293388366699</t>
+    <t xml:space="preserve">15.9036846160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9330043792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0419025421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0293407440186</t>
   </si>
   <si>
     <t xml:space="preserve">16.1172962188721</t>
@@ -3524,19 +3524,19 @@
     <t xml:space="preserve">15.7193918228149</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5811710357666</t>
+    <t xml:space="preserve">15.5811700820923</t>
   </si>
   <si>
     <t xml:space="preserve">15.3172960281372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4136295318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3885011672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3466148376465</t>
+    <t xml:space="preserve">15.413631439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.388503074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3466138839722</t>
   </si>
   <si>
     <t xml:space="preserve">14.7937355041504</t>
@@ -3545,46 +3545,46 @@
     <t xml:space="preserve">14.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8523731231689</t>
+    <t xml:space="preserve">14.8523740768433</t>
   </si>
   <si>
     <t xml:space="preserve">15.1874532699585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.112060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377157211304</t>
+    <t xml:space="preserve">15.1120615005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377147674561</t>
   </si>
   <si>
     <t xml:space="preserve">15.5895490646362</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6649417877197</t>
+    <t xml:space="preserve">15.6649408340454</t>
   </si>
   <si>
     <t xml:space="preserve">15.4932136535645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5686044692993</t>
+    <t xml:space="preserve">15.5686054229736</t>
   </si>
   <si>
     <t xml:space="preserve">15.4974021911621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4555177688599</t>
+    <t xml:space="preserve">15.4555187225342</t>
   </si>
   <si>
     <t xml:space="preserve">15.3047304153442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052534103394</t>
+    <t xml:space="preserve">15.4052543640137</t>
   </si>
   <si>
     <t xml:space="preserve">15.6104907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5392847061157</t>
+    <t xml:space="preserve">15.53928565979</t>
   </si>
   <si>
     <t xml:space="preserve">15.7068243026733</t>
@@ -3593,13 +3593,13 @@
     <t xml:space="preserve">15.6481857299805</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6063013076782</t>
+    <t xml:space="preserve">15.6063003540039</t>
   </si>
   <si>
     <t xml:space="preserve">15.9204378128052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8282928466797</t>
+    <t xml:space="preserve">15.8282918930054</t>
   </si>
   <si>
     <t xml:space="preserve">15.4680814743042</t>
@@ -3608,16 +3608,16 @@
     <t xml:space="preserve">15.556040763855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4638919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.572793006897</t>
+    <t xml:space="preserve">15.4638929367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5727939605713</t>
   </si>
   <si>
     <t xml:space="preserve">15.7026376724243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6858835220337</t>
+    <t xml:space="preserve">15.685884475708</t>
   </si>
   <si>
     <t xml:space="preserve">15.4471397399902</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">15.564416885376</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7947826385498</t>
+    <t xml:space="preserve">15.7947835922241</t>
   </si>
   <si>
     <t xml:space="preserve">15.6816930770874</t>
@@ -3638,10 +3638,10 @@
     <t xml:space="preserve">14.9905958175659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.120436668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3131084442139</t>
+    <t xml:space="preserve">15.1204357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3131074905396</t>
   </si>
   <si>
     <t xml:space="preserve">15.3005418777466</t>
@@ -3650,34 +3650,34 @@
     <t xml:space="preserve">15.6356229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3675584793091</t>
+    <t xml:space="preserve">15.3675575256348</t>
   </si>
   <si>
     <t xml:space="preserve">15.6230554580688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5979251861572</t>
+    <t xml:space="preserve">15.5979261398315</t>
   </si>
   <si>
     <t xml:space="preserve">15.3759346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8785533905029</t>
+    <t xml:space="preserve">15.8785524368286</t>
   </si>
   <si>
     <t xml:space="preserve">15.5309104919434</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1790771484375</t>
+    <t xml:space="preserve">15.1790761947632</t>
   </si>
   <si>
     <t xml:space="preserve">15.2209596633911</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6303853988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9864053726196</t>
+    <t xml:space="preserve">14.6303844451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9864044189453</t>
   </si>
   <si>
     <t xml:space="preserve">14.5214824676514</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">13.5497541427612</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2073469161987</t>
+    <t xml:space="preserve">14.2073459625244</t>
   </si>
   <si>
     <t xml:space="preserve">14.0733156204224</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">14.7811698913574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0031604766846</t>
+    <t xml:space="preserve">15.0031595230103</t>
   </si>
   <si>
     <t xml:space="preserve">15.7277679443359</t>
@@ -3719,10 +3719,10 @@
     <t xml:space="preserve">15.6942615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8157262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9707002639771</t>
+    <t xml:space="preserve">15.8157272338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9706993103027</t>
   </si>
   <si>
     <t xml:space="preserve">16.2680835723877</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">16.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3989753723145</t>
+    <t xml:space="preserve">17.3989734649658</t>
   </si>
   <si>
     <t xml:space="preserve">17.6837921142578</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">16.7371921539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2178211212158</t>
+    <t xml:space="preserve">16.2178230285645</t>
   </si>
   <si>
     <t xml:space="preserve">16.4063014984131</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">16.2848377227783</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1466159820557</t>
+    <t xml:space="preserve">16.1466178894043</t>
   </si>
   <si>
     <t xml:space="preserve">16.0712242126465</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">15.1288146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1665096282959</t>
+    <t xml:space="preserve">15.1665105819702</t>
   </si>
   <si>
     <t xml:space="preserve">15.0785522460938</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">15.1623229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0366697311401</t>
+    <t xml:space="preserve">15.0366678237915</t>
   </si>
   <si>
     <t xml:space="preserve">15.3340511322021</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">14.8356189727783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8775043487549</t>
+    <t xml:space="preserve">14.8775053024292</t>
   </si>
   <si>
     <t xml:space="preserve">14.8021125793457</t>
@@ -3824,25 +3824,25 @@
     <t xml:space="preserve">15.5241460800171</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860921859741</t>
+    <t xml:space="preserve">15.3860931396484</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196905136108</t>
+    <t xml:space="preserve">15.5196914672852</t>
   </si>
   <si>
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1767902374268</t>
+    <t xml:space="preserve">15.1767892837524</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0610046386719</t>
+    <t xml:space="preserve">15.0610036849976</t>
   </si>
   <si>
     <t xml:space="preserve">14.9942035675049</t>
@@ -3851,7 +3851,7 @@
     <t xml:space="preserve">14.8873262405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0832691192627</t>
+    <t xml:space="preserve">15.083270072937</t>
   </si>
   <si>
     <t xml:space="preserve">14.9852991104126</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">14.6824750900269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9654970169067</t>
+    <t xml:space="preserve">13.9654960632324</t>
   </si>
   <si>
     <t xml:space="preserve">13.8007249832153</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">13.907603263855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1614408493042</t>
+    <t xml:space="preserve">14.1614398956299</t>
   </si>
   <si>
     <t xml:space="preserve">13.96994972229</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">14.2683200836182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.836350440979</t>
+    <t xml:space="preserve">13.8363513946533</t>
   </si>
   <si>
     <t xml:space="preserve">14.0011224746704</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">12.8833484649658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9724140167236</t>
+    <t xml:space="preserve">12.9724130630493</t>
   </si>
   <si>
     <t xml:space="preserve">12.9546003341675</t>
@@ -3950,37 +3950,37 @@
     <t xml:space="preserve">12.7052173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6829500198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7319364547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9590549468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7007637023926</t>
+    <t xml:space="preserve">12.6829509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7319374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9590539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7007646560669</t>
   </si>
   <si>
     <t xml:space="preserve">12.6562309265137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8610820770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9902276992798</t>
+    <t xml:space="preserve">12.8610811233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9902267456055</t>
   </si>
   <si>
     <t xml:space="preserve">13.2574243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.003586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0703859329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1817178726196</t>
+    <t xml:space="preserve">13.0035877227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0703868865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1817188262939</t>
   </si>
   <si>
     <t xml:space="preserve">13.3954753875732</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">13.2440643310547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266490936279</t>
+    <t xml:space="preserve">13.4266481399536</t>
   </si>
   <si>
     <t xml:space="preserve">13.1149196624756</t>
@@ -4022,13 +4022,13 @@
     <t xml:space="preserve">13.0436668395996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1995306015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0392141342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9234285354614</t>
+    <t xml:space="preserve">13.1995315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.039213180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9234275817871</t>
   </si>
   <si>
     <t xml:space="preserve">13.3821153640747</t>
@@ -4043,13 +4043,13 @@
     <t xml:space="preserve">13.07483959198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3153162002563</t>
+    <t xml:space="preserve">13.3153171539307</t>
   </si>
   <si>
     <t xml:space="preserve">13.733925819397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.524621963501</t>
+    <t xml:space="preserve">13.5246210098267</t>
   </si>
   <si>
     <t xml:space="preserve">13.6493129730225</t>
@@ -4058,10 +4058,10 @@
     <t xml:space="preserve">13.6003274917603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.248517036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.284143447876</t>
+    <t xml:space="preserve">13.2485179901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2841444015503</t>
   </si>
   <si>
     <t xml:space="preserve">12.8521757125854</t>
@@ -4085,10 +4085,10 @@
     <t xml:space="preserve">12.9145212173462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6517772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3623151779175</t>
+    <t xml:space="preserve">12.6517782211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3623142242432</t>
   </si>
   <si>
     <t xml:space="preserve">12.2420749664307</t>
@@ -4109,19 +4109,19 @@
     <t xml:space="preserve">12.6784973144531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8254556655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8922557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525722503662</t>
+    <t xml:space="preserve">12.8254547119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8922548294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525732040405</t>
   </si>
   <si>
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173442840576</t>
+    <t xml:space="preserve">13.2173452377319</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4160,13 +4160,13 @@
     <t xml:space="preserve">15.0209245681763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346820831299</t>
+    <t xml:space="preserve">15.2346811294556</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367111206055</t>
+    <t xml:space="preserve">15.1367101669312</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.123348236084</t>
+    <t xml:space="preserve">15.1233501434326</t>
   </si>
   <si>
     <t xml:space="preserve">15.0788173675537</t>
@@ -4184,28 +4184,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877237319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524938583374</t>
+    <t xml:space="preserve">15.0877246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524948120117</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326549530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.328200340271</t>
+    <t xml:space="preserve">15.3326539993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3281993865967</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217195510864</t>
+    <t xml:space="preserve">15.3192949295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217205047607</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006843566895</t>
+    <t xml:space="preserve">14.9006853103638</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4250,7 +4250,7 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075645446777</t>
+    <t xml:space="preserve">15.0075654983521</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
@@ -4265,16 +4265,16 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.49742603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840650558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953989028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.608757019043</t>
+    <t xml:space="preserve">15.4974250793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840660095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6087579727173</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561147689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115800857544</t>
+    <t xml:space="preserve">15.9561157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115810394287</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427528381348</t>
+    <t xml:space="preserve">15.9427547454834</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4313,31 +4313,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297931671143</t>
+    <t xml:space="preserve">16.1297912597656</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698722839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2277641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500324249268</t>
+    <t xml:space="preserve">16.1698703765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.22776222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500305175781</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544841766357</t>
+    <t xml:space="preserve">16.2544822692871</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034706115723</t>
+    <t xml:space="preserve">16.3034687042236</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476058959961</t>
+    <t xml:space="preserve">16.1476039886475</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4406,7 +4406,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026737213135</t>
+    <t xml:space="preserve">15.9026746749878</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4421,13 +4421,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.290111541748</t>
+    <t xml:space="preserve">16.2901096343994</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216808319092</t>
+    <t xml:space="preserve">16.5216789245605</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4442,16 +4442,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289566040039</t>
+    <t xml:space="preserve">16.8289585113525</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070896148682</t>
+    <t xml:space="preserve">17.0026359558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070877075195</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4463,7 +4463,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9269275665283</t>
+    <t xml:space="preserve">16.926929473877</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4475,22 +4475,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4816017150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002094268799</t>
+    <t xml:space="preserve">16.4815998077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002113342285</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706653594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022365570068</t>
+    <t xml:space="preserve">16.5706672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022384643555</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -5184,6 +5184,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.2299995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5900001525879</t>
   </si>
 </sst>
 </file>
@@ -61425,7 +61428,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6495949074</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>3214628</v>
@@ -61446,6 +61449,32 @@
         <v>1723</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6527083333</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>6141452</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>23.2399997711182</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>22.3400001525879</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>23.1700000762939</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>22.5900001525879</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1726">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,31 +50,31 @@
     <t xml:space="preserve">9.52511787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50732612609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40649890899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13960647583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2700891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45394706726074</t>
+    <t xml:space="preserve">9.50732517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40649795532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13960552215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27008724212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45394611358643</t>
   </si>
   <si>
     <t xml:space="preserve">9.34125900268555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13367462158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93795299530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00319290161133</t>
+    <t xml:space="preserve">9.13367366790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93795394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00319480895996</t>
   </si>
   <si>
     <t xml:space="preserve">8.64733695983887</t>
@@ -83,37 +83,37 @@
     <t xml:space="preserve">8.80747318267822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84898853302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66512870788574</t>
+    <t xml:space="preserve">8.84898948669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66512966156006</t>
   </si>
   <si>
     <t xml:space="preserve">8.39230537414551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27961826324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94155359268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17879104614258</t>
+    <t xml:space="preserve">8.27961730957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94155311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17879009246826</t>
   </si>
   <si>
     <t xml:space="preserve">8.03644847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73396921157837</t>
+    <t xml:space="preserve">7.73396873474121</t>
   </si>
   <si>
     <t xml:space="preserve">7.54417943954468</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46114492416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25949287414551</t>
+    <t xml:space="preserve">7.4611439704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25949239730835</t>
   </si>
   <si>
     <t xml:space="preserve">7.03411531448364</t>
@@ -122,82 +122,82 @@
     <t xml:space="preserve">6.74942970275879</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10528755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50033044815063</t>
+    <t xml:space="preserve">7.10528707504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50032997131348</t>
   </si>
   <si>
     <t xml:space="preserve">6.61301755905151</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87991189956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90363597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06376981735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01632213592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94515180587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19425201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18832015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25356197357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57383441925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755897521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65686702728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77548503875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76955461502075</t>
+    <t xml:space="preserve">6.87991142272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90363645553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06377077102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01632308959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94515228271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19425106048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18832063674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25356006622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57383298873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65686750411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77548599243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76955509185791</t>
   </si>
   <si>
     <t xml:space="preserve">7.69245290756226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55603933334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63314294815063</t>
+    <t xml:space="preserve">7.55603981018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63314342498779</t>
   </si>
   <si>
     <t xml:space="preserve">7.69838333129883</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68652105331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24403190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17285919189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.125412940979</t>
+    <t xml:space="preserve">7.68652009963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24403285980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17286014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12541198730469</t>
   </si>
   <si>
     <t xml:space="preserve">8.21437740325928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23216915130615</t>
+    <t xml:space="preserve">8.23217010498047</t>
   </si>
   <si>
     <t xml:space="preserve">8.09575653076172</t>
@@ -206,61 +206,61 @@
     <t xml:space="preserve">8.00086116790771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90003538131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85258769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68058919906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74583053588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80513906478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72803926467896</t>
+    <t xml:space="preserve">7.90003633499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85258817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68059110641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74583148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80514049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72803735733032</t>
   </si>
   <si>
     <t xml:space="preserve">7.61534929275513</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5263843536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28321647644043</t>
+    <t xml:space="preserve">7.52638530731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28321599960327</t>
   </si>
   <si>
     <t xml:space="preserve">7.30694007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14680337905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3543872833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44335269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46707534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75176239013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81700229644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7992091178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87037992477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92376041412354</t>
+    <t xml:space="preserve">7.14680290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35438823699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44335222244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46707630157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75176095962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81700277328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79921007156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87038135528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92375993728638</t>
   </si>
   <si>
     <t xml:space="preserve">8.08389472961426</t>
@@ -269,10 +269,10 @@
     <t xml:space="preserve">8.16693019866943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11948013305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19065189361572</t>
+    <t xml:space="preserve">8.11948108673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19065284729004</t>
   </si>
   <si>
     <t xml:space="preserve">8.13727474212646</t>
@@ -281,16 +281,16 @@
     <t xml:space="preserve">8.1076192855835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89410591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71024608612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66872835159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85851860046387</t>
+    <t xml:space="preserve">7.89410543441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71024513244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66872882843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85852003097534</t>
   </si>
   <si>
     <t xml:space="preserve">7.38404226303101</t>
@@ -299,16 +299,16 @@
     <t xml:space="preserve">7.47300720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36031770706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41962862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56197166442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63111686706543</t>
+    <t xml:space="preserve">7.36031818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41962814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56197071075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63111734390259</t>
   </si>
   <si>
     <t xml:space="preserve">8.07113075256348</t>
@@ -320,28 +320,28 @@
     <t xml:space="preserve">8.24713706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28485298156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19056510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14656257629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09627628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86998176574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85740995407104</t>
+    <t xml:space="preserve">8.2848539352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1905632019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14656162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09627437591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86998224258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85740947723389</t>
   </si>
   <si>
     <t xml:space="preserve">7.98941469192505</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14027500152588</t>
+    <t xml:space="preserve">8.14027690887451</t>
   </si>
   <si>
     <t xml:space="preserve">8.10256099700928</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">7.73797750473022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48653936386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27281856536865</t>
+    <t xml:space="preserve">7.48653984069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27281904220581</t>
   </si>
   <si>
     <t xml:space="preserve">7.2979621887207</t>
@@ -362,31 +362,31 @@
     <t xml:space="preserve">7.2162446975708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49911165237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7254056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86369609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90769672393799</t>
+    <t xml:space="preserve">7.49911260604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72540664672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86369562149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90769624710083</t>
   </si>
   <si>
     <t xml:space="preserve">6.86423254013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28278493881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38021755218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53107833862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63165378570557</t>
+    <t xml:space="preserve">6.28278541564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3802170753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53107929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63165330886841</t>
   </si>
   <si>
     <t xml:space="preserve">6.70708465576172</t>
@@ -395,139 +395,139 @@
     <t xml:space="preserve">6.51850700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39278888702393</t>
+    <t xml:space="preserve">6.39278841018677</t>
   </si>
   <si>
     <t xml:space="preserve">6.16963815689087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18220996856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66308307647705</t>
+    <t xml:space="preserve">6.18221092224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66308355331421</t>
   </si>
   <si>
     <t xml:space="preserve">6.71337127685547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05281162261963</t>
+    <t xml:space="preserve">7.05281114578247</t>
   </si>
   <si>
     <t xml:space="preserve">6.98366594314575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1659574508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09681224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13452816009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04652404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06538343429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97109413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10309886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90823411941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40482234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3733925819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08424091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36710691452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5179705619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60597133636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61225891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65626096725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38596487045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18481588363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20367240905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0276665687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34196281433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31682109832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10938501358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03395223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566278457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07166814804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24138879776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29167699813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2351016998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17852973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2791051864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46139621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56825733184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98995161056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91451978683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01509571075439</t>
+    <t xml:space="preserve">7.16595697402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09681272506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13452768325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04652547836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081287384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0653829574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138042449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97109365463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10309839248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90823459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4048228263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37339353561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08424186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36710786819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51796913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60597324371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61225938796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65626001358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18481492996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20367336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02766752243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34196424484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31682157516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10938596725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03395414352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566230773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07166862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24138975143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29167604446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23510360717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17853021621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27910470962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46139669418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56825685501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98995208740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91452121734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01509475708008</t>
   </si>
   <si>
     <t xml:space="preserve">7.09052610397339</t>
@@ -536,91 +536,91 @@
     <t xml:space="preserve">7.04023885726929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8768048286438</t>
+    <t xml:space="preserve">6.87680387496948</t>
   </si>
   <si>
     <t xml:space="preserve">6.84537601470947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85794734954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88937759399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82651662826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79508781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77623081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909585952759</t>
+    <t xml:space="preserve">6.85794639587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88937711715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82651710510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79508829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77622890472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05909633636475</t>
   </si>
   <si>
     <t xml:space="preserve">7.15338516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14710092544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282598495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47396802902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5053973197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59968757629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58083009719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64368772506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62483072280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44882392883301</t>
+    <t xml:space="preserve">7.14709997177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47396898269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50539779663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59968662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58082962036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64368724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62482929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44882440567017</t>
   </si>
   <si>
     <t xml:space="preserve">7.39853715896606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28539085388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95852327346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12824153900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39225149154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37968015670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17224359512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1156702041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75683546066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66883134841919</t>
+    <t xml:space="preserve">7.28538942337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9585223197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12824201583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39225101470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37967872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17224311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310628890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11567115783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75683450698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66883087158203</t>
   </si>
   <si>
     <t xml:space="preserve">8.06484508514404</t>
@@ -629,79 +629,79 @@
     <t xml:space="preserve">8.65572357177734</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05173587799072</t>
+    <t xml:space="preserve">9.05173683166504</t>
   </si>
   <si>
     <t xml:space="preserve">8.81287097930908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83801555633545</t>
+    <t xml:space="preserve">8.83801460266113</t>
   </si>
   <si>
     <t xml:space="preserve">8.77515602111816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68715190887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90715980529785</t>
+    <t xml:space="preserve">8.68715286254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90716075897217</t>
   </si>
   <si>
     <t xml:space="preserve">8.92601680755615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00773334503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95116138458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96373271942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03287792205811</t>
+    <t xml:space="preserve">9.00773429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9511604309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9637336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03287696838379</t>
   </si>
   <si>
     <t xml:space="preserve">9.03916454315186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91973209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86944389343262</t>
+    <t xml:space="preserve">8.91973114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8694429397583</t>
   </si>
   <si>
     <t xml:space="preserve">8.87572956085205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02030563354492</t>
+    <t xml:space="preserve">9.02030754089355</t>
   </si>
   <si>
     <t xml:space="preserve">9.08316516876221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12716770172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07059288024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08945178985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88830184936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85058689117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74372482299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61172199249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58657741546631</t>
+    <t xml:space="preserve">9.12716674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07059478759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08945274353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88830280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74372386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61172008514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58657646179199</t>
   </si>
   <si>
     <t xml:space="preserve">8.51743316650391</t>
@@ -710,67 +710,67 @@
     <t xml:space="preserve">8.62429332733154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61800861358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69290065765381</t>
+    <t xml:space="preserve">8.61800670623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744705200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69290161132812</t>
   </si>
   <si>
     <t xml:space="preserve">9.78718948364258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82490730285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68032836914062</t>
+    <t xml:space="preserve">9.82490539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68032741546631</t>
   </si>
   <si>
     <t xml:space="preserve">9.37231731414795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26545810699463</t>
+    <t xml:space="preserve">9.26545715332031</t>
   </si>
   <si>
     <t xml:space="preserve">9.22774124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39117527008057</t>
+    <t xml:space="preserve">9.39117431640625</t>
   </si>
   <si>
     <t xml:space="preserve">9.41631889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19631195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14602565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04545021057129</t>
+    <t xml:space="preserve">9.19631290435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14602470397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04545116424561</t>
   </si>
   <si>
     <t xml:space="preserve">9.11459445953369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28431415557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43517875671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25917148590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.290602684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34088897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20888328552246</t>
+    <t xml:space="preserve">9.28431606292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43517780303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25917053222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29060173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34088802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20888423919678</t>
   </si>
   <si>
     <t xml:space="preserve">9.19002628326416</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">8.49857521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63057899475098</t>
+    <t xml:space="preserve">8.63057804107666</t>
   </si>
   <si>
     <t xml:space="preserve">8.91344547271729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82544326782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93230438232422</t>
+    <t xml:space="preserve">8.82544136047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9323034286499</t>
   </si>
   <si>
     <t xml:space="preserve">9.16488265991211</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">9.17745494842529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17116928100586</t>
+    <t xml:space="preserve">9.17117023468018</t>
   </si>
   <si>
     <t xml:space="preserve">9.15859603881836</t>
@@ -821,49 +821,49 @@
     <t xml:space="preserve">9.18373966217041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0014476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97630405426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83172798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71858310699463</t>
+    <t xml:space="preserve">9.00144958496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97630500793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8317289352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.718581199646</t>
   </si>
   <si>
     <t xml:space="preserve">9.31574440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13345336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25288581848145</t>
+    <t xml:space="preserve">9.13345241546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25288677215576</t>
   </si>
   <si>
     <t xml:space="preserve">9.42889213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58603954315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60489654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63632774353027</t>
+    <t xml:space="preserve">9.58604049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60489749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63632678985596</t>
   </si>
   <si>
     <t xml:space="preserve">9.61118412017822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3283166885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27174377441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42260456085205</t>
+    <t xml:space="preserve">9.32831764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27174282073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42260646820068</t>
   </si>
   <si>
     <t xml:space="preserve">9.4603214263916</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">9.5106086730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70307731628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73626327514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57697772979736</t>
+    <t xml:space="preserve">9.7030782699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73626232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57697677612305</t>
   </si>
   <si>
     <t xml:space="preserve">9.55042934417725</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">9.42432975769043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19204044342041</t>
+    <t xml:space="preserve">9.19203948974609</t>
   </si>
   <si>
     <t xml:space="preserve">9.13230895996094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11239814758301</t>
+    <t xml:space="preserve">9.11239719390869</t>
   </si>
   <si>
     <t xml:space="preserve">9.27168273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33805084228516</t>
+    <t xml:space="preserve">9.33804988861084</t>
   </si>
   <si>
     <t xml:space="preserve">9.4376049041748</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">9.63007259368896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5637035369873</t>
+    <t xml:space="preserve">9.56370258331299</t>
   </si>
   <si>
     <t xml:space="preserve">9.68316745758057</t>
@@ -935,22 +935,22 @@
     <t xml:space="preserve">9.58361434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74953365325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64998245239258</t>
+    <t xml:space="preserve">9.74953460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64998340606689</t>
   </si>
   <si>
     <t xml:space="preserve">9.61679840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64334583282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68980312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72962474822998</t>
+    <t xml:space="preserve">9.64334678649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68980407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7296257019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.78271961212158</t>
@@ -959,31 +959,31 @@
     <t xml:space="preserve">9.9884614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95527839660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94864082336426</t>
+    <t xml:space="preserve">9.95527744293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94864177703857</t>
   </si>
   <si>
     <t xml:space="preserve">10.0614681243896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2141151428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2804822921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344738006592</t>
+    <t xml:space="preserve">10.2141170501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2804841995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344718933105</t>
   </si>
   <si>
     <t xml:space="preserve">10.1012887954712</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97518920898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93536853790283</t>
+    <t xml:space="preserve">9.97518825531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93536758422852</t>
   </si>
   <si>
     <t xml:space="preserve">10.1742944717407</t>
@@ -1001,55 +1001,55 @@
     <t xml:space="preserve">10.5194091796875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5725049972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6720581054688</t>
+    <t xml:space="preserve">10.5725059509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6720571517944</t>
   </si>
   <si>
     <t xml:space="preserve">10.6322374343872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.492862701416</t>
+    <t xml:space="preserve">10.4928636550903</t>
   </si>
   <si>
     <t xml:space="preserve">10.4331312179565</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2473001480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2871198654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2406625747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.293758392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2008428573608</t>
+    <t xml:space="preserve">10.2472991943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2871208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269414901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2406635284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2937574386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2008419036865</t>
   </si>
   <si>
     <t xml:space="preserve">10.127836227417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1145620346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.094651222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1079244613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0747423171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94200325012207</t>
+    <t xml:space="preserve">10.1145629882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0946502685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1079254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0747413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94200420379639</t>
   </si>
   <si>
     <t xml:space="preserve">9.92873001098633</t>
@@ -1058,34 +1058,34 @@
     <t xml:space="preserve">9.98182582855225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.028281211853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0880146026611</t>
+    <t xml:space="preserve">10.0282831192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0880136489868</t>
   </si>
   <si>
     <t xml:space="preserve">10.0415573120117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0083723068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3136692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3733997344971</t>
+    <t xml:space="preserve">10.008373260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3136682510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3734006881714</t>
   </si>
   <si>
     <t xml:space="preserve">10.1676568984985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3203039169312</t>
+    <t xml:space="preserve">10.3203048706055</t>
   </si>
   <si>
     <t xml:space="preserve">10.3402156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3003940582275</t>
+    <t xml:space="preserve">10.3003931045532</t>
   </si>
   <si>
     <t xml:space="preserve">10.4596786499023</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">10.4994983673096</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5658693313599</t>
+    <t xml:space="preserve">10.5658683776855</t>
   </si>
   <si>
     <t xml:space="preserve">10.360125541687</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">10.2738475799561</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2539358139038</t>
+    <t xml:space="preserve">10.2539348602295</t>
   </si>
   <si>
     <t xml:space="preserve">10.1411085128784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.426495552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3866739273071</t>
+    <t xml:space="preserve">10.4264945983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3866729736328</t>
   </si>
   <si>
     <t xml:space="preserve">10.4464054107666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3800373077393</t>
+    <t xml:space="preserve">10.3800382614136</t>
   </si>
   <si>
     <t xml:space="preserve">10.5592317581177</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">10.4530420303345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3667621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3070306777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4663171768188</t>
+    <t xml:space="preserve">10.3667631149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3070297241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4663152694702</t>
   </si>
   <si>
     <t xml:space="preserve">10.2074785232544</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">10.0481939315796</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99510097503662</t>
+    <t xml:space="preserve">9.99509906768799</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216474533081</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0813770294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1610202789307</t>
+    <t xml:space="preserve">10.0813779830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.161021232605</t>
   </si>
   <si>
     <t xml:space="preserve">10.1477470397949</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">9.88227272033691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999481201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4065847396851</t>
+    <t xml:space="preserve">10.3999471664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4065856933594</t>
   </si>
   <si>
     <t xml:space="preserve">10.5127735137939</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">10.4862260818481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7317905426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7450637817383</t>
+    <t xml:space="preserve">10.7317895889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7450647354126</t>
   </si>
   <si>
     <t xml:space="preserve">10.6388740539551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7517004013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7649736404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6090059280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5990533828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5824594497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4198570251465</t>
+    <t xml:space="preserve">10.7517013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7649726867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6090087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5824604034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4198579788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.1875686645508</t>
@@ -1220,28 +1220,28 @@
     <t xml:space="preserve">10.2904396057129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373456954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1975221633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2340250015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2240705490112</t>
+    <t xml:space="preserve">10.237343788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1975231170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2340259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2240695953369</t>
   </si>
   <si>
     <t xml:space="preserve">9.76944637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0647859573364</t>
+    <t xml:space="preserve">10.0647869110107</t>
   </si>
   <si>
     <t xml:space="preserve">10.2771654129028</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1643390655518</t>
+    <t xml:space="preserve">10.1643381118774</t>
   </si>
   <si>
     <t xml:space="preserve">10.436450958252</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">10.4132204055786</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3534898757935</t>
+    <t xml:space="preserve">10.3534889221191</t>
   </si>
   <si>
     <t xml:space="preserve">10.3700819015503</t>
@@ -1262,25 +1262,25 @@
     <t xml:space="preserve">10.4795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5957336425781</t>
+    <t xml:space="preserve">10.5957355499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.7550191879272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7351064682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7882013320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8811206817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9806718826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0934982299805</t>
+    <t xml:space="preserve">10.735107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7882022857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8811187744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9806709289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0934972763062</t>
   </si>
   <si>
     <t xml:space="preserve">11.2262353897095</t>
@@ -1295,67 +1295,67 @@
     <t xml:space="preserve">11.1764583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0370836257935</t>
+    <t xml:space="preserve">11.0370845794678</t>
   </si>
   <si>
     <t xml:space="preserve">11.1100902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1665029525757</t>
+    <t xml:space="preserve">11.1665048599243</t>
   </si>
   <si>
     <t xml:space="preserve">11.1631851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1366376876831</t>
+    <t xml:space="preserve">11.1366386413574</t>
   </si>
   <si>
     <t xml:space="preserve">10.9773540496826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8877563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9508056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9574432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7384281158447</t>
+    <t xml:space="preserve">10.9906272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8877553939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9508066177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.957444190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7384271621704</t>
   </si>
   <si>
     <t xml:space="preserve">10.7749300003052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6986045837402</t>
+    <t xml:space="preserve">10.6986055374146</t>
   </si>
   <si>
     <t xml:space="preserve">10.7266311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6915988922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5654859542847</t>
+    <t xml:space="preserve">10.6915998458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.565486907959</t>
   </si>
   <si>
     <t xml:space="preserve">10.4428768157959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4218578338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2607135772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90339279174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96294593811035</t>
+    <t xml:space="preserve">10.421856880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2607126235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90339183807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96294689178467</t>
   </si>
   <si>
     <t xml:space="preserve">10.1941528320312</t>
@@ -1373,28 +1373,28 @@
     <t xml:space="preserve">10.0925617218018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9279146194458</t>
+    <t xml:space="preserve">9.92791366577148</t>
   </si>
   <si>
     <t xml:space="preserve">10.218674659729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1696300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2011604309082</t>
+    <t xml:space="preserve">10.1696310043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2011594772339</t>
   </si>
   <si>
     <t xml:space="preserve">10.323769569397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2256813049316</t>
+    <t xml:space="preserve">10.225682258606</t>
   </si>
   <si>
     <t xml:space="preserve">10.1801404953003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2502031326294</t>
+    <t xml:space="preserve">10.2502021789551</t>
   </si>
   <si>
     <t xml:space="preserve">10.1135807037354</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">10.029504776001</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93141841888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92441177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0224990844727</t>
+    <t xml:space="preserve">9.93141746520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92441082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0224981307983</t>
   </si>
   <si>
     <t xml:space="preserve">10.0014801025391</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">10.1906490325928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451091766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0645360946655</t>
+    <t xml:space="preserve">10.1451082229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0645351409912</t>
   </si>
   <si>
     <t xml:space="preserve">10.0750455856323</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">10.120587348938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.271222114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2782278060913</t>
+    <t xml:space="preserve">10.2712230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2782287597656</t>
   </si>
   <si>
     <t xml:space="preserve">10.2361898422241</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">10.1661281585693</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3132591247559</t>
+    <t xml:space="preserve">10.3132600784302</t>
   </si>
   <si>
     <t xml:space="preserve">10.3272724151611</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">10.3482913970947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3973340988159</t>
+    <t xml:space="preserve">10.3973350524902</t>
   </si>
   <si>
     <t xml:space="preserve">10.4779081344604</t>
@@ -1469,58 +1469,58 @@
     <t xml:space="preserve">10.6495609283447</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5444679260254</t>
+    <t xml:space="preserve">10.5444669723511</t>
   </si>
   <si>
     <t xml:space="preserve">10.3798189163208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4673986434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4288644790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4989252090454</t>
+    <t xml:space="preserve">10.467396736145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4288635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4989261627197</t>
   </si>
   <si>
     <t xml:space="preserve">10.5234489440918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.505931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2887382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.127592086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1486101150513</t>
+    <t xml:space="preserve">10.5059328079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2887392044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1275911331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1486120223999</t>
   </si>
   <si>
     <t xml:space="preserve">10.2747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3517932891846</t>
+    <t xml:space="preserve">10.3517942428589</t>
   </si>
   <si>
     <t xml:space="preserve">10.407844543457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3447885513306</t>
+    <t xml:space="preserve">10.3447875976562</t>
   </si>
   <si>
     <t xml:space="preserve">10.0505247116089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1836423873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3623027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3868255615234</t>
+    <t xml:space="preserve">10.1836442947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3623037338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3868246078491</t>
   </si>
   <si>
     <t xml:space="preserve">10.3693103790283</t>
@@ -1529,16 +1529,16 @@
     <t xml:space="preserve">10.5970144271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5339574813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5199451446533</t>
+    <t xml:space="preserve">10.5339584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5199460983276</t>
   </si>
   <si>
     <t xml:space="preserve">10.5900077819824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6075248718262</t>
+    <t xml:space="preserve">10.6075239181519</t>
   </si>
   <si>
     <t xml:space="preserve">10.6180334091187</t>
@@ -1550,25 +1550,25 @@
     <t xml:space="preserve">10.8597507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8772649765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.814208984375</t>
+    <t xml:space="preserve">10.8772659301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8142099380493</t>
   </si>
   <si>
     <t xml:space="preserve">10.4253606796265</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3097562789917</t>
+    <t xml:space="preserve">10.309757232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.3938322067261</t>
   </si>
   <si>
-    <t xml:space="preserve">10.355297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1240892410278</t>
+    <t xml:space="preserve">10.3552980422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1240901947021</t>
   </si>
   <si>
     <t xml:space="preserve">10.106575012207</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">9.90689468383789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0260019302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97345447540283</t>
+    <t xml:space="preserve">10.0260028839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97345352172852</t>
   </si>
   <si>
     <t xml:space="preserve">9.8158130645752</t>
@@ -1592,112 +1592,112 @@
     <t xml:space="preserve">9.84383869171143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81230926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68619632720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63364887237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84033489227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73173809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94192600250244</t>
+    <t xml:space="preserve">9.81231021881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68619728088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63364791870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84033584594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73173904418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94192504882812</t>
   </si>
   <si>
     <t xml:space="preserve">10.0785493850708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0365123748779</t>
+    <t xml:space="preserve">10.0365104675293</t>
   </si>
   <si>
     <t xml:space="preserve">10.0715427398682</t>
   </si>
   <si>
-    <t xml:space="preserve">10.082052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0470199584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98396301269531</t>
+    <t xml:space="preserve">10.0820512771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0470209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98396396636963</t>
   </si>
   <si>
     <t xml:space="preserve">10.1310968399048</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92090702056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0084857940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9664478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98746776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2396945953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2992467880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3377809524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4323663711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5164422988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4008378982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98046016693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0995683670044</t>
+    <t xml:space="preserve">9.92090797424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0084867477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96644878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98746585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2396936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2992458343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3377819061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323673248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5164413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.400839805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98046112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575304031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0995674133301</t>
   </si>
   <si>
     <t xml:space="preserve">10.1626243591309</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3202657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2817325592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3763160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4498834609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4744052886963</t>
+    <t xml:space="preserve">10.3202667236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2817306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.376317024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4498825073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4744033813477</t>
   </si>
   <si>
     <t xml:space="preserve">10.4954233169556</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6705808639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7686672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7861852645874</t>
+    <t xml:space="preserve">10.6705799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.768669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7861843109131</t>
   </si>
   <si>
     <t xml:space="preserve">10.7301330566406</t>
@@ -1706,16 +1706,16 @@
     <t xml:space="preserve">10.7756748199463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7546548843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282222747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.821216583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7161226272583</t>
+    <t xml:space="preserve">10.754656791687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282232284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8212146759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.716121673584</t>
   </si>
   <si>
     <t xml:space="preserve">10.6355485916138</t>
@@ -1727,19 +1727,19 @@
     <t xml:space="preserve">10.7336368560791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024290084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5619821548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6425542831421</t>
+    <t xml:space="preserve">10.5024299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5619812011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6425552368164</t>
   </si>
   <si>
     <t xml:space="preserve">10.7231283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.625039100647</t>
+    <t xml:space="preserve">10.6250400543213</t>
   </si>
   <si>
     <t xml:space="preserve">10.6670770645142</t>
@@ -1748,64 +1748,64 @@
     <t xml:space="preserve">10.66357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7126178741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8247194290161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8737630844116</t>
+    <t xml:space="preserve">10.7126188278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8247175216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8737621307373</t>
   </si>
   <si>
     <t xml:space="preserve">10.8807687759399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9963722229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0629320144653</t>
+    <t xml:space="preserve">10.9963712692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0629329681396</t>
   </si>
   <si>
     <t xml:space="preserve">11.1294927597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.122486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1995553970337</t>
+    <t xml:space="preserve">11.1224870681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.199556350708</t>
   </si>
   <si>
     <t xml:space="preserve">11.0664358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0173921585083</t>
+    <t xml:space="preserve">11.0173931121826</t>
   </si>
   <si>
     <t xml:space="preserve">11.069938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0454177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0769453048706</t>
+    <t xml:space="preserve">11.0454187393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0769462585449</t>
   </si>
   <si>
     <t xml:space="preserve">11.2135677337646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.448278427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5463666915894</t>
+    <t xml:space="preserve">11.4482793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.546365737915</t>
   </si>
   <si>
     <t xml:space="preserve">11.5323534011841</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5043287277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5428638458252</t>
+    <t xml:space="preserve">11.5043277740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5428647994995</t>
   </si>
   <si>
     <t xml:space="preserve">11.4552850723267</t>
@@ -1814,25 +1814,25 @@
     <t xml:space="preserve">11.4412717819214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4798078536987</t>
+    <t xml:space="preserve">11.479808807373</t>
   </si>
   <si>
     <t xml:space="preserve">11.5603799819946</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6829881668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6549644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7110137939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7040071487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.651460647583</t>
+    <t xml:space="preserve">11.6829891204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6549654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7110147476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.704008102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6514616012573</t>
   </si>
   <si>
     <t xml:space="preserve">11.6970024108887</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">11.7075119018555</t>
   </si>
   <si>
-    <t xml:space="preserve">11.781078338623</t>
+    <t xml:space="preserve">11.7810773849487</t>
   </si>
   <si>
     <t xml:space="preserve">11.8441352844238</t>
@@ -1865,16 +1865,16 @@
     <t xml:space="preserve">11.9527311325073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0788440704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0473155975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208820343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1173801422119</t>
+    <t xml:space="preserve">12.0788431167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0473165512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208810806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1173791885376</t>
   </si>
   <si>
     <t xml:space="preserve">12.1278886795044</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">11.9737501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9597368240356</t>
+    <t xml:space="preserve">11.95973777771</t>
   </si>
   <si>
     <t xml:space="preserve">11.8091020584106</t>
@@ -1895,16 +1895,16 @@
     <t xml:space="preserve">11.8511409759521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9036874771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017757415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9141960144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584535598755</t>
+    <t xml:space="preserve">11.9036865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017766952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9141969680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0584545135498</t>
   </si>
   <si>
     <t xml:space="preserve">12.0806474685669</t>
@@ -1916,49 +1916,49 @@
     <t xml:space="preserve">11.8032293319702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0399589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9031009674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8180255889893</t>
+    <t xml:space="preserve">12.0399608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9031000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8180265426636</t>
   </si>
   <si>
     <t xml:space="preserve">11.6922626495361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7588424682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6256818771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5997886657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.755145072937</t>
+    <t xml:space="preserve">11.7588415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6256809234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5997896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7551431655884</t>
   </si>
   <si>
     <t xml:space="preserve">11.6589727401733</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6996593475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7292499542236</t>
+    <t xml:space="preserve">11.6996583938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7292509078979</t>
   </si>
   <si>
     <t xml:space="preserve">11.8217239379883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9437885284424</t>
+    <t xml:space="preserve">11.9437894821167</t>
   </si>
   <si>
     <t xml:space="preserve">11.917896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9696807861328</t>
+    <t xml:space="preserve">11.9696798324585</t>
   </si>
   <si>
     <t xml:space="preserve">11.93639087677</t>
@@ -1976,19 +1976,19 @@
     <t xml:space="preserve">12.3395719528198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3469686508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.291485786438</t>
+    <t xml:space="preserve">12.3469696044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2914867401123</t>
   </si>
   <si>
     <t xml:space="preserve">12.2507972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2138090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3025808334351</t>
+    <t xml:space="preserve">12.213809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3025817871094</t>
   </si>
   <si>
     <t xml:space="preserve">12.4024534225464</t>
@@ -1997,19 +1997,19 @@
     <t xml:space="preserve">12.6243886947632</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6502809524536</t>
+    <t xml:space="preserve">12.6502819061279</t>
   </si>
   <si>
     <t xml:space="preserve">12.5873985290527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.661376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6983680725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7316551208496</t>
+    <t xml:space="preserve">12.6613759994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6983671188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7316560745239</t>
   </si>
   <si>
     <t xml:space="preserve">12.7279567718506</t>
@@ -2021,10 +2021,10 @@
     <t xml:space="preserve">12.7020645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6354856491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5023231506348</t>
+    <t xml:space="preserve">12.6354846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5023241043091</t>
   </si>
   <si>
     <t xml:space="preserve">12.5393133163452</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">12.5726041793823</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4875288009644</t>
+    <t xml:space="preserve">12.48752784729</t>
   </si>
   <si>
     <t xml:space="preserve">12.5097217559814</t>
@@ -2048,31 +2048,31 @@
     <t xml:space="preserve">12.4579362869263</t>
   </si>
   <si>
-    <t xml:space="preserve">12.469033241272</t>
+    <t xml:space="preserve">12.4690322875977</t>
   </si>
   <si>
     <t xml:space="preserve">12.1620244979858</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0843448638916</t>
+    <t xml:space="preserve">12.0843458175659</t>
   </si>
   <si>
     <t xml:space="preserve">12.0658521652222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1583232879639</t>
+    <t xml:space="preserve">12.1583251953125</t>
   </si>
   <si>
     <t xml:space="preserve">11.8291215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8661117553711</t>
+    <t xml:space="preserve">11.8661108016968</t>
   </si>
   <si>
     <t xml:space="preserve">11.9326906204224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7773370742798</t>
+    <t xml:space="preserve">11.7773380279541</t>
   </si>
   <si>
     <t xml:space="preserve">11.9659814834595</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">11.9585838317871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9733791351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1546249389648</t>
+    <t xml:space="preserve">11.9733781814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1546258926392</t>
   </si>
   <si>
     <t xml:space="preserve">12.0325613021851</t>
@@ -2108,22 +2108,22 @@
     <t xml:space="preserve">12.2101097106934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2397012710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4542379379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6095924377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6539793014526</t>
+    <t xml:space="preserve">12.2397003173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4542369842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6095933914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.653980255127</t>
   </si>
   <si>
     <t xml:space="preserve">12.7242584228516</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7057628631592</t>
+    <t xml:space="preserve">12.7057638168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.8278274536133</t>
@@ -2132,55 +2132,55 @@
     <t xml:space="preserve">12.946192741394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9277000427246</t>
+    <t xml:space="preserve">12.9276990890503</t>
   </si>
   <si>
     <t xml:space="preserve">12.8537197113037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8167314529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2310094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2014179229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2495040893555</t>
+    <t xml:space="preserve">12.8167324066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2310104370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2014169692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2495031356812</t>
   </si>
   <si>
     <t xml:space="preserve">13.2162132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2864923477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2421064376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2125148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1533327102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1237411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9055061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0571603775024</t>
+    <t xml:space="preserve">13.2864933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2421054840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2125158309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1533336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.123740196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9055051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757852554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0571584701538</t>
   </si>
   <si>
     <t xml:space="preserve">13.1459350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1274423599243</t>
+    <t xml:space="preserve">13.1274404525757</t>
   </si>
   <si>
     <t xml:space="preserve">13.1903219223022</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">13.2199144363403</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3641700744629</t>
+    <t xml:space="preserve">13.3641710281372</t>
   </si>
   <si>
     <t xml:space="preserve">13.2901916503906</t>
@@ -2198,37 +2198,37 @@
     <t xml:space="preserve">13.393762588501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3900632858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4603404998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5935010910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787086486816</t>
+    <t xml:space="preserve">13.3974618911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.390064239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4603414535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5935029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.578706741333</t>
   </si>
   <si>
     <t xml:space="preserve">13.6045980453491</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6119966506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6082983016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5861034393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4899339675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4455471038818</t>
+    <t xml:space="preserve">13.6119976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6082973480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5861053466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.489933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4455451965332</t>
   </si>
   <si>
     <t xml:space="preserve">13.6859769821167</t>
@@ -2237,49 +2237,49 @@
     <t xml:space="preserve">13.752555847168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7562532424927</t>
+    <t xml:space="preserve">13.7562551498413</t>
   </si>
   <si>
     <t xml:space="preserve">14.226016998291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1890277862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964254379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4257564544678</t>
+    <t xml:space="preserve">14.1890287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4257574081421</t>
   </si>
   <si>
     <t xml:space="preserve">14.303692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1816301345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928573608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8339328765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7895450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006420135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7155656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8265371322632</t>
+    <t xml:space="preserve">14.1816291809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928554534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8339338302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7895469665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006410598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7155666351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8265342712402</t>
   </si>
   <si>
     <t xml:space="preserve">13.8302345275879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7081680297852</t>
+    <t xml:space="preserve">13.7081708908081</t>
   </si>
   <si>
     <t xml:space="preserve">13.5306215286255</t>
@@ -2291,67 +2291,67 @@
     <t xml:space="preserve">13.4936323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4714384078979</t>
+    <t xml:space="preserve">13.4714374542236</t>
   </si>
   <si>
     <t xml:space="preserve">13.478835105896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5084285736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824069976807</t>
+    <t xml:space="preserve">13.5084276199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824060440063</t>
   </si>
   <si>
     <t xml:space="preserve">13.5676107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6748790740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6933746337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7414598464966</t>
+    <t xml:space="preserve">13.6748781204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6933727264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7414588928223</t>
   </si>
   <si>
     <t xml:space="preserve">13.6822786331177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0373725891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8191366195679</t>
+    <t xml:space="preserve">14.0373735427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8191356658936</t>
   </si>
   <si>
     <t xml:space="preserve">13.7599544525146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6230955123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5232238769531</t>
+    <t xml:space="preserve">13.6230945587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5232229232788</t>
   </si>
   <si>
     <t xml:space="preserve">13.663782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6341915130615</t>
+    <t xml:space="preserve">13.6341896057129</t>
   </si>
   <si>
     <t xml:space="preserve">13.4640407562256</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5343198776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5417175292969</t>
+    <t xml:space="preserve">13.5343217849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5417184829712</t>
   </si>
   <si>
     <t xml:space="preserve">13.5047283172607</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4159545898438</t>
+    <t xml:space="preserve">13.4159555435181</t>
   </si>
   <si>
     <t xml:space="preserve">13.2679977416992</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">13.4196529388428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1089448928833</t>
+    <t xml:space="preserve">13.108943939209</t>
   </si>
   <si>
     <t xml:space="preserve">13.497332572937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2347078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0164709091187</t>
+    <t xml:space="preserve">13.2347068786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0164728164673</t>
   </si>
   <si>
     <t xml:space="preserve">13.0830516815186</t>
@@ -2381,34 +2381,34 @@
     <t xml:space="preserve">13.5565147399902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6415910720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.848726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8894157409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8931169509888</t>
+    <t xml:space="preserve">13.6415901184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8487272262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8894166946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8931159973145</t>
   </si>
   <si>
     <t xml:space="preserve">13.9670925140381</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8981065750122</t>
+    <t xml:space="preserve">12.8981084823608</t>
   </si>
   <si>
     <t xml:space="preserve">12.8241291046143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7723436355591</t>
+    <t xml:space="preserve">12.7723445892334</t>
   </si>
   <si>
     <t xml:space="preserve">12.028862953186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8883047103882</t>
+    <t xml:space="preserve">11.8883037567139</t>
   </si>
   <si>
     <t xml:space="preserve">11.640477180481</t>
@@ -2417,31 +2417,31 @@
     <t xml:space="preserve">11.274284362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1794061660767</t>
+    <t xml:space="preserve">10.179407119751</t>
   </si>
   <si>
     <t xml:space="preserve">10.0240526199341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72573375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92917346954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35584259033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02663898468018</t>
+    <t xml:space="preserve">8.72573471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92917442321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35584354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02663993835449</t>
   </si>
   <si>
     <t xml:space="preserve">7.68264102935791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94156455993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05623054504395</t>
+    <t xml:space="preserve">7.94156408309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05623149871826</t>
   </si>
   <si>
     <t xml:space="preserve">8.05992984771729</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">9.21029186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36564636230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15480709075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14741039276123</t>
+    <t xml:space="preserve">9.365647315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15480804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14741134643555</t>
   </si>
   <si>
     <t xml:space="preserve">9.18070030212402</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">8.94766998291016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12151718139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01425075531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28057193756104</t>
+    <t xml:space="preserve">9.1215181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01424884796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28057098388672</t>
   </si>
   <si>
     <t xml:space="preserve">9.4581184387207</t>
@@ -2486,34 +2486,34 @@
     <t xml:space="preserve">9.71704292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32125949859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16590595245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26947402954102</t>
+    <t xml:space="preserve">9.32126045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1659049987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2694730758667</t>
   </si>
   <si>
     <t xml:space="preserve">8.99945449829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2213888168335</t>
+    <t xml:space="preserve">9.22138977050781</t>
   </si>
   <si>
     <t xml:space="preserve">9.15110874176025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42852878570557</t>
+    <t xml:space="preserve">9.42852783203125</t>
   </si>
   <si>
     <t xml:space="preserve">9.59497928619385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83910655975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62827014923096</t>
+    <t xml:space="preserve">9.83910751342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62826919555664</t>
   </si>
   <si>
     <t xml:space="preserve">9.39523696899414</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">9.5690860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42112922668457</t>
+    <t xml:space="preserve">9.42113018035889</t>
   </si>
   <si>
     <t xml:space="preserve">9.48401165008545</t>
@@ -2531,19 +2531,19 @@
     <t xml:space="preserve">9.59867858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5136022567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47291564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29166793823242</t>
+    <t xml:space="preserve">9.51360130310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47291469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29166889190674</t>
   </si>
   <si>
     <t xml:space="preserve">9.177001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56517887115479</t>
+    <t xml:space="preserve">9.56517791748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.39567947387695</t>
@@ -2552,49 +2552,49 @@
     <t xml:space="preserve">9.44575881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16454315185547</t>
+    <t xml:space="preserve">9.1645450592041</t>
   </si>
   <si>
     <t xml:space="preserve">9.38027000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34560012817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6037015914917</t>
+    <t xml:space="preserve">9.34559917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60370254516602</t>
   </si>
   <si>
     <t xml:space="preserve">9.80016803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84254169464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61911010742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93114471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2316198348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7439727783203</t>
+    <t xml:space="preserve">9.84254264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61911106109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93114376068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2316207885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7439737319946</t>
   </si>
   <si>
     <t xml:space="preserve">10.7901992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0829725265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1099376678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9905185699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7632350921631</t>
+    <t xml:space="preserve">11.082971572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.109938621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.990517616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7632341384888</t>
   </si>
   <si>
     <t xml:space="preserve">10.3471899032593</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">10.3433361053467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3279275894165</t>
+    <t xml:space="preserve">10.3279266357422</t>
   </si>
   <si>
     <t xml:space="preserve">10.559063911438</t>
@@ -2618,19 +2618,19 @@
     <t xml:space="preserve">10.4897232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5012798309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2200651168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2470302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3394842147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3780069351196</t>
+    <t xml:space="preserve">10.5012807846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.220064163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.247031211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.339485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3780078887939</t>
   </si>
   <si>
     <t xml:space="preserve">10.3741550445557</t>
@@ -2639,25 +2639,25 @@
     <t xml:space="preserve">10.6592226028442</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5898818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6977462768555</t>
+    <t xml:space="preserve">10.589882850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6977453231812</t>
   </si>
   <si>
     <t xml:space="preserve">10.5975866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3202228546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3972692489624</t>
+    <t xml:space="preserve">10.3202238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3972682952881</t>
   </si>
   <si>
     <t xml:space="preserve">10.5089845657349</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5629167556763</t>
+    <t xml:space="preserve">10.562915802002</t>
   </si>
   <si>
     <t xml:space="preserve">10.6438140869141</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">10.6476650238037</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5475053787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.616847038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7709379196167</t>
+    <t xml:space="preserve">10.5475063323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6168479919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.770938873291</t>
   </si>
   <si>
     <t xml:space="preserve">10.7170066833496</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">10.4126777648926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4011211395264</t>
+    <t xml:space="preserve">10.4011220932007</t>
   </si>
   <si>
     <t xml:space="preserve">9.86950778961182</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">9.75394058227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81172370910645</t>
+    <t xml:space="preserve">9.81172466278076</t>
   </si>
   <si>
     <t xml:space="preserve">9.9658145904541</t>
@@ -2711,10 +2711,10 @@
     <t xml:space="preserve">10.1468706130981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.100643157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94655323028564</t>
+    <t xml:space="preserve">10.1006441116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94655418395996</t>
   </si>
   <si>
     <t xml:space="preserve">10.12375831604</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">10.1815423965454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2393264770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2008028030396</t>
+    <t xml:space="preserve">10.2393255233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2008018493652</t>
   </si>
   <si>
     <t xml:space="preserve">10.0197467803955</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">10.0351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.031304359436</t>
+    <t xml:space="preserve">10.0313034057617</t>
   </si>
   <si>
     <t xml:space="preserve">9.98507690429688</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">9.77320194244385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.977370262146</t>
+    <t xml:space="preserve">9.97737121582031</t>
   </si>
   <si>
     <t xml:space="preserve">9.89262199401855</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">9.88106441497803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86565685272217</t>
+    <t xml:space="preserve">9.86565494537354</t>
   </si>
   <si>
     <t xml:space="preserve">9.7654972076416</t>
@@ -2771,40 +2771,40 @@
     <t xml:space="preserve">9.4958381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12602043151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07594108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0374174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96422576904297</t>
+    <t xml:space="preserve">9.12602138519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07594013214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03741836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96422481536865</t>
   </si>
   <si>
     <t xml:space="preserve">8.89873695373535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24929332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19536113739014</t>
+    <t xml:space="preserve">9.24929428100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19536209106445</t>
   </si>
   <si>
     <t xml:space="preserve">9.26470184326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14142990112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29937171936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5343599319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50354290008545</t>
+    <t xml:space="preserve">9.14142894744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29937267303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53436088562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50354194641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.6961555480957</t>
@@ -2813,25 +2813,25 @@
     <t xml:space="preserve">9.63837146759033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61525821685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51509952545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51124668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17995262145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35330486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40338325500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4264965057373</t>
+    <t xml:space="preserve">9.61525917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51510047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5112476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17995166778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35330390930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4033842086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42649745941162</t>
   </si>
   <si>
     <t xml:space="preserve">9.19150924682617</t>
@@ -2840,25 +2840,25 @@
     <t xml:space="preserve">9.20306491851807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14913463592529</t>
+    <t xml:space="preserve">9.14913368225098</t>
   </si>
   <si>
     <t xml:space="preserve">8.75235080718994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77931785583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86791896820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09520244598389</t>
+    <t xml:space="preserve">8.77931690216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86791801452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0952033996582</t>
   </si>
   <si>
     <t xml:space="preserve">9.27240657806396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3995304107666</t>
+    <t xml:space="preserve">9.39953136444092</t>
   </si>
   <si>
     <t xml:space="preserve">9.5382137298584</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">10.1391668319702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3857107162476</t>
+    <t xml:space="preserve">10.3857097625732</t>
   </si>
   <si>
     <t xml:space="preserve">10.3703031539917</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">10.5051317214966</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7593822479248</t>
+    <t xml:space="preserve">10.7593812942505</t>
   </si>
   <si>
     <t xml:space="preserve">10.8865060806274</t>
@@ -2885,31 +2885,31 @@
     <t xml:space="preserve">10.9635515213013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8402795791626</t>
+    <t xml:space="preserve">10.8402786254883</t>
   </si>
   <si>
     <t xml:space="preserve">10.9442911148071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.955846786499</t>
+    <t xml:space="preserve">10.9558477401733</t>
   </si>
   <si>
     <t xml:space="preserve">11.0791206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1677227020264</t>
+    <t xml:space="preserve">11.1677217483521</t>
   </si>
   <si>
     <t xml:space="preserve">11.1484613418579</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137914657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2255058288574</t>
+    <t xml:space="preserve">11.0328922271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.113790512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2255067825317</t>
   </si>
   <si>
     <t xml:space="preserve">11.1715745925903</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">11.0136318206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7015972137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8633937835693</t>
+    <t xml:space="preserve">10.7015981674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.863392829895</t>
   </si>
   <si>
     <t xml:space="preserve">11.0675630569458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0290403366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208595275879</t>
+    <t xml:space="preserve">11.0290393829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208585739136</t>
   </si>
   <si>
     <t xml:space="preserve">11.1561651229858</t>
@@ -2960,16 +2960,16 @@
     <t xml:space="preserve">11.0945291519165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1407556533813</t>
+    <t xml:space="preserve">11.1407566070557</t>
   </si>
   <si>
     <t xml:space="preserve">11.17542552948</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4104146957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.290994644165</t>
+    <t xml:space="preserve">11.4104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2909955978394</t>
   </si>
   <si>
     <t xml:space="preserve">11.1792793273926</t>
@@ -2984,28 +2984,28 @@
     <t xml:space="preserve">10.982813835144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1523122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5182790756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.880392074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.968994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1115274429321</t>
+    <t xml:space="preserve">11.1523132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5182781219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8803911209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9689931869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1115283966064</t>
   </si>
   <si>
     <t xml:space="preserve">12.188572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1423463821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.096118927002</t>
+    <t xml:space="preserve">12.1423454284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0961179733276</t>
   </si>
   <si>
     <t xml:space="preserve">12.0691528320312</t>
@@ -3014,16 +3014,16 @@
     <t xml:space="preserve">12.1924247741699</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1346406936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.061448097229</t>
+    <t xml:space="preserve">12.1346416473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0614471435547</t>
   </si>
   <si>
     <t xml:space="preserve">11.8880968093872</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0036640167236</t>
+    <t xml:space="preserve">12.0036649703979</t>
   </si>
   <si>
     <t xml:space="preserve">11.972846031189</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">12.2001304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9805507659912</t>
+    <t xml:space="preserve">11.9805517196655</t>
   </si>
   <si>
     <t xml:space="preserve">12.1962776184082</t>
@@ -3047,19 +3047,19 @@
     <t xml:space="preserve">12.2309484481812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3503684997559</t>
+    <t xml:space="preserve">12.3503694534302</t>
   </si>
   <si>
     <t xml:space="preserve">12.3850393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3311071395874</t>
+    <t xml:space="preserve">12.3311061859131</t>
   </si>
   <si>
     <t xml:space="preserve">12.7124814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7355966567993</t>
+    <t xml:space="preserve">12.735595703125</t>
   </si>
   <si>
     <t xml:space="preserve">12.8049364089966</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">13.0245151519775</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9705829620361</t>
+    <t xml:space="preserve">12.9705820083618</t>
   </si>
   <si>
     <t xml:space="preserve">13.012957572937</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">12.9050951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9898443222046</t>
+    <t xml:space="preserve">12.9898452758789</t>
   </si>
   <si>
     <t xml:space="preserve">12.889684677124</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">12.9474697113037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9436159133911</t>
+    <t xml:space="preserve">12.9436149597168</t>
   </si>
   <si>
     <t xml:space="preserve">12.9628782272339</t>
@@ -3098,7 +3098,7 @@
     <t xml:space="preserve">13.0399236679077</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1439352035522</t>
+    <t xml:space="preserve">13.1439342498779</t>
   </si>
   <si>
     <t xml:space="preserve">13.2055702209473</t>
@@ -3113,13 +3113,13 @@
     <t xml:space="preserve">13.228684425354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786050796509</t>
+    <t xml:space="preserve">13.1786060333252</t>
   </si>
   <si>
     <t xml:space="preserve">13.0707426071167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1516399383545</t>
+    <t xml:space="preserve">13.1516389846802</t>
   </si>
   <si>
     <t xml:space="preserve">13.1631946563721</t>
@@ -3134,19 +3134,19 @@
     <t xml:space="preserve">13.2710599899292</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9782867431641</t>
+    <t xml:space="preserve">12.9782876968384</t>
   </si>
   <si>
     <t xml:space="preserve">13.0014019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9282083511353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8550128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0977077484131</t>
+    <t xml:space="preserve">12.9282093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8550138473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0977067947388</t>
   </si>
   <si>
     <t xml:space="preserve">12.9744348526001</t>
@@ -3158,37 +3158,37 @@
     <t xml:space="preserve">13.2672080993652</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3827753067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5291624069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4135942459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4675245285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5137519836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5907983779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5946521759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6216144561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4328536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4405603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6062078475952</t>
+    <t xml:space="preserve">13.382776260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5291604995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4135932922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4675254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5137529373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5907964706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.594651222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6216154098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4328556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4405584335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6062059402466</t>
   </si>
   <si>
     <t xml:space="preserve">13.8105039596558</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">13.6511526107788</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7655591964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7410430908203</t>
+    <t xml:space="preserve">13.7655582427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7410440444946</t>
   </si>
   <si>
     <t xml:space="preserve">13.8350200653076</t>
@@ -3218,10 +3218,10 @@
     <t xml:space="preserve">13.9616832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0965204238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0760898590088</t>
+    <t xml:space="preserve">14.0965213775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0760908126831</t>
   </si>
   <si>
     <t xml:space="preserve">14.0393180847168</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">14.0066289901733</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0148010253906</t>
+    <t xml:space="preserve">14.0148000717163</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270614624023</t>
@@ -3245,13 +3245,13 @@
     <t xml:space="preserve">13.8023309707642</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8391065597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.798246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6102924346924</t>
+    <t xml:space="preserve">13.8391056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7982454299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6102933883667</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044809341431</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">13.7369565963745</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8145904541016</t>
+    <t xml:space="preserve">13.8145914077759</t>
   </si>
   <si>
     <t xml:space="preserve">13.9453411102295</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">13.7614727020264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5408296585083</t>
+    <t xml:space="preserve">13.5408306121826</t>
   </si>
   <si>
     <t xml:space="preserve">13.8963079452515</t>
@@ -3293,37 +3293,37 @@
     <t xml:space="preserve">13.7287836074829</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6756687164307</t>
+    <t xml:space="preserve">13.675669670105</t>
   </si>
   <si>
     <t xml:space="preserve">13.2589015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3937368392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6838397979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7206144332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6920118331909</t>
+    <t xml:space="preserve">13.3937377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6838407516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7206134796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6920099258423</t>
   </si>
   <si>
     <t xml:space="preserve">13.769645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.626636505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5449180603027</t>
+    <t xml:space="preserve">13.6266355514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5449171066284</t>
   </si>
   <si>
     <t xml:space="preserve">13.5857782363892</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7941598892212</t>
+    <t xml:space="preserve">13.7941608428955</t>
   </si>
   <si>
     <t xml:space="preserve">13.8636226654053</t>
@@ -3332,34 +3332,34 @@
     <t xml:space="preserve">13.9167385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0515747070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.14963722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1986694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1169500350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.121036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.949426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0188884735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9984569549561</t>
+    <t xml:space="preserve">14.0515737533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1496381759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1986684799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1169509887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1210355758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9494256973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0188875198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9984579086304</t>
   </si>
   <si>
     <t xml:space="preserve">13.9575986862183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9861993789673</t>
+    <t xml:space="preserve">13.986198425293</t>
   </si>
   <si>
     <t xml:space="preserve">14.112865447998</t>
@@ -3368,16 +3368,16 @@
     <t xml:space="preserve">14.1782398223877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1945838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1537237167358</t>
+    <t xml:space="preserve">14.1945829391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1537246704102</t>
   </si>
   <si>
     <t xml:space="preserve">14.3294200897217</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4315690994263</t>
+    <t xml:space="preserve">14.4315671920776</t>
   </si>
   <si>
     <t xml:space="preserve">14.501030921936</t>
@@ -3386,88 +3386,88 @@
     <t xml:space="preserve">14.2436141967773</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4233951568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3825359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765129089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6031789779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4519968032837</t>
+    <t xml:space="preserve">14.423394203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3825368881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765138626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6031799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4519958496094</t>
   </si>
   <si>
     <t xml:space="preserve">14.2599601745605</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6930694580078</t>
+    <t xml:space="preserve">14.6930685043335</t>
   </si>
   <si>
     <t xml:space="preserve">14.8115615844727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9790859222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2201547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137096405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0526313781738</t>
+    <t xml:space="preserve">14.9790868759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.220157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137105941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0526323318481</t>
   </si>
   <si>
     <t xml:space="preserve">15.028115272522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0444602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0158586502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3182201385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1874694824219</t>
+    <t xml:space="preserve">15.0444612503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0158596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3182191848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1874685287476</t>
   </si>
   <si>
     <t xml:space="preserve">15.3304758071899</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3590793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4407987594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5184288024902</t>
+    <t xml:space="preserve">15.3590784072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4407968521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5184278488159</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3018760681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3549928665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4178199768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4848346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6146774291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5602283477783</t>
+    <t xml:space="preserve">15.3018751144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3549938201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.417820930481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4848365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6146783828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.560230255127</t>
   </si>
   <si>
     <t xml:space="preserve">15.5937376022339</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">15.6565647125244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7654628753662</t>
+    <t xml:space="preserve">15.7654638290405</t>
   </si>
   <si>
     <t xml:space="preserve">15.711012840271</t>
@@ -3485,19 +3485,19 @@
     <t xml:space="preserve">15.7822189331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7905969619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8827428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8994960784912</t>
+    <t xml:space="preserve">15.7905950546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8827409744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8994941711426</t>
   </si>
   <si>
     <t xml:space="preserve">15.9790782928467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9120607376099</t>
+    <t xml:space="preserve">15.9120626449585</t>
   </si>
   <si>
     <t xml:space="preserve">16.004207611084</t>
@@ -3509,34 +3509,34 @@
     <t xml:space="preserve">15.9036846160889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9330043792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0419025421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0293407440186</t>
+    <t xml:space="preserve">15.9330053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0419044494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0293388366699</t>
   </si>
   <si>
     <t xml:space="preserve">16.1172962188721</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7193918228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5811700820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3172960281372</t>
+    <t xml:space="preserve">15.7193899154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5811710357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3172969818115</t>
   </si>
   <si>
     <t xml:space="preserve">15.413631439209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.388503074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3466138839722</t>
+    <t xml:space="preserve">15.388500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3466157913208</t>
   </si>
   <si>
     <t xml:space="preserve">14.7937355041504</t>
@@ -3545,34 +3545,34 @@
     <t xml:space="preserve">14.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8523740768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1874532699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1120615005493</t>
+    <t xml:space="preserve">14.8523750305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1874542236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112060546875</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377147674561</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5895490646362</t>
+    <t xml:space="preserve">15.5895471572876</t>
   </si>
   <si>
     <t xml:space="preserve">15.6649408340454</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4932136535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5686054229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4974021911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4555187225342</t>
+    <t xml:space="preserve">15.4932126998901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5686044692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4974012374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4555168151855</t>
   </si>
   <si>
     <t xml:space="preserve">15.3047304153442</t>
@@ -3584,73 +3584,73 @@
     <t xml:space="preserve">15.6104907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.53928565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7068243026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6481857299805</t>
+    <t xml:space="preserve">15.5392866134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7068252563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6481866836548</t>
   </si>
   <si>
     <t xml:space="preserve">15.6063003540039</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9204378128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8282918930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4680814743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.556040763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4638929367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5727939605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7026376724243</t>
+    <t xml:space="preserve">15.9204368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8282909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4680833816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5560398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4638919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5727949142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7026386260986</t>
   </si>
   <si>
     <t xml:space="preserve">15.685884475708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4471397399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.564416885376</t>
+    <t xml:space="preserve">15.4471406936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5644178390503</t>
   </si>
   <si>
     <t xml:space="preserve">15.7947835922241</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6816930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8115367889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9905958175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1204357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3131074905396</t>
+    <t xml:space="preserve">15.6816921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8115377426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9905948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.120436668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3131084442139</t>
   </si>
   <si>
     <t xml:space="preserve">15.3005418777466</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6356229782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3675575256348</t>
+    <t xml:space="preserve">15.6356220245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3675565719604</t>
   </si>
   <si>
     <t xml:space="preserve">15.6230554580688</t>
@@ -3659,10 +3659,10 @@
     <t xml:space="preserve">15.5979261398315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3759346008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8785524368286</t>
+    <t xml:space="preserve">15.3759355545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8785533905029</t>
   </si>
   <si>
     <t xml:space="preserve">15.5309104919434</t>
@@ -3671,25 +3671,25 @@
     <t xml:space="preserve">15.1790761947632</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2209596633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6303844451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9864044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214824676514</t>
+    <t xml:space="preserve">15.2209615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6303853988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9864053726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214834213257</t>
   </si>
   <si>
     <t xml:space="preserve">14.4293375015259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3665103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5958280563354</t>
+    <t xml:space="preserve">14.366509437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5958271026611</t>
   </si>
   <si>
     <t xml:space="preserve">13.2900686264038</t>
@@ -3701,43 +3701,43 @@
     <t xml:space="preserve">14.2073459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733156204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3832635879517</t>
+    <t xml:space="preserve">14.073314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.383264541626</t>
   </si>
   <si>
     <t xml:space="preserve">14.7811698913574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0031595230103</t>
+    <t xml:space="preserve">15.0031604766846</t>
   </si>
   <si>
     <t xml:space="preserve">15.7277679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6942615509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8157272338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9706993103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2680835723877</t>
+    <t xml:space="preserve">15.694260597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8157262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9707012176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2680816650391</t>
   </si>
   <si>
     <t xml:space="preserve">16.871223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5277671813965</t>
+    <t xml:space="preserve">16.5277690887451</t>
   </si>
   <si>
     <t xml:space="preserve">16.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3989734649658</t>
+    <t xml:space="preserve">17.3989753723145</t>
   </si>
   <si>
     <t xml:space="preserve">17.6837921142578</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">17.005256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9298610687256</t>
+    <t xml:space="preserve">16.9298629760742</t>
   </si>
   <si>
     <t xml:space="preserve">16.7371921539307</t>
@@ -3755,13 +3755,13 @@
     <t xml:space="preserve">16.2178230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063014984131</t>
+    <t xml:space="preserve">16.4063034057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.2848377227783</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1466178894043</t>
+    <t xml:space="preserve">16.1466159820557</t>
   </si>
   <si>
     <t xml:space="preserve">16.0712242126465</t>
@@ -3776,31 +3776,31 @@
     <t xml:space="preserve">15.4261980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1288146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1665105819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0785522460938</t>
+    <t xml:space="preserve">15.1288137435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1665096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0785531997681</t>
   </si>
   <si>
     <t xml:space="preserve">15.1623229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0366678237915</t>
+    <t xml:space="preserve">15.0366697311401</t>
   </si>
   <si>
     <t xml:space="preserve">15.3340511322021</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2460918426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0701761245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565626144409</t>
+    <t xml:space="preserve">15.2460927963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0701751708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565635681152</t>
   </si>
   <si>
     <t xml:space="preserve">14.6094427108765</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">14.8356189727783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8775053024292</t>
+    <t xml:space="preserve">14.8775062561035</t>
   </si>
   <si>
     <t xml:space="preserve">14.8021125793457</t>
@@ -3824,25 +3824,25 @@
     <t xml:space="preserve">15.5241460800171</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860931396484</t>
+    <t xml:space="preserve">15.3860921859741</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196914672852</t>
+    <t xml:space="preserve">15.5196905136108</t>
   </si>
   <si>
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1767892837524</t>
+    <t xml:space="preserve">15.1767902374268</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0610036849976</t>
+    <t xml:space="preserve">15.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">14.9942035675049</t>
@@ -3851,7 +3851,7 @@
     <t xml:space="preserve">14.8873262405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.083270072937</t>
+    <t xml:space="preserve">15.0832691192627</t>
   </si>
   <si>
     <t xml:space="preserve">14.9852991104126</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">14.6824750900269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9654960632324</t>
+    <t xml:space="preserve">13.9654970169067</t>
   </si>
   <si>
     <t xml:space="preserve">13.8007249832153</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">13.907603263855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1614398956299</t>
+    <t xml:space="preserve">14.1614408493042</t>
   </si>
   <si>
     <t xml:space="preserve">13.96994972229</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">14.2683200836182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8363513946533</t>
+    <t xml:space="preserve">13.836350440979</t>
   </si>
   <si>
     <t xml:space="preserve">14.0011224746704</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">12.8833484649658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9724130630493</t>
+    <t xml:space="preserve">12.9724140167236</t>
   </si>
   <si>
     <t xml:space="preserve">12.9546003341675</t>
@@ -3950,37 +3950,37 @@
     <t xml:space="preserve">12.7052173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6829509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7319374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9590539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7007646560669</t>
+    <t xml:space="preserve">12.6829500198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7319364547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9590549468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7007637023926</t>
   </si>
   <si>
     <t xml:space="preserve">12.6562309265137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8610811233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9902267456055</t>
+    <t xml:space="preserve">12.8610820770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9902276992798</t>
   </si>
   <si>
     <t xml:space="preserve">13.2574243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0035877227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0703868865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1817188262939</t>
+    <t xml:space="preserve">13.003586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0703859329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1817178726196</t>
   </si>
   <si>
     <t xml:space="preserve">13.3954753875732</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">13.2440643310547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266481399536</t>
+    <t xml:space="preserve">13.4266490936279</t>
   </si>
   <si>
     <t xml:space="preserve">13.1149196624756</t>
@@ -4022,13 +4022,13 @@
     <t xml:space="preserve">13.0436668395996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1995315551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.039213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9234275817871</t>
+    <t xml:space="preserve">13.1995306015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0392141342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9234285354614</t>
   </si>
   <si>
     <t xml:space="preserve">13.3821153640747</t>
@@ -4043,13 +4043,13 @@
     <t xml:space="preserve">13.07483959198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3153171539307</t>
+    <t xml:space="preserve">13.3153162002563</t>
   </si>
   <si>
     <t xml:space="preserve">13.733925819397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5246210098267</t>
+    <t xml:space="preserve">13.524621963501</t>
   </si>
   <si>
     <t xml:space="preserve">13.6493129730225</t>
@@ -4058,10 +4058,10 @@
     <t xml:space="preserve">13.6003274917603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2841444015503</t>
+    <t xml:space="preserve">13.248517036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.284143447876</t>
   </si>
   <si>
     <t xml:space="preserve">12.8521757125854</t>
@@ -4085,10 +4085,10 @@
     <t xml:space="preserve">12.9145212173462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6517782211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3623142242432</t>
+    <t xml:space="preserve">12.6517772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3623151779175</t>
   </si>
   <si>
     <t xml:space="preserve">12.2420749664307</t>
@@ -4109,19 +4109,19 @@
     <t xml:space="preserve">12.6784973144531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8254547119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8922548294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525732040405</t>
+    <t xml:space="preserve">12.8254556655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8922557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525722503662</t>
   </si>
   <si>
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173452377319</t>
+    <t xml:space="preserve">13.2173442840576</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4160,13 +4160,13 @@
     <t xml:space="preserve">15.0209245681763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346811294556</t>
+    <t xml:space="preserve">15.2346820831299</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367101669312</t>
+    <t xml:space="preserve">15.1367111206055</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1233501434326</t>
+    <t xml:space="preserve">15.123348236084</t>
   </si>
   <si>
     <t xml:space="preserve">15.0788173675537</t>
@@ -4184,28 +4184,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524948120117</t>
+    <t xml:space="preserve">15.0877237319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524938583374</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326539993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3281993865967</t>
+    <t xml:space="preserve">15.3326549530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.328200340271</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192949295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217205047607</t>
+    <t xml:space="preserve">15.3192939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217195510864</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006853103638</t>
+    <t xml:space="preserve">14.9006843566895</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4250,7 +4250,7 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075654983521</t>
+    <t xml:space="preserve">15.0075645446777</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
@@ -4265,16 +4265,16 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4974250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840660095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6087579727173</t>
+    <t xml:space="preserve">15.49742603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953989028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.608757019043</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115810394287</t>
+    <t xml:space="preserve">15.9561147689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115800857544</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427547454834</t>
+    <t xml:space="preserve">15.9427528381348</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4313,31 +4313,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297912597656</t>
+    <t xml:space="preserve">16.1297931671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698703765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.22776222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500305175781</t>
+    <t xml:space="preserve">16.1698722839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2277641296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500324249268</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544822692871</t>
+    <t xml:space="preserve">16.2544841766357</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034687042236</t>
+    <t xml:space="preserve">16.3034706115723</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476039886475</t>
+    <t xml:space="preserve">16.1476058959961</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4406,7 +4406,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026746749878</t>
+    <t xml:space="preserve">15.9026737213135</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4421,13 +4421,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2901096343994</t>
+    <t xml:space="preserve">16.290111541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216789245605</t>
+    <t xml:space="preserve">16.5216808319092</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4442,16 +4442,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289585113525</t>
+    <t xml:space="preserve">16.8289566040039</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070877075195</t>
+    <t xml:space="preserve">17.0026340484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070896148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4463,7 +4463,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.926929473877</t>
+    <t xml:space="preserve">16.9269275665283</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4475,22 +4475,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4815998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002113342285</t>
+    <t xml:space="preserve">16.4816017150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002094268799</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022384643555</t>
+    <t xml:space="preserve">16.5706653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022365570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -5187,6 +5187,9 @@
   </si>
   <si>
     <t xml:space="preserve">22.5900001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7999992370605</t>
   </si>
 </sst>
 </file>
@@ -61454,7 +61457,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6527083333</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>6141452</v>
@@ -61475,6 +61478,32 @@
         <v>1724</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6494560185</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>3424376</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>22.5799999237061</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>22.7999992370605</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1727">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7089786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52511787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50732517242432</t>
+    <t xml:space="preserve">9.70897769927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52511692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50732612609863</t>
   </si>
   <si>
     <t xml:space="preserve">9.40649795532227</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">9.13960552215576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27008724212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45394611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34125900268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13367366790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93795394897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00319480895996</t>
+    <t xml:space="preserve">9.27008628845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45394515991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34125804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13367652893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93795299530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00319290161133</t>
   </si>
   <si>
     <t xml:space="preserve">8.64733695983887</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">8.80747318267822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84898948669434</t>
+    <t xml:space="preserve">8.84898853302002</t>
   </si>
   <si>
     <t xml:space="preserve">8.66512966156006</t>
@@ -95,127 +95,127 @@
     <t xml:space="preserve">8.27961730957031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94155311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17879009246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03644847869873</t>
+    <t xml:space="preserve">7.94155263900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17879104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03644752502441</t>
   </si>
   <si>
     <t xml:space="preserve">7.73396873474121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54417943954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4611439704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25949239730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03411531448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74942970275879</t>
+    <t xml:space="preserve">7.54417753219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114540100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25949287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03411674499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74942922592163</t>
   </si>
   <si>
     <t xml:space="preserve">7.10528707504272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50032997131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61301755905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87991142272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90363645553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06377077102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01632308959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94515228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19425106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18832063674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25356006622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57383298873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755706787109</t>
+    <t xml:space="preserve">6.50032949447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61301708221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87990999221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90363597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06377124786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01632356643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94515132904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19425201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18832111358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25356149673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57383346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755611419678</t>
   </si>
   <si>
     <t xml:space="preserve">7.65686750411987</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77548599243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76955509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69245290756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55603981018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63314342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69838333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68652009963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24403285980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17286014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12541198730469</t>
+    <t xml:space="preserve">7.77548551559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76955556869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6924524307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55604076385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63314199447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69838285446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68652105331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24403190612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17286109924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.125412940979</t>
   </si>
   <si>
     <t xml:space="preserve">8.21437740325928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23217010498047</t>
+    <t xml:space="preserve">8.23216915130615</t>
   </si>
   <si>
     <t xml:space="preserve">8.09575653076172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00086116790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90003633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85258817672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68059110641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74583148956299</t>
+    <t xml:space="preserve">8.00086212158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90003490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85258769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68059015274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74583101272583</t>
   </si>
   <si>
     <t xml:space="preserve">7.80514049530029</t>
@@ -227,55 +227,55 @@
     <t xml:space="preserve">7.61534929275513</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52638530731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28321599960327</t>
+    <t xml:space="preserve">7.5263843536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28321647644043</t>
   </si>
   <si>
     <t xml:space="preserve">7.30694007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14680290222168</t>
+    <t xml:space="preserve">7.14680480957031</t>
   </si>
   <si>
     <t xml:space="preserve">7.35438823699951</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44335222244263</t>
+    <t xml:space="preserve">7.44335269927979</t>
   </si>
   <si>
     <t xml:space="preserve">7.46707630157471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75176095962524</t>
+    <t xml:space="preserve">7.75176191329956</t>
   </si>
   <si>
     <t xml:space="preserve">7.81700277328491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79921007156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87038135528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92375993728638</t>
+    <t xml:space="preserve">7.7992091178894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8703818321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92376041412354</t>
   </si>
   <si>
     <t xml:space="preserve">8.08389472961426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16693019866943</t>
+    <t xml:space="preserve">8.16692924499512</t>
   </si>
   <si>
     <t xml:space="preserve">8.11948108673096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19065284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13727474212646</t>
+    <t xml:space="preserve">8.19065380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13727378845215</t>
   </si>
   <si>
     <t xml:space="preserve">8.1076192855835</t>
@@ -287,13 +287,13 @@
     <t xml:space="preserve">7.71024513244629</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66872882843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85852003097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38404226303101</t>
+    <t xml:space="preserve">7.66872787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85851955413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38404178619385</t>
   </si>
   <si>
     <t xml:space="preserve">7.47300720214844</t>
@@ -305,10 +305,10 @@
     <t xml:space="preserve">7.41962814331055</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56197071075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63111734390259</t>
+    <t xml:space="preserve">7.56197118759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63111639022827</t>
   </si>
   <si>
     <t xml:space="preserve">8.07113075256348</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">8.24713706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2848539352417</t>
+    <t xml:space="preserve">8.28485298156738</t>
   </si>
   <si>
     <t xml:space="preserve">8.1905632019043</t>
@@ -329,34 +329,34 @@
     <t xml:space="preserve">8.14656162261963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09627437591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86998224258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85740947723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98941469192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14027690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10256099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73797750473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48653984069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27281904220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2979621887207</t>
+    <t xml:space="preserve">8.09627532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86998271942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85740995407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98941326141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1402759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10256195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73797655105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4865403175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27281808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29796171188354</t>
   </si>
   <si>
     <t xml:space="preserve">7.2162446975708</t>
@@ -365,31 +365,31 @@
     <t xml:space="preserve">7.49911260604858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72540664672852</t>
+    <t xml:space="preserve">7.72540378570557</t>
   </si>
   <si>
     <t xml:space="preserve">7.86369562149048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90769624710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86423254013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28278541564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3802170753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53107929229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63165330886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70708465576172</t>
+    <t xml:space="preserve">7.9076976776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86423397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2827844619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38021612167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53107881546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63165426254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70708560943604</t>
   </si>
   <si>
     <t xml:space="preserve">6.51850700378418</t>
@@ -401,58 +401,58 @@
     <t xml:space="preserve">6.16963815689087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18221092224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66308355331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71337127685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05281114578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98366594314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16595697402954</t>
+    <t xml:space="preserve">6.18221044540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66308259963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71337032318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05281209945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98366546630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1659574508667</t>
   </si>
   <si>
     <t xml:space="preserve">7.09681272506714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13452768325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04652547836304</t>
+    <t xml:space="preserve">7.13452816009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04652404785156</t>
   </si>
   <si>
     <t xml:space="preserve">7.14081287384033</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0653829574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138042449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97109365463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10309839248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90823459625244</t>
+    <t xml:space="preserve">7.06538248062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97109413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10309886932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90823364257812</t>
   </si>
   <si>
     <t xml:space="preserve">7.4048228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37339353561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08424186706543</t>
+    <t xml:space="preserve">7.37339305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08424091339111</t>
   </si>
   <si>
     <t xml:space="preserve">7.36710786819458</t>
@@ -461,151 +461,151 @@
     <t xml:space="preserve">7.51796913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60597324371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61225938796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65626001358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38596439361572</t>
+    <t xml:space="preserve">7.60597276687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6122579574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65626049041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38596534729004</t>
   </si>
   <si>
     <t xml:space="preserve">7.18481492996216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20367336273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02766752243042</t>
+    <t xml:space="preserve">7.20367383956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02766799926758</t>
   </si>
   <si>
     <t xml:space="preserve">7.34196424484253</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31682157516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10938596725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03395414352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566230773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07166862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24138975143433</t>
+    <t xml:space="preserve">7.31682109832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10938453674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03395223617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566326141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07166814804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24138784408569</t>
   </si>
   <si>
     <t xml:space="preserve">7.29167604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23510360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17853021621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27910470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46139669418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56825685501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98995208740234</t>
+    <t xml:space="preserve">7.23510265350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17852926254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27910423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46139574050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56825637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98995113372803</t>
   </si>
   <si>
     <t xml:space="preserve">6.91452121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01509475708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09052610397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87680387496948</t>
+    <t xml:space="preserve">7.01509618759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09052562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87680530548096</t>
   </si>
   <si>
     <t xml:space="preserve">6.84537601470947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85794639587402</t>
+    <t xml:space="preserve">6.85794687271118</t>
   </si>
   <si>
     <t xml:space="preserve">6.88937711715698</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82651710510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79508829116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77622890472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909633636475</t>
+    <t xml:space="preserve">6.82651805877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79508876800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77622985839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05909538269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.15338516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14709997177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47396898269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50539779663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59968662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58082962036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64368724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62482929229736</t>
+    <t xml:space="preserve">7.14710092544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282598495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47396802902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5053973197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59968709945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58082866668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64368772506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62483024597168</t>
   </si>
   <si>
     <t xml:space="preserve">7.44882440567017</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39853715896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28538942337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9585223197937</t>
+    <t xml:space="preserve">7.39853668212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28539037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95852136611938</t>
   </si>
   <si>
     <t xml:space="preserve">7.12824201583862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39225101470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37967872619629</t>
+    <t xml:space="preserve">7.39225149154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37967920303345</t>
   </si>
   <si>
     <t xml:space="preserve">7.17224311828613</t>
@@ -614,22 +614,22 @@
     <t xml:space="preserve">7.32310628890991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11567115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75683450698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66883087158203</t>
+    <t xml:space="preserve">7.1156702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75683546066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66883134841919</t>
   </si>
   <si>
     <t xml:space="preserve">8.06484508514404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65572357177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05173683166504</t>
+    <t xml:space="preserve">8.65572261810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05173492431641</t>
   </si>
   <si>
     <t xml:space="preserve">8.81287097930908</t>
@@ -638,46 +638,46 @@
     <t xml:space="preserve">8.83801460266113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77515602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68715286254883</t>
+    <t xml:space="preserve">8.77515506744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68715190887451</t>
   </si>
   <si>
     <t xml:space="preserve">8.90716075897217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92601680755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00773429870605</t>
+    <t xml:space="preserve">8.92601776123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00773334503174</t>
   </si>
   <si>
     <t xml:space="preserve">8.9511604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9637336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03287696838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03916454315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91973114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8694429397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87572956085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02030754089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08316516876221</t>
+    <t xml:space="preserve">8.96373271942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03287792205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03916358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91973209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86944484710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87573146820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02030563354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08316612243652</t>
   </si>
   <si>
     <t xml:space="preserve">9.12716674804688</t>
@@ -686,34 +686,34 @@
     <t xml:space="preserve">9.07059478759766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08945274353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88830280303955</t>
+    <t xml:space="preserve">9.08945178985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88830184936523</t>
   </si>
   <si>
     <t xml:space="preserve">8.8505859375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74372386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61172008514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58657646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51743316650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62429332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61800670623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744705200195</t>
+    <t xml:space="preserve">8.74372482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61172103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58657741546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51743221282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62429237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61800765991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744800567627</t>
   </si>
   <si>
     <t xml:space="preserve">9.69290161132812</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">9.82490539550781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68032741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37231731414795</t>
+    <t xml:space="preserve">9.68032932281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37231826782227</t>
   </si>
   <si>
     <t xml:space="preserve">9.26545715332031</t>
@@ -737,25 +737,25 @@
     <t xml:space="preserve">9.22774124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39117431640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41631889343262</t>
+    <t xml:space="preserve">9.39117622375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41631984710693</t>
   </si>
   <si>
     <t xml:space="preserve">9.19631290435791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14602470397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04545116424561</t>
+    <t xml:space="preserve">9.14602565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04545021057129</t>
   </si>
   <si>
     <t xml:space="preserve">9.11459445953369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28431606292725</t>
+    <t xml:space="preserve">9.28431510925293</t>
   </si>
   <si>
     <t xml:space="preserve">9.43517780303955</t>
@@ -764,13 +764,13 @@
     <t xml:space="preserve">9.25917053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29060173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34088802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20888423919678</t>
+    <t xml:space="preserve">9.29060077667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34088897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20888328552246</t>
   </si>
   <si>
     <t xml:space="preserve">9.19002628326416</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">9.12088108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02659225463867</t>
+    <t xml:space="preserve">9.02659320831299</t>
   </si>
   <si>
     <t xml:space="preserve">8.86315822601318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49857521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63057804107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91344547271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82544136047363</t>
+    <t xml:space="preserve">8.49857616424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63057708740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9134464263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82544326782227</t>
   </si>
   <si>
     <t xml:space="preserve">8.9323034286499</t>
@@ -806,40 +806,40 @@
     <t xml:space="preserve">9.17745494842529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17117023468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15859603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2465991973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36603164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18373966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00144958496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97630500793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8317289352417</t>
+    <t xml:space="preserve">9.17116832733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15859699249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24660015106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36603355407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18373870849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00144863128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97630596160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83172988891602</t>
   </si>
   <si>
     <t xml:space="preserve">8.718581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31574440002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13345241546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25288677215576</t>
+    <t xml:space="preserve">9.31574630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13345336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25288581848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.42889213562012</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">9.60489749908447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63632678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61118412017822</t>
+    <t xml:space="preserve">9.63632774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61118316650391</t>
   </si>
   <si>
     <t xml:space="preserve">9.32831764221191</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">9.27174282073975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42260646820068</t>
+    <t xml:space="preserve">9.42260551452637</t>
   </si>
   <si>
     <t xml:space="preserve">9.4603214263916</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">9.73626232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57697677612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55042934417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52388381958008</t>
+    <t xml:space="preserve">9.57697772979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55043029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52388191223145</t>
   </si>
   <si>
     <t xml:space="preserve">9.33141422271729</t>
@@ -896,121 +896,121 @@
     <t xml:space="preserve">9.32477760314941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42432975769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19203948974609</t>
+    <t xml:space="preserve">9.42433071136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19204044342041</t>
   </si>
   <si>
     <t xml:space="preserve">9.13230895996094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11239719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27168273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33804988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4376049041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62343502044678</t>
+    <t xml:space="preserve">9.11239624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2716817855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33805084228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43760395050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62343406677246</t>
   </si>
   <si>
     <t xml:space="preserve">9.63007259368896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56370258331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68316745758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69644069671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58361434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74953460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64998340606689</t>
+    <t xml:space="preserve">9.5637035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68316650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69643974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58361339569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74953556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64998245239258</t>
   </si>
   <si>
     <t xml:space="preserve">9.61679840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64334678649902</t>
+    <t xml:space="preserve">9.64334583282471</t>
   </si>
   <si>
     <t xml:space="preserve">9.68980407714844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7296257019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78271961212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9884614944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95527744293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94864177703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0614681243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2141170501709</t>
+    <t xml:space="preserve">9.72962474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7827205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98846244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95527839660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94864082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0614671707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2141160964966</t>
   </si>
   <si>
     <t xml:space="preserve">10.2804841995239</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344718933105</t>
+    <t xml:space="preserve">10.1344728469849</t>
   </si>
   <si>
     <t xml:space="preserve">10.1012887954712</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97518825531006</t>
+    <t xml:space="preserve">9.97518730163574</t>
   </si>
   <si>
     <t xml:space="preserve">9.93536758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742944717407</t>
+    <t xml:space="preserve">10.174295425415</t>
   </si>
   <si>
     <t xml:space="preserve">10.1942043304443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2207517623901</t>
+    <t xml:space="preserve">10.2207527160645</t>
   </si>
   <si>
     <t xml:space="preserve">10.5061368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5194091796875</t>
+    <t xml:space="preserve">10.5194110870361</t>
   </si>
   <si>
     <t xml:space="preserve">10.5725059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6720571517944</t>
+    <t xml:space="preserve">10.6720590591431</t>
   </si>
   <si>
     <t xml:space="preserve">10.6322374343872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4928636550903</t>
+    <t xml:space="preserve">10.492862701416</t>
   </si>
   <si>
     <t xml:space="preserve">10.4331312179565</t>
@@ -1019,28 +1019,28 @@
     <t xml:space="preserve">10.2472991943359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2871208190918</t>
+    <t xml:space="preserve">10.2871198654175</t>
   </si>
   <si>
     <t xml:space="preserve">10.3269414901733</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2406635284424</t>
+    <t xml:space="preserve">10.2406616210938</t>
   </si>
   <si>
     <t xml:space="preserve">10.2937574386597</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2008419036865</t>
+    <t xml:space="preserve">10.2008409500122</t>
   </si>
   <si>
     <t xml:space="preserve">10.127836227417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1145629882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0946502685547</t>
+    <t xml:space="preserve">10.1145610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0946521759033</t>
   </si>
   <si>
     <t xml:space="preserve">10.1079254150391</t>
@@ -1049,19 +1049,19 @@
     <t xml:space="preserve">10.0747413635254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94200420379639</t>
+    <t xml:space="preserve">9.9420051574707</t>
   </si>
   <si>
     <t xml:space="preserve">9.92873001098633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98182582855225</t>
+    <t xml:space="preserve">9.98182487487793</t>
   </si>
   <si>
     <t xml:space="preserve">10.0282831192017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0880136489868</t>
+    <t xml:space="preserve">10.0880146026611</t>
   </si>
   <si>
     <t xml:space="preserve">10.0415573120117</t>
@@ -1073,82 +1073,82 @@
     <t xml:space="preserve">10.3136682510376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3734006881714</t>
+    <t xml:space="preserve">10.3733997344971</t>
   </si>
   <si>
     <t xml:space="preserve">10.1676568984985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3203048706055</t>
+    <t xml:space="preserve">10.3203039169312</t>
   </si>
   <si>
     <t xml:space="preserve">10.3402156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3003931045532</t>
+    <t xml:space="preserve">10.3003940582275</t>
   </si>
   <si>
     <t xml:space="preserve">10.4596786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4994983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5658683776855</t>
+    <t xml:space="preserve">10.4994993209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5658693313599</t>
   </si>
   <si>
     <t xml:space="preserve">10.360125541687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2672100067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2738475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2539348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1411085128784</t>
+    <t xml:space="preserve">10.2672109603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2738466262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2539358139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1411094665527</t>
   </si>
   <si>
     <t xml:space="preserve">10.4264945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3866729736328</t>
+    <t xml:space="preserve">10.3866739273071</t>
   </si>
   <si>
     <t xml:space="preserve">10.4464054107666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3800382614136</t>
+    <t xml:space="preserve">10.3800363540649</t>
   </si>
   <si>
     <t xml:space="preserve">10.5592317581177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4530420303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3667631149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3070297241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4663152694702</t>
+    <t xml:space="preserve">10.4530429840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3667621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3070306777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4663171768188</t>
   </si>
   <si>
     <t xml:space="preserve">10.2074785232544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0481939315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99509906768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0216474533081</t>
+    <t xml:space="preserve">10.0481958389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9951000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0216464996338</t>
   </si>
   <si>
     <t xml:space="preserve">10.0813779830933</t>
@@ -1157,31 +1157,31 @@
     <t xml:space="preserve">10.161021232605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1477470397949</t>
+    <t xml:space="preserve">10.1477460861206</t>
   </si>
   <si>
     <t xml:space="preserve">10.2273893356323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1543836593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1211986541748</t>
+    <t xml:space="preserve">10.1543827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1211996078491</t>
   </si>
   <si>
     <t xml:space="preserve">9.96855163574219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88227272033691</t>
+    <t xml:space="preserve">9.8822717666626</t>
   </si>
   <si>
     <t xml:space="preserve">10.3999471664429</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4065856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5127735137939</t>
+    <t xml:space="preserve">10.4065847396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5127744674683</t>
   </si>
   <si>
     <t xml:space="preserve">10.4862260818481</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">10.7317895889282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7450647354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6388740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7517013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7649726867676</t>
+    <t xml:space="preserve">10.7450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6388750076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7517004013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7649736404419</t>
   </si>
   <si>
     <t xml:space="preserve">10.6090087890625</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">10.5824604034424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4198579788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1875686645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2904396057129</t>
+    <t xml:space="preserve">10.4198570251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1875677108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2904386520386</t>
   </si>
   <si>
     <t xml:space="preserve">10.237343788147</t>
@@ -1229,19 +1229,19 @@
     <t xml:space="preserve">10.2340259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2240695953369</t>
+    <t xml:space="preserve">10.2240705490112</t>
   </si>
   <si>
     <t xml:space="preserve">9.76944637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0647869110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2771654129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1643381118774</t>
+    <t xml:space="preserve">10.0647850036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2771635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1643400192261</t>
   </si>
   <si>
     <t xml:space="preserve">10.436450958252</t>
@@ -1250,49 +1250,49 @@
     <t xml:space="preserve">10.4132204055786</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3534889221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3700819015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3966283798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795894622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5957355499268</t>
+    <t xml:space="preserve">10.3534898757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.370080947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3966302871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795904159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5957345962524</t>
   </si>
   <si>
     <t xml:space="preserve">10.7550191879272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.735107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7882022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8811187744141</t>
+    <t xml:space="preserve">10.7351083755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7882032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8811197280884</t>
   </si>
   <si>
     <t xml:space="preserve">10.9806709289551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0934972763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2262353897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3191518783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0868606567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1764583587646</t>
+    <t xml:space="preserve">11.0934982299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2262363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3191509246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.086859703064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.176459312439</t>
   </si>
   <si>
     <t xml:space="preserve">11.0370845794678</t>
@@ -1304,22 +1304,22 @@
     <t xml:space="preserve">11.1665048599243</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1631851196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1366386413574</t>
+    <t xml:space="preserve">11.1631841659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1366395950317</t>
   </si>
   <si>
     <t xml:space="preserve">10.9773540496826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9906272888184</t>
+    <t xml:space="preserve">10.9906253814697</t>
   </si>
   <si>
     <t xml:space="preserve">10.8877553939819</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9508066177368</t>
+    <t xml:space="preserve">10.9508056640625</t>
   </si>
   <si>
     <t xml:space="preserve">10.957444190979</t>
@@ -1331,34 +1331,34 @@
     <t xml:space="preserve">10.7749300003052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6986055374146</t>
+    <t xml:space="preserve">10.6986064910889</t>
   </si>
   <si>
     <t xml:space="preserve">10.7266311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6915998458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565486907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4428768157959</t>
+    <t xml:space="preserve">10.6915988922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5654859542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4428758621216</t>
   </si>
   <si>
     <t xml:space="preserve">10.421856880188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2607126235962</t>
+    <t xml:space="preserve">10.2607135772705</t>
   </si>
   <si>
     <t xml:space="preserve">9.90339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96294689178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1941528320312</t>
+    <t xml:space="preserve">9.96294498443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1941537857056</t>
   </si>
   <si>
     <t xml:space="preserve">10.3062534332275</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">10.0925617218018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92791366577148</t>
+    <t xml:space="preserve">9.9279146194458</t>
   </si>
   <si>
     <t xml:space="preserve">10.218674659729</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">10.1696310043335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2011594772339</t>
+    <t xml:space="preserve">10.2011585235596</t>
   </si>
   <si>
     <t xml:space="preserve">10.323769569397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.225682258606</t>
+    <t xml:space="preserve">10.2256813049316</t>
   </si>
   <si>
     <t xml:space="preserve">10.1801404953003</t>
@@ -1400,37 +1400,37 @@
     <t xml:space="preserve">10.1135807037354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1871461868286</t>
+    <t xml:space="preserve">10.1871452331543</t>
   </si>
   <si>
     <t xml:space="preserve">10.0119895935059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.029504776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93141746520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92441082000732</t>
+    <t xml:space="preserve">10.0295038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93141651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92440986633301</t>
   </si>
   <si>
     <t xml:space="preserve">10.0224981307983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0014801025391</t>
+    <t xml:space="preserve">10.0014791488647</t>
   </si>
   <si>
     <t xml:space="preserve">10.2291841506958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1906490325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1451082229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0645351409912</t>
+    <t xml:space="preserve">10.1906499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1451072692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0645360946655</t>
   </si>
   <si>
     <t xml:space="preserve">10.0750455856323</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">10.120587348938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2712230682373</t>
+    <t xml:space="preserve">10.2712211608887</t>
   </si>
   <si>
     <t xml:space="preserve">10.2782287597656</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">10.3272724151611</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3482913970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3973350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4779081344604</t>
+    <t xml:space="preserve">10.3482904434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3973360061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4779071807861</t>
   </si>
   <si>
     <t xml:space="preserve">10.6495609283447</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">10.3798189163208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.467396736145</t>
+    <t xml:space="preserve">10.4673976898193</t>
   </si>
   <si>
     <t xml:space="preserve">10.4288635253906</t>
@@ -1490,34 +1490,34 @@
     <t xml:space="preserve">10.5059328079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2887392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1275911331177</t>
+    <t xml:space="preserve">10.2887382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1275930404663</t>
   </si>
   <si>
     <t xml:space="preserve">10.1486120223999</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2747259140015</t>
+    <t xml:space="preserve">10.2747249603271</t>
   </si>
   <si>
     <t xml:space="preserve">10.3517942428589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.407844543457</t>
+    <t xml:space="preserve">10.4078435897827</t>
   </si>
   <si>
     <t xml:space="preserve">10.3447875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0505247116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1836442947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3623037338257</t>
+    <t xml:space="preserve">10.0505237579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1836433410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3623046875</t>
   </si>
   <si>
     <t xml:space="preserve">10.3868246078491</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">10.3693103790283</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5970144271851</t>
+    <t xml:space="preserve">10.5970153808594</t>
   </si>
   <si>
     <t xml:space="preserve">10.5339584350586</t>
@@ -1535,10 +1535,10 @@
     <t xml:space="preserve">10.5199460983276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5900077819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6075239181519</t>
+    <t xml:space="preserve">10.5900068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6075248718262</t>
   </si>
   <si>
     <t xml:space="preserve">10.6180334091187</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">10.7371397018433</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8597507476807</t>
+    <t xml:space="preserve">10.8597497940063</t>
   </si>
   <si>
     <t xml:space="preserve">10.8772659301758</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">10.8142099380493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4253606796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.309757232666</t>
+    <t xml:space="preserve">10.4253616333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3097553253174</t>
   </si>
   <si>
     <t xml:space="preserve">10.3938322067261</t>
@@ -1574,19 +1574,19 @@
     <t xml:space="preserve">10.106575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0049819946289</t>
+    <t xml:space="preserve">10.0049829483032</t>
   </si>
   <si>
     <t xml:space="preserve">9.90689468383789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0260028839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97345352172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8158130645752</t>
+    <t xml:space="preserve">10.0260019302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97345542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81581401824951</t>
   </si>
   <si>
     <t xml:space="preserve">9.84383869171143</t>
@@ -1595,19 +1595,19 @@
     <t xml:space="preserve">9.81231021881104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68619728088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63364791870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84033584594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73173904418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94192504882812</t>
+    <t xml:space="preserve">9.68619632720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63364887237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84033393859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73173809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94192600250244</t>
   </si>
   <si>
     <t xml:space="preserve">10.0785493850708</t>
@@ -1619,139 +1619,139 @@
     <t xml:space="preserve">10.0715427398682</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0820512771606</t>
+    <t xml:space="preserve">10.082052230835</t>
   </si>
   <si>
     <t xml:space="preserve">10.0470209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98396396636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1310968399048</t>
+    <t xml:space="preserve">9.98396492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1310949325562</t>
   </si>
   <si>
     <t xml:space="preserve">9.92090797424316</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0084867477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96644878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98746585845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2396936416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2992458343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3377819061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4323673248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5164413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.400839805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98046112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575304031372</t>
+    <t xml:space="preserve">10.0084848403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96644687652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98746681213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2396945953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2992467880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3377828598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323654174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5164422988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4008378982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98046016693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575294494629</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995674133301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1626243591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3202667236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2817306518555</t>
+    <t xml:space="preserve">10.1626253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3202648162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2817316055298</t>
   </si>
   <si>
     <t xml:space="preserve">10.376317024231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4498825073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4744033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954233169556</t>
+    <t xml:space="preserve">10.4498815536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4744052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954242706299</t>
   </si>
   <si>
     <t xml:space="preserve">10.6705799102783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.768669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7861843109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7301330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7756748199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.754656791687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282232284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8212146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6355485916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845922470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7336368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5619812011719</t>
+    <t xml:space="preserve">10.7686681747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7861852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7301349639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7756757736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7546558380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282222747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8212156295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7161226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6355495452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7336359024048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024290084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5619831085205</t>
   </si>
   <si>
     <t xml:space="preserve">10.6425552368164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7231283187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6250400543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6670770645142</t>
+    <t xml:space="preserve">10.7231273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.625039100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6670780181885</t>
   </si>
   <si>
     <t xml:space="preserve">10.66357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7126188278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8247175216675</t>
+    <t xml:space="preserve">10.7126178741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8247184753418</t>
   </si>
   <si>
     <t xml:space="preserve">10.8737621307373</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">10.8807687759399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9963712692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0629329681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1294927597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1224870681763</t>
+    <t xml:space="preserve">10.9963731765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.062933921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1294918060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.122486114502</t>
   </si>
   <si>
     <t xml:space="preserve">11.199556350708</t>
@@ -1784,25 +1784,25 @@
     <t xml:space="preserve">11.069938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0454187393188</t>
+    <t xml:space="preserve">11.0454177856445</t>
   </si>
   <si>
     <t xml:space="preserve">11.0769462585449</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2135677337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4482793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.546365737915</t>
+    <t xml:space="preserve">11.2135667800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4482774734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5463666915894</t>
   </si>
   <si>
     <t xml:space="preserve">11.5323534011841</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5043277740479</t>
+    <t xml:space="preserve">11.5043296813965</t>
   </si>
   <si>
     <t xml:space="preserve">11.5428647994995</t>
@@ -1811,37 +1811,37 @@
     <t xml:space="preserve">11.4552850723267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4412717819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.479808807373</t>
+    <t xml:space="preserve">11.4412727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4798069000244</t>
   </si>
   <si>
     <t xml:space="preserve">11.5603799819946</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6829891204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6549654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7110147476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.704008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6514616012573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6970024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6794862747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7075119018555</t>
+    <t xml:space="preserve">11.6829881668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6549644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7110137939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7040071487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.651460647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6970014572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6794872283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7075109481812</t>
   </si>
   <si>
     <t xml:space="preserve">11.7810773849487</t>
@@ -1850,37 +1850,37 @@
     <t xml:space="preserve">11.8441352844238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9106941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0508213043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9422225952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9177007675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9527311325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0788431167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0473165512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208810806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1173791885376</t>
+    <t xml:space="preserve">11.9106931686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.050820350647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9422235488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9176988601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.952730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0788459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0473155975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208829879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1173782348633</t>
   </si>
   <si>
     <t xml:space="preserve">12.1278886795044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0192928314209</t>
+    <t xml:space="preserve">12.0192909240723</t>
   </si>
   <si>
     <t xml:space="preserve">11.9737501144409</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">11.95973777771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8091020584106</t>
+    <t xml:space="preserve">11.8091039657593</t>
   </si>
   <si>
     <t xml:space="preserve">11.8511409759521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9036865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017766952515</t>
+    <t xml:space="preserve">11.9036874771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017757415771</t>
   </si>
   <si>
     <t xml:space="preserve">11.9141969680786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0584545135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0806474685669</t>
+    <t xml:space="preserve">12.0584535598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0806484222412</t>
   </si>
   <si>
     <t xml:space="preserve">12.0547552108765</t>
@@ -1916,31 +1916,31 @@
     <t xml:space="preserve">11.8032293319702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0399608612061</t>
+    <t xml:space="preserve">12.0399599075317</t>
   </si>
   <si>
     <t xml:space="preserve">11.9031000137329</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8180265426636</t>
+    <t xml:space="preserve">11.8180246353149</t>
   </si>
   <si>
     <t xml:space="preserve">11.6922626495361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7588415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6256809234619</t>
+    <t xml:space="preserve">11.758843421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6256818771362</t>
   </si>
   <si>
     <t xml:space="preserve">11.5997896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7551431655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6589727401733</t>
+    <t xml:space="preserve">11.7551441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6589708328247</t>
   </si>
   <si>
     <t xml:space="preserve">11.6996583938599</t>
@@ -1949,16 +1949,16 @@
     <t xml:space="preserve">11.7292509078979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8217239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9437894821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.917896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9696798324585</t>
+    <t xml:space="preserve">11.821722984314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9437875747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9178953170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9696807861328</t>
   </si>
   <si>
     <t xml:space="preserve">11.93639087677</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">12.2470989227295</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3173789978027</t>
+    <t xml:space="preserve">12.3173780441284</t>
   </si>
   <si>
     <t xml:space="preserve">12.3395719528198</t>
@@ -1979,13 +1979,13 @@
     <t xml:space="preserve">12.3469696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2914867401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2507972717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.213809967041</t>
+    <t xml:space="preserve">12.291485786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2507963180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2138090133667</t>
   </si>
   <si>
     <t xml:space="preserve">12.3025817871094</t>
@@ -1994,49 +1994,49 @@
     <t xml:space="preserve">12.4024534225464</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6243886947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6502819061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5873985290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6613759994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6983671188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7316560745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7279567718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.676173210144</t>
+    <t xml:space="preserve">12.6243896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6502799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5873975753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.661376953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6983661651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7316541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7279577255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6761741638184</t>
   </si>
   <si>
     <t xml:space="preserve">12.7020645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6354846954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5023241043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5393133163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5245180130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5726041793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.48752784729</t>
+    <t xml:space="preserve">12.6354827880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5023231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5393142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5245170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5726022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4875268936157</t>
   </si>
   <si>
     <t xml:space="preserve">12.5097217559814</t>
@@ -2045,52 +2045,52 @@
     <t xml:space="preserve">12.3617649078369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4579362869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4690322875977</t>
+    <t xml:space="preserve">12.4579372406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4690351486206</t>
   </si>
   <si>
     <t xml:space="preserve">12.1620244979858</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0843458175659</t>
+    <t xml:space="preserve">12.0843467712402</t>
   </si>
   <si>
     <t xml:space="preserve">12.0658521652222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1583251953125</t>
+    <t xml:space="preserve">12.1583242416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.8291215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8661108016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9326906204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7773380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9659814834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9992713928223</t>
+    <t xml:space="preserve">11.8661117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.932689666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7773370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9659805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9992723464966</t>
   </si>
   <si>
     <t xml:space="preserve">12.1139373779297</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0732498168945</t>
+    <t xml:space="preserve">12.0732488632202</t>
   </si>
   <si>
     <t xml:space="preserve">11.9585838317871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9733781814575</t>
+    <t xml:space="preserve">11.9733800888062</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546258926392</t>
@@ -2099,34 +2099,34 @@
     <t xml:space="preserve">12.0325613021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1472291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1842174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2101097106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2397003173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4542369842529</t>
+    <t xml:space="preserve">12.1472282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1842164993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.210108757019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2397012710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4542379379272</t>
   </si>
   <si>
     <t xml:space="preserve">12.6095933914185</t>
   </si>
   <si>
-    <t xml:space="preserve">12.653980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7242584228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7057638168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8278274536133</t>
+    <t xml:space="preserve">12.6539812088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7242593765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7057647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8278284072876</t>
   </si>
   <si>
     <t xml:space="preserve">12.946192741394</t>
@@ -2138,106 +2138,106 @@
     <t xml:space="preserve">12.8537197113037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8167324066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2310104370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2014169692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2495031356812</t>
+    <t xml:space="preserve">12.8167314529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2310094833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2014188766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2495050430298</t>
   </si>
   <si>
     <t xml:space="preserve">13.2162132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2864933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2421054840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2125158309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1533336639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.123740196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9055051803589</t>
+    <t xml:space="preserve">13.2864923477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2421064376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.212516784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1533327102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1237411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9055032730103</t>
   </si>
   <si>
     <t xml:space="preserve">12.9757852554321</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0571584701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1459350585938</t>
+    <t xml:space="preserve">13.0571603775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1459341049194</t>
   </si>
   <si>
     <t xml:space="preserve">13.1274404525757</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1903219223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2199144363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3641710281372</t>
+    <t xml:space="preserve">13.1903209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.219913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3641700744629</t>
   </si>
   <si>
     <t xml:space="preserve">13.2901916503906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.393762588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3974618911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.390064239502</t>
+    <t xml:space="preserve">13.3937606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3974628448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3900632858276</t>
   </si>
   <si>
     <t xml:space="preserve">13.4603414535522</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5935029983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.578706741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6045980453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6119976043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6082973480225</t>
+    <t xml:space="preserve">13.5935039520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6045989990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6119966506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6082983016968</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">13.489933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4455451965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6859769821167</t>
+    <t xml:space="preserve">13.4899339675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4455461502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6859760284424</t>
   </si>
   <si>
     <t xml:space="preserve">13.752555847168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7562551498413</t>
+    <t xml:space="preserve">13.7562522888184</t>
   </si>
   <si>
     <t xml:space="preserve">14.226016998291</t>
@@ -2246,79 +2246,79 @@
     <t xml:space="preserve">14.1890287399292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1964244842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4257574081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.303692817688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1816291809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928554534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8339338302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7895469665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006410598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7155666351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8265342712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8302345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7081708908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5306215286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5158262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4714374542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.478835105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5084276199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824060440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5676107406616</t>
+    <t xml:space="preserve">14.1964273452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4257593154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3036947250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1816301345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928564071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7895441055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006429672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7155675888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8265361785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8302335739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7081699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5306205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5158271789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.493634223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4714365005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4788370132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5084285736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824069976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5676116943359</t>
   </si>
   <si>
     <t xml:space="preserve">13.6748781204224</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6933727264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7414588928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822786331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0373735427856</t>
+    <t xml:space="preserve">13.6933736801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7414608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822776794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0373725891113</t>
   </si>
   <si>
     <t xml:space="preserve">13.8191356658936</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">13.7599544525146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6230945587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5232229232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.663782119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6341896057129</t>
+    <t xml:space="preserve">13.6230955123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5232248306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6637811660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6341915130615</t>
   </si>
   <si>
     <t xml:space="preserve">13.4640407562256</t>
@@ -2348,10 +2348,10 @@
     <t xml:space="preserve">13.5417184829712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5047283172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4159555435181</t>
+    <t xml:space="preserve">13.5047302246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4159545898438</t>
   </si>
   <si>
     <t xml:space="preserve">13.2679977416992</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">13.4196529388428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.108943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.497332572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2347068786621</t>
+    <t xml:space="preserve">13.1089458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4973306655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2347087860107</t>
   </si>
   <si>
     <t xml:space="preserve">13.0164728164673</t>
@@ -2375,46 +2375,46 @@
     <t xml:space="preserve">13.0830516815186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2753963470459</t>
+    <t xml:space="preserve">13.2753953933716</t>
   </si>
   <si>
     <t xml:space="preserve">13.5565147399902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6415901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8487272262573</t>
+    <t xml:space="preserve">13.6415891647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.848726272583</t>
   </si>
   <si>
     <t xml:space="preserve">13.8894166946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931159973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670925140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8981084823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8241291046143</t>
+    <t xml:space="preserve">13.8931150436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670915603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8981065750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8241281509399</t>
   </si>
   <si>
     <t xml:space="preserve">12.7723445892334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.028862953186</t>
+    <t xml:space="preserve">12.0288639068604</t>
   </si>
   <si>
     <t xml:space="preserve">11.8883037567139</t>
   </si>
   <si>
-    <t xml:space="preserve">11.640477180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.274284362793</t>
+    <t xml:space="preserve">11.6404762268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2742834091187</t>
   </si>
   <si>
     <t xml:space="preserve">10.179407119751</t>
@@ -2429,43 +2429,43 @@
     <t xml:space="preserve">8.92917442321777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35584354400635</t>
+    <t xml:space="preserve">8.35584259033203</t>
   </si>
   <si>
     <t xml:space="preserve">8.02663993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68264102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94156408309937</t>
+    <t xml:space="preserve">7.68264007568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94156312942505</t>
   </si>
   <si>
     <t xml:space="preserve">8.05623149871826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05992984771729</t>
+    <t xml:space="preserve">8.0599308013916</t>
   </si>
   <si>
     <t xml:space="preserve">8.95136833190918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21029186248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.365647315979</t>
+    <t xml:space="preserve">9.21029090881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36564636230469</t>
   </si>
   <si>
     <t xml:space="preserve">9.15480804443359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14741134643555</t>
+    <t xml:space="preserve">9.14741039276123</t>
   </si>
   <si>
     <t xml:space="preserve">9.18070030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94766998291016</t>
+    <t xml:space="preserve">8.94766902923584</t>
   </si>
   <si>
     <t xml:space="preserve">9.1215181350708</t>
@@ -2474,19 +2474,19 @@
     <t xml:space="preserve">9.01424884796143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28057098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4581184387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52099990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71704292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32126045227051</t>
+    <t xml:space="preserve">9.28057193756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45811939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5210018157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71704196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32125949859619</t>
   </si>
   <si>
     <t xml:space="preserve">9.1659049987793</t>
@@ -2495,22 +2495,22 @@
     <t xml:space="preserve">9.2694730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99945449829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22138977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15110874176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42852783203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59497928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83910751342773</t>
+    <t xml:space="preserve">8.9994535446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22138786315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15110969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42852687835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59497833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83910655975342</t>
   </si>
   <si>
     <t xml:space="preserve">9.62826919555664</t>
@@ -2519,40 +2519,40 @@
     <t xml:space="preserve">9.39523696899414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5690860748291</t>
+    <t xml:space="preserve">9.56908702850342</t>
   </si>
   <si>
     <t xml:space="preserve">9.42113018035889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48401165008545</t>
+    <t xml:space="preserve">9.48401069641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.59867858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51360130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47291469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29166889190674</t>
+    <t xml:space="preserve">9.51360321044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47291564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29166793823242</t>
   </si>
   <si>
     <t xml:space="preserve">9.177001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56517791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39567947387695</t>
+    <t xml:space="preserve">9.56517887115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39567852020264</t>
   </si>
   <si>
     <t xml:space="preserve">9.44575881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1645450592041</t>
+    <t xml:space="preserve">9.16454410552979</t>
   </si>
   <si>
     <t xml:space="preserve">9.38027000427246</t>
@@ -2567,25 +2567,25 @@
     <t xml:space="preserve">9.80016803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84254264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61911106109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93114376068115</t>
+    <t xml:space="preserve">9.84254169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61911010742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93114471435547</t>
   </si>
   <si>
     <t xml:space="preserve">10.2316207885742</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7439737319946</t>
+    <t xml:space="preserve">10.7439727783203</t>
   </si>
   <si>
     <t xml:space="preserve">10.7901992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.082971572876</t>
+    <t xml:space="preserve">11.0829725265503</t>
   </si>
   <si>
     <t xml:space="preserve">11.109938621521</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">10.990517616272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7632341384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3471899032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3433361053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3279266357422</t>
+    <t xml:space="preserve">10.7632350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.347188949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.343337059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3279275894165</t>
   </si>
   <si>
     <t xml:space="preserve">10.559063911438</t>
@@ -2612,40 +2612,40 @@
     <t xml:space="preserve">10.4820175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3510417938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4897232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5012807846069</t>
+    <t xml:space="preserve">10.3510408401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4897222518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5012798309326</t>
   </si>
   <si>
     <t xml:space="preserve">10.220064163208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.247031211853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.339485168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3780078887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3741550445557</t>
+    <t xml:space="preserve">10.2470302581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3394842147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3780069351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3741540908813</t>
   </si>
   <si>
     <t xml:space="preserve">10.6592226028442</t>
   </si>
   <si>
-    <t xml:space="preserve">10.589882850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6977453231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975866317749</t>
+    <t xml:space="preserve">10.5898818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6977462768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975856781006</t>
   </si>
   <si>
     <t xml:space="preserve">10.3202238082886</t>
@@ -2657,19 +2657,19 @@
     <t xml:space="preserve">10.5089845657349</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562915802002</t>
+    <t xml:space="preserve">10.5629167556763</t>
   </si>
   <si>
     <t xml:space="preserve">10.6438140869141</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6476650238037</t>
+    <t xml:space="preserve">10.647665977478</t>
   </si>
   <si>
     <t xml:space="preserve">10.5475063323975</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6168479919434</t>
+    <t xml:space="preserve">10.616847038269</t>
   </si>
   <si>
     <t xml:space="preserve">10.770938873291</t>
@@ -2678,31 +2678,31 @@
     <t xml:space="preserve">10.7170066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4704608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4126777648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4011220932007</t>
+    <t xml:space="preserve">10.4704618453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4126787185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4011211395264</t>
   </si>
   <si>
     <t xml:space="preserve">9.86950778961182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75394058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81172466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9658145904541</t>
+    <t xml:space="preserve">9.75393962860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81172370910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96581554412842</t>
   </si>
   <si>
     <t xml:space="preserve">10.0428590774536</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78861045837402</t>
+    <t xml:space="preserve">9.78860950469971</t>
   </si>
   <si>
     <t xml:space="preserve">10.2046556472778</t>
@@ -2711,16 +2711,16 @@
     <t xml:space="preserve">10.1468706130981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1006441116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94655418395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.12375831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.039008140564</t>
+    <t xml:space="preserve">10.100643157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94655323028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1237573623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0390071868896</t>
   </si>
   <si>
     <t xml:space="preserve">9.96966648101807</t>
@@ -2732,19 +2732,19 @@
     <t xml:space="preserve">10.2393255233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2008018493652</t>
+    <t xml:space="preserve">10.2008028030396</t>
   </si>
   <si>
     <t xml:space="preserve">10.0197467803955</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0351552963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0313034057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98507690429688</t>
+    <t xml:space="preserve">10.0351543426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.031304359436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98507595062256</t>
   </si>
   <si>
     <t xml:space="preserve">9.87721252441406</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">9.88106441497803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86565494537354</t>
+    <t xml:space="preserve">9.86565589904785</t>
   </si>
   <si>
     <t xml:space="preserve">9.7654972076416</t>
@@ -2774,13 +2774,13 @@
     <t xml:space="preserve">9.12602138519287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07594013214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03741836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96422481536865</t>
+    <t xml:space="preserve">9.07594203948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03741645812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96422672271729</t>
   </si>
   <si>
     <t xml:space="preserve">8.89873695373535</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">9.26470184326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14142894744873</t>
+    <t xml:space="preserve">9.14142990112305</t>
   </si>
   <si>
     <t xml:space="preserve">9.29937267303467</t>
@@ -2807,28 +2807,28 @@
     <t xml:space="preserve">9.50354194641113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6961555480957</t>
+    <t xml:space="preserve">9.69615650177002</t>
   </si>
   <si>
     <t xml:space="preserve">9.63837146759033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61525917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51510047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5112476348877</t>
+    <t xml:space="preserve">9.61525821685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51509952545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51124668121338</t>
   </si>
   <si>
     <t xml:space="preserve">9.17995166778564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35330390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4033842086792</t>
+    <t xml:space="preserve">9.35330486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40338325500488</t>
   </si>
   <si>
     <t xml:space="preserve">9.42649745941162</t>
@@ -2840,25 +2840,25 @@
     <t xml:space="preserve">9.20306491851807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14913368225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75235080718994</t>
+    <t xml:space="preserve">9.14913272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75234985351562</t>
   </si>
   <si>
     <t xml:space="preserve">8.77931690216064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86791801452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0952033996582</t>
+    <t xml:space="preserve">8.86791896820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09520244598389</t>
   </si>
   <si>
     <t xml:space="preserve">9.27240657806396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39953136444092</t>
+    <t xml:space="preserve">9.3995304107666</t>
   </si>
   <si>
     <t xml:space="preserve">9.5382137298584</t>
@@ -2867,19 +2867,19 @@
     <t xml:space="preserve">10.1391668319702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3857097625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3703031539917</t>
+    <t xml:space="preserve">10.3857116699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3703022003174</t>
   </si>
   <si>
     <t xml:space="preserve">10.5051317214966</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7593812942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8865060806274</t>
+    <t xml:space="preserve">10.7593822479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8865070343018</t>
   </si>
   <si>
     <t xml:space="preserve">10.9635515213013</t>
@@ -2888,13 +2888,13 @@
     <t xml:space="preserve">10.8402786254883</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9442911148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9558477401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0791206359863</t>
+    <t xml:space="preserve">10.9442901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.955846786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.079119682312</t>
   </si>
   <si>
     <t xml:space="preserve">11.1677217483521</t>
@@ -2903,19 +2903,19 @@
     <t xml:space="preserve">11.1484613418579</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328922271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.113790512085</t>
+    <t xml:space="preserve">11.0328931808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1137914657593</t>
   </si>
   <si>
     <t xml:space="preserve">11.2255067825317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1715745925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0637102127075</t>
+    <t xml:space="preserve">11.171573638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0637092590332</t>
   </si>
   <si>
     <t xml:space="preserve">11.0367450714111</t>
@@ -2930,25 +2930,25 @@
     <t xml:space="preserve">10.986665725708</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0020742416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136318206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7015981674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.863392829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0675630569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0290393829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208585739136</t>
+    <t xml:space="preserve">11.0020751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136308670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7015972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8633937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0675621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0290403366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208595275879</t>
   </si>
   <si>
     <t xml:space="preserve">11.1561651229858</t>
@@ -2963,16 +2963,16 @@
     <t xml:space="preserve">11.1407566070557</t>
   </si>
   <si>
-    <t xml:space="preserve">11.17542552948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4104156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2909955978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1792793273926</t>
+    <t xml:space="preserve">11.1754264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4104146957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.290994644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1792783737183</t>
   </si>
   <si>
     <t xml:space="preserve">11.0983810424805</t>
@@ -2987,25 +2987,25 @@
     <t xml:space="preserve">11.1523132324219</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5182781219482</t>
+    <t xml:space="preserve">11.5182790756226</t>
   </si>
   <si>
     <t xml:space="preserve">11.8803911209106</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9689931869507</t>
+    <t xml:space="preserve">11.968994140625</t>
   </si>
   <si>
     <t xml:space="preserve">12.1115283966064</t>
   </si>
   <si>
-    <t xml:space="preserve">12.188572883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1423454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0961179733276</t>
+    <t xml:space="preserve">12.1885719299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1423463821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.096118927002</t>
   </si>
   <si>
     <t xml:space="preserve">12.0691528320312</t>
@@ -3014,16 +3014,16 @@
     <t xml:space="preserve">12.1924247741699</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1346416473389</t>
+    <t xml:space="preserve">12.1346406936646</t>
   </si>
   <si>
     <t xml:space="preserve">12.0614471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8880968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0036649703979</t>
+    <t xml:space="preserve">11.8880958557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0036640167236</t>
   </si>
   <si>
     <t xml:space="preserve">11.972846031189</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">11.9458799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921073913574</t>
+    <t xml:space="preserve">11.9921064376831</t>
   </si>
   <si>
     <t xml:space="preserve">12.2001304626465</t>
@@ -3047,13 +3047,13 @@
     <t xml:space="preserve">12.2309484481812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3503694534302</t>
+    <t xml:space="preserve">12.3503684997559</t>
   </si>
   <si>
     <t xml:space="preserve">12.3850393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3311061859131</t>
+    <t xml:space="preserve">12.3311071395874</t>
   </si>
   <si>
     <t xml:space="preserve">12.7124814987183</t>
@@ -3065,49 +3065,49 @@
     <t xml:space="preserve">12.8049364089966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.916651725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0245151519775</t>
+    <t xml:space="preserve">12.9166526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0245161056519</t>
   </si>
   <si>
     <t xml:space="preserve">12.9705820083618</t>
   </si>
   <si>
-    <t xml:space="preserve">13.012957572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9050951004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9898452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.889684677124</t>
+    <t xml:space="preserve">13.0129566192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9050941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9898433685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8896856307983</t>
   </si>
   <si>
     <t xml:space="preserve">12.9474697113037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9436149597168</t>
+    <t xml:space="preserve">12.9436168670654</t>
   </si>
   <si>
     <t xml:space="preserve">12.9628782272339</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0399236679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1439342498779</t>
+    <t xml:space="preserve">13.0399227142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1439352035522</t>
   </si>
   <si>
     <t xml:space="preserve">13.2055702209473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1208209991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2017192840576</t>
+    <t xml:space="preserve">13.1208219528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2017202377319</t>
   </si>
   <si>
     <t xml:space="preserve">13.228684425354</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">13.1516389846802</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1631946563721</t>
+    <t xml:space="preserve">13.1631956100464</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169681549072</t>
@@ -3131,16 +3131,16 @@
     <t xml:space="preserve">13.1901626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2710599899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9782876968384</t>
+    <t xml:space="preserve">13.2710590362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9782867431641</t>
   </si>
   <si>
     <t xml:space="preserve">13.0014019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9282093048096</t>
+    <t xml:space="preserve">12.9282083511353</t>
   </si>
   <si>
     <t xml:space="preserve">12.8550138473511</t>
@@ -3149,37 +3149,37 @@
     <t xml:space="preserve">13.0977067947388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9744348526001</t>
+    <t xml:space="preserve">12.9744358062744</t>
   </si>
   <si>
     <t xml:space="preserve">13.13623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2672080993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.382776260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5291604995728</t>
+    <t xml:space="preserve">13.2672071456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3827753067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5291633605957</t>
   </si>
   <si>
     <t xml:space="preserve">13.4135932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4675254821777</t>
+    <t xml:space="preserve">13.4675235748291</t>
   </si>
   <si>
     <t xml:space="preserve">13.5137529373169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5907964706421</t>
+    <t xml:space="preserve">13.5907974243164</t>
   </si>
   <si>
     <t xml:space="preserve">13.594651222229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6216154098511</t>
+    <t xml:space="preserve">13.6216163635254</t>
   </si>
   <si>
     <t xml:space="preserve">13.4328556060791</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">13.4405584335327</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6062059402466</t>
+    <t xml:space="preserve">13.6062068939209</t>
   </si>
   <si>
     <t xml:space="preserve">13.8105039596558</t>
@@ -3221,10 +3221,10 @@
     <t xml:space="preserve">14.0965213775635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0760908126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0393180847168</t>
+    <t xml:space="preserve">14.0760898590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0393171310425</t>
   </si>
   <si>
     <t xml:space="preserve">13.9943723678589</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">13.8391056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7982454299927</t>
+    <t xml:space="preserve">13.798246383667</t>
   </si>
   <si>
     <t xml:space="preserve">13.6102933883667</t>
@@ -3275,22 +3275,22 @@
     <t xml:space="preserve">14.0107154846191</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7614727020264</t>
+    <t xml:space="preserve">13.7614736557007</t>
   </si>
   <si>
     <t xml:space="preserve">13.5408306121826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8963079452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9003953933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8309335708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7287836074829</t>
+    <t xml:space="preserve">13.8963069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9003944396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8309326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7287845611572</t>
   </si>
   <si>
     <t xml:space="preserve">13.675669670105</t>
@@ -3299,22 +3299,22 @@
     <t xml:space="preserve">13.2589015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3937377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6838407516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7206134796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6920099258423</t>
+    <t xml:space="preserve">13.3937368392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6838397979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7206144332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6920108795166</t>
   </si>
   <si>
     <t xml:space="preserve">13.769645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6266355514526</t>
+    <t xml:space="preserve">13.626636505127</t>
   </si>
   <si>
     <t xml:space="preserve">13.5449171066284</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">13.8636226654053</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9167385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0515737533569</t>
+    <t xml:space="preserve">13.9167394638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0515747070312</t>
   </si>
   <si>
     <t xml:space="preserve">14.1496381759644</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">14.1169509887695</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1210355758667</t>
+    <t xml:space="preserve">14.121036529541</t>
   </si>
   <si>
     <t xml:space="preserve">13.9494256973267</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">13.9575986862183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.986198425293</t>
+    <t xml:space="preserve">13.9861993789673</t>
   </si>
   <si>
     <t xml:space="preserve">14.112865447998</t>
@@ -3371,22 +3371,22 @@
     <t xml:space="preserve">14.1945829391479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1537246704102</t>
+    <t xml:space="preserve">14.1537237167358</t>
   </si>
   <si>
     <t xml:space="preserve">14.3294200897217</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4315671920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.501030921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2436141967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.423394203186</t>
+    <t xml:space="preserve">14.431568145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5010299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2436151504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4233951568604</t>
   </si>
   <si>
     <t xml:space="preserve">14.3825368881226</t>
@@ -3395,25 +3395,25 @@
     <t xml:space="preserve">14.4765138626099</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6031799316406</t>
+    <t xml:space="preserve">14.6031789779663</t>
   </si>
   <si>
     <t xml:space="preserve">14.4519958496094</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2599601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6930685043335</t>
+    <t xml:space="preserve">14.2599592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6930675506592</t>
   </si>
   <si>
     <t xml:space="preserve">14.8115615844727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9790868759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.220157623291</t>
+    <t xml:space="preserve">14.9790859222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2201557159424</t>
   </si>
   <si>
     <t xml:space="preserve">14.9137105941772</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">15.0444612503052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158596038818</t>
+    <t xml:space="preserve">15.0158576965332</t>
   </si>
   <si>
     <t xml:space="preserve">15.3182191848755</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">15.1874685287476</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3304758071899</t>
+    <t xml:space="preserve">15.3304777145386</t>
   </si>
   <si>
     <t xml:space="preserve">15.3590784072876</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">15.4407968521118</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5184278488159</t>
+    <t xml:space="preserve">15.5184297561646</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">15.3018751144409</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3549938201904</t>
+    <t xml:space="preserve">15.3549919128418</t>
   </si>
   <si>
     <t xml:space="preserve">15.417820930481</t>
@@ -3467,10 +3467,10 @@
     <t xml:space="preserve">15.6146783828735</t>
   </si>
   <si>
-    <t xml:space="preserve">15.560230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5937376022339</t>
+    <t xml:space="preserve">15.5602283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5937356948853</t>
   </si>
   <si>
     <t xml:space="preserve">15.6565647125244</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">15.7654638290405</t>
   </si>
   <si>
-    <t xml:space="preserve">15.711012840271</t>
+    <t xml:space="preserve">15.7110147476196</t>
   </si>
   <si>
     <t xml:space="preserve">15.7822189331055</t>
@@ -3488,10 +3488,10 @@
     <t xml:space="preserve">15.7905950546265</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8827409744263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8994941711426</t>
+    <t xml:space="preserve">15.8827419281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8994960784912</t>
   </si>
   <si>
     <t xml:space="preserve">15.9790782928467</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">16.004207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953075408936</t>
+    <t xml:space="preserve">15.8953084945679</t>
   </si>
   <si>
     <t xml:space="preserve">15.9036846160889</t>
@@ -3518,7 +3518,7 @@
     <t xml:space="preserve">16.0293388366699</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1172962188721</t>
+    <t xml:space="preserve">16.1172981262207</t>
   </si>
   <si>
     <t xml:space="preserve">15.7193899154663</t>
@@ -3527,10 +3527,10 @@
     <t xml:space="preserve">15.5811710357666</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3172969818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.413631439209</t>
+    <t xml:space="preserve">15.3172960281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4136295318604</t>
   </si>
   <si>
     <t xml:space="preserve">15.388500213623</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">14.8523750305176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1874542236328</t>
+    <t xml:space="preserve">15.1874523162842</t>
   </si>
   <si>
     <t xml:space="preserve">15.112060546875</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">15.2377147674561</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5895471572876</t>
+    <t xml:space="preserve">15.5895490646362</t>
   </si>
   <si>
     <t xml:space="preserve">15.6649408340454</t>
@@ -3584,7 +3584,7 @@
     <t xml:space="preserve">15.6104907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5392866134644</t>
+    <t xml:space="preserve">15.5392847061157</t>
   </si>
   <si>
     <t xml:space="preserve">15.7068252563477</t>
@@ -3596,13 +3596,13 @@
     <t xml:space="preserve">15.6063003540039</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9204368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8282909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4680833816528</t>
+    <t xml:space="preserve">15.9204387664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8282928466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4680814743042</t>
   </si>
   <si>
     <t xml:space="preserve">15.5560398101807</t>
@@ -3611,16 +3611,16 @@
     <t xml:space="preserve">15.4638919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5727949142456</t>
+    <t xml:space="preserve">15.572793006897</t>
   </si>
   <si>
     <t xml:space="preserve">15.7026386260986</t>
   </si>
   <si>
-    <t xml:space="preserve">15.685884475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4471406936646</t>
+    <t xml:space="preserve">15.6858835220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4471387863159</t>
   </si>
   <si>
     <t xml:space="preserve">15.5644178390503</t>
@@ -3629,13 +3629,13 @@
     <t xml:space="preserve">15.7947835922241</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6816921234131</t>
+    <t xml:space="preserve">15.6816940307617</t>
   </si>
   <si>
     <t xml:space="preserve">15.8115377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9905948638916</t>
+    <t xml:space="preserve">14.9905958175659</t>
   </si>
   <si>
     <t xml:space="preserve">15.120436668396</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">15.5979261398315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3759355545044</t>
+    <t xml:space="preserve">15.3759336471558</t>
   </si>
   <si>
     <t xml:space="preserve">15.8785533905029</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">14.6303853988647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9864053726196</t>
+    <t xml:space="preserve">14.9864063262939</t>
   </si>
   <si>
     <t xml:space="preserve">14.5214834213257</t>
@@ -3689,25 +3689,25 @@
     <t xml:space="preserve">14.366509437561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5958271026611</t>
+    <t xml:space="preserve">13.5958280563354</t>
   </si>
   <si>
     <t xml:space="preserve">13.2900686264038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2073459625244</t>
+    <t xml:space="preserve">13.5497550964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2073469161987</t>
   </si>
   <si>
     <t xml:space="preserve">14.073314666748</t>
   </si>
   <si>
-    <t xml:space="preserve">14.383264541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7811698913574</t>
+    <t xml:space="preserve">14.3832635879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7811708450317</t>
   </si>
   <si>
     <t xml:space="preserve">15.0031604766846</t>
@@ -3734,10 +3734,10 @@
     <t xml:space="preserve">16.5277690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.854471206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3989753723145</t>
+    <t xml:space="preserve">16.8544731140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3989734649658</t>
   </si>
   <si>
     <t xml:space="preserve">17.6837921142578</t>
@@ -3752,22 +3752,22 @@
     <t xml:space="preserve">16.7371921539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2178230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063034057617</t>
+    <t xml:space="preserve">16.2178211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4063014984131</t>
   </si>
   <si>
     <t xml:space="preserve">16.2848377227783</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1466159820557</t>
+    <t xml:space="preserve">16.1466178894043</t>
   </si>
   <si>
     <t xml:space="preserve">16.0712242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1382389068604</t>
+    <t xml:space="preserve">16.138240814209</t>
   </si>
   <si>
     <t xml:space="preserve">15.6398096084595</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">15.1665096282959</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0785531997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1623229980469</t>
+    <t xml:space="preserve">15.0785512924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1623210906982</t>
   </si>
   <si>
     <t xml:space="preserve">15.0366697311401</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3340511322021</t>
+    <t xml:space="preserve">15.3340492248535</t>
   </si>
   <si>
     <t xml:space="preserve">15.2460927963257</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">14.6094427108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8356189727783</t>
+    <t xml:space="preserve">14.8356199264526</t>
   </si>
   <si>
     <t xml:space="preserve">14.8775062561035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8021125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9235782623291</t>
+    <t xml:space="preserve">14.80211353302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9235792160034</t>
   </si>
   <si>
     <t xml:space="preserve">15.0743646621704</t>
@@ -3824,25 +3824,25 @@
     <t xml:space="preserve">15.5241460800171</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860921859741</t>
+    <t xml:space="preserve">15.3860931396484</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196905136108</t>
+    <t xml:space="preserve">15.5196914672852</t>
   </si>
   <si>
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1767902374268</t>
+    <t xml:space="preserve">15.1767892837524</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0610046386719</t>
+    <t xml:space="preserve">15.0610036849976</t>
   </si>
   <si>
     <t xml:space="preserve">14.9942035675049</t>
@@ -3851,7 +3851,7 @@
     <t xml:space="preserve">14.8873262405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0832691192627</t>
+    <t xml:space="preserve">15.083270072937</t>
   </si>
   <si>
     <t xml:space="preserve">14.9852991104126</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">14.6824750900269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9654970169067</t>
+    <t xml:space="preserve">13.9654960632324</t>
   </si>
   <si>
     <t xml:space="preserve">13.8007249832153</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">13.907603263855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1614408493042</t>
+    <t xml:space="preserve">14.1614398956299</t>
   </si>
   <si>
     <t xml:space="preserve">13.96994972229</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">14.2683200836182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.836350440979</t>
+    <t xml:space="preserve">13.8363513946533</t>
   </si>
   <si>
     <t xml:space="preserve">14.0011224746704</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">12.8833484649658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9724140167236</t>
+    <t xml:space="preserve">12.9724130630493</t>
   </si>
   <si>
     <t xml:space="preserve">12.9546003341675</t>
@@ -3950,37 +3950,37 @@
     <t xml:space="preserve">12.7052173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6829500198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7319364547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9590549468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7007637023926</t>
+    <t xml:space="preserve">12.6829509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7319374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9590539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7007646560669</t>
   </si>
   <si>
     <t xml:space="preserve">12.6562309265137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8610820770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9902276992798</t>
+    <t xml:space="preserve">12.8610811233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9902267456055</t>
   </si>
   <si>
     <t xml:space="preserve">13.2574243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.003586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0703859329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1817178726196</t>
+    <t xml:space="preserve">13.0035877227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0703868865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1817188262939</t>
   </si>
   <si>
     <t xml:space="preserve">13.3954753875732</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">13.2440643310547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266490936279</t>
+    <t xml:space="preserve">13.4266481399536</t>
   </si>
   <si>
     <t xml:space="preserve">13.1149196624756</t>
@@ -4022,13 +4022,13 @@
     <t xml:space="preserve">13.0436668395996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1995306015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0392141342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9234285354614</t>
+    <t xml:space="preserve">13.1995315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.039213180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9234275817871</t>
   </si>
   <si>
     <t xml:space="preserve">13.3821153640747</t>
@@ -4043,13 +4043,13 @@
     <t xml:space="preserve">13.07483959198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3153162002563</t>
+    <t xml:space="preserve">13.3153171539307</t>
   </si>
   <si>
     <t xml:space="preserve">13.733925819397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.524621963501</t>
+    <t xml:space="preserve">13.5246210098267</t>
   </si>
   <si>
     <t xml:space="preserve">13.6493129730225</t>
@@ -4058,10 +4058,10 @@
     <t xml:space="preserve">13.6003274917603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.248517036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.284143447876</t>
+    <t xml:space="preserve">13.2485179901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2841444015503</t>
   </si>
   <si>
     <t xml:space="preserve">12.8521757125854</t>
@@ -4085,10 +4085,10 @@
     <t xml:space="preserve">12.9145212173462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6517772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3623151779175</t>
+    <t xml:space="preserve">12.6517782211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3623142242432</t>
   </si>
   <si>
     <t xml:space="preserve">12.2420749664307</t>
@@ -4109,19 +4109,19 @@
     <t xml:space="preserve">12.6784973144531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8254556655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8922557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525722503662</t>
+    <t xml:space="preserve">12.8254547119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8922548294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525732040405</t>
   </si>
   <si>
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173442840576</t>
+    <t xml:space="preserve">13.2173452377319</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4160,13 +4160,13 @@
     <t xml:space="preserve">15.0209245681763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346820831299</t>
+    <t xml:space="preserve">15.2346811294556</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367111206055</t>
+    <t xml:space="preserve">15.1367101669312</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.123348236084</t>
+    <t xml:space="preserve">15.1233501434326</t>
   </si>
   <si>
     <t xml:space="preserve">15.0788173675537</t>
@@ -4184,28 +4184,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877237319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524938583374</t>
+    <t xml:space="preserve">15.0877246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524948120117</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326549530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.328200340271</t>
+    <t xml:space="preserve">15.3326539993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3281993865967</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217195510864</t>
+    <t xml:space="preserve">15.3192949295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217205047607</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006843566895</t>
+    <t xml:space="preserve">14.9006853103638</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4250,7 +4250,7 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075645446777</t>
+    <t xml:space="preserve">15.0075654983521</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
@@ -4265,16 +4265,16 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.49742603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840650558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953989028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.608757019043</t>
+    <t xml:space="preserve">15.4974250793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840660095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6087579727173</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561147689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115800857544</t>
+    <t xml:space="preserve">15.9561157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115810394287</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427528381348</t>
+    <t xml:space="preserve">15.9427547454834</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4313,31 +4313,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297931671143</t>
+    <t xml:space="preserve">16.1297912597656</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698722839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2277641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500324249268</t>
+    <t xml:space="preserve">16.1698703765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.22776222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500305175781</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544841766357</t>
+    <t xml:space="preserve">16.2544822692871</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034706115723</t>
+    <t xml:space="preserve">16.3034687042236</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476058959961</t>
+    <t xml:space="preserve">16.1476039886475</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4406,7 +4406,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026737213135</t>
+    <t xml:space="preserve">15.9026746749878</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4421,13 +4421,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.290111541748</t>
+    <t xml:space="preserve">16.2901096343994</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216808319092</t>
+    <t xml:space="preserve">16.5216789245605</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4442,16 +4442,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289566040039</t>
+    <t xml:space="preserve">16.8289585113525</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070896148682</t>
+    <t xml:space="preserve">17.0026359558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070877075195</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4463,7 +4463,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9269275665283</t>
+    <t xml:space="preserve">16.926929473877</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4475,22 +4475,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4816017150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002094268799</t>
+    <t xml:space="preserve">16.4815998077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002113342285</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706653594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022365570068</t>
+    <t xml:space="preserve">16.5706672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022384643555</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -5190,6 +5190,9 @@
   </si>
   <si>
     <t xml:space="preserve">22.7999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0599994659424</t>
   </si>
 </sst>
 </file>
@@ -61483,7 +61486,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6494560185</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>3424376</v>
@@ -61504,6 +61507,32 @@
         <v>1725</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6495949074</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>2996169</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>23.0599994659424</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>22.8600006103516</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>22.9699993133545</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>23.0599994659424</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60815238952637</t>
+    <t xml:space="preserve">9.60815334320068</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70897769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52511692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50732612609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40649795532227</t>
+    <t xml:space="preserve">9.7089786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52511787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50732517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40649890899658</t>
   </si>
   <si>
     <t xml:space="preserve">9.13960552215576</t>
@@ -62,142 +62,142 @@
     <t xml:space="preserve">9.27008628845215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45394515991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34125804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13367652893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93795299530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00319290161133</t>
+    <t xml:space="preserve">9.45394706726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34125900268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13367557525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93795490264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00319385528564</t>
   </si>
   <si>
     <t xml:space="preserve">8.64733695983887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80747318267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84898853302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66512966156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39230537414551</t>
+    <t xml:space="preserve">8.80747222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84898948669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66513061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39230442047119</t>
   </si>
   <si>
     <t xml:space="preserve">8.27961730957031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94155263900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17879104614258</t>
+    <t xml:space="preserve">7.94155311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17879009246826</t>
   </si>
   <si>
     <t xml:space="preserve">8.03644752502441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73396873474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54417753219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114540100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25949287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03411674499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74942922592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10528707504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50032949447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61301708221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87990999221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90363597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06377124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01632356643677</t>
+    <t xml:space="preserve">7.73396825790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54417896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114444732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25949192047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0341157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74942970275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10528755187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50033044815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61301755905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87991142272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90363550186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06377077102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01632404327393</t>
   </si>
   <si>
     <t xml:space="preserve">6.94515132904053</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19425201416016</t>
+    <t xml:space="preserve">7.194251537323</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832111358643</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25356149673462</t>
+    <t xml:space="preserve">7.2535605430603</t>
   </si>
   <si>
     <t xml:space="preserve">7.57383346557617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59755611419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65686750411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77548551559448</t>
+    <t xml:space="preserve">7.59755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65686511993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7754864692688</t>
   </si>
   <si>
     <t xml:space="preserve">7.76955556869507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6924524307251</t>
+    <t xml:space="preserve">7.69245147705078</t>
   </si>
   <si>
     <t xml:space="preserve">7.55604076385498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63314199447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69838285446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68652105331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24403190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17286109924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.125412940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21437740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23216915130615</t>
+    <t xml:space="preserve">7.63314247131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69838333129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68652153015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24403095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17286014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12541103363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21437644958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23217010498047</t>
   </si>
   <si>
     <t xml:space="preserve">8.09575653076172</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">8.00086212158203</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90003490447998</t>
+    <t xml:space="preserve">7.90003538131714</t>
   </si>
   <si>
     <t xml:space="preserve">7.85258769989014</t>
@@ -218,49 +218,49 @@
     <t xml:space="preserve">7.74583101272583</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80514049530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72803735733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61534929275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5263843536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28321647644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30694007873535</t>
+    <t xml:space="preserve">7.80514097213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72803783416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61535024642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52638578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30693960189819</t>
   </si>
   <si>
     <t xml:space="preserve">7.14680480957031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35438823699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44335269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46707630157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75176191329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81700277328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7992091178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8703818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92376041412354</t>
+    <t xml:space="preserve">7.3543872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44335174560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46707534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75176239013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81700229644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79921007156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87038087844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92375898361206</t>
   </si>
   <si>
     <t xml:space="preserve">8.08389472961426</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">8.11948108673096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19065380096436</t>
+    <t xml:space="preserve">8.19065284729004</t>
   </si>
   <si>
     <t xml:space="preserve">8.13727378845215</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">7.89410543441772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71024513244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66872787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85851955413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38404178619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47300720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36031818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41962814331055</t>
+    <t xml:space="preserve">7.71024465560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66872882843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85852003097534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38404226303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4730076789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3603196144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41962862014771</t>
   </si>
   <si>
     <t xml:space="preserve">7.56197118759155</t>
@@ -311,64 +311,64 @@
     <t xml:space="preserve">7.63111639022827</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07113075256348</t>
+    <t xml:space="preserve">8.07113265991211</t>
   </si>
   <si>
     <t xml:space="preserve">8.18427848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24713706970215</t>
+    <t xml:space="preserve">8.24713611602783</t>
   </si>
   <si>
     <t xml:space="preserve">8.28485298156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1905632019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14656162261963</t>
+    <t xml:space="preserve">8.19056224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14656257629395</t>
   </si>
   <si>
     <t xml:space="preserve">8.09627532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86998271942139</t>
+    <t xml:space="preserve">7.86998128890991</t>
   </si>
   <si>
     <t xml:space="preserve">7.85740995407104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98941326141357</t>
+    <t xml:space="preserve">7.98941421508789</t>
   </si>
   <si>
     <t xml:space="preserve">8.1402759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10256195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73797655105591</t>
+    <t xml:space="preserve">8.10256290435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73797798156738</t>
   </si>
   <si>
     <t xml:space="preserve">7.4865403175354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27281808853149</t>
+    <t xml:space="preserve">7.27281856536865</t>
   </si>
   <si>
     <t xml:space="preserve">7.29796171188354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2162446975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49911260604858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72540378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86369562149048</t>
+    <t xml:space="preserve">7.21624517440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49911308288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7254056930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86369657516479</t>
   </si>
   <si>
     <t xml:space="preserve">7.9076976776123</t>
@@ -377,61 +377,61 @@
     <t xml:space="preserve">6.86423397064209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2827844619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38021612167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53107881546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63165426254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70708560943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51850700378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39278841018677</t>
+    <t xml:space="preserve">6.28278493881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3802170753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53107929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63165378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70708465576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51850748062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39278888702393</t>
   </si>
   <si>
     <t xml:space="preserve">6.16963815689087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18221044540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66308259963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71337032318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05281209945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98366546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1659574508667</t>
+    <t xml:space="preserve">6.18221092224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66308307647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71337080001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05281162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98366594314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16595697402954</t>
   </si>
   <si>
     <t xml:space="preserve">7.09681272506714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13452816009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04652404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081287384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06538248062134</t>
+    <t xml:space="preserve">7.13452768325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04652500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081335067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0653829574585</t>
   </si>
   <si>
     <t xml:space="preserve">7.02138090133667</t>
@@ -440,130 +440,130 @@
     <t xml:space="preserve">6.97109413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10309886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90823364257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4048228263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37339305877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08424091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36710786819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51796913146973</t>
+    <t xml:space="preserve">7.10309839248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90823459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40482234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37339353561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08424043655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36710739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51796960830688</t>
   </si>
   <si>
     <t xml:space="preserve">7.60597276687622</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6122579574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65626049041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38596534729004</t>
+    <t xml:space="preserve">7.61225938796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65626001358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3859658241272</t>
   </si>
   <si>
     <t xml:space="preserve">7.18481492996216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20367383956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02766799926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34196424484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31682109832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10938453674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03395223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566326141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07166814804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24138784408569</t>
+    <t xml:space="preserve">7.20367288589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02766752243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34196376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31682014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10938405990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0339527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07166862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24138927459717</t>
   </si>
   <si>
     <t xml:space="preserve">7.29167604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23510265350342</t>
+    <t xml:space="preserve">7.2351016998291</t>
   </si>
   <si>
     <t xml:space="preserve">7.17852926254272</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27910423278809</t>
+    <t xml:space="preserve">7.27910566329956</t>
   </si>
   <si>
     <t xml:space="preserve">7.46139574050903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56825637817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98995113372803</t>
+    <t xml:space="preserve">7.56825685501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98995161056519</t>
   </si>
   <si>
     <t xml:space="preserve">6.91452121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01509618759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09052562713623</t>
+    <t xml:space="preserve">7.01509475708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09052705764771</t>
   </si>
   <si>
     <t xml:space="preserve">7.04023933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87680530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84537601470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85794687271118</t>
+    <t xml:space="preserve">6.87680578231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84537553787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85794734954834</t>
   </si>
   <si>
     <t xml:space="preserve">6.88937711715698</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82651805877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79508876800537</t>
+    <t xml:space="preserve">6.82651615142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79508781433105</t>
   </si>
   <si>
     <t xml:space="preserve">6.77622985839844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05909538269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15338516235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14710092544556</t>
+    <t xml:space="preserve">7.05909729003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15338659286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14709997177124</t>
   </si>
   <si>
     <t xml:space="preserve">7.49282598495483</t>
@@ -578,22 +578,22 @@
     <t xml:space="preserve">7.59968709945679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58082866668701</t>
+    <t xml:space="preserve">7.58082914352417</t>
   </si>
   <si>
     <t xml:space="preserve">7.64368772506714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62483024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44882440567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39853668212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28539037704468</t>
+    <t xml:space="preserve">7.62483072280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44882583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39853715896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28539085388184</t>
   </si>
   <si>
     <t xml:space="preserve">6.95852136611938</t>
@@ -602,37 +602,37 @@
     <t xml:space="preserve">7.12824201583862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39225149154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37967920303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17224311828613</t>
+    <t xml:space="preserve">7.39225196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37967967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17224359512329</t>
   </si>
   <si>
     <t xml:space="preserve">7.32310628890991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1156702041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75683546066284</t>
+    <t xml:space="preserve">7.11567068099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75683403015137</t>
   </si>
   <si>
     <t xml:space="preserve">7.66883134841919</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06484508514404</t>
+    <t xml:space="preserve">8.06484413146973</t>
   </si>
   <si>
     <t xml:space="preserve">8.65572261810303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05173492431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81287097930908</t>
+    <t xml:space="preserve">9.05173587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8128719329834</t>
   </si>
   <si>
     <t xml:space="preserve">8.83801460266113</t>
@@ -641,82 +641,82 @@
     <t xml:space="preserve">8.77515506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68715190887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90716075897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92601776123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00773334503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9511604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96373271942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03287792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03916358947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91973209381104</t>
+    <t xml:space="preserve">8.68715286254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90715980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92601871490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00773429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95116138458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96373462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03287696838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03916454315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91973114013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.86944484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87573146820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02030563354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08316612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12716674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07059478759766</t>
+    <t xml:space="preserve">8.87572860717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02030754089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08316421508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12716770172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07059288024902</t>
   </si>
   <si>
     <t xml:space="preserve">9.08945178985596</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88830184936523</t>
+    <t xml:space="preserve">8.88830089569092</t>
   </si>
   <si>
     <t xml:space="preserve">8.8505859375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74372482299805</t>
+    <t xml:space="preserve">8.74372577667236</t>
   </si>
   <si>
     <t xml:space="preserve">8.61172103881836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58657741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51743221282959</t>
+    <t xml:space="preserve">8.58657646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51743316650391</t>
   </si>
   <si>
     <t xml:space="preserve">8.62429237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61800765991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69290161132812</t>
+    <t xml:space="preserve">8.61800670623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69290256500244</t>
   </si>
   <si>
     <t xml:space="preserve">9.78718948364258</t>
@@ -728,22 +728,22 @@
     <t xml:space="preserve">9.68032932281494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37231826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26545715332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22774124145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39117622375488</t>
+    <t xml:space="preserve">9.37231922149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26545810699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22774219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39117527008057</t>
   </si>
   <si>
     <t xml:space="preserve">9.41631984710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19631290435791</t>
+    <t xml:space="preserve">9.19631195068359</t>
   </si>
   <si>
     <t xml:space="preserve">9.14602565765381</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">9.11459445953369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28431510925293</t>
+    <t xml:space="preserve">9.28431606292725</t>
   </si>
   <si>
     <t xml:space="preserve">9.43517780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25917053222656</t>
+    <t xml:space="preserve">9.25917148590088</t>
   </si>
   <si>
     <t xml:space="preserve">9.29060077667236</t>
@@ -770,34 +770,34 @@
     <t xml:space="preserve">9.34088897705078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20888328552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19002628326416</t>
+    <t xml:space="preserve">9.20888423919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19002723693848</t>
   </si>
   <si>
     <t xml:space="preserve">9.12088108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02659320831299</t>
+    <t xml:space="preserve">9.02659130096436</t>
   </si>
   <si>
     <t xml:space="preserve">8.86315822601318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49857616424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63057708740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9134464263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82544326782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9323034286499</t>
+    <t xml:space="preserve">8.49857521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63057994842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91344547271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82544231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93230438232422</t>
   </si>
   <si>
     <t xml:space="preserve">9.16488265991211</t>
@@ -806,34 +806,34 @@
     <t xml:space="preserve">9.17745494842529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17116832733154</t>
+    <t xml:space="preserve">9.17117023468018</t>
   </si>
   <si>
     <t xml:space="preserve">9.15859699249268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24660015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36603355407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18373870849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00144863128662</t>
+    <t xml:space="preserve">9.24660110473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36603164672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18374061584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0014476776123</t>
   </si>
   <si>
     <t xml:space="preserve">8.97630596160889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83172988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.718581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31574630737305</t>
+    <t xml:space="preserve">8.83172798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71858215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31574535369873</t>
   </si>
   <si>
     <t xml:space="preserve">9.13345336914062</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">9.42889213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58604049682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60489749908447</t>
+    <t xml:space="preserve">9.58603954315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60489654541016</t>
   </si>
   <si>
     <t xml:space="preserve">9.63632774353027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61118316650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32831764221191</t>
+    <t xml:space="preserve">9.61118412017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3283166885376</t>
   </si>
   <si>
     <t xml:space="preserve">9.27174282073975</t>
@@ -875,25 +875,25 @@
     <t xml:space="preserve">9.7030782699585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73626232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57697772979736</t>
+    <t xml:space="preserve">9.73626136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57697677612305</t>
   </si>
   <si>
     <t xml:space="preserve">9.55043029785156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52388191223145</t>
+    <t xml:space="preserve">9.52388381958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.33141422271729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21195030212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32477760314941</t>
+    <t xml:space="preserve">9.21195125579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3247766494751</t>
   </si>
   <si>
     <t xml:space="preserve">9.42433071136475</t>
@@ -902,37 +902,37 @@
     <t xml:space="preserve">9.19204044342041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13230895996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11239624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2716817855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33805084228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43760395050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62343406677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63007259368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5637035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68316650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69643974304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58361339569092</t>
+    <t xml:space="preserve">9.13230800628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11239910125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27168273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33804988861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43760299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62343502044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63007164001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56370258331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68316841125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69644069671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58361434936523</t>
   </si>
   <si>
     <t xml:space="preserve">9.74953556060791</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">9.61679840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64334583282471</t>
+    <t xml:space="preserve">9.64334678649902</t>
   </si>
   <si>
     <t xml:space="preserve">9.68980407714844</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">9.94864082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614671707153</t>
+    <t xml:space="preserve">10.061466217041</t>
   </si>
   <si>
     <t xml:space="preserve">10.2141160964966</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2804841995239</t>
+    <t xml:space="preserve">10.2804832458496</t>
   </si>
   <si>
     <t xml:space="preserve">10.1344728469849</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">10.1012887954712</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97518730163574</t>
+    <t xml:space="preserve">9.97518825531006</t>
   </si>
   <si>
     <t xml:space="preserve">9.93536758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.174295425415</t>
+    <t xml:space="preserve">10.1742944717407</t>
   </si>
   <si>
     <t xml:space="preserve">10.1942043304443</t>
@@ -995,67 +995,67 @@
     <t xml:space="preserve">10.2207527160645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5061368942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5194110870361</t>
+    <t xml:space="preserve">10.5061359405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5194101333618</t>
   </si>
   <si>
     <t xml:space="preserve">10.5725059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6720590591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6322374343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.492862701416</t>
+    <t xml:space="preserve">10.6720581054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6322364807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4928617477417</t>
   </si>
   <si>
     <t xml:space="preserve">10.4331312179565</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2472991943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2871198654175</t>
+    <t xml:space="preserve">10.2473001480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2871208190918</t>
   </si>
   <si>
     <t xml:space="preserve">10.3269414901733</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2406616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2937574386597</t>
+    <t xml:space="preserve">10.2406625747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.293758392334</t>
   </si>
   <si>
     <t xml:space="preserve">10.2008409500122</t>
   </si>
   <si>
-    <t xml:space="preserve">10.127836227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1145610809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0946521759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1079254150391</t>
+    <t xml:space="preserve">10.1278352737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1145629882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.094651222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1079244613647</t>
   </si>
   <si>
     <t xml:space="preserve">10.0747413635254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9420051574707</t>
+    <t xml:space="preserve">9.94200420379639</t>
   </si>
   <si>
     <t xml:space="preserve">9.92873001098633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98182487487793</t>
+    <t xml:space="preserve">9.98182582855225</t>
   </si>
   <si>
     <t xml:space="preserve">10.0282831192017</t>
@@ -1067,40 +1067,40 @@
     <t xml:space="preserve">10.0415573120117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.008373260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3136682510376</t>
+    <t xml:space="preserve">10.0083723068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3136672973633</t>
   </si>
   <si>
     <t xml:space="preserve">10.3733997344971</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1676568984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3203039169312</t>
+    <t xml:space="preserve">10.1676578521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3203048706055</t>
   </si>
   <si>
     <t xml:space="preserve">10.3402156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3003940582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4596786499023</t>
+    <t xml:space="preserve">10.3003950119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.459677696228</t>
   </si>
   <si>
     <t xml:space="preserve">10.4994993209839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5658693313599</t>
+    <t xml:space="preserve">10.5658683776855</t>
   </si>
   <si>
     <t xml:space="preserve">10.360125541687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2672109603882</t>
+    <t xml:space="preserve">10.2672090530396</t>
   </si>
   <si>
     <t xml:space="preserve">10.2738466262817</t>
@@ -1109,16 +1109,16 @@
     <t xml:space="preserve">10.2539358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1411094665527</t>
+    <t xml:space="preserve">10.1411085128784</t>
   </si>
   <si>
     <t xml:space="preserve">10.4264945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3866739273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4464054107666</t>
+    <t xml:space="preserve">10.3866729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.446403503418</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800363540649</t>
@@ -1127,64 +1127,64 @@
     <t xml:space="preserve">10.5592317581177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4530429840088</t>
+    <t xml:space="preserve">10.4530420303345</t>
   </si>
   <si>
     <t xml:space="preserve">10.3667621612549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070306777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4663171768188</t>
+    <t xml:space="preserve">10.3070316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4663162231445</t>
   </si>
   <si>
     <t xml:space="preserve">10.2074785232544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0481958389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9951000213623</t>
+    <t xml:space="preserve">10.0481939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99509906768799</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216464996338</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0813779830933</t>
+    <t xml:space="preserve">10.0813770294189</t>
   </si>
   <si>
     <t xml:space="preserve">10.161021232605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1477460861206</t>
+    <t xml:space="preserve">10.1477470397949</t>
   </si>
   <si>
     <t xml:space="preserve">10.2273893356323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1543827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1211996078491</t>
+    <t xml:space="preserve">10.1543846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1211986541748</t>
   </si>
   <si>
     <t xml:space="preserve">9.96855163574219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8822717666626</t>
+    <t xml:space="preserve">9.88227367401123</t>
   </si>
   <si>
     <t xml:space="preserve">10.3999471664429</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4065847396851</t>
+    <t xml:space="preserve">10.4065856933594</t>
   </si>
   <si>
     <t xml:space="preserve">10.5127744674683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4862260818481</t>
+    <t xml:space="preserve">10.4862270355225</t>
   </si>
   <si>
     <t xml:space="preserve">10.7317895889282</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">10.7450637817383</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6388750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7517004013062</t>
+    <t xml:space="preserve">10.6388740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7517013549805</t>
   </si>
   <si>
     <t xml:space="preserve">10.7649736404419</t>
@@ -1208,25 +1208,25 @@
     <t xml:space="preserve">10.5990524291992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5824604034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4198570251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1875677108765</t>
+    <t xml:space="preserve">10.5824613571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4198589324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1875686645508</t>
   </si>
   <si>
     <t xml:space="preserve">10.2904386520386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.237343788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1975231170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2340259552002</t>
+    <t xml:space="preserve">10.2373447418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1975240707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2340278625488</t>
   </si>
   <si>
     <t xml:space="preserve">10.2240705490112</t>
@@ -1235,31 +1235,31 @@
     <t xml:space="preserve">9.76944637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0647850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2771635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1643400192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.436450958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4132204055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3534898757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.370080947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3966302871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795904159546</t>
+    <t xml:space="preserve">10.0647878646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2771644592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1643381118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4364490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4132213592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3534908294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3700819015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3966283798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795894622803</t>
   </si>
   <si>
     <t xml:space="preserve">10.5957345962524</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">10.7550191879272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7351083755493</t>
+    <t xml:space="preserve">10.735107421875</t>
   </si>
   <si>
     <t xml:space="preserve">10.7882032394409</t>
@@ -1277,19 +1277,19 @@
     <t xml:space="preserve">10.8811197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9806709289551</t>
+    <t xml:space="preserve">10.9806718826294</t>
   </si>
   <si>
     <t xml:space="preserve">11.0934982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2262363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3191509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.086859703064</t>
+    <t xml:space="preserve">11.2262353897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3191518783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0868606567383</t>
   </si>
   <si>
     <t xml:space="preserve">11.176459312439</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">11.0370845794678</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1100902557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1665048599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1631841659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1366395950317</t>
+    <t xml:space="preserve">11.1100912094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.16650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1631860733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1366376876831</t>
   </si>
   <si>
     <t xml:space="preserve">10.9773540496826</t>
@@ -1316,22 +1316,22 @@
     <t xml:space="preserve">10.9906253814697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8877553939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9508056640625</t>
+    <t xml:space="preserve">10.8877563476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9508047103882</t>
   </si>
   <si>
     <t xml:space="preserve">10.957444190979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384271621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7749300003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6986064910889</t>
+    <t xml:space="preserve">10.7384262084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7749290466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6986055374146</t>
   </si>
   <si>
     <t xml:space="preserve">10.7266311645508</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">10.5654859542847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4428758621216</t>
+    <t xml:space="preserve">10.4428768157959</t>
   </si>
   <si>
     <t xml:space="preserve">10.421856880188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2607135772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90339183807373</t>
+    <t xml:space="preserve">10.2607126235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90339088439941</t>
   </si>
   <si>
     <t xml:space="preserve">9.96294498443604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1941537857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3062534332275</t>
+    <t xml:space="preserve">10.1941528320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3062543869019</t>
   </si>
   <si>
     <t xml:space="preserve">10.2922401428223</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">10.0680389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0925617218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9279146194458</t>
+    <t xml:space="preserve">10.0925607681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92791366577148</t>
   </si>
   <si>
     <t xml:space="preserve">10.218674659729</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">10.1696310043335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2011585235596</t>
+    <t xml:space="preserve">10.2011604309082</t>
   </si>
   <si>
     <t xml:space="preserve">10.323769569397</t>
@@ -1394,19 +1394,19 @@
     <t xml:space="preserve">10.1801404953003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2502021789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1135807037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1871452331543</t>
+    <t xml:space="preserve">10.2502031326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1135816574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1871461868286</t>
   </si>
   <si>
     <t xml:space="preserve">10.0119895935059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295038223267</t>
+    <t xml:space="preserve">10.029504776001</t>
   </si>
   <si>
     <t xml:space="preserve">9.93141651153564</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">9.92440986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0224981307983</t>
+    <t xml:space="preserve">10.0224990844727</t>
   </si>
   <si>
     <t xml:space="preserve">10.0014791488647</t>
@@ -1427,16 +1427,16 @@
     <t xml:space="preserve">10.1906499862671</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451072692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0645360946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0750455856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.120587348938</t>
+    <t xml:space="preserve">10.1451091766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0645351409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0750465393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1205863952637</t>
   </si>
   <si>
     <t xml:space="preserve">10.2712211608887</t>
@@ -1445,82 +1445,82 @@
     <t xml:space="preserve">10.2782287597656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2361898422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1661281585693</t>
+    <t xml:space="preserve">10.2361907958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1661262512207</t>
   </si>
   <si>
     <t xml:space="preserve">10.3132600784302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3272724151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3482904434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3973360061646</t>
+    <t xml:space="preserve">10.3272733688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3482913970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3973350524902</t>
   </si>
   <si>
     <t xml:space="preserve">10.4779071807861</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6495609283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5444669723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3798189163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4673976898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4288635253906</t>
+    <t xml:space="preserve">10.6495599746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5444679260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3798198699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.467396736145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4288644790649</t>
   </si>
   <si>
     <t xml:space="preserve">10.4989261627197</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5234489440918</t>
+    <t xml:space="preserve">10.5234479904175</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059328079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2887382507324</t>
+    <t xml:space="preserve">10.2887372970581</t>
   </si>
   <si>
     <t xml:space="preserve">10.1275930404663</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1486120223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2747249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3517942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4078435897827</t>
+    <t xml:space="preserve">10.1486101150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2747240066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.407844543457</t>
   </si>
   <si>
     <t xml:space="preserve">10.3447875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0505237579346</t>
+    <t xml:space="preserve">10.0505247116089</t>
   </si>
   <si>
     <t xml:space="preserve">10.1836433410645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3868246078491</t>
+    <t xml:space="preserve">10.3623037338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3868255615234</t>
   </si>
   <si>
     <t xml:space="preserve">10.3693103790283</t>
@@ -1529,25 +1529,25 @@
     <t xml:space="preserve">10.5970153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5339584350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5199460983276</t>
+    <t xml:space="preserve">10.5339574813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.519944190979</t>
   </si>
   <si>
     <t xml:space="preserve">10.5900068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6075248718262</t>
+    <t xml:space="preserve">10.6075239181519</t>
   </si>
   <si>
     <t xml:space="preserve">10.6180334091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7371397018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8597497940063</t>
+    <t xml:space="preserve">10.7371406555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8597507476807</t>
   </si>
   <si>
     <t xml:space="preserve">10.8772659301758</t>
@@ -1556,55 +1556,55 @@
     <t xml:space="preserve">10.8142099380493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4253616333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3097553253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3938322067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3552980422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1240901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.106575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0049829483032</t>
+    <t xml:space="preserve">10.4253606796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.309757232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3938312530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.355297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1240892410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1065740585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0049839019775</t>
   </si>
   <si>
     <t xml:space="preserve">9.90689468383789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0260019302368</t>
+    <t xml:space="preserve">10.0260009765625</t>
   </si>
   <si>
     <t xml:space="preserve">9.97345542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81581401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84383869171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81231021881104</t>
+    <t xml:space="preserve">9.8158130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84383773803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81230926513672</t>
   </si>
   <si>
     <t xml:space="preserve">9.68619632720947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63364887237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84033393859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73173809051514</t>
+    <t xml:space="preserve">9.6336498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84033584594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73173713684082</t>
   </si>
   <si>
     <t xml:space="preserve">9.94192600250244</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">10.0785493850708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0365104675293</t>
+    <t xml:space="preserve">10.0365123748779</t>
   </si>
   <si>
     <t xml:space="preserve">10.0715427398682</t>
@@ -1625,34 +1625,34 @@
     <t xml:space="preserve">10.0470209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98396492004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1310949325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92090797424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0084848403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96644687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98746681213379</t>
+    <t xml:space="preserve">9.98396301269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1310958862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92090702056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0084867477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9664478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98746776580811</t>
   </si>
   <si>
     <t xml:space="preserve">10.2396945953369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2992467880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3377828598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4323654174805</t>
+    <t xml:space="preserve">10.2992458343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3377809524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323673248291</t>
   </si>
   <si>
     <t xml:space="preserve">10.5164422988892</t>
@@ -1664,16 +1664,16 @@
     <t xml:space="preserve">9.98046016693115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0575294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0995674133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1626253128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3202648162842</t>
+    <t xml:space="preserve">10.0575304031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0995683670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1626243591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3202657699585</t>
   </si>
   <si>
     <t xml:space="preserve">10.2817316055298</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">10.376317024231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4498815536499</t>
+    <t xml:space="preserve">10.4498825073242</t>
   </si>
   <si>
     <t xml:space="preserve">10.4744052886963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4954242706299</t>
+    <t xml:space="preserve">10.4954233169556</t>
   </si>
   <si>
     <t xml:space="preserve">10.6705799102783</t>
@@ -1697,34 +1697,34 @@
     <t xml:space="preserve">10.7686681747437</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7861852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7301349639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7756757736206</t>
+    <t xml:space="preserve">10.7861843109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7301330566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7756748199463</t>
   </si>
   <si>
     <t xml:space="preserve">10.7546558380127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8282222747803</t>
+    <t xml:space="preserve">10.8282232284546</t>
   </si>
   <si>
     <t xml:space="preserve">10.8212156295776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7161226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6355495452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7336359024048</t>
+    <t xml:space="preserve">10.7161207199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6355485916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7336378097534</t>
   </si>
   <si>
     <t xml:space="preserve">10.5024290084839</t>
@@ -1733,19 +1733,19 @@
     <t xml:space="preserve">10.5619831085205</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6425552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7231273651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.625039100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6670780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.66357421875</t>
+    <t xml:space="preserve">10.6425542831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7231283187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6250410079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6670770645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6635732650757</t>
   </si>
   <si>
     <t xml:space="preserve">10.7126178741455</t>
@@ -1754,55 +1754,55 @@
     <t xml:space="preserve">10.8247184753418</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8737621307373</t>
+    <t xml:space="preserve">10.8737640380859</t>
   </si>
   <si>
     <t xml:space="preserve">10.8807687759399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9963731765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.062933921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1294918060303</t>
+    <t xml:space="preserve">10.996374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0629329681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1294927597046</t>
   </si>
   <si>
     <t xml:space="preserve">11.122486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">11.199556350708</t>
+    <t xml:space="preserve">11.1995553970337</t>
   </si>
   <si>
     <t xml:space="preserve">11.0664358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0173931121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.069938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0454177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0769462585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2135667800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4482774734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5463666915894</t>
+    <t xml:space="preserve">11.017391204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0699396133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0454168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0769443511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2135677337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.448278427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.546365737915</t>
   </si>
   <si>
     <t xml:space="preserve">11.5323534011841</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5043296813965</t>
+    <t xml:space="preserve">11.5043287277222</t>
   </si>
   <si>
     <t xml:space="preserve">11.5428647994995</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">11.4552850723267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4412727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4798069000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5603799819946</t>
+    <t xml:space="preserve">11.4412717819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4798078536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5603790283203</t>
   </si>
   <si>
     <t xml:space="preserve">11.6829881668091</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">11.6549644470215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7110137939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7040071487427</t>
+    <t xml:space="preserve">11.7110147476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.704008102417</t>
   </si>
   <si>
     <t xml:space="preserve">11.651460647583</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">11.6970014572144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6794872283936</t>
+    <t xml:space="preserve">11.6794862747192</t>
   </si>
   <si>
     <t xml:space="preserve">11.7075109481812</t>
@@ -1850,85 +1850,85 @@
     <t xml:space="preserve">11.8441352844238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9106931686401</t>
+    <t xml:space="preserve">11.9106941223145</t>
   </si>
   <si>
     <t xml:space="preserve">12.050820350647</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9422235488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9176988601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.952730178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0788459777832</t>
+    <t xml:space="preserve">11.9422225952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9177007675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9527311325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0788440704346</t>
   </si>
   <si>
     <t xml:space="preserve">12.0473155975342</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1208829879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1173782348633</t>
+    <t xml:space="preserve">12.1208820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1173791885376</t>
   </si>
   <si>
     <t xml:space="preserve">12.1278886795044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0192909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9737501144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.95973777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8091039657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8511409759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9036874771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017757415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9141969680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584535598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0806484222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0547552108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8032293319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0399599075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9031000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8180246353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6922626495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.758843421936</t>
+    <t xml:space="preserve">12.0192918777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9737510681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9597387313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8091011047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8511400222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9036884307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017738342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9141960144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0584526062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0806474685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0547542572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8032302856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0399589538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9031009674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8180265426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6922616958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7588424682617</t>
   </si>
   <si>
     <t xml:space="preserve">11.6256818771362</t>
@@ -1943,28 +1943,28 @@
     <t xml:space="preserve">11.6589708328247</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6996583938599</t>
+    <t xml:space="preserve">11.6996593475342</t>
   </si>
   <si>
     <t xml:space="preserve">11.7292509078979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.821722984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9437875747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9178953170776</t>
+    <t xml:space="preserve">11.8217239379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9437885284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.917896270752</t>
   </si>
   <si>
     <t xml:space="preserve">11.9696807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">11.93639087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.010368347168</t>
+    <t xml:space="preserve">11.9363899230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0103702545166</t>
   </si>
   <si>
     <t xml:space="preserve">12.2470989227295</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">12.3173780441284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3395719528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3469696044922</t>
+    <t xml:space="preserve">12.3395709991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3469705581665</t>
   </si>
   <si>
     <t xml:space="preserve">12.291485786438</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">12.2507963180542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2138090133667</t>
+    <t xml:space="preserve">12.213809967041</t>
   </si>
   <si>
     <t xml:space="preserve">12.3025817871094</t>
@@ -1994,49 +1994,49 @@
     <t xml:space="preserve">12.4024534225464</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6243896484375</t>
+    <t xml:space="preserve">12.6243877410889</t>
   </si>
   <si>
     <t xml:space="preserve">12.6502799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5873975753784</t>
+    <t xml:space="preserve">12.5873985290527</t>
   </si>
   <si>
     <t xml:space="preserve">12.661376953125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6983661651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7316541671753</t>
+    <t xml:space="preserve">12.6983671188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7316551208496</t>
   </si>
   <si>
     <t xml:space="preserve">12.7279577255249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6761741638184</t>
+    <t xml:space="preserve">12.6761722564697</t>
   </si>
   <si>
     <t xml:space="preserve">12.7020645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6354827880859</t>
+    <t xml:space="preserve">12.6354856491089</t>
   </si>
   <si>
     <t xml:space="preserve">12.5023231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5393142700195</t>
+    <t xml:space="preserve">12.5393133163452</t>
   </si>
   <si>
     <t xml:space="preserve">12.5245170593262</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5726022720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4875268936157</t>
+    <t xml:space="preserve">12.572603225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.48752784729</t>
   </si>
   <si>
     <t xml:space="preserve">12.5097217559814</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">12.4579372406006</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4690351486206</t>
+    <t xml:space="preserve">12.469033241272</t>
   </si>
   <si>
     <t xml:space="preserve">12.1620244979858</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0843467712402</t>
+    <t xml:space="preserve">12.0843458175659</t>
   </si>
   <si>
     <t xml:space="preserve">12.0658521652222</t>
@@ -2063,37 +2063,37 @@
     <t xml:space="preserve">12.1583242416382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8291215896606</t>
+    <t xml:space="preserve">11.829122543335</t>
   </si>
   <si>
     <t xml:space="preserve">11.8661117553711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.932689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7773370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9659805297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9992723464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1139373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0732488632202</t>
+    <t xml:space="preserve">11.9326906204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7773380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9659814834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9992713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.113938331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0732498168945</t>
   </si>
   <si>
     <t xml:space="preserve">11.9585838317871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9733800888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1546258926392</t>
+    <t xml:space="preserve">11.9733781814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1546268463135</t>
   </si>
   <si>
     <t xml:space="preserve">12.0325613021851</t>
@@ -2102,34 +2102,34 @@
     <t xml:space="preserve">12.1472282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1842164993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.210108757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2397012710571</t>
+    <t xml:space="preserve">12.1842184066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2101097106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2397003173828</t>
   </si>
   <si>
     <t xml:space="preserve">12.4542379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6095933914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6539812088013</t>
+    <t xml:space="preserve">12.6095924377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6539783477783</t>
   </si>
   <si>
     <t xml:space="preserve">12.7242593765259</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7057647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8278284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.946192741394</t>
+    <t xml:space="preserve">12.7057628631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8278274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.946195602417</t>
   </si>
   <si>
     <t xml:space="preserve">12.9276990890503</t>
@@ -2141,19 +2141,19 @@
     <t xml:space="preserve">12.8167314529419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2310094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2014188766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2495050430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2162132263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2864923477173</t>
+    <t xml:space="preserve">13.2310104370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2014169692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2495040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2162141799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.286491394043</t>
   </si>
   <si>
     <t xml:space="preserve">13.2421064376831</t>
@@ -2162,73 +2162,73 @@
     <t xml:space="preserve">13.212516784668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1533327102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1237411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9055032730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757852554321</t>
+    <t xml:space="preserve">13.1533336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.123740196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9055051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757862091064</t>
   </si>
   <si>
     <t xml:space="preserve">13.0571603775024</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1459341049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1274404525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1903209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.219913482666</t>
+    <t xml:space="preserve">13.1459350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1274423599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1903228759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2199144363403</t>
   </si>
   <si>
     <t xml:space="preserve">13.3641700744629</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2901916503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3937606811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3974628448486</t>
+    <t xml:space="preserve">13.2901926040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.393762588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3974609375</t>
   </si>
   <si>
     <t xml:space="preserve">13.3900632858276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4603414535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5935039520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6045989990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6119966506958</t>
+    <t xml:space="preserve">13.4603424072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5935029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787057876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6045980453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6119956970215</t>
   </si>
   <si>
     <t xml:space="preserve">13.6082983016968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861053466797</t>
+    <t xml:space="preserve">13.5861043930054</t>
   </si>
   <si>
     <t xml:space="preserve">13.4899339675903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4455461502075</t>
+    <t xml:space="preserve">13.4455471038818</t>
   </si>
   <si>
     <t xml:space="preserve">13.6859760284424</t>
@@ -2237,37 +2237,37 @@
     <t xml:space="preserve">13.752555847168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7562522888184</t>
+    <t xml:space="preserve">13.756254196167</t>
   </si>
   <si>
     <t xml:space="preserve">14.226016998291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1890287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964273452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4257593154907</t>
+    <t xml:space="preserve">14.1890277862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964263916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4257574081421</t>
   </si>
   <si>
     <t xml:space="preserve">14.3036947250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1816301345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928564071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8339319229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7895441055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006429672241</t>
+    <t xml:space="preserve">14.1816310882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928554534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8339328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7895450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006420135498</t>
   </si>
   <si>
     <t xml:space="preserve">13.7155675888062</t>
@@ -2276,43 +2276,43 @@
     <t xml:space="preserve">13.8265361785889</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8302335739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7081699371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5306205749512</t>
+    <t xml:space="preserve">13.8302345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7081708908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5306234359741</t>
   </si>
   <si>
     <t xml:space="preserve">13.5158271789551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.493634223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4714365005493</t>
+    <t xml:space="preserve">13.4936332702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4714393615723</t>
   </si>
   <si>
     <t xml:space="preserve">13.4788370132446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5084285736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824069976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5676116943359</t>
+    <t xml:space="preserve">13.5084295272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.582405090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5676097869873</t>
   </si>
   <si>
     <t xml:space="preserve">13.6748781204224</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6933736801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7414608001709</t>
+    <t xml:space="preserve">13.6933717727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7414617538452</t>
   </si>
   <si>
     <t xml:space="preserve">13.6822776794434</t>
@@ -2321,13 +2321,13 @@
     <t xml:space="preserve">14.0373725891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8191356658936</t>
+    <t xml:space="preserve">13.8191375732422</t>
   </si>
   <si>
     <t xml:space="preserve">13.7599544525146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6230955123901</t>
+    <t xml:space="preserve">13.6230945587158</t>
   </si>
   <si>
     <t xml:space="preserve">13.5232248306274</t>
@@ -2336,37 +2336,37 @@
     <t xml:space="preserve">13.6637811660767</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6341915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4640407562256</t>
+    <t xml:space="preserve">13.6341905593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4640417098999</t>
   </si>
   <si>
     <t xml:space="preserve">13.5343217849731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5417184829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5047302246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4159545898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2679977416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4196529388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1089458465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4973306655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2347087860107</t>
+    <t xml:space="preserve">13.5417194366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5047292709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4159564971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2679986953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4196538925171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1089448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4973316192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2347078323364</t>
   </si>
   <si>
     <t xml:space="preserve">13.0164728164673</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">13.0830516815186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2753953933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5565147399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6415891647339</t>
+    <t xml:space="preserve">13.2753963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5565137863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6415882110596</t>
   </si>
   <si>
     <t xml:space="preserve">13.848726272583</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">13.8931150436401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9670915603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8981065750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8241281509399</t>
+    <t xml:space="preserve">13.9670925140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8981056213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8241291046143</t>
   </si>
   <si>
     <t xml:space="preserve">12.7723445892334</t>
@@ -2408,37 +2408,37 @@
     <t xml:space="preserve">12.0288639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8883037567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6404762268066</t>
+    <t xml:space="preserve">11.8883047103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.640477180481</t>
   </si>
   <si>
     <t xml:space="preserve">11.2742834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.179407119751</t>
+    <t xml:space="preserve">10.1794080734253</t>
   </si>
   <si>
     <t xml:space="preserve">10.0240526199341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72573471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92917442321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35584259033203</t>
+    <t xml:space="preserve">8.72573375701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92917346954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35584354400635</t>
   </si>
   <si>
     <t xml:space="preserve">8.02663993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68264007568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94156312942505</t>
+    <t xml:space="preserve">7.68264102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94156503677368</t>
   </si>
   <si>
     <t xml:space="preserve">8.05623149871826</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">8.95136833190918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21029090881348</t>
+    <t xml:space="preserve">9.21028995513916</t>
   </si>
   <si>
     <t xml:space="preserve">9.36564636230469</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">9.14741039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18070030212402</t>
+    <t xml:space="preserve">9.18070125579834</t>
   </si>
   <si>
     <t xml:space="preserve">8.94766902923584</t>
@@ -2471,37 +2471,37 @@
     <t xml:space="preserve">9.1215181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01424884796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28057193756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45811939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5210018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71704196929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32125949859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1659049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2694730758667</t>
+    <t xml:space="preserve">9.01425075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28057098388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4581184387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52099990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71704292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32126045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16590595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26947402954102</t>
   </si>
   <si>
     <t xml:space="preserve">8.9994535446167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22138786315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15110969543457</t>
+    <t xml:space="preserve">9.2213888168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15110874176025</t>
   </si>
   <si>
     <t xml:space="preserve">9.42852687835693</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">9.62826919555664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39523696899414</t>
+    <t xml:space="preserve">9.39523792266846</t>
   </si>
   <si>
     <t xml:space="preserve">9.56908702850342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42113018035889</t>
+    <t xml:space="preserve">9.42112922668457</t>
   </si>
   <si>
     <t xml:space="preserve">9.48401069641113</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">9.59867858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51360321044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47291564941406</t>
+    <t xml:space="preserve">9.5136022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47291469573975</t>
   </si>
   <si>
     <t xml:space="preserve">9.29166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.177001953125</t>
+    <t xml:space="preserve">9.17700290679932</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517887115479</t>
@@ -2549,22 +2549,22 @@
     <t xml:space="preserve">9.39567852020264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44575881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16454410552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38027000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34559917449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60370254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80016803741455</t>
+    <t xml:space="preserve">9.44575786590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16454315185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38026905059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34560012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6037015914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80016708374023</t>
   </si>
   <si>
     <t xml:space="preserve">9.84254169464111</t>
@@ -2576,43 +2576,43 @@
     <t xml:space="preserve">9.93114471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2316207885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7439727783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7901992797852</t>
+    <t xml:space="preserve">10.2316198348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.743971824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7902002334595</t>
   </si>
   <si>
     <t xml:space="preserve">11.0829725265503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.109938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.990517616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7632350921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.347188949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.343337059021</t>
+    <t xml:space="preserve">11.1099376678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9905185699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7632341384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3471899032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3433361053467</t>
   </si>
   <si>
     <t xml:space="preserve">10.3279275894165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.559063911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4820175170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3510408401489</t>
+    <t xml:space="preserve">10.5590648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4820184707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3510427474976</t>
   </si>
   <si>
     <t xml:space="preserve">10.4897222518921</t>
@@ -2630,31 +2630,31 @@
     <t xml:space="preserve">10.3394842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3780069351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3741540908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6592226028442</t>
+    <t xml:space="preserve">10.3780078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3741550445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6592216491699</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6977462768555</t>
+    <t xml:space="preserve">10.6977453231812</t>
   </si>
   <si>
     <t xml:space="preserve">10.5975856781006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3202238082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3972682952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5089845657349</t>
+    <t xml:space="preserve">10.3202228546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3972692489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5089836120605</t>
   </si>
   <si>
     <t xml:space="preserve">10.5629167556763</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">10.616847038269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.770938873291</t>
+    <t xml:space="preserve">10.7709379196167</t>
   </si>
   <si>
     <t xml:space="preserve">10.7170066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4704618453979</t>
+    <t xml:space="preserve">10.4704608917236</t>
   </si>
   <si>
     <t xml:space="preserve">10.4126787185669</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">9.86950778961182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75393962860107</t>
+    <t xml:space="preserve">9.75394058227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.81172370910645</t>
@@ -2699,25 +2699,25 @@
     <t xml:space="preserve">9.96581554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0428590774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78860950469971</t>
+    <t xml:space="preserve">10.0428600311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78861045837402</t>
   </si>
   <si>
     <t xml:space="preserve">10.2046556472778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1468706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100643157959</t>
+    <t xml:space="preserve">10.1468715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1006441116333</t>
   </si>
   <si>
     <t xml:space="preserve">9.94655323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1237573623657</t>
+    <t xml:space="preserve">10.12375831604</t>
   </si>
   <si>
     <t xml:space="preserve">10.0390071868896</t>
@@ -2735,22 +2735,22 @@
     <t xml:space="preserve">10.2008028030396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0197467803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0351543426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.031304359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98507595062256</t>
+    <t xml:space="preserve">10.0197458267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0351552963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0313034057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98507690429688</t>
   </si>
   <si>
     <t xml:space="preserve">9.87721252441406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77320194244385</t>
+    <t xml:space="preserve">9.77320289611816</t>
   </si>
   <si>
     <t xml:space="preserve">9.97737121582031</t>
@@ -2768,52 +2768,52 @@
     <t xml:space="preserve">9.7654972076416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4958381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12602138519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07594203948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03741645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96422672271729</t>
+    <t xml:space="preserve">9.49583911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12602043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07594108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03741836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96422576904297</t>
   </si>
   <si>
     <t xml:space="preserve">8.89873695373535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24929428100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19536209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26470184326172</t>
+    <t xml:space="preserve">9.24929237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19536113739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26470279693604</t>
   </si>
   <si>
     <t xml:space="preserve">9.14142990112305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29937267303467</t>
+    <t xml:space="preserve">9.29937171936035</t>
   </si>
   <si>
     <t xml:space="preserve">9.53436088562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50354194641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69615650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63837146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61525821685791</t>
+    <t xml:space="preserve">9.50354290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6961555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63837242126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61525726318359</t>
   </si>
   <si>
     <t xml:space="preserve">9.51509952545166</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">9.51124668121338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17995166778564</t>
+    <t xml:space="preserve">9.17995262145996</t>
   </si>
   <si>
     <t xml:space="preserve">9.35330486297607</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">9.40338325500488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42649745941162</t>
+    <t xml:space="preserve">9.42649555206299</t>
   </si>
   <si>
     <t xml:space="preserve">9.19150924682617</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">9.20306491851807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14913272857666</t>
+    <t xml:space="preserve">9.14913463592529</t>
   </si>
   <si>
     <t xml:space="preserve">8.75234985351562</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">8.86791896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09520244598389</t>
+    <t xml:space="preserve">9.0952033996582</t>
   </si>
   <si>
     <t xml:space="preserve">9.27240657806396</t>
@@ -2861,16 +2861,16 @@
     <t xml:space="preserve">9.3995304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5382137298584</t>
+    <t xml:space="preserve">9.53821468353271</t>
   </si>
   <si>
     <t xml:space="preserve">10.1391668319702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3857116699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3703022003174</t>
+    <t xml:space="preserve">10.3857107162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3703031539917</t>
   </si>
   <si>
     <t xml:space="preserve">10.5051317214966</t>
@@ -2879,91 +2879,91 @@
     <t xml:space="preserve">10.7593822479248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8865070343018</t>
+    <t xml:space="preserve">10.8865060806274</t>
   </si>
   <si>
     <t xml:space="preserve">10.9635515213013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8402786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9442901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.955846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.079119682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1677217483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1484613418579</t>
+    <t xml:space="preserve">10.8402795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9442911148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558477401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0791206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1677227020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1484603881836</t>
   </si>
   <si>
     <t xml:space="preserve">11.0328931808472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1137914657593</t>
+    <t xml:space="preserve">11.113790512085</t>
   </si>
   <si>
     <t xml:space="preserve">11.2255067825317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.171573638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0637092590332</t>
+    <t xml:space="preserve">11.1715745925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0637102127075</t>
   </si>
   <si>
     <t xml:space="preserve">11.0367450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0598583221436</t>
+    <t xml:space="preserve">11.0598592758179</t>
   </si>
   <si>
     <t xml:space="preserve">10.8518362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">10.986665725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0020751953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136308670044</t>
+    <t xml:space="preserve">10.9866666793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0020742416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136318206787</t>
   </si>
   <si>
     <t xml:space="preserve">10.7015972137451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633937835693</t>
+    <t xml:space="preserve">10.863392829895</t>
   </si>
   <si>
     <t xml:space="preserve">11.0675621032715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0290403366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208595275879</t>
+    <t xml:space="preserve">11.0290412902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208585739136</t>
   </si>
   <si>
     <t xml:space="preserve">11.1561651229858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.206244468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0945291519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1407566070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1754264831543</t>
+    <t xml:space="preserve">11.2062454223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0945281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1407556533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.17542552948</t>
   </si>
   <si>
     <t xml:space="preserve">11.4104146957397</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">11.1792783737183</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0983810424805</t>
+    <t xml:space="preserve">11.0983800888062</t>
   </si>
   <si>
     <t xml:space="preserve">10.8556880950928</t>
@@ -2990,19 +2990,19 @@
     <t xml:space="preserve">11.5182790756226</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8803911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.968994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1115283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1885719299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1423463821411</t>
+    <t xml:space="preserve">11.8803930282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9689931869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1115274429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.188572883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1423454284668</t>
   </si>
   <si>
     <t xml:space="preserve">12.096118927002</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">12.1346406936646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0614471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8880958557129</t>
+    <t xml:space="preserve">12.0614490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8880968093872</t>
   </si>
   <si>
     <t xml:space="preserve">12.0036640167236</t>
@@ -3038,22 +3038,22 @@
     <t xml:space="preserve">12.2001304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9805517196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1962776184082</t>
+    <t xml:space="preserve">11.9805507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1962766647339</t>
   </si>
   <si>
     <t xml:space="preserve">12.2309484481812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3503684997559</t>
+    <t xml:space="preserve">12.3503675460815</t>
   </si>
   <si>
     <t xml:space="preserve">12.3850393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3311071395874</t>
+    <t xml:space="preserve">12.3311061859131</t>
   </si>
   <si>
     <t xml:space="preserve">12.7124814987183</t>
@@ -3062,64 +3062,64 @@
     <t xml:space="preserve">12.735595703125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8049364089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166526794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0245161056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9705820083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0129566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9050941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9898433685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8896856307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9474697113037</t>
+    <t xml:space="preserve">12.8049354553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.916651725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0245151519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9705829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.012957572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9050951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9898452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.889684677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.947470664978</t>
   </si>
   <si>
     <t xml:space="preserve">12.9436168670654</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9628782272339</t>
+    <t xml:space="preserve">12.9628791809082</t>
   </si>
   <si>
     <t xml:space="preserve">13.0399227142334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1439352035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2055702209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1208219528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2017202377319</t>
+    <t xml:space="preserve">13.1439342498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2055692672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1208229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2017183303833</t>
   </si>
   <si>
     <t xml:space="preserve">13.228684425354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0707426071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1516389846802</t>
+    <t xml:space="preserve">13.1786050796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0707416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1516399383545</t>
   </si>
   <si>
     <t xml:space="preserve">13.1631956100464</t>
@@ -3128,73 +3128,73 @@
     <t xml:space="preserve">13.1169681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1901626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2710590362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9782867431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0014019012451</t>
+    <t xml:space="preserve">13.1901636123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2710609436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9782857894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0014009475708</t>
   </si>
   <si>
     <t xml:space="preserve">12.9282083511353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8550138473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0977067947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9744358062744</t>
+    <t xml:space="preserve">12.8550148010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0977087020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9744348526001</t>
   </si>
   <si>
     <t xml:space="preserve">13.13623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2672071456909</t>
+    <t xml:space="preserve">13.2672061920166</t>
   </si>
   <si>
     <t xml:space="preserve">13.3827753067017</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5291633605957</t>
+    <t xml:space="preserve">13.5291614532471</t>
   </si>
   <si>
     <t xml:space="preserve">13.4135932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4675235748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5137529373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5907974243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.594651222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6216163635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4328556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4405584335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6062068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8105039596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6797533035278</t>
+    <t xml:space="preserve">13.4675245285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5137538909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5907983779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5946502685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6216154098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4328536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.440559387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6062078475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8105049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6797552108765</t>
   </si>
   <si>
     <t xml:space="preserve">13.5326595306396</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">13.7655582427979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7410440444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8350200653076</t>
+    <t xml:space="preserve">13.7410430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8350191116333</t>
   </si>
   <si>
     <t xml:space="preserve">13.8513641357422</t>
@@ -3218,10 +3218,10 @@
     <t xml:space="preserve">13.9616832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0965213775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0760898590088</t>
+    <t xml:space="preserve">14.0965194702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0760917663574</t>
   </si>
   <si>
     <t xml:space="preserve">14.0393171310425</t>
@@ -3233,10 +3233,10 @@
     <t xml:space="preserve">14.0066289901733</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0148000717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0270614624023</t>
+    <t xml:space="preserve">14.0148019790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.027060508728</t>
   </si>
   <si>
     <t xml:space="preserve">14.0883483886719</t>
@@ -3248,13 +3248,13 @@
     <t xml:space="preserve">13.8391056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.798246383667</t>
+    <t xml:space="preserve">13.7982473373413</t>
   </si>
   <si>
     <t xml:space="preserve">13.6102933883667</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9044809341431</t>
+    <t xml:space="preserve">13.9044799804688</t>
   </si>
   <si>
     <t xml:space="preserve">13.6879253387451</t>
@@ -3263,37 +3263,37 @@
     <t xml:space="preserve">13.7369565963745</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8145914077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9453411102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.89222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0107154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614736557007</t>
+    <t xml:space="preserve">13.8145904541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9453401565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8922233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0107164382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614727020264</t>
   </si>
   <si>
     <t xml:space="preserve">13.5408306121826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8963069915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9003944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8309326171875</t>
+    <t xml:space="preserve">13.8963079452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9003953933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8309335708618</t>
   </si>
   <si>
     <t xml:space="preserve">13.7287845611572</t>
   </si>
   <si>
-    <t xml:space="preserve">13.675669670105</t>
+    <t xml:space="preserve">13.6756677627563</t>
   </si>
   <si>
     <t xml:space="preserve">13.2589015960693</t>
@@ -3302,34 +3302,34 @@
     <t xml:space="preserve">13.3937368392944</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6838397979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7206144332886</t>
+    <t xml:space="preserve">13.6838407516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7206134796143</t>
   </si>
   <si>
     <t xml:space="preserve">13.6920108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">13.769645690918</t>
+    <t xml:space="preserve">13.7696447372437</t>
   </si>
   <si>
     <t xml:space="preserve">13.626636505127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5449171066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5857782363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7941608428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8636226654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9167394638062</t>
+    <t xml:space="preserve">13.5449180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5857772827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7941598892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.863621711731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9167404174805</t>
   </si>
   <si>
     <t xml:space="preserve">14.0515747070312</t>
@@ -3341,46 +3341,46 @@
     <t xml:space="preserve">14.1986684799194</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1169509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.121036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9494256973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0188875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9984579086304</t>
+    <t xml:space="preserve">14.1169500350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1210374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.949426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0188884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9984560012817</t>
   </si>
   <si>
     <t xml:space="preserve">13.9575986862183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9861993789673</t>
+    <t xml:space="preserve">13.9862003326416</t>
   </si>
   <si>
     <t xml:space="preserve">14.112865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1782398223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945829391479</t>
+    <t xml:space="preserve">14.178240776062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945838928223</t>
   </si>
   <si>
     <t xml:space="preserve">14.1537237167358</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3294200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.431568145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5010299682617</t>
+    <t xml:space="preserve">14.329418182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4315690994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.501030921936</t>
   </si>
   <si>
     <t xml:space="preserve">14.2436151504517</t>
@@ -3389,22 +3389,22 @@
     <t xml:space="preserve">14.4233951568604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3825368881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765138626099</t>
+    <t xml:space="preserve">14.3825359344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765129089355</t>
   </si>
   <si>
     <t xml:space="preserve">14.6031789779663</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4519958496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2599592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6930675506592</t>
+    <t xml:space="preserve">14.4519968032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2599582672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6930694580078</t>
   </si>
   <si>
     <t xml:space="preserve">14.8115615844727</t>
@@ -3413,82 +3413,82 @@
     <t xml:space="preserve">14.9790859222412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2201557159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137105941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0526323318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.028115272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0444612503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0158576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3182191848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1874685287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3304777145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3590784072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4407968521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5184297561646</t>
+    <t xml:space="preserve">15.2201566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0526313781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0281171798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0444602966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0158605575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3182201385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1874694824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3304758071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3590774536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4407987594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5184288024902</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3018751144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3549919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.417820930481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4848365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6146783828735</t>
+    <t xml:space="preserve">15.3018760681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3549928665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4178199768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4848346710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6146774291992</t>
   </si>
   <si>
     <t xml:space="preserve">15.5602283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5937356948853</t>
+    <t xml:space="preserve">15.5937376022339</t>
   </si>
   <si>
     <t xml:space="preserve">15.6565647125244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7654638290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7110147476196</t>
+    <t xml:space="preserve">15.7654628753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.711012840271</t>
   </si>
   <si>
     <t xml:space="preserve">15.7822189331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7905950546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8827419281006</t>
+    <t xml:space="preserve">15.7905969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8827428817749</t>
   </si>
   <si>
     <t xml:space="preserve">15.8994960784912</t>
@@ -3497,46 +3497,46 @@
     <t xml:space="preserve">15.9790782928467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9120626449585</t>
+    <t xml:space="preserve">15.9120607376099</t>
   </si>
   <si>
     <t xml:space="preserve">16.004207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953084945679</t>
+    <t xml:space="preserve">15.8953075408936</t>
   </si>
   <si>
     <t xml:space="preserve">15.9036846160889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9330053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0419044494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0293388366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1172981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7193899154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5811710357666</t>
+    <t xml:space="preserve">15.9330043792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0419025421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0293407440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1172962188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7193918228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5811700820923</t>
   </si>
   <si>
     <t xml:space="preserve">15.3172960281372</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4136295318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.388500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3466157913208</t>
+    <t xml:space="preserve">15.413631439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.388503074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3466138839722</t>
   </si>
   <si>
     <t xml:space="preserve">14.7937355041504</t>
@@ -3545,13 +3545,13 @@
     <t xml:space="preserve">14.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8523750305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1874523162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.112060546875</t>
+    <t xml:space="preserve">14.8523740768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1874532699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1120615005493</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377147674561</t>
@@ -3563,16 +3563,16 @@
     <t xml:space="preserve">15.6649408340454</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4932126998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5686044692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4974012374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4555168151855</t>
+    <t xml:space="preserve">15.4932136535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5686054229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4974021911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4555187225342</t>
   </si>
   <si>
     <t xml:space="preserve">15.3047304153442</t>
@@ -3584,73 +3584,73 @@
     <t xml:space="preserve">15.6104907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5392847061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7068252563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6481866836548</t>
+    <t xml:space="preserve">15.53928565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7068243026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6481857299805</t>
   </si>
   <si>
     <t xml:space="preserve">15.6063003540039</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9204387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8282928466797</t>
+    <t xml:space="preserve">15.9204378128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8282918930054</t>
   </si>
   <si>
     <t xml:space="preserve">15.4680814743042</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5560398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4638919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.572793006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7026386260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858835220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4471387863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5644178390503</t>
+    <t xml:space="preserve">15.556040763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4638929367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5727939605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7026376724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.685884475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4471397399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.564416885376</t>
   </si>
   <si>
     <t xml:space="preserve">15.7947835922241</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6816940307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8115377426147</t>
+    <t xml:space="preserve">15.6816930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8115367889404</t>
   </si>
   <si>
     <t xml:space="preserve">14.9905958175659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.120436668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3131084442139</t>
+    <t xml:space="preserve">15.1204357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3131074905396</t>
   </si>
   <si>
     <t xml:space="preserve">15.3005418777466</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6356220245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3675565719604</t>
+    <t xml:space="preserve">15.6356229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3675575256348</t>
   </si>
   <si>
     <t xml:space="preserve">15.6230554580688</t>
@@ -3659,10 +3659,10 @@
     <t xml:space="preserve">15.5979261398315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3759336471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8785533905029</t>
+    <t xml:space="preserve">15.3759346008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8785524368286</t>
   </si>
   <si>
     <t xml:space="preserve">15.5309104919434</t>
@@ -3671,22 +3671,22 @@
     <t xml:space="preserve">15.1790761947632</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2209615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6303853988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9864063262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214834213257</t>
+    <t xml:space="preserve">15.2209596633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6303844451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9864044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214824676514</t>
   </si>
   <si>
     <t xml:space="preserve">14.4293375015259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.366509437561</t>
+    <t xml:space="preserve">14.3665103912354</t>
   </si>
   <si>
     <t xml:space="preserve">13.5958280563354</t>
@@ -3695,46 +3695,46 @@
     <t xml:space="preserve">13.2900686264038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5497550964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2073469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.073314666748</t>
+    <t xml:space="preserve">13.5497541427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2073459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0733156204224</t>
   </si>
   <si>
     <t xml:space="preserve">14.3832635879517</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7811708450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0031604766846</t>
+    <t xml:space="preserve">14.7811698913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0031595230103</t>
   </si>
   <si>
     <t xml:space="preserve">15.7277679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.694260597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8157262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9707012176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2680816650391</t>
+    <t xml:space="preserve">15.6942615509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8157272338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9706993103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2680835723877</t>
   </si>
   <si>
     <t xml:space="preserve">16.871223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5277690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8544731140137</t>
+    <t xml:space="preserve">16.5277671813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.854471206665</t>
   </si>
   <si>
     <t xml:space="preserve">17.3989734649658</t>
@@ -3746,13 +3746,13 @@
     <t xml:space="preserve">17.005256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9298629760742</t>
+    <t xml:space="preserve">16.9298610687256</t>
   </si>
   <si>
     <t xml:space="preserve">16.7371921539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2178211212158</t>
+    <t xml:space="preserve">16.2178230285645</t>
   </si>
   <si>
     <t xml:space="preserve">16.4063014984131</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">16.0712242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.138240814209</t>
+    <t xml:space="preserve">16.1382389068604</t>
   </si>
   <si>
     <t xml:space="preserve">15.6398096084595</t>
@@ -3776,46 +3776,46 @@
     <t xml:space="preserve">15.4261980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1288137435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1665096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0785512924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1623210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0366697311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3340492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2460927963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0701751708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565635681152</t>
+    <t xml:space="preserve">15.1288146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1665105819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0785522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1623229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0366678237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3340511322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2460918426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0701761245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565626144409</t>
   </si>
   <si>
     <t xml:space="preserve">14.6094427108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8356199264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8775062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.80211353302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9235792160034</t>
+    <t xml:space="preserve">14.8356189727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8775053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8021125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9235782623291</t>
   </si>
   <si>
     <t xml:space="preserve">15.0743646621704</t>
@@ -61512,7 +61512,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6495949074</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>2996169</v>
@@ -61533,6 +61533,32 @@
         <v>1726</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6494328704</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>1743425</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>23.2600002288818</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>23.0499992370605</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>23.0799999237061</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>23.0599994659424</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1728">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60815334320068</t>
+    <t xml:space="preserve">9.60815238952637</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7089786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52511787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50732517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40649890899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13960552215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27008628845215</t>
+    <t xml:space="preserve">9.70897769927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52511882781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50732612609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4064998626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13960647583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27008819580078</t>
   </si>
   <si>
     <t xml:space="preserve">9.45394706726074</t>
@@ -68,25 +68,25 @@
     <t xml:space="preserve">9.34125900268555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13367557525635</t>
+    <t xml:space="preserve">9.13367652893066</t>
   </si>
   <si>
     <t xml:space="preserve">8.93795490264893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00319385528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64733695983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80747222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84898948669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66513061523438</t>
+    <t xml:space="preserve">9.00319480895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64733600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80747413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84898853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66512870788574</t>
   </si>
   <si>
     <t xml:space="preserve">8.39230442047119</t>
@@ -101,34 +101,34 @@
     <t xml:space="preserve">8.17879009246826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03644752502441</t>
+    <t xml:space="preserve">8.03644847869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.73396825790405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54417896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114444732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25949192047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0341157913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74942970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10528755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50033044815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61301755905151</t>
+    <t xml:space="preserve">7.54417753219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4611439704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25949287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03411531448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74943017959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10528564453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50032949447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61301803588867</t>
   </si>
   <si>
     <t xml:space="preserve">6.87991142272949</t>
@@ -137,67 +137,67 @@
     <t xml:space="preserve">6.90363550186157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06377077102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01632404327393</t>
+    <t xml:space="preserve">7.06377172470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01632356643677</t>
   </si>
   <si>
     <t xml:space="preserve">6.94515132904053</t>
   </si>
   <si>
-    <t xml:space="preserve">7.194251537323</t>
+    <t xml:space="preserve">7.19425249099731</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832111358643</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2535605430603</t>
+    <t xml:space="preserve">7.25356101989746</t>
   </si>
   <si>
     <t xml:space="preserve">7.57383346557617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59755706787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65686511993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7754864692688</t>
+    <t xml:space="preserve">7.59755754470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65686559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77548551559448</t>
   </si>
   <si>
     <t xml:space="preserve">7.76955556869507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69245147705078</t>
+    <t xml:space="preserve">7.6924524307251</t>
   </si>
   <si>
     <t xml:space="preserve">7.55604076385498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63314247131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69838333129883</t>
+    <t xml:space="preserve">7.63314342498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69838285446167</t>
   </si>
   <si>
     <t xml:space="preserve">7.68652153015137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24403095245361</t>
+    <t xml:space="preserve">8.24403190612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.17286014556885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12541103363037</t>
+    <t xml:space="preserve">8.12541198730469</t>
   </si>
   <si>
     <t xml:space="preserve">8.21437644958496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23217010498047</t>
+    <t xml:space="preserve">8.23216915130615</t>
   </si>
   <si>
     <t xml:space="preserve">8.09575653076172</t>
@@ -206,52 +206,52 @@
     <t xml:space="preserve">8.00086212158203</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90003538131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85258769989014</t>
+    <t xml:space="preserve">7.9000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85258817672729</t>
   </si>
   <si>
     <t xml:space="preserve">7.68059015274048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74583101272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80514097213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72803783416748</t>
+    <t xml:space="preserve">7.74583148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80513858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7280387878418</t>
   </si>
   <si>
     <t xml:space="preserve">7.61535024642944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52638578414917</t>
+    <t xml:space="preserve">7.52638483047485</t>
   </si>
   <si>
     <t xml:space="preserve">7.28321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30693960189819</t>
+    <t xml:space="preserve">7.30694007873535</t>
   </si>
   <si>
     <t xml:space="preserve">7.14680480957031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3543872833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44335174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46707534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75176239013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81700229644775</t>
+    <t xml:space="preserve">7.35438776016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44335222244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46707677841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75176048278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81700277328491</t>
   </si>
   <si>
     <t xml:space="preserve">7.79921007156372</t>
@@ -260,16 +260,16 @@
     <t xml:space="preserve">7.87038087844849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92375898361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08389472961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16692924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11948108673096</t>
+    <t xml:space="preserve">7.92376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08389663696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16693019866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11948204040527</t>
   </si>
   <si>
     <t xml:space="preserve">8.19065284729004</t>
@@ -284,55 +284,55 @@
     <t xml:space="preserve">7.89410543441772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71024465560913</t>
+    <t xml:space="preserve">7.71024608612061</t>
   </si>
   <si>
     <t xml:space="preserve">7.66872882843018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85852003097534</t>
+    <t xml:space="preserve">7.85851955413818</t>
   </si>
   <si>
     <t xml:space="preserve">7.38404226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4730076789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3603196144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41962862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56197118759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63111639022827</t>
+    <t xml:space="preserve">7.47300720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36031818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41962766647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56197071075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63111686706543</t>
   </si>
   <si>
     <t xml:space="preserve">8.07113265991211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18427848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24713611602783</t>
+    <t xml:space="preserve">8.18427753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24713706970215</t>
   </si>
   <si>
     <t xml:space="preserve">8.28485298156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19056224822998</t>
+    <t xml:space="preserve">8.19056415557861</t>
   </si>
   <si>
     <t xml:space="preserve">8.14656257629395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09627532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86998128890991</t>
+    <t xml:space="preserve">8.09627628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86998224258423</t>
   </si>
   <si>
     <t xml:space="preserve">7.85740995407104</t>
@@ -344,16 +344,16 @@
     <t xml:space="preserve">8.1402759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10256290435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73797798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4865403175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27281856536865</t>
+    <t xml:space="preserve">8.10256195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73797845840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48654079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27281904220581</t>
   </si>
   <si>
     <t xml:space="preserve">7.29796171188354</t>
@@ -362,205 +362,205 @@
     <t xml:space="preserve">7.21624517440796</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49911308288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7254056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86369657516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9076976776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86423397064209</t>
+    <t xml:space="preserve">7.49911212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72540521621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86369514465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90769624710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86423301696777</t>
   </si>
   <si>
     <t xml:space="preserve">6.28278493881226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3802170753479</t>
+    <t xml:space="preserve">6.38021612167358</t>
   </si>
   <si>
     <t xml:space="preserve">6.53107929229736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63165378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70708465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51850748062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39278888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16963815689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18221092224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66308307647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71337080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05281162261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98366594314575</t>
+    <t xml:space="preserve">6.63165426254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70708608627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51850652694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39278936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16963768005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18220996856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66308355331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71337127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05281114578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98366641998291</t>
   </si>
   <si>
     <t xml:space="preserve">7.16595697402954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09681272506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13452768325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04652500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0653829574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97109413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10309839248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90823459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40482234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37339353561401</t>
+    <t xml:space="preserve">7.0968132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13452863693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04652547836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081287384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06538248062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138137817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97109317779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10309886932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9082350730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40482330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3733925819397</t>
   </si>
   <si>
     <t xml:space="preserve">7.08424043655396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36710739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51796960830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60597276687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61225938796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65626001358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3859658241272</t>
+    <t xml:space="preserve">7.36710834503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51796865463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60597324371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61225748062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65625953674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38596487045288</t>
   </si>
   <si>
     <t xml:space="preserve">7.18481492996216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20367288589478</t>
+    <t xml:space="preserve">7.20367383956909</t>
   </si>
   <si>
     <t xml:space="preserve">7.02766752243042</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34196376800537</t>
+    <t xml:space="preserve">7.34196472167969</t>
   </si>
   <si>
     <t xml:space="preserve">7.31682014465332</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10938405990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0339527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566278457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07166862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24138927459717</t>
+    <t xml:space="preserve">7.10938453674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03395318984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566230773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07166910171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24138879776001</t>
   </si>
   <si>
     <t xml:space="preserve">7.29167604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2351016998291</t>
+    <t xml:space="preserve">7.23510408401489</t>
   </si>
   <si>
     <t xml:space="preserve">7.17852926254272</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27910566329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46139574050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56825685501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98995161056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91452121734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01509475708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09052705764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87680578231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84537553787231</t>
+    <t xml:space="preserve">7.27910280227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46139764785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56825733184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98995208740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91452074050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01509571075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09052658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87680530548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84537601470947</t>
   </si>
   <si>
     <t xml:space="preserve">6.85794734954834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88937711715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82651615142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79508781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77622985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15338659286499</t>
+    <t xml:space="preserve">6.88937664031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82651662826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79508829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77622938156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05909776687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15338563919067</t>
   </si>
   <si>
     <t xml:space="preserve">7.14709997177124</t>
@@ -569,70 +569,70 @@
     <t xml:space="preserve">7.49282598495483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47396802902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5053973197937</t>
+    <t xml:space="preserve">7.47396898269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50539779663086</t>
   </si>
   <si>
     <t xml:space="preserve">7.59968709945679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58082914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64368772506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62483072280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44882583618164</t>
+    <t xml:space="preserve">7.58082962036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6436882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62482976913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44882535934448</t>
   </si>
   <si>
     <t xml:space="preserve">7.39853715896606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28539085388184</t>
+    <t xml:space="preserve">7.28539133071899</t>
   </si>
   <si>
     <t xml:space="preserve">6.95852136611938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12824201583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39225196838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37967967987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17224359512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310628890991</t>
+    <t xml:space="preserve">7.12824296951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39225149154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37967824935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17224264144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310581207275</t>
   </si>
   <si>
     <t xml:space="preserve">7.11567068099976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75683403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66883134841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06484413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65572261810303</t>
+    <t xml:space="preserve">7.75683498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66883087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06484508514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65572452545166</t>
   </si>
   <si>
     <t xml:space="preserve">9.05173587799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8128719329834</t>
+    <t xml:space="preserve">8.81287097930908</t>
   </si>
   <si>
     <t xml:space="preserve">8.83801460266113</t>
@@ -641,22 +641,22 @@
     <t xml:space="preserve">8.77515506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68715286254883</t>
+    <t xml:space="preserve">8.68715190887451</t>
   </si>
   <si>
     <t xml:space="preserve">8.90715980529785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92601871490479</t>
+    <t xml:space="preserve">8.92601776123047</t>
   </si>
   <si>
     <t xml:space="preserve">9.00773429870605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95116138458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96373462677002</t>
+    <t xml:space="preserve">8.9511604309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9637336730957</t>
   </si>
   <si>
     <t xml:space="preserve">9.03287696838379</t>
@@ -665,43 +665,43 @@
     <t xml:space="preserve">9.03916454315186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91973114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86944484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87572860717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02030754089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08316421508789</t>
+    <t xml:space="preserve">8.9197301864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86944389343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87573051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02030658721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08316707611084</t>
   </si>
   <si>
     <t xml:space="preserve">9.12716770172119</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07059288024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08945178985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88830089569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8505859375</t>
+    <t xml:space="preserve">9.07059383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08945083618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88830280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85058689117432</t>
   </si>
   <si>
     <t xml:space="preserve">8.74372577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61172103881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58657646179199</t>
+    <t xml:space="preserve">8.61172008514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58657741546631</t>
   </si>
   <si>
     <t xml:space="preserve">8.51743316650391</t>
@@ -710,67 +710,67 @@
     <t xml:space="preserve">8.62429237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61800670623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95744609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69290256500244</t>
+    <t xml:space="preserve">8.61800765991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95744800567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69290065765381</t>
   </si>
   <si>
     <t xml:space="preserve">9.78718948364258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82490539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68032932281494</t>
+    <t xml:space="preserve">9.82490634918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68032836914062</t>
   </si>
   <si>
     <t xml:space="preserve">9.37231922149658</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26545810699463</t>
+    <t xml:space="preserve">9.26545906066895</t>
   </si>
   <si>
     <t xml:space="preserve">9.22774219512939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39117527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41631984710693</t>
+    <t xml:space="preserve">9.39117431640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41631889343262</t>
   </si>
   <si>
     <t xml:space="preserve">9.19631195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14602565765381</t>
+    <t xml:space="preserve">9.14602375030518</t>
   </si>
   <si>
     <t xml:space="preserve">9.04545021057129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11459445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28431606292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43517780303955</t>
+    <t xml:space="preserve">9.11459541320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28431510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43517875671387</t>
   </si>
   <si>
     <t xml:space="preserve">9.25917148590088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29060077667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34088897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20888423919678</t>
+    <t xml:space="preserve">9.29060173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34088802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20888328552246</t>
   </si>
   <si>
     <t xml:space="preserve">9.19002723693848</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">9.12088108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02659130096436</t>
+    <t xml:space="preserve">9.02659225463867</t>
   </si>
   <si>
     <t xml:space="preserve">8.86315822601318</t>
@@ -788,61 +788,61 @@
     <t xml:space="preserve">8.49857521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63057994842529</t>
+    <t xml:space="preserve">8.63057899475098</t>
   </si>
   <si>
     <t xml:space="preserve">8.91344547271729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82544231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93230438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16488265991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17745494842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17117023468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15859699249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24660110473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36603164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18374061584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0014476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97630596160889</t>
+    <t xml:space="preserve">8.82544326782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9323034286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16488170623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17745399475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17116737365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15859603881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2465991973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3660306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18373966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00144863128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97630500793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.83172798156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71858215332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31574535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13345336914062</t>
+    <t xml:space="preserve">8.71858310699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31574440002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13345241546631</t>
   </si>
   <si>
     <t xml:space="preserve">9.25288581848145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42889213562012</t>
+    <t xml:space="preserve">9.4288911819458</t>
   </si>
   <si>
     <t xml:space="preserve">9.58603954315186</t>
@@ -851,22 +851,22 @@
     <t xml:space="preserve">9.60489654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63632774353027</t>
+    <t xml:space="preserve">9.63632678985596</t>
   </si>
   <si>
     <t xml:space="preserve">9.61118412017822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3283166885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27174282073975</t>
+    <t xml:space="preserve">9.32831573486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27174377441406</t>
   </si>
   <si>
     <t xml:space="preserve">9.42260551452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4603214263916</t>
+    <t xml:space="preserve">9.46032238006592</t>
   </si>
   <si>
     <t xml:space="preserve">9.5106086730957</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">9.55043029785156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52388381958008</t>
+    <t xml:space="preserve">9.52388286590576</t>
   </si>
   <si>
     <t xml:space="preserve">9.33141422271729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21195125579834</t>
+    <t xml:space="preserve">9.21195030212402</t>
   </si>
   <si>
     <t xml:space="preserve">9.3247766494751</t>
@@ -905,37 +905,37 @@
     <t xml:space="preserve">9.13230800628662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11239910125732</t>
+    <t xml:space="preserve">9.11239719390869</t>
   </si>
   <si>
     <t xml:space="preserve">9.27168273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33804988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43760299682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62343502044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63007164001465</t>
+    <t xml:space="preserve">9.33805084228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43760395050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62343597412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63007259368896</t>
   </si>
   <si>
     <t xml:space="preserve">9.56370258331299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68316841125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69644069671631</t>
+    <t xml:space="preserve">9.68316650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69643974304199</t>
   </si>
   <si>
     <t xml:space="preserve">9.58361434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74953556060791</t>
+    <t xml:space="preserve">9.74953651428223</t>
   </si>
   <si>
     <t xml:space="preserve">9.64998245239258</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">9.61679840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64334678649902</t>
+    <t xml:space="preserve">9.64334583282471</t>
   </si>
   <si>
     <t xml:space="preserve">9.68980407714844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72962474822998</t>
+    <t xml:space="preserve">9.7296257019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.7827205657959</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">9.98846244812012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95527839660645</t>
+    <t xml:space="preserve">9.95527935028076</t>
   </si>
   <si>
     <t xml:space="preserve">9.94864082336426</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">10.061466217041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2141160964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2804832458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344728469849</t>
+    <t xml:space="preserve">10.2141141891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2804841995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344738006592</t>
   </si>
   <si>
     <t xml:space="preserve">10.1012887954712</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">10.1742944717407</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1942043304443</t>
+    <t xml:space="preserve">10.19420337677</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207527160645</t>
@@ -1004,19 +1004,19 @@
     <t xml:space="preserve">10.5725059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6720581054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6322364807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4928617477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4331312179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2473001480103</t>
+    <t xml:space="preserve">10.6720590591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6322374343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4928636550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4331321716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2472991943359</t>
   </si>
   <si>
     <t xml:space="preserve">10.2871208190918</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">10.2406625747681</t>
   </si>
   <si>
-    <t xml:space="preserve">10.293758392334</t>
+    <t xml:space="preserve">10.2937593460083</t>
   </si>
   <si>
     <t xml:space="preserve">10.2008409500122</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1278352737427</t>
+    <t xml:space="preserve">10.1278371810913</t>
   </si>
   <si>
     <t xml:space="preserve">10.1145629882812</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">10.094651222229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1079244613647</t>
+    <t xml:space="preserve">10.1079254150391</t>
   </si>
   <si>
     <t xml:space="preserve">10.0747413635254</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">10.0282831192017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0880146026611</t>
+    <t xml:space="preserve">10.0880136489868</t>
   </si>
   <si>
     <t xml:space="preserve">10.0415573120117</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">10.0083723068237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3136672973633</t>
+    <t xml:space="preserve">10.3136682510376</t>
   </si>
   <si>
     <t xml:space="preserve">10.3733997344971</t>
@@ -1079,16 +1079,16 @@
     <t xml:space="preserve">10.1676578521729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3203048706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402156829834</t>
+    <t xml:space="preserve">10.3203058242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402147293091</t>
   </si>
   <si>
     <t xml:space="preserve">10.3003950119019</t>
   </si>
   <si>
-    <t xml:space="preserve">10.459677696228</t>
+    <t xml:space="preserve">10.4596786499023</t>
   </si>
   <si>
     <t xml:space="preserve">10.4994993209839</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">10.5658683776855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.360125541687</t>
+    <t xml:space="preserve">10.3601245880127</t>
   </si>
   <si>
     <t xml:space="preserve">10.2672090530396</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">10.2539358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1411085128784</t>
+    <t xml:space="preserve">10.1411094665527</t>
   </si>
   <si>
     <t xml:space="preserve">10.4264945983887</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">10.3866729736328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.446403503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3800363540649</t>
+    <t xml:space="preserve">10.4464044570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3800373077393</t>
   </si>
   <si>
     <t xml:space="preserve">10.5592317581177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4530420303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3667621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3070316314697</t>
+    <t xml:space="preserve">10.4530429840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3667640686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.307032585144</t>
   </si>
   <si>
     <t xml:space="preserve">10.4663162231445</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">9.99509906768799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0216464996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0813770294189</t>
+    <t xml:space="preserve">10.0216484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0813779830933</t>
   </si>
   <si>
     <t xml:space="preserve">10.161021232605</t>
@@ -1163,34 +1163,34 @@
     <t xml:space="preserve">10.2273893356323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1543846130371</t>
+    <t xml:space="preserve">10.1543836593628</t>
   </si>
   <si>
     <t xml:space="preserve">10.1211986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96855163574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88227367401123</t>
+    <t xml:space="preserve">9.9685525894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88227272033691</t>
   </si>
   <si>
     <t xml:space="preserve">10.3999471664429</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4065856933594</t>
+    <t xml:space="preserve">10.4065837860107</t>
   </si>
   <si>
     <t xml:space="preserve">10.5127744674683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4862270355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7317895889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7450637817383</t>
+    <t xml:space="preserve">10.4862260818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7317905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.745062828064</t>
   </si>
   <si>
     <t xml:space="preserve">10.6388740539551</t>
@@ -1202,40 +1202,40 @@
     <t xml:space="preserve">10.7649736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6090087890625</t>
+    <t xml:space="preserve">10.6090068817139</t>
   </si>
   <si>
     <t xml:space="preserve">10.5990524291992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5824613571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4198589324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1875686645508</t>
+    <t xml:space="preserve">10.5824604034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4198570251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1875677108765</t>
   </si>
   <si>
     <t xml:space="preserve">10.2904386520386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373447418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1975240707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2340278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2240705490112</t>
+    <t xml:space="preserve">10.2373456954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1975231170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2340259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2240695953369</t>
   </si>
   <si>
     <t xml:space="preserve">9.76944637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0647878646851</t>
+    <t xml:space="preserve">10.0647859573364</t>
   </si>
   <si>
     <t xml:space="preserve">10.2771644592285</t>
@@ -1247,34 +1247,34 @@
     <t xml:space="preserve">10.4364490509033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4132213592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3534908294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3700819015503</t>
+    <t xml:space="preserve">10.4132204055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3534898757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.370080947876</t>
   </si>
   <si>
     <t xml:space="preserve">10.3966283798218</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795894622803</t>
+    <t xml:space="preserve">10.479588508606</t>
   </si>
   <si>
     <t xml:space="preserve">10.5957345962524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7550191879272</t>
+    <t xml:space="preserve">10.7550182342529</t>
   </si>
   <si>
     <t xml:space="preserve">10.735107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7882032394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8811197280884</t>
+    <t xml:space="preserve">10.7882022857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8811187744141</t>
   </si>
   <si>
     <t xml:space="preserve">10.9806718826294</t>
@@ -1295,16 +1295,16 @@
     <t xml:space="preserve">11.176459312439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0370845794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1100912094116</t>
+    <t xml:space="preserve">11.0370836257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1100902557373</t>
   </si>
   <si>
     <t xml:space="preserve">11.16650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1631860733032</t>
+    <t xml:space="preserve">11.1631851196289</t>
   </si>
   <si>
     <t xml:space="preserve">11.1366376876831</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">10.9773540496826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9906253814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8877563476562</t>
+    <t xml:space="preserve">10.9906272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8877573013306</t>
   </si>
   <si>
     <t xml:space="preserve">10.9508047103882</t>
@@ -1331,19 +1331,19 @@
     <t xml:space="preserve">10.7749290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6986055374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7266311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6915988922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5654859542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4428768157959</t>
+    <t xml:space="preserve">10.6986064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7266302108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6916007995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5654850006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4428758621216</t>
   </si>
   <si>
     <t xml:space="preserve">10.421856880188</t>
@@ -1352,22 +1352,22 @@
     <t xml:space="preserve">10.2607126235962</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90339088439941</t>
+    <t xml:space="preserve">9.90339183807373</t>
   </si>
   <si>
     <t xml:space="preserve">9.96294498443604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1941528320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3062543869019</t>
+    <t xml:space="preserve">10.1941537857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3062534332275</t>
   </si>
   <si>
     <t xml:space="preserve">10.2922401428223</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0680389404297</t>
+    <t xml:space="preserve">10.068039894104</t>
   </si>
   <si>
     <t xml:space="preserve">10.0925607681274</t>
@@ -1376,25 +1376,25 @@
     <t xml:space="preserve">9.92791366577148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.218674659729</t>
+    <t xml:space="preserve">10.2186756134033</t>
   </si>
   <si>
     <t xml:space="preserve">10.1696310043335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2011604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.323769569397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2256813049316</t>
+    <t xml:space="preserve">10.2011594772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3237686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.225682258606</t>
   </si>
   <si>
     <t xml:space="preserve">10.1801404953003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2502031326294</t>
+    <t xml:space="preserve">10.2502021789551</t>
   </si>
   <si>
     <t xml:space="preserve">10.1135816574097</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">10.1871461868286</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0119895935059</t>
+    <t xml:space="preserve">10.0119886398315</t>
   </si>
   <si>
     <t xml:space="preserve">10.029504776001</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">9.93141651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92440986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0224990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0014791488647</t>
+    <t xml:space="preserve">9.92441082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.022500038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0014801025391</t>
   </si>
   <si>
     <t xml:space="preserve">10.2291841506958</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">10.1451091766357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0645351409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0750465393066</t>
+    <t xml:space="preserve">10.0645370483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0750455856323</t>
   </si>
   <si>
     <t xml:space="preserve">10.1205863952637</t>
@@ -1448,16 +1448,16 @@
     <t xml:space="preserve">10.2361907958984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1661262512207</t>
+    <t xml:space="preserve">10.1661281585693</t>
   </si>
   <si>
     <t xml:space="preserve">10.3132600784302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3272733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3482913970947</t>
+    <t xml:space="preserve">10.3272714614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3482904434204</t>
   </si>
   <si>
     <t xml:space="preserve">10.3973350524902</t>
@@ -1466,76 +1466,76 @@
     <t xml:space="preserve">10.4779071807861</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6495599746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5444679260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3798198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.467396736145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4288644790649</t>
+    <t xml:space="preserve">10.6495609283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5444669723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3798189163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4673976898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4288635253906</t>
   </si>
   <si>
     <t xml:space="preserve">10.4989261627197</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5234479904175</t>
+    <t xml:space="preserve">10.5234489440918</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059328079224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2887372970581</t>
+    <t xml:space="preserve">10.2887382507324</t>
   </si>
   <si>
     <t xml:space="preserve">10.1275930404663</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1486101150513</t>
+    <t xml:space="preserve">10.1486120223999</t>
   </si>
   <si>
     <t xml:space="preserve">10.2747240066528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3517932891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.407844543457</t>
+    <t xml:space="preserve">10.3517942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4078435897827</t>
   </si>
   <si>
     <t xml:space="preserve">10.3447875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0505247116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1836433410645</t>
+    <t xml:space="preserve">10.0505228042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1836442947388</t>
   </si>
   <si>
     <t xml:space="preserve">10.3623037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868255615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3693103790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970153808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5339574813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.519944190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5900068283081</t>
+    <t xml:space="preserve">10.3868265151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.369309425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970134735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5339584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5199460983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5900077819824</t>
   </si>
   <si>
     <t xml:space="preserve">10.6075239181519</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">10.8597507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8772659301758</t>
+    <t xml:space="preserve">10.8772649765015</t>
   </si>
   <si>
     <t xml:space="preserve">10.8142099380493</t>
@@ -1559,37 +1559,37 @@
     <t xml:space="preserve">10.4253606796265</t>
   </si>
   <si>
-    <t xml:space="preserve">10.309757232666</t>
+    <t xml:space="preserve">10.3097562789917</t>
   </si>
   <si>
     <t xml:space="preserve">10.3938312530518</t>
   </si>
   <si>
-    <t xml:space="preserve">10.355297088623</t>
+    <t xml:space="preserve">10.3552980422974</t>
   </si>
   <si>
     <t xml:space="preserve">10.1240892410278</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1065740585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0049839019775</t>
+    <t xml:space="preserve">10.106575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0049819946289</t>
   </si>
   <si>
     <t xml:space="preserve">9.90689468383789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0260009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97345542907715</t>
+    <t xml:space="preserve">10.0260019302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97345352172852</t>
   </si>
   <si>
     <t xml:space="preserve">9.8158130645752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84383773803711</t>
+    <t xml:space="preserve">9.84383678436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.81230926513672</t>
@@ -1613,19 +1613,19 @@
     <t xml:space="preserve">10.0785493850708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0365123748779</t>
+    <t xml:space="preserve">10.0365114212036</t>
   </si>
   <si>
     <t xml:space="preserve">10.0715427398682</t>
   </si>
   <si>
-    <t xml:space="preserve">10.082052230835</t>
+    <t xml:space="preserve">10.0820531845093</t>
   </si>
   <si>
     <t xml:space="preserve">10.0470209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98396301269531</t>
+    <t xml:space="preserve">9.98396492004395</t>
   </si>
   <si>
     <t xml:space="preserve">10.1310958862305</t>
@@ -1637,34 +1637,34 @@
     <t xml:space="preserve">10.0084867477417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9664478302002</t>
+    <t xml:space="preserve">9.96644878387451</t>
   </si>
   <si>
     <t xml:space="preserve">9.98746776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2396945953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2992458343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3377809524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4323673248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5164422988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4008378982544</t>
+    <t xml:space="preserve">10.2396926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2992477416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3377828598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4323663711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5164413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4008388519287</t>
   </si>
   <si>
     <t xml:space="preserve">9.98046016693115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0575304031372</t>
+    <t xml:space="preserve">10.0575294494629</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995683670044</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">10.4498825073242</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4744052886963</t>
+    <t xml:space="preserve">10.474404335022</t>
   </si>
   <si>
     <t xml:space="preserve">10.4954233169556</t>
@@ -1694,76 +1694,76 @@
     <t xml:space="preserve">10.6705799102783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7686681747437</t>
+    <t xml:space="preserve">10.768669128418</t>
   </si>
   <si>
     <t xml:space="preserve">10.7861843109131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7301330566406</t>
+    <t xml:space="preserve">10.7301349639893</t>
   </si>
   <si>
     <t xml:space="preserve">10.7756748199463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7546558380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282232284546</t>
+    <t xml:space="preserve">10.754656791687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282222747803</t>
   </si>
   <si>
     <t xml:space="preserve">10.8212156295776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7161207199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6355485916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845922470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7336378097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024290084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5619831085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6425542831421</t>
+    <t xml:space="preserve">10.716121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6355495452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7336368560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5619821548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6425561904907</t>
   </si>
   <si>
     <t xml:space="preserve">10.7231283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6250410079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6670770645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6635732650757</t>
+    <t xml:space="preserve">10.6250400543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6670789718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.66357421875</t>
   </si>
   <si>
     <t xml:space="preserve">10.7126178741455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8247184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8737640380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807687759399</t>
+    <t xml:space="preserve">10.8247194290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8737621307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807678222656</t>
   </si>
   <si>
     <t xml:space="preserve">10.996374130249</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0629329681396</t>
+    <t xml:space="preserve">11.0629320144653</t>
   </si>
   <si>
     <t xml:space="preserve">11.1294927597046</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">11.122486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1995553970337</t>
+    <t xml:space="preserve">11.1995544433594</t>
   </si>
   <si>
     <t xml:space="preserve">11.0664358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">11.017391204834</t>
+    <t xml:space="preserve">11.0173921585083</t>
   </si>
   <si>
     <t xml:space="preserve">11.0699396133423</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0454168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0769443511963</t>
+    <t xml:space="preserve">11.0454177856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0769453048706</t>
   </si>
   <si>
     <t xml:space="preserve">11.2135677337646</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">11.5323534011841</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5043287277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5428647994995</t>
+    <t xml:space="preserve">11.5043277740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5428638458252</t>
   </si>
   <si>
     <t xml:space="preserve">11.4552850723267</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">11.6970014572144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6794862747192</t>
+    <t xml:space="preserve">11.6794881820679</t>
   </si>
   <si>
     <t xml:space="preserve">11.7075109481812</t>
@@ -1853,16 +1853,16 @@
     <t xml:space="preserve">11.9106941223145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.050820350647</t>
+    <t xml:space="preserve">12.0508193969727</t>
   </si>
   <si>
     <t xml:space="preserve">11.9422225952148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9177007675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9527311325073</t>
+    <t xml:space="preserve">11.9176998138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.952733039856</t>
   </si>
   <si>
     <t xml:space="preserve">12.0788440704346</t>
@@ -1871,67 +1871,67 @@
     <t xml:space="preserve">12.0473155975342</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1208820343018</t>
+    <t xml:space="preserve">12.1208829879761</t>
   </si>
   <si>
     <t xml:space="preserve">12.1173791885376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1278886795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0192918777466</t>
+    <t xml:space="preserve">12.1278877258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0192909240723</t>
   </si>
   <si>
     <t xml:space="preserve">11.9737510681152</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9597387313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8091011047363</t>
+    <t xml:space="preserve">11.95973777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.809103012085</t>
   </si>
   <si>
     <t xml:space="preserve">11.8511400222778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9036884307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017738342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9141960144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584526062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0806474685669</t>
+    <t xml:space="preserve">11.9036874771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017747879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9141969680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0584535598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0806484222412</t>
   </si>
   <si>
     <t xml:space="preserve">12.0547542572021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8032302856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0399589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9031009674072</t>
+    <t xml:space="preserve">11.8032293319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0399599075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9031000137329</t>
   </si>
   <si>
     <t xml:space="preserve">11.8180265426636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6922616958618</t>
+    <t xml:space="preserve">11.6922626495361</t>
   </si>
   <si>
     <t xml:space="preserve">11.7588424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6256818771362</t>
+    <t xml:space="preserve">11.6256828308105</t>
   </si>
   <si>
     <t xml:space="preserve">11.5997896194458</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">11.6589708328247</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6996593475342</t>
+    <t xml:space="preserve">11.6996583938599</t>
   </si>
   <si>
     <t xml:space="preserve">11.7292509078979</t>
@@ -1964,37 +1964,37 @@
     <t xml:space="preserve">11.9363899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0103702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2470989227295</t>
+    <t xml:space="preserve">12.0103693008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2470979690552</t>
   </si>
   <si>
     <t xml:space="preserve">12.3173780441284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3395709991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3469705581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.291485786438</t>
+    <t xml:space="preserve">12.3395719528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3469696044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2914848327637</t>
   </si>
   <si>
     <t xml:space="preserve">12.2507963180542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.213809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3025817871094</t>
+    <t xml:space="preserve">12.2138090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3025827407837</t>
   </si>
   <si>
     <t xml:space="preserve">12.4024534225464</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6243877410889</t>
+    <t xml:space="preserve">12.6243886947632</t>
   </si>
   <si>
     <t xml:space="preserve">12.6502799987793</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">12.661376953125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6983671188354</t>
+    <t xml:space="preserve">12.6983661651611</t>
   </si>
   <si>
     <t xml:space="preserve">12.7316551208496</t>
@@ -2015,19 +2015,19 @@
     <t xml:space="preserve">12.7279577255249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6761722564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7020645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6354856491089</t>
+    <t xml:space="preserve">12.676173210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7020654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6354827880859</t>
   </si>
   <si>
     <t xml:space="preserve">12.5023231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5393133163452</t>
+    <t xml:space="preserve">12.5393142700195</t>
   </si>
   <si>
     <t xml:space="preserve">12.5245170593262</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">12.3617649078369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4579372406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.469033241272</t>
+    <t xml:space="preserve">12.4579381942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4690341949463</t>
   </si>
   <si>
     <t xml:space="preserve">12.1620244979858</t>
@@ -2063,22 +2063,22 @@
     <t xml:space="preserve">12.1583242416382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.829122543335</t>
+    <t xml:space="preserve">11.8291215896606</t>
   </si>
   <si>
     <t xml:space="preserve">11.8661117553711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9326906204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7773380279541</t>
+    <t xml:space="preserve">11.932689666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7773370742798</t>
   </si>
   <si>
     <t xml:space="preserve">11.9659814834595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9992713928223</t>
+    <t xml:space="preserve">11.9992723464966</t>
   </si>
   <si>
     <t xml:space="preserve">12.113938331604</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">12.0325613021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1472282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1842184066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2101097106934</t>
+    <t xml:space="preserve">12.1472272872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1842174530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.210108757019</t>
   </si>
   <si>
     <t xml:space="preserve">12.2397003173828</t>
@@ -2114,28 +2114,28 @@
     <t xml:space="preserve">12.4542379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6095924377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6539783477783</t>
+    <t xml:space="preserve">12.6095914840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6539793014526</t>
   </si>
   <si>
     <t xml:space="preserve">12.7242593765259</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7057628631592</t>
+    <t xml:space="preserve">12.7057638168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.8278274536133</t>
   </si>
   <si>
-    <t xml:space="preserve">12.946195602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9276990890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8537197113037</t>
+    <t xml:space="preserve">12.9461936950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9276971817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.853720664978</t>
   </si>
   <si>
     <t xml:space="preserve">12.8167314529419</t>
@@ -2144,25 +2144,25 @@
     <t xml:space="preserve">13.2310104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2014169692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2495040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2162141799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.286491394043</t>
+    <t xml:space="preserve">13.2014179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2495031356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.216212272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2864923477173</t>
   </si>
   <si>
     <t xml:space="preserve">13.2421064376831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.212516784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1533336639404</t>
+    <t xml:space="preserve">13.2125158309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1533327102661</t>
   </si>
   <si>
     <t xml:space="preserve">13.123740196228</t>
@@ -2174,61 +2174,61 @@
     <t xml:space="preserve">12.9757862091064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0571603775024</t>
+    <t xml:space="preserve">13.0571613311768</t>
   </si>
   <si>
     <t xml:space="preserve">13.1459350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1274423599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1903228759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2199144363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3641700744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2901926040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.393762588501</t>
+    <t xml:space="preserve">13.12744140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1903219223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.219913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3641710281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2901906967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3937616348267</t>
   </si>
   <si>
     <t xml:space="preserve">13.3974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3900632858276</t>
+    <t xml:space="preserve">13.3900623321533</t>
   </si>
   <si>
     <t xml:space="preserve">13.4603424072266</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5935029983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787057876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6045980453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6119956970215</t>
+    <t xml:space="preserve">13.5935020446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6045999526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6119966506958</t>
   </si>
   <si>
     <t xml:space="preserve">13.6082983016968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861043930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4899339675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4455471038818</t>
+    <t xml:space="preserve">13.586106300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.489933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4455461502075</t>
   </si>
   <si>
     <t xml:space="preserve">13.6859760284424</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">13.756254196167</t>
   </si>
   <si>
-    <t xml:space="preserve">14.226016998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1890277862549</t>
+    <t xml:space="preserve">14.2260179519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1890287399292</t>
   </si>
   <si>
     <t xml:space="preserve">14.1964263916016</t>
@@ -2252,37 +2252,37 @@
     <t xml:space="preserve">14.4257574081421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3036947250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1816310882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928554534912</t>
+    <t xml:space="preserve">14.3036956787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1816301345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928564071655</t>
   </si>
   <si>
     <t xml:space="preserve">13.8339328765869</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7895450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006420135498</t>
+    <t xml:space="preserve">13.7895441055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006429672241</t>
   </si>
   <si>
     <t xml:space="preserve">13.7155675888062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8265361785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8302345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7081708908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5306234359741</t>
+    <t xml:space="preserve">13.8265352249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8302335739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7081699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5306224822998</t>
   </si>
   <si>
     <t xml:space="preserve">13.5158271789551</t>
@@ -2291,37 +2291,37 @@
     <t xml:space="preserve">13.4936332702637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4714393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4788370132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5084295272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.582405090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5676097869873</t>
+    <t xml:space="preserve">13.4714374542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4788360595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5084276199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824069976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5676107406616</t>
   </si>
   <si>
     <t xml:space="preserve">13.6748781204224</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6933717727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7414617538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822776794434</t>
+    <t xml:space="preserve">13.6933727264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7414608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822757720947</t>
   </si>
   <si>
     <t xml:space="preserve">14.0373725891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8191375732422</t>
+    <t xml:space="preserve">13.8191385269165</t>
   </si>
   <si>
     <t xml:space="preserve">13.7599544525146</t>
@@ -2330,31 +2330,31 @@
     <t xml:space="preserve">13.6230945587158</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5232248306274</t>
+    <t xml:space="preserve">13.5232238769531</t>
   </si>
   <si>
     <t xml:space="preserve">13.6637811660767</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6341905593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4640417098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5343217849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5417194366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5047292709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4159564971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2679986953735</t>
+    <t xml:space="preserve">13.6341915130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4640426635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5343227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5417184829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5047302246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4159545898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2679977416992</t>
   </si>
   <si>
     <t xml:space="preserve">13.4196538925171</t>
@@ -2363,37 +2363,37 @@
     <t xml:space="preserve">13.1089448928833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4973316192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2347078323364</t>
+    <t xml:space="preserve">13.4973306655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2347087860107</t>
   </si>
   <si>
     <t xml:space="preserve">13.0164728164673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0830516815186</t>
+    <t xml:space="preserve">13.0830526351929</t>
   </si>
   <si>
     <t xml:space="preserve">13.2753963470459</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5565137863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6415882110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.848726272583</t>
+    <t xml:space="preserve">13.5565156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6415891647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8487272262573</t>
   </si>
   <si>
     <t xml:space="preserve">13.8894166946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931150436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670925140381</t>
+    <t xml:space="preserve">13.8931140899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670915603638</t>
   </si>
   <si>
     <t xml:space="preserve">12.8981056213379</t>
@@ -2402,10 +2402,10 @@
     <t xml:space="preserve">12.8241291046143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7723445892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0288639068604</t>
+    <t xml:space="preserve">12.7723436355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0288619995117</t>
   </si>
   <si>
     <t xml:space="preserve">11.8883047103882</t>
@@ -2417,25 +2417,25 @@
     <t xml:space="preserve">11.2742834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1794080734253</t>
+    <t xml:space="preserve">10.179407119751</t>
   </si>
   <si>
     <t xml:space="preserve">10.0240526199341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72573375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92917346954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35584354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02663993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68264102935791</t>
+    <t xml:space="preserve">8.72573471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92917442321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35584259033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02664089202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68264150619507</t>
   </si>
   <si>
     <t xml:space="preserve">7.94156503677368</t>
@@ -2450,19 +2450,19 @@
     <t xml:space="preserve">8.95136833190918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21028995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36564636230469</t>
+    <t xml:space="preserve">9.21029186248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.365647315979</t>
   </si>
   <si>
     <t xml:space="preserve">9.15480804443359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14741039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18070125579834</t>
+    <t xml:space="preserve">9.14741134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18070030212402</t>
   </si>
   <si>
     <t xml:space="preserve">8.94766902923584</t>
@@ -2471,25 +2471,25 @@
     <t xml:space="preserve">9.1215181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01425075531006</t>
+    <t xml:space="preserve">9.01424980163574</t>
   </si>
   <si>
     <t xml:space="preserve">9.28057098388672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4581184387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52099990844727</t>
+    <t xml:space="preserve">9.45811939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52100086212158</t>
   </si>
   <si>
     <t xml:space="preserve">9.71704292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32126045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16590595245361</t>
+    <t xml:space="preserve">9.32125949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1659049987793</t>
   </si>
   <si>
     <t xml:space="preserve">9.26947402954102</t>
@@ -2513,19 +2513,19 @@
     <t xml:space="preserve">9.83910655975342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62826919555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39523792266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56908702850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42112922668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48401069641113</t>
+    <t xml:space="preserve">9.62826824188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39523696899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5690860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4211311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48401165008545</t>
   </si>
   <si>
     <t xml:space="preserve">9.59867858886719</t>
@@ -2540,22 +2540,22 @@
     <t xml:space="preserve">9.29166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17700290679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56517887115479</t>
+    <t xml:space="preserve">9.17700099945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56517791748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.39567852020264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44575786590576</t>
+    <t xml:space="preserve">9.44575881958008</t>
   </si>
   <si>
     <t xml:space="preserve">9.16454315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38026905059814</t>
+    <t xml:space="preserve">9.38027095794678</t>
   </si>
   <si>
     <t xml:space="preserve">9.34560012817383</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">10.2316198348999</t>
   </si>
   <si>
-    <t xml:space="preserve">10.743971824646</t>
+    <t xml:space="preserve">10.7439727783203</t>
   </si>
   <si>
     <t xml:space="preserve">10.7902002334595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0829725265503</t>
+    <t xml:space="preserve">11.082971572876</t>
   </si>
   <si>
     <t xml:space="preserve">11.1099376678467</t>
@@ -2600,22 +2600,22 @@
     <t xml:space="preserve">10.3471899032593</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3433361053467</t>
+    <t xml:space="preserve">10.343337059021</t>
   </si>
   <si>
     <t xml:space="preserve">10.3279275894165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5590648651123</t>
+    <t xml:space="preserve">10.559063911438</t>
   </si>
   <si>
     <t xml:space="preserve">10.4820184707642</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3510427474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4897222518921</t>
+    <t xml:space="preserve">10.3510417938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4897232055664</t>
   </si>
   <si>
     <t xml:space="preserve">10.5012798309326</t>
@@ -2630,13 +2630,13 @@
     <t xml:space="preserve">10.3394842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3780078887939</t>
+    <t xml:space="preserve">10.3780069351196</t>
   </si>
   <si>
     <t xml:space="preserve">10.3741550445557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6592216491699</t>
+    <t xml:space="preserve">10.6592226028442</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898818969727</t>
@@ -2645,28 +2645,28 @@
     <t xml:space="preserve">10.6977453231812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975856781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3202228546143</t>
+    <t xml:space="preserve">10.5975866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3202238082886</t>
   </si>
   <si>
     <t xml:space="preserve">10.3972692489624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5089836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5629167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438140869141</t>
+    <t xml:space="preserve">10.5089845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.562915802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438121795654</t>
   </si>
   <si>
     <t xml:space="preserve">10.647665977478</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5475063323975</t>
+    <t xml:space="preserve">10.5475053787231</t>
   </si>
   <si>
     <t xml:space="preserve">10.616847038269</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">10.7709379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7170066833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4704608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4126787185669</t>
+    <t xml:space="preserve">10.7170076370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4704618453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4126768112183</t>
   </si>
   <si>
     <t xml:space="preserve">10.4011211395264</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">9.86950778961182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75394058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81172370910645</t>
+    <t xml:space="preserve">9.75393962860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81172466278076</t>
   </si>
   <si>
     <t xml:space="preserve">9.96581554412842</t>
@@ -2702,25 +2702,25 @@
     <t xml:space="preserve">10.0428600311279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78861045837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2046556472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1468715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1006441116333</t>
+    <t xml:space="preserve">9.78860950469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2046546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1468706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1006422042847</t>
   </si>
   <si>
     <t xml:space="preserve">9.94655323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.12375831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0390071868896</t>
+    <t xml:space="preserve">10.1237573623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.039008140564</t>
   </si>
   <si>
     <t xml:space="preserve">9.96966648101807</t>
@@ -2747,25 +2747,25 @@
     <t xml:space="preserve">9.98507690429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87721252441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77320289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97737121582031</t>
+    <t xml:space="preserve">9.87721157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77320194244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97737216949463</t>
   </si>
   <si>
     <t xml:space="preserve">9.89262199401855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88106441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86565589904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7654972076416</t>
+    <t xml:space="preserve">9.88106536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86565685272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76549625396729</t>
   </si>
   <si>
     <t xml:space="preserve">9.49583911895752</t>
@@ -2774,25 +2774,25 @@
     <t xml:space="preserve">9.12602043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07594108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03741836547852</t>
+    <t xml:space="preserve">9.07594013214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0374174118042</t>
   </si>
   <si>
     <t xml:space="preserve">8.96422576904297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89873695373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24929237365723</t>
+    <t xml:space="preserve">8.89873790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24929332733154</t>
   </si>
   <si>
     <t xml:space="preserve">9.19536113739014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26470279693604</t>
+    <t xml:space="preserve">9.26470184326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.14142990112305</t>
@@ -2813,25 +2813,25 @@
     <t xml:space="preserve">9.63837242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61525726318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51509952545166</t>
+    <t xml:space="preserve">9.61525821685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51509857177734</t>
   </si>
   <si>
     <t xml:space="preserve">9.51124668121338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17995262145996</t>
+    <t xml:space="preserve">9.17995166778564</t>
   </si>
   <si>
     <t xml:space="preserve">9.35330486297607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40338325500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42649555206299</t>
+    <t xml:space="preserve">9.4033842086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42649745941162</t>
   </si>
   <si>
     <t xml:space="preserve">9.19150924682617</t>
@@ -2846,40 +2846,40 @@
     <t xml:space="preserve">8.75234985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77931690216064</t>
+    <t xml:space="preserve">8.77931785583496</t>
   </si>
   <si>
     <t xml:space="preserve">8.86791896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0952033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27240657806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3995304107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53821468353271</t>
+    <t xml:space="preserve">9.09520149230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27240753173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39953136444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53821277618408</t>
   </si>
   <si>
     <t xml:space="preserve">10.1391668319702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3857107162476</t>
+    <t xml:space="preserve">10.3857116699219</t>
   </si>
   <si>
     <t xml:space="preserve">10.3703031539917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5051317214966</t>
+    <t xml:space="preserve">10.5051326751709</t>
   </si>
   <si>
     <t xml:space="preserve">10.7593822479248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8865060806274</t>
+    <t xml:space="preserve">10.8865070343018</t>
   </si>
   <si>
     <t xml:space="preserve">10.9635515213013</t>
@@ -2897,10 +2897,10 @@
     <t xml:space="preserve">11.0791206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1677227020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1484603881836</t>
+    <t xml:space="preserve">11.1677217483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1484613418579</t>
   </si>
   <si>
     <t xml:space="preserve">11.0328931808472</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">11.113790512085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2255067825317</t>
+    <t xml:space="preserve">11.2255048751831</t>
   </si>
   <si>
     <t xml:space="preserve">11.1715745925903</t>
@@ -2921,13 +2921,13 @@
     <t xml:space="preserve">11.0367450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0598592758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8518362045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9866666793823</t>
+    <t xml:space="preserve">11.0598583221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8518371582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.986665725708</t>
   </si>
   <si>
     <t xml:space="preserve">11.0020742416382</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">11.0136318206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7015972137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.863392829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0675621032715</t>
+    <t xml:space="preserve">10.7015981674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8633937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0675630569458</t>
   </si>
   <si>
     <t xml:space="preserve">11.0290412902832</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7208585739136</t>
+    <t xml:space="preserve">10.7208595275879</t>
   </si>
   <si>
     <t xml:space="preserve">11.1561651229858</t>
@@ -2978,19 +2978,19 @@
     <t xml:space="preserve">11.0983800888062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8556880950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.982813835144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1523132324219</t>
+    <t xml:space="preserve">10.8556890487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9828147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1523122787476</t>
   </si>
   <si>
     <t xml:space="preserve">11.5182790756226</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8803930282593</t>
+    <t xml:space="preserve">11.880392074585</t>
   </si>
   <si>
     <t xml:space="preserve">11.9689931869507</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">12.1423454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.096118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0691528320312</t>
+    <t xml:space="preserve">12.0961179733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0691537857056</t>
   </si>
   <si>
     <t xml:space="preserve">12.1924247741699</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">12.1346406936646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0614490509033</t>
+    <t xml:space="preserve">12.061448097229</t>
   </si>
   <si>
     <t xml:space="preserve">11.8880968093872</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">12.0036640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">11.972846031189</t>
+    <t xml:space="preserve">11.9728469848633</t>
   </si>
   <si>
     <t xml:space="preserve">11.9458799362183</t>
@@ -3035,19 +3035,19 @@
     <t xml:space="preserve">11.9921064376831</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2001304626465</t>
+    <t xml:space="preserve">12.2001295089722</t>
   </si>
   <si>
     <t xml:space="preserve">11.9805507659912</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1962766647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2309484481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3503675460815</t>
+    <t xml:space="preserve">12.1962776184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2309474945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3503684997559</t>
   </si>
   <si>
     <t xml:space="preserve">12.3850393295288</t>
@@ -3059,22 +3059,22 @@
     <t xml:space="preserve">12.7124814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">12.735595703125</t>
+    <t xml:space="preserve">12.7355947494507</t>
   </si>
   <si>
     <t xml:space="preserve">12.8049354553223</t>
   </si>
   <si>
-    <t xml:space="preserve">12.916651725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0245151519775</t>
+    <t xml:space="preserve">12.9166507720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0245161056519</t>
   </si>
   <si>
     <t xml:space="preserve">12.9705829620361</t>
   </si>
   <si>
-    <t xml:space="preserve">13.012957572937</t>
+    <t xml:space="preserve">13.0129585266113</t>
   </si>
   <si>
     <t xml:space="preserve">12.9050951004028</t>
@@ -3086,31 +3086,31 @@
     <t xml:space="preserve">12.889684677124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.947470664978</t>
+    <t xml:space="preserve">12.9474697113037</t>
   </si>
   <si>
     <t xml:space="preserve">12.9436168670654</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9628791809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0399227142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1439342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2055692672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1208229064941</t>
+    <t xml:space="preserve">12.9628801345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.039924621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1439352035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2055702209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1208219528198</t>
   </si>
   <si>
     <t xml:space="preserve">13.2017183303833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.228684425354</t>
+    <t xml:space="preserve">13.2286853790283</t>
   </si>
   <si>
     <t xml:space="preserve">13.1786050796509</t>
@@ -3122,31 +3122,31 @@
     <t xml:space="preserve">13.1516399383545</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1631956100464</t>
+    <t xml:space="preserve">13.1631946563721</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1901636123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2710609436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9782857894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0014009475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9282083511353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8550148010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0977087020874</t>
+    <t xml:space="preserve">13.1901626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2710599899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9782876968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0014019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9282093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8550138473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0977077484131</t>
   </si>
   <si>
     <t xml:space="preserve">12.9744348526001</t>
@@ -3155,7 +3155,7 @@
     <t xml:space="preserve">13.13623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2672061920166</t>
+    <t xml:space="preserve">13.2672071456909</t>
   </si>
   <si>
     <t xml:space="preserve">13.3827753067017</t>
@@ -3167,61 +3167,61 @@
     <t xml:space="preserve">13.4135932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4675245285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5137538909912</t>
+    <t xml:space="preserve">13.4675254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5137529373169</t>
   </si>
   <si>
     <t xml:space="preserve">13.5907983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5946502685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6216154098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4328536987305</t>
+    <t xml:space="preserve">13.594651222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6216163635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4328546524048</t>
   </si>
   <si>
     <t xml:space="preserve">13.440559387207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6062078475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8105049133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6797552108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5326595306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6511526107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7655582427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7410430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8350191116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8513641357422</t>
+    <t xml:space="preserve">13.6062059402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8105039596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6797542572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5326585769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6511516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7655591964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7410440444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8350200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8513650894165</t>
   </si>
   <si>
     <t xml:space="preserve">13.9616832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0965194702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0760917663574</t>
+    <t xml:space="preserve">14.0965204238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0760908126831</t>
   </si>
   <si>
     <t xml:space="preserve">14.0393171310425</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">14.0066289901733</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0148019790649</t>
+    <t xml:space="preserve">14.0148010253906</t>
   </si>
   <si>
     <t xml:space="preserve">14.027060508728</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">14.0883483886719</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8023309707642</t>
+    <t xml:space="preserve">13.8023319244385</t>
   </si>
   <si>
     <t xml:space="preserve">13.8391056060791</t>
@@ -3251,28 +3251,28 @@
     <t xml:space="preserve">13.7982473373413</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6102933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6879253387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7369565963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145904541016</t>
+    <t xml:space="preserve">13.6102924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044809341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6879262924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7369556427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145914077759</t>
   </si>
   <si>
     <t xml:space="preserve">13.9453401565552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8922233581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0107164382935</t>
+    <t xml:space="preserve">13.89222240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0107154846191</t>
   </si>
   <si>
     <t xml:space="preserve">13.7614727020264</t>
@@ -3281,19 +3281,19 @@
     <t xml:space="preserve">13.5408306121826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8963079452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9003953933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8309335708618</t>
+    <t xml:space="preserve">13.8963088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9003944396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8309345245361</t>
   </si>
   <si>
     <t xml:space="preserve">13.7287845611572</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6756677627563</t>
+    <t xml:space="preserve">13.6756687164307</t>
   </si>
   <si>
     <t xml:space="preserve">13.2589015960693</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">13.6838407516479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7206134796143</t>
+    <t xml:space="preserve">13.7206144332886</t>
   </si>
   <si>
     <t xml:space="preserve">13.6920108795166</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">13.7696447372437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.626636505127</t>
+    <t xml:space="preserve">13.6266355514526</t>
   </si>
   <si>
     <t xml:space="preserve">13.5449180603027</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">13.863621711731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9167404174805</t>
+    <t xml:space="preserve">13.9167394638062</t>
   </si>
   <si>
     <t xml:space="preserve">14.0515747070312</t>
@@ -3338,19 +3338,19 @@
     <t xml:space="preserve">14.1496381759644</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1986684799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1169500350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1210374832153</t>
+    <t xml:space="preserve">14.1986694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1169490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.121036529541</t>
   </si>
   <si>
     <t xml:space="preserve">13.949426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0188884735107</t>
+    <t xml:space="preserve">14.0188875198364</t>
   </si>
   <si>
     <t xml:space="preserve">13.9984560012817</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">13.9575986862183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9862003326416</t>
+    <t xml:space="preserve">13.9861993789673</t>
   </si>
   <si>
     <t xml:space="preserve">14.112865447998</t>
@@ -3368,16 +3368,16 @@
     <t xml:space="preserve">14.178240776062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1945838928223</t>
+    <t xml:space="preserve">14.1945829391479</t>
   </si>
   <si>
     <t xml:space="preserve">14.1537237167358</t>
   </si>
   <si>
-    <t xml:space="preserve">14.329418182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4315690994263</t>
+    <t xml:space="preserve">14.3294200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.431568145752</t>
   </si>
   <si>
     <t xml:space="preserve">14.501030921936</t>
@@ -3386,10 +3386,10 @@
     <t xml:space="preserve">14.2436151504517</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4233951568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3825359344482</t>
+    <t xml:space="preserve">14.423397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3825368881226</t>
   </si>
   <si>
     <t xml:space="preserve">14.4765129089355</t>
@@ -3398,55 +3398,55 @@
     <t xml:space="preserve">14.6031789779663</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4519968032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2599582672119</t>
+    <t xml:space="preserve">14.4519987106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2599592208862</t>
   </si>
   <si>
     <t xml:space="preserve">14.6930694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8115615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9790859222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2201566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137115478516</t>
+    <t xml:space="preserve">14.8115606307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9790849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2201547622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137096405029</t>
   </si>
   <si>
     <t xml:space="preserve">15.0526313781738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0281171798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0444602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0158605575562</t>
+    <t xml:space="preserve">15.028115272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0444593429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0158576965332</t>
   </si>
   <si>
     <t xml:space="preserve">15.3182201385498</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1874694824219</t>
+    <t xml:space="preserve">15.1874675750732</t>
   </si>
   <si>
     <t xml:space="preserve">15.3304758071899</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3590774536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4407987594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5184288024902</t>
+    <t xml:space="preserve">15.3590793609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4407968521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5184307098389</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
@@ -3455,28 +3455,28 @@
     <t xml:space="preserve">15.3018760681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3549928665161</t>
+    <t xml:space="preserve">15.3549947738647</t>
   </si>
   <si>
     <t xml:space="preserve">15.4178199768066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4848346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6146774291992</t>
+    <t xml:space="preserve">15.4848365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6146793365479</t>
   </si>
   <si>
     <t xml:space="preserve">15.5602283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5937376022339</t>
+    <t xml:space="preserve">15.5937356948853</t>
   </si>
   <si>
     <t xml:space="preserve">15.6565647125244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7654628753662</t>
+    <t xml:space="preserve">15.7654647827148</t>
   </si>
   <si>
     <t xml:space="preserve">15.711012840271</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">15.7822189331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7905969619751</t>
+    <t xml:space="preserve">15.7905950546265</t>
   </si>
   <si>
     <t xml:space="preserve">15.8827428817749</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">15.9790782928467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9120607376099</t>
+    <t xml:space="preserve">15.9120626449585</t>
   </si>
   <si>
     <t xml:space="preserve">16.004207611084</t>
@@ -3506,13 +3506,13 @@
     <t xml:space="preserve">15.8953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036846160889</t>
+    <t xml:space="preserve">15.9036855697632</t>
   </si>
   <si>
     <t xml:space="preserve">15.9330043792725</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0419025421143</t>
+    <t xml:space="preserve">16.0419044494629</t>
   </si>
   <si>
     <t xml:space="preserve">16.0293407440186</t>
@@ -3533,25 +3533,25 @@
     <t xml:space="preserve">15.413631439209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.388503074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3466138839722</t>
+    <t xml:space="preserve">15.3885011672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3466157913208</t>
   </si>
   <si>
     <t xml:space="preserve">14.7937355041504</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9110126495361</t>
+    <t xml:space="preserve">14.9110136032104</t>
   </si>
   <si>
     <t xml:space="preserve">14.8523740768433</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1874532699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1120615005493</t>
+    <t xml:space="preserve">15.1874513626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112060546875</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377147674561</t>
@@ -3566,19 +3566,19 @@
     <t xml:space="preserve">15.4932136535645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5686054229736</t>
+    <t xml:space="preserve">15.568603515625</t>
   </si>
   <si>
     <t xml:space="preserve">15.4974021911621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4555187225342</t>
+    <t xml:space="preserve">15.4555168151855</t>
   </si>
   <si>
     <t xml:space="preserve">15.3047304153442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052543640137</t>
+    <t xml:space="preserve">15.405252456665</t>
   </si>
   <si>
     <t xml:space="preserve">15.6104907989502</t>
@@ -3587,10 +3587,10 @@
     <t xml:space="preserve">15.53928565979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7068243026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6481857299805</t>
+    <t xml:space="preserve">15.706826210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6481876373291</t>
   </si>
   <si>
     <t xml:space="preserve">15.6063003540039</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">15.556040763855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4638929367065</t>
+    <t xml:space="preserve">15.4638910293579</t>
   </si>
   <si>
     <t xml:space="preserve">15.5727939605713</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">15.7026376724243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.685884475708</t>
+    <t xml:space="preserve">15.6858825683594</t>
   </si>
   <si>
     <t xml:space="preserve">15.4471397399902</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">15.7947835922241</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6816930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8115367889404</t>
+    <t xml:space="preserve">15.681694984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8115386962891</t>
   </si>
   <si>
     <t xml:space="preserve">14.9905958175659</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">15.3131074905396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3005418777466</t>
+    <t xml:space="preserve">15.3005399703979</t>
   </si>
   <si>
     <t xml:space="preserve">15.6356229782104</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">15.3759346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8785524368286</t>
+    <t xml:space="preserve">15.8785543441772</t>
   </si>
   <si>
     <t xml:space="preserve">15.5309104919434</t>
@@ -3677,16 +3677,16 @@
     <t xml:space="preserve">14.6303844451904</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9864044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214824676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4293375015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3665103912354</t>
+    <t xml:space="preserve">14.9864063262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214834213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4293365478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.366509437561</t>
   </si>
   <si>
     <t xml:space="preserve">13.5958280563354</t>
@@ -3701,16 +3701,16 @@
     <t xml:space="preserve">14.2073459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733156204224</t>
+    <t xml:space="preserve">14.073314666748</t>
   </si>
   <si>
     <t xml:space="preserve">14.3832635879517</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7811698913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0031595230103</t>
+    <t xml:space="preserve">14.7811708450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0031604766846</t>
   </si>
   <si>
     <t xml:space="preserve">15.7277679443359</t>
@@ -3719,16 +3719,16 @@
     <t xml:space="preserve">15.6942615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8157272338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9706993103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2680835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.871223449707</t>
+    <t xml:space="preserve">15.8157253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9707012176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2680816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8712253570557</t>
   </si>
   <si>
     <t xml:space="preserve">16.5277671813965</t>
@@ -3746,19 +3746,19 @@
     <t xml:space="preserve">17.005256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9298610687256</t>
+    <t xml:space="preserve">16.9298629760742</t>
   </si>
   <si>
     <t xml:space="preserve">16.7371921539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2178230285645</t>
+    <t xml:space="preserve">16.2178211212158</t>
   </si>
   <si>
     <t xml:space="preserve">16.4063014984131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2848377227783</t>
+    <t xml:space="preserve">16.2848358154297</t>
   </si>
   <si>
     <t xml:space="preserve">16.1466178894043</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">16.0712242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1382389068604</t>
+    <t xml:space="preserve">16.138240814209</t>
   </si>
   <si>
     <t xml:space="preserve">15.6398096084595</t>
@@ -3776,19 +3776,19 @@
     <t xml:space="preserve">15.4261980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1288146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1665105819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0785522460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1623229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0366678237915</t>
+    <t xml:space="preserve">15.128812789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1665096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0785512924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1623220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0366687774658</t>
   </si>
   <si>
     <t xml:space="preserve">15.3340511322021</t>
@@ -3800,13 +3800,13 @@
     <t xml:space="preserve">15.0701761245728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8565626144409</t>
+    <t xml:space="preserve">14.8565635681152</t>
   </si>
   <si>
     <t xml:space="preserve">14.6094427108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8356189727783</t>
+    <t xml:space="preserve">14.8356199264526</t>
   </si>
   <si>
     <t xml:space="preserve">14.8775053024292</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">14.8021125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9235782623291</t>
+    <t xml:space="preserve">14.9235792160034</t>
   </si>
   <si>
     <t xml:space="preserve">15.0743646621704</t>
@@ -5193,6 +5193,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.0599994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3299999237061</t>
   </si>
 </sst>
 </file>
@@ -61538,7 +61541,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6494328704</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>1743425</v>
@@ -61559,6 +61562,32 @@
         <v>1726</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6493055556</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>4118207</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>23.1000003814697</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>23.1000003814697</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>23.3299999237061</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -44,43 +44,43 @@
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70897769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52511882781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50732612609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4064998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13960647583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27008819580078</t>
+    <t xml:space="preserve">9.70897960662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52511787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50732517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40649890899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13960552215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27008724212646</t>
   </si>
   <si>
     <t xml:space="preserve">9.45394706726074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34125900268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13367652893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93795490264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00319480895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64733600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80747413635254</t>
+    <t xml:space="preserve">9.34125804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13367557525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93795394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00319290161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64733695983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80747222900391</t>
   </si>
   <si>
     <t xml:space="preserve">8.84898853302002</t>
@@ -89,121 +89,121 @@
     <t xml:space="preserve">8.66512870788574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39230442047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27961730957031</t>
+    <t xml:space="preserve">8.39230537414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27961826324463</t>
   </si>
   <si>
     <t xml:space="preserve">7.94155311584473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17879009246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03644847869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73396825790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54417753219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4611439704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25949287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03411531448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74943017959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10528564453125</t>
+    <t xml:space="preserve">8.17879104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03644752502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73396921157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54417896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114444732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25949239730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0341157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74943113327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10528802871704</t>
   </si>
   <si>
     <t xml:space="preserve">6.50032949447632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61301803588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87991142272949</t>
+    <t xml:space="preserve">6.61301755905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87991285324097</t>
   </si>
   <si>
     <t xml:space="preserve">6.90363550186157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06377172470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01632356643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94515132904053</t>
+    <t xml:space="preserve">7.06376981735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01632404327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94515180587769</t>
   </si>
   <si>
     <t xml:space="preserve">7.19425249099731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18832111358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25356101989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57383346557617</t>
+    <t xml:space="preserve">7.18832063674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25356149673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57383394241333</t>
   </si>
   <si>
     <t xml:space="preserve">7.59755754470825</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65686559677124</t>
+    <t xml:space="preserve">7.65686750411987</t>
   </si>
   <si>
     <t xml:space="preserve">7.77548551559448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76955556869507</t>
+    <t xml:space="preserve">7.76955413818359</t>
   </si>
   <si>
     <t xml:space="preserve">7.6924524307251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55604076385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63314342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69838285446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68652153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24403190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17286014556885</t>
+    <t xml:space="preserve">7.55603981018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63314247131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69838380813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68652057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24403095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17285919189453</t>
   </si>
   <si>
     <t xml:space="preserve">8.12541198730469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21437644958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23216915130615</t>
+    <t xml:space="preserve">8.21437740325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23217010498047</t>
   </si>
   <si>
     <t xml:space="preserve">8.09575653076172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00086212158203</t>
+    <t xml:space="preserve">8.00086307525635</t>
   </si>
   <si>
     <t xml:space="preserve">7.9000358581543</t>
@@ -212,16 +212,16 @@
     <t xml:space="preserve">7.85258817672729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68059015274048</t>
+    <t xml:space="preserve">7.68059110641479</t>
   </si>
   <si>
     <t xml:space="preserve">7.74583148956299</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80513858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7280387878418</t>
+    <t xml:space="preserve">7.80513954162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72803783416748</t>
   </si>
   <si>
     <t xml:space="preserve">7.61535024642944</t>
@@ -230,10 +230,10 @@
     <t xml:space="preserve">7.52638483047485</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28321552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30694007873535</t>
+    <t xml:space="preserve">7.28321647644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30693960189819</t>
   </si>
   <si>
     <t xml:space="preserve">7.14680480957031</t>
@@ -242,34 +242,34 @@
     <t xml:space="preserve">7.35438776016235</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44335222244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46707677841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75176048278809</t>
+    <t xml:space="preserve">7.44335269927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46707582473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75176191329956</t>
   </si>
   <si>
     <t xml:space="preserve">7.81700277328491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79921007156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87038087844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92376041412354</t>
+    <t xml:space="preserve">7.79921054840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87037992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9237585067749</t>
   </si>
   <si>
     <t xml:space="preserve">8.08389663696289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16693019866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11948204040527</t>
+    <t xml:space="preserve">8.16692924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11948013305664</t>
   </si>
   <si>
     <t xml:space="preserve">8.19065284729004</t>
@@ -278,142 +278,142 @@
     <t xml:space="preserve">8.13727378845215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1076192855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89410543441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71024608612061</t>
+    <t xml:space="preserve">8.10761833190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89410352706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71024513244629</t>
   </si>
   <si>
     <t xml:space="preserve">7.66872882843018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85851955413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38404226303101</t>
+    <t xml:space="preserve">7.85851860046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38404178619385</t>
   </si>
   <si>
     <t xml:space="preserve">7.47300720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36031818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41962766647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56197071075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63111686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07113265991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18427753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24713706970215</t>
+    <t xml:space="preserve">7.36031866073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41962862014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56197214126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63111591339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07113170623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18427848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24713802337646</t>
   </si>
   <si>
     <t xml:space="preserve">8.28485298156738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19056415557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14656257629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09627628326416</t>
+    <t xml:space="preserve">8.1905632019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14656162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09627532958984</t>
   </si>
   <si>
     <t xml:space="preserve">7.86998224258423</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85740995407104</t>
+    <t xml:space="preserve">7.85740900039673</t>
   </si>
   <si>
     <t xml:space="preserve">7.98941421508789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1402759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10256195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73797845840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48654079437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27281904220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29796171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21624517440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49911212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72540521621704</t>
+    <t xml:space="preserve">8.14027690887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10256099700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73797655105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48653984069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27281856536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29796266555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2162446975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49911165237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72540426254272</t>
   </si>
   <si>
     <t xml:space="preserve">7.86369514465332</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90769624710083</t>
+    <t xml:space="preserve">7.90769720077515</t>
   </si>
   <si>
     <t xml:space="preserve">6.86423301696777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28278493881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38021612167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53107929229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63165426254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70708608627319</t>
+    <t xml:space="preserve">6.2827844619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38021659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53107833862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63165378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70708560943604</t>
   </si>
   <si>
     <t xml:space="preserve">6.51850652694702</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39278936386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16963768005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18220996856689</t>
+    <t xml:space="preserve">6.39278841018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16963815689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18221044540405</t>
   </si>
   <si>
     <t xml:space="preserve">6.66308355331421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71337127685547</t>
+    <t xml:space="preserve">6.71337080001831</t>
   </si>
   <si>
     <t xml:space="preserve">7.05281114578247</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98366641998291</t>
+    <t xml:space="preserve">6.98366546630859</t>
   </si>
   <si>
     <t xml:space="preserve">7.16595697402954</t>
@@ -422,46 +422,46 @@
     <t xml:space="preserve">7.0968132019043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13452863693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04652547836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081287384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06538248062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97109317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10309886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9082350730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40482330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3733925819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08424043655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36710834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51796865463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60597324371338</t>
+    <t xml:space="preserve">7.13452959060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0465259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081335067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06538391113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138185501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97109460830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10309839248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90823364257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4048228263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37339305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08424139022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36710691452026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51796913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60597229003906</t>
   </si>
   <si>
     <t xml:space="preserve">7.61225748062134</t>
@@ -470,28 +470,28 @@
     <t xml:space="preserve">7.65625953674316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38596487045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18481492996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20367383956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02766752243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34196472167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31682014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10938453674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03395318984985</t>
+    <t xml:space="preserve">7.38596534729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18481636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20367431640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02766847610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34196376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31682062149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10938549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0339527130127</t>
   </si>
   <si>
     <t xml:space="preserve">6.89566230773926</t>
@@ -500,43 +500,43 @@
     <t xml:space="preserve">7.07166910171509</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24138879776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29167604446411</t>
+    <t xml:space="preserve">7.24139022827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29167699813843</t>
   </si>
   <si>
     <t xml:space="preserve">7.23510408401489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17852926254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27910280227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46139764785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56825733184814</t>
+    <t xml:space="preserve">7.17852973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2791051864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46139574050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56825685501099</t>
   </si>
   <si>
     <t xml:space="preserve">6.98995208740234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91452074050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01509571075439</t>
+    <t xml:space="preserve">6.91452121734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01509523391724</t>
   </si>
   <si>
     <t xml:space="preserve">7.09052658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87680530548096</t>
+    <t xml:space="preserve">7.04023933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87680387496948</t>
   </si>
   <si>
     <t xml:space="preserve">6.84537601470947</t>
@@ -548,85 +548,85 @@
     <t xml:space="preserve">6.88937664031982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82651662826538</t>
+    <t xml:space="preserve">6.8265175819397</t>
   </si>
   <si>
     <t xml:space="preserve">6.79508829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77622938156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909776687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15338563919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14709997177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282598495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47396898269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50539779663086</t>
+    <t xml:space="preserve">6.7762303352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05909729003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15338706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1471004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282503128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47396850585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5053973197937</t>
   </si>
   <si>
     <t xml:space="preserve">7.59968709945679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58082962036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6436882019043</t>
+    <t xml:space="preserve">7.58082866668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64368724822998</t>
   </si>
   <si>
     <t xml:space="preserve">7.62482976913452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44882535934448</t>
+    <t xml:space="preserve">7.44882392883301</t>
   </si>
   <si>
     <t xml:space="preserve">7.39853715896606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28539133071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95852136611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12824296951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39225149154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37967824935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17224264144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11567068099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75683498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66883087158203</t>
+    <t xml:space="preserve">7.28539037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9585223197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12824201583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39225101470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37967920303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17224454879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3231053352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11567115783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75683403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66883182525635</t>
   </si>
   <si>
     <t xml:space="preserve">8.06484508514404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65572452545166</t>
+    <t xml:space="preserve">8.65572357177734</t>
   </si>
   <si>
     <t xml:space="preserve">9.05173587799072</t>
@@ -641,34 +641,34 @@
     <t xml:space="preserve">8.77515506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68715190887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90715980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92601776123047</t>
+    <t xml:space="preserve">8.6871509552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90716075897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92601680755615</t>
   </si>
   <si>
     <t xml:space="preserve">9.00773429870605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9511604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9637336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03287696838379</t>
+    <t xml:space="preserve">8.95116233825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96373462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03287792205811</t>
   </si>
   <si>
     <t xml:space="preserve">9.03916454315186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9197301864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86944389343262</t>
+    <t xml:space="preserve">8.91973209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86944484710693</t>
   </si>
   <si>
     <t xml:space="preserve">8.87573051452637</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">9.02030658721924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08316707611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12716770172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07059383392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08945083618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88830280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85058689117432</t>
+    <t xml:space="preserve">9.08316516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12716674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07059288024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08945178985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88830184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85058784484863</t>
   </si>
   <si>
     <t xml:space="preserve">8.74372577667236</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">8.61172008514404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58657741546631</t>
+    <t xml:space="preserve">8.58657836914062</t>
   </si>
   <si>
     <t xml:space="preserve">8.51743316650391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62429237365723</t>
+    <t xml:space="preserve">8.62429332733154</t>
   </si>
   <si>
     <t xml:space="preserve">8.61800765991211</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">9.69290065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78718948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82490634918213</t>
+    <t xml:space="preserve">9.78719043731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82490539550781</t>
   </si>
   <si>
     <t xml:space="preserve">9.68032836914062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37231922149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26545906066895</t>
+    <t xml:space="preserve">9.37231826782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26545810699463</t>
   </si>
   <si>
     <t xml:space="preserve">9.22774219512939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39117431640625</t>
+    <t xml:space="preserve">9.39117527008057</t>
   </si>
   <si>
     <t xml:space="preserve">9.41631889343262</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">9.04545021057129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11459541320801</t>
+    <t xml:space="preserve">9.11459445953369</t>
   </si>
   <si>
     <t xml:space="preserve">9.28431510925293</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">9.43517875671387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25917148590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29060173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34088802337646</t>
+    <t xml:space="preserve">9.25917053222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29060077667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34088897705078</t>
   </si>
   <si>
     <t xml:space="preserve">9.20888328552246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19002723693848</t>
+    <t xml:space="preserve">9.19002532958984</t>
   </si>
   <si>
     <t xml:space="preserve">9.12088108062744</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">9.02659225463867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86315822601318</t>
+    <t xml:space="preserve">8.8631591796875</t>
   </si>
   <si>
     <t xml:space="preserve">8.49857521057129</t>
@@ -791,49 +791,49 @@
     <t xml:space="preserve">8.63057899475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91344547271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82544326782227</t>
+    <t xml:space="preserve">8.9134464263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82544231414795</t>
   </si>
   <si>
     <t xml:space="preserve">8.9323034286499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16488170623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17745399475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17116737365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15859603881836</t>
+    <t xml:space="preserve">9.16488265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17745494842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17116832733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15859508514404</t>
   </si>
   <si>
     <t xml:space="preserve">9.2465991973877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3660306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18373966217041</t>
+    <t xml:space="preserve">9.36603164672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18374061584473</t>
   </si>
   <si>
     <t xml:space="preserve">9.00144863128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97630500793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83172798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71858310699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31574440002441</t>
+    <t xml:space="preserve">8.97630596160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8317289352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71858215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3157434463501</t>
   </si>
   <si>
     <t xml:space="preserve">9.13345241546631</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">9.4288911819458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58603954315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60489654541016</t>
+    <t xml:space="preserve">9.58604049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60489749908447</t>
   </si>
   <si>
     <t xml:space="preserve">9.63632678985596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61118412017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32831573486328</t>
+    <t xml:space="preserve">9.61118316650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3283166885376</t>
   </si>
   <si>
     <t xml:space="preserve">9.27174377441406</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">9.42260551452637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46032238006592</t>
+    <t xml:space="preserve">9.4603214263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.5106086730957</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">9.73626136779785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57697677612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55043029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52388286590576</t>
+    <t xml:space="preserve">9.57697772979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55042934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52388191223145</t>
   </si>
   <si>
     <t xml:space="preserve">9.33141422271729</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">9.3247766494751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42433071136475</t>
+    <t xml:space="preserve">9.42432975769043</t>
   </si>
   <si>
     <t xml:space="preserve">9.19204044342041</t>
@@ -911,85 +911,85 @@
     <t xml:space="preserve">9.27168273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33805084228516</t>
+    <t xml:space="preserve">9.33804988861084</t>
   </si>
   <si>
     <t xml:space="preserve">9.43760395050049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62343597412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63007259368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56370258331299</t>
+    <t xml:space="preserve">9.62343502044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63007354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5637035369873</t>
   </si>
   <si>
     <t xml:space="preserve">9.68316650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69643974304199</t>
+    <t xml:space="preserve">9.69644069671631</t>
   </si>
   <si>
     <t xml:space="preserve">9.58361434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74953651428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64998245239258</t>
+    <t xml:space="preserve">9.74953460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64998149871826</t>
   </si>
   <si>
     <t xml:space="preserve">9.61679840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64334583282471</t>
+    <t xml:space="preserve">9.64334678649902</t>
   </si>
   <si>
     <t xml:space="preserve">9.68980407714844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7296257019043</t>
+    <t xml:space="preserve">9.72962474822998</t>
   </si>
   <si>
     <t xml:space="preserve">9.7827205657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98846244812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95527935028076</t>
+    <t xml:space="preserve">9.9884614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95527839660645</t>
   </si>
   <si>
     <t xml:space="preserve">9.94864082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.061466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2141141891479</t>
+    <t xml:space="preserve">10.0614671707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2141160964966</t>
   </si>
   <si>
     <t xml:space="preserve">10.2804841995239</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1012887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97518825531006</t>
+    <t xml:space="preserve">10.1344728469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1012897491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97518730163574</t>
   </si>
   <si>
     <t xml:space="preserve">9.93536758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742944717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.19420337677</t>
+    <t xml:space="preserve">10.174295425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1942043304443</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207527160645</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">10.5194101333618</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5725059509277</t>
+    <t xml:space="preserve">10.5725069046021</t>
   </si>
   <si>
     <t xml:space="preserve">10.6720590591431</t>
@@ -1013,37 +1013,37 @@
     <t xml:space="preserve">10.4928636550903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4331321716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2472991943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2871208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269414901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2406625747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2937593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2008409500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1278371810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1145629882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.094651222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1079254150391</t>
+    <t xml:space="preserve">10.4331302642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2473001480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2871217727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2406616210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2937574386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2008419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127836227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1145620346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0946531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1079244613647</t>
   </si>
   <si>
     <t xml:space="preserve">10.0747413635254</t>
@@ -1052,19 +1052,19 @@
     <t xml:space="preserve">9.94200420379639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92873001098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98182582855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0282831192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0880136489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0415573120117</t>
+    <t xml:space="preserve">9.92873096466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98182487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.028284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0880155563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.041558265686</t>
   </si>
   <si>
     <t xml:space="preserve">10.0083723068237</t>
@@ -1073,37 +1073,37 @@
     <t xml:space="preserve">10.3136682510376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3733997344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1676578521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3203058242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402147293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3003950119019</t>
+    <t xml:space="preserve">10.3733987808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1676568984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3203048706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3003940582275</t>
   </si>
   <si>
     <t xml:space="preserve">10.4596786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4994993209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5658683776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3601245880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2672090530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2738466262817</t>
+    <t xml:space="preserve">10.4995002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5658674240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.360125541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2672109603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2738475799561</t>
   </si>
   <si>
     <t xml:space="preserve">10.2539358139038</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">10.4264945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3866729736328</t>
+    <t xml:space="preserve">10.3866720199585</t>
   </si>
   <si>
     <t xml:space="preserve">10.4464044570923</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3800373077393</t>
+    <t xml:space="preserve">10.3800363540649</t>
   </si>
   <si>
     <t xml:space="preserve">10.5592317581177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4530429840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3667640686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.307032585144</t>
+    <t xml:space="preserve">10.4530420303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3667621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3070306777954</t>
   </si>
   <si>
     <t xml:space="preserve">10.4663162231445</t>
@@ -1142,22 +1142,22 @@
     <t xml:space="preserve">10.2074785232544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0481939315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99509906768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0216484069824</t>
+    <t xml:space="preserve">10.0481929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99509811401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0216464996338</t>
   </si>
   <si>
     <t xml:space="preserve">10.0813779830933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.161021232605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1477470397949</t>
+    <t xml:space="preserve">10.1610202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1477460861206</t>
   </si>
   <si>
     <t xml:space="preserve">10.2273893356323</t>
@@ -1175,37 +1175,37 @@
     <t xml:space="preserve">9.88227272033691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3999471664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4065837860107</t>
+    <t xml:space="preserve">10.3999462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4065847396851</t>
   </si>
   <si>
     <t xml:space="preserve">10.5127744674683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4862260818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7317905426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.745062828064</t>
+    <t xml:space="preserve">10.4862270355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7317895889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7450637817383</t>
   </si>
   <si>
     <t xml:space="preserve">10.6388740539551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7517013549805</t>
+    <t xml:space="preserve">10.7517004013062</t>
   </si>
   <si>
     <t xml:space="preserve">10.7649736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6090068817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5990524291992</t>
+    <t xml:space="preserve">10.6090078353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5990533828735</t>
   </si>
   <si>
     <t xml:space="preserve">10.5824604034424</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">10.4198570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1875677108765</t>
+    <t xml:space="preserve">10.1875686645508</t>
   </si>
   <si>
     <t xml:space="preserve">10.2904386520386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373456954956</t>
+    <t xml:space="preserve">10.2373447418213</t>
   </si>
   <si>
     <t xml:space="preserve">10.1975231170654</t>
@@ -1229,49 +1229,49 @@
     <t xml:space="preserve">10.2340259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2240695953369</t>
+    <t xml:space="preserve">10.2240705490112</t>
   </si>
   <si>
     <t xml:space="preserve">9.76944637298584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0647859573364</t>
+    <t xml:space="preserve">10.0647869110107</t>
   </si>
   <si>
     <t xml:space="preserve">10.2771644592285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1643381118774</t>
+    <t xml:space="preserve">10.1643390655518</t>
   </si>
   <si>
     <t xml:space="preserve">10.4364490509033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4132204055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3534898757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.370080947876</t>
+    <t xml:space="preserve">10.4132213592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3534889221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3700828552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.3966283798218</t>
   </si>
   <si>
-    <t xml:space="preserve">10.479588508606</t>
+    <t xml:space="preserve">10.4795894622803</t>
   </si>
   <si>
     <t xml:space="preserve">10.5957345962524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7550182342529</t>
+    <t xml:space="preserve">10.7550191879272</t>
   </si>
   <si>
     <t xml:space="preserve">10.735107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7882022857666</t>
+    <t xml:space="preserve">10.7882032394409</t>
   </si>
   <si>
     <t xml:space="preserve">10.8811187744141</t>
@@ -1295,37 +1295,37 @@
     <t xml:space="preserve">11.176459312439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0370836257935</t>
+    <t xml:space="preserve">11.0370845794678</t>
   </si>
   <si>
     <t xml:space="preserve">11.1100902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.16650390625</t>
+    <t xml:space="preserve">11.1665058135986</t>
   </si>
   <si>
     <t xml:space="preserve">11.1631851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1366376876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9773540496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9906272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8877573013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9508047103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.957444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7384262084961</t>
+    <t xml:space="preserve">11.1366386413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9773530960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9906253814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8877553939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9508056640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9574432373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7384271621704</t>
   </si>
   <si>
     <t xml:space="preserve">10.7749290466309</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">10.7266302108765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6916007995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5654850006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4428758621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.421856880188</t>
+    <t xml:space="preserve">10.6915998458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5654859542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4428768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4218578338623</t>
   </si>
   <si>
     <t xml:space="preserve">10.2607126235962</t>
@@ -1355,61 +1355,61 @@
     <t xml:space="preserve">9.90339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96294498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1941537857056</t>
+    <t xml:space="preserve">9.96294593811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1941528320312</t>
   </si>
   <si>
     <t xml:space="preserve">10.3062534332275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2922401428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.068039894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0925607681274</t>
+    <t xml:space="preserve">10.2922410964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0680389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0925617218018</t>
   </si>
   <si>
     <t xml:space="preserve">9.92791366577148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2186756134033</t>
+    <t xml:space="preserve">10.218674659729</t>
   </si>
   <si>
     <t xml:space="preserve">10.1696310043335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2011594772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3237686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.225682258606</t>
+    <t xml:space="preserve">10.2011585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.323769569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2256813049316</t>
   </si>
   <si>
     <t xml:space="preserve">10.1801404953003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2502021789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1135816574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1871461868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0119886398315</t>
+    <t xml:space="preserve">10.2502040863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.113579750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1871452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0119895935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.029504776001</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93141651153564</t>
+    <t xml:space="preserve">9.93141746520996</t>
   </si>
   <si>
     <t xml:space="preserve">9.92441082000732</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">10.0014801025391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2291841506958</t>
+    <t xml:space="preserve">10.2291831970215</t>
   </si>
   <si>
     <t xml:space="preserve">10.1906499862671</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1451091766357</t>
+    <t xml:space="preserve">10.1451082229614</t>
   </si>
   <si>
     <t xml:space="preserve">10.0645370483398</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">10.1205863952637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2712211608887</t>
+    <t xml:space="preserve">10.271222114563</t>
   </si>
   <si>
     <t xml:space="preserve">10.2782287597656</t>
@@ -1448,31 +1448,31 @@
     <t xml:space="preserve">10.2361907958984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1661281585693</t>
+    <t xml:space="preserve">10.166127204895</t>
   </si>
   <si>
     <t xml:space="preserve">10.3132600784302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3272714614868</t>
+    <t xml:space="preserve">10.3272733688354</t>
   </si>
   <si>
     <t xml:space="preserve">10.3482904434204</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3973350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4779071807861</t>
+    <t xml:space="preserve">10.3973360061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4779081344604</t>
   </si>
   <si>
     <t xml:space="preserve">10.6495609283447</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5444669723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3798189163208</t>
+    <t xml:space="preserve">10.5444660186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3798198699951</t>
   </si>
   <si>
     <t xml:space="preserve">10.4673976898193</t>
@@ -1493,16 +1493,16 @@
     <t xml:space="preserve">10.2887382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1275930404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1486120223999</t>
+    <t xml:space="preserve">10.127592086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1486110687256</t>
   </si>
   <si>
     <t xml:space="preserve">10.2747240066528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3517942428589</t>
+    <t xml:space="preserve">10.3517951965332</t>
   </si>
   <si>
     <t xml:space="preserve">10.4078435897827</t>
@@ -1511,46 +1511,46 @@
     <t xml:space="preserve">10.3447875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0505228042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1836442947388</t>
+    <t xml:space="preserve">10.0505256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1836433410645</t>
   </si>
   <si>
     <t xml:space="preserve">10.3623037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868265151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.369309425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970134735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5339584350586</t>
+    <t xml:space="preserve">10.3868255615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3693103790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970144271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5339574813843</t>
   </si>
   <si>
     <t xml:space="preserve">10.5199460983276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5900077819824</t>
+    <t xml:space="preserve">10.5900068283081</t>
   </si>
   <si>
     <t xml:space="preserve">10.6075239181519</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6180334091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7371406555176</t>
+    <t xml:space="preserve">10.6180324554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7371397018433</t>
   </si>
   <si>
     <t xml:space="preserve">10.8597507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8772649765015</t>
+    <t xml:space="preserve">10.8772659301758</t>
   </si>
   <si>
     <t xml:space="preserve">10.8142099380493</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">10.3097562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3938312530518</t>
+    <t xml:space="preserve">10.3938322067261</t>
   </si>
   <si>
     <t xml:space="preserve">10.3552980422974</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">10.1240892410278</t>
   </si>
   <si>
-    <t xml:space="preserve">10.106575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0049819946289</t>
+    <t xml:space="preserve">10.1065740585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0049829483032</t>
   </si>
   <si>
     <t xml:space="preserve">9.90689468383789</t>
@@ -1583,19 +1583,19 @@
     <t xml:space="preserve">10.0260019302368</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97345352172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8158130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84383678436279</t>
+    <t xml:space="preserve">9.97345447540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81581401824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84383773803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.81230926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68619632720947</t>
+    <t xml:space="preserve">9.68619728088379</t>
   </si>
   <si>
     <t xml:space="preserve">9.6336498260498</t>
@@ -1610,70 +1610,70 @@
     <t xml:space="preserve">9.94192600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0785493850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0365114212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0715427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0820531845093</t>
+    <t xml:space="preserve">10.0785484313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0365123748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0715417861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.082052230835</t>
   </si>
   <si>
     <t xml:space="preserve">10.0470209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98396492004395</t>
+    <t xml:space="preserve">9.98396396636963</t>
   </si>
   <si>
     <t xml:space="preserve">10.1310958862305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92090702056885</t>
+    <t xml:space="preserve">9.92090797424316</t>
   </si>
   <si>
     <t xml:space="preserve">10.0084867477417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96644878387451</t>
+    <t xml:space="preserve">9.9664478302002</t>
   </si>
   <si>
     <t xml:space="preserve">9.98746776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2396926879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2992477416992</t>
+    <t xml:space="preserve">10.2396936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2992467880249</t>
   </si>
   <si>
     <t xml:space="preserve">10.3377828598022</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4323663711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5164413452148</t>
+    <t xml:space="preserve">10.4323673248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5164403915405</t>
   </si>
   <si>
     <t xml:space="preserve">10.4008388519287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98046016693115</t>
+    <t xml:space="preserve">9.98045921325684</t>
   </si>
   <si>
     <t xml:space="preserve">10.0575294494629</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0995683670044</t>
+    <t xml:space="preserve">10.0995674133301</t>
   </si>
   <si>
     <t xml:space="preserve">10.1626243591309</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3202657699585</t>
+    <t xml:space="preserve">10.3202648162842</t>
   </si>
   <si>
     <t xml:space="preserve">10.2817316055298</t>
@@ -1700,88 +1700,88 @@
     <t xml:space="preserve">10.7861843109131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7301349639893</t>
+    <t xml:space="preserve">10.7301340103149</t>
   </si>
   <si>
     <t xml:space="preserve">10.7756748199463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.754656791687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282222747803</t>
+    <t xml:space="preserve">10.7546558380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282232284546</t>
   </si>
   <si>
     <t xml:space="preserve">10.8212156295776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6355495452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845932006836</t>
+    <t xml:space="preserve">10.7161226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6355485916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845922470093</t>
   </si>
   <si>
     <t xml:space="preserve">10.7336368560791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024299621582</t>
+    <t xml:space="preserve">10.5024290084839</t>
   </si>
   <si>
     <t xml:space="preserve">10.5619821548462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6425561904907</t>
+    <t xml:space="preserve">10.6425552368164</t>
   </si>
   <si>
     <t xml:space="preserve">10.7231283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6250400543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6670789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.66357421875</t>
+    <t xml:space="preserve">10.625039100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6670780181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6635732650757</t>
   </si>
   <si>
     <t xml:space="preserve">10.7126178741455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8247194290161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8737621307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.996374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0629320144653</t>
+    <t xml:space="preserve">10.8247184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8737640380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807687759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9963731765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0629329681396</t>
   </si>
   <si>
     <t xml:space="preserve">11.1294927597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.122486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1995544433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0664358139038</t>
+    <t xml:space="preserve">11.1224870681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1995553970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0664348602295</t>
   </si>
   <si>
     <t xml:space="preserve">11.0173921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0699396133423</t>
+    <t xml:space="preserve">11.0699405670166</t>
   </si>
   <si>
     <t xml:space="preserve">11.0454177856445</t>
@@ -1790,22 +1790,22 @@
     <t xml:space="preserve">11.0769453048706</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2135677337646</t>
+    <t xml:space="preserve">11.2135667800903</t>
   </si>
   <si>
     <t xml:space="preserve">11.448278427124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.546365737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5323534011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5043277740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5428638458252</t>
+    <t xml:space="preserve">11.5463666915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5323524475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5043287277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5428647994995</t>
   </si>
   <si>
     <t xml:space="preserve">11.4552850723267</t>
@@ -1823,79 +1823,79 @@
     <t xml:space="preserve">11.6829881668091</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6549644470215</t>
+    <t xml:space="preserve">11.6549634933472</t>
   </si>
   <si>
     <t xml:space="preserve">11.7110147476196</t>
   </si>
   <si>
-    <t xml:space="preserve">11.704008102417</t>
+    <t xml:space="preserve">11.7040071487427</t>
   </si>
   <si>
     <t xml:space="preserve">11.651460647583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6970014572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6794881820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7075109481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7810773849487</t>
+    <t xml:space="preserve">11.6970024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6794872283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7075119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.781078338623</t>
   </si>
   <si>
     <t xml:space="preserve">11.8441352844238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9106941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0508193969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9422225952148</t>
+    <t xml:space="preserve">11.9106931686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0508213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9422216415405</t>
   </si>
   <si>
     <t xml:space="preserve">11.9176998138428</t>
   </si>
   <si>
-    <t xml:space="preserve">11.952733039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0788440704346</t>
+    <t xml:space="preserve">11.9527311325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0788450241089</t>
   </si>
   <si>
     <t xml:space="preserve">12.0473155975342</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1208829879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1173791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1278877258301</t>
+    <t xml:space="preserve">12.1208820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1173801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1278886795044</t>
   </si>
   <si>
     <t xml:space="preserve">12.0192909240723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9737510681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.95973777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.809103012085</t>
+    <t xml:space="preserve">11.9737501144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9597368240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8091020584106</t>
   </si>
   <si>
     <t xml:space="preserve">11.8511400222778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9036874771118</t>
+    <t xml:space="preserve">11.9036884307861</t>
   </si>
   <si>
     <t xml:space="preserve">12.0017747879028</t>
@@ -1904,19 +1904,19 @@
     <t xml:space="preserve">11.9141969680786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0584535598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0806484222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0547542572021</t>
+    <t xml:space="preserve">12.0584526062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0806474685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0547552108765</t>
   </si>
   <si>
     <t xml:space="preserve">11.8032293319702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0399599075317</t>
+    <t xml:space="preserve">12.0399589538574</t>
   </si>
   <si>
     <t xml:space="preserve">11.9031000137329</t>
@@ -1925,22 +1925,22 @@
     <t xml:space="preserve">11.8180265426636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6922626495361</t>
+    <t xml:space="preserve">11.6922616958618</t>
   </si>
   <si>
     <t xml:space="preserve">11.7588424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6256828308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5997896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7551441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6589708328247</t>
+    <t xml:space="preserve">11.6256818771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5997886657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.755145072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.658971786499</t>
   </si>
   <si>
     <t xml:space="preserve">11.6996583938599</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">11.7292509078979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8217239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9437885284424</t>
+    <t xml:space="preserve">11.821722984314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9437875747681</t>
   </si>
   <si>
     <t xml:space="preserve">11.917896270752</t>
@@ -1961,13 +1961,13 @@
     <t xml:space="preserve">11.9696807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9363899230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0103693008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2470979690552</t>
+    <t xml:space="preserve">11.93639087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.010368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2470989227295</t>
   </si>
   <si>
     <t xml:space="preserve">12.3173780441284</t>
@@ -1976,19 +1976,19 @@
     <t xml:space="preserve">12.3395719528198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3469696044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2914848327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2507963180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2138090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3025827407837</t>
+    <t xml:space="preserve">12.3469705581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.291485786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2507972717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.213809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3025817871094</t>
   </si>
   <si>
     <t xml:space="preserve">12.4024534225464</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">12.6502799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5873985290527</t>
+    <t xml:space="preserve">12.5873975753784</t>
   </si>
   <si>
     <t xml:space="preserve">12.661376953125</t>
@@ -2015,16 +2015,16 @@
     <t xml:space="preserve">12.7279577255249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.676173210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7020654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6354827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5023231506348</t>
+    <t xml:space="preserve">12.6761741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7020645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6354837417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5023221969604</t>
   </si>
   <si>
     <t xml:space="preserve">12.5393142700195</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">12.5245170593262</t>
   </si>
   <si>
-    <t xml:space="preserve">12.572603225708</t>
+    <t xml:space="preserve">12.5726022720337</t>
   </si>
   <si>
     <t xml:space="preserve">12.48752784729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5097217559814</t>
+    <t xml:space="preserve">12.5097227096558</t>
   </si>
   <si>
     <t xml:space="preserve">12.3617649078369</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">12.4579381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4690341949463</t>
+    <t xml:space="preserve">12.469033241272</t>
   </si>
   <si>
     <t xml:space="preserve">12.1620244979858</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">11.8291215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8661117553711</t>
+    <t xml:space="preserve">11.8661127090454</t>
   </si>
   <si>
     <t xml:space="preserve">11.932689666748</t>
@@ -2075,28 +2075,28 @@
     <t xml:space="preserve">11.7773370742798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9659814834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9992723464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.113938331604</t>
+    <t xml:space="preserve">11.9659805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9992713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1139373779297</t>
   </si>
   <si>
     <t xml:space="preserve">12.0732498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9585838317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9733781814575</t>
+    <t xml:space="preserve">11.9585847854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9733800888062</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546268463135</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0325613021851</t>
+    <t xml:space="preserve">12.0325622558594</t>
   </si>
   <si>
     <t xml:space="preserve">12.1472272872925</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">12.4542379379272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6095914840698</t>
+    <t xml:space="preserve">12.6095924377441</t>
   </si>
   <si>
     <t xml:space="preserve">12.6539793014526</t>
@@ -2126,13 +2126,13 @@
     <t xml:space="preserve">12.7057638168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8278274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9461936950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9276971817017</t>
+    <t xml:space="preserve">12.8278284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9461917877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.927698135376</t>
   </si>
   <si>
     <t xml:space="preserve">12.853720664978</t>
@@ -2147,31 +2147,31 @@
     <t xml:space="preserve">13.2014179229736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2495031356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.216212272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2864923477173</t>
+    <t xml:space="preserve">13.2495050430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2162132263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2864933013916</t>
   </si>
   <si>
     <t xml:space="preserve">13.2421064376831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2125158309937</t>
+    <t xml:space="preserve">13.212516784668</t>
   </si>
   <si>
     <t xml:space="preserve">13.1533327102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.123740196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9055051803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757862091064</t>
+    <t xml:space="preserve">13.1237411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9055042266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757852554321</t>
   </si>
   <si>
     <t xml:space="preserve">13.0571613311768</t>
@@ -2180,37 +2180,37 @@
     <t xml:space="preserve">13.1459350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.12744140625</t>
+    <t xml:space="preserve">13.1274404525757</t>
   </si>
   <si>
     <t xml:space="preserve">13.1903219223022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.219913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3641710281372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2901906967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3937616348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3900623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4603424072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5935020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787048339844</t>
+    <t xml:space="preserve">13.2199125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3641700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2901926040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3937606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3974618911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3900632858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4603414535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5935029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787057876587</t>
   </si>
   <si>
     <t xml:space="preserve">13.6045999526978</t>
@@ -2222,10 +2222,10 @@
     <t xml:space="preserve">13.6082983016968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.586106300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.489933013916</t>
+    <t xml:space="preserve">13.5861053466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4899339675903</t>
   </si>
   <si>
     <t xml:space="preserve">13.4455461502075</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">13.6859760284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.752555847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.756254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2260179519653</t>
+    <t xml:space="preserve">13.7525568008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7562532424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.226016998291</t>
   </si>
   <si>
     <t xml:space="preserve">14.1890287399292</t>
@@ -2249,22 +2249,22 @@
     <t xml:space="preserve">14.1964263916016</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4257574081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3036956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1816301345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928564071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8339328765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7895441055298</t>
+    <t xml:space="preserve">14.4257593154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3036937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1816282272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928554534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7895450592041</t>
   </si>
   <si>
     <t xml:space="preserve">13.8006429672241</t>
@@ -2273,19 +2273,19 @@
     <t xml:space="preserve">13.7155675888062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8265352249146</t>
+    <t xml:space="preserve">13.8265371322632</t>
   </si>
   <si>
     <t xml:space="preserve">13.8302335739136</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7081699371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5306224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5158271789551</t>
+    <t xml:space="preserve">13.7081708908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5306215286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5158262252808</t>
   </si>
   <si>
     <t xml:space="preserve">13.4936332702637</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">13.4714374542236</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4788360595703</t>
+    <t xml:space="preserve">13.478835105896</t>
   </si>
   <si>
     <t xml:space="preserve">13.5084276199341</t>
@@ -2306,31 +2306,31 @@
     <t xml:space="preserve">13.5676107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6748781204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6933727264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7414608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822757720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0373725891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8191385269165</t>
+    <t xml:space="preserve">13.6748790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6933736801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7414598464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.682276725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.037371635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8191375732422</t>
   </si>
   <si>
     <t xml:space="preserve">13.7599544525146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6230945587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5232238769531</t>
+    <t xml:space="preserve">13.6230955123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5232257843018</t>
   </si>
   <si>
     <t xml:space="preserve">13.6637811660767</t>
@@ -2339,22 +2339,22 @@
     <t xml:space="preserve">13.6341915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4640426635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5343227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5417184829712</t>
+    <t xml:space="preserve">13.4640417098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5343217849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5417175292969</t>
   </si>
   <si>
     <t xml:space="preserve">13.5047302246094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4159545898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2679977416992</t>
+    <t xml:space="preserve">13.4159555435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2679967880249</t>
   </si>
   <si>
     <t xml:space="preserve">13.4196538925171</t>
@@ -2372,13 +2372,13 @@
     <t xml:space="preserve">13.0164728164673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0830526351929</t>
+    <t xml:space="preserve">13.0830516815186</t>
   </si>
   <si>
     <t xml:space="preserve">13.2753963470459</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5565156936646</t>
+    <t xml:space="preserve">13.5565147399902</t>
   </si>
   <si>
     <t xml:space="preserve">13.6415891647339</t>
@@ -2390,22 +2390,22 @@
     <t xml:space="preserve">13.8894166946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931140899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670915603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8981056213379</t>
+    <t xml:space="preserve">13.8931150436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8981075286865</t>
   </si>
   <si>
     <t xml:space="preserve">12.8241291046143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7723436355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0288619995117</t>
+    <t xml:space="preserve">12.7723445892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0288639068604</t>
   </si>
   <si>
     <t xml:space="preserve">11.8883047103882</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">11.640477180481</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2742834091187</t>
+    <t xml:space="preserve">11.274284362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.179407119751</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">10.0240526199341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72573471069336</t>
+    <t xml:space="preserve">8.72573375701904</t>
   </si>
   <si>
     <t xml:space="preserve">8.92917442321777</t>
@@ -2432,13 +2432,13 @@
     <t xml:space="preserve">8.35584259033203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02664089202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68264150619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94156503677368</t>
+    <t xml:space="preserve">8.02663993835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68264102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94156408309937</t>
   </si>
   <si>
     <t xml:space="preserve">8.05623149871826</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">9.21029186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">9.365647315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15480804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14741134643555</t>
+    <t xml:space="preserve">9.36564540863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15480899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14741039276123</t>
   </si>
   <si>
     <t xml:space="preserve">9.18070030212402</t>
@@ -2474,28 +2474,28 @@
     <t xml:space="preserve">9.01424980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28057098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45811939239502</t>
+    <t xml:space="preserve">9.2805700302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4581184387207</t>
   </si>
   <si>
     <t xml:space="preserve">9.52100086212158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71704292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32125949859619</t>
+    <t xml:space="preserve">9.71704196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32125854492188</t>
   </si>
   <si>
     <t xml:space="preserve">9.1659049987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26947402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9994535446167</t>
+    <t xml:space="preserve">9.26947498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99945259094238</t>
   </si>
   <si>
     <t xml:space="preserve">9.2213888168335</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">9.15110874176025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42852687835693</t>
+    <t xml:space="preserve">9.42852783203125</t>
   </si>
   <si>
     <t xml:space="preserve">9.59497833251953</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">9.83910655975342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62826824188232</t>
+    <t xml:space="preserve">9.62826919555664</t>
   </si>
   <si>
     <t xml:space="preserve">9.39523696899414</t>
@@ -2522,10 +2522,10 @@
     <t xml:space="preserve">9.5690860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4211311340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48401165008545</t>
+    <t xml:space="preserve">9.42113018035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48401069641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.59867858886719</t>
@@ -2540,13 +2540,13 @@
     <t xml:space="preserve">9.29166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17700099945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56517791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39567852020264</t>
+    <t xml:space="preserve">9.17700290679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56517887115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39567947387695</t>
   </si>
   <si>
     <t xml:space="preserve">9.44575881958008</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">9.16454315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38027095794678</t>
+    <t xml:space="preserve">9.38027000427246</t>
   </si>
   <si>
     <t xml:space="preserve">9.34560012817383</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">9.6037015914917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80016708374023</t>
+    <t xml:space="preserve">9.80016803741455</t>
   </si>
   <si>
     <t xml:space="preserve">9.84254169464111</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">10.7439727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7902002334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.082971572876</t>
+    <t xml:space="preserve">10.7901992797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0829725265503</t>
   </si>
   <si>
     <t xml:space="preserve">11.1099376678467</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">10.9905185699463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7632341384888</t>
+    <t xml:space="preserve">10.7632350921631</t>
   </si>
   <si>
     <t xml:space="preserve">10.3471899032593</t>
   </si>
   <si>
-    <t xml:space="preserve">10.343337059021</t>
+    <t xml:space="preserve">10.3433361053467</t>
   </si>
   <si>
     <t xml:space="preserve">10.3279275894165</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">10.559063911438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4820184707642</t>
+    <t xml:space="preserve">10.4820175170898</t>
   </si>
   <si>
     <t xml:space="preserve">10.3510417938232</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">10.5012798309326</t>
   </si>
   <si>
-    <t xml:space="preserve">10.220064163208</t>
+    <t xml:space="preserve">10.2200651168823</t>
   </si>
   <si>
     <t xml:space="preserve">10.2470302581787</t>
@@ -2642,13 +2642,13 @@
     <t xml:space="preserve">10.5898818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6977453231812</t>
+    <t xml:space="preserve">10.6977462768555</t>
   </si>
   <si>
     <t xml:space="preserve">10.5975866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3202238082886</t>
+    <t xml:space="preserve">10.3202228546143</t>
   </si>
   <si>
     <t xml:space="preserve">10.3972692489624</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">10.5089845657349</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562915802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.647665977478</t>
+    <t xml:space="preserve">10.5629167556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438140869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6476650238037</t>
   </si>
   <si>
     <t xml:space="preserve">10.5475053787231</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">10.7709379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7170076370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4704618453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4126768112183</t>
+    <t xml:space="preserve">10.7170066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4704608917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4126777648926</t>
   </si>
   <si>
     <t xml:space="preserve">10.4011211395264</t>
@@ -2690,34 +2690,34 @@
     <t xml:space="preserve">9.86950778961182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75393962860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81172466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96581554412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0428600311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78860950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2046546936035</t>
+    <t xml:space="preserve">9.75394058227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81172370910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9658145904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0428590774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78861045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2046556472778</t>
   </si>
   <si>
     <t xml:space="preserve">10.1468706130981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1006422042847</t>
+    <t xml:space="preserve">10.100643157959</t>
   </si>
   <si>
     <t xml:space="preserve">9.94655323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1237573623657</t>
+    <t xml:space="preserve">10.12375831604</t>
   </si>
   <si>
     <t xml:space="preserve">10.039008140564</t>
@@ -2729,52 +2729,52 @@
     <t xml:space="preserve">10.1815423965454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2393255233765</t>
+    <t xml:space="preserve">10.2393264770508</t>
   </si>
   <si>
     <t xml:space="preserve">10.2008028030396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0197458267212</t>
+    <t xml:space="preserve">10.0197467803955</t>
   </si>
   <si>
     <t xml:space="preserve">10.0351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0313034057617</t>
+    <t xml:space="preserve">10.031304359436</t>
   </si>
   <si>
     <t xml:space="preserve">9.98507690429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87721157073975</t>
+    <t xml:space="preserve">9.87721252441406</t>
   </si>
   <si>
     <t xml:space="preserve">9.77320194244385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97737216949463</t>
+    <t xml:space="preserve">9.977370262146</t>
   </si>
   <si>
     <t xml:space="preserve">9.89262199401855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88106536865234</t>
+    <t xml:space="preserve">9.88106441497803</t>
   </si>
   <si>
     <t xml:space="preserve">9.86565685272217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76549625396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49583911895752</t>
+    <t xml:space="preserve">9.7654972076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4958381652832</t>
   </si>
   <si>
     <t xml:space="preserve">9.12602043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07594013214111</t>
+    <t xml:space="preserve">9.07594108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.0374174118042</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">8.96422576904297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89873790740967</t>
+    <t xml:space="preserve">8.89873695373535</t>
   </si>
   <si>
     <t xml:space="preserve">9.24929332733154</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">9.29937171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53436088562012</t>
+    <t xml:space="preserve">9.5343599319458</t>
   </si>
   <si>
     <t xml:space="preserve">9.50354290008545</t>
@@ -2810,28 +2810,28 @@
     <t xml:space="preserve">9.6961555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63837242126465</t>
+    <t xml:space="preserve">9.63837146759033</t>
   </si>
   <si>
     <t xml:space="preserve">9.61525821685791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51509857177734</t>
+    <t xml:space="preserve">9.51509952545166</t>
   </si>
   <si>
     <t xml:space="preserve">9.51124668121338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17995166778564</t>
+    <t xml:space="preserve">9.17995262145996</t>
   </si>
   <si>
     <t xml:space="preserve">9.35330486297607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4033842086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42649745941162</t>
+    <t xml:space="preserve">9.40338325500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4264965057373</t>
   </si>
   <si>
     <t xml:space="preserve">9.19150924682617</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">9.14913463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75234985351562</t>
+    <t xml:space="preserve">8.75235080718994</t>
   </si>
   <si>
     <t xml:space="preserve">8.77931785583496</t>
@@ -2852,34 +2852,34 @@
     <t xml:space="preserve">8.86791896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09520149230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27240753173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39953136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53821277618408</t>
+    <t xml:space="preserve">9.09520244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27240657806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3995304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5382137298584</t>
   </si>
   <si>
     <t xml:space="preserve">10.1391668319702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3857116699219</t>
+    <t xml:space="preserve">10.3857107162476</t>
   </si>
   <si>
     <t xml:space="preserve">10.3703031539917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5051326751709</t>
+    <t xml:space="preserve">10.5051317214966</t>
   </si>
   <si>
     <t xml:space="preserve">10.7593822479248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8865070343018</t>
+    <t xml:space="preserve">10.8865060806274</t>
   </si>
   <si>
     <t xml:space="preserve">10.9635515213013</t>
@@ -2891,13 +2891,13 @@
     <t xml:space="preserve">10.9442911148071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9558477401733</t>
+    <t xml:space="preserve">10.955846786499</t>
   </si>
   <si>
     <t xml:space="preserve">11.0791206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1677217483521</t>
+    <t xml:space="preserve">11.1677227020264</t>
   </si>
   <si>
     <t xml:space="preserve">11.1484613418579</t>
@@ -2906,10 +2906,10 @@
     <t xml:space="preserve">11.0328931808472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.113790512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2255048751831</t>
+    <t xml:space="preserve">11.1137914657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2255058288574</t>
   </si>
   <si>
     <t xml:space="preserve">11.1715745925903</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">11.0598583221436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8518371582031</t>
+    <t xml:space="preserve">10.8518362045288</t>
   </si>
   <si>
     <t xml:space="preserve">10.986665725708</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">11.0136318206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7015981674194</t>
+    <t xml:space="preserve">10.7015972137451</t>
   </si>
   <si>
     <t xml:space="preserve">10.8633937835693</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">11.0675630569458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0290412902832</t>
+    <t xml:space="preserve">11.0290403366089</t>
   </si>
   <si>
     <t xml:space="preserve">10.7208595275879</t>
@@ -2954,10 +2954,10 @@
     <t xml:space="preserve">11.1561651229858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2062454223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0945281982422</t>
+    <t xml:space="preserve">11.206244468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0945291519165</t>
   </si>
   <si>
     <t xml:space="preserve">11.1407556533813</t>
@@ -2972,16 +2972,16 @@
     <t xml:space="preserve">11.290994644165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1792783737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0983800888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8556890487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9828147888184</t>
+    <t xml:space="preserve">11.1792793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0983810424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8556880950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.982813835144</t>
   </si>
   <si>
     <t xml:space="preserve">11.1523122787476</t>
@@ -2993,7 +2993,7 @@
     <t xml:space="preserve">11.880392074585</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9689931869507</t>
+    <t xml:space="preserve">11.968994140625</t>
   </si>
   <si>
     <t xml:space="preserve">12.1115274429321</t>
@@ -3002,13 +3002,13 @@
     <t xml:space="preserve">12.188572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1423454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0961179733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0691537857056</t>
+    <t xml:space="preserve">12.1423463821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.096118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0691528320312</t>
   </si>
   <si>
     <t xml:space="preserve">12.1924247741699</t>
@@ -3026,16 +3026,16 @@
     <t xml:space="preserve">12.0036640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9728469848633</t>
+    <t xml:space="preserve">11.972846031189</t>
   </si>
   <si>
     <t xml:space="preserve">11.9458799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9921064376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2001295089722</t>
+    <t xml:space="preserve">11.9921073913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2001304626465</t>
   </si>
   <si>
     <t xml:space="preserve">11.9805507659912</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">12.1962776184082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2309474945068</t>
+    <t xml:space="preserve">12.2309484481812</t>
   </si>
   <si>
     <t xml:space="preserve">12.3503684997559</t>
@@ -3053,34 +3053,34 @@
     <t xml:space="preserve">12.3850393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3311061859131</t>
+    <t xml:space="preserve">12.3311071395874</t>
   </si>
   <si>
     <t xml:space="preserve">12.7124814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7355947494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8049354553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9166507720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0245161056519</t>
+    <t xml:space="preserve">12.7355966567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8049364089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.916651725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0245151519775</t>
   </si>
   <si>
     <t xml:space="preserve">12.9705829620361</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0129585266113</t>
+    <t xml:space="preserve">13.012957572937</t>
   </si>
   <si>
     <t xml:space="preserve">12.9050951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9898452758789</t>
+    <t xml:space="preserve">12.9898443222046</t>
   </si>
   <si>
     <t xml:space="preserve">12.889684677124</t>
@@ -3089,13 +3089,13 @@
     <t xml:space="preserve">12.9474697113037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9436168670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9628801345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.039924621582</t>
+    <t xml:space="preserve">12.9436159133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9628782272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0399236679077</t>
   </si>
   <si>
     <t xml:space="preserve">13.1439352035522</t>
@@ -3104,19 +3104,19 @@
     <t xml:space="preserve">13.2055702209473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1208219528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2017183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2286853790283</t>
+    <t xml:space="preserve">13.1208209991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2017192840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.228684425354</t>
   </si>
   <si>
     <t xml:space="preserve">13.1786050796509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0707416534424</t>
+    <t xml:space="preserve">13.0707426071167</t>
   </si>
   <si>
     <t xml:space="preserve">13.1516399383545</t>
@@ -3134,16 +3134,16 @@
     <t xml:space="preserve">13.2710599899292</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9782876968384</t>
+    <t xml:space="preserve">12.9782867431641</t>
   </si>
   <si>
     <t xml:space="preserve">13.0014019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9282093048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8550138473511</t>
+    <t xml:space="preserve">12.9282083511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8550128936768</t>
   </si>
   <si>
     <t xml:space="preserve">13.0977077484131</t>
@@ -3155,64 +3155,64 @@
     <t xml:space="preserve">13.13623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2672071456909</t>
+    <t xml:space="preserve">13.2672080993652</t>
   </si>
   <si>
     <t xml:space="preserve">13.3827753067017</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5291614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4135932922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4675254821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5137529373169</t>
+    <t xml:space="preserve">13.5291624069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4135942459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4675245285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5137519836426</t>
   </si>
   <si>
     <t xml:space="preserve">13.5907983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594651222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6216163635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4328546524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.440559387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6062059402466</t>
+    <t xml:space="preserve">13.5946521759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6216144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4328536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4405603408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6062078475952</t>
   </si>
   <si>
     <t xml:space="preserve">13.8105039596558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6797542572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5326585769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6511516571045</t>
+    <t xml:space="preserve">13.6797533035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5326595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6511526107788</t>
   </si>
   <si>
     <t xml:space="preserve">13.7655591964722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7410440444946</t>
+    <t xml:space="preserve">13.7410430908203</t>
   </si>
   <si>
     <t xml:space="preserve">13.8350200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8513650894165</t>
+    <t xml:space="preserve">13.8513641357422</t>
   </si>
   <si>
     <t xml:space="preserve">13.9616832733154</t>
@@ -3221,10 +3221,10 @@
     <t xml:space="preserve">14.0965204238892</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0760908126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0393171310425</t>
+    <t xml:space="preserve">14.0760898590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0393180847168</t>
   </si>
   <si>
     <t xml:space="preserve">13.9943723678589</t>
@@ -3236,19 +3236,19 @@
     <t xml:space="preserve">14.0148010253906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.027060508728</t>
+    <t xml:space="preserve">14.0270614624023</t>
   </si>
   <si>
     <t xml:space="preserve">14.0883483886719</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8023319244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8391056060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7982473373413</t>
+    <t xml:space="preserve">13.8023309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8391065597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.798246383667</t>
   </si>
   <si>
     <t xml:space="preserve">13.6102924346924</t>
@@ -3257,16 +3257,16 @@
     <t xml:space="preserve">13.9044809341431</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6879262924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7369556427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145914077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9453401565552</t>
+    <t xml:space="preserve">13.6879253387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7369565963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145904541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9453411102295</t>
   </si>
   <si>
     <t xml:space="preserve">13.89222240448</t>
@@ -3278,19 +3278,19 @@
     <t xml:space="preserve">13.7614727020264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5408306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8963088989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9003944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8309345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7287845611572</t>
+    <t xml:space="preserve">13.5408296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8963079452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9003953933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8309335708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7287836074829</t>
   </si>
   <si>
     <t xml:space="preserve">13.6756687164307</t>
@@ -3302,46 +3302,46 @@
     <t xml:space="preserve">13.3937368392944</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6838407516479</t>
+    <t xml:space="preserve">13.6838397979736</t>
   </si>
   <si>
     <t xml:space="preserve">13.7206144332886</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6920108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7696447372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6266355514526</t>
+    <t xml:space="preserve">13.6920118331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.769645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.626636505127</t>
   </si>
   <si>
     <t xml:space="preserve">13.5449180603027</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5857772827148</t>
+    <t xml:space="preserve">13.5857782363892</t>
   </si>
   <si>
     <t xml:space="preserve">13.7941598892212</t>
   </si>
   <si>
-    <t xml:space="preserve">13.863621711731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9167394638062</t>
+    <t xml:space="preserve">13.8636226654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9167385101318</t>
   </si>
   <si>
     <t xml:space="preserve">14.0515747070312</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1496381759644</t>
+    <t xml:space="preserve">14.14963722229</t>
   </si>
   <si>
     <t xml:space="preserve">14.1986694335938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1169490814209</t>
+    <t xml:space="preserve">14.1169500350952</t>
   </si>
   <si>
     <t xml:space="preserve">14.121036529541</t>
@@ -3350,10 +3350,10 @@
     <t xml:space="preserve">13.949426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0188875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9984560012817</t>
+    <t xml:space="preserve">14.0188884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9984569549561</t>
   </si>
   <si>
     <t xml:space="preserve">13.9575986862183</t>
@@ -3365,10 +3365,10 @@
     <t xml:space="preserve">14.112865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.178240776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1945829391479</t>
+    <t xml:space="preserve">14.1782398223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1945838928223</t>
   </si>
   <si>
     <t xml:space="preserve">14.1537237167358</t>
@@ -3377,19 +3377,19 @@
     <t xml:space="preserve">14.3294200897217</t>
   </si>
   <si>
-    <t xml:space="preserve">14.431568145752</t>
+    <t xml:space="preserve">14.4315690994263</t>
   </si>
   <si>
     <t xml:space="preserve">14.501030921936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2436151504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.423397064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3825368881226</t>
+    <t xml:space="preserve">14.2436141967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4233951568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3825359344482</t>
   </si>
   <si>
     <t xml:space="preserve">14.4765129089355</t>
@@ -3398,19 +3398,19 @@
     <t xml:space="preserve">14.6031789779663</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4519987106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2599592208862</t>
+    <t xml:space="preserve">14.4519968032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2599601745605</t>
   </si>
   <si>
     <t xml:space="preserve">14.6930694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8115606307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9790849685669</t>
+    <t xml:space="preserve">14.8115615844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9790859222412</t>
   </si>
   <si>
     <t xml:space="preserve">15.2201547622681</t>
@@ -3425,16 +3425,16 @@
     <t xml:space="preserve">15.028115272522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0444593429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0158576965332</t>
+    <t xml:space="preserve">15.0444602966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0158586502075</t>
   </si>
   <si>
     <t xml:space="preserve">15.3182201385498</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1874675750732</t>
+    <t xml:space="preserve">15.1874694824219</t>
   </si>
   <si>
     <t xml:space="preserve">15.3304758071899</t>
@@ -3443,10 +3443,10 @@
     <t xml:space="preserve">15.3590793609619</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4407968521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5184307098389</t>
+    <t xml:space="preserve">15.4407987594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5184288024902</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
@@ -3455,28 +3455,28 @@
     <t xml:space="preserve">15.3018760681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3549947738647</t>
+    <t xml:space="preserve">15.3549928665161</t>
   </si>
   <si>
     <t xml:space="preserve">15.4178199768066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4848365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6146793365479</t>
+    <t xml:space="preserve">15.4848346710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6146774291992</t>
   </si>
   <si>
     <t xml:space="preserve">15.5602283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5937356948853</t>
+    <t xml:space="preserve">15.5937376022339</t>
   </si>
   <si>
     <t xml:space="preserve">15.6565647125244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7654647827148</t>
+    <t xml:space="preserve">15.7654628753662</t>
   </si>
   <si>
     <t xml:space="preserve">15.711012840271</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">15.7822189331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7905950546265</t>
+    <t xml:space="preserve">15.7905969619751</t>
   </si>
   <si>
     <t xml:space="preserve">15.8827428817749</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">15.9790782928467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9120626449585</t>
+    <t xml:space="preserve">15.9120607376099</t>
   </si>
   <si>
     <t xml:space="preserve">16.004207611084</t>
@@ -3506,13 +3506,13 @@
     <t xml:space="preserve">15.8953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036855697632</t>
+    <t xml:space="preserve">15.9036846160889</t>
   </si>
   <si>
     <t xml:space="preserve">15.9330043792725</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0419044494629</t>
+    <t xml:space="preserve">16.0419025421143</t>
   </si>
   <si>
     <t xml:space="preserve">16.0293407440186</t>
@@ -3533,25 +3533,25 @@
     <t xml:space="preserve">15.413631439209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3885011672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3466157913208</t>
+    <t xml:space="preserve">15.388503074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3466138839722</t>
   </si>
   <si>
     <t xml:space="preserve">14.7937355041504</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9110136032104</t>
+    <t xml:space="preserve">14.9110126495361</t>
   </si>
   <si>
     <t xml:space="preserve">14.8523740768433</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1874513626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.112060546875</t>
+    <t xml:space="preserve">15.1874532699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1120615005493</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377147674561</t>
@@ -3566,19 +3566,19 @@
     <t xml:space="preserve">15.4932136535645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.568603515625</t>
+    <t xml:space="preserve">15.5686054229736</t>
   </si>
   <si>
     <t xml:space="preserve">15.4974021911621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4555168151855</t>
+    <t xml:space="preserve">15.4555187225342</t>
   </si>
   <si>
     <t xml:space="preserve">15.3047304153442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.405252456665</t>
+    <t xml:space="preserve">15.4052543640137</t>
   </si>
   <si>
     <t xml:space="preserve">15.6104907989502</t>
@@ -3587,10 +3587,10 @@
     <t xml:space="preserve">15.53928565979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.706826210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6481876373291</t>
+    <t xml:space="preserve">15.7068243026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6481857299805</t>
   </si>
   <si>
     <t xml:space="preserve">15.6063003540039</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">15.556040763855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4638910293579</t>
+    <t xml:space="preserve">15.4638929367065</t>
   </si>
   <si>
     <t xml:space="preserve">15.5727939605713</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">15.7026376724243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6858825683594</t>
+    <t xml:space="preserve">15.685884475708</t>
   </si>
   <si>
     <t xml:space="preserve">15.4471397399902</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">15.7947835922241</t>
   </si>
   <si>
-    <t xml:space="preserve">15.681694984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8115386962891</t>
+    <t xml:space="preserve">15.6816930770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8115367889404</t>
   </si>
   <si>
     <t xml:space="preserve">14.9905958175659</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">15.3131074905396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3005399703979</t>
+    <t xml:space="preserve">15.3005418777466</t>
   </si>
   <si>
     <t xml:space="preserve">15.6356229782104</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">15.3759346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8785543441772</t>
+    <t xml:space="preserve">15.8785524368286</t>
   </si>
   <si>
     <t xml:space="preserve">15.5309104919434</t>
@@ -3677,16 +3677,16 @@
     <t xml:space="preserve">14.6303844451904</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9864063262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214834213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4293365478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.366509437561</t>
+    <t xml:space="preserve">14.9864044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214824676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4293375015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3665103912354</t>
   </si>
   <si>
     <t xml:space="preserve">13.5958280563354</t>
@@ -3701,16 +3701,16 @@
     <t xml:space="preserve">14.2073459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">14.073314666748</t>
+    <t xml:space="preserve">14.0733156204224</t>
   </si>
   <si>
     <t xml:space="preserve">14.3832635879517</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7811708450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0031604766846</t>
+    <t xml:space="preserve">14.7811698913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0031595230103</t>
   </si>
   <si>
     <t xml:space="preserve">15.7277679443359</t>
@@ -3719,16 +3719,16 @@
     <t xml:space="preserve">15.6942615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8157253265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9707012176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2680816650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8712253570557</t>
+    <t xml:space="preserve">15.8157272338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9706993103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2680835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.871223449707</t>
   </si>
   <si>
     <t xml:space="preserve">16.5277671813965</t>
@@ -3746,19 +3746,19 @@
     <t xml:space="preserve">17.005256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9298629760742</t>
+    <t xml:space="preserve">16.9298610687256</t>
   </si>
   <si>
     <t xml:space="preserve">16.7371921539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2178211212158</t>
+    <t xml:space="preserve">16.2178230285645</t>
   </si>
   <si>
     <t xml:space="preserve">16.4063014984131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2848358154297</t>
+    <t xml:space="preserve">16.2848377227783</t>
   </si>
   <si>
     <t xml:space="preserve">16.1466178894043</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">16.0712242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.138240814209</t>
+    <t xml:space="preserve">16.1382389068604</t>
   </si>
   <si>
     <t xml:space="preserve">15.6398096084595</t>
@@ -3776,19 +3776,19 @@
     <t xml:space="preserve">15.4261980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.128812789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1665096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0785512924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1623220443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0366687774658</t>
+    <t xml:space="preserve">15.1288146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1665105819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0785522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1623229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0366678237915</t>
   </si>
   <si>
     <t xml:space="preserve">15.3340511322021</t>
@@ -3800,13 +3800,13 @@
     <t xml:space="preserve">15.0701761245728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8565635681152</t>
+    <t xml:space="preserve">14.8565626144409</t>
   </si>
   <si>
     <t xml:space="preserve">14.6094427108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8356199264526</t>
+    <t xml:space="preserve">14.8356189727783</t>
   </si>
   <si>
     <t xml:space="preserve">14.8775053024292</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">14.8021125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9235792160034</t>
+    <t xml:space="preserve">14.9235782623291</t>
   </si>
   <si>
     <t xml:space="preserve">15.0743646621704</t>
@@ -61567,7 +61567,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6493055556</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>4118207</v>
@@ -61588,6 +61588,32 @@
         <v>1727</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6494560185</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>7627637</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>23.0900001525879</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>23.1599998474121</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>23.2299995422363</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1729">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60815238952637</t>
+    <t xml:space="preserve">9.60815143585205</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70897960662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52511787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50732517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40649890899658</t>
+    <t xml:space="preserve">9.7089786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52511882781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50732612609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40649795532227</t>
   </si>
   <si>
     <t xml:space="preserve">9.13960552215576</t>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">9.27008724212646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45394706726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34125804901123</t>
+    <t xml:space="preserve">9.45394611358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34125900268555</t>
   </si>
   <si>
     <t xml:space="preserve">9.13367557525635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93795394897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00319290161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64733695983887</t>
+    <t xml:space="preserve">8.93795299530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00319480895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64733600616455</t>
   </si>
   <si>
     <t xml:space="preserve">8.80747222900391</t>
@@ -86,55 +86,55 @@
     <t xml:space="preserve">8.84898853302002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66512870788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39230537414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27961826324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94155311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17879104614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03644752502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73396921157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54417896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114444732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25949239730835</t>
+    <t xml:space="preserve">8.66512966156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39230632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27961730957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94155406951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17879009246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03644847869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73396968841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54417848587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114587783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25949192047119</t>
   </si>
   <si>
     <t xml:space="preserve">7.0341157913208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74943113327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10528802871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50032949447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61301755905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87991285324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90363550186157</t>
+    <t xml:space="preserve">6.74943017959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10528707504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50033092498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61301803588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87991237640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90363502502441</t>
   </si>
   <si>
     <t xml:space="preserve">7.06376981735229</t>
@@ -143,16 +143,16 @@
     <t xml:space="preserve">7.01632404327393</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94515180587769</t>
+    <t xml:space="preserve">6.945152759552</t>
   </si>
   <si>
     <t xml:space="preserve">7.19425249099731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18832063674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25356149673462</t>
+    <t xml:space="preserve">7.18832159042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2535605430603</t>
   </si>
   <si>
     <t xml:space="preserve">7.57383394241333</t>
@@ -161,67 +161,67 @@
     <t xml:space="preserve">7.59755754470825</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65686750411987</t>
+    <t xml:space="preserve">7.65686655044556</t>
   </si>
   <si>
     <t xml:space="preserve">7.77548551559448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76955413818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6924524307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55603981018066</t>
+    <t xml:space="preserve">7.76955366134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69245338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55604076385498</t>
   </si>
   <si>
     <t xml:space="preserve">7.63314247131348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69838380813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68652057647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24403095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17285919189453</t>
+    <t xml:space="preserve">7.69838428497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68652105331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2440299987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17286014556885</t>
   </si>
   <si>
     <t xml:space="preserve">8.12541198730469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21437740325928</t>
+    <t xml:space="preserve">8.21437835693359</t>
   </si>
   <si>
     <t xml:space="preserve">8.23217010498047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09575653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00086307525635</t>
+    <t xml:space="preserve">8.09575748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00086212158203</t>
   </si>
   <si>
     <t xml:space="preserve">7.9000358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85258817672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68059110641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74583148956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80513954162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72803783416748</t>
+    <t xml:space="preserve">7.85258769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68059015274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74583101272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80514049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72803640365601</t>
   </si>
   <si>
     <t xml:space="preserve">7.61535024642944</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">7.52638483047485</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28321647644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30693960189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14680480957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35438776016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44335269927979</t>
+    <t xml:space="preserve">7.28321695327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30694007873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14680337905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3543872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44335174560547</t>
   </si>
   <si>
     <t xml:space="preserve">7.46707582473755</t>
@@ -251,73 +251,73 @@
     <t xml:space="preserve">7.75176191329956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81700277328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79921054840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87037992477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9237585067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08389663696289</t>
+    <t xml:space="preserve">7.8170018196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7992091178894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87038135528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92375993728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08389568328857</t>
   </si>
   <si>
     <t xml:space="preserve">8.16692924499512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11948013305664</t>
+    <t xml:space="preserve">8.11948204040527</t>
   </si>
   <si>
     <t xml:space="preserve">8.19065284729004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13727378845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10761833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89410352706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71024513244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66872882843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85851860046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38404178619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47300720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36031866073608</t>
+    <t xml:space="preserve">8.13727474212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1076192855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89410495758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71024560928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66872787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85851907730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38404321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4730076789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36031913757324</t>
   </si>
   <si>
     <t xml:space="preserve">7.41962862014771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56197214126587</t>
+    <t xml:space="preserve">7.56197166442871</t>
   </si>
   <si>
     <t xml:space="preserve">7.63111591339111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07113170623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18427848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24713802337646</t>
+    <t xml:space="preserve">8.07113075256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18427753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24713706970215</t>
   </si>
   <si>
     <t xml:space="preserve">8.28485298156738</t>
@@ -326,58 +326,58 @@
     <t xml:space="preserve">8.1905632019043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14656162261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09627532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86998224258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85740900039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98941421508789</t>
+    <t xml:space="preserve">8.14656066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09627342224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86998319625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8574104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98941373825073</t>
   </si>
   <si>
     <t xml:space="preserve">8.14027690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10256099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73797655105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48653984069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27281856536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29796266555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2162446975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49911165237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72540426254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86369514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90769720077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86423301696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2827844619751</t>
+    <t xml:space="preserve">8.10256004333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7379789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48653936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27281808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29796123504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21624517440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49911117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7254056930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86369609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90769815444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86423349380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28278493881226</t>
   </si>
   <si>
     <t xml:space="preserve">6.38021659851074</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">6.53107833862305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63165378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70708560943604</t>
+    <t xml:space="preserve">6.63165426254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70708465576172</t>
   </si>
   <si>
     <t xml:space="preserve">6.51850652694702</t>
@@ -398,43 +398,43 @@
     <t xml:space="preserve">6.39278841018677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16963815689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18221044540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66308355331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71337080001831</t>
+    <t xml:space="preserve">6.16963768005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18220949172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66308403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71337032318115</t>
   </si>
   <si>
     <t xml:space="preserve">7.05281114578247</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98366546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16595697402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0968132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13452959060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0465259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06538391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02138185501099</t>
+    <t xml:space="preserve">6.98366594314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16595792770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09681224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13452816009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04652547836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081430435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06538248062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02138090133667</t>
   </si>
   <si>
     <t xml:space="preserve">6.97109460830688</t>
@@ -443,100 +443,100 @@
     <t xml:space="preserve">7.10309839248657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90823364257812</t>
+    <t xml:space="preserve">6.90823459625244</t>
   </si>
   <si>
     <t xml:space="preserve">7.4048228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37339305877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08424139022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36710691452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51796913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60597229003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61225748062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65625953674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38596534729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18481636047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20367431640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02766847610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34196376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31682062149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10938549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0339527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566230773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07166910171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24139022827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29167699813843</t>
+    <t xml:space="preserve">7.37339210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08424043655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36710643768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51797103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60597276687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61225843429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65625858306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38596487045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18481540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20367336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02766799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3419623374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.316819190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10938310623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03395366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07166957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24138975143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29167604446411</t>
   </si>
   <si>
     <t xml:space="preserve">7.23510408401489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17852973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2791051864624</t>
+    <t xml:space="preserve">7.1785306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27910423278809</t>
   </si>
   <si>
     <t xml:space="preserve">7.46139574050903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56825685501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98995208740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91452121734619</t>
+    <t xml:space="preserve">7.5682578086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9899525642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91452026367188</t>
   </si>
   <si>
     <t xml:space="preserve">7.01509523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09052658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04023933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87680387496948</t>
+    <t xml:space="preserve">7.09052610397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0402398109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87680339813232</t>
   </si>
   <si>
     <t xml:space="preserve">6.84537601470947</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">6.85794734954834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88937664031982</t>
+    <t xml:space="preserve">6.88937711715698</t>
   </si>
   <si>
     <t xml:space="preserve">6.8265175819397</t>
@@ -554,52 +554,52 @@
     <t xml:space="preserve">6.79508829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7762303352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05909729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15338706970215</t>
+    <t xml:space="preserve">6.77622938156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0590968132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15338611602783</t>
   </si>
   <si>
     <t xml:space="preserve">7.1471004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49282503128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47396850585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5053973197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59968709945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58082866668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64368724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62482976913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44882392883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39853715896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28539037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9585223197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12824201583862</t>
+    <t xml:space="preserve">7.49282598495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47396755218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50539684295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59968662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58082914352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6436882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.624831199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44882440567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39853572845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28538990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95852184295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12824249267578</t>
   </si>
   <si>
     <t xml:space="preserve">7.39225101470947</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">7.17224454879761</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3231053352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11567115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75683403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66883182525635</t>
+    <t xml:space="preserve">7.32310581207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11566972732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75683450698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66883277893066</t>
   </si>
   <si>
     <t xml:space="preserve">8.06484508514404</t>
@@ -641,22 +641,22 @@
     <t xml:space="preserve">8.77515506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6871509552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90716075897217</t>
+    <t xml:space="preserve">8.68715190887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90715980529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.92601680755615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00773429870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95116233825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96373462677002</t>
+    <t xml:space="preserve">9.00773525238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95116138458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96373271942139</t>
   </si>
   <si>
     <t xml:space="preserve">9.03287792205811</t>
@@ -665,13 +665,13 @@
     <t xml:space="preserve">9.03916454315186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91973209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86944484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87573051452637</t>
+    <t xml:space="preserve">8.9197301864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8694429397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87572956085205</t>
   </si>
   <si>
     <t xml:space="preserve">9.02030658721924</t>
@@ -683,28 +683,28 @@
     <t xml:space="preserve">9.12716674804688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07059288024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08945178985596</t>
+    <t xml:space="preserve">9.07059383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08945083618164</t>
   </si>
   <si>
     <t xml:space="preserve">8.88830184936523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85058784484863</t>
+    <t xml:space="preserve">8.8505859375</t>
   </si>
   <si>
     <t xml:space="preserve">8.74372577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61172008514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58657836914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51743316650391</t>
+    <t xml:space="preserve">8.61172103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58657741546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51743221282959</t>
   </si>
   <si>
     <t xml:space="preserve">8.62429332733154</t>
@@ -713,22 +713,22 @@
     <t xml:space="preserve">8.61800765991211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95744800567627</t>
+    <t xml:space="preserve">8.95744705200195</t>
   </si>
   <si>
     <t xml:space="preserve">9.69290065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78719043731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82490539550781</t>
+    <t xml:space="preserve">9.78718948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8249044418335</t>
   </si>
   <si>
     <t xml:space="preserve">9.68032836914062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37231826782227</t>
+    <t xml:space="preserve">9.37231636047363</t>
   </si>
   <si>
     <t xml:space="preserve">9.26545810699463</t>
@@ -737,67 +737,67 @@
     <t xml:space="preserve">9.22774219512939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39117527008057</t>
+    <t xml:space="preserve">9.39117622375488</t>
   </si>
   <si>
     <t xml:space="preserve">9.41631889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19631195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14602375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04545021057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11459445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28431510925293</t>
+    <t xml:space="preserve">9.19631290435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14602565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04544925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11459350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28431606292725</t>
   </si>
   <si>
     <t xml:space="preserve">9.43517875671387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25917053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29060077667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34088897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20888328552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19002532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12088108062744</t>
+    <t xml:space="preserve">9.2591724395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29060173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3408899307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20888423919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19002723693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12088203430176</t>
   </si>
   <si>
     <t xml:space="preserve">9.02659225463867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8631591796875</t>
+    <t xml:space="preserve">8.86315822601318</t>
   </si>
   <si>
     <t xml:space="preserve">8.49857521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63057899475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9134464263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82544231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9323034286499</t>
+    <t xml:space="preserve">8.63057994842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91344547271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82544136047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93230247497559</t>
   </si>
   <si>
     <t xml:space="preserve">9.16488265991211</t>
@@ -809,82 +809,82 @@
     <t xml:space="preserve">9.17116832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15859508514404</t>
+    <t xml:space="preserve">9.15859603881836</t>
   </si>
   <si>
     <t xml:space="preserve">9.2465991973877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36603164672852</t>
+    <t xml:space="preserve">9.36603260040283</t>
   </si>
   <si>
     <t xml:space="preserve">9.18374061584473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00144863128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97630596160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8317289352417</t>
+    <t xml:space="preserve">9.0014476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97630405426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83172798156738</t>
   </si>
   <si>
     <t xml:space="preserve">8.71858215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3157434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13345241546631</t>
+    <t xml:space="preserve">9.31574440002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13345336914062</t>
   </si>
   <si>
     <t xml:space="preserve">9.25288581848145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4288911819458</t>
+    <t xml:space="preserve">9.42889213562012</t>
   </si>
   <si>
     <t xml:space="preserve">9.58604049682617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60489749908447</t>
+    <t xml:space="preserve">9.60489654541016</t>
   </si>
   <si>
     <t xml:space="preserve">9.63632678985596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61118316650391</t>
+    <t xml:space="preserve">9.61118412017822</t>
   </si>
   <si>
     <t xml:space="preserve">9.3283166885376</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27174377441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42260551452637</t>
+    <t xml:space="preserve">9.27174282073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42260646820068</t>
   </si>
   <si>
     <t xml:space="preserve">9.4603214263916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5106086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7030782699585</t>
+    <t xml:space="preserve">9.51060962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70307731628418</t>
   </si>
   <si>
     <t xml:space="preserve">9.73626136779785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57697772979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55042934417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52388191223145</t>
+    <t xml:space="preserve">9.57697677612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55043029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52388286590576</t>
   </si>
   <si>
     <t xml:space="preserve">9.33141422271729</t>
@@ -893,31 +893,31 @@
     <t xml:space="preserve">9.21195030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3247766494751</t>
+    <t xml:space="preserve">9.32477760314941</t>
   </si>
   <si>
     <t xml:space="preserve">9.42432975769043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19204044342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13230800628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11239719390869</t>
+    <t xml:space="preserve">9.19203948974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13230895996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11239624023438</t>
   </si>
   <si>
     <t xml:space="preserve">9.27168273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33804988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43760395050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62343502044678</t>
+    <t xml:space="preserve">9.33805084228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43760299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62343597412109</t>
   </si>
   <si>
     <t xml:space="preserve">9.63007354736328</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">9.74953460693359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64998149871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61679840087891</t>
+    <t xml:space="preserve">9.64998245239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61679744720459</t>
   </si>
   <si>
     <t xml:space="preserve">9.64334678649902</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">9.68980407714844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72962474822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7827205657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9884614944458</t>
+    <t xml:space="preserve">9.72962665557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78271961212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98846340179443</t>
   </si>
   <si>
     <t xml:space="preserve">9.95527839660645</t>
@@ -965,70 +965,70 @@
     <t xml:space="preserve">9.94864082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614671707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2141160964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2804841995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344728469849</t>
+    <t xml:space="preserve">10.061469078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2141151428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2804832458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344738006592</t>
   </si>
   <si>
     <t xml:space="preserve">10.1012897491455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97518730163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93536758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.174295425415</t>
+    <t xml:space="preserve">9.97518920898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9353666305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1742944717407</t>
   </si>
   <si>
     <t xml:space="preserve">10.1942043304443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2207527160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5061359405518</t>
+    <t xml:space="preserve">10.2207517623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5061368942261</t>
   </si>
   <si>
     <t xml:space="preserve">10.5194101333618</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5725069046021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6720590591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6322374343872</t>
+    <t xml:space="preserve">10.5725040435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6720581054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6322383880615</t>
   </si>
   <si>
     <t xml:space="preserve">10.4928636550903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4331302642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2473001480103</t>
+    <t xml:space="preserve">10.4331321716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2472991943359</t>
   </si>
   <si>
     <t xml:space="preserve">10.2871217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2406616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2937574386597</t>
+    <t xml:space="preserve">10.326940536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2406625747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2937564849854</t>
   </si>
   <si>
     <t xml:space="preserve">10.2008419036865</t>
@@ -1040,40 +1040,40 @@
     <t xml:space="preserve">10.1145620346069</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0946531295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1079244613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0747413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94200420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92873096466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98182487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.028284072876</t>
+    <t xml:space="preserve">10.0946521759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1079254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0747423171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94200325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92873001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98182582855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0282831192017</t>
   </si>
   <si>
     <t xml:space="preserve">10.0880155563354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.041558265686</t>
+    <t xml:space="preserve">10.0415563583374</t>
   </si>
   <si>
     <t xml:space="preserve">10.0083723068237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3136682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3733987808228</t>
+    <t xml:space="preserve">10.3136672973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3734006881714</t>
   </si>
   <si>
     <t xml:space="preserve">10.1676568984985</t>
@@ -1082,31 +1082,31 @@
     <t xml:space="preserve">10.3203048706055</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3402156829834</t>
+    <t xml:space="preserve">10.3402166366577</t>
   </si>
   <si>
     <t xml:space="preserve">10.3003940582275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4596786499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4995002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5658674240112</t>
+    <t xml:space="preserve">10.4596796035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4994993209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5658683776855</t>
   </si>
   <si>
     <t xml:space="preserve">10.360125541687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2672109603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2738475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2539358139038</t>
+    <t xml:space="preserve">10.2672100067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2738466262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2539367675781</t>
   </si>
   <si>
     <t xml:space="preserve">10.1411094665527</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">10.4264945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3866720199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4464044570923</t>
+    <t xml:space="preserve">10.3866729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4464054107666</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800363540649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5592317581177</t>
+    <t xml:space="preserve">10.559232711792</t>
   </si>
   <si>
     <t xml:space="preserve">10.4530420303345</t>
@@ -1133,34 +1133,34 @@
     <t xml:space="preserve">10.3667621612549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070306777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4663162231445</t>
+    <t xml:space="preserve">10.3070316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4663152694702</t>
   </si>
   <si>
     <t xml:space="preserve">10.2074785232544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0481929779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99509811401367</t>
+    <t xml:space="preserve">10.0481939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99509906768799</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216464996338</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0813779830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1610202789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1477460861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2273893356323</t>
+    <t xml:space="preserve">10.0813770294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1610221862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1477479934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2273874282837</t>
   </si>
   <si>
     <t xml:space="preserve">10.1543836593628</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">10.1211986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9685525894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88227272033691</t>
+    <t xml:space="preserve">9.96855163574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88227367401123</t>
   </si>
   <si>
     <t xml:space="preserve">10.3999462127686</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">10.4065847396851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5127744674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4862270355225</t>
+    <t xml:space="preserve">10.5127725601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4862260818481</t>
   </si>
   <si>
     <t xml:space="preserve">10.7317895889282</t>
@@ -1196,22 +1196,22 @@
     <t xml:space="preserve">10.6388740539551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7517004013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7649736404419</t>
+    <t xml:space="preserve">10.7516994476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7649726867676</t>
   </si>
   <si>
     <t xml:space="preserve">10.6090078353882</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5990533828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5824604034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4198570251465</t>
+    <t xml:space="preserve">10.5990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5824594497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4198579788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.1875686645508</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">10.2904386520386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373447418213</t>
+    <t xml:space="preserve">10.237343788147</t>
   </si>
   <si>
     <t xml:space="preserve">10.1975231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2340259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2240705490112</t>
+    <t xml:space="preserve">10.2340269088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2240695953369</t>
   </si>
   <si>
     <t xml:space="preserve">9.76944637298584</t>
@@ -1238,40 +1238,40 @@
     <t xml:space="preserve">10.0647869110107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2771644592285</t>
+    <t xml:space="preserve">10.2771654129028</t>
   </si>
   <si>
     <t xml:space="preserve">10.1643390655518</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4364490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4132213592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3534889221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3700828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3966283798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795894622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5957345962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7550191879272</t>
+    <t xml:space="preserve">10.4364500045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4132194519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3534898757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3700819015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3966274261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479588508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5957336425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7550182342529</t>
   </si>
   <si>
     <t xml:space="preserve">10.735107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7882032394409</t>
+    <t xml:space="preserve">10.7882022857666</t>
   </si>
   <si>
     <t xml:space="preserve">10.8811187744141</t>
@@ -1280,13 +1280,13 @@
     <t xml:space="preserve">10.9806718826294</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0934982299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2262353897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3191518783569</t>
+    <t xml:space="preserve">11.0934991836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2262363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3191509246826</t>
   </si>
   <si>
     <t xml:space="preserve">11.0868606567383</t>
@@ -1295,25 +1295,25 @@
     <t xml:space="preserve">11.176459312439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0370845794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1100902557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1665058135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1631851196289</t>
+    <t xml:space="preserve">11.0370836257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.110089302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.16650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1631841659546</t>
   </si>
   <si>
     <t xml:space="preserve">11.1366386413574</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9773530960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9906253814697</t>
+    <t xml:space="preserve">10.9773540496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9906272888184</t>
   </si>
   <si>
     <t xml:space="preserve">10.8877553939819</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">10.9574432373047</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7384271621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7749290466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6986064910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7266302108765</t>
+    <t xml:space="preserve">10.7384281158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7749309539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6986045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7266311645508</t>
   </si>
   <si>
     <t xml:space="preserve">10.6915998458862</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">10.5654859542847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4428768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4218578338623</t>
+    <t xml:space="preserve">10.4428758621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.421856880188</t>
   </si>
   <si>
     <t xml:space="preserve">10.2607126235962</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">9.90339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96294593811035</t>
+    <t xml:space="preserve">9.96294498443604</t>
   </si>
   <si>
     <t xml:space="preserve">10.1941528320312</t>
@@ -1364,28 +1364,28 @@
     <t xml:space="preserve">10.3062534332275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2922410964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0680389404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0925617218018</t>
+    <t xml:space="preserve">10.2922401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0680408477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0925607681274</t>
   </si>
   <si>
     <t xml:space="preserve">9.92791366577148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.218674659729</t>
+    <t xml:space="preserve">10.2186756134033</t>
   </si>
   <si>
     <t xml:space="preserve">10.1696310043335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2011585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.323769569397</t>
+    <t xml:space="preserve">10.2011594772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3237686157227</t>
   </si>
   <si>
     <t xml:space="preserve">10.2256813049316</t>
@@ -1394,43 +1394,43 @@
     <t xml:space="preserve">10.1801404953003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2502040863037</t>
+    <t xml:space="preserve">10.2502021789551</t>
   </si>
   <si>
     <t xml:space="preserve">10.113579750061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1871452331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0119895935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.029504776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93141746520996</t>
+    <t xml:space="preserve">10.1871461868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0119886398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93141651153564</t>
   </si>
   <si>
     <t xml:space="preserve">9.92441082000732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.022500038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0014801025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2291831970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1906499862671</t>
+    <t xml:space="preserve">10.0224981307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0014791488647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2291851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1906480789185</t>
   </si>
   <si>
     <t xml:space="preserve">10.1451082229614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0645370483398</t>
+    <t xml:space="preserve">10.0645360946655</t>
   </si>
   <si>
     <t xml:space="preserve">10.0750455856323</t>
@@ -1448,28 +1448,28 @@
     <t xml:space="preserve">10.2361907958984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.166127204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3132600784302</t>
+    <t xml:space="preserve">10.1661281585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3132591247559</t>
   </si>
   <si>
     <t xml:space="preserve">10.3272733688354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3482904434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3973360061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4779081344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6495609283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5444660186768</t>
+    <t xml:space="preserve">10.348292350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3973340988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4779071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6495628356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5444669723511</t>
   </si>
   <si>
     <t xml:space="preserve">10.3798198699951</t>
@@ -1478,40 +1478,40 @@
     <t xml:space="preserve">10.4673976898193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4288635253906</t>
+    <t xml:space="preserve">10.4288644790649</t>
   </si>
   <si>
     <t xml:space="preserve">10.4989261627197</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5234489440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5059328079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2887382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.127592086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1486110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2747240066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3517951965332</t>
+    <t xml:space="preserve">10.5234479904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5059337615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2887372970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1275930404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1486101150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2747249603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517942428589</t>
   </si>
   <si>
     <t xml:space="preserve">10.4078435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3447875976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0505256652832</t>
+    <t xml:space="preserve">10.3447885513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0505237579346</t>
   </si>
   <si>
     <t xml:space="preserve">10.1836433410645</t>
@@ -1520,25 +1520,25 @@
     <t xml:space="preserve">10.3623037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3868255615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3693103790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970144271851</t>
+    <t xml:space="preserve">10.3868265151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.369309425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970153808594</t>
   </si>
   <si>
     <t xml:space="preserve">10.5339574813843</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5199460983276</t>
+    <t xml:space="preserve">10.5199451446533</t>
   </si>
   <si>
     <t xml:space="preserve">10.5900068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6075239181519</t>
+    <t xml:space="preserve">10.6075248718262</t>
   </si>
   <si>
     <t xml:space="preserve">10.6180324554443</t>
@@ -1547,19 +1547,19 @@
     <t xml:space="preserve">10.7371397018433</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8597507476807</t>
+    <t xml:space="preserve">10.8597497940063</t>
   </si>
   <si>
     <t xml:space="preserve">10.8772659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8142099380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4253606796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3097562789917</t>
+    <t xml:space="preserve">10.814208984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4253597259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.309757232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.3938322067261</t>
@@ -1571,106 +1571,106 @@
     <t xml:space="preserve">10.1240892410278</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1065740585327</t>
+    <t xml:space="preserve">10.106575012207</t>
   </si>
   <si>
     <t xml:space="preserve">10.0049829483032</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90689468383789</t>
+    <t xml:space="preserve">9.90689563751221</t>
   </si>
   <si>
     <t xml:space="preserve">10.0260019302368</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97345447540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81581401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84383773803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81230926513672</t>
+    <t xml:space="preserve">9.97345352172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8158130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84383869171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81231021881104</t>
   </si>
   <si>
     <t xml:space="preserve">9.68619728088379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6336498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84033584594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73173713684082</t>
+    <t xml:space="preserve">9.63364887237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84033489227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73173809051514</t>
   </si>
   <si>
     <t xml:space="preserve">9.94192600250244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0785484313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0365123748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0715417861938</t>
+    <t xml:space="preserve">10.0785503387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0365114212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0715427398682</t>
   </si>
   <si>
     <t xml:space="preserve">10.082052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0470209121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98396396636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1310958862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92090797424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0084867477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9664478302002</t>
+    <t xml:space="preserve">10.0470199584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98396301269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1310968399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92090702056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0084857940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96644878387451</t>
   </si>
   <si>
     <t xml:space="preserve">9.98746776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2396936416626</t>
+    <t xml:space="preserve">10.2396926879883</t>
   </si>
   <si>
     <t xml:space="preserve">10.2992467880249</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3377828598022</t>
+    <t xml:space="preserve">10.3377819061279</t>
   </si>
   <si>
     <t xml:space="preserve">10.4323673248291</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5164403915405</t>
+    <t xml:space="preserve">10.5164432525635</t>
   </si>
   <si>
     <t xml:space="preserve">10.4008388519287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98045921325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0575294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0995674133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1626243591309</t>
+    <t xml:space="preserve">9.98046016693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0575304031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0995683670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1626253128052</t>
   </si>
   <si>
     <t xml:space="preserve">10.3202648162842</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">10.376317024231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4498825073242</t>
+    <t xml:space="preserve">10.4498815536499</t>
   </si>
   <si>
     <t xml:space="preserve">10.474404335022</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">10.6705799102783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.768669128418</t>
+    <t xml:space="preserve">10.7686672210693</t>
   </si>
   <si>
     <t xml:space="preserve">10.7861843109131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7301340103149</t>
+    <t xml:space="preserve">10.7301330566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.7756748199463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7546558380127</t>
+    <t xml:space="preserve">10.754656791687</t>
   </si>
   <si>
     <t xml:space="preserve">10.8282232284546</t>
@@ -1715,22 +1715,22 @@
     <t xml:space="preserve">10.8212156295776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7161226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6355485916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845922470093</t>
+    <t xml:space="preserve">10.716121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6355495452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845932006836</t>
   </si>
   <si>
     <t xml:space="preserve">10.7336368560791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024290084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5619821548462</t>
+    <t xml:space="preserve">10.5024299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5619831085205</t>
   </si>
   <si>
     <t xml:space="preserve">10.6425552368164</t>
@@ -1742,55 +1742,55 @@
     <t xml:space="preserve">10.625039100647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6670780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6635732650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7126178741455</t>
+    <t xml:space="preserve">10.6670770645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6635751724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7126188278198</t>
   </si>
   <si>
     <t xml:space="preserve">10.8247184753418</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8737640380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8807687759399</t>
+    <t xml:space="preserve">10.8737630844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8807697296143</t>
   </si>
   <si>
     <t xml:space="preserve">10.9963731765747</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0629329681396</t>
+    <t xml:space="preserve">11.0629320144653</t>
   </si>
   <si>
     <t xml:space="preserve">11.1294927597046</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1224870681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1995553970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0664348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0699405670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0454177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0769453048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2135667800903</t>
+    <t xml:space="preserve">11.122486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1995544433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0664367675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.017391204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.069938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0454168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0769462585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2135677337646</t>
   </si>
   <si>
     <t xml:space="preserve">11.448278427124</t>
@@ -1799,10 +1799,10 @@
     <t xml:space="preserve">11.5463666915894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5323524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5043287277222</t>
+    <t xml:space="preserve">11.5323543548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5043296813965</t>
   </si>
   <si>
     <t xml:space="preserve">11.5428647994995</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">11.4552850723267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4412717819214</t>
+    <t xml:space="preserve">11.4412727355957</t>
   </si>
   <si>
     <t xml:space="preserve">11.4798078536987</t>
@@ -1820,16 +1820,16 @@
     <t xml:space="preserve">11.5603790283203</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6829881668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6549634933472</t>
+    <t xml:space="preserve">11.6829891204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6549644470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.7110147476196</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7040071487427</t>
+    <t xml:space="preserve">11.7040090560913</t>
   </si>
   <si>
     <t xml:space="preserve">11.651460647583</t>
@@ -1838,25 +1838,25 @@
     <t xml:space="preserve">11.6970024108887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6794872283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7075119018555</t>
+    <t xml:space="preserve">11.6794862747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7075109481812</t>
   </si>
   <si>
     <t xml:space="preserve">11.781078338623</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8441352844238</t>
+    <t xml:space="preserve">11.8441343307495</t>
   </si>
   <si>
     <t xml:space="preserve">11.9106931686401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0508213043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9422216415405</t>
+    <t xml:space="preserve">12.0508193969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9422225952148</t>
   </si>
   <si>
     <t xml:space="preserve">11.9176998138428</t>
@@ -1865,46 +1865,46 @@
     <t xml:space="preserve">11.9527311325073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0788450241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0473155975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1208820343018</t>
+    <t xml:space="preserve">12.0788440704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0473146438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1208810806274</t>
   </si>
   <si>
     <t xml:space="preserve">12.1173801422119</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1278886795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0192909240723</t>
+    <t xml:space="preserve">12.1278877258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0192918777466</t>
   </si>
   <si>
     <t xml:space="preserve">11.9737501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9597368240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8091020584106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8511400222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9036884307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017747879028</t>
+    <t xml:space="preserve">11.95973777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.809103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8511409759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9036865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017757415771</t>
   </si>
   <si>
     <t xml:space="preserve">11.9141969680786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0584526062012</t>
+    <t xml:space="preserve">12.0584535598755</t>
   </si>
   <si>
     <t xml:space="preserve">12.0806474685669</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">12.0547552108765</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8032293319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0399589538574</t>
+    <t xml:space="preserve">11.8032302856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0399599075317</t>
   </si>
   <si>
     <t xml:space="preserve">11.9031000137329</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8180265426636</t>
+    <t xml:space="preserve">11.8180246353149</t>
   </si>
   <si>
     <t xml:space="preserve">11.6922616958618</t>
@@ -1934,16 +1934,16 @@
     <t xml:space="preserve">11.6256818771362</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5997886657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.755145072937</t>
+    <t xml:space="preserve">11.5997905731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7551431655884</t>
   </si>
   <si>
     <t xml:space="preserve">11.658971786499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6996583938599</t>
+    <t xml:space="preserve">11.6996593475342</t>
   </si>
   <si>
     <t xml:space="preserve">11.7292509078979</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">11.821722984314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9437875747681</t>
+    <t xml:space="preserve">11.9437885284424</t>
   </si>
   <si>
     <t xml:space="preserve">11.917896270752</t>
@@ -1961,10 +1961,10 @@
     <t xml:space="preserve">11.9696807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">11.93639087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.010368347168</t>
+    <t xml:space="preserve">11.9363899230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0103693008423</t>
   </si>
   <si>
     <t xml:space="preserve">12.2470989227295</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">12.3173780441284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3395719528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3469705581665</t>
+    <t xml:space="preserve">12.3395729064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3469696044922</t>
   </si>
   <si>
     <t xml:space="preserve">12.291485786438</t>
@@ -1985,19 +1985,19 @@
     <t xml:space="preserve">12.2507972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.213809967041</t>
+    <t xml:space="preserve">12.2138090133667</t>
   </si>
   <si>
     <t xml:space="preserve">12.3025817871094</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4024534225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6243886947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6502799987793</t>
+    <t xml:space="preserve">12.4024524688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6243896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6502819061279</t>
   </si>
   <si>
     <t xml:space="preserve">12.5873975753784</t>
@@ -2009,19 +2009,19 @@
     <t xml:space="preserve">12.6983661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7316551208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7279577255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6761741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7020645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6354837417603</t>
+    <t xml:space="preserve">12.7316560745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7279586791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.676173210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7020664215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6354846954346</t>
   </si>
   <si>
     <t xml:space="preserve">12.5023221969604</t>
@@ -2033,19 +2033,19 @@
     <t xml:space="preserve">12.5245170593262</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5726022720337</t>
+    <t xml:space="preserve">12.5726041793823</t>
   </si>
   <si>
     <t xml:space="preserve">12.48752784729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5097227096558</t>
+    <t xml:space="preserve">12.5097217559814</t>
   </si>
   <si>
     <t xml:space="preserve">12.3617649078369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4579381942749</t>
+    <t xml:space="preserve">12.4579362869263</t>
   </si>
   <si>
     <t xml:space="preserve">12.469033241272</t>
@@ -2054,28 +2054,28 @@
     <t xml:space="preserve">12.1620244979858</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0843458175659</t>
+    <t xml:space="preserve">12.0843448638916</t>
   </si>
   <si>
     <t xml:space="preserve">12.0658521652222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1583242416382</t>
+    <t xml:space="preserve">12.1583251953125</t>
   </si>
   <si>
     <t xml:space="preserve">11.8291215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8661127090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.932689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7773370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9659805297852</t>
+    <t xml:space="preserve">11.8661117553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9326906204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7773380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9659795761108</t>
   </si>
   <si>
     <t xml:space="preserve">11.9992713928223</t>
@@ -2090,19 +2090,19 @@
     <t xml:space="preserve">11.9585847854614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9733800888062</t>
+    <t xml:space="preserve">11.9733781814575</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546268463135</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0325622558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1472272872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1842174530029</t>
+    <t xml:space="preserve">12.0325613021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1472291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1842164993286</t>
   </si>
   <si>
     <t xml:space="preserve">12.210108757019</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">12.2397003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4542379379272</t>
+    <t xml:space="preserve">12.4542369842529</t>
   </si>
   <si>
     <t xml:space="preserve">12.6095924377441</t>
@@ -2120,25 +2120,25 @@
     <t xml:space="preserve">12.6539793014526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7242593765259</t>
+    <t xml:space="preserve">12.7242584228516</t>
   </si>
   <si>
     <t xml:space="preserve">12.7057638168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8278284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9461917877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.927698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.853720664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8167314529419</t>
+    <t xml:space="preserve">12.8278274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.946192741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9276990890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8537197113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8167333602905</t>
   </si>
   <si>
     <t xml:space="preserve">13.2310104370117</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">13.2014179229736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2495050430298</t>
+    <t xml:space="preserve">13.2495040893555</t>
   </si>
   <si>
     <t xml:space="preserve">13.2162132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2864933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2421064376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.212516784668</t>
+    <t xml:space="preserve">13.2864942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2421045303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.212513923645</t>
   </si>
   <si>
     <t xml:space="preserve">13.1533327102661</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">13.1237411499023</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9055042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757852554321</t>
+    <t xml:space="preserve">12.9055051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757862091064</t>
   </si>
   <si>
     <t xml:space="preserve">13.0571613311768</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">13.1274404525757</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1903219223022</t>
+    <t xml:space="preserve">13.1903200149536</t>
   </si>
   <si>
     <t xml:space="preserve">13.2199125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3641700744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2901926040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3937606811523</t>
+    <t xml:space="preserve">13.3641719818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2901935577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.393762588501</t>
   </si>
   <si>
     <t xml:space="preserve">13.3974618911743</t>
@@ -2210,22 +2210,22 @@
     <t xml:space="preserve">13.5935029983521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5787057876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6045999526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6119966506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6082983016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5861053466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4899339675903</t>
+    <t xml:space="preserve">13.5787076950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6046009063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6119985580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6083002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5861043930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.489933013916</t>
   </si>
   <si>
     <t xml:space="preserve">13.4455461502075</t>
@@ -2237,64 +2237,64 @@
     <t xml:space="preserve">13.7525568008423</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7562532424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.226016998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1890287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1964263916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4257593154907</t>
+    <t xml:space="preserve">13.756254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2260160446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1890268325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1964244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4257564544678</t>
   </si>
   <si>
     <t xml:space="preserve">14.3036937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1816282272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0928554534912</t>
+    <t xml:space="preserve">14.1816310882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0928544998169</t>
   </si>
   <si>
     <t xml:space="preserve">13.8339319229126</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7895450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006429672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7155675888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8265371322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8302335739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7081708908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5306215286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5158262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4936332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4714374542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.478835105896</t>
+    <t xml:space="preserve">13.7895441055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7155685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8265352249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8302326202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7081699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5306224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5158252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.493631362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4714393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4788360595703</t>
   </si>
   <si>
     <t xml:space="preserve">13.5084276199341</t>
@@ -2303,55 +2303,55 @@
     <t xml:space="preserve">13.5824069976807</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5676107406616</t>
+    <t xml:space="preserve">13.5676097869873</t>
   </si>
   <si>
     <t xml:space="preserve">13.6748790740967</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6933736801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7414598464966</t>
+    <t xml:space="preserve">13.6933746337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7414608001709</t>
   </si>
   <si>
     <t xml:space="preserve">13.682276725769</t>
   </si>
   <si>
-    <t xml:space="preserve">14.037371635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8191375732422</t>
+    <t xml:space="preserve">14.0373725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8191366195679</t>
   </si>
   <si>
     <t xml:space="preserve">13.7599544525146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6230955123901</t>
+    <t xml:space="preserve">13.6230945587158</t>
   </si>
   <si>
     <t xml:space="preserve">13.5232257843018</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6637811660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6341915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4640417098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5343217849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5417175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5047302246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4159555435181</t>
+    <t xml:space="preserve">13.663782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6341934204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4640407562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5343198776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5417165756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5047283172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4159564971924</t>
   </si>
   <si>
     <t xml:space="preserve">13.2679967880249</t>
@@ -2363,58 +2363,58 @@
     <t xml:space="preserve">13.1089448928833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4973306655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2347087860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0164728164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0830516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2753963470459</t>
+    <t xml:space="preserve">13.497332572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2347078323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.016471862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0830535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2753953933716</t>
   </si>
   <si>
     <t xml:space="preserve">13.5565147399902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6415891647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8487272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8894166946411</t>
+    <t xml:space="preserve">13.6415901184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8487253189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8894157409668</t>
   </si>
   <si>
     <t xml:space="preserve">13.8931150436401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9670934677124</t>
+    <t xml:space="preserve">13.9670925140381</t>
   </si>
   <si>
     <t xml:space="preserve">12.8981075286865</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8241291046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7723445892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0288639068604</t>
+    <t xml:space="preserve">12.8241281509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7723436355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.028862953186</t>
   </si>
   <si>
     <t xml:space="preserve">11.8883047103882</t>
   </si>
   <si>
-    <t xml:space="preserve">11.640477180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.274284362793</t>
+    <t xml:space="preserve">11.6404762268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2742853164673</t>
   </si>
   <si>
     <t xml:space="preserve">10.179407119751</t>
@@ -2423,22 +2423,22 @@
     <t xml:space="preserve">10.0240526199341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72573375701904</t>
+    <t xml:space="preserve">8.72573471069336</t>
   </si>
   <si>
     <t xml:space="preserve">8.92917442321777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35584259033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02663993835449</t>
+    <t xml:space="preserve">8.35584354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02664089202881</t>
   </si>
   <si>
     <t xml:space="preserve">7.68264102935791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94156408309937</t>
+    <t xml:space="preserve">7.94156455993652</t>
   </si>
   <si>
     <t xml:space="preserve">8.05623149871826</t>
@@ -2450,19 +2450,19 @@
     <t xml:space="preserve">8.95136833190918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21029186248779</t>
+    <t xml:space="preserve">9.21029090881348</t>
   </si>
   <si>
     <t xml:space="preserve">9.36564540863037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15480899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14741039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18070030212402</t>
+    <t xml:space="preserve">9.15480804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14740943908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18069934844971</t>
   </si>
   <si>
     <t xml:space="preserve">8.94766902923584</t>
@@ -2474,28 +2474,28 @@
     <t xml:space="preserve">9.01424980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2805700302124</t>
+    <t xml:space="preserve">9.28057098388672</t>
   </si>
   <si>
     <t xml:space="preserve">9.4581184387207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52100086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71704196929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32125854492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1659049987793</t>
+    <t xml:space="preserve">9.52099990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71704292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32125949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16590595245361</t>
   </si>
   <si>
     <t xml:space="preserve">9.26947498321533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99945259094238</t>
+    <t xml:space="preserve">8.9994535446167</t>
   </si>
   <si>
     <t xml:space="preserve">9.2213888168335</t>
@@ -2510,37 +2510,37 @@
     <t xml:space="preserve">9.59497833251953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83910655975342</t>
+    <t xml:space="preserve">9.8391056060791</t>
   </si>
   <si>
     <t xml:space="preserve">9.62826919555664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39523696899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5690860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42113018035889</t>
+    <t xml:space="preserve">9.39523792266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56908702850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42112922668457</t>
   </si>
   <si>
     <t xml:space="preserve">9.48401069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59867858886719</t>
+    <t xml:space="preserve">9.59867763519287</t>
   </si>
   <si>
     <t xml:space="preserve">9.5136022567749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47291469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29166793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17700290679932</t>
+    <t xml:space="preserve">9.47291374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29166889190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17700099945068</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517887115479</t>
@@ -2558,16 +2558,16 @@
     <t xml:space="preserve">9.38027000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34560012817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6037015914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80016803741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84254169464111</t>
+    <t xml:space="preserve">9.34559917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60370254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80016708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84254264831543</t>
   </si>
   <si>
     <t xml:space="preserve">9.61911010742188</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">9.93114471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2316198348999</t>
+    <t xml:space="preserve">10.2316207885742</t>
   </si>
   <si>
     <t xml:space="preserve">10.7439727783203</t>
@@ -2585,22 +2585,22 @@
     <t xml:space="preserve">10.7901992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0829725265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1099376678467</t>
+    <t xml:space="preserve">11.0829734802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.109938621521</t>
   </si>
   <si>
     <t xml:space="preserve">10.9905185699463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7632350921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3471899032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3433361053467</t>
+    <t xml:space="preserve">10.7632341384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.347188949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.343337059021</t>
   </si>
   <si>
     <t xml:space="preserve">10.3279275894165</t>
@@ -2609,28 +2609,28 @@
     <t xml:space="preserve">10.559063911438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4820175170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3510417938232</t>
+    <t xml:space="preserve">10.4820184707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3510408401489</t>
   </si>
   <si>
     <t xml:space="preserve">10.4897232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5012798309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2200651168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2470302581787</t>
+    <t xml:space="preserve">10.5012807846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.220064163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2470293045044</t>
   </si>
   <si>
     <t xml:space="preserve">10.3394842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3780069351196</t>
+    <t xml:space="preserve">10.3780078887939</t>
   </si>
   <si>
     <t xml:space="preserve">10.3741550445557</t>
@@ -2645,40 +2645,40 @@
     <t xml:space="preserve">10.6977462768555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3202228546143</t>
+    <t xml:space="preserve">10.5975875854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3202238082886</t>
   </si>
   <si>
     <t xml:space="preserve">10.3972692489624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5089845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5629167556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6438140869141</t>
+    <t xml:space="preserve">10.5089855194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5629148483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6438131332397</t>
   </si>
   <si>
     <t xml:space="preserve">10.6476650238037</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5475053787231</t>
+    <t xml:space="preserve">10.5475063323975</t>
   </si>
   <si>
     <t xml:space="preserve">10.616847038269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7709379196167</t>
+    <t xml:space="preserve">10.770938873291</t>
   </si>
   <si>
     <t xml:space="preserve">10.7170066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4704608917236</t>
+    <t xml:space="preserve">10.4704627990723</t>
   </si>
   <si>
     <t xml:space="preserve">10.4126777648926</t>
@@ -2687,19 +2687,19 @@
     <t xml:space="preserve">10.4011211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86950778961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75394058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81172370910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9658145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0428590774536</t>
+    <t xml:space="preserve">9.86950874328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75393962860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81172466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96581363677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0428600311279</t>
   </si>
   <si>
     <t xml:space="preserve">9.78861045837402</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">10.1468706130981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.100643157959</t>
+    <t xml:space="preserve">10.1006441116333</t>
   </si>
   <si>
     <t xml:space="preserve">9.94655323028564</t>
@@ -2729,40 +2729,40 @@
     <t xml:space="preserve">10.1815423965454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2393264770508</t>
+    <t xml:space="preserve">10.2393255233765</t>
   </si>
   <si>
     <t xml:space="preserve">10.2008028030396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0197467803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0351552963257</t>
+    <t xml:space="preserve">10.0197458267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0351543426514</t>
   </si>
   <si>
     <t xml:space="preserve">10.031304359436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98507690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87721252441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77320194244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.977370262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89262199401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88106441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86565685272217</t>
+    <t xml:space="preserve">9.98507595062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87721157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77320098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97737121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89262104034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88106536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86565494537354</t>
   </si>
   <si>
     <t xml:space="preserve">9.7654972076416</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">9.07594108581543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0374174118042</t>
+    <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
     <t xml:space="preserve">8.96422576904297</t>
@@ -2807,22 +2807,22 @@
     <t xml:space="preserve">9.50354290008545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6961555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63837146759033</t>
+    <t xml:space="preserve">9.69615650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63837337493896</t>
   </si>
   <si>
     <t xml:space="preserve">9.61525821685791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51509952545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51124668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17995262145996</t>
+    <t xml:space="preserve">9.51510047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51124858856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17995071411133</t>
   </si>
   <si>
     <t xml:space="preserve">9.35330486297607</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">9.40338325500488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4264965057373</t>
+    <t xml:space="preserve">9.42649745941162</t>
   </si>
   <si>
     <t xml:space="preserve">9.19150924682617</t>
@@ -2840,73 +2840,73 @@
     <t xml:space="preserve">9.20306491851807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14913463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75235080718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77931785583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86791896820068</t>
+    <t xml:space="preserve">9.14913368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75234985351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77931594848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.867919921875</t>
   </si>
   <si>
     <t xml:space="preserve">9.09520244598389</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27240657806396</t>
+    <t xml:space="preserve">9.27240562438965</t>
   </si>
   <si>
     <t xml:space="preserve">9.3995304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5382137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1391668319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3857107162476</t>
+    <t xml:space="preserve">9.53821468353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1391658782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3857116699219</t>
   </si>
   <si>
     <t xml:space="preserve">10.3703031539917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5051317214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7593822479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8865060806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9635515213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8402795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9442911148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.955846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0791206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1677227020264</t>
+    <t xml:space="preserve">10.5051326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7593812942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8865070343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9635524749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8402786254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9442901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9558477401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.079119682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1677217483521</t>
   </si>
   <si>
     <t xml:space="preserve">11.1484613418579</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1137914657593</t>
+    <t xml:space="preserve">11.0328912734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.113790512085</t>
   </si>
   <si>
     <t xml:space="preserve">11.2255058288574</t>
@@ -2927,16 +2927,16 @@
     <t xml:space="preserve">10.8518362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">10.986665725708</t>
+    <t xml:space="preserve">10.9866647720337</t>
   </si>
   <si>
     <t xml:space="preserve">11.0020742416382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0136318206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7015972137451</t>
+    <t xml:space="preserve">11.0136308670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7015981674194</t>
   </si>
   <si>
     <t xml:space="preserve">10.8633937835693</t>
@@ -2948,34 +2948,34 @@
     <t xml:space="preserve">11.0290403366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7208595275879</t>
+    <t xml:space="preserve">10.7208585739136</t>
   </si>
   <si>
     <t xml:space="preserve">11.1561651229858</t>
   </si>
   <si>
-    <t xml:space="preserve">11.206244468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0945291519165</t>
+    <t xml:space="preserve">11.2062435150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0945281982422</t>
   </si>
   <si>
     <t xml:space="preserve">11.1407556533813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.17542552948</t>
+    <t xml:space="preserve">11.1754264831543</t>
   </si>
   <si>
     <t xml:space="preserve">11.4104146957397</t>
   </si>
   <si>
-    <t xml:space="preserve">11.290994644165</t>
+    <t xml:space="preserve">11.2909936904907</t>
   </si>
   <si>
     <t xml:space="preserve">11.1792793273926</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0983810424805</t>
+    <t xml:space="preserve">11.0983819961548</t>
   </si>
   <si>
     <t xml:space="preserve">10.8556880950928</t>
@@ -2984,49 +2984,49 @@
     <t xml:space="preserve">10.982813835144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1523122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5182790756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.880392074585</t>
+    <t xml:space="preserve">11.1523132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5182781219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8803911209106</t>
   </si>
   <si>
     <t xml:space="preserve">11.968994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1115274429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.188572883606</t>
+    <t xml:space="preserve">12.1115283966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1885719299316</t>
   </si>
   <si>
     <t xml:space="preserve">12.1423463821411</t>
   </si>
   <si>
-    <t xml:space="preserve">12.096118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0691528320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1924247741699</t>
+    <t xml:space="preserve">12.0961179733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0691518783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1924257278442</t>
   </si>
   <si>
     <t xml:space="preserve">12.1346406936646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.061448097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8880968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0036640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.972846031189</t>
+    <t xml:space="preserve">12.0614471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8880958557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0036630630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9728450775146</t>
   </si>
   <si>
     <t xml:space="preserve">11.9458799362183</t>
@@ -3035,43 +3035,43 @@
     <t xml:space="preserve">11.9921073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2001304626465</t>
+    <t xml:space="preserve">12.2001285552979</t>
   </si>
   <si>
     <t xml:space="preserve">11.9805507659912</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1962776184082</t>
+    <t xml:space="preserve">12.1962766647339</t>
   </si>
   <si>
     <t xml:space="preserve">12.2309484481812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3503684997559</t>
+    <t xml:space="preserve">12.3503694534302</t>
   </si>
   <si>
     <t xml:space="preserve">12.3850393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3311071395874</t>
+    <t xml:space="preserve">12.3311061859131</t>
   </si>
   <si>
     <t xml:space="preserve">12.7124814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7355966567993</t>
+    <t xml:space="preserve">12.735595703125</t>
   </si>
   <si>
     <t xml:space="preserve">12.8049364089966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.916651725769</t>
+    <t xml:space="preserve">12.9166507720947</t>
   </si>
   <si>
     <t xml:space="preserve">13.0245151519775</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9705829620361</t>
+    <t xml:space="preserve">12.9705820083618</t>
   </si>
   <si>
     <t xml:space="preserve">13.012957572937</t>
@@ -3080,52 +3080,52 @@
     <t xml:space="preserve">12.9050951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9898443222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.889684677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9474697113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9436159133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9628782272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0399236679077</t>
+    <t xml:space="preserve">12.9898452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8896856307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9474687576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9436168670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9628791809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0399227142334</t>
   </si>
   <si>
     <t xml:space="preserve">13.1439352035522</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2055702209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1208209991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2017192840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.228684425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786050796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0707426071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1516399383545</t>
+    <t xml:space="preserve">13.2055711746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1208219528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2017202377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2286853790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0707416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1516389846802</t>
   </si>
   <si>
     <t xml:space="preserve">13.1631946563721</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1169681549072</t>
+    <t xml:space="preserve">13.1169700622559</t>
   </si>
   <si>
     <t xml:space="preserve">13.1901626586914</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">13.2710599899292</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9782867431641</t>
+    <t xml:space="preserve">12.9782876968384</t>
   </si>
   <si>
     <t xml:space="preserve">13.0014019012451</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">12.9282083511353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8550128936768</t>
+    <t xml:space="preserve">12.8550138473511</t>
   </si>
   <si>
     <t xml:space="preserve">13.0977077484131</t>
@@ -3152,46 +3152,46 @@
     <t xml:space="preserve">12.9744348526001</t>
   </si>
   <si>
-    <t xml:space="preserve">13.13623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2672080993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3827753067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5291624069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4135942459106</t>
+    <t xml:space="preserve">13.1362285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2672071456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3827772140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5291604995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4135932922363</t>
   </si>
   <si>
     <t xml:space="preserve">13.4675245285034</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5137519836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5907983779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5946521759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6216144561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4328536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4405603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6062078475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8105039596558</t>
+    <t xml:space="preserve">13.5137538909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5907974243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5946502685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6216154098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4328556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4405584335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6062068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8105030059814</t>
   </si>
   <si>
     <t xml:space="preserve">13.6797533035278</t>
@@ -3200,10 +3200,10 @@
     <t xml:space="preserve">13.5326595306396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6511526107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7655591964722</t>
+    <t xml:space="preserve">13.6511516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7655582427979</t>
   </si>
   <si>
     <t xml:space="preserve">13.7410430908203</t>
@@ -3218,7 +3218,7 @@
     <t xml:space="preserve">13.9616832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0965204238892</t>
+    <t xml:space="preserve">14.0965213775635</t>
   </si>
   <si>
     <t xml:space="preserve">14.0760898590088</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">14.0393180847168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9943723678589</t>
+    <t xml:space="preserve">13.9943714141846</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066289901733</t>
@@ -3236,25 +3236,25 @@
     <t xml:space="preserve">14.0148010253906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0270614624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0883483886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8023309707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8391065597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.798246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6102924346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044809341431</t>
+    <t xml:space="preserve">14.0270595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0883474349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8023319244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8391056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7982473373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6102933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044799804688</t>
   </si>
   <si>
     <t xml:space="preserve">13.6879253387451</t>
@@ -3272,25 +3272,25 @@
     <t xml:space="preserve">13.89222240448</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0107154846191</t>
+    <t xml:space="preserve">14.0107164382935</t>
   </si>
   <si>
     <t xml:space="preserve">13.7614727020264</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5408296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8963079452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9003953933716</t>
+    <t xml:space="preserve">13.5408315658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8963088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9003944396973</t>
   </si>
   <si>
     <t xml:space="preserve">13.8309335708618</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7287836074829</t>
+    <t xml:space="preserve">13.7287845611572</t>
   </si>
   <si>
     <t xml:space="preserve">13.6756687164307</t>
@@ -3308,28 +3308,28 @@
     <t xml:space="preserve">13.7206144332886</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6920118331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.769645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.626636505127</t>
+    <t xml:space="preserve">13.6920108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7696447372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6266355514526</t>
   </si>
   <si>
     <t xml:space="preserve">13.5449180603027</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5857782363892</t>
+    <t xml:space="preserve">13.5857772827148</t>
   </si>
   <si>
     <t xml:space="preserve">13.7941598892212</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8636226654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9167385101318</t>
+    <t xml:space="preserve">13.863621711731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9167394638062</t>
   </si>
   <si>
     <t xml:space="preserve">14.0515747070312</t>
@@ -3338,115 +3338,115 @@
     <t xml:space="preserve">14.14963722229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1986694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1169500350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.121036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.949426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0188884735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9984569549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9575986862183</t>
+    <t xml:space="preserve">14.1986684799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1169481277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1210374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9494256973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0188875198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9984579086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9575977325439</t>
   </si>
   <si>
     <t xml:space="preserve">13.9861993789673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.112865447998</t>
+    <t xml:space="preserve">14.1128644943237</t>
   </si>
   <si>
     <t xml:space="preserve">14.1782398223877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1945838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1537237167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3294200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4315690994263</t>
+    <t xml:space="preserve">14.1945848464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1537246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3294191360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.431568145752</t>
   </si>
   <si>
     <t xml:space="preserve">14.501030921936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2436141967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4233951568604</t>
+    <t xml:space="preserve">14.243616104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4233961105347</t>
   </si>
   <si>
     <t xml:space="preserve">14.3825359344482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4765129089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6031789779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4519968032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2599601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6930694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8115615844727</t>
+    <t xml:space="preserve">14.4765138626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.603178024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4519987106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2599592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6930685043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8115606307983</t>
   </si>
   <si>
     <t xml:space="preserve">14.9790859222412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2201547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137096405029</t>
+    <t xml:space="preserve">15.220157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137115478516</t>
   </si>
   <si>
     <t xml:space="preserve">15.0526313781738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.028115272522</t>
+    <t xml:space="preserve">15.0281171798706</t>
   </si>
   <si>
     <t xml:space="preserve">15.0444602966309</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158586502075</t>
+    <t xml:space="preserve">15.0158576965332</t>
   </si>
   <si>
     <t xml:space="preserve">15.3182201385498</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1874694824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3304758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3590793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4407987594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5184288024902</t>
+    <t xml:space="preserve">15.1874675750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3304767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3590784072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4407958984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5184297561646</t>
   </si>
   <si>
     <t xml:space="preserve">15.2896165847778</t>
@@ -3458,64 +3458,64 @@
     <t xml:space="preserve">15.3549928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4178199768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4848346710205</t>
+    <t xml:space="preserve">15.417820930481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4848356246948</t>
   </si>
   <si>
     <t xml:space="preserve">15.6146774291992</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5602283477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5937376022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6565647125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7654628753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.711012840271</t>
+    <t xml:space="preserve">15.560230255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5937366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6565637588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7654638290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7110118865967</t>
   </si>
   <si>
     <t xml:space="preserve">15.7822189331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7905969619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8827428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8994960784912</t>
+    <t xml:space="preserve">15.7905960083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8827409744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8994951248169</t>
   </si>
   <si>
     <t xml:space="preserve">15.9790782928467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9120607376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.004207611084</t>
+    <t xml:space="preserve">15.9120616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0042095184326</t>
   </si>
   <si>
     <t xml:space="preserve">15.8953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9330043792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0419025421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0293407440186</t>
+    <t xml:space="preserve">15.9036855697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9330053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0419044494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0293388366699</t>
   </si>
   <si>
     <t xml:space="preserve">16.1172962188721</t>
@@ -3524,19 +3524,19 @@
     <t xml:space="preserve">15.7193918228149</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5811700820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3172960281372</t>
+    <t xml:space="preserve">15.5811710357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3172969818115</t>
   </si>
   <si>
     <t xml:space="preserve">15.413631439209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.388503074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3466138839722</t>
+    <t xml:space="preserve">15.3885011672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3466167449951</t>
   </si>
   <si>
     <t xml:space="preserve">14.7937355041504</t>
@@ -3551,40 +3551,40 @@
     <t xml:space="preserve">15.1874532699585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1120615005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377147674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5895490646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6649408340454</t>
+    <t xml:space="preserve">15.112060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377157211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5895471572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6649417877197</t>
   </si>
   <si>
     <t xml:space="preserve">15.4932136535645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5686054229736</t>
+    <t xml:space="preserve">15.5686044692993</t>
   </si>
   <si>
     <t xml:space="preserve">15.4974021911621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4555187225342</t>
+    <t xml:space="preserve">15.4555158615112</t>
   </si>
   <si>
     <t xml:space="preserve">15.3047304153442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4052543640137</t>
+    <t xml:space="preserve">15.405255317688</t>
   </si>
   <si>
     <t xml:space="preserve">15.6104907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.53928565979</t>
+    <t xml:space="preserve">15.5392847061157</t>
   </si>
   <si>
     <t xml:space="preserve">15.7068243026733</t>
@@ -3593,31 +3593,31 @@
     <t xml:space="preserve">15.6481857299805</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6063003540039</t>
+    <t xml:space="preserve">15.6063013076782</t>
   </si>
   <si>
     <t xml:space="preserve">15.9204378128052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8282918930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4680814743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.556040763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4638929367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5727939605713</t>
+    <t xml:space="preserve">15.8282909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4680833816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5560388565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4638919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5727949142456</t>
   </si>
   <si>
     <t xml:space="preserve">15.7026376724243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.685884475708</t>
+    <t xml:space="preserve">15.6858835220337</t>
   </si>
   <si>
     <t xml:space="preserve">15.4471397399902</t>
@@ -3626,22 +3626,22 @@
     <t xml:space="preserve">15.564416885376</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7947835922241</t>
+    <t xml:space="preserve">15.7947826385498</t>
   </si>
   <si>
     <t xml:space="preserve">15.6816930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8115367889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9905958175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1204357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3131074905396</t>
+    <t xml:space="preserve">15.8115386962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9905939102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.120436668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3131084442139</t>
   </si>
   <si>
     <t xml:space="preserve">15.3005418777466</t>
@@ -3650,67 +3650,67 @@
     <t xml:space="preserve">15.6356229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3675575256348</t>
+    <t xml:space="preserve">15.3675565719604</t>
   </si>
   <si>
     <t xml:space="preserve">15.6230554580688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5979261398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3759346008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8785524368286</t>
+    <t xml:space="preserve">15.5979251861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3759355545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8785533905029</t>
   </si>
   <si>
     <t xml:space="preserve">15.5309104919434</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1790761947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2209596633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6303844451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9864044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5214824676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4293375015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3665103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5958280563354</t>
+    <t xml:space="preserve">15.1790771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2209615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6303853988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9864053726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5214834213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4293365478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.366509437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5958271026611</t>
   </si>
   <si>
     <t xml:space="preserve">13.2900686264038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2073459625244</t>
+    <t xml:space="preserve">13.5497531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2073469161987</t>
   </si>
   <si>
     <t xml:space="preserve">14.0733156204224</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3832635879517</t>
+    <t xml:space="preserve">14.383264541626</t>
   </si>
   <si>
     <t xml:space="preserve">14.7811698913574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0031595230103</t>
+    <t xml:space="preserve">15.0031604766846</t>
   </si>
   <si>
     <t xml:space="preserve">15.7277679443359</t>
@@ -3719,49 +3719,49 @@
     <t xml:space="preserve">15.6942615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8157272338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9706993103027</t>
+    <t xml:space="preserve">15.8157262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9707002639771</t>
   </si>
   <si>
     <t xml:space="preserve">16.2680835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.871223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5277671813965</t>
+    <t xml:space="preserve">16.8712253570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5277690887451</t>
   </si>
   <si>
     <t xml:space="preserve">16.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3989734649658</t>
+    <t xml:space="preserve">17.3989753723145</t>
   </si>
   <si>
     <t xml:space="preserve">17.6837921142578</t>
   </si>
   <si>
-    <t xml:space="preserve">17.005256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298610687256</t>
+    <t xml:space="preserve">17.0052547454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298629760742</t>
   </si>
   <si>
     <t xml:space="preserve">16.7371921539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2178230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063014984131</t>
+    <t xml:space="preserve">16.2178211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4063034057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.2848377227783</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1466178894043</t>
+    <t xml:space="preserve">16.1466159820557</t>
   </si>
   <si>
     <t xml:space="preserve">16.0712242126465</t>
@@ -3773,13 +3773,13 @@
     <t xml:space="preserve">15.6398096084595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4261980056763</t>
+    <t xml:space="preserve">15.426197052002</t>
   </si>
   <si>
     <t xml:space="preserve">15.1288146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1665105819702</t>
+    <t xml:space="preserve">15.1665096282959</t>
   </si>
   <si>
     <t xml:space="preserve">15.0785522460938</t>
@@ -3788,10 +3788,10 @@
     <t xml:space="preserve">15.1623229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0366678237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3340511322021</t>
+    <t xml:space="preserve">15.0366697311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3340501785278</t>
   </si>
   <si>
     <t xml:space="preserve">15.2460918426514</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">15.0701761245728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8565626144409</t>
+    <t xml:space="preserve">14.8565635681152</t>
   </si>
   <si>
     <t xml:space="preserve">14.6094427108765</t>
@@ -3809,13 +3809,13 @@
     <t xml:space="preserve">14.8356189727783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8775053024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8021125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9235782623291</t>
+    <t xml:space="preserve">14.8775062561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8021116256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9235792160034</t>
   </si>
   <si>
     <t xml:space="preserve">15.0743646621704</t>
@@ -3824,25 +3824,25 @@
     <t xml:space="preserve">15.5241460800171</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860931396484</t>
+    <t xml:space="preserve">15.3860921859741</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196914672852</t>
+    <t xml:space="preserve">15.5196905136108</t>
   </si>
   <si>
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1767892837524</t>
+    <t xml:space="preserve">15.1767902374268</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0610036849976</t>
+    <t xml:space="preserve">15.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">14.9942035675049</t>
@@ -3851,7 +3851,7 @@
     <t xml:space="preserve">14.8873262405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.083270072937</t>
+    <t xml:space="preserve">15.0832691192627</t>
   </si>
   <si>
     <t xml:space="preserve">14.9852991104126</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">14.6824750900269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9654960632324</t>
+    <t xml:space="preserve">13.9654970169067</t>
   </si>
   <si>
     <t xml:space="preserve">13.8007249832153</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">13.907603263855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1614398956299</t>
+    <t xml:space="preserve">14.1614408493042</t>
   </si>
   <si>
     <t xml:space="preserve">13.96994972229</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">14.2683200836182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8363513946533</t>
+    <t xml:space="preserve">13.836350440979</t>
   </si>
   <si>
     <t xml:space="preserve">14.0011224746704</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">12.8833484649658</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9724130630493</t>
+    <t xml:space="preserve">12.9724140167236</t>
   </si>
   <si>
     <t xml:space="preserve">12.9546003341675</t>
@@ -3950,37 +3950,37 @@
     <t xml:space="preserve">12.7052173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6829509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7319374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9590539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7007646560669</t>
+    <t xml:space="preserve">12.6829500198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7319364547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9590549468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7007637023926</t>
   </si>
   <si>
     <t xml:space="preserve">12.6562309265137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8610811233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9902267456055</t>
+    <t xml:space="preserve">12.8610820770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9902276992798</t>
   </si>
   <si>
     <t xml:space="preserve">13.2574243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0035877227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0703868865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1817188262939</t>
+    <t xml:space="preserve">13.003586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0703859329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1817178726196</t>
   </si>
   <si>
     <t xml:space="preserve">13.3954753875732</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">13.2440643310547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266481399536</t>
+    <t xml:space="preserve">13.4266490936279</t>
   </si>
   <si>
     <t xml:space="preserve">13.1149196624756</t>
@@ -4022,13 +4022,13 @@
     <t xml:space="preserve">13.0436668395996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1995315551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.039213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9234275817871</t>
+    <t xml:space="preserve">13.1995306015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0392141342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9234285354614</t>
   </si>
   <si>
     <t xml:space="preserve">13.3821153640747</t>
@@ -4043,13 +4043,13 @@
     <t xml:space="preserve">13.07483959198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3153171539307</t>
+    <t xml:space="preserve">13.3153162002563</t>
   </si>
   <si>
     <t xml:space="preserve">13.733925819397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5246210098267</t>
+    <t xml:space="preserve">13.524621963501</t>
   </si>
   <si>
     <t xml:space="preserve">13.6493129730225</t>
@@ -4058,10 +4058,10 @@
     <t xml:space="preserve">13.6003274917603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2841444015503</t>
+    <t xml:space="preserve">13.248517036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.284143447876</t>
   </si>
   <si>
     <t xml:space="preserve">12.8521757125854</t>
@@ -4085,10 +4085,10 @@
     <t xml:space="preserve">12.9145212173462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6517782211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3623142242432</t>
+    <t xml:space="preserve">12.6517772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3623151779175</t>
   </si>
   <si>
     <t xml:space="preserve">12.2420749664307</t>
@@ -4109,19 +4109,19 @@
     <t xml:space="preserve">12.6784973144531</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8254547119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8922548294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525732040405</t>
+    <t xml:space="preserve">12.8254556655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8922557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525722503662</t>
   </si>
   <si>
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173452377319</t>
+    <t xml:space="preserve">13.2173442840576</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4160,13 +4160,13 @@
     <t xml:space="preserve">15.0209245681763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346811294556</t>
+    <t xml:space="preserve">15.2346820831299</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367101669312</t>
+    <t xml:space="preserve">15.1367111206055</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1233501434326</t>
+    <t xml:space="preserve">15.123348236084</t>
   </si>
   <si>
     <t xml:space="preserve">15.0788173675537</t>
@@ -4184,28 +4184,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524948120117</t>
+    <t xml:space="preserve">15.0877237319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524938583374</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326539993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3281993865967</t>
+    <t xml:space="preserve">15.3326549530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.328200340271</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192949295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217205047607</t>
+    <t xml:space="preserve">15.3192939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217195510864</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006853103638</t>
+    <t xml:space="preserve">14.9006843566895</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4250,7 +4250,7 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075654983521</t>
+    <t xml:space="preserve">15.0075645446777</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
@@ -4265,16 +4265,16 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4974250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840660095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6087579727173</t>
+    <t xml:space="preserve">15.49742603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953989028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.608757019043</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115810394287</t>
+    <t xml:space="preserve">15.9561147689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115800857544</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427547454834</t>
+    <t xml:space="preserve">15.9427528381348</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4313,31 +4313,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297912597656</t>
+    <t xml:space="preserve">16.1297931671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698703765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.22776222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500305175781</t>
+    <t xml:space="preserve">16.1698722839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2277641296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500324249268</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544822692871</t>
+    <t xml:space="preserve">16.2544841766357</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034687042236</t>
+    <t xml:space="preserve">16.3034706115723</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476039886475</t>
+    <t xml:space="preserve">16.1476058959961</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4406,7 +4406,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026746749878</t>
+    <t xml:space="preserve">15.9026737213135</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4421,13 +4421,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2901096343994</t>
+    <t xml:space="preserve">16.290111541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216789245605</t>
+    <t xml:space="preserve">16.5216808319092</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4442,16 +4442,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289585113525</t>
+    <t xml:space="preserve">16.8289566040039</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070877075195</t>
+    <t xml:space="preserve">17.0026340484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070896148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4463,7 +4463,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.926929473877</t>
+    <t xml:space="preserve">16.9269275665283</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4475,22 +4475,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4815998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002113342285</t>
+    <t xml:space="preserve">16.4816017150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002094268799</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022384643555</t>
+    <t xml:space="preserve">16.5706653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022365570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -5196,6 +5196,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.3299999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6599998474121</t>
   </si>
 </sst>
 </file>
@@ -61593,7 +61596,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494560185</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>7627637</v>
@@ -61614,6 +61617,32 @@
         <v>1723</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.649525463</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>2770471</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>23.6599998474121</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>23.2800006866455</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>23.1599998474121</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>23.6599998474121</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30122566223145</t>
+    <t xml:space="preserve">9.30122470855713</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39883136749268</t>
+    <t xml:space="preserve">9.39883041381836</t>
   </si>
   <si>
     <t xml:space="preserve">9.22084331512451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2036190032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10601329803467</t>
+    <t xml:space="preserve">9.20361995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10601425170898</t>
   </si>
   <si>
     <t xml:space="preserve">8.84764671325684</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">8.97395992279053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15194606781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0428581237793</t>
+    <t xml:space="preserve">9.15194511413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04285717010498</t>
   </si>
   <si>
     <t xml:space="preserve">8.84190464019775</t>
@@ -80,25 +80,25 @@
     <t xml:space="preserve">8.37110233306885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52612400054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56631183624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832759857178</t>
+    <t xml:space="preserve">8.526123046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56631278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832664489746</t>
   </si>
   <si>
     <t xml:space="preserve">8.12421798706055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01513004302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68786478042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752338409424</t>
+    <t xml:space="preserve">8.01512813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68786430358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752433776855</t>
   </si>
   <si>
     <t xml:space="preserve">7.77972793579102</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">7.48691177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30318355560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22280263900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02759218215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53382349014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87831211090088</t>
+    <t xml:space="preserve">7.30318403244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22280216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02759122848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80941438674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53382301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87831258773804</t>
   </si>
   <si>
     <t xml:space="preserve">6.29267978668213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40176868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66013717651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68310165405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83812189102173</t>
+    <t xml:space="preserve">6.40176820755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66013669967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68310260772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8381233215332</t>
   </si>
   <si>
     <t xml:space="preserve">6.79219055175781</t>
@@ -146,130 +146,130 @@
     <t xml:space="preserve">6.7232928276062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96443653106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95869302749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185010910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33189153671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35485792160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41227293014526</t>
+    <t xml:space="preserve">6.96443557739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95869398117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0218505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33189105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35485696792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41227149963379</t>
   </si>
   <si>
     <t xml:space="preserve">7.52710199356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52135944366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44672107696533</t>
+    <t xml:space="preserve">7.52136135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44672155380249</t>
   </si>
   <si>
     <t xml:space="preserve">7.31466722488403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38930559158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45246171951294</t>
+    <t xml:space="preserve">7.38930654525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4524621963501</t>
   </si>
   <si>
     <t xml:space="preserve">7.44097900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98067998886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91178274154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86584997177124</t>
+    <t xml:space="preserve">7.98068046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91178131103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86585140228271</t>
   </si>
   <si>
     <t xml:space="preserve">7.95197343826294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96919584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83714151382446</t>
+    <t xml:space="preserve">7.96919775009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83714199066162</t>
   </si>
   <si>
     <t xml:space="preserve">7.74527788162231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767360687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60174036026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43523693084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49839496612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55581045150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48116970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37208080291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2859582901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05055713653564</t>
+    <t xml:space="preserve">7.6476731300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6017427444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43523740768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49839448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55580806732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4811692237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3720817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28595733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05055856704712</t>
   </si>
   <si>
     <t xml:space="preserve">7.0735239982605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9185037612915</t>
+    <t xml:space="preserve">6.91850471496582</t>
   </si>
   <si>
     <t xml:space="preserve">7.11945581436157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2055778503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22854518890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50413608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56729364395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55006790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61896705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67063856124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82566070556641</t>
+    <t xml:space="preserve">7.20557928085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22854471206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50413417816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56729221343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55006742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6189661026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67063999176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82566022872925</t>
   </si>
   <si>
     <t xml:space="preserve">7.90604066848755</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86010837554932</t>
+    <t xml:space="preserve">7.86010980606079</t>
   </si>
   <si>
     <t xml:space="preserve">7.9290075302124</t>
@@ -278,76 +278,76 @@
     <t xml:space="preserve">7.87733316421509</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84862661361694</t>
+    <t xml:space="preserve">7.84862613677979</t>
   </si>
   <si>
     <t xml:space="preserve">7.64193201065063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46394634246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42375516891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60748195648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14816284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23428583145142</t>
+    <t xml:space="preserve">7.46394443511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42375564575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60748338699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14816474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2342848777771</t>
   </si>
   <si>
     <t xml:space="preserve">7.1251974105835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18261194229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32040882110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38734483718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81330299377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92283630371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98368644714355</t>
+    <t xml:space="preserve">7.18261384963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3204083442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38734436035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81330251693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92283582687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98368740081787</t>
   </si>
   <si>
     <t xml:space="preserve">8.02019691467285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92892026901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88632345199585</t>
+    <t xml:space="preserve">7.92892074584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88632440567017</t>
   </si>
   <si>
     <t xml:space="preserve">7.83764410018921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61858034133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60640859603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73419761657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88023900985718</t>
+    <t xml:space="preserve">7.61857938766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60641002655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73419809341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88023853302002</t>
   </si>
   <si>
     <t xml:space="preserve">7.84372901916504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49079132080078</t>
+    <t xml:space="preserve">7.49079036712646</t>
   </si>
   <si>
     <t xml:space="preserve">7.24738597869873</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">7.04049253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06483268737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98572635650635</t>
+    <t xml:space="preserve">7.06483221054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98572492599487</t>
   </si>
   <si>
     <t xml:space="preserve">7.25955677032471</t>
@@ -368,43 +368,43 @@
     <t xml:space="preserve">7.47862148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61249446868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65509033203125</t>
+    <t xml:space="preserve">7.61249351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65508937835693</t>
   </si>
   <si>
     <t xml:space="preserve">6.64495897293091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08208465576172</t>
+    <t xml:space="preserve">6.08208417892456</t>
   </si>
   <si>
     <t xml:space="preserve">6.17640399932861</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32244682312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41980838775635</t>
+    <t xml:space="preserve">6.32244729995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41980934143066</t>
   </si>
   <si>
     <t xml:space="preserve">6.49283027648926</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31027603149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18857383728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9725513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9847240447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45023441314697</t>
+    <t xml:space="preserve">6.31027746200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18857431411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97255229949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98472261428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45023536682129</t>
   </si>
   <si>
     <t xml:space="preserve">6.4989161491394</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">6.82751274108887</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76057624816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93704462051392</t>
+    <t xml:space="preserve">6.76057577133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93704557418823</t>
   </si>
   <si>
     <t xml:space="preserve">6.87010860443115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90662002563477</t>
+    <t xml:space="preserve">6.90662097930908</t>
   </si>
   <si>
     <t xml:space="preserve">6.82142782211304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91270399093628</t>
+    <t xml:space="preserve">6.91270542144775</t>
   </si>
   <si>
     <t xml:space="preserve">6.83968353271484</t>
@@ -437,181 +437,181 @@
     <t xml:space="preserve">6.79708814620972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74840593338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87619495391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68755531311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16828012466431</t>
+    <t xml:space="preserve">6.74840688705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8761944770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68755483627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16828107833862</t>
   </si>
   <si>
     <t xml:space="preserve">7.13785409927368</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85793924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13176965713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27781248092651</t>
+    <t xml:space="preserve">6.85793781280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13176918029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27781200408936</t>
   </si>
   <si>
     <t xml:space="preserve">7.36300420761108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36908721923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4116849899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15002489089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95530128479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97355556488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80317211151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10742950439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08308839797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88227891921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80925798416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67538452148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84576845169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01006650924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05874824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00398302078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94921588897705</t>
+    <t xml:space="preserve">7.3690881729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41168642044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15002346038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95530033111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97355604171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80317163467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10742855072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08308792114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88227939605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80925703048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67538547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84576892852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01006698608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0587477684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00398206710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94921541213989</t>
   </si>
   <si>
     <t xml:space="preserve">7.04657745361328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22304534912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32649326324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76666212081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69364023208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79100322723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86402416229248</t>
+    <t xml:space="preserve">7.22304630279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32649183273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76666069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69364070892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7910008430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86402320861816</t>
   </si>
   <si>
     <t xml:space="preserve">6.81534337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65712881088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62670469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6388726234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66929960250854</t>
+    <t xml:space="preserve">6.65712928771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6267032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63887405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66929864883423</t>
   </si>
   <si>
     <t xml:space="preserve">6.60844802856445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5780234336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55976676940918</t>
+    <t xml:space="preserve">6.57802295684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55976629257202</t>
   </si>
   <si>
     <t xml:space="preserve">6.83359718322754</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92487573623657</t>
+    <t xml:space="preserve">6.9248743057251</t>
   </si>
   <si>
     <t xml:space="preserve">6.91878986358643</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25347232818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23521709442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2656421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3569188117981</t>
+    <t xml:space="preserve">7.25347137451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23521614074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26564121246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35691928863525</t>
   </si>
   <si>
     <t xml:space="preserve">7.33866453170776</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39951419830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38126039505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21087598800659</t>
+    <t xml:space="preserve">7.39951467514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38125896453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21087551116943</t>
   </si>
   <si>
     <t xml:space="preserve">7.16219472885132</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05266237258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73623657226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90053606033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14394044876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94312953948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08917427062988</t>
+    <t xml:space="preserve">7.05266141891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73623514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90053415298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15611028671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14393949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94313049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08917236328125</t>
   </si>
   <si>
     <t xml:space="preserve">6.8883638381958</t>
@@ -623,58 +623,58 @@
     <t xml:space="preserve">7.42385530471802</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80721807479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37922096252441</t>
+    <t xml:space="preserve">7.8072190284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3792200088501</t>
   </si>
   <si>
     <t xml:space="preserve">8.76258277893066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53134918212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55568885803223</t>
+    <t xml:space="preserve">8.53135013580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55568981170654</t>
   </si>
   <si>
     <t xml:space="preserve">8.49483776092529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40964603424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62262535095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64088153839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7199878692627</t>
+    <t xml:space="preserve">8.40964698791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62262630462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6408805847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71998691558838</t>
   </si>
   <si>
     <t xml:space="preserve">8.66522121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67739295959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74432945251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75041198730469</t>
+    <t xml:space="preserve">8.67739105224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74432754516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.750412940979</t>
   </si>
   <si>
     <t xml:space="preserve">8.63479423522949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58611488342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59219932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73215770721436</t>
+    <t xml:space="preserve">8.58611297607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59220123291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73215961456299</t>
   </si>
   <si>
     <t xml:space="preserve">8.79300880432129</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">8.83560466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78083801269531</t>
+    <t xml:space="preserve">8.78083992004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.79909420013428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6043701171875</t>
+    <t xml:space="preserve">8.60436916351318</t>
   </si>
   <si>
     <t xml:space="preserve">8.56785869598389</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">8.46441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33662414550781</t>
+    <t xml:space="preserve">8.33662509918213</t>
   </si>
   <si>
     <t xml:space="preserve">8.31228351593018</t>
@@ -707,22 +707,22 @@
     <t xml:space="preserve">8.24534797668457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34879589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34271049499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67130565643311</t>
+    <t xml:space="preserve">8.34879493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34270858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67130661010742</t>
   </si>
   <si>
     <t xml:space="preserve">9.38326549530029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47454261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51105308532715</t>
+    <t xml:space="preserve">9.47454357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51105403900146</t>
   </si>
   <si>
     <t xml:space="preserve">9.37109565734863</t>
@@ -731,115 +731,115 @@
     <t xml:space="preserve">9.07292366027832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9694766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9329662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09117984771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11552047729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90254020690918</t>
+    <t xml:space="preserve">8.96947765350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93296718597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0911808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11552143096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9025411605835</t>
   </si>
   <si>
     <t xml:space="preserve">8.85385990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75649833679199</t>
+    <t xml:space="preserve">8.75649929046631</t>
   </si>
   <si>
     <t xml:space="preserve">8.82343482971191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98773384094238</t>
+    <t xml:space="preserve">8.98773288726807</t>
   </si>
   <si>
     <t xml:space="preserve">9.13377571105957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96339130401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99381732940674</t>
+    <t xml:space="preserve">8.96339225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99381923675537</t>
   </si>
   <si>
     <t xml:space="preserve">9.04249858856201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91471099853516</t>
+    <t xml:space="preserve">8.91471195220947</t>
   </si>
   <si>
     <t xml:space="preserve">8.89645576477051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8295202255249</t>
+    <t xml:space="preserve">8.82951927185059</t>
   </si>
   <si>
     <t xml:space="preserve">8.73824214935303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58003044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22709274291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35487937927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62871074676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54351806640625</t>
+    <t xml:space="preserve">8.58002853393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22709178924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35487842559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62870979309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54351902008057</t>
   </si>
   <si>
     <t xml:space="preserve">8.64696598052979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87211513519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88428688049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87820053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8660306930542</t>
+    <t xml:space="preserve">8.8721170425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88428592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87819957733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86602973937988</t>
   </si>
   <si>
     <t xml:space="preserve">8.95122241973877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06684017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89037132263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71390151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68956184387207</t>
+    <t xml:space="preserve">9.06683921813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89037036895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71390247344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68956089019775</t>
   </si>
   <si>
     <t xml:space="preserve">8.54960441589355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44007205963135</t>
+    <t xml:space="preserve">8.44007110595703</t>
   </si>
   <si>
     <t xml:space="preserve">9.01815795898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84168910980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95730876922607</t>
+    <t xml:space="preserve">8.84169006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95730686187744</t>
   </si>
   <si>
     <t xml:space="preserve">9.1276912689209</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">9.27981853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29807281494141</t>
+    <t xml:space="preserve">9.29807472229004</t>
   </si>
   <si>
     <t xml:space="preserve">9.32849884033203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30416011810303</t>
+    <t xml:space="preserve">9.30415821075439</t>
   </si>
   <si>
     <t xml:space="preserve">9.03032970428467</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">9.12160587310791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15811729431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2067985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39311695098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42524242401123</t>
+    <t xml:space="preserve">9.15811824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20679759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3931188583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42524337768555</t>
   </si>
   <si>
     <t xml:space="preserve">9.27104663848877</t>
@@ -884,55 +884,55 @@
     <t xml:space="preserve">9.24534702301025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21964740753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03332614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91767978668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02690124511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12327480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89840507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8405818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82130813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97550392150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03975105285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13612461090088</t>
+    <t xml:space="preserve">9.21964931488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03332805633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91767883300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0269021987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12327575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89840602874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84058094024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8213062286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97550487518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03975200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1361255645752</t>
   </si>
   <si>
     <t xml:space="preserve">9.31602001190186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32244491577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25819683074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37384414672852</t>
+    <t xml:space="preserve">9.3224458694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2581958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3738431930542</t>
   </si>
   <si>
     <t xml:space="preserve">9.38669300079346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27746963500977</t>
+    <t xml:space="preserve">9.27747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.43809223175049</t>
@@ -950,58 +950,58 @@
     <t xml:space="preserve">9.38026809692383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41881656646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47021675109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66938591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63726234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63083744049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74005889892578</t>
+    <t xml:space="preserve">9.4188175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47021579742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6693868637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63726329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63083648681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74006080627441</t>
   </si>
   <si>
     <t xml:space="preserve">9.88783073425293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9520788192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81073188781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77860927581787</t>
+    <t xml:space="preserve">9.95207977294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81073379516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77860832214355</t>
   </si>
   <si>
     <t xml:space="preserve">9.65653610229492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61798763275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84928226470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86855602264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89425563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1705226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1833744049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2347726821899</t>
+    <t xml:space="preserve">9.61798858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84928131103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86855792999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89425468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.170524597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1833724975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2347736358643</t>
   </si>
   <si>
     <t xml:space="preserve">10.3311452865601</t>
@@ -1010,19 +1010,19 @@
     <t xml:space="preserve">10.2925958633423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1576738357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0998516082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91995525360107</t>
+    <t xml:space="preserve">10.157675743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0998497009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91995334625244</t>
   </si>
   <si>
     <t xml:space="preserve">9.95850467681885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99705410003662</t>
+    <t xml:space="preserve">9.9970531463623</t>
   </si>
   <si>
     <t xml:space="preserve">9.91353130340576</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">9.96492958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87497997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80430698394775</t>
+    <t xml:space="preserve">9.87498092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80430793762207</t>
   </si>
   <si>
     <t xml:space="preserve">9.79145812988281</t>
@@ -1043,22 +1043,22 @@
     <t xml:space="preserve">9.77218437194824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78503322601318</t>
+    <t xml:space="preserve">9.7850341796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.75290966033936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62441253662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61156177520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66296005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70793437957764</t>
+    <t xml:space="preserve">9.62441349029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61156272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66296100616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70793533325195</t>
   </si>
   <si>
     <t xml:space="preserve">9.76575946807861</t>
@@ -1067,25 +1067,25 @@
     <t xml:space="preserve">9.72078418731689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68866062164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98420524597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.042028427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84285831451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99063014984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0099029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97135543823242</t>
+    <t xml:space="preserve">9.68866157531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98420333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0420274734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84285640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99062824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0099020004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97135448455811</t>
   </si>
   <si>
     <t xml:space="preserve">10.1255502700806</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">10.164098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2283477783203</t>
+    <t xml:space="preserve">10.2283487319946</t>
   </si>
   <si>
     <t xml:space="preserve">10.0291776657104</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">9.94565486907959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9263801574707</t>
+    <t xml:space="preserve">9.92637825012207</t>
   </si>
   <si>
     <t xml:space="preserve">9.81715679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0934257507324</t>
+    <t xml:space="preserve">10.0934247970581</t>
   </si>
   <si>
     <t xml:space="preserve">10.054877281189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1127014160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.048454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2219219207764</t>
+    <t xml:space="preserve">10.1127004623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.048451423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2219228744507</t>
   </si>
   <si>
     <t xml:space="preserve">10.1191253662109</t>
@@ -1133,22 +1133,22 @@
     <t xml:space="preserve">10.0356025695801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97777938842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1319742202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8814058303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72721004486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67580986022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70151042938232</t>
+    <t xml:space="preserve">9.9777774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1319751739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88140678405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72720909118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67581081390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70151233673096</t>
   </si>
   <si>
     <t xml:space="preserve">9.75933361053467</t>
@@ -1157,19 +1157,19 @@
     <t xml:space="preserve">9.83643341064453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82358264923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9006814956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8300085067749</t>
+    <t xml:space="preserve">9.82358169555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90068054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83000755310059</t>
   </si>
   <si>
     <t xml:space="preserve">9.79788303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65011119842529</t>
+    <t xml:space="preserve">9.65011024475098</t>
   </si>
   <si>
     <t xml:space="preserve">9.56658935546875</t>
@@ -1178,31 +1178,31 @@
     <t xml:space="preserve">10.0677261352539</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0741519927979</t>
+    <t xml:space="preserve">10.0741510391235</t>
   </si>
   <si>
     <t xml:space="preserve">10.1769485473633</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1512489318848</t>
+    <t xml:space="preserve">10.1512508392334</t>
   </si>
   <si>
     <t xml:space="preserve">10.3889684677124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4018182754517</t>
+    <t xml:space="preserve">10.4018201828003</t>
   </si>
   <si>
     <t xml:space="preserve">10.2990207672119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4082441329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4210920333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2701091766357</t>
+    <t xml:space="preserve">10.4082431793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4210929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2701082229614</t>
   </si>
   <si>
     <t xml:space="preserve">10.2604713439941</t>
@@ -1211,25 +1211,25 @@
     <t xml:space="preserve">10.2444086074829</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0870008468628</t>
+    <t xml:space="preserve">10.0870018005371</t>
   </si>
   <si>
     <t xml:space="preserve">9.86213207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9617166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91031837463379</t>
+    <t xml:space="preserve">9.96171760559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91031646728516</t>
   </si>
   <si>
     <t xml:space="preserve">9.8717679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90710639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89746761322021</t>
+    <t xml:space="preserve">9.90710544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89746952056885</t>
   </si>
   <si>
     <t xml:space="preserve">9.45736694335938</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">9.83964443206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1030626296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0805749893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0227527618408</t>
+    <t xml:space="preserve">10.1030645370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0805768966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0227518081665</t>
   </si>
   <si>
     <t xml:space="preserve">10.0388154983521</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">10.0645151138306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1448230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2572593688965</t>
+    <t xml:space="preserve">10.1448249816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2572603225708</t>
   </si>
   <si>
     <t xml:space="preserve">10.4114551544189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3921813964844</t>
+    <t xml:space="preserve">10.3921794891357</t>
   </si>
   <si>
     <t xml:space="preserve">10.4435787200928</t>
@@ -1277,73 +1277,73 @@
     <t xml:space="preserve">10.5335273742676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6298999786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7391233444214</t>
+    <t xml:space="preserve">10.629900932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7391214370728</t>
   </si>
   <si>
     <t xml:space="preserve">10.8676204681396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9575681686401</t>
+    <t xml:space="preserve">10.9575672149658</t>
   </si>
   <si>
     <t xml:space="preserve">10.7326974868774</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8194332122803</t>
+    <t xml:space="preserve">10.8194351196289</t>
   </si>
   <si>
     <t xml:space="preserve">10.6845111846924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.755184173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8097972869873</t>
+    <t xml:space="preserve">10.7551851272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8097953796387</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065824508667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7808837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6266889572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395378112793</t>
+    <t xml:space="preserve">10.7808847427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.62668800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.639536857605</t>
   </si>
   <si>
     <t xml:space="preserve">10.5399513244629</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6009883880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6074132919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3953943252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4307298660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3568449020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3839750289917</t>
+    <t xml:space="preserve">10.6009874343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6074142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.395393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4307308197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3568439483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.383975982666</t>
   </si>
   <si>
     <t xml:space="preserve">10.350061416626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2279767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092844009399</t>
+    <t xml:space="preserve">10.2279777526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092834472656</t>
   </si>
   <si>
     <t xml:space="preserve">10.0889368057251</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">9.93294048309326</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58703422546387</t>
+    <t xml:space="preserve">9.58703327178955</t>
   </si>
   <si>
     <t xml:space="preserve">9.64468479156494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86850547790527</t>
+    <t xml:space="preserve">9.86850643157959</t>
   </si>
   <si>
     <t xml:space="preserve">9.97702598571777</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">9.61077213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89224433898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84476852416992</t>
+    <t xml:space="preserve">9.89224529266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84476757049561</t>
   </si>
   <si>
     <t xml:space="preserve">9.87528896331787</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">9.85494136810303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92276668548584</t>
+    <t xml:space="preserve">9.92276573181152</t>
   </si>
   <si>
     <t xml:space="preserve">9.79050731658936</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">9.61416339874268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60738182067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70233726501465</t>
+    <t xml:space="preserve">9.60738086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70233535766602</t>
   </si>
   <si>
     <t xml:space="preserve">9.68198776245117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90241813659668</t>
+    <t xml:space="preserve">9.902419090271</t>
   </si>
   <si>
     <t xml:space="preserve">9.86511516571045</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">9.82102870941162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74302959442139</t>
+    <t xml:space="preserve">9.7430305480957</t>
   </si>
   <si>
     <t xml:space="preserve">9.75320339202881</t>
@@ -1442,19 +1442,19 @@
     <t xml:space="preserve">9.94311332702637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94989490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90920066833496</t>
+    <t xml:space="preserve">9.94989585876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90919971466064</t>
   </si>
   <si>
     <t xml:space="preserve">9.84137630462646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98380947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99737358093262</t>
+    <t xml:space="preserve">9.98380851745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9973726272583</t>
   </si>
   <si>
     <t xml:space="preserve">10.0177211761475</t>
@@ -1463,19 +1463,19 @@
     <t xml:space="preserve">10.0651979446411</t>
   </si>
   <si>
-    <t xml:space="preserve">10.143196105957</t>
+    <t xml:space="preserve">10.1431970596313</t>
   </si>
   <si>
     <t xml:space="preserve">10.3093671798706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2076301574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482416152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1330213546753</t>
+    <t xml:space="preserve">10.207631111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482406616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1330223083496</t>
   </si>
   <si>
     <t xml:space="preserve">10.0957193374634</t>
@@ -1487,25 +1487,25 @@
     <t xml:space="preserve">10.1872816085815</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1703262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96007061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8040714263916</t>
+    <t xml:space="preserve">10.1703271865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96006965637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80407238006592</t>
   </si>
   <si>
     <t xml:space="preserve">9.82441997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94650363922119</t>
+    <t xml:space="preserve">9.94650459289551</t>
   </si>
   <si>
     <t xml:space="preserve">10.0211114883423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0753707885742</t>
+    <t xml:space="preserve">10.0753717422485</t>
   </si>
   <si>
     <t xml:space="preserve">10.0143299102783</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">9.85833263397217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.031286239624</t>
+    <t xml:space="preserve">10.0312852859497</t>
   </si>
   <si>
     <t xml:space="preserve">10.0550241470337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0380687713623</t>
+    <t xml:space="preserve">10.038067817688</t>
   </si>
   <si>
     <t xml:space="preserve">10.2584991455078</t>
@@ -1538,70 +1538,70 @@
     <t xml:space="preserve">10.2517156600952</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2686729431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2788467407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3941478729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.512843132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5297975540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4687547683716</t>
+    <t xml:space="preserve">10.2686719894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2788457870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3941469192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5128421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5297966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4687557220459</t>
   </si>
   <si>
     <t xml:space="preserve">10.0923280715942</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98041820526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.061806678772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0245018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80068016052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78372573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.685378074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59042549133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70572757720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65485858917236</t>
+    <t xml:space="preserve">9.9804162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0618057250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0245046615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80068206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78372669219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68537902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59042453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70572662353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65485763549805</t>
   </si>
   <si>
     <t xml:space="preserve">9.50225257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52938079833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49886226654053</t>
+    <t xml:space="preserve">9.52938270568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49886035919189</t>
   </si>
   <si>
     <t xml:space="preserve">9.37677669525146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32590770721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52599048614502</t>
+    <t xml:space="preserve">9.32590866088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52599239349365</t>
   </si>
   <si>
     <t xml:space="preserve">9.42086315155029</t>
@@ -1610,16 +1610,16 @@
     <t xml:space="preserve">9.62433624267578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75659561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71590232849121</t>
+    <t xml:space="preserve">9.75659465789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71589946746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.74981307983398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75998592376709</t>
+    <t xml:space="preserve">9.75998687744141</t>
   </si>
   <si>
     <t xml:space="preserve">9.72607421875</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">9.66503143310547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80746269226074</t>
+    <t xml:space="preserve">9.80746459960938</t>
   </si>
   <si>
     <t xml:space="preserve">9.60398960113525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68877124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6480770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66842365264893</t>
+    <t xml:space="preserve">9.68877029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64807605743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66842269897461</t>
   </si>
   <si>
     <t xml:space="preserve">9.9125919342041</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">9.97024345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0075464248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0991106033325</t>
+    <t xml:space="preserve">10.0075483322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0991115570068</t>
   </si>
   <si>
     <t xml:space="preserve">10.1804990768433</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">10.0685901641846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66164016723633</t>
+    <t xml:space="preserve">9.66164112091064</t>
   </si>
   <si>
     <t xml:space="preserve">9.73624801635742</t>
@@ -1676,34 +1676,34 @@
     <t xml:space="preserve">9.99059104919434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95328712463379</t>
+    <t xml:space="preserve">9.95328807830811</t>
   </si>
   <si>
     <t xml:space="preserve">10.0448503494263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1160669326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1398048400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1601524353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3297138214111</t>
+    <t xml:space="preserve">10.1160659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1398038864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1601533889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3297147750854</t>
   </si>
   <si>
     <t xml:space="preserve">10.4246692657471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4416255950928</t>
+    <t xml:space="preserve">10.4416265487671</t>
   </si>
   <si>
     <t xml:space="preserve">10.3873662948608</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4314517974854</t>
+    <t xml:space="preserve">10.4314527511597</t>
   </si>
   <si>
     <t xml:space="preserve">10.4111051559448</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">10.4823198318481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4755382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3738012313843</t>
+    <t xml:space="preserve">10.4755373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.37380027771</t>
   </si>
   <si>
     <t xml:space="preserve">10.2958030700684</t>
@@ -1724,19 +1724,19 @@
     <t xml:space="preserve">10.343279838562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.39075756073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1669340133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2245864868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.302583694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3805828094482</t>
+    <t xml:space="preserve">10.3907566070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.166934967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2245874404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3025846481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3805837631226</t>
   </si>
   <si>
     <t xml:space="preserve">10.2856283187866</t>
@@ -1748,22 +1748,22 @@
     <t xml:space="preserve">10.3229322433472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3704099655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4789295196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5264072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5331897735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6450986862183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7095327377319</t>
+    <t xml:space="preserve">10.3704090118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.478928565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.526406288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5331878662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450996398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7095336914062</t>
   </si>
   <si>
     <t xml:space="preserve">10.7739667892456</t>
@@ -1772,25 +1772,25 @@
     <t xml:space="preserve">10.7671842575073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8417901992798</t>
+    <t xml:space="preserve">10.8417911529541</t>
   </si>
   <si>
     <t xml:space="preserve">10.7129240036011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6654462814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7163152694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6925773620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7230978012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8553552627563</t>
+    <t xml:space="preserve">10.6654491424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7163171768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6925783157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7230997085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8553562164307</t>
   </si>
   <si>
     <t xml:space="preserve">11.0825700759888</t>
@@ -1802,55 +1802,55 @@
     <t xml:space="preserve">11.1639595031738</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1368284225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1741333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0893516540527</t>
+    <t xml:space="preserve">11.136830329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1741323471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0893535614014</t>
   </si>
   <si>
     <t xml:space="preserve">11.0757875442505</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1130905151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.191089630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3097839355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2826538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3369131088257</t>
+    <t xml:space="preserve">11.113091468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1910886764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3097810745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2826519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3369121551514</t>
   </si>
   <si>
     <t xml:space="preserve">11.3301305770874</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2792615890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3233480453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3063917160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3335199356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4047374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4657802581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5302124023438</t>
+    <t xml:space="preserve">11.279260635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3233470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3063907623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3335208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4047384262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4657793045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5302133560181</t>
   </si>
   <si>
     <t xml:space="preserve">11.6658630371094</t>
@@ -1859,16 +1859,16 @@
     <t xml:space="preserve">11.5607347488403</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5369958877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5709075927734</t>
+    <t xml:space="preserve">11.536994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5709066390991</t>
   </si>
   <si>
     <t xml:space="preserve">11.6929922103882</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6624708175659</t>
+    <t xml:space="preserve">11.6624717712402</t>
   </si>
   <si>
     <t xml:space="preserve">11.7336874008179</t>
@@ -1877,19 +1877,19 @@
     <t xml:space="preserve">11.7302961349487</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7404689788818</t>
+    <t xml:space="preserve">11.7404699325562</t>
   </si>
   <si>
     <t xml:space="preserve">11.6353425979614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5912551879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.577691078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4318685531616</t>
+    <t xml:space="preserve">11.5912561416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5776901245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.431866645813</t>
   </si>
   <si>
     <t xml:space="preserve">11.4725637435913</t>
@@ -1898,13 +1898,13 @@
     <t xml:space="preserve">11.5234298706055</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6183843612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5336036682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6732540130615</t>
+    <t xml:space="preserve">11.6183834075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5336027145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6732530593872</t>
   </si>
   <si>
     <t xml:space="preserve">11.6947383880615</t>
@@ -1919,37 +1919,37 @@
     <t xml:space="preserve">11.6553497314453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5228633880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4405040740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3187599182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3832130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2543058395386</t>
+    <t xml:space="preserve">11.5228614807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.440505027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3187589645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3832120895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2543048858643</t>
   </si>
   <si>
     <t xml:space="preserve">11.2292404174805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3796329498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2865314483643</t>
+    <t xml:space="preserve">11.3796319961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2865324020386</t>
   </si>
   <si>
     <t xml:space="preserve">11.3259201049805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3545665740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4440851211548</t>
+    <t xml:space="preserve">11.354567527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4440860748291</t>
   </si>
   <si>
     <t xml:space="preserve">11.5622501373291</t>
@@ -1958,34 +1958,34 @@
     <t xml:space="preserve">11.5371856689453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5873165130615</t>
+    <t xml:space="preserve">11.5873155593872</t>
   </si>
   <si>
     <t xml:space="preserve">11.5550889968872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6267051696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8558721542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9239072799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9453926086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9525518417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8988399505615</t>
+    <t xml:space="preserve">11.6267042160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8558740615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9239053726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9453907012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9525537490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8988409042358</t>
   </si>
   <si>
     <t xml:space="preserve">11.8594522476196</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8236446380615</t>
+    <t xml:space="preserve">11.8236455917358</t>
   </si>
   <si>
     <t xml:space="preserve">11.9095821380615</t>
@@ -1994,52 +1994,52 @@
     <t xml:space="preserve">12.0062637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2211084365845</t>
+    <t xml:space="preserve">12.2211093902588</t>
   </si>
   <si>
     <t xml:space="preserve">12.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.185302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2569160461426</t>
+    <t xml:space="preserve">12.1853008270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2569169998169</t>
   </si>
   <si>
     <t xml:space="preserve">12.292724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3249502182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3213701248169</t>
+    <t xml:space="preserve">12.3249492645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3213682174683</t>
   </si>
   <si>
     <t xml:space="preserve">12.2712392807007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2963037490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2318506240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1029443740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1387519836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1244287490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1709775924683</t>
+    <t xml:space="preserve">12.2963047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2318496704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1029434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1387529373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1244277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1709785461426</t>
   </si>
   <si>
     <t xml:space="preserve">12.0886211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1101055145264</t>
+    <t xml:space="preserve">12.1101064682007</t>
   </si>
   <si>
     <t xml:space="preserve">11.9668750762939</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">12.0599756240845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0707178115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7735137939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6983194351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6804151535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7699337005615</t>
+    <t xml:space="preserve">12.0707168579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7735157012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6983184814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6804141998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7699327468872</t>
   </si>
   <si>
     <t xml:space="preserve">11.451247215271</t>
@@ -2069,34 +2069,34 @@
     <t xml:space="preserve">11.4870548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5515069961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4011163711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5837345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6159610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7269630432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6875772476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5765743255615</t>
+    <t xml:space="preserve">11.5515079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4011173248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5837354660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6159601211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7269649505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6875762939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5765733718872</t>
   </si>
   <si>
     <t xml:space="preserve">11.590895652771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6481885910034</t>
+    <t xml:space="preserve">11.7663526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6481876373291</t>
   </si>
   <si>
     <t xml:space="preserve">11.7591915130615</t>
@@ -2105,22 +2105,22 @@
     <t xml:space="preserve">11.7949981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8200635910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8487100601196</t>
+    <t xml:space="preserve">11.8200645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8487110137939</t>
   </si>
   <si>
     <t xml:space="preserve">12.0563945770264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2067852020264</t>
+    <t xml:space="preserve">12.206787109375</t>
   </si>
   <si>
     <t xml:space="preserve">12.2497539520264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3177900314331</t>
+    <t xml:space="preserve">12.3177890777588</t>
   </si>
   <si>
     <t xml:space="preserve">12.2998847961426</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">12.4180498123169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5326347351074</t>
+    <t xml:space="preserve">12.5326337814331</t>
   </si>
   <si>
     <t xml:space="preserve">12.5147304534912</t>
@@ -2141,34 +2141,34 @@
     <t xml:space="preserve">12.4073085784912</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8083524703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7797069549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8262567520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7940292358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620634078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8190937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7904500961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7331590652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7045097351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4932470321655</t>
+    <t xml:space="preserve">12.8083543777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7797060012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8262557983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7940282821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620624542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8190946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7904491424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7331571578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7045116424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4932460784912</t>
   </si>
   <si>
     <t xml:space="preserve">12.5612812042236</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">12.7080917358398</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7689647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7976112365723</t>
+    <t xml:space="preserve">12.7689638137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7976102828979</t>
   </si>
   <si>
     <t xml:space="preserve">12.9372587203979</t>
@@ -2195,37 +2195,37 @@
     <t xml:space="preserve">12.8656444549561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9659061431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9694862365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9623241424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0303592681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1592655181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1449413299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1700077056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1771688461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1735887527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1521034240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0590047836304</t>
+    <t xml:space="preserve">12.9659051895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9694871902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9623250961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0303583145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1592674255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1449422836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1700057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.177170753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1735897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1521024703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0590038299561</t>
   </si>
   <si>
     <t xml:space="preserve">13.0160350799561</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">13.2487840652466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3132390975952</t>
+    <t xml:space="preserve">13.3132381439209</t>
   </si>
   <si>
     <t xml:space="preserve">13.3168182373047</t>
@@ -2243,16 +2243,16 @@
     <t xml:space="preserve">13.7715740203857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7357692718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7429294586182</t>
+    <t xml:space="preserve">13.7357664108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7429285049438</t>
   </si>
   <si>
     <t xml:space="preserve">13.9649343490601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8467702865601</t>
+    <t xml:space="preserve">13.8467683792114</t>
   </si>
   <si>
     <t xml:space="preserve">13.7286052703857</t>
@@ -2267,40 +2267,40 @@
     <t xml:space="preserve">13.3490447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3597898483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2774333953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3848543167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3884344100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2702693939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0983943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0840692520142</t>
+    <t xml:space="preserve">13.359787940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2774324417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3848533630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3884334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2702722549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0983924865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0840711593628</t>
   </si>
   <si>
     <t xml:space="preserve">13.0625848770142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0410995483398</t>
+    <t xml:space="preserve">13.0411005020142</t>
   </si>
   <si>
     <t xml:space="preserve">13.0482625961304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0769090652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1485242843628</t>
+    <t xml:space="preserve">13.0769081115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1485252380371</t>
   </si>
   <si>
     <t xml:space="preserve">13.1342000961304</t>
@@ -2309,16 +2309,16 @@
     <t xml:space="preserve">13.2380428314209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2559480667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3024978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2452049255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5889577865601</t>
+    <t xml:space="preserve">13.2559461593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3024959564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2452030181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5889558792114</t>
   </si>
   <si>
     <t xml:space="preserve">13.3776922225952</t>
@@ -2327,19 +2327,19 @@
     <t xml:space="preserve">13.3204002380371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1879119873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0912313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2273006439209</t>
+    <t xml:space="preserve">13.1879110336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.091233253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2272996902466</t>
   </si>
   <si>
     <t xml:space="preserve">13.1986541748047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0339403152466</t>
+    <t xml:space="preserve">13.0339412689209</t>
   </si>
   <si>
     <t xml:space="preserve">13.1019744873047</t>
@@ -2348,52 +2348,52 @@
     <t xml:space="preserve">13.1091356277466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0733280181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9873895645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8441591262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9909706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6901865005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661659240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8119344711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6006689071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6651210784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8513221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.123459815979</t>
+    <t xml:space="preserve">13.0733270645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9873905181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8441600799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9909696578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.690185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8119325637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6006669998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6651220321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8513212203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1234588623047</t>
   </si>
   <si>
     <t xml:space="preserve">13.2058162689209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4063377380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.445725440979</t>
+    <t xml:space="preserve">13.4063386917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4457263946533</t>
   </si>
   <si>
     <t xml:space="preserve">13.4493064880371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5209226608276</t>
+    <t xml:space="preserve">13.5209217071533</t>
   </si>
   <si>
     <t xml:space="preserve">12.486083984375</t>
@@ -2405,10 +2405,10 @@
     <t xml:space="preserve">12.3643388748169</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6446075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5085391998291</t>
+    <t xml:space="preserve">11.6446084976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5085382461548</t>
   </si>
   <si>
     <t xml:space="preserve">11.2686281204224</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">10.9141340255737</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85423183441162</t>
+    <t xml:space="preserve">9.8542308807373</t>
   </si>
   <si>
     <t xml:space="preserve">9.70383930206299</t>
@@ -2426,46 +2426,46 @@
     <t xml:space="preserve">8.44699573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64393615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08892059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77023410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43722295761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68787622451782</t>
+    <t xml:space="preserve">8.64393711090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0889196395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77023363113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43722343444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68787479400635</t>
   </si>
   <si>
     <t xml:space="preserve">7.79887866973877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80246114730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66542053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9160737991333</t>
+    <t xml:space="preserve">7.80245971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66542148590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91607475280762</t>
   </si>
   <si>
     <t xml:space="preserve">9.06646537780762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86236381530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85520172119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88742733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66184043884277</t>
+    <t xml:space="preserve">8.8623628616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85520076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88742828369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66184234619141</t>
   </si>
   <si>
     <t xml:space="preserve">8.83013534545898</t>
@@ -2474,46 +2474,46 @@
     <t xml:space="preserve">8.72629451751709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98410797119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15598487854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21685695648193</t>
+    <t xml:space="preserve">8.98410892486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15598392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21685791015625</t>
   </si>
   <si>
     <t xml:space="preserve">9.40663719177246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02349662780762</t>
+    <t xml:space="preserve">9.0234956741333</t>
   </si>
   <si>
     <t xml:space="preserve">8.87310600280762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97336387634277</t>
+    <t xml:space="preserve">8.97336578369141</t>
   </si>
   <si>
     <t xml:space="preserve">8.71197128295898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9268159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85878086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12733745574951</t>
+    <t xml:space="preserve">8.92681694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8587818145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12733840942383</t>
   </si>
   <si>
     <t xml:space="preserve">9.28847312927246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52480220794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32069873809814</t>
+    <t xml:space="preserve">9.52480316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32069969177246</t>
   </si>
   <si>
     <t xml:space="preserve">9.09511184692383</t>
@@ -2522,46 +2522,46 @@
     <t xml:space="preserve">9.26340675354004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12017822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18105030059814</t>
+    <t xml:space="preserve">9.12017631530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18104934692383</t>
   </si>
   <si>
     <t xml:space="preserve">9.29205322265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20969581604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17030811309814</t>
+    <t xml:space="preserve">9.20969486236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17030906677246</t>
   </si>
   <si>
     <t xml:space="preserve">8.99485015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8838472366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25962352752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09553909301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14401817321777</t>
+    <t xml:space="preserve">8.88384628295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25962543487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09554004669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14401912689209</t>
   </si>
   <si>
     <t xml:space="preserve">8.87178707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08062267303467</t>
+    <t xml:space="preserve">9.08062171936035</t>
   </si>
   <si>
     <t xml:space="preserve">9.04706001281738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29691600799561</t>
+    <t xml:space="preserve">9.29691696166992</t>
   </si>
   <si>
     <t xml:space="preserve">9.48710632324219</t>
@@ -2573,37 +2573,37 @@
     <t xml:space="preserve">9.31183338165283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61390018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90477752685547</t>
+    <t xml:space="preserve">9.61389923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90477657318115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4007625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4455127716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7289323806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7550363540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6394329071045</t>
+    <t xml:space="preserve">10.4455118179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7289342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7550373077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6394319534302</t>
   </si>
   <si>
     <t xml:space="preserve">10.4194087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0166540145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0129251480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99800872802734</t>
+    <t xml:space="preserve">10.0166549682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0129241943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99800682067871</t>
   </si>
   <si>
     <t xml:space="preserve">10.2217597961426</t>
@@ -2615,40 +2615,40 @@
     <t xml:space="preserve">10.0203838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.154634475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658220291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89359092712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91969394683838</t>
+    <t xml:space="preserve">10.1546335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658229827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89358997344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9196949005127</t>
   </si>
   <si>
     <t xml:space="preserve">10.0091953277588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0464878082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0427589416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3187189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.251594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.356011390686</t>
+    <t xml:space="preserve">10.0464897155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0427598953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3187198638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2515935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3560123443604</t>
   </si>
   <si>
     <t xml:space="preserve">10.2590522766113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99055004119873</t>
+    <t xml:space="preserve">9.99054908752441</t>
   </si>
   <si>
     <t xml:space="preserve">10.0651340484619</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">10.2105722427368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2776985168457</t>
+    <t xml:space="preserve">10.2776975631714</t>
   </si>
   <si>
     <t xml:space="preserve">10.4268665313721</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">10.3746576309204</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1359891891479</t>
+    <t xml:space="preserve">10.1359882354736</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800514221191</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">10.0688629150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55423164367676</t>
+    <t xml:space="preserve">9.55423259735107</t>
   </si>
   <si>
     <t xml:space="preserve">9.44235515594482</t>
@@ -2696,13 +2696,13 @@
     <t xml:space="preserve">9.49829292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64746284484863</t>
+    <t xml:space="preserve">9.64746189117432</t>
   </si>
   <si>
     <t xml:space="preserve">9.7220458984375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47591876983643</t>
+    <t xml:space="preserve">9.47591972351074</t>
   </si>
   <si>
     <t xml:space="preserve">9.87867259979248</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">9.82273578643799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77798366546631</t>
+    <t xml:space="preserve">9.77798461914062</t>
   </si>
   <si>
     <t xml:space="preserve">9.62881660461426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80035972595215</t>
+    <t xml:space="preserve">9.80035877227783</t>
   </si>
   <si>
     <t xml:space="preserve">9.71831703186035</t>
@@ -2726,16 +2726,16 @@
     <t xml:space="preserve">9.65119171142578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85629749298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9122371673584</t>
+    <t xml:space="preserve">9.85629844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91223526000977</t>
   </si>
   <si>
     <t xml:space="preserve">9.87494373321533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69967079162598</t>
+    <t xml:space="preserve">9.69967174530029</t>
   </si>
   <si>
     <t xml:space="preserve">9.7145881652832</t>
@@ -2744,49 +2744,49 @@
     <t xml:space="preserve">9.71085929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66610908508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56169033050537</t>
+    <t xml:space="preserve">9.66610813140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56168937683105</t>
   </si>
   <si>
     <t xml:space="preserve">9.4610013961792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65865039825439</t>
+    <t xml:space="preserve">9.65864944458008</t>
   </si>
   <si>
     <t xml:space="preserve">9.5766077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56542015075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55050277709961</t>
+    <t xml:space="preserve">9.56541919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55050373077393</t>
   </si>
   <si>
     <t xml:space="preserve">9.4535436630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19250011444092</t>
+    <t xml:space="preserve">9.19249820709229</t>
   </si>
   <si>
     <t xml:space="preserve">8.83449459075928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78601455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74872207641602</t>
+    <t xml:space="preserve">8.78601551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74872303009033</t>
   </si>
   <si>
     <t xml:space="preserve">8.6778678894043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61447238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95382976531982</t>
+    <t xml:space="preserve">8.61447143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95382881164551</t>
   </si>
   <si>
     <t xml:space="preserve">8.90162086486816</t>
@@ -2795,16 +2795,16 @@
     <t xml:space="preserve">8.96874618530273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84941005706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00230979919434</t>
+    <t xml:space="preserve">8.84941101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00230884552002</t>
   </si>
   <si>
     <t xml:space="preserve">9.22979068756104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1999568939209</t>
+    <t xml:space="preserve">9.19995784759521</t>
   </si>
   <si>
     <t xml:space="preserve">9.38641834259033</t>
@@ -2822,43 +2822,43 @@
     <t xml:space="preserve">9.20741558074951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88670253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05451965332031</t>
+    <t xml:space="preserve">8.88670349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.054518699646</t>
   </si>
   <si>
     <t xml:space="preserve">9.10299777984619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12537288665771</t>
+    <t xml:space="preserve">9.12537384033203</t>
   </si>
   <si>
     <t xml:space="preserve">8.89789199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90907859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85687065124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4727611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49886703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58463764190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80466079711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97620391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09926891326904</t>
+    <t xml:space="preserve">8.90907955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8568696975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47276306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49886608123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58463859558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80466175079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97620487213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09926795959473</t>
   </si>
   <si>
     <t xml:space="preserve">9.23351955413818</t>
@@ -2867,28 +2867,28 @@
     <t xml:space="preserve">9.81527614593506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0539455413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0390291213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1695528030396</t>
+    <t xml:space="preserve">10.0539445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0390300750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1695518493652</t>
   </si>
   <si>
     <t xml:space="preserve">10.4156799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.538743019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6133270263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.493992805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5946817398071</t>
+    <t xml:space="preserve">10.5387439727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6133279800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4939918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5946807861328</t>
   </si>
   <si>
     <t xml:space="preserve">10.6058692932129</t>
@@ -2897,16 +2897,16 @@
     <t xml:space="preserve">10.7252035140991</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8109750747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7923288345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6804533004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7587652206421</t>
+    <t xml:space="preserve">10.8109760284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.792329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6804523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7587661743164</t>
   </si>
   <si>
     <t xml:space="preserve">10.8669128417969</t>
@@ -2915,10 +2915,10 @@
     <t xml:space="preserve">10.8147039413452</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7102851867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6841821670532</t>
+    <t xml:space="preserve">10.7102861404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6841812133789</t>
   </si>
   <si>
     <t xml:space="preserve">10.7065572738647</t>
@@ -2930,16 +2930,16 @@
     <t xml:space="preserve">10.635703086853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6506185531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.661808013916</t>
+    <t xml:space="preserve">10.6506195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6618070602417</t>
   </si>
   <si>
     <t xml:space="preserve">10.3597421646118</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5163679122925</t>
+    <t xml:space="preserve">10.5163688659668</t>
   </si>
   <si>
     <t xml:space="preserve">10.714015007019</t>
@@ -2948,58 +2948,58 @@
     <t xml:space="preserve">10.6767244338989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3783874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7997875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8482666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7401189804077</t>
+    <t xml:space="preserve">10.3783864974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.799786567688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8482685089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.740119934082</t>
   </si>
   <si>
     <t xml:space="preserve">10.7848711013794</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8184337615967</t>
+    <t xml:space="preserve">10.8184328079224</t>
   </si>
   <si>
     <t xml:space="preserve">11.045916557312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.93030834198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8221626281738</t>
+    <t xml:space="preserve">10.9303102493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8221635818481</t>
   </si>
   <si>
     <t xml:space="preserve">10.7438488006592</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5089101791382</t>
+    <t xml:space="preserve">10.5089092254639</t>
   </si>
   <si>
     <t xml:space="preserve">10.6319732666016</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7960577011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.150333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5008792877197</t>
+    <t xml:space="preserve">10.7960586547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1503324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5008783340454</t>
   </si>
   <si>
     <t xml:space="preserve">11.5866508483887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.724630355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7992153167725</t>
+    <t xml:space="preserve">11.7246313095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7992162704468</t>
   </si>
   <si>
     <t xml:space="preserve">11.7544651031494</t>
@@ -3011,16 +3011,16 @@
     <t xml:space="preserve">11.6836099624634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8029441833496</t>
+    <t xml:space="preserve">11.8029451370239</t>
   </si>
   <si>
     <t xml:space="preserve">11.7470064163208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6761522293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.508337020874</t>
+    <t xml:space="preserve">11.6761512756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5083379745483</t>
   </si>
   <si>
     <t xml:space="preserve">11.6202144622803</t>
@@ -3029,19 +3029,19 @@
     <t xml:space="preserve">11.5903797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5642757415771</t>
+    <t xml:space="preserve">11.5642738342285</t>
   </si>
   <si>
     <t xml:space="preserve">11.6090259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8104028701782</t>
+    <t xml:space="preserve">11.8104038238525</t>
   </si>
   <si>
     <t xml:space="preserve">11.5978384017944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8066730499268</t>
+    <t xml:space="preserve">11.8066749572754</t>
   </si>
   <si>
     <t xml:space="preserve">11.8402366638184</t>
@@ -3050,19 +3050,19 @@
     <t xml:space="preserve">11.9558429718018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.989405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9371957778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3063888549805</t>
+    <t xml:space="preserve">11.9894065856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9371948242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3063879013062</t>
   </si>
   <si>
     <t xml:space="preserve">12.3287630081177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3958902359009</t>
+    <t xml:space="preserve">12.3958892822266</t>
   </si>
   <si>
     <t xml:space="preserve">12.5040349960327</t>
@@ -3080,31 +3080,31 @@
     <t xml:space="preserve">12.4928483963013</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5748901367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4779319763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338706970215</t>
+    <t xml:space="preserve">12.5748910903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4779300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338697433472</t>
   </si>
   <si>
     <t xml:space="preserve">12.5301399230957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5487880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6233711242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7240581512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7837257385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7016849517822</t>
+    <t xml:space="preserve">12.5487871170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6233701705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7240571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7837247848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7016839981079</t>
   </si>
   <si>
     <t xml:space="preserve">12.7799978256226</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">12.8061017990112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7576217651367</t>
+    <t xml:space="preserve">12.757622718811</t>
   </si>
   <si>
     <t xml:space="preserve">12.6532049179077</t>
@@ -3128,19 +3128,19 @@
     <t xml:space="preserve">12.6979541778564</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7688093185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8471231460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.563702583313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5860795974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5152254104614</t>
+    <t xml:space="preserve">12.7688102722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8471240997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5637035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5860786437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5152235031128</t>
   </si>
   <si>
     <t xml:space="preserve">12.4443683624268</t>
@@ -3149,40 +3149,40 @@
     <t xml:space="preserve">12.6793088912964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5599737167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7166004180908</t>
+    <t xml:space="preserve">12.5599746704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7166013717651</t>
   </si>
   <si>
     <t xml:space="preserve">12.8433933258057</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9552707672119</t>
+    <t xml:space="preserve">12.9552717208862</t>
   </si>
   <si>
     <t xml:space="preserve">13.0969791412354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9851026535034</t>
+    <t xml:space="preserve">12.9851055145264</t>
   </si>
   <si>
     <t xml:space="preserve">13.0373125076294</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0820636749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1566457748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1603775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1864805221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0037488937378</t>
+    <t xml:space="preserve">13.0820627212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1566467285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1603765487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1864814758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0037498474121</t>
   </si>
   <si>
     <t xml:space="preserve">13.0112075805664</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">13.1715641021729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3693351745605</t>
+    <t xml:space="preserve">13.3693342208862</t>
   </si>
   <si>
     <t xml:space="preserve">13.2427625656128</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1003656387329</t>
+    <t xml:space="preserve">13.1003675460815</t>
   </si>
   <si>
     <t xml:space="preserve">13.2150735855103</t>
@@ -3209,28 +3209,28 @@
     <t xml:space="preserve">13.3020935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3930683135986</t>
+    <t xml:space="preserve">13.3930673599243</t>
   </si>
   <si>
     <t xml:space="preserve">13.4088907241821</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5156850814819</t>
+    <t xml:space="preserve">13.5156860351562</t>
   </si>
   <si>
     <t xml:space="preserve">13.6462144851685</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6264371871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.590838432312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5473289489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5591945648193</t>
+    <t xml:space="preserve">13.6264381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5908393859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5473299026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.559196472168</t>
   </si>
   <si>
     <t xml:space="preserve">13.5671052932739</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">13.5789737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6383037567139</t>
+    <t xml:space="preserve">13.6383047103882</t>
   </si>
   <si>
     <t xml:space="preserve">13.3614234924316</t>
@@ -3248,37 +3248,37 @@
     <t xml:space="preserve">13.3970222473145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3574695587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1755199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4603099822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2506723403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2981367111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3732919692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4998636245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4484443664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5631513595581</t>
+    <t xml:space="preserve">13.3574686050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.175518989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4603090286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2506713867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2981376647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.373291015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4998645782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4484434127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5631504058838</t>
   </si>
   <si>
     <t xml:space="preserve">13.3218698501587</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1082773208618</t>
+    <t xml:space="preserve">13.1082763671875</t>
   </si>
   <si>
     <t xml:space="preserve">13.4523983001709</t>
@@ -3290,22 +3290,22 @@
     <t xml:space="preserve">13.3891124725342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.290225982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2388067245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.835352897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9658813476562</t>
+    <t xml:space="preserve">13.2902250289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2388076782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8353519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9658823013306</t>
   </si>
   <si>
     <t xml:space="preserve">13.2467174530029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2823162078857</t>
+    <t xml:space="preserve">13.2823152542114</t>
   </si>
   <si>
     <t xml:space="preserve">13.2546272277832</t>
@@ -3314,19 +3314,19 @@
     <t xml:space="preserve">13.3297815322876</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1913394927979</t>
+    <t xml:space="preserve">13.1913414001465</t>
   </si>
   <si>
     <t xml:space="preserve">13.112232208252</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1517868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3535137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4207563400269</t>
+    <t xml:space="preserve">13.1517877578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3535127639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4207553863525</t>
   </si>
   <si>
     <t xml:space="preserve">13.4721765518188</t>
@@ -3335,58 +3335,58 @@
     <t xml:space="preserve">13.6027059555054</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6976356506348</t>
+    <t xml:space="preserve">13.6976366043091</t>
   </si>
   <si>
     <t xml:space="preserve">13.7451009750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6659908294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6699485778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5038194656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5710620880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5512828826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5117301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.53941822052</t>
+    <t xml:space="preserve">13.6659917831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6699476242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5038185119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5710611343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5512838363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5117311477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5394172668457</t>
   </si>
   <si>
     <t xml:space="preserve">13.662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.725323677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7411451339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7015905380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716745376587</t>
+    <t xml:space="preserve">13.7253246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7411460876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7015895843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716735839844</t>
   </si>
   <si>
     <t xml:space="preserve">13.9705600738525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0378036499023</t>
+    <t xml:space="preserve">14.037802696228</t>
   </si>
   <si>
     <t xml:space="preserve">13.7886114120483</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9626493453979</t>
+    <t xml:space="preserve">13.9626474380493</t>
   </si>
   <si>
     <t xml:space="preserve">13.923095703125</t>
@@ -3395,85 +3395,85 @@
     <t xml:space="preserve">14.0140695571899</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1366882324219</t>
+    <t xml:space="preserve">14.1366891860962</t>
   </si>
   <si>
     <t xml:space="preserve">13.9903373718262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8044328689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.223708152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3384132385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5005865097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7339553833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4372987747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5717830657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5480508804321</t>
+    <t xml:space="preserve">13.8044338226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2237062454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.338415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5005855560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7339563369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4372997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5717849731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5480518341064</t>
   </si>
   <si>
     <t xml:space="preserve">14.5638732910156</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5361852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8288888931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7023115158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8407516479492</t>
+    <t xml:space="preserve">14.5361862182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8288860321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7023124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8407535552979</t>
   </si>
   <si>
     <t xml:space="preserve">14.8684415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.947548866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0227012634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8011989593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8130655288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8644866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9253072738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1158761978149</t>
+    <t xml:space="preserve">14.9475498199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0227031707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8011980056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8130664825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8644857406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9253053665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.990180015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1158771514893</t>
   </si>
   <si>
     <t xml:space="preserve">15.0631647109985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0956029891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1564245223999</t>
+    <t xml:space="preserve">15.0956020355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1564235687256</t>
   </si>
   <si>
     <t xml:space="preserve">15.2618446350098</t>
@@ -3482,22 +3482,22 @@
     <t xml:space="preserve">15.2091341018677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2780637741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2861747741699</t>
+    <t xml:space="preserve">15.2780656814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2861728668213</t>
   </si>
   <si>
     <t xml:space="preserve">15.3753757476807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3915948867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.468635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037618637085</t>
+    <t xml:space="preserve">15.3915939331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4686346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037599563599</t>
   </si>
   <si>
     <t xml:space="preserve">15.4929628372192</t>
@@ -3512,58 +3512,58 @@
     <t xml:space="preserve">15.424033164978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5294551849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5172910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6024398803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2172422409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0834379196167</t>
+    <t xml:space="preserve">15.5294523239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5172901153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6024389266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2172431945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0834398269653</t>
   </si>
   <si>
     <t xml:space="preserve">14.8279933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9212503433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8969230651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8563747406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3211584091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4346885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3779239654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.702296257019</t>
+    <t xml:space="preserve">14.9212512969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8969249725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8563766479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3211574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4346895217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3779230117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7022972106934</t>
   </si>
   <si>
     <t xml:space="preserve">14.6293144226074</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7509546279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0915489196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1645345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9982900619507</t>
+    <t xml:space="preserve">14.7509536743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0915508270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.164532661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.998291015625</t>
   </si>
   <si>
     <t xml:space="preserve">15.0712738037109</t>
@@ -3575,40 +3575,40 @@
     <t xml:space="preserve">14.9617986679077</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8158292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9131412506104</t>
+    <t xml:space="preserve">14.8158283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9131422042847</t>
   </si>
   <si>
     <t xml:space="preserve">15.1118221282959</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0428924560547</t>
+    <t xml:space="preserve">15.0428905487061</t>
   </si>
   <si>
     <t xml:space="preserve">15.2050790786743</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1483144760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1077661514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4118680953979</t>
+    <t xml:space="preserve">15.1483154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1077651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4118671417236</t>
   </si>
   <si>
     <t xml:space="preserve">15.3226661682129</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9739618301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0591106414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9699068069458</t>
+    <t xml:space="preserve">14.9739627838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0591115951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9699058532715</t>
   </si>
   <si>
     <t xml:space="preserve">15.0753297805786</t>
@@ -3620,34 +3620,34 @@
     <t xml:space="preserve">15.1848077774048</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9536876678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0672206878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2902269363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1807498931885</t>
+    <t xml:space="preserve">14.953688621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0672187805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2902278900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1807518005371</t>
   </si>
   <si>
     <t xml:space="preserve">15.3064479827881</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5117292404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6374206542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8239402770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1361513137817</t>
+    <t xml:space="preserve">14.5117282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6374225616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8239393234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117742538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1361503601074</t>
   </si>
   <si>
     <t xml:space="preserve">14.8766489028931</t>
@@ -3656,34 +3656,34 @@
     <t xml:space="preserve">15.1239862442017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0996589660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8847579956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3713235855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0347843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6941900253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7347345352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1630249023438</t>
+    <t xml:space="preserve">15.0996561050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8847589492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3713226318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0347814559937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6941909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7347364425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1630258560181</t>
   </si>
   <si>
     <t xml:space="preserve">14.5076742172241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576019287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9684000015259</t>
+    <t xml:space="preserve">14.0576028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9684009552002</t>
   </si>
   <si>
     <t xml:space="preserve">13.9075784683228</t>
@@ -3704,46 +3704,46 @@
     <t xml:space="preserve">13.6237506866455</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9237976074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3089933395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5238924026489</t>
+    <t xml:space="preserve">13.9237985610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3089942932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5238914489746</t>
   </si>
   <si>
     <t xml:space="preserve">15.2253532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1929149627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3105001449585</t>
+    <t xml:space="preserve">15.1929159164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3105010986328</t>
   </si>
   <si>
     <t xml:space="preserve">15.4605274200439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7484073638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3322811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9997987747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3160667419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8431720733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1188907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4620304107666</t>
+    <t xml:space="preserve">15.7484064102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3322830200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9997978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3160629272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8431739807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1188926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4620323181152</t>
   </si>
   <si>
     <t xml:space="preserve">16.3890476226807</t>
@@ -3752,52 +3752,52 @@
     <t xml:space="preserve">16.2025337219238</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6997518539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8822116851807</t>
+    <t xml:space="preserve">15.6997528076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.882212638855</t>
   </si>
   <si>
     <t xml:space="preserve">15.764627456665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6308221817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5578393936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6227130889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1402034759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9334163665771</t>
+    <t xml:space="preserve">15.6308212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5578374862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6227121353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1402044296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9334154129028</t>
   </si>
   <si>
     <t xml:space="preserve">14.6455316543579</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6820240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5968761444092</t>
+    <t xml:space="preserve">14.6820259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5968751907349</t>
   </si>
   <si>
     <t xml:space="preserve">14.6779689788818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5563316345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8442115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7590646743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5887670516968</t>
+    <t xml:space="preserve">14.5563306808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8442134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7590656280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5887680053711</t>
   </si>
   <si>
     <t xml:space="preserve">14.3819789886475</t>
@@ -3806,25 +3806,25 @@
     <t xml:space="preserve">14.1427516937256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3617038726807</t>
+    <t xml:space="preserve">14.3617029190063</t>
   </si>
   <si>
     <t xml:space="preserve">14.4022521972656</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3292675018311</t>
+    <t xml:space="preserve">14.3292655944824</t>
   </si>
   <si>
     <t xml:space="preserve">14.4468536376953</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5928211212158</t>
+    <t xml:space="preserve">14.5928220748901</t>
   </si>
   <si>
     <t xml:space="preserve">15.0282354354858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8945922851562</t>
+    <t xml:space="preserve">14.8945932388306</t>
   </si>
   <si>
     <t xml:space="preserve">14.9635696411133</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">15.0239229202271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7264623641968</t>
+    <t xml:space="preserve">14.7264642715454</t>
   </si>
   <si>
     <t xml:space="preserve">14.6919755935669</t>
@@ -3842,28 +3842,28 @@
     <t xml:space="preserve">14.6143779754639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.579888343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152225494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4117584228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6014432907104</t>
+    <t xml:space="preserve">14.5798892974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152215957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4117593765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6014423370361</t>
   </si>
   <si>
     <t xml:space="preserve">14.5066013336182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3427820205688</t>
+    <t xml:space="preserve">14.3427810668945</t>
   </si>
   <si>
     <t xml:space="preserve">14.213451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5193758010864</t>
+    <t xml:space="preserve">13.5193767547607</t>
   </si>
   <si>
     <t xml:space="preserve">13.3598680496216</t>
@@ -3878,31 +3878,31 @@
     <t xml:space="preserve">13.5150651931763</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4633331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7090606689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5236864089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3814239501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3167581558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8125267028809</t>
+    <t xml:space="preserve">13.4633321762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7090616226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5236873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.381422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3167572021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8125257492065</t>
   </si>
   <si>
     <t xml:space="preserve">13.3943567276001</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5538635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4159126281738</t>
+    <t xml:space="preserve">13.5538644790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4159107208252</t>
   </si>
   <si>
     <t xml:space="preserve">13.1270732879639</t>
@@ -3923,34 +3923,34 @@
     <t xml:space="preserve">13.1917381286621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2520923614502</t>
+    <t xml:space="preserve">13.2520933151245</t>
   </si>
   <si>
     <t xml:space="preserve">13.0796518325806</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1184501647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8985891342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4717960357666</t>
+    <t xml:space="preserve">13.1184511184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.898588180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4717969894409</t>
   </si>
   <si>
     <t xml:space="preserve">12.5580167770386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5407733917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6614828109741</t>
+    <t xml:space="preserve">12.5407724380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6614818572998</t>
   </si>
   <si>
     <t xml:space="preserve">12.2993564605713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2778005599976</t>
+    <t xml:space="preserve">12.2777996063232</t>
   </si>
   <si>
     <t xml:space="preserve">12.3252220153809</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">12.5450839996338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2950458526611</t>
+    <t xml:space="preserve">12.2950448989868</t>
   </si>
   <si>
     <t xml:space="preserve">12.2519340515137</t>
@@ -3968,10 +3968,10 @@
     <t xml:space="preserve">12.4502410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752611160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8339242935181</t>
+    <t xml:space="preserve">12.5752620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8339233398438</t>
   </si>
   <si>
     <t xml:space="preserve">12.5881948471069</t>
@@ -3980,13 +3980,13 @@
     <t xml:space="preserve">12.6528596878052</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7606363296509</t>
+    <t xml:space="preserve">12.7606353759766</t>
   </si>
   <si>
     <t xml:space="preserve">12.9675645828247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0365400314331</t>
+    <t xml:space="preserve">13.0365409851074</t>
   </si>
   <si>
     <t xml:space="preserve">13.1744937896729</t>
@@ -3998,16 +3998,16 @@
     <t xml:space="preserve">13.351245880127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.24778175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2865800857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0192966461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8856554031372</t>
+    <t xml:space="preserve">13.2477807998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2865810394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0192975997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8856544494629</t>
   </si>
   <si>
     <t xml:space="preserve">12.8209896087646</t>
@@ -4028,16 +4028,16 @@
     <t xml:space="preserve">12.6226825714111</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5105962753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9546308517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6011266708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5666399002075</t>
+    <t xml:space="preserve">12.5105953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9546318054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6011276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5666389465332</t>
   </si>
   <si>
     <t xml:space="preserve">12.6571712493896</t>
@@ -4061,7 +4061,7 @@
     <t xml:space="preserve">12.8253011703491</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8597898483276</t>
+    <t xml:space="preserve">12.8597888946533</t>
   </si>
   <si>
     <t xml:space="preserve">12.4416198730469</t>
@@ -4079,19 +4079,19 @@
     <t xml:space="preserve">11.9372291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0881156921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5019731521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2476243972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9674062728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8510084152222</t>
+    <t xml:space="preserve">12.0881147384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.501974105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2476234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9674072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8510093688965</t>
   </si>
   <si>
     <t xml:space="preserve">12.0708713531494</t>
@@ -4112,10 +4112,10 @@
     <t xml:space="preserve">12.415753364563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8922548294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525732040405</t>
+    <t xml:space="preserve">12.8922557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525722503662</t>
   </si>
   <si>
     <t xml:space="preserve">13.0792932510376</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173452377319</t>
+    <t xml:space="preserve">13.2173442840576</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">13.2529716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266481399536</t>
+    <t xml:space="preserve">13.4266490936279</t>
   </si>
   <si>
     <t xml:space="preserve">13.4221954345703</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346811294556</t>
+    <t xml:space="preserve">15.2346820831299</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367101669312</t>
+    <t xml:space="preserve">15.1367111206055</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4187,10 +4187,10 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1233501434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0610036849976</t>
+    <t xml:space="preserve">15.123348236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
@@ -4202,28 +4202,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524948120117</t>
+    <t xml:space="preserve">15.0877237319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524938583374</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326539993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3281993865967</t>
+    <t xml:space="preserve">15.3326549530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.328200340271</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192949295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217205047607</t>
+    <t xml:space="preserve">15.3192939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217195510864</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006853103638</t>
+    <t xml:space="preserve">14.9006843566895</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075654983521</t>
+    <t xml:space="preserve">15.0075645446777</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860931396484</t>
+    <t xml:space="preserve">15.3860921859741</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439859390259</t>
@@ -4286,22 +4286,22 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4974250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840660095215</t>
+    <t xml:space="preserve">15.49742603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840650558472</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6087579727173</t>
+    <t xml:space="preserve">15.5196905136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953989028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.608757019043</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4313,10 +4313,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115810394287</t>
+    <t xml:space="preserve">15.9561147689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115800857544</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427547454834</t>
+    <t xml:space="preserve">15.9427528381348</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4340,31 +4340,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297912597656</t>
+    <t xml:space="preserve">16.1297931671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698703765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.22776222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500305175781</t>
+    <t xml:space="preserve">16.1698722839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2277641296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500324249268</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544822692871</t>
+    <t xml:space="preserve">16.2544841766357</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034687042236</t>
+    <t xml:space="preserve">16.3034706115723</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4373,7 +4373,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476039886475</t>
+    <t xml:space="preserve">16.1476058959961</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026746749878</t>
+    <t xml:space="preserve">15.9026737213135</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4448,13 +4448,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2901096343994</t>
+    <t xml:space="preserve">16.290111541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216789245605</t>
+    <t xml:space="preserve">16.5216808319092</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4469,16 +4469,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289585113525</t>
+    <t xml:space="preserve">16.8289566040039</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070877075195</t>
+    <t xml:space="preserve">17.0026340484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070896148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4490,7 +4490,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.926929473877</t>
+    <t xml:space="preserve">16.9269275665283</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4502,22 +4502,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4815998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002113342285</t>
+    <t xml:space="preserve">16.4816017150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002094268799</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022384643555</t>
+    <t xml:space="preserve">16.5706653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022365570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -61794,7 +61794,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6505671296</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>3350876</v>
@@ -61815,6 +61815,32 @@
         <v>1742</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6516319444</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>2524398</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>23.8199996948242</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>23.5599994659424</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>23.8099994659424</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>23.6499996185303</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1744">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">9.22084331512451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20361995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10601425170898</t>
+    <t xml:space="preserve">9.2036190032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1060152053833</t>
   </si>
   <si>
     <t xml:space="preserve">8.84764671325684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97395992279053</t>
+    <t xml:space="preserve">8.97395896911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.15194511413574</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">8.65243530273438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71559238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37110233306885</t>
+    <t xml:space="preserve">8.71559143066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37110137939453</t>
   </si>
   <si>
     <t xml:space="preserve">8.526123046875</t>
@@ -89,31 +89,31 @@
     <t xml:space="preserve">8.38832664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12421798706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01512813568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68786430358887</t>
+    <t xml:space="preserve">8.12421703338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01512908935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68786382675171</t>
   </si>
   <si>
     <t xml:space="preserve">7.91752433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77972793579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48691177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30318403244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22280216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02759122848511</t>
+    <t xml:space="preserve">7.77972888946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48691082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30318355560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22280359268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02759170532227</t>
   </si>
   <si>
     <t xml:space="preserve">6.80941438674927</t>
@@ -122,61 +122,61 @@
     <t xml:space="preserve">6.53382301330566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87831258773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29267978668213</t>
+    <t xml:space="preserve">6.8783130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29268026351929</t>
   </si>
   <si>
     <t xml:space="preserve">6.40176820755005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66013669967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68310260772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8381233215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79219055175781</t>
+    <t xml:space="preserve">6.6601357460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68310213088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83812284469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79219007492065</t>
   </si>
   <si>
     <t xml:space="preserve">6.7232928276062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96443557739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95869398117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0218505859375</t>
+    <t xml:space="preserve">6.9644341468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95869445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185010910034</t>
   </si>
   <si>
     <t xml:space="preserve">7.33189105987549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35485696792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41227149963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52710199356079</t>
+    <t xml:space="preserve">7.35485744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41227197647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52710247039795</t>
   </si>
   <si>
     <t xml:space="preserve">7.52136135101318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44672155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31466722488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38930654525757</t>
+    <t xml:space="preserve">7.44672203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31466770172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38930606842041</t>
   </si>
   <si>
     <t xml:space="preserve">7.4524621963501</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">7.44097900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98068046569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91178131103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86585140228271</t>
+    <t xml:space="preserve">7.98068141937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91178226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86584949493408</t>
   </si>
   <si>
     <t xml:space="preserve">7.95197343826294</t>
@@ -200,82 +200,82 @@
     <t xml:space="preserve">7.96919775009155</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83714199066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74527788162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6476731300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6017427444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43523740768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49839448928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55580806732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4811692237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3720817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28595733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05055856704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0735239982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91850471496582</t>
+    <t xml:space="preserve">7.83714246749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74527978897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767360687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60174131393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43523788452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49839639663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55580902099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48116970062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37208127975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28595972061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05055809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07352352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9185037612915</t>
   </si>
   <si>
     <t xml:space="preserve">7.11945581436157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20557928085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22854471206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50413417816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56729221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55006742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6189661026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67063999176025</t>
+    <t xml:space="preserve">7.20557832717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22854328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50413608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5672926902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55006885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61896753311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67064094543457</t>
   </si>
   <si>
     <t xml:space="preserve">7.82566022872925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90604066848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86010980606079</t>
+    <t xml:space="preserve">7.90604162216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86010932922363</t>
   </si>
   <si>
     <t xml:space="preserve">7.9290075302124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87733316421509</t>
+    <t xml:space="preserve">7.87733268737793</t>
   </si>
   <si>
     <t xml:space="preserve">7.84862613677979</t>
@@ -284,94 +284,94 @@
     <t xml:space="preserve">7.64193201065063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46394443511963</t>
+    <t xml:space="preserve">7.46394538879395</t>
   </si>
   <si>
     <t xml:space="preserve">7.42375564575195</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60748338699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14816474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2342848777771</t>
+    <t xml:space="preserve">7.60748434066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14816284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23428583145142</t>
   </si>
   <si>
     <t xml:space="preserve">7.1251974105835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18261384963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3204083442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38734436035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81330251693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92283582687378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98368740081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02019691467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92892074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88632440567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83764410018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61857938766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60641002655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73419809341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88023853302002</t>
+    <t xml:space="preserve">7.18261194229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32040691375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3873438835144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81330442428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92283487319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98368644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02019786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92892026901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88632392883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83764362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61857986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60640859603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73419713973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88024044036865</t>
   </si>
   <si>
     <t xml:space="preserve">7.84372901916504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49079036712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24738597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04049253463745</t>
+    <t xml:space="preserve">7.4907922744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24738645553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04049205780029</t>
   </si>
   <si>
     <t xml:space="preserve">7.06483221054077</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98572492599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25955677032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47862148284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61249351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65508937835693</t>
+    <t xml:space="preserve">6.98572587966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25955772399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4786205291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61249399185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65509080886841</t>
   </si>
   <si>
     <t xml:space="preserve">6.64495897293091</t>
@@ -380,22 +380,22 @@
     <t xml:space="preserve">6.08208417892456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17640399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32244729995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41980934143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49283027648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31027746200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18857431411743</t>
+    <t xml:space="preserve">6.17640447616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32244777679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41981029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49283123016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31027698516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18857383728027</t>
   </si>
   <si>
     <t xml:space="preserve">5.97255229949951</t>
@@ -404,88 +404,88 @@
     <t xml:space="preserve">5.98472261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45023536682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4989161491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82751274108887</t>
+    <t xml:space="preserve">6.45023441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49891567230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82751369476318</t>
   </si>
   <si>
     <t xml:space="preserve">6.76057577133179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93704557418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87010860443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90662097930908</t>
+    <t xml:space="preserve">6.93704509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87010812759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90661907196045</t>
   </si>
   <si>
     <t xml:space="preserve">6.82142782211304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91270542144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83968353271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79708814620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74840688705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8761944770813</t>
+    <t xml:space="preserve">6.9127049446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83968305587769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79708766937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74840641021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87619400024414</t>
   </si>
   <si>
     <t xml:space="preserve">6.68755483627319</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16828107833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13785409927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85793781280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13176918029785</t>
+    <t xml:space="preserve">7.16828012466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13785457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85793924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13176965713501</t>
   </si>
   <si>
     <t xml:space="preserve">7.27781200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36300420761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3690881729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41168642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15002346038818</t>
+    <t xml:space="preserve">7.36300373077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36909008026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41168451309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1500244140625</t>
   </si>
   <si>
     <t xml:space="preserve">6.95530033111572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97355604171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80317163467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10742855072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08308792114258</t>
+    <t xml:space="preserve">6.97355651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80317306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10742807388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08308887481689</t>
   </si>
   <si>
     <t xml:space="preserve">6.88227939605713</t>
@@ -494,61 +494,61 @@
     <t xml:space="preserve">6.80925703048706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67538547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84576892852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01006698608398</t>
+    <t xml:space="preserve">6.67538404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84576749801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01006746292114</t>
   </si>
   <si>
     <t xml:space="preserve">7.0587477684021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00398206710815</t>
+    <t xml:space="preserve">7.00398111343384</t>
   </si>
   <si>
     <t xml:space="preserve">6.94921541213989</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04657745361328</t>
+    <t xml:space="preserve">7.04657697677612</t>
   </si>
   <si>
     <t xml:space="preserve">7.22304630279541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32649183273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76666069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69364070892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7910008430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86402320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81534337997437</t>
+    <t xml:space="preserve">7.32649421691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76666212081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69364023208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79100131988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86402368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81534290313721</t>
   </si>
   <si>
     <t xml:space="preserve">6.65712928771973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6267032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63887405395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66929864883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60844802856445</t>
+    <t xml:space="preserve">6.62670373916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63887357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66930055618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60844755172729</t>
   </si>
   <si>
     <t xml:space="preserve">6.57802295684814</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">6.83359718322754</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9248743057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91878986358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25347137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23521614074707</t>
+    <t xml:space="preserve">6.92487525939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91878890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25347185134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23521661758423</t>
   </si>
   <si>
     <t xml:space="preserve">7.26564121246338</t>
@@ -578,25 +578,25 @@
     <t xml:space="preserve">7.35691928863525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33866453170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39951467514038</t>
+    <t xml:space="preserve">7.33866357803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39951515197754</t>
   </si>
   <si>
     <t xml:space="preserve">7.38125896453857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21087551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16219472885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05266141891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73623514175415</t>
+    <t xml:space="preserve">7.21087741851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16219568252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05266237258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73623561859131</t>
   </si>
   <si>
     <t xml:space="preserve">6.90053415298462</t>
@@ -605,34 +605,34 @@
     <t xml:space="preserve">7.15611028671265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14393949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94313049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08917236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8883638381958</t>
+    <t xml:space="preserve">7.14394044876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94313097000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08917331695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88836336135864</t>
   </si>
   <si>
     <t xml:space="preserve">7.50904703140259</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42385530471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8072190284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3792200088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76258277893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53135013580322</t>
+    <t xml:space="preserve">7.42385482788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80721759796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37922096252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7625846862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53134727478027</t>
   </si>
   <si>
     <t xml:space="preserve">8.55568981170654</t>
@@ -641,22 +641,22 @@
     <t xml:space="preserve">8.49483776092529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40964698791504</t>
+    <t xml:space="preserve">8.40964603424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.62262630462646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6408805847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71998691558838</t>
+    <t xml:space="preserve">8.64087963104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7199878692627</t>
   </si>
   <si>
     <t xml:space="preserve">8.66522121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67739105224609</t>
+    <t xml:space="preserve">8.67739295959473</t>
   </si>
   <si>
     <t xml:space="preserve">8.74432754516602</t>
@@ -665,58 +665,58 @@
     <t xml:space="preserve">8.750412940979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63479423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58611297607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59220123291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73215961456299</t>
+    <t xml:space="preserve">8.63479518890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58611488342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59219932556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73215675354004</t>
   </si>
   <si>
     <t xml:space="preserve">8.79300880432129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83560466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78083992004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79909420013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60436916351318</t>
+    <t xml:space="preserve">8.83560562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78083896636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79909515380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6043701171875</t>
   </si>
   <si>
     <t xml:space="preserve">8.56785869598389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33662509918213</t>
+    <t xml:space="preserve">8.46441078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33662414550781</t>
   </si>
   <si>
     <t xml:space="preserve">8.31228351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24534797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34879493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34270858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67130661010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38326549530029</t>
+    <t xml:space="preserve">8.24534893035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34879398345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3427095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67130565643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38326644897461</t>
   </si>
   <si>
     <t xml:space="preserve">9.47454357147217</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">9.51105403900146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37109565734863</t>
+    <t xml:space="preserve">9.37109661102295</t>
   </si>
   <si>
     <t xml:space="preserve">9.07292366027832</t>
@@ -737,40 +737,40 @@
     <t xml:space="preserve">8.93296718597412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0911808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11552143096924</t>
+    <t xml:space="preserve">9.09117889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11551952362061</t>
   </si>
   <si>
     <t xml:space="preserve">8.9025411605835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85385990142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75649929046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82343482971191</t>
+    <t xml:space="preserve">8.85385894775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75649738311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82343578338623</t>
   </si>
   <si>
     <t xml:space="preserve">8.98773288726807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13377571105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96339225769043</t>
+    <t xml:space="preserve">9.13377666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96339321136475</t>
   </si>
   <si>
     <t xml:space="preserve">8.99381923675537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04249858856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91471195220947</t>
+    <t xml:space="preserve">9.0424976348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91471099853516</t>
   </si>
   <si>
     <t xml:space="preserve">8.89645576477051</t>
@@ -782,37 +782,37 @@
     <t xml:space="preserve">8.73824214935303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58002853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22709178924561</t>
+    <t xml:space="preserve">8.58003044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22709274291992</t>
   </si>
   <si>
     <t xml:space="preserve">8.35487842559814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62870979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54351902008057</t>
+    <t xml:space="preserve">8.62871170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54351806640625</t>
   </si>
   <si>
     <t xml:space="preserve">8.64696598052979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8721170425415</t>
+    <t xml:space="preserve">8.87211513519287</t>
   </si>
   <si>
     <t xml:space="preserve">8.88428592681885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87819957733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86602973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95122241973877</t>
+    <t xml:space="preserve">8.87820053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8660306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95122337341309</t>
   </si>
   <si>
     <t xml:space="preserve">9.06683921813965</t>
@@ -830,103 +830,103 @@
     <t xml:space="preserve">8.54960441589355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44007110595703</t>
+    <t xml:space="preserve">8.44007205963135</t>
   </si>
   <si>
     <t xml:space="preserve">9.01815795898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84169006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95730686187744</t>
+    <t xml:space="preserve">8.84168910980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95730781555176</t>
   </si>
   <si>
     <t xml:space="preserve">9.1276912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27981853485107</t>
+    <t xml:space="preserve">9.27981948852539</t>
   </si>
   <si>
     <t xml:space="preserve">9.29807472229004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32849884033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30415821075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03032970428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97556304931641</t>
+    <t xml:space="preserve">9.32850074768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30415916442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03032875061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97556209564209</t>
   </si>
   <si>
     <t xml:space="preserve">9.12160587310791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15811824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20679759979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3931188583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42524337768555</t>
+    <t xml:space="preserve">9.15811729431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2067985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39311790466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42524242401123</t>
   </si>
   <si>
     <t xml:space="preserve">9.27104663848877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24534702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21964931488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03332805633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91767883300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0269021987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12327575683594</t>
+    <t xml:space="preserve">9.24534606933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21964645385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03332710266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91768074035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02690124511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1232738494873</t>
   </si>
   <si>
     <t xml:space="preserve">8.89840602874756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84058094024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8213062286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97550487518311</t>
+    <t xml:space="preserve">8.8405818939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82130718231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97550296783447</t>
   </si>
   <si>
     <t xml:space="preserve">9.03975200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1361255645752</t>
+    <t xml:space="preserve">9.13612461090088</t>
   </si>
   <si>
     <t xml:space="preserve">9.31602001190186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3224458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2581958770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3738431930542</t>
+    <t xml:space="preserve">9.32244491577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25819683074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37384510040283</t>
   </si>
   <si>
     <t xml:space="preserve">9.38669300079346</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">9.34171962738037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30959510803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33529472351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38026809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4188175201416</t>
+    <t xml:space="preserve">9.30959415435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33529376983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38027000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41881656646729</t>
   </si>
   <si>
     <t xml:space="preserve">9.47021579742432</t>
@@ -959,73 +959,73 @@
     <t xml:space="preserve">9.6693868637085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63726329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63083648681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74006080627441</t>
+    <t xml:space="preserve">9.63726139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63083744049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7400598526001</t>
   </si>
   <si>
     <t xml:space="preserve">9.88783073425293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95207977294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81073379516602</t>
+    <t xml:space="preserve">9.95208072662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8107328414917</t>
   </si>
   <si>
     <t xml:space="preserve">9.77860832214355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65653610229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61798858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84928131103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86855792999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89425468444824</t>
+    <t xml:space="preserve">9.65653705596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61798763275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84928226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86855602264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89425563812256</t>
   </si>
   <si>
     <t xml:space="preserve">10.170524597168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1833724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2347736358643</t>
+    <t xml:space="preserve">10.1833734512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2347726821899</t>
   </si>
   <si>
     <t xml:space="preserve">10.3311452865601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2925958633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.157675743103</t>
+    <t xml:space="preserve">10.2925968170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1576738357544</t>
   </si>
   <si>
     <t xml:space="preserve">10.0998497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91995334625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95850467681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9970531463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91353130340576</t>
+    <t xml:space="preserve">9.91995525360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95850372314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99705219268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91353034973145</t>
   </si>
   <si>
     <t xml:space="preserve">9.96492958068848</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">9.87498092651367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80430793762207</t>
+    <t xml:space="preserve">9.80430698394775</t>
   </si>
   <si>
     <t xml:space="preserve">9.79145812988281</t>
@@ -1043,31 +1043,31 @@
     <t xml:space="preserve">9.77218437194824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7850341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75290966033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62441349029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61156272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66296100616455</t>
+    <t xml:space="preserve">9.78503322601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75290870666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62441253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61156177520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66296195983887</t>
   </si>
   <si>
     <t xml:space="preserve">9.70793533325195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76575946807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72078418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68866157531738</t>
+    <t xml:space="preserve">9.7657585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72078514099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68866062164307</t>
   </si>
   <si>
     <t xml:space="preserve">9.98420333862305</t>
@@ -1076,58 +1076,58 @@
     <t xml:space="preserve">10.0420274734497</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84285640716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99062824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0099020004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97135448455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255502700806</t>
+    <t xml:space="preserve">9.84285736083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99062728881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0099029541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97135543823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255512237549</t>
   </si>
   <si>
     <t xml:space="preserve">10.164098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2283487319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0291776657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93922996520996</t>
+    <t xml:space="preserve">10.2283477783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0291767120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93922805786133</t>
   </si>
   <si>
     <t xml:space="preserve">9.94565486907959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92637825012207</t>
+    <t xml:space="preserve">9.92637920379639</t>
   </si>
   <si>
     <t xml:space="preserve">9.81715679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0934247970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.054877281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1127004623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.048451423645</t>
+    <t xml:space="preserve">10.0934257507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0548763275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.112699508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0484523773193</t>
   </si>
   <si>
     <t xml:space="preserve">10.2219228744507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1191253662109</t>
+    <t xml:space="preserve">10.1191244125366</t>
   </si>
   <si>
     <t xml:space="preserve">10.0356025695801</t>
@@ -1136,67 +1136,67 @@
     <t xml:space="preserve">9.9777774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1319751739502</t>
+    <t xml:space="preserve">10.1319761276245</t>
   </si>
   <si>
     <t xml:space="preserve">9.88140678405762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72720909118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67581081390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70151233673096</t>
+    <t xml:space="preserve">9.72721004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67581176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70151042938232</t>
   </si>
   <si>
     <t xml:space="preserve">9.75933361053467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83643341064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82358169555664</t>
+    <t xml:space="preserve">9.83643245697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82358264923096</t>
   </si>
   <si>
     <t xml:space="preserve">9.90068054199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83000755310059</t>
+    <t xml:space="preserve">9.8300085067749</t>
   </si>
   <si>
     <t xml:space="preserve">9.79788303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65011024475098</t>
+    <t xml:space="preserve">9.65011310577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.56658935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0677261352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0741510391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1769485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1512508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3889684677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4018201828003</t>
+    <t xml:space="preserve">10.0677270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0741519927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.176947593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1512498855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3889675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.401819229126</t>
   </si>
   <si>
     <t xml:space="preserve">10.2990207672119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4082431793213</t>
+    <t xml:space="preserve">10.4082441329956</t>
   </si>
   <si>
     <t xml:space="preserve">10.4210929870605</t>
@@ -1205,37 +1205,37 @@
     <t xml:space="preserve">10.2701082229614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2604713439941</t>
+    <t xml:space="preserve">10.2604722976685</t>
   </si>
   <si>
     <t xml:space="preserve">10.2444086074829</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0870018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86213207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171760559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91031646728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8717679977417</t>
+    <t xml:space="preserve">10.0870008468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86213302612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9617166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91031837463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87176895141602</t>
   </si>
   <si>
     <t xml:space="preserve">9.90710544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89746952056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45736694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74327182769775</t>
+    <t xml:space="preserve">9.89746856689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45736598968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74327087402344</t>
   </si>
   <si>
     <t xml:space="preserve">9.94886684417725</t>
@@ -1244,31 +1244,31 @@
     <t xml:space="preserve">9.83964443206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1030645370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0805768966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0227518081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0388154983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0645151138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1448249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2572603225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4114551544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3921794891357</t>
+    <t xml:space="preserve">10.1030626296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0805749893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0227537155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0388145446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0645141601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1448240280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2572584152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4114561080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3921804428101</t>
   </si>
   <si>
     <t xml:space="preserve">10.4435787200928</t>
@@ -1277,16 +1277,16 @@
     <t xml:space="preserve">10.5335273742676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.629900932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7391214370728</t>
+    <t xml:space="preserve">10.6298999786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7391223907471</t>
   </si>
   <si>
     <t xml:space="preserve">10.8676204681396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9575672149658</t>
+    <t xml:space="preserve">10.9575681686401</t>
   </si>
   <si>
     <t xml:space="preserve">10.7326974868774</t>
@@ -1295,28 +1295,28 @@
     <t xml:space="preserve">10.8194351196289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6845111846924</t>
+    <t xml:space="preserve">10.6845092773438</t>
   </si>
   <si>
     <t xml:space="preserve">10.7551851272583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8097953796387</t>
+    <t xml:space="preserve">10.809796333313</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065824508667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7808847427368</t>
+    <t xml:space="preserve">10.7808837890625</t>
   </si>
   <si>
     <t xml:space="preserve">10.62668800354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.639536857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5399513244629</t>
+    <t xml:space="preserve">10.6395378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5399522781372</t>
   </si>
   <si>
     <t xml:space="preserve">10.6009874343872</t>
@@ -1325,88 +1325,88 @@
     <t xml:space="preserve">10.6074142456055</t>
   </si>
   <si>
-    <t xml:space="preserve">10.395393371582</t>
+    <t xml:space="preserve">10.3953943252563</t>
   </si>
   <si>
     <t xml:space="preserve">10.4307308197021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3568439483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.383975982666</t>
+    <t xml:space="preserve">10.3568449020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3839750289917</t>
   </si>
   <si>
     <t xml:space="preserve">10.350061416626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2279777526855</t>
+    <t xml:space="preserve">10.2279767990112</t>
   </si>
   <si>
     <t xml:space="preserve">10.1092834472656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0889368057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93294048309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58703327178955</t>
+    <t xml:space="preserve">10.0889358520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93293857574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58703422546387</t>
   </si>
   <si>
     <t xml:space="preserve">9.64468479156494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86850643157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97702598571777</t>
+    <t xml:space="preserve">9.86850547790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97702693939209</t>
   </si>
   <si>
     <t xml:space="preserve">9.96346092224121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74642086029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77015972137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61077213287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89224529266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84476757049561</t>
+    <t xml:space="preserve">9.74642181396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77016067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61077308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89224433898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84476852416992</t>
   </si>
   <si>
     <t xml:space="preserve">9.87528896331787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99398231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89902687072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85494136810303</t>
+    <t xml:space="preserve">9.99398136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89902782440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85494041442871</t>
   </si>
   <si>
     <t xml:space="preserve">9.92276573181152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79050731658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86172389984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69216156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7091178894043</t>
+    <t xml:space="preserve">9.79050827026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86172294616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69216060638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70911693572998</t>
   </si>
   <si>
     <t xml:space="preserve">9.61416339874268</t>
@@ -1421,25 +1421,25 @@
     <t xml:space="preserve">9.68198776245117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.902419090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86511516571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82102870941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7430305480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75320339202881</t>
+    <t xml:space="preserve">9.90242004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86511421203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8210277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74302959442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75320434570312</t>
   </si>
   <si>
     <t xml:space="preserve">9.79728984832764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94311332702637</t>
+    <t xml:space="preserve">9.94311237335205</t>
   </si>
   <si>
     <t xml:space="preserve">9.94989585876465</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">9.9973726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0177211761475</t>
+    <t xml:space="preserve">10.0177202224731</t>
   </si>
   <si>
     <t xml:space="preserve">10.0651979446411</t>
@@ -1466,25 +1466,25 @@
     <t xml:space="preserve">10.1431970596313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3093671798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.207631111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482406616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1330223083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957193374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1635437011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1872816085815</t>
+    <t xml:space="preserve">10.3093662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2076301574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482416152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1330213546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957183837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1635446548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1872835159302</t>
   </si>
   <si>
     <t xml:space="preserve">10.1703271865845</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">10.0211114883423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0753717422485</t>
+    <t xml:space="preserve">10.0753707885742</t>
   </si>
   <si>
     <t xml:space="preserve">10.0143299102783</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">9.85833263397217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0312852859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0550241470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.038067817688</t>
+    <t xml:space="preserve">10.031286239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0550231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0380687713623</t>
   </si>
   <si>
     <t xml:space="preserve">10.2584991455078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1974563598633</t>
+    <t xml:space="preserve">10.1974573135376</t>
   </si>
   <si>
     <t xml:space="preserve">10.1838912963867</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">10.2517156600952</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2686719894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2788457870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3941469192505</t>
+    <t xml:space="preserve">10.2686729431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.278844833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3941488265991</t>
   </si>
   <si>
     <t xml:space="preserve">10.5128421783447</t>
@@ -1559,31 +1559,31 @@
     <t xml:space="preserve">10.0923280715942</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9804162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0618057250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0245046615601</t>
+    <t xml:space="preserve">9.98041725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.061806678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0245037078857</t>
   </si>
   <si>
     <t xml:space="preserve">9.80068206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78372669219971</t>
+    <t xml:space="preserve">9.78372573852539</t>
   </si>
   <si>
     <t xml:space="preserve">9.68537902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59042453765869</t>
+    <t xml:space="preserve">9.59042549133301</t>
   </si>
   <si>
     <t xml:space="preserve">9.70572662353516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65485763549805</t>
+    <t xml:space="preserve">9.65485858917236</t>
   </si>
   <si>
     <t xml:space="preserve">9.50225257873535</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">9.52938270568848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49886035919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37677669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32590866088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52599239349365</t>
+    <t xml:space="preserve">9.49886131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37677764892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32590675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52599048614502</t>
   </si>
   <si>
     <t xml:space="preserve">9.42086315155029</t>
@@ -1610,25 +1610,25 @@
     <t xml:space="preserve">9.62433624267578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75659465789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71589946746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74981307983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75998687744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72607421875</t>
+    <t xml:space="preserve">9.75659561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71590042114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74981212615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75998592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72607326507568</t>
   </si>
   <si>
     <t xml:space="preserve">9.66503143310547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80746459960938</t>
+    <t xml:space="preserve">9.80746364593506</t>
   </si>
   <si>
     <t xml:space="preserve">9.60398960113525</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">9.64807605743408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66842269897461</t>
+    <t xml:space="preserve">9.66842365264893</t>
   </si>
   <si>
     <t xml:space="preserve">9.9125919342041</t>
@@ -1649,22 +1649,22 @@
     <t xml:space="preserve">9.97024345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0075483322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0991115570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1804990768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0685901641846</t>
+    <t xml:space="preserve">10.00754737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0991106033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1805000305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0685892105103</t>
   </si>
   <si>
     <t xml:space="preserve">9.66164112091064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73624801635742</t>
+    <t xml:space="preserve">9.73624706268311</t>
   </si>
   <si>
     <t xml:space="preserve">9.77694225311279</t>
@@ -1673,22 +1673,22 @@
     <t xml:space="preserve">9.83798503875732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99059104919434</t>
+    <t xml:space="preserve">9.99059009552002</t>
   </si>
   <si>
     <t xml:space="preserve">9.95328807830811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0448503494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1160659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1398038864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1601533889771</t>
+    <t xml:space="preserve">10.0448513031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1160669326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1398057937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1601524353027</t>
   </si>
   <si>
     <t xml:space="preserve">10.3297147750854</t>
@@ -1697,43 +1697,43 @@
     <t xml:space="preserve">10.4246692657471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4416265487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3873662948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4314527511597</t>
+    <t xml:space="preserve">10.4416255950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3873653411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4314517974854</t>
   </si>
   <si>
     <t xml:space="preserve">10.4111051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4823198318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4755373001099</t>
+    <t xml:space="preserve">10.4823207855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4755363464355</t>
   </si>
   <si>
     <t xml:space="preserve">10.37380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2958030700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.343279838562</t>
+    <t xml:space="preserve">10.295802116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3432807922363</t>
   </si>
   <si>
     <t xml:space="preserve">10.3907566070557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.166934967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2245874404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3025846481323</t>
+    <t xml:space="preserve">10.1669359207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2245864868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.302583694458</t>
   </si>
   <si>
     <t xml:space="preserve">10.3805837631226</t>
@@ -1742,88 +1742,88 @@
     <t xml:space="preserve">10.2856283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3263235092163</t>
+    <t xml:space="preserve">10.3263244628906</t>
   </si>
   <si>
     <t xml:space="preserve">10.3229322433472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3704090118408</t>
+    <t xml:space="preserve">10.3704099655151</t>
   </si>
   <si>
     <t xml:space="preserve">10.478928565979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.526406288147</t>
+    <t xml:space="preserve">10.5264072418213</t>
   </si>
   <si>
     <t xml:space="preserve">10.5331878662109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6450996398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7095336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7739667892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7671842575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8417911529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7129240036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6654491424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7163171768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6925783157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7230997085571</t>
+    <t xml:space="preserve">10.6451005935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7095327377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7739677429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7671852111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8417901992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7129249572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6654472351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7163152694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6925773620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7230987548828</t>
   </si>
   <si>
     <t xml:space="preserve">10.8553562164307</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0825700759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1775236129761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1639595031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.136830329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1741323471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0893535614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0757875442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.113091468811</t>
+    <t xml:space="preserve">11.0825691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1775245666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1639604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1368293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1741342544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0893526077271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0757865905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1130905151367</t>
   </si>
   <si>
     <t xml:space="preserve">11.1910886764526</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3097810745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2826519012451</t>
+    <t xml:space="preserve">11.3097820281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2826528549194</t>
   </si>
   <si>
     <t xml:space="preserve">11.3369121551514</t>
@@ -1838,16 +1838,16 @@
     <t xml:space="preserve">11.3233470916748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3063907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3335208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4047384262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4657793045044</t>
+    <t xml:space="preserve">11.3063926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3335199356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4047374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4657802581787</t>
   </si>
   <si>
     <t xml:space="preserve">11.5302133560181</t>
@@ -1874,37 +1874,37 @@
     <t xml:space="preserve">11.7336874008179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7302961349487</t>
+    <t xml:space="preserve">11.730297088623</t>
   </si>
   <si>
     <t xml:space="preserve">11.7404699325562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6353425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5912561416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5776901245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.431866645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4725637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5234298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6183834075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5336027145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6732530593872</t>
+    <t xml:space="preserve">11.6353435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5912551879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5776920318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4318675994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.472562789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5234289169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6183853149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5336036682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6732521057129</t>
   </si>
   <si>
     <t xml:space="preserve">11.6947383880615</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">11.6553497314453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5228614807129</t>
+    <t xml:space="preserve">11.5228624343872</t>
   </si>
   <si>
     <t xml:space="preserve">11.440505027771</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">11.3187589645386</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3832120895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2543048858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2292404174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3796319961548</t>
+    <t xml:space="preserve">11.3832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2543058395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2292413711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3796310424805</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865324020386</t>
@@ -1949,70 +1949,70 @@
     <t xml:space="preserve">11.354567527771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4440860748291</t>
+    <t xml:space="preserve">11.4440851211548</t>
   </si>
   <si>
     <t xml:space="preserve">11.5622501373291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5371856689453</t>
+    <t xml:space="preserve">11.537184715271</t>
   </si>
   <si>
     <t xml:space="preserve">11.5873155593872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5550889968872</t>
+    <t xml:space="preserve">11.5550880432129</t>
   </si>
   <si>
     <t xml:space="preserve">11.6267042160034</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8558740615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9239053726196</t>
+    <t xml:space="preserve">11.8558712005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9239063262939</t>
   </si>
   <si>
     <t xml:space="preserve">11.9453907012939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9525537490845</t>
+    <t xml:space="preserve">11.9525527954102</t>
   </si>
   <si>
     <t xml:space="preserve">11.8988409042358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8594522476196</t>
+    <t xml:space="preserve">11.8594512939453</t>
   </si>
   <si>
     <t xml:space="preserve">11.8236455917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9095821380615</t>
+    <t xml:space="preserve">11.9095830917358</t>
   </si>
   <si>
     <t xml:space="preserve">12.0062637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2211093902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2461738586426</t>
+    <t xml:space="preserve">12.2211084365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2461748123169</t>
   </si>
   <si>
     <t xml:space="preserve">12.1853008270264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2569169998169</t>
+    <t xml:space="preserve">12.2569160461426</t>
   </si>
   <si>
     <t xml:space="preserve">12.292724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3249492645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3213682174683</t>
+    <t xml:space="preserve">12.3249502182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3213701248169</t>
   </si>
   <si>
     <t xml:space="preserve">12.2712392807007</t>
@@ -2021,16 +2021,16 @@
     <t xml:space="preserve">12.2963047027588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2318496704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1029434204102</t>
+    <t xml:space="preserve">12.2318515777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1029443740845</t>
   </si>
   <si>
     <t xml:space="preserve">12.1387529373169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1244277954102</t>
+    <t xml:space="preserve">12.1244268417358</t>
   </si>
   <si>
     <t xml:space="preserve">12.1709785461426</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">12.0886211395264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1101064682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668750762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0599756240845</t>
+    <t xml:space="preserve">12.1101045608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0599765777588</t>
   </si>
   <si>
     <t xml:space="preserve">12.0707168579102</t>
@@ -2054,31 +2054,31 @@
     <t xml:space="preserve">11.7735157012939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6983184814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6804141998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7699327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.451247215271</t>
+    <t xml:space="preserve">11.698317527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6804151535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7699337005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4512462615967</t>
   </si>
   <si>
     <t xml:space="preserve">11.4870548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5515079498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4011173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5837354660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6159601211548</t>
+    <t xml:space="preserve">11.5515089035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4011163711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5837345123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6159610748291</t>
   </si>
   <si>
     <t xml:space="preserve">11.7269649505615</t>
@@ -2093,10 +2093,10 @@
     <t xml:space="preserve">11.590895652771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7663526535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6481876373291</t>
+    <t xml:space="preserve">11.7663536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6481885910034</t>
   </si>
   <si>
     <t xml:space="preserve">11.7591915130615</t>
@@ -2111,43 +2111,43 @@
     <t xml:space="preserve">11.8487110137939</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0563945770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.206787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2497539520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3177890777588</t>
+    <t xml:space="preserve">12.0563926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2067852020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.249755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3177900314331</t>
   </si>
   <si>
     <t xml:space="preserve">12.2998847961426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4180498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5326337814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5147304534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.443115234375</t>
+    <t xml:space="preserve">12.4180488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5326356887817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5147314071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4431142807007</t>
   </si>
   <si>
     <t xml:space="preserve">12.4073085784912</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8083543777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7797060012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8262557983398</t>
+    <t xml:space="preserve">12.8083515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7797050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8262548446655</t>
   </si>
   <si>
     <t xml:space="preserve">12.7940282821655</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">12.8620624542236</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8190946578979</t>
+    <t xml:space="preserve">12.8190956115723</t>
   </si>
   <si>
     <t xml:space="preserve">12.7904491424561</t>
@@ -2165,10 +2165,10 @@
     <t xml:space="preserve">12.7331571578979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7045116424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4932460784912</t>
+    <t xml:space="preserve">12.7045097351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4932451248169</t>
   </si>
   <si>
     <t xml:space="preserve">12.5612812042236</t>
@@ -2180,28 +2180,28 @@
     <t xml:space="preserve">12.7259960174561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7080917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7689638137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7976102828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9372587203979</t>
+    <t xml:space="preserve">12.7080936431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7689647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7976121902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9372596740723</t>
   </si>
   <si>
     <t xml:space="preserve">12.8656444549561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9659051895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9694871902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9623250961304</t>
+    <t xml:space="preserve">12.9659061431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9694862365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9623260498047</t>
   </si>
   <si>
     <t xml:space="preserve">13.0303583145142</t>
@@ -2213,31 +2213,31 @@
     <t xml:space="preserve">13.1449422836304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1700057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.177170753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1735897064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1521024703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0590038299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0160350799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2487840652466</t>
+    <t xml:space="preserve">13.1700077056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1771688461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1735887527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1521043777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0590057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0160360336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2487859725952</t>
   </si>
   <si>
     <t xml:space="preserve">13.3132381439209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3168182373047</t>
+    <t xml:space="preserve">13.3168172836304</t>
   </si>
   <si>
     <t xml:space="preserve">13.7715740203857</t>
@@ -2246,43 +2246,43 @@
     <t xml:space="preserve">13.7357664108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7429285049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9649343490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8467683792114</t>
+    <t xml:space="preserve">13.7429294586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9649333953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8467712402344</t>
   </si>
   <si>
     <t xml:space="preserve">13.7286052703857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6426658630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.392014503479</t>
+    <t xml:space="preserve">13.6426677703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3920154571533</t>
   </si>
   <si>
     <t xml:space="preserve">13.3490447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.359787940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2774324417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3848533630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3884334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2702722549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0983924865723</t>
+    <t xml:space="preserve">13.3597888946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2774333953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3848552703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3884353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2702703475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0983943939209</t>
   </si>
   <si>
     <t xml:space="preserve">13.0840711593628</t>
@@ -2291,22 +2291,22 @@
     <t xml:space="preserve">13.0625848770142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0411005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0482625961304</t>
+    <t xml:space="preserve">13.0411014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0482616424561</t>
   </si>
   <si>
     <t xml:space="preserve">13.0769081115723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1485252380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1342000961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2380428314209</t>
+    <t xml:space="preserve">13.1485233306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.134202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2380418777466</t>
   </si>
   <si>
     <t xml:space="preserve">13.2559461593628</t>
@@ -2315,22 +2315,22 @@
     <t xml:space="preserve">13.3024959564209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2452030181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5889558792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3776922225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3204002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1879110336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.091233253479</t>
+    <t xml:space="preserve">13.2452049255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5889568328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3776912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3203992843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.187912940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0912322998047</t>
   </si>
   <si>
     <t xml:space="preserve">13.2272996902466</t>
@@ -2339,34 +2339,34 @@
     <t xml:space="preserve">13.1986541748047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0339412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1019744873047</t>
+    <t xml:space="preserve">13.0339393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.101975440979</t>
   </si>
   <si>
     <t xml:space="preserve">13.1091356277466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0733270645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9873905181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8441600799561</t>
+    <t xml:space="preserve">13.0733289718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9873895645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8441610336304</t>
   </si>
   <si>
     <t xml:space="preserve">12.9909696578979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.690185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8119325637817</t>
+    <t xml:space="preserve">12.6901874542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661659240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8119316101074</t>
   </si>
   <si>
     <t xml:space="preserve">12.6006669998169</t>
@@ -2378,22 +2378,22 @@
     <t xml:space="preserve">12.8513212203979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1234588623047</t>
+    <t xml:space="preserve">13.1234569549561</t>
   </si>
   <si>
     <t xml:space="preserve">13.2058162689209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4063386917114</t>
+    <t xml:space="preserve">13.4063367843628</t>
   </si>
   <si>
     <t xml:space="preserve">13.4457263946533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4493064880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5209217071533</t>
+    <t xml:space="preserve">13.4493083953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5209226608276</t>
   </si>
   <si>
     <t xml:space="preserve">12.486083984375</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">12.3643388748169</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6446084976196</t>
+    <t xml:space="preserve">11.6446075439453</t>
   </si>
   <si>
     <t xml:space="preserve">11.5085382461548</t>
@@ -2429,28 +2429,28 @@
     <t xml:space="preserve">8.64393711090088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0889196395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77023363113403</t>
+    <t xml:space="preserve">8.08892154693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77023315429688</t>
   </si>
   <si>
     <t xml:space="preserve">7.43722343444824</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68787479400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79887866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80245971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66542148590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91607475280762</t>
+    <t xml:space="preserve">7.68787670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887914657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80246162414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6654224395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9160737991333</t>
   </si>
   <si>
     <t xml:space="preserve">9.06646537780762</t>
@@ -2459,43 +2459,43 @@
     <t xml:space="preserve">8.8623628616333</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85520076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88742828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66184234619141</t>
+    <t xml:space="preserve">8.85520172119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88742733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66184043884277</t>
   </si>
   <si>
     <t xml:space="preserve">8.83013534545898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72629451751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98410892486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15598392486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21685791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40663719177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0234956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87310600280762</t>
+    <t xml:space="preserve">8.72629547119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98410797119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15598487854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21685600280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40663814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02349758148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8731050491333</t>
   </si>
   <si>
     <t xml:space="preserve">8.97336578369141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71197128295898</t>
+    <t xml:space="preserve">8.7119722366333</t>
   </si>
   <si>
     <t xml:space="preserve">8.92681694030762</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">8.8587818145752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12733840942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28847312927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52480316162109</t>
+    <t xml:space="preserve">9.12733745574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28847217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52480220794678</t>
   </si>
   <si>
     <t xml:space="preserve">9.32069969177246</t>
@@ -2519,10 +2519,10 @@
     <t xml:space="preserve">9.09511184692383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26340675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12017631530762</t>
+    <t xml:space="preserve">9.26340866088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12017822265625</t>
   </si>
   <si>
     <t xml:space="preserve">9.18104934692383</t>
@@ -2534,19 +2534,19 @@
     <t xml:space="preserve">9.20969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17030906677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99485015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88384628295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25962543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09554004669189</t>
+    <t xml:space="preserve">9.17030715942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99485111236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88384819030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25962448120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09553909301758</t>
   </si>
   <si>
     <t xml:space="preserve">9.14401912689209</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">8.87178707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08062171936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04706001281738</t>
+    <t xml:space="preserve">9.08062267303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0470609664917</t>
   </si>
   <si>
     <t xml:space="preserve">9.29691696166992</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">9.61389923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90477657318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4007625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4455118179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7289342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7550373077393</t>
+    <t xml:space="preserve">9.90477752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4007616043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4455137252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7289323806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7550363540649</t>
   </si>
   <si>
     <t xml:space="preserve">10.6394319534302</t>
@@ -2606,19 +2606,19 @@
     <t xml:space="preserve">9.99800682067871</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2217597961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1471757888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0203838348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1546335220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658229827881</t>
+    <t xml:space="preserve">10.2217607498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1471767425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0203828811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.154634475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658220291138</t>
   </si>
   <si>
     <t xml:space="preserve">9.89358997344971</t>
@@ -2627,19 +2627,19 @@
     <t xml:space="preserve">9.9196949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0091953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0464897155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0427598953247</t>
+    <t xml:space="preserve">10.0091962814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0464878082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0427579879761</t>
   </si>
   <si>
     <t xml:space="preserve">10.3187198638916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2515935897827</t>
+    <t xml:space="preserve">10.251594543457</t>
   </si>
   <si>
     <t xml:space="preserve">10.3560123443604</t>
@@ -2648,22 +2648,22 @@
     <t xml:space="preserve">10.2590522766113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99054908752441</t>
+    <t xml:space="preserve">9.99055004119873</t>
   </si>
   <si>
     <t xml:space="preserve">10.0651340484619</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1732807159424</t>
+    <t xml:space="preserve">10.1732797622681</t>
   </si>
   <si>
     <t xml:space="preserve">10.225489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3038015365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3075323104858</t>
+    <t xml:space="preserve">10.3038024902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3075313568115</t>
   </si>
   <si>
     <t xml:space="preserve">10.2105722427368</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">10.4268665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3746576309204</t>
+    <t xml:space="preserve">10.3746585845947</t>
   </si>
   <si>
     <t xml:space="preserve">10.1359882354736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800514221191</t>
+    <t xml:space="preserve">10.0800504684448</t>
   </si>
   <si>
     <t xml:space="preserve">10.0688629150391</t>
@@ -2690,16 +2690,16 @@
     <t xml:space="preserve">9.55423259735107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44235515594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49829292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64746189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7220458984375</t>
+    <t xml:space="preserve">9.44235610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49829483032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64746379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72204685211182</t>
   </si>
   <si>
     <t xml:space="preserve">9.47591972351074</t>
@@ -2714,31 +2714,31 @@
     <t xml:space="preserve">9.77798461914062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62881660461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80035877227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71831703186035</t>
+    <t xml:space="preserve">9.62881565093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80035972595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71831607818604</t>
   </si>
   <si>
     <t xml:space="preserve">9.65119171142578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85629844665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91223526000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87494373321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69967174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7145881652832</t>
+    <t xml:space="preserve">9.85629749298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91223621368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87494468688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69967079162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71458721160889</t>
   </si>
   <si>
     <t xml:space="preserve">9.71085929870605</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">9.66610813140869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56168937683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4610013961792</t>
+    <t xml:space="preserve">9.56169033050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46100234985352</t>
   </si>
   <si>
     <t xml:space="preserve">9.65864944458008</t>
@@ -2759,34 +2759,34 @@
     <t xml:space="preserve">9.5766077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56541919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55050373077393</t>
+    <t xml:space="preserve">9.56542015075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55050182342529</t>
   </si>
   <si>
     <t xml:space="preserve">9.4535436630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19249820709229</t>
+    <t xml:space="preserve">9.1924991607666</t>
   </si>
   <si>
     <t xml:space="preserve">8.83449459075928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78601551055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74872303009033</t>
+    <t xml:space="preserve">8.78601455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74872398376465</t>
   </si>
   <si>
     <t xml:space="preserve">8.6778678894043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61447143554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95382881164551</t>
+    <t xml:space="preserve">8.61447048187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95382976531982</t>
   </si>
   <si>
     <t xml:space="preserve">8.90162086486816</t>
@@ -2798,25 +2798,25 @@
     <t xml:space="preserve">8.84941101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00230884552002</t>
+    <t xml:space="preserve">9.00230979919434</t>
   </si>
   <si>
     <t xml:space="preserve">9.22979068756104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19995784759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38641834259033</t>
+    <t xml:space="preserve">9.1999568939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38641738891602</t>
   </si>
   <si>
     <t xml:space="preserve">9.33047962188721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30810356140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21114540100098</t>
+    <t xml:space="preserve">9.30810451507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21114635467529</t>
   </si>
   <si>
     <t xml:space="preserve">9.20741558074951</t>
@@ -2831,25 +2831,25 @@
     <t xml:space="preserve">9.10299777984619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12537384033203</t>
+    <t xml:space="preserve">9.1253719329834</t>
   </si>
   <si>
     <t xml:space="preserve">8.89789199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90907955169678</t>
+    <t xml:space="preserve">8.90907859802246</t>
   </si>
   <si>
     <t xml:space="preserve">8.8568696975708</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47276306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49886608123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58463859558105</t>
+    <t xml:space="preserve">8.4727611541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49886703491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58463764190674</t>
   </si>
   <si>
     <t xml:space="preserve">8.80466175079346</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">9.09926795959473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23351955413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81527614593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0539445877075</t>
+    <t xml:space="preserve">9.2335205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81527709960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0539455413818</t>
   </si>
   <si>
     <t xml:space="preserve">10.0390300750732</t>
@@ -2876,16 +2876,16 @@
     <t xml:space="preserve">10.1695518493652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4156799316406</t>
+    <t xml:space="preserve">10.4156789779663</t>
   </si>
   <si>
     <t xml:space="preserve">10.5387439727783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6133279800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4939918518066</t>
+    <t xml:space="preserve">10.6133260726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.493992805481</t>
   </si>
   <si>
     <t xml:space="preserve">10.5946807861328</t>
@@ -2897,34 +2897,34 @@
     <t xml:space="preserve">10.7252035140991</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8109760284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.792329788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6804523468018</t>
+    <t xml:space="preserve">10.8109750747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7923288345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6804533004761</t>
   </si>
   <si>
     <t xml:space="preserve">10.7587661743164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8669128417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8147039413452</t>
+    <t xml:space="preserve">10.8669137954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8147048950195</t>
   </si>
   <si>
     <t xml:space="preserve">10.7102861404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6841812133789</t>
+    <t xml:space="preserve">10.6841821670532</t>
   </si>
   <si>
     <t xml:space="preserve">10.7065572738647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5051803588867</t>
+    <t xml:space="preserve">10.5051794052124</t>
   </si>
   <si>
     <t xml:space="preserve">10.635703086853</t>
@@ -2933,73 +2933,73 @@
     <t xml:space="preserve">10.6506195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6618070602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3597421646118</t>
+    <t xml:space="preserve">10.661808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3597402572632</t>
   </si>
   <si>
     <t xml:space="preserve">10.5163688659668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.714015007019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6767244338989</t>
+    <t xml:space="preserve">10.7140159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6767234802246</t>
   </si>
   <si>
     <t xml:space="preserve">10.3783864974976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.799786567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8482685089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.740119934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7848711013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8184328079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.045916557312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9303102493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8221635818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7438488006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5089092254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6319732666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7960586547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1503324508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5008783340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5866508483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7246313095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7992162704468</t>
+    <t xml:space="preserve">10.7997875213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8482666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7401208877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7848701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8184337615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0459156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9303092956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8221626281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7438497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5089101791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6319751739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7960596084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.150333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.500880241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5866498947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7246322631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7992143630981</t>
   </si>
   <si>
     <t xml:space="preserve">11.7544651031494</t>
@@ -3008,40 +3008,40 @@
     <t xml:space="preserve">11.7097139358521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6836099624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8029451370239</t>
+    <t xml:space="preserve">11.6836090087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8029441833496</t>
   </si>
   <si>
     <t xml:space="preserve">11.7470064163208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6761512756348</t>
+    <t xml:space="preserve">11.6761522293091</t>
   </si>
   <si>
     <t xml:space="preserve">11.5083379745483</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6202144622803</t>
+    <t xml:space="preserve">11.620213508606</t>
   </si>
   <si>
     <t xml:space="preserve">11.5903797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5642738342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6090259552002</t>
+    <t xml:space="preserve">11.5642747879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6090250015259</t>
   </si>
   <si>
     <t xml:space="preserve">11.8104038238525</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5978384017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8066749572754</t>
+    <t xml:space="preserve">11.5978374481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8066740036011</t>
   </si>
   <si>
     <t xml:space="preserve">11.8402366638184</t>
@@ -3053,61 +3053,61 @@
     <t xml:space="preserve">11.9894065856934</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9371948242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3063879013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3287630081177</t>
+    <t xml:space="preserve">11.9371957778931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3063869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.328763961792</t>
   </si>
   <si>
     <t xml:space="preserve">12.3958892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5040349960327</t>
+    <t xml:space="preserve">12.504035949707</t>
   </si>
   <si>
     <t xml:space="preserve">12.6084547042847</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5562438964844</t>
+    <t xml:space="preserve">12.5562429428101</t>
   </si>
   <si>
     <t xml:space="preserve">12.5972652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4928483963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5748910903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4779300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338697433472</t>
+    <t xml:space="preserve">12.4928493499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5748920440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.477931022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338687896729</t>
   </si>
   <si>
     <t xml:space="preserve">12.5301399230957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5487871170044</t>
+    <t xml:space="preserve">12.5487880706787</t>
   </si>
   <si>
     <t xml:space="preserve">12.6233701705933</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7240571975708</t>
+    <t xml:space="preserve">12.7240581512451</t>
   </si>
   <si>
     <t xml:space="preserve">12.7837247848511</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7016839981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7799978256226</t>
+    <t xml:space="preserve">12.7016849517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7799968719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.8061017990112</t>
@@ -3119,31 +3119,31 @@
     <t xml:space="preserve">12.6532049179077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7315168380737</t>
+    <t xml:space="preserve">12.731517791748</t>
   </si>
   <si>
     <t xml:space="preserve">12.7427043914795</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6979541778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7688102722168</t>
+    <t xml:space="preserve">12.6979532241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7688093185425</t>
   </si>
   <si>
     <t xml:space="preserve">12.8471240997314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5637035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5860786437988</t>
+    <t xml:space="preserve">12.563702583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5860776901245</t>
   </si>
   <si>
     <t xml:space="preserve">12.5152235031128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4443683624268</t>
+    <t xml:space="preserve">12.4443674087524</t>
   </si>
   <si>
     <t xml:space="preserve">12.6793088912964</t>
@@ -3155,31 +3155,31 @@
     <t xml:space="preserve">12.7166013717651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8433933258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9552717208862</t>
+    <t xml:space="preserve">12.843391418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9552698135376</t>
   </si>
   <si>
     <t xml:space="preserve">13.0969791412354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9851055145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0373125076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0820627212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1566467285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1603765487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1864814758301</t>
+    <t xml:space="preserve">12.9851026535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0373115539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0820646286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1566476821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1603775024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1864805221558</t>
   </si>
   <si>
     <t xml:space="preserve">13.0037498474121</t>
@@ -3191,16 +3191,16 @@
     <t xml:space="preserve">13.1715641021729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3693342208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2427625656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1003675460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2150735855103</t>
+    <t xml:space="preserve">13.3693351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2427616119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1003646850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2150745391846</t>
   </si>
   <si>
     <t xml:space="preserve">13.3258247375488</t>
@@ -3212,28 +3212,28 @@
     <t xml:space="preserve">13.3930673599243</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4088907241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5156860351562</t>
+    <t xml:space="preserve">13.4088897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5156850814819</t>
   </si>
   <si>
     <t xml:space="preserve">13.6462144851685</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6264381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5908393859863</t>
+    <t xml:space="preserve">13.6264390945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.590838432312</t>
   </si>
   <si>
     <t xml:space="preserve">13.5473299026489</t>
   </si>
   <si>
-    <t xml:space="preserve">13.559196472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5671052932739</t>
+    <t xml:space="preserve">13.559193611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5671062469482</t>
   </si>
   <si>
     <t xml:space="preserve">13.5789737701416</t>
@@ -3245,22 +3245,22 @@
     <t xml:space="preserve">13.3614234924316</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3970222473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3574686050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.175518989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4603090286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2506713867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2981376647949</t>
+    <t xml:space="preserve">13.3970232009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3574695587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1755199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4603080749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2506732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2981367111206</t>
   </si>
   <si>
     <t xml:space="preserve">13.373291015625</t>
@@ -3269,16 +3269,16 @@
     <t xml:space="preserve">13.4998645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4484434127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5631504058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3218698501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1082763671875</t>
+    <t xml:space="preserve">13.4484443664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5631523132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.321870803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1082773208618</t>
   </si>
   <si>
     <t xml:space="preserve">13.4523983001709</t>
@@ -3290,22 +3290,22 @@
     <t xml:space="preserve">13.3891124725342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2902250289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2388076782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8353519439697</t>
+    <t xml:space="preserve">13.2902269363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2388067245483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.835352897644</t>
   </si>
   <si>
     <t xml:space="preserve">12.9658823013306</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2467174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2823152542114</t>
+    <t xml:space="preserve">13.2467184066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2823171615601</t>
   </si>
   <si>
     <t xml:space="preserve">13.2546272277832</t>
@@ -3314,52 +3314,52 @@
     <t xml:space="preserve">13.3297815322876</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1913414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.112232208252</t>
+    <t xml:space="preserve">13.1913404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1122331619263</t>
   </si>
   <si>
     <t xml:space="preserve">13.1517877578735</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3535127639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4207553863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4721765518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6027059555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6976366043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451009750366</t>
+    <t xml:space="preserve">13.3535137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4207563400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4721775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6027050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6976356506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7451000213623</t>
   </si>
   <si>
     <t xml:space="preserve">13.6659917831421</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6699476242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5038185119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5710611343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5512838363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5117311477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5394172668457</t>
+    <t xml:space="preserve">13.6699485778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5038194656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.571063041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5512828826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5117301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5394191741943</t>
   </si>
   <si>
     <t xml:space="preserve">13.662036895752</t>
@@ -3368,61 +3368,61 @@
     <t xml:space="preserve">13.7253246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7411460876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7015895843506</t>
+    <t xml:space="preserve">13.7411441802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7015905380249</t>
   </si>
   <si>
     <t xml:space="preserve">13.8716735839844</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9705600738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.037802696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7886114120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9626474380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.923095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0140695571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1366891860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9903373718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8044338226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2237062454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.338415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5005855560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7339563369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4372997283936</t>
+    <t xml:space="preserve">13.9705591201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0378046035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.788610458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9626483917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9230947494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0140686035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1366901397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9903364181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8044319152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.223708152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3384141921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5005865097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7339572906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4373006820679</t>
   </si>
   <si>
     <t xml:space="preserve">14.5717849731445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5480518341064</t>
+    <t xml:space="preserve">14.5480508804321</t>
   </si>
   <si>
     <t xml:space="preserve">14.5638732910156</t>
@@ -3434,73 +3434,73 @@
     <t xml:space="preserve">14.8288860321045</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7023124694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8407535552979</t>
+    <t xml:space="preserve">14.7023134231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8407516479492</t>
   </si>
   <si>
     <t xml:space="preserve">14.8684415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9475498199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0227031707764</t>
+    <t xml:space="preserve">14.947548866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0227022171021</t>
   </si>
   <si>
     <t xml:space="preserve">14.8011980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8130664825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8644857406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9253053665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.990180015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1158771514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0631647109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0956020355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1564235687256</t>
+    <t xml:space="preserve">14.8130645751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8644847869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9253063201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901809692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1158752441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0631656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0956029891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1564254760742</t>
   </si>
   <si>
     <t xml:space="preserve">15.2618446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2091341018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2780656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2861728668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3753757476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3915939331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4686346054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037599563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4929628372192</t>
+    <t xml:space="preserve">15.2091331481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2780628204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2861738204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.375376701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3915948867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4686336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037580490112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4929618835449</t>
   </si>
   <si>
     <t xml:space="preserve">15.3875408172607</t>
@@ -3509,55 +3509,55 @@
     <t xml:space="preserve">15.3956508636475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.424033164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5294523239136</t>
+    <t xml:space="preserve">15.4240322113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5294542312622</t>
   </si>
   <si>
     <t xml:space="preserve">15.5172901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6024389266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2172431945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0834398269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8279933929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9212512969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8969249725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8563766479492</t>
+    <t xml:space="preserve">15.6024398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2172441482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0834379196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.82799243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9212503433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8969240188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8563756942749</t>
   </si>
   <si>
     <t xml:space="preserve">14.3211574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4346895217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3779230117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7022972106934</t>
+    <t xml:space="preserve">14.4346876144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3779220581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.702299118042</t>
   </si>
   <si>
     <t xml:space="preserve">14.6293144226074</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7509536743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0915508270264</t>
+    <t xml:space="preserve">14.7509546279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0915498733521</t>
   </si>
   <si>
     <t xml:space="preserve">15.164532661438</t>
@@ -3566,40 +3566,40 @@
     <t xml:space="preserve">14.998291015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0712738037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.002345085144</t>
+    <t xml:space="preserve">15.0712747573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023460388184</t>
   </si>
   <si>
     <t xml:space="preserve">14.9617986679077</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8158283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9131422042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1118221282959</t>
+    <t xml:space="preserve">14.8158302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9131412506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1118211746216</t>
   </si>
   <si>
     <t xml:space="preserve">15.0428905487061</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2050790786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1483154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1077651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4118671417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3226661682129</t>
+    <t xml:space="preserve">15.2050800323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1483135223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1077661514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4118690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3226652145386</t>
   </si>
   <si>
     <t xml:space="preserve">14.9739627838135</t>
@@ -3608,37 +3608,37 @@
     <t xml:space="preserve">15.0591115951538</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9699058532715</t>
+    <t xml:space="preserve">14.9699077606201</t>
   </si>
   <si>
     <t xml:space="preserve">15.0753297805786</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2010250091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1848077774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.953688621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0672187805176</t>
+    <t xml:space="preserve">15.201024055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1848058700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9536895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0672197341919</t>
   </si>
   <si>
     <t xml:space="preserve">15.2902278900146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1807518005371</t>
+    <t xml:space="preserve">15.1807498931885</t>
   </si>
   <si>
     <t xml:space="preserve">15.3064479827881</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5117282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6374225616455</t>
+    <t xml:space="preserve">14.5117301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6374216079712</t>
   </si>
   <si>
     <t xml:space="preserve">14.8239393234253</t>
@@ -3656,37 +3656,37 @@
     <t xml:space="preserve">15.1239862442017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0996561050415</t>
+    <t xml:space="preserve">15.0996580123901</t>
   </si>
   <si>
     <t xml:space="preserve">14.8847589492798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3713226318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0347814559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6941909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7347364425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1630258560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5076742172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0576028823853</t>
+    <t xml:space="preserve">15.3713207244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0347843170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6941890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7347354888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1630249023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5076723098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0576019287109</t>
   </si>
   <si>
     <t xml:space="preserve">13.9684009552002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9075784683228</t>
+    <t xml:space="preserve">13.9075794219971</t>
   </si>
   <si>
     <t xml:space="preserve">13.1615161895752</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">13.7535009384155</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6237506866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9237985610962</t>
+    <t xml:space="preserve">13.6237516403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9237976074219</t>
   </si>
   <si>
     <t xml:space="preserve">14.3089942932129</t>
@@ -3716,25 +3716,25 @@
     <t xml:space="preserve">15.2253532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1929159164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3105010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4605274200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7484064102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3322830200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9997978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3160629272461</t>
+    <t xml:space="preserve">15.1929168701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3105020523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4605264663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7484073638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3322811126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9997968673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3160648345947</t>
   </si>
   <si>
     <t xml:space="preserve">16.8431739807129</t>
@@ -3743,28 +3743,28 @@
     <t xml:space="preserve">17.1188926696777</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4620323181152</t>
+    <t xml:space="preserve">16.4620342254639</t>
   </si>
   <si>
     <t xml:space="preserve">16.3890476226807</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2025337219238</t>
+    <t xml:space="preserve">16.2025318145752</t>
   </si>
   <si>
     <t xml:space="preserve">15.6997528076172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.882212638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.764627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6308212280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5578374862671</t>
+    <t xml:space="preserve">15.8822107315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7646293640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.630823135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5578355789185</t>
   </si>
   <si>
     <t xml:space="preserve">15.6227121353149</t>
@@ -3773,49 +3773,49 @@
     <t xml:space="preserve">15.1402044296265</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9334154129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6455316543579</t>
+    <t xml:space="preserve">14.9334173202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6455335617065</t>
   </si>
   <si>
     <t xml:space="preserve">14.6820259094238</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5968751907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6779689788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5563306808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8442134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7590656280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5887680053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3819789886475</t>
+    <t xml:space="preserve">14.5968761444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6779718399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5563297271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8442125320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7590637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5887660980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3819780349731</t>
   </si>
   <si>
     <t xml:space="preserve">14.1427516937256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3617029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4022521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3292655944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468536376953</t>
+    <t xml:space="preserve">14.3617038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4022512435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3292675018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.446852684021</t>
   </si>
   <si>
     <t xml:space="preserve">14.5928220748901</t>
@@ -3830,10 +3830,10 @@
     <t xml:space="preserve">14.9635696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0239229202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7264642715454</t>
+    <t xml:space="preserve">15.0239219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7264633178711</t>
   </si>
   <si>
     <t xml:space="preserve">14.6919755935669</t>
@@ -3842,10 +3842,10 @@
     <t xml:space="preserve">14.6143779754639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5798892974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152215957642</t>
+    <t xml:space="preserve">14.579888343811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152225494385</t>
   </si>
   <si>
     <t xml:space="preserve">14.4117593765259</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">14.6014423370361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5066013336182</t>
+    <t xml:space="preserve">14.5066003799438</t>
   </si>
   <si>
     <t xml:space="preserve">14.3427810668945</t>
@@ -3884,7 +3884,7 @@
     <t xml:space="preserve">13.7090616226196</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5236873626709</t>
+    <t xml:space="preserve">13.5236864089966</t>
   </si>
   <si>
     <t xml:space="preserve">13.381422996521</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">13.3167572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8125257492065</t>
+    <t xml:space="preserve">13.8125267028809</t>
   </si>
   <si>
     <t xml:space="preserve">13.3943567276001</t>
@@ -3902,10 +3902,10 @@
     <t xml:space="preserve">13.5538644790649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4159107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1270732879639</t>
+    <t xml:space="preserve">13.4159116744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1270742416382</t>
   </si>
   <si>
     <t xml:space="preserve">13.4202222824097</t>
@@ -3941,13 +3941,13 @@
     <t xml:space="preserve">12.5580167770386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5407724380493</t>
+    <t xml:space="preserve">12.5407733917236</t>
   </si>
   <si>
     <t xml:space="preserve">12.6614818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2993564605713</t>
+    <t xml:space="preserve">12.299355506897</t>
   </si>
   <si>
     <t xml:space="preserve">12.2777996063232</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">12.4502410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752620697021</t>
+    <t xml:space="preserve">12.5752611160278</t>
   </si>
   <si>
     <t xml:space="preserve">12.8339233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5881948471069</t>
+    <t xml:space="preserve">12.5881958007812</t>
   </si>
   <si>
     <t xml:space="preserve">12.6528596878052</t>
@@ -3998,7 +3998,7 @@
     <t xml:space="preserve">13.351245880127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2477807998657</t>
+    <t xml:space="preserve">13.24778175354</t>
   </si>
   <si>
     <t xml:space="preserve">13.2865810394287</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">13.0192975997925</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8856544494629</t>
+    <t xml:space="preserve">12.8856554031372</t>
   </si>
   <si>
     <t xml:space="preserve">12.8209896087646</t>
@@ -4028,16 +4028,16 @@
     <t xml:space="preserve">12.6226825714111</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5105953216553</t>
+    <t xml:space="preserve">12.5105962753296</t>
   </si>
   <si>
     <t xml:space="preserve">12.9546318054199</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6011276245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5666389465332</t>
+    <t xml:space="preserve">12.6011266708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5666399002075</t>
   </si>
   <si>
     <t xml:space="preserve">12.6571712493896</t>
@@ -4055,7 +4055,7 @@
     <t xml:space="preserve">13.2132930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1658725738525</t>
+    <t xml:space="preserve">13.1658716201782</t>
   </si>
   <si>
     <t xml:space="preserve">12.8253011703491</t>
@@ -4079,13 +4079,13 @@
     <t xml:space="preserve">11.9372291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0881147384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.501974105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2476234436035</t>
+    <t xml:space="preserve">12.0881156921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5019731521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2476243972778</t>
   </si>
   <si>
     <t xml:space="preserve">11.9674072265625</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">12.0579376220703</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9027414321899</t>
+    <t xml:space="preserve">11.9027423858643</t>
   </si>
   <si>
     <t xml:space="preserve">12.1182928085327</t>
@@ -4112,10 +4112,10 @@
     <t xml:space="preserve">12.415753364563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8922557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525722503662</t>
+    <t xml:space="preserve">12.8922548294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525732040405</t>
   </si>
   <si>
     <t xml:space="preserve">13.0792932510376</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173442840576</t>
+    <t xml:space="preserve">13.2173452377319</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">13.2529716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266490936279</t>
+    <t xml:space="preserve">13.4266481399536</t>
   </si>
   <si>
     <t xml:space="preserve">13.4221954345703</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346820831299</t>
+    <t xml:space="preserve">15.2346811294556</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367111206055</t>
+    <t xml:space="preserve">15.1367101669312</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4187,10 +4187,10 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.123348236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0610046386719</t>
+    <t xml:space="preserve">15.1233501434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0610036849976</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
@@ -4202,28 +4202,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877237319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524938583374</t>
+    <t xml:space="preserve">15.0877246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524948120117</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326549530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.328200340271</t>
+    <t xml:space="preserve">15.3326539993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3281993865967</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217195510864</t>
+    <t xml:space="preserve">15.3192949295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217205047607</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006843566895</t>
+    <t xml:space="preserve">14.9006853103638</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075645446777</t>
+    <t xml:space="preserve">15.0075654983521</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860921859741</t>
+    <t xml:space="preserve">15.3860931396484</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439859390259</t>
@@ -4286,22 +4286,22 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.49742603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840650558472</t>
+    <t xml:space="preserve">15.4974250793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840660095215</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196905136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953989028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.608757019043</t>
+    <t xml:space="preserve">15.5196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6087579727173</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4313,10 +4313,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561147689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115800857544</t>
+    <t xml:space="preserve">15.9561157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115810394287</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427528381348</t>
+    <t xml:space="preserve">15.9427547454834</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4340,31 +4340,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297931671143</t>
+    <t xml:space="preserve">16.1297912597656</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698722839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2277641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500324249268</t>
+    <t xml:space="preserve">16.1698703765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.22776222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500305175781</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544841766357</t>
+    <t xml:space="preserve">16.2544822692871</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034706115723</t>
+    <t xml:space="preserve">16.3034687042236</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4373,7 +4373,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476058959961</t>
+    <t xml:space="preserve">16.1476039886475</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026737213135</t>
+    <t xml:space="preserve">15.9026746749878</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4448,13 +4448,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.290111541748</t>
+    <t xml:space="preserve">16.2901096343994</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216808319092</t>
+    <t xml:space="preserve">16.5216789245605</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4469,16 +4469,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289566040039</t>
+    <t xml:space="preserve">16.8289585113525</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070896148682</t>
+    <t xml:space="preserve">17.0026359558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070877075195</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4490,7 +4490,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9269275665283</t>
+    <t xml:space="preserve">16.926929473877</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4502,22 +4502,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4816017150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002094268799</t>
+    <t xml:space="preserve">16.4815998077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002113342285</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706653594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022365570068</t>
+    <t xml:space="preserve">16.5706672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022384643555</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -5241,6 +5241,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.9300003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7600002288818</t>
   </si>
 </sst>
 </file>
@@ -61820,7 +61823,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6516319444</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>2524398</v>
@@ -61841,6 +61844,32 @@
         <v>1727</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.649537037</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>2046342</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>23.9300003051758</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>23.6700000762939</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>23.7299995422363</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>23.7600002288818</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30122470855713</t>
+    <t xml:space="preserve">9.30122375488281</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39883041381836</t>
+    <t xml:space="preserve">9.39882946014404</t>
   </si>
   <si>
     <t xml:space="preserve">9.22084331512451</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">9.2036190032959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1060152053833</t>
+    <t xml:space="preserve">9.10601329803467</t>
   </si>
   <si>
     <t xml:space="preserve">8.84764671325684</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">8.65243530273438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71559143066406</t>
+    <t xml:space="preserve">8.71559238433838</t>
   </si>
   <si>
     <t xml:space="preserve">8.37110137939453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.526123046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56631278991699</t>
+    <t xml:space="preserve">8.52612209320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56631183624268</t>
   </si>
   <si>
     <t xml:space="preserve">8.38832664489746</t>
@@ -95,97 +95,97 @@
     <t xml:space="preserve">8.01512908935547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68786382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77972888946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48691082000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30318355560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22280359268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02759170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80941438674927</t>
+    <t xml:space="preserve">7.68786525726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752243041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77972793579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48691177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30318403244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22280311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02759122848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80941534042358</t>
   </si>
   <si>
     <t xml:space="preserve">6.53382301330566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8783130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29268026351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40176820755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6601357460022</t>
+    <t xml:space="preserve">6.87831258773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29268074035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40176773071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66013526916504</t>
   </si>
   <si>
     <t xml:space="preserve">6.68310213088989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83812284469604</t>
+    <t xml:space="preserve">6.83812141418457</t>
   </si>
   <si>
     <t xml:space="preserve">6.79219007492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7232928276062</t>
+    <t xml:space="preserve">6.72329235076904</t>
   </si>
   <si>
     <t xml:space="preserve">6.9644341468811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95869445800781</t>
+    <t xml:space="preserve">6.95869493484497</t>
   </si>
   <si>
     <t xml:space="preserve">7.02185010910034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33189105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35485744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41227197647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52710247039795</t>
+    <t xml:space="preserve">7.33189010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35485696792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41227149963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52710199356079</t>
   </si>
   <si>
     <t xml:space="preserve">7.52136135101318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44672203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31466770172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38930606842041</t>
+    <t xml:space="preserve">7.44672155380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31466627120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38930559158325</t>
   </si>
   <si>
     <t xml:space="preserve">7.4524621963501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44097900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98068141937256</t>
+    <t xml:space="preserve">7.44098091125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98068046569824</t>
   </si>
   <si>
     <t xml:space="preserve">7.91178226470947</t>
@@ -194,73 +194,73 @@
     <t xml:space="preserve">7.86584949493408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95197343826294</t>
+    <t xml:space="preserve">7.95197200775146</t>
   </si>
   <si>
     <t xml:space="preserve">7.96919775009155</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83714246749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74527978897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64767360687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60174131393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43523788452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49839639663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55580902099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48116970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37208127975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28595972061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05055809020996</t>
+    <t xml:space="preserve">7.83714199066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74527883529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767408370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60174179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43523836135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49839448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55580997467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37208080291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28595924377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05055713653564</t>
   </si>
   <si>
     <t xml:space="preserve">7.07352352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9185037612915</t>
+    <t xml:space="preserve">6.91850328445435</t>
   </si>
   <si>
     <t xml:space="preserve">7.11945581436157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20557832717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22854328155518</t>
+    <t xml:space="preserve">7.2055778503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22854471206665</t>
   </si>
   <si>
     <t xml:space="preserve">7.50413608551025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5672926902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55006885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61896753311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67064094543457</t>
+    <t xml:space="preserve">7.56729412078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55006742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6189661026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67063808441162</t>
   </si>
   <si>
     <t xml:space="preserve">7.82566022872925</t>
@@ -269,13 +269,13 @@
     <t xml:space="preserve">7.90604162216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86010932922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9290075302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87733268737793</t>
+    <t xml:space="preserve">7.86010980606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92900657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87733364105225</t>
   </si>
   <si>
     <t xml:space="preserve">7.84862613677979</t>
@@ -284,82 +284,82 @@
     <t xml:space="preserve">7.64193201065063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46394538879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42375564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60748434066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14816284179688</t>
+    <t xml:space="preserve">7.46394634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42375659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60748338699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14816331863403</t>
   </si>
   <si>
     <t xml:space="preserve">7.23428583145142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1251974105835</t>
+    <t xml:space="preserve">7.12519693374634</t>
   </si>
   <si>
     <t xml:space="preserve">7.18261194229126</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32040691375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3873438835144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81330442428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92283487319946</t>
+    <t xml:space="preserve">7.3204083442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38734436035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81330251693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92283582687378</t>
   </si>
   <si>
     <t xml:space="preserve">7.98368644714355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02019786834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92892026901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88632392883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83764362335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61857986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60640859603882</t>
+    <t xml:space="preserve">8.02019691467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92891979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88632440567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83764410018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61858034133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60641002655029</t>
   </si>
   <si>
     <t xml:space="preserve">7.73419713973999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88024044036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84372901916504</t>
+    <t xml:space="preserve">7.88023853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8437294960022</t>
   </si>
   <si>
     <t xml:space="preserve">7.4907922744751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24738645553589</t>
+    <t xml:space="preserve">7.24738693237305</t>
   </si>
   <si>
     <t xml:space="preserve">7.04049205780029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06483221054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98572587966919</t>
+    <t xml:space="preserve">7.06483268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98572635650635</t>
   </si>
   <si>
     <t xml:space="preserve">7.25955772399902</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">7.4786205291748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61249399185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65509080886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64495897293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08208417892456</t>
+    <t xml:space="preserve">7.61249446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65508937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64495992660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08208465576172</t>
   </si>
   <si>
     <t xml:space="preserve">6.17640447616577</t>
@@ -392,22 +392,22 @@
     <t xml:space="preserve">6.49283123016357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31027698516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18857383728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97255229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98472261428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45023441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49891567230225</t>
+    <t xml:space="preserve">6.31027746200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18857431411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97255277633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98472356796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45023536682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49891710281372</t>
   </si>
   <si>
     <t xml:space="preserve">6.82751369476318</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">6.93704509735107</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87010812759399</t>
+    <t xml:space="preserve">6.87010765075684</t>
   </si>
   <si>
     <t xml:space="preserve">6.90661907196045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82142782211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9127049446106</t>
+    <t xml:space="preserve">6.82142734527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91270399093628</t>
   </si>
   <si>
     <t xml:space="preserve">6.83968305587769</t>
@@ -437,22 +437,22 @@
     <t xml:space="preserve">6.79708766937256</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74840641021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87619400024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68755483627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16828012466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13785457611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85793924331665</t>
+    <t xml:space="preserve">6.74840593338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8761944770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68755531311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16827917098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13785409927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85793781280518</t>
   </si>
   <si>
     <t xml:space="preserve">7.13176965713501</t>
@@ -461,22 +461,22 @@
     <t xml:space="preserve">7.27781200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36300373077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36909008026123</t>
+    <t xml:space="preserve">7.36300468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36908912658691</t>
   </si>
   <si>
     <t xml:space="preserve">7.41168451309204</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1500244140625</t>
+    <t xml:space="preserve">7.15002393722534</t>
   </si>
   <si>
     <t xml:space="preserve">6.95530033111572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97355651855469</t>
+    <t xml:space="preserve">6.97355699539185</t>
   </si>
   <si>
     <t xml:space="preserve">6.80317306518555</t>
@@ -485,76 +485,76 @@
     <t xml:space="preserve">7.10742807388306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08308887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88227939605713</t>
+    <t xml:space="preserve">7.08308839797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88227891921997</t>
   </si>
   <si>
     <t xml:space="preserve">6.80925703048706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67538404464722</t>
+    <t xml:space="preserve">6.67538499832153</t>
   </si>
   <si>
     <t xml:space="preserve">6.84576749801636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01006746292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0587477684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00398111343384</t>
+    <t xml:space="preserve">7.01006698608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05874633789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00398015975952</t>
   </si>
   <si>
     <t xml:space="preserve">6.94921541213989</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04657697677612</t>
+    <t xml:space="preserve">7.04657649993896</t>
   </si>
   <si>
     <t xml:space="preserve">7.22304630279541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32649421691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76666212081909</t>
+    <t xml:space="preserve">7.32649278640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76666116714478</t>
   </si>
   <si>
     <t xml:space="preserve">6.69364023208618</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79100131988525</t>
+    <t xml:space="preserve">6.79100179672241</t>
   </si>
   <si>
     <t xml:space="preserve">6.86402368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81534290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65712928771973</t>
+    <t xml:space="preserve">6.81534242630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65713024139404</t>
   </si>
   <si>
     <t xml:space="preserve">6.62670373916626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63887357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66930055618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60844755172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57802295684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55976629257202</t>
+    <t xml:space="preserve">6.63887405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66929960250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60844850540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57802248001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5597677230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.83359718322754</t>
@@ -563,37 +563,37 @@
     <t xml:space="preserve">6.92487525939941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91878890991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25347185134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23521661758423</t>
+    <t xml:space="preserve">6.91878938674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25347232818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23521614074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.26564121246338</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35691928863525</t>
+    <t xml:space="preserve">7.35692024230957</t>
   </si>
   <si>
     <t xml:space="preserve">7.33866357803345</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39951515197754</t>
+    <t xml:space="preserve">7.39951467514038</t>
   </si>
   <si>
     <t xml:space="preserve">7.38125896453857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21087741851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16219568252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05266237258911</t>
+    <t xml:space="preserve">7.21087551116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16219472885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05266141891479</t>
   </si>
   <si>
     <t xml:space="preserve">6.73623561859131</t>
@@ -602,40 +602,40 @@
     <t xml:space="preserve">6.90053415298462</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15611028671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14394044876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94313097000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08917331695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88836336135864</t>
+    <t xml:space="preserve">7.15610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14393901824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94312906265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08917379379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8883638381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.50904703140259</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42385482788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80721759796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37922096252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7625846862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53134727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55568981170654</t>
+    <t xml:space="preserve">7.42385625839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80721712112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3792200088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76258277893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53134918212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55568885803223</t>
   </si>
   <si>
     <t xml:space="preserve">8.49483776092529</t>
@@ -644,13 +644,13 @@
     <t xml:space="preserve">8.40964603424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62262630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64087963104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7199878692627</t>
+    <t xml:space="preserve">8.62262535095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6408805847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71998691558838</t>
   </si>
   <si>
     <t xml:space="preserve">8.66522121429443</t>
@@ -659,43 +659,43 @@
     <t xml:space="preserve">8.67739295959473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74432754516602</t>
+    <t xml:space="preserve">8.7443265914917</t>
   </si>
   <si>
     <t xml:space="preserve">8.750412940979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63479518890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58611488342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59219932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73215675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79300880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83560562133789</t>
+    <t xml:space="preserve">8.63479423522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58611392974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59220027923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73215770721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79300785064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83560466766357</t>
   </si>
   <si>
     <t xml:space="preserve">8.78083896636963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79909515380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6043701171875</t>
+    <t xml:space="preserve">8.79909324645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60436916351318</t>
   </si>
   <si>
     <t xml:space="preserve">8.56785869598389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441078186035</t>
+    <t xml:space="preserve">8.46441173553467</t>
   </si>
   <si>
     <t xml:space="preserve">8.33662414550781</t>
@@ -704,31 +704,31 @@
     <t xml:space="preserve">8.31228351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24534893035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34879398345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3427095413208</t>
+    <t xml:space="preserve">8.24534797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34879493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34271049499512</t>
   </si>
   <si>
     <t xml:space="preserve">8.67130565643311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38326644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47454357147217</t>
+    <t xml:space="preserve">9.38326740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47454261779785</t>
   </si>
   <si>
     <t xml:space="preserve">9.51105403900146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37109661102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07292366027832</t>
+    <t xml:space="preserve">9.37109565734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07292556762695</t>
   </si>
   <si>
     <t xml:space="preserve">8.96947765350342</t>
@@ -737,40 +737,40 @@
     <t xml:space="preserve">8.93296718597412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09117889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11551952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9025411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85385894775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75649738311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82343578338623</t>
+    <t xml:space="preserve">9.09117984771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11552047729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90254020690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85385990142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75649833679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8234338760376</t>
   </si>
   <si>
     <t xml:space="preserve">8.98773288726807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13377666473389</t>
+    <t xml:space="preserve">9.13377571105957</t>
   </si>
   <si>
     <t xml:space="preserve">8.96339321136475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99381923675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0424976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91471099853516</t>
+    <t xml:space="preserve">8.99381732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04249858856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91471195220947</t>
   </si>
   <si>
     <t xml:space="preserve">8.89645576477051</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">8.73824214935303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58003044128418</t>
+    <t xml:space="preserve">8.58002948760986</t>
   </si>
   <si>
     <t xml:space="preserve">8.22709274291992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35487842559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62871170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54351806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64696598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87211513519287</t>
+    <t xml:space="preserve">8.35487937927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62871074676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54351902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64696502685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87211608886719</t>
   </si>
   <si>
     <t xml:space="preserve">8.88428592681885</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">8.8660306930542</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95122337341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06683921813965</t>
+    <t xml:space="preserve">8.95122241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06683826446533</t>
   </si>
   <si>
     <t xml:space="preserve">8.89037036895752</t>
@@ -824,28 +824,28 @@
     <t xml:space="preserve">8.71390247344971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68956089019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54960441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44007205963135</t>
+    <t xml:space="preserve">8.68956184387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54960536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44007301330566</t>
   </si>
   <si>
     <t xml:space="preserve">9.01815795898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84168910980225</t>
+    <t xml:space="preserve">8.84169006347656</t>
   </si>
   <si>
     <t xml:space="preserve">8.95730781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1276912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27981948852539</t>
+    <t xml:space="preserve">9.12769031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27981853485107</t>
   </si>
   <si>
     <t xml:space="preserve">9.29807472229004</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">9.30415916442871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03032875061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97556209564209</t>
+    <t xml:space="preserve">9.03032970428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97556400299072</t>
   </si>
   <si>
     <t xml:space="preserve">9.12160587310791</t>
@@ -869,34 +869,34 @@
     <t xml:space="preserve">9.15811729431152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2067985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39311790466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27104663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24534606933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21964645385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03332710266113</t>
+    <t xml:space="preserve">9.20679759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3931188583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42524337768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27104568481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24534702301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21964836120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03332805633545</t>
   </si>
   <si>
     <t xml:space="preserve">8.91768074035645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02690124511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1232738494873</t>
+    <t xml:space="preserve">9.0269021987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12327575683594</t>
   </si>
   <si>
     <t xml:space="preserve">8.89840602874756</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">8.8405818939209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82130718231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97550296783447</t>
+    <t xml:space="preserve">8.8213062286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97550487518311</t>
   </si>
   <si>
     <t xml:space="preserve">9.03975200653076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13612461090088</t>
+    <t xml:space="preserve">9.1361255645752</t>
   </si>
   <si>
     <t xml:space="preserve">9.31602001190186</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">9.32244491577148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25819683074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37384510040283</t>
+    <t xml:space="preserve">9.2581958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37384414672852</t>
   </si>
   <si>
     <t xml:space="preserve">9.38669300079346</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">9.43809223175049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34171962738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30959415435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33529376983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38027000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41881656646729</t>
+    <t xml:space="preserve">9.34172058105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30959606170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33529567718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38026714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41881847381592</t>
   </si>
   <si>
     <t xml:space="preserve">9.47021579742432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6693868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63726139068604</t>
+    <t xml:space="preserve">9.66938591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63726234436035</t>
   </si>
   <si>
     <t xml:space="preserve">9.63083744049072</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">9.88783073425293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95208072662354</t>
+    <t xml:space="preserve">9.9520788192749</t>
   </si>
   <si>
     <t xml:space="preserve">9.8107328414917</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">9.86855602264404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89425563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.170524597168</t>
+    <t xml:space="preserve">9.89425468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1705236434937</t>
   </si>
   <si>
     <t xml:space="preserve">10.1833734512329</t>
@@ -1004,25 +1004,25 @@
     <t xml:space="preserve">10.2347726821899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3311452865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2925968170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1576738357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0998497009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91995525360107</t>
+    <t xml:space="preserve">10.3311443328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.292594909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1576747894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0998516082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91995429992676</t>
   </si>
   <si>
     <t xml:space="preserve">9.95850372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99705219268799</t>
+    <t xml:space="preserve">9.99705410003662</t>
   </si>
   <si>
     <t xml:space="preserve">9.91353034973145</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">9.77218437194824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78503322601318</t>
+    <t xml:space="preserve">9.78503227233887</t>
   </si>
   <si>
     <t xml:space="preserve">9.75290870666504</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">9.62441253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61156177520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66296195983887</t>
+    <t xml:space="preserve">9.61156272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66296100616455</t>
   </si>
   <si>
     <t xml:space="preserve">9.70793533325195</t>
@@ -1079,31 +1079,31 @@
     <t xml:space="preserve">9.84285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99062728881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0099029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97135543823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.164098739624</t>
+    <t xml:space="preserve">9.99062824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0099020004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97135448455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1640996932983</t>
   </si>
   <si>
     <t xml:space="preserve">10.2283477783203</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0291767120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93922805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94565486907959</t>
+    <t xml:space="preserve">10.0291776657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93922996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94565582275391</t>
   </si>
   <si>
     <t xml:space="preserve">9.92637920379639</t>
@@ -1112,31 +1112,31 @@
     <t xml:space="preserve">9.81715679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0934257507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0548763275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.112699508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0484523773193</t>
+    <t xml:space="preserve">10.0934247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.054877281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1127004623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.048454284668</t>
   </si>
   <si>
     <t xml:space="preserve">10.2219228744507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1191244125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0356025695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9777774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1319761276245</t>
+    <t xml:space="preserve">10.1191253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0356035232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97777843475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1319751739502</t>
   </si>
   <si>
     <t xml:space="preserve">9.88140678405762</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">9.72721004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67581176757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70151042938232</t>
+    <t xml:space="preserve">9.67581081390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70150947570801</t>
   </si>
   <si>
     <t xml:space="preserve">9.75933361053467</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">9.82358264923096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90068054199219</t>
+    <t xml:space="preserve">9.90067958831787</t>
   </si>
   <si>
     <t xml:space="preserve">9.8300085067749</t>
@@ -1169,58 +1169,58 @@
     <t xml:space="preserve">9.79788303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65011310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56658935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0677270889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0741519927979</t>
+    <t xml:space="preserve">9.65011215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56658744812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0677261352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0741510391235</t>
   </si>
   <si>
     <t xml:space="preserve">10.176947593689</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1512498855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3889675140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.401819229126</t>
+    <t xml:space="preserve">10.1512517929077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3889684677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4018201828003</t>
   </si>
   <si>
     <t xml:space="preserve">10.2990207672119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4082441329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4210929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2701082229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604722976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2444086074829</t>
+    <t xml:space="preserve">10.4082431793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4210920333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2701072692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604713439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2444105148315</t>
   </si>
   <si>
     <t xml:space="preserve">10.0870008468628</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86213302612305</t>
+    <t xml:space="preserve">9.86213207244873</t>
   </si>
   <si>
     <t xml:space="preserve">9.9617166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91031837463379</t>
+    <t xml:space="preserve">9.91031742095947</t>
   </si>
   <si>
     <t xml:space="preserve">9.87176895141602</t>
@@ -1229,16 +1229,16 @@
     <t xml:space="preserve">9.90710544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89746856689453</t>
+    <t xml:space="preserve">9.89746761322021</t>
   </si>
   <si>
     <t xml:space="preserve">9.45736598968506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74327087402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94886684417725</t>
+    <t xml:space="preserve">9.74327278137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94886779785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.83964443206787</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">10.0805749893188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0227537155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0388145446777</t>
+    <t xml:space="preserve">10.0227527618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0388154983521</t>
   </si>
   <si>
     <t xml:space="preserve">10.0645141601562</t>
@@ -1262,70 +1262,70 @@
     <t xml:space="preserve">10.1448240280151</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2572584152222</t>
+    <t xml:space="preserve">10.2572612762451</t>
   </si>
   <si>
     <t xml:space="preserve">10.4114561080933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3921804428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4435787200928</t>
+    <t xml:space="preserve">10.3921813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4435796737671</t>
   </si>
   <si>
     <t xml:space="preserve">10.5335273742676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6298999786377</t>
+    <t xml:space="preserve">10.629900932312</t>
   </si>
   <si>
     <t xml:space="preserve">10.7391223907471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8676204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9575681686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7326974868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8194351196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845092773438</t>
+    <t xml:space="preserve">10.8676195144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9575672149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7326965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8194332122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845111846924</t>
   </si>
   <si>
     <t xml:space="preserve">10.7551851272583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.809796333313</t>
+    <t xml:space="preserve">10.8097972869873</t>
   </si>
   <si>
     <t xml:space="preserve">10.8065824508667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7808837890625</t>
+    <t xml:space="preserve">10.7808847427368</t>
   </si>
   <si>
     <t xml:space="preserve">10.62668800354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6395378112793</t>
+    <t xml:space="preserve">10.6395359039307</t>
   </si>
   <si>
     <t xml:space="preserve">10.5399522781372</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6009874343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6074142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3953943252563</t>
+    <t xml:space="preserve">10.6009883880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6074132919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.395393371582</t>
   </si>
   <si>
     <t xml:space="preserve">10.4307308197021</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">10.0889358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93293857574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58703422546387</t>
+    <t xml:space="preserve">9.93293952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58703327178955</t>
   </si>
   <si>
     <t xml:space="preserve">9.64468479156494</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">9.86850547790527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97702693939209</t>
+    <t xml:space="preserve">9.97702503204346</t>
   </si>
   <si>
     <t xml:space="preserve">9.96346092224121</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">9.74642181396484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77016067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61077308654785</t>
+    <t xml:space="preserve">9.77015972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61077213287354</t>
   </si>
   <si>
     <t xml:space="preserve">9.89224433898926</t>
@@ -1391,22 +1391,22 @@
     <t xml:space="preserve">9.89902782440186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85494041442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92276573181152</t>
+    <t xml:space="preserve">9.85494232177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92276668548584</t>
   </si>
   <si>
     <t xml:space="preserve">9.79050827026367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86172294616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69216060638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70911693572998</t>
+    <t xml:space="preserve">9.86172389984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69216156005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7091178894043</t>
   </si>
   <si>
     <t xml:space="preserve">9.61416339874268</t>
@@ -1415,43 +1415,43 @@
     <t xml:space="preserve">9.60738086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70233535766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68198776245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90242004394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86511421203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8210277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74302959442139</t>
+    <t xml:space="preserve">9.70233631134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68198680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90241813659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86511516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82102870941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7430305480957</t>
   </si>
   <si>
     <t xml:space="preserve">9.75320434570312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79728984832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94311237335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94989585876465</t>
+    <t xml:space="preserve">9.79728889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94311428070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94989681243896</t>
   </si>
   <si>
     <t xml:space="preserve">9.90919971466064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84137630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98380851745605</t>
+    <t xml:space="preserve">9.84137535095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98380756378174</t>
   </si>
   <si>
     <t xml:space="preserve">9.9973726272583</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">10.0651979446411</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1431970596313</t>
+    <t xml:space="preserve">10.143196105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.3093662261963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2076301574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482416152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1330213546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957183837891</t>
+    <t xml:space="preserve">10.2076292037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1330223083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957193374634</t>
   </si>
   <si>
     <t xml:space="preserve">10.1635446548462</t>
@@ -1490,31 +1490,31 @@
     <t xml:space="preserve">10.1703271865845</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96006965637207</t>
+    <t xml:space="preserve">9.96007061004639</t>
   </si>
   <si>
     <t xml:space="preserve">9.80407238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82441997528076</t>
+    <t xml:space="preserve">9.82441902160645</t>
   </si>
   <si>
     <t xml:space="preserve">9.94650459289551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0211114883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0753707885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0143299102783</t>
+    <t xml:space="preserve">10.021110534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0753717422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.014328956604</t>
   </si>
   <si>
     <t xml:space="preserve">9.72946548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85833263397217</t>
+    <t xml:space="preserve">9.85833358764648</t>
   </si>
   <si>
     <t xml:space="preserve">10.031286239624</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">10.0380687713623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2584991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1974573135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1838912963867</t>
+    <t xml:space="preserve">10.2585000991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1974544525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.183892250061</t>
   </si>
   <si>
     <t xml:space="preserve">10.2517156600952</t>
@@ -1541,22 +1541,22 @@
     <t xml:space="preserve">10.2686729431152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.278844833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3941488265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5128421783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5297966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4687557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0923280715942</t>
+    <t xml:space="preserve">10.2788467407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3941478729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5128412246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5297975540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4687547683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0923271179199</t>
   </si>
   <si>
     <t xml:space="preserve">9.98041725158691</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">10.061806678772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0245037078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80068206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78372573852539</t>
+    <t xml:space="preserve">10.0245018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80068016052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78372478485107</t>
   </si>
   <si>
     <t xml:space="preserve">9.68537902832031</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">9.59042549133301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70572662353516</t>
+    <t xml:space="preserve">9.70572757720947</t>
   </si>
   <si>
     <t xml:space="preserve">9.65485858917236</t>
@@ -1592,19 +1592,19 @@
     <t xml:space="preserve">9.52938270568848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49886131286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37677764892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32590675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52599048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42086315155029</t>
+    <t xml:space="preserve">9.49886226654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37677669525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32590770721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52599143981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42086219787598</t>
   </si>
   <si>
     <t xml:space="preserve">9.62433624267578</t>
@@ -1616,73 +1616,73 @@
     <t xml:space="preserve">9.71590042114258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74981212615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75998592376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72607326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66503143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80746364593506</t>
+    <t xml:space="preserve">9.74981307983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75998687744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66503047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80746459960938</t>
   </si>
   <si>
     <t xml:space="preserve">9.60398960113525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68877029418945</t>
+    <t xml:space="preserve">9.68876934051514</t>
   </si>
   <si>
     <t xml:space="preserve">9.64807605743408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66842365264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9125919342041</t>
+    <t xml:space="preserve">9.66842269897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91259098052979</t>
   </si>
   <si>
     <t xml:space="preserve">9.97024345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.00754737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0991106033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1805000305176</t>
+    <t xml:space="preserve">10.0075464248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0991096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1805009841919</t>
   </si>
   <si>
     <t xml:space="preserve">10.0685892105103</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66164112091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73624706268311</t>
+    <t xml:space="preserve">9.66164016723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73624801635742</t>
   </si>
   <si>
     <t xml:space="preserve">9.77694225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83798503875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99059009552002</t>
+    <t xml:space="preserve">9.83798599243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99059104919434</t>
   </si>
   <si>
     <t xml:space="preserve">9.95328807830811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0448513031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1160669326782</t>
+    <t xml:space="preserve">10.0448503494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1160659790039</t>
   </si>
   <si>
     <t xml:space="preserve">10.1398057937622</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">10.1601524353027</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3297147750854</t>
+    <t xml:space="preserve">10.3297128677368</t>
   </si>
   <si>
     <t xml:space="preserve">10.4246692657471</t>
@@ -1700,19 +1700,19 @@
     <t xml:space="preserve">10.4416255950928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3873653411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4314517974854</t>
+    <t xml:space="preserve">10.3873662948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4314527511597</t>
   </si>
   <si>
     <t xml:space="preserve">10.4111051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4823207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4755363464355</t>
+    <t xml:space="preserve">10.4823198318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4755373001099</t>
   </si>
   <si>
     <t xml:space="preserve">10.37380027771</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">10.295802116394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3432807922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3907566070557</t>
+    <t xml:space="preserve">10.343279838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3907585144043</t>
   </si>
   <si>
     <t xml:space="preserve">10.1669359207153</t>
@@ -1733,16 +1733,16 @@
     <t xml:space="preserve">10.2245864868164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.302583694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3805837631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2856283187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3263244628906</t>
+    <t xml:space="preserve">10.3025846481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3805847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2856292724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3263235092163</t>
   </si>
   <si>
     <t xml:space="preserve">10.3229322433472</t>
@@ -1751,22 +1751,22 @@
     <t xml:space="preserve">10.3704099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">10.478928565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5264072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5331878662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6451005935669</t>
+    <t xml:space="preserve">10.4789295196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.526406288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5331888198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450996398926</t>
   </si>
   <si>
     <t xml:space="preserve">10.7095327377319</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7739677429199</t>
+    <t xml:space="preserve">10.7739667892456</t>
   </si>
   <si>
     <t xml:space="preserve">10.7671852111816</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">10.6654472351074</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7163152694702</t>
+    <t xml:space="preserve">10.7163181304932</t>
   </si>
   <si>
     <t xml:space="preserve">10.6925773620605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7230987548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8553562164307</t>
+    <t xml:space="preserve">10.7230997085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8553552627563</t>
   </si>
   <si>
     <t xml:space="preserve">11.0825691223145</t>
@@ -1799,37 +1799,37 @@
     <t xml:space="preserve">11.1775245666504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1639604568481</t>
+    <t xml:space="preserve">11.1639585494995</t>
   </si>
   <si>
     <t xml:space="preserve">11.1368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1741342544556</t>
+    <t xml:space="preserve">11.1741333007812</t>
   </si>
   <si>
     <t xml:space="preserve">11.0893526077271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0757865905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1130905151367</t>
+    <t xml:space="preserve">11.0757875442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.113091468811</t>
   </si>
   <si>
     <t xml:space="preserve">11.1910886764526</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3097820281982</t>
+    <t xml:space="preserve">11.3097829818726</t>
   </si>
   <si>
     <t xml:space="preserve">11.2826528549194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3369121551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3301305770874</t>
+    <t xml:space="preserve">11.3369131088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3301296234131</t>
   </si>
   <si>
     <t xml:space="preserve">11.279260635376</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">11.3233470916748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3063926696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3335199356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4047374725342</t>
+    <t xml:space="preserve">11.3063917160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3335208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4047384262085</t>
   </si>
   <si>
     <t xml:space="preserve">11.4657802581787</t>
@@ -1853,16 +1853,16 @@
     <t xml:space="preserve">11.5302133560181</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6658630371094</t>
+    <t xml:space="preserve">11.6658639907837</t>
   </si>
   <si>
     <t xml:space="preserve">11.5607347488403</t>
   </si>
   <si>
-    <t xml:space="preserve">11.536994934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5709066390991</t>
+    <t xml:space="preserve">11.5369958877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5709075927734</t>
   </si>
   <si>
     <t xml:space="preserve">11.6929922103882</t>
@@ -1871,22 +1871,22 @@
     <t xml:space="preserve">11.6624717712402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7336874008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.730297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7404699325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6353435516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5912551879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5776920318604</t>
+    <t xml:space="preserve">11.7336864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7302961349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7404708862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6353425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.591254234314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.577691078186</t>
   </si>
   <si>
     <t xml:space="preserve">11.4318675994873</t>
@@ -1895,34 +1895,34 @@
     <t xml:space="preserve">11.472562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5234289169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6183853149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5336036682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6732521057129</t>
+    <t xml:space="preserve">11.5234308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6183843612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5336046218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6732530593872</t>
   </si>
   <si>
     <t xml:space="preserve">11.6947383880615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6696729660034</t>
+    <t xml:space="preserve">11.6696720123291</t>
   </si>
   <si>
     <t xml:space="preserve">11.4261817932129</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553497314453</t>
+    <t xml:space="preserve">11.6553506851196</t>
   </si>
   <si>
     <t xml:space="preserve">11.5228624343872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.440505027771</t>
+    <t xml:space="preserve">11.4405059814453</t>
   </si>
   <si>
     <t xml:space="preserve">11.3187589645386</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">11.2292413711548</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3796310424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2865324020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3259201049805</t>
+    <t xml:space="preserve">11.3796319961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2865333557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3259191513062</t>
   </si>
   <si>
     <t xml:space="preserve">11.354567527771</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">11.5622501373291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.537184715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5873155593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5550880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6267042160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8558712005615</t>
+    <t xml:space="preserve">11.5371856689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5873165130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5550889968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6267032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8558731079102</t>
   </si>
   <si>
     <t xml:space="preserve">11.9239063262939</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">11.9453907012939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9525527954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8988409042358</t>
+    <t xml:space="preserve">11.9525518417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8988418579102</t>
   </si>
   <si>
     <t xml:space="preserve">11.8594512939453</t>
@@ -1997,79 +1997,79 @@
     <t xml:space="preserve">12.2211084365845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2461748123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1853008270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2569160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.292724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3249502182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3213701248169</t>
+    <t xml:space="preserve">12.2461738586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1852998733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2569179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2927255630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3249492645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3213691711426</t>
   </si>
   <si>
     <t xml:space="preserve">12.2712392807007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2963047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2318515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1029443740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1387529373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1244268417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1709785461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0886211395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1101045608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668731689453</t>
+    <t xml:space="preserve">12.2963037490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2318506240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1029434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1387510299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1244287490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1709775924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0886201858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1101055145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668750762939</t>
   </si>
   <si>
     <t xml:space="preserve">12.0599765777588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0707168579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7735157012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.698317527771</t>
+    <t xml:space="preserve">12.0707159042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7735147476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6983184814453</t>
   </si>
   <si>
     <t xml:space="preserve">11.6804151535034</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7699337005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4512462615967</t>
+    <t xml:space="preserve">11.7699327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.451247215271</t>
   </si>
   <si>
     <t xml:space="preserve">11.4870548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5515089035034</t>
+    <t xml:space="preserve">11.5515079498291</t>
   </si>
   <si>
     <t xml:space="preserve">11.4011163711548</t>
@@ -2078,13 +2078,13 @@
     <t xml:space="preserve">11.5837345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6159610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7269649505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6875762939453</t>
+    <t xml:space="preserve">11.6159601211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7269639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6875772476196</t>
   </si>
   <si>
     <t xml:space="preserve">11.5765733718872</t>
@@ -2093,10 +2093,10 @@
     <t xml:space="preserve">11.590895652771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6481885910034</t>
+    <t xml:space="preserve">11.7663526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6481866836548</t>
   </si>
   <si>
     <t xml:space="preserve">11.7591915130615</t>
@@ -2105,16 +2105,16 @@
     <t xml:space="preserve">11.7949981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8200645446777</t>
+    <t xml:space="preserve">11.8200635910034</t>
   </si>
   <si>
     <t xml:space="preserve">11.8487110137939</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0563926696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2067852020264</t>
+    <t xml:space="preserve">12.0563936233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.206787109375</t>
   </si>
   <si>
     <t xml:space="preserve">12.249755859375</t>
@@ -2126,34 +2126,34 @@
     <t xml:space="preserve">12.2998847961426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4180488586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5326356887817</t>
+    <t xml:space="preserve">12.4180498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5326347351074</t>
   </si>
   <si>
     <t xml:space="preserve">12.5147314071655</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4431142807007</t>
+    <t xml:space="preserve">12.443115234375</t>
   </si>
   <si>
     <t xml:space="preserve">12.4073085784912</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8083515167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7797050476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8262548446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7940282821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620624542236</t>
+    <t xml:space="preserve">12.8083524703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7797040939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8262567520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7940292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620634078979</t>
   </si>
   <si>
     <t xml:space="preserve">12.8190956115723</t>
@@ -2165,49 +2165,49 @@
     <t xml:space="preserve">12.7331571578979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7045097351074</t>
+    <t xml:space="preserve">12.7045106887817</t>
   </si>
   <si>
     <t xml:space="preserve">12.4932451248169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5612812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6400566101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7259960174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7080936431885</t>
+    <t xml:space="preserve">12.5612821578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6400556564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7259941101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7080917358398</t>
   </si>
   <si>
     <t xml:space="preserve">12.7689647674561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7976121902466</t>
+    <t xml:space="preserve">12.7976102828979</t>
   </si>
   <si>
     <t xml:space="preserve">12.9372596740723</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8656444549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9659061431885</t>
+    <t xml:space="preserve">12.8656435012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9659051895142</t>
   </si>
   <si>
     <t xml:space="preserve">12.9694862365723</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9623260498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0303583145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1592674255371</t>
+    <t xml:space="preserve">12.9623250961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0303573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1592664718628</t>
   </si>
   <si>
     <t xml:space="preserve">13.1449422836304</t>
@@ -2216,49 +2216,49 @@
     <t xml:space="preserve">13.1700077056885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1771688461304</t>
+    <t xml:space="preserve">13.1771678924561</t>
   </si>
   <si>
     <t xml:space="preserve">13.1735887527466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521043777466</t>
+    <t xml:space="preserve">13.1521024703979</t>
   </si>
   <si>
     <t xml:space="preserve">13.0590057373047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0160360336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2487859725952</t>
+    <t xml:space="preserve">13.0160369873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2487850189209</t>
   </si>
   <si>
     <t xml:space="preserve">13.3132381439209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3168172836304</t>
+    <t xml:space="preserve">13.3168182373047</t>
   </si>
   <si>
     <t xml:space="preserve">13.7715740203857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7357664108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7429294586182</t>
+    <t xml:space="preserve">13.7357683181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7429275512695</t>
   </si>
   <si>
     <t xml:space="preserve">13.9649333953857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8467712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7286052703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6426677703857</t>
+    <t xml:space="preserve">13.8467702865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7286062240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6426668167114</t>
   </si>
   <si>
     <t xml:space="preserve">13.3920154571533</t>
@@ -2267,16 +2267,16 @@
     <t xml:space="preserve">13.3490447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3597888946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2774333953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3848552703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3884353637695</t>
+    <t xml:space="preserve">13.359787940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2774324417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3848533630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3884344100952</t>
   </si>
   <si>
     <t xml:space="preserve">13.2702703475952</t>
@@ -2285,25 +2285,25 @@
     <t xml:space="preserve">13.0983943939209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0840711593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0625848770142</t>
+    <t xml:space="preserve">13.0840692520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0625858306885</t>
   </si>
   <si>
     <t xml:space="preserve">13.0411014556885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0482616424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0769081115723</t>
+    <t xml:space="preserve">13.0482625961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0769090652466</t>
   </si>
   <si>
     <t xml:space="preserve">13.1485233306885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.134202003479</t>
+    <t xml:space="preserve">13.1342010498047</t>
   </si>
   <si>
     <t xml:space="preserve">13.2380418777466</t>
@@ -2312,28 +2312,28 @@
     <t xml:space="preserve">13.2559461593628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3024959564209</t>
+    <t xml:space="preserve">13.3024978637695</t>
   </si>
   <si>
     <t xml:space="preserve">13.2452049255371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5889568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3776912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3203992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.187912940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0912322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2272996902466</t>
+    <t xml:space="preserve">13.5889558792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3776922225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3204002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1879138946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0912313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2273006439209</t>
   </si>
   <si>
     <t xml:space="preserve">13.1986541748047</t>
@@ -2342,64 +2342,64 @@
     <t xml:space="preserve">13.0339393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.101975440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1091356277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0733289718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9873895645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8441610336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9909696578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6901874542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0661659240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8119316101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6006669998169</t>
+    <t xml:space="preserve">13.1019744873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1091365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0733280181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9873905181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8441600799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9909687042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.690185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0661678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8119335174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6006689071655</t>
   </si>
   <si>
     <t xml:space="preserve">12.6651220321655</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8513212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1234569549561</t>
+    <t xml:space="preserve">12.8513202667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1234588623047</t>
   </si>
   <si>
     <t xml:space="preserve">13.2058162689209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4063367843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4457263946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4493083953857</t>
+    <t xml:space="preserve">13.4063348770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.445725440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4493074417114</t>
   </si>
   <si>
     <t xml:space="preserve">13.5209226608276</t>
   </si>
   <si>
-    <t xml:space="preserve">12.486083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4144687652588</t>
+    <t xml:space="preserve">12.4860830307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4144678115845</t>
   </si>
   <si>
     <t xml:space="preserve">12.3643388748169</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">11.6446075439453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5085382461548</t>
+    <t xml:space="preserve">11.5085391998291</t>
   </si>
   <si>
     <t xml:space="preserve">11.2686281204224</t>
@@ -2420,58 +2420,58 @@
     <t xml:space="preserve">9.8542308807373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70383930206299</t>
+    <t xml:space="preserve">9.7038402557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.44699573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64393711090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08892154693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77023315429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43722343444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68787670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79887914657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80246162414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6654224395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9160737991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06646537780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8623628616333</t>
+    <t xml:space="preserve">8.64393615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08892059326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77023267745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43722295761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68787479400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887962341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80246019363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66542148590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91607475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06646633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86236190795898</t>
   </si>
   <si>
     <t xml:space="preserve">8.85520172119141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88742733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66184043884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83013534545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72629547119141</t>
+    <t xml:space="preserve">8.88742828369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66184234619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8301362991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72629451751709</t>
   </si>
   <si>
     <t xml:space="preserve">8.98410797119141</t>
@@ -2480,16 +2480,16 @@
     <t xml:space="preserve">9.15598487854004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21685600280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40663814544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02349758148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8731050491333</t>
+    <t xml:space="preserve">9.21685791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40663719177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02349662780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87310600280762</t>
   </si>
   <si>
     <t xml:space="preserve">8.97336578369141</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">8.8587818145752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12733745574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28847217559814</t>
+    <t xml:space="preserve">9.12733936309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28847312927246</t>
   </si>
   <si>
     <t xml:space="preserve">9.52480220794678</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">9.09511184692383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26340866088867</t>
+    <t xml:space="preserve">9.26340770721436</t>
   </si>
   <si>
     <t xml:space="preserve">9.12017822265625</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">9.29205322265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20969486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17030715942383</t>
+    <t xml:space="preserve">9.20969581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17030811309814</t>
   </si>
   <si>
     <t xml:space="preserve">8.99485111236572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88384819030762</t>
+    <t xml:space="preserve">8.88384628295898</t>
   </si>
   <si>
     <t xml:space="preserve">9.25962448120117</t>
@@ -2558,49 +2558,49 @@
     <t xml:space="preserve">9.08062267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0470609664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29691696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48710632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52812767028809</t>
+    <t xml:space="preserve">9.04706001281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29691791534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4871072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52812671661377</t>
   </si>
   <si>
     <t xml:space="preserve">9.31183338165283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61389923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90477752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4007616043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4455137252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7289323806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7550363540649</t>
+    <t xml:space="preserve">9.61390018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90477657318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4007625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4455127716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7289333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7550373077393</t>
   </si>
   <si>
     <t xml:space="preserve">10.6394319534302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4194087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0166549682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0129241943359</t>
+    <t xml:space="preserve">10.4194097518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0166540145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0129232406616</t>
   </si>
   <si>
     <t xml:space="preserve">9.99800682067871</t>
@@ -2618,22 +2618,22 @@
     <t xml:space="preserve">10.154634475708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1658220291138</t>
+    <t xml:space="preserve">10.1658229827881</t>
   </si>
   <si>
     <t xml:space="preserve">9.89358997344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9196949005127</t>
+    <t xml:space="preserve">9.91969394683838</t>
   </si>
   <si>
     <t xml:space="preserve">10.0091962814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0464878082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0427579879761</t>
+    <t xml:space="preserve">10.0464887619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0427589416504</t>
   </si>
   <si>
     <t xml:space="preserve">10.3187198638916</t>
@@ -2642,16 +2642,16 @@
     <t xml:space="preserve">10.251594543457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3560123443604</t>
+    <t xml:space="preserve">10.356011390686</t>
   </si>
   <si>
     <t xml:space="preserve">10.2590522766113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99055004119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0651340484619</t>
+    <t xml:space="preserve">9.99054908752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0651330947876</t>
   </si>
   <si>
     <t xml:space="preserve">10.1732797622681</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">10.3038024902344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3075313568115</t>
+    <t xml:space="preserve">10.3075323104858</t>
   </si>
   <si>
     <t xml:space="preserve">10.2105722427368</t>
@@ -2675,10 +2675,10 @@
     <t xml:space="preserve">10.4268665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3746585845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1359882354736</t>
+    <t xml:space="preserve">10.3746576309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1359891891479</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800504684448</t>
@@ -2687,19 +2687,19 @@
     <t xml:space="preserve">10.0688629150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55423259735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44235610961914</t>
+    <t xml:space="preserve">9.55423164367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44235515594482</t>
   </si>
   <si>
     <t xml:space="preserve">9.49829483032227</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64746379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72204685211182</t>
+    <t xml:space="preserve">9.64746284484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7220458984375</t>
   </si>
   <si>
     <t xml:space="preserve">9.47591972351074</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">9.87867259979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82273578643799</t>
+    <t xml:space="preserve">9.82273483276367</t>
   </si>
   <si>
     <t xml:space="preserve">9.77798461914062</t>
@@ -2717,22 +2717,22 @@
     <t xml:space="preserve">9.62881565093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80035972595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71831607818604</t>
+    <t xml:space="preserve">9.80035877227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71831703186035</t>
   </si>
   <si>
     <t xml:space="preserve">9.65119171142578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85629749298096</t>
+    <t xml:space="preserve">9.85629844665527</t>
   </si>
   <si>
     <t xml:space="preserve">9.91223621368408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87494468688965</t>
+    <t xml:space="preserve">9.87494373321533</t>
   </si>
   <si>
     <t xml:space="preserve">9.69967079162598</t>
@@ -2744,13 +2744,13 @@
     <t xml:space="preserve">9.71085929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66610813140869</t>
+    <t xml:space="preserve">9.66610908508301</t>
   </si>
   <si>
     <t xml:space="preserve">9.56169033050537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46100234985352</t>
+    <t xml:space="preserve">9.4610013961792</t>
   </si>
   <si>
     <t xml:space="preserve">9.65864944458008</t>
@@ -2759,37 +2759,37 @@
     <t xml:space="preserve">9.5766077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56542015075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55050182342529</t>
+    <t xml:space="preserve">9.56541919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55050277709961</t>
   </si>
   <si>
     <t xml:space="preserve">9.4535436630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1924991607666</t>
+    <t xml:space="preserve">9.19249820709229</t>
   </si>
   <si>
     <t xml:space="preserve">8.83449459075928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78601455688477</t>
+    <t xml:space="preserve">8.78601551055908</t>
   </si>
   <si>
     <t xml:space="preserve">8.74872398376465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6778678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61447048187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95382976531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90162086486816</t>
+    <t xml:space="preserve">8.67786884307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61447143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95382881164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90162181854248</t>
   </si>
   <si>
     <t xml:space="preserve">8.96874618530273</t>
@@ -2798,13 +2798,13 @@
     <t xml:space="preserve">8.84941101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00230979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22979068756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1999568939209</t>
+    <t xml:space="preserve">9.00230884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22978973388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19995784759521</t>
   </si>
   <si>
     <t xml:space="preserve">9.38641738891602</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">9.30810451507568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21114635467529</t>
+    <t xml:space="preserve">9.21114540100098</t>
   </si>
   <si>
     <t xml:space="preserve">9.20741558074951</t>
@@ -2825,28 +2825,28 @@
     <t xml:space="preserve">8.88670349121094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.054518699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10299777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1253719329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89789199829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90907859802246</t>
+    <t xml:space="preserve">9.05451774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10299968719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12537288665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8978910446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90907955169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.8568696975708</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4727611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49886703491211</t>
+    <t xml:space="preserve">8.47276210784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49886608123779</t>
   </si>
   <si>
     <t xml:space="preserve">8.58463764190674</t>
@@ -2855,25 +2855,25 @@
     <t xml:space="preserve">8.80466175079346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97620487213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09926795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2335205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81527709960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0539455413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0390300750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1695518493652</t>
+    <t xml:space="preserve">8.97620391845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09926891326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23352146148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81527614593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0539445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0390291213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1695508956909</t>
   </si>
   <si>
     <t xml:space="preserve">10.4156789779663</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">10.5387439727783</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6133260726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.493992805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5946807861328</t>
+    <t xml:space="preserve">10.6133270263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4939918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5946817398071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6058692932129</t>
@@ -2900,10 +2900,10 @@
     <t xml:space="preserve">10.8109750747681</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7923288345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6804533004761</t>
+    <t xml:space="preserve">10.792329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6804513931274</t>
   </si>
   <si>
     <t xml:space="preserve">10.7587661743164</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.8147048950195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7102861404419</t>
+    <t xml:space="preserve">10.7102870941162</t>
   </si>
   <si>
     <t xml:space="preserve">10.6841821670532</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">10.7065572738647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5051794052124</t>
+    <t xml:space="preserve">10.5051803588867</t>
   </si>
   <si>
     <t xml:space="preserve">10.635703086853</t>
@@ -2933,19 +2933,19 @@
     <t xml:space="preserve">10.6506195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.661808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3597402572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5163688659668</t>
+    <t xml:space="preserve">10.6618070602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3597421646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5163698196411</t>
   </si>
   <si>
     <t xml:space="preserve">10.7140159606934</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6767234802246</t>
+    <t xml:space="preserve">10.6767244338989</t>
   </si>
   <si>
     <t xml:space="preserve">10.3783864974976</t>
@@ -2957,10 +2957,10 @@
     <t xml:space="preserve">10.8482666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7401208877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7848701477051</t>
+    <t xml:space="preserve">10.7401189804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7848711013794</t>
   </si>
   <si>
     <t xml:space="preserve">10.8184337615967</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">11.0459156036377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9303092956543</t>
+    <t xml:space="preserve">10.9303102493286</t>
   </si>
   <si>
     <t xml:space="preserve">10.8221626281738</t>
@@ -2981,28 +2981,28 @@
     <t xml:space="preserve">10.5089101791382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6319751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7960596084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.150333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.500880241394</t>
+    <t xml:space="preserve">10.6319742202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7960586547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1503324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5008792877197</t>
   </si>
   <si>
     <t xml:space="preserve">11.5866498947144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7246322631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7992143630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7544651031494</t>
+    <t xml:space="preserve">11.7246313095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7992153167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7544660568237</t>
   </si>
   <si>
     <t xml:space="preserve">11.7097139358521</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">11.6761522293091</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5083379745483</t>
+    <t xml:space="preserve">11.508337020874</t>
   </si>
   <si>
     <t xml:space="preserve">11.620213508606</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">11.5903797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5642747879028</t>
+    <t xml:space="preserve">11.5642757415771</t>
   </si>
   <si>
     <t xml:space="preserve">11.6090250015259</t>
@@ -3038,25 +3038,25 @@
     <t xml:space="preserve">11.8104038238525</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5978374481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8066740036011</t>
+    <t xml:space="preserve">11.5978384017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8066730499268</t>
   </si>
   <si>
     <t xml:space="preserve">11.8402366638184</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9558429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9894065856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9371957778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3063869476318</t>
+    <t xml:space="preserve">11.9558420181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.989405632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9371948242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3063879013062</t>
   </si>
   <si>
     <t xml:space="preserve">12.328763961792</t>
@@ -3074,49 +3074,49 @@
     <t xml:space="preserve">12.5562429428101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5972652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4928493499756</t>
+    <t xml:space="preserve">12.5972661972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4928483963013</t>
   </si>
   <si>
     <t xml:space="preserve">12.5748920440674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.477931022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338687896729</t>
+    <t xml:space="preserve">12.4779319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338697433472</t>
   </si>
   <si>
     <t xml:space="preserve">12.5301399230957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5487880706787</t>
+    <t xml:space="preserve">12.5487871170044</t>
   </si>
   <si>
     <t xml:space="preserve">12.6233701705933</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7240581512451</t>
+    <t xml:space="preserve">12.7240571975708</t>
   </si>
   <si>
     <t xml:space="preserve">12.7837247848511</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7016849517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7799968719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8061017990112</t>
+    <t xml:space="preserve">12.7016839981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7799978256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8061008453369</t>
   </si>
   <si>
     <t xml:space="preserve">12.757622718811</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6532049179077</t>
+    <t xml:space="preserve">12.6532039642334</t>
   </si>
   <si>
     <t xml:space="preserve">12.731517791748</t>
@@ -3125,13 +3125,13 @@
     <t xml:space="preserve">12.7427043914795</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6979532241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7688093185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8471240997314</t>
+    <t xml:space="preserve">12.6979541778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7688112258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8471231460571</t>
   </si>
   <si>
     <t xml:space="preserve">12.563702583313</t>
@@ -3140,31 +3140,31 @@
     <t xml:space="preserve">12.5860776901245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5152235031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4443674087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6793088912964</t>
+    <t xml:space="preserve">12.5152244567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4443683624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6793098449707</t>
   </si>
   <si>
     <t xml:space="preserve">12.5599746704102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7166013717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.843391418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9552698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0969791412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9851026535034</t>
+    <t xml:space="preserve">12.7166004180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8433923721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9552707672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.096978187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9851036071777</t>
   </si>
   <si>
     <t xml:space="preserve">13.0373115539551</t>
@@ -3173,55 +3173,55 @@
     <t xml:space="preserve">13.0820646286011</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1566476821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1603775024414</t>
+    <t xml:space="preserve">13.1566467285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1603765487671</t>
   </si>
   <si>
     <t xml:space="preserve">13.1864805221558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0037498474121</t>
+    <t xml:space="preserve">13.0037488937378</t>
   </si>
   <si>
     <t xml:space="preserve">13.0112075805664</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1715641021729</t>
+    <t xml:space="preserve">13.1715650558472</t>
   </si>
   <si>
     <t xml:space="preserve">13.3693351745605</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2427616119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1003646850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2150745391846</t>
+    <t xml:space="preserve">13.2427625656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1003656387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2150735855103</t>
   </si>
   <si>
     <t xml:space="preserve">13.3258247375488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3020935058594</t>
+    <t xml:space="preserve">13.3020925521851</t>
   </si>
   <si>
     <t xml:space="preserve">13.3930673599243</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4088897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5156850814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6462144851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6264390945435</t>
+    <t xml:space="preserve">13.4088888168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5156860351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6462154388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6264381408691</t>
   </si>
   <si>
     <t xml:space="preserve">13.590838432312</t>
@@ -3233,13 +3233,13 @@
     <t xml:space="preserve">13.559193611145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5671062469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5789737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6383047103882</t>
+    <t xml:space="preserve">13.5671072006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5789747238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6383037567139</t>
   </si>
   <si>
     <t xml:space="preserve">13.3614234924316</t>
@@ -3248,19 +3248,19 @@
     <t xml:space="preserve">13.3970232009888</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3574695587158</t>
+    <t xml:space="preserve">13.3574686050415</t>
   </si>
   <si>
     <t xml:space="preserve">13.1755199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4603080749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2506732940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2981367111206</t>
+    <t xml:space="preserve">13.4603090286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2506723403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2981376647949</t>
   </si>
   <si>
     <t xml:space="preserve">13.373291015625</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">13.321870803833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1082773208618</t>
+    <t xml:space="preserve">13.1082763671875</t>
   </si>
   <si>
     <t xml:space="preserve">13.4523983001709</t>
@@ -3287,22 +3287,22 @@
     <t xml:space="preserve">13.4563541412354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3891124725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2902269363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2388067245483</t>
+    <t xml:space="preserve">13.3891115188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.290225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.238805770874</t>
   </si>
   <si>
     <t xml:space="preserve">12.835352897644</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9658823013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2467184066772</t>
+    <t xml:space="preserve">12.9658803939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2467174530029</t>
   </si>
   <si>
     <t xml:space="preserve">13.2823171615601</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">13.2546272277832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3297815322876</t>
+    <t xml:space="preserve">13.3297805786133</t>
   </si>
   <si>
     <t xml:space="preserve">13.1913404464722</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">13.3535137176514</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4207563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4721775054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6027050018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6976356506348</t>
+    <t xml:space="preserve">13.4207553863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4721765518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6027059555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6976366043091</t>
   </si>
   <si>
     <t xml:space="preserve">13.7451000213623</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">13.571063041687</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5512828826904</t>
+    <t xml:space="preserve">13.5512838363647</t>
   </si>
   <si>
     <t xml:space="preserve">13.5117301940918</t>
@@ -3362,13 +3362,13 @@
     <t xml:space="preserve">13.5394191741943</t>
   </si>
   <si>
-    <t xml:space="preserve">13.662036895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7253246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7411441802979</t>
+    <t xml:space="preserve">13.6620378494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.725323677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7411451339722</t>
   </si>
   <si>
     <t xml:space="preserve">13.7015905380249</t>
@@ -3377,13 +3377,13 @@
     <t xml:space="preserve">13.8716735839844</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9705591201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0378046035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.788610458374</t>
+    <t xml:space="preserve">13.9705600738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.037802696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7886114120483</t>
   </si>
   <si>
     <t xml:space="preserve">13.9626483917236</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">13.9230947494507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0140686035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1366901397705</t>
+    <t xml:space="preserve">14.0140705108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1366882324219</t>
   </si>
   <si>
     <t xml:space="preserve">13.9903364181519</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">13.8044319152832</t>
   </si>
   <si>
-    <t xml:space="preserve">14.223708152771</t>
+    <t xml:space="preserve">14.2237071990967</t>
   </si>
   <si>
     <t xml:space="preserve">14.3384141921997</t>
@@ -3413,55 +3413,55 @@
     <t xml:space="preserve">14.5005865097046</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7339572906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4373006820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5717849731445</t>
+    <t xml:space="preserve">14.7339563369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4373016357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5717840194702</t>
   </si>
   <si>
     <t xml:space="preserve">14.5480508804321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5638732910156</t>
+    <t xml:space="preserve">14.5638742446899</t>
   </si>
   <si>
     <t xml:space="preserve">14.5361862182617</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8288860321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7023134231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8407516479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8684415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.947548866272</t>
+    <t xml:space="preserve">14.8288869857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7023124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8407535552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8684406280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9475498199463</t>
   </si>
   <si>
     <t xml:space="preserve">15.0227022171021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8011980056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8130645751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8644847869873</t>
+    <t xml:space="preserve">14.8011989593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8130655288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8644857406616</t>
   </si>
   <si>
     <t xml:space="preserve">14.9253063201904</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9901809692383</t>
+    <t xml:space="preserve">14.990180015564</t>
   </si>
   <si>
     <t xml:space="preserve">15.1158752441406</t>
@@ -3473,43 +3473,43 @@
     <t xml:space="preserve">15.0956029891968</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1564254760742</t>
+    <t xml:space="preserve">15.1564235687256</t>
   </si>
   <si>
     <t xml:space="preserve">15.2618446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2091331481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2780628204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2861738204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.375376701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3915948867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4686336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037580490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4929618835449</t>
+    <t xml:space="preserve">15.209132194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2780637741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2861728668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3753776550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3915939331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4686346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037599563599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4929609298706</t>
   </si>
   <si>
     <t xml:space="preserve">15.3875408172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3956508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4240322113037</t>
+    <t xml:space="preserve">15.3956489562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.424033164978</t>
   </si>
   <si>
     <t xml:space="preserve">15.5294542312622</t>
@@ -3518,13 +3518,13 @@
     <t xml:space="preserve">15.5172901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6024398803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2172441482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0834379196167</t>
+    <t xml:space="preserve">15.6024389266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2172451019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0834398269653</t>
   </si>
   <si>
     <t xml:space="preserve">14.82799243927</t>
@@ -3542,13 +3542,13 @@
     <t xml:space="preserve">14.3211574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4346876144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3779220581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.702299118042</t>
+    <t xml:space="preserve">14.4346885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3779230117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7022981643677</t>
   </si>
   <si>
     <t xml:space="preserve">14.6293144226074</t>
@@ -3557,64 +3557,64 @@
     <t xml:space="preserve">14.7509546279907</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0915498733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.164532661438</t>
+    <t xml:space="preserve">15.0915489196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1645345687866</t>
   </si>
   <si>
     <t xml:space="preserve">14.998291015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0712747573853</t>
+    <t xml:space="preserve">15.0712738037109</t>
   </si>
   <si>
     <t xml:space="preserve">15.0023460388184</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9617986679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8158302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9131412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1118211746216</t>
+    <t xml:space="preserve">14.961799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8158283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.913140296936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1118221282959</t>
   </si>
   <si>
     <t xml:space="preserve">15.0428905487061</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2050800323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1483135223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1077661514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4118690490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3226652145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9739627838135</t>
+    <t xml:space="preserve">15.2050790786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1483144760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1077671051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4118671417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3226661682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9739618301392</t>
   </si>
   <si>
     <t xml:space="preserve">15.0591115951538</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9699077606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0753297805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.201024055481</t>
+    <t xml:space="preserve">14.9699068069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.07532787323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2010250091553</t>
   </si>
   <si>
     <t xml:space="preserve">15.1848058700562</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">14.9536895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0672197341919</t>
+    <t xml:space="preserve">15.0672206878662</t>
   </si>
   <si>
     <t xml:space="preserve">15.2902278900146</t>
@@ -3632,25 +3632,25 @@
     <t xml:space="preserve">15.1807498931885</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3064479827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5117301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6374216079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8239393234253</t>
+    <t xml:space="preserve">15.3064460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5117292404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6374225616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8239402770996</t>
   </si>
   <si>
     <t xml:space="preserve">14.8117742538452</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1361503601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8766489028931</t>
+    <t xml:space="preserve">15.1361522674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8766498565674</t>
   </si>
   <si>
     <t xml:space="preserve">15.1239862442017</t>
@@ -3659,22 +3659,22 @@
     <t xml:space="preserve">15.0996580123901</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8847589492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3713207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0347843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6941890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7347354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1630249023438</t>
+    <t xml:space="preserve">14.8847579956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3713226318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0347833633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6941900253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7347345352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1630258560181</t>
   </si>
   <si>
     <t xml:space="preserve">14.5076723098755</t>
@@ -3692,25 +3692,25 @@
     <t xml:space="preserve">13.1615161895752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8655242919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1169147491455</t>
+    <t xml:space="preserve">12.8655252456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1169157028198</t>
   </si>
   <si>
     <t xml:space="preserve">13.7535009384155</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6237516403198</t>
+    <t xml:space="preserve">13.6237506866455</t>
   </si>
   <si>
     <t xml:space="preserve">13.9237976074219</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3089942932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5238914489746</t>
+    <t xml:space="preserve">14.3089933395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5238924026489</t>
   </si>
   <si>
     <t xml:space="preserve">15.2253532409668</t>
@@ -3719,22 +3719,22 @@
     <t xml:space="preserve">15.1929168701172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3105020523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4605264663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7484073638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3322811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9997968673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3160648345947</t>
+    <t xml:space="preserve">15.3105010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4605255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7484083175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3322830200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9997978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3160629272461</t>
   </si>
   <si>
     <t xml:space="preserve">16.8431739807129</t>
@@ -3758,13 +3758,13 @@
     <t xml:space="preserve">15.8822107315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7646293640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.630823135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5578355789185</t>
+    <t xml:space="preserve">15.764627456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6308212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5578374862671</t>
   </si>
   <si>
     <t xml:space="preserve">15.6227121353149</t>
@@ -3773,40 +3773,40 @@
     <t xml:space="preserve">15.1402044296265</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9334173202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6455335617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6820259094238</t>
+    <t xml:space="preserve">14.9334163665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6455326080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6820240020752</t>
   </si>
   <si>
     <t xml:space="preserve">14.5968761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6779718399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5563297271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8442125320435</t>
+    <t xml:space="preserve">14.6779708862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5563306808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8442134857178</t>
   </si>
   <si>
     <t xml:space="preserve">14.7590637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5887660980225</t>
+    <t xml:space="preserve">14.5887670516968</t>
   </si>
   <si>
     <t xml:space="preserve">14.3819780349731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1427516937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3617038726807</t>
+    <t xml:space="preserve">14.1427526473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3617029190063</t>
   </si>
   <si>
     <t xml:space="preserve">14.4022512435913</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">14.3292675018311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.446852684021</t>
+    <t xml:space="preserve">14.4468536376953</t>
   </si>
   <si>
     <t xml:space="preserve">14.5928220748901</t>
@@ -3824,13 +3824,13 @@
     <t xml:space="preserve">15.0282354354858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8945932388306</t>
+    <t xml:space="preserve">14.8945922851562</t>
   </si>
   <si>
     <t xml:space="preserve">14.9635696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0239219665527</t>
+    <t xml:space="preserve">15.0239229202271</t>
   </si>
   <si>
     <t xml:space="preserve">14.7264633178711</t>
@@ -3842,10 +3842,10 @@
     <t xml:space="preserve">14.6143779754639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.579888343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152225494385</t>
+    <t xml:space="preserve">14.5798892974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152215957642</t>
   </si>
   <si>
     <t xml:space="preserve">14.4117593765259</t>
@@ -3854,13 +3854,13 @@
     <t xml:space="preserve">14.6014423370361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5066003799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3427810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.213451385498</t>
+    <t xml:space="preserve">14.5066022872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3427820205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2134523391724</t>
   </si>
   <si>
     <t xml:space="preserve">13.5193767547607</t>
@@ -3884,7 +3884,7 @@
     <t xml:space="preserve">13.7090616226196</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5236864089966</t>
+    <t xml:space="preserve">13.5236873626709</t>
   </si>
   <si>
     <t xml:space="preserve">13.381422996521</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">13.3167572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8125267028809</t>
+    <t xml:space="preserve">13.8125257492065</t>
   </si>
   <si>
     <t xml:space="preserve">13.3943567276001</t>
@@ -3902,13 +3902,13 @@
     <t xml:space="preserve">13.5538644790649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4159116744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1270742416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4202222824097</t>
+    <t xml:space="preserve">13.4159107208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1270723342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.420223236084</t>
   </si>
   <si>
     <t xml:space="preserve">13.2908916473389</t>
@@ -3917,13 +3917,13 @@
     <t xml:space="preserve">12.5364618301392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6787261962891</t>
+    <t xml:space="preserve">12.6787252426147</t>
   </si>
   <si>
     <t xml:space="preserve">13.1917381286621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2520933151245</t>
+    <t xml:space="preserve">13.2520923614502</t>
   </si>
   <si>
     <t xml:space="preserve">13.0796518325806</t>
@@ -3938,25 +3938,25 @@
     <t xml:space="preserve">12.4717969894409</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5580167770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5407733917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6614818572998</t>
+    <t xml:space="preserve">12.5580177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5407724380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6614828109741</t>
   </si>
   <si>
     <t xml:space="preserve">12.299355506897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2777996063232</t>
+    <t xml:space="preserve">12.2778005599976</t>
   </si>
   <si>
     <t xml:space="preserve">12.3252220153809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5450839996338</t>
+    <t xml:space="preserve">12.5450849533081</t>
   </si>
   <si>
     <t xml:space="preserve">12.2950448989868</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">12.4502410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752611160278</t>
+    <t xml:space="preserve">12.5752620697021</t>
   </si>
   <si>
     <t xml:space="preserve">12.8339233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5881958007812</t>
+    <t xml:space="preserve">12.5881938934326</t>
   </si>
   <si>
     <t xml:space="preserve">12.6528596878052</t>
@@ -3992,19 +3992,19 @@
     <t xml:space="preserve">13.1744937896729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2434701919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.351245880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.24778175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2865810394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0192975997925</t>
+    <t xml:space="preserve">13.2434692382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3512449264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2477807998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2865800857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0192966461182</t>
   </si>
   <si>
     <t xml:space="preserve">12.8856554031372</t>
@@ -4022,25 +4022,25 @@
     <t xml:space="preserve">12.6269941329956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7778797149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6226825714111</t>
+    <t xml:space="preserve">12.7778787612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6226835250854</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105962753296</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9546318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6011266708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5666399002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6571712493896</t>
+    <t xml:space="preserve">12.9546308517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6011276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5666389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.657172203064</t>
   </si>
   <si>
     <t xml:space="preserve">12.8899660110474</t>
@@ -4055,7 +4055,7 @@
     <t xml:space="preserve">13.2132930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1658716201782</t>
+    <t xml:space="preserve">13.1658735275269</t>
   </si>
   <si>
     <t xml:space="preserve">12.8253011703491</t>
@@ -4076,22 +4076,22 @@
     <t xml:space="preserve">12.1312255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9372291564941</t>
+    <t xml:space="preserve">11.9372301101685</t>
   </si>
   <si>
     <t xml:space="preserve">12.0881156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5019731521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2476243972778</t>
+    <t xml:space="preserve">12.501974105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2476234436035</t>
   </si>
   <si>
     <t xml:space="preserve">11.9674072265625</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8510093688965</t>
+    <t xml:space="preserve">11.8510084152222</t>
   </si>
   <si>
     <t xml:space="preserve">12.0708713531494</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">12.0579376220703</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9027423858643</t>
+    <t xml:space="preserve">11.9027414321899</t>
   </si>
   <si>
     <t xml:space="preserve">12.1182928085327</t>
@@ -4112,10 +4112,10 @@
     <t xml:space="preserve">12.415753364563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8922548294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525732040405</t>
+    <t xml:space="preserve">12.8922557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525722503662</t>
   </si>
   <si>
     <t xml:space="preserve">13.0792932510376</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173452377319</t>
+    <t xml:space="preserve">13.2173442840576</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">13.2529716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266481399536</t>
+    <t xml:space="preserve">13.4266490936279</t>
   </si>
   <si>
     <t xml:space="preserve">13.4221954345703</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346811294556</t>
+    <t xml:space="preserve">15.2346820831299</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367101669312</t>
+    <t xml:space="preserve">15.1367111206055</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4187,10 +4187,10 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1233501434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0610036849976</t>
+    <t xml:space="preserve">15.123348236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
@@ -4202,28 +4202,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524948120117</t>
+    <t xml:space="preserve">15.0877237319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524938583374</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326539993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3281993865967</t>
+    <t xml:space="preserve">15.3326549530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.328200340271</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192949295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217205047607</t>
+    <t xml:space="preserve">15.3192939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217195510864</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006853103638</t>
+    <t xml:space="preserve">14.9006843566895</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075654983521</t>
+    <t xml:space="preserve">15.0075645446777</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860931396484</t>
+    <t xml:space="preserve">15.3860921859741</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439859390259</t>
@@ -4286,22 +4286,22 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4974250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840660095215</t>
+    <t xml:space="preserve">15.49742603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840650558472</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6087579727173</t>
+    <t xml:space="preserve">15.5196905136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953989028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.608757019043</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4313,10 +4313,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115810394287</t>
+    <t xml:space="preserve">15.9561147689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115800857544</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427547454834</t>
+    <t xml:space="preserve">15.9427528381348</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4340,31 +4340,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297912597656</t>
+    <t xml:space="preserve">16.1297931671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698703765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.22776222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500305175781</t>
+    <t xml:space="preserve">16.1698722839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2277641296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500324249268</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544822692871</t>
+    <t xml:space="preserve">16.2544841766357</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034687042236</t>
+    <t xml:space="preserve">16.3034706115723</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4373,7 +4373,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476039886475</t>
+    <t xml:space="preserve">16.1476058959961</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026746749878</t>
+    <t xml:space="preserve">15.9026737213135</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4448,13 +4448,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2901096343994</t>
+    <t xml:space="preserve">16.290111541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216789245605</t>
+    <t xml:space="preserve">16.5216808319092</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4469,16 +4469,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289585113525</t>
+    <t xml:space="preserve">16.8289566040039</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070877075195</t>
+    <t xml:space="preserve">17.0026340484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070896148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4490,7 +4490,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.926929473877</t>
+    <t xml:space="preserve">16.9269275665283</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4502,22 +4502,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4815998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002113342285</t>
+    <t xml:space="preserve">16.4816017150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002094268799</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022384643555</t>
+    <t xml:space="preserve">16.5706653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022365570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -61849,7 +61849,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.649537037</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>2046342</v>
@@ -61870,6 +61870,32 @@
         <v>1743</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6519560185</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>1524296</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>23.8099994659424</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>23.8099994659424</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>23.9400005340576</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1747">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30122470855713</t>
+    <t xml:space="preserve">9.30122566223145</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
@@ -50,58 +50,58 @@
     <t xml:space="preserve">9.22084331512451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20361804962158</t>
+    <t xml:space="preserve">9.20361995697021</t>
   </si>
   <si>
     <t xml:space="preserve">9.10601329803467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8476448059082</t>
+    <t xml:space="preserve">8.84764671325684</t>
   </si>
   <si>
     <t xml:space="preserve">8.97395992279053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15194511413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04285717010498</t>
+    <t xml:space="preserve">9.15194606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04285621643066</t>
   </si>
   <si>
     <t xml:space="preserve">8.84190464019775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65243625640869</t>
+    <t xml:space="preserve">8.65243530273438</t>
   </si>
   <si>
     <t xml:space="preserve">8.71559143066406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37110137939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52612209320068</t>
+    <t xml:space="preserve">8.37110233306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52612400054932</t>
   </si>
   <si>
     <t xml:space="preserve">8.56631374359131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12421798706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01512908935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68786334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752338409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77972841262817</t>
+    <t xml:space="preserve">8.38832569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12421703338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0151309967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68786430358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77972745895386</t>
   </si>
   <si>
     <t xml:space="preserve">7.48691177368164</t>
@@ -110,16 +110,16 @@
     <t xml:space="preserve">7.30318403244019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22280311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02759170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80941390991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53382349014282</t>
+    <t xml:space="preserve">7.22280359268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02759218215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80941534042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53382444381714</t>
   </si>
   <si>
     <t xml:space="preserve">6.87831258773804</t>
@@ -131,172 +131,172 @@
     <t xml:space="preserve">6.40176868438721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66013669967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68310165405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83812284469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79219055175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72329187393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96443605422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95869398117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185106277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33189153671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35485792160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41227245330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52710199356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52136039733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44672107696533</t>
+    <t xml:space="preserve">6.66013717651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68310213088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83812236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79219007492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7232928276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96443653106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95869302749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185010910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33189249038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35485744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41227197647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52710247039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52135944366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44672203063965</t>
   </si>
   <si>
     <t xml:space="preserve">7.31466627120972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38930654525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45246171951294</t>
+    <t xml:space="preserve">7.38930702209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45246315002441</t>
   </si>
   <si>
     <t xml:space="preserve">7.44097948074341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98067903518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91178131103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86584997177124</t>
+    <t xml:space="preserve">7.98067998886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91178274154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86585092544556</t>
   </si>
   <si>
     <t xml:space="preserve">7.95197343826294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96919727325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8371434211731</t>
+    <t xml:space="preserve">7.96919679641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83714437484741</t>
   </si>
   <si>
     <t xml:space="preserve">7.74527835845947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6476731300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60174179077148</t>
+    <t xml:space="preserve">7.64767408370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60174083709717</t>
   </si>
   <si>
     <t xml:space="preserve">7.43523693084717</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49839496612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55580854415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4811692237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37208271026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2859582901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0505576133728</t>
+    <t xml:space="preserve">7.49839448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55581045150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48117017745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37208080291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28595876693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05055713653564</t>
   </si>
   <si>
     <t xml:space="preserve">7.0735239982605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91850328445435</t>
+    <t xml:space="preserve">6.9185037612915</t>
   </si>
   <si>
     <t xml:space="preserve">7.11945533752441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20557832717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22854471206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50413608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56729316711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55006837844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6189661026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6706395149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82565879821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90604209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86010980606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92900705337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87733268737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84862613677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64193296432495</t>
+    <t xml:space="preserve">7.20557880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22854375839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50413703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56729221343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55006694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61896705627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67064046859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82565927505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90603971481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86010932922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92900800704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87733364105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84862518310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64193344116211</t>
   </si>
   <si>
     <t xml:space="preserve">7.46394538879395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42375564575195</t>
+    <t xml:space="preserve">7.42375516891479</t>
   </si>
   <si>
     <t xml:space="preserve">7.60748338699341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14816236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23428678512573</t>
+    <t xml:space="preserve">7.14816331863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23428583145142</t>
   </si>
   <si>
     <t xml:space="preserve">7.12519645690918</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">7.18261289596558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3204083442688</t>
+    <t xml:space="preserve">7.32040786743164</t>
   </si>
   <si>
     <t xml:space="preserve">7.38734483718872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81330490112305</t>
+    <t xml:space="preserve">7.81330299377441</t>
   </si>
   <si>
     <t xml:space="preserve">7.92283630371094</t>
@@ -323,43 +323,43 @@
     <t xml:space="preserve">8.02019786834717</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92892074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88632488250732</t>
+    <t xml:space="preserve">7.92892122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88632535934448</t>
   </si>
   <si>
     <t xml:space="preserve">7.83764410018921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61858081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60641098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73419713973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88023900985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8437294960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49079322814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24738740921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04049110412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06483316421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98572587966919</t>
+    <t xml:space="preserve">7.61857843399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60640811920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73419761657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88023853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84372901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4907922744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24738645553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04049253463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06483221054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98572635650635</t>
   </si>
   <si>
     <t xml:space="preserve">7.25955724716187</t>
@@ -368,67 +368,67 @@
     <t xml:space="preserve">7.47862195968628</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61249542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65508985519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64495897293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08208465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17640399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32244777679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41980934143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49283123016357</t>
+    <t xml:space="preserve">7.61249446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65509080886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64495849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08208417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17640447616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32244729995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41980981826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49283027648926</t>
   </si>
   <si>
     <t xml:space="preserve">6.31027698516846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18857431411743</t>
+    <t xml:space="preserve">6.18857383728027</t>
   </si>
   <si>
     <t xml:space="preserve">5.97255229949951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98472356796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45023488998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49891567230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82751274108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76057577133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93704462051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87010812759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90661954879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82142734527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91270542144775</t>
+    <t xml:space="preserve">5.98472309112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45023536682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49891519546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82751321792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76057720184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93704509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87010860443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90662002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82142782211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91270446777344</t>
   </si>
   <si>
     <t xml:space="preserve">6.83968305587769</t>
@@ -440,55 +440,55 @@
     <t xml:space="preserve">6.74840641021729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8761944770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68755483627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16827917098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13785362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85793876647949</t>
+    <t xml:space="preserve">6.87619304656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68755578994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16828012466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13785457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85793924331665</t>
   </si>
   <si>
     <t xml:space="preserve">7.13176822662354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27781057357788</t>
+    <t xml:space="preserve">7.27781200408936</t>
   </si>
   <si>
     <t xml:space="preserve">7.36300468444824</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36908864974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4116849899292</t>
+    <t xml:space="preserve">7.36908912658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41168546676636</t>
   </si>
   <si>
     <t xml:space="preserve">7.1500244140625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95529985427856</t>
+    <t xml:space="preserve">6.95530128479004</t>
   </si>
   <si>
     <t xml:space="preserve">6.97355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80317211151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10742950439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08308744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88227939605713</t>
+    <t xml:space="preserve">6.80317306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1074275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08308839797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88227891921997</t>
   </si>
   <si>
     <t xml:space="preserve">6.8092565536499</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">6.67538452148438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84576797485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01006746292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0587477684021</t>
+    <t xml:space="preserve">6.84576845169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01006555557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05874872207642</t>
   </si>
   <si>
     <t xml:space="preserve">7.003981590271</t>
@@ -512,157 +512,157 @@
     <t xml:space="preserve">6.94921493530273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04657649993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22304582595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32649183273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76666164398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69364023208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79100275039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86402320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81534242630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65712928771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62670373916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63887310028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6693000793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60844755172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57802248001099</t>
+    <t xml:space="preserve">7.04657697677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22304630279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32649326324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76666116714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69364070892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79100179672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86402273178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81534337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65712833404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62670469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63887405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66929960250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60844850540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57802295684814</t>
   </si>
   <si>
     <t xml:space="preserve">6.55976724624634</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8335976600647</t>
+    <t xml:space="preserve">6.83359718322754</t>
   </si>
   <si>
     <t xml:space="preserve">6.92487573623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91878986358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25347232818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23521757125854</t>
+    <t xml:space="preserve">6.91879034042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2534704208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23521661758423</t>
   </si>
   <si>
     <t xml:space="preserve">7.26564121246338</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35691928863525</t>
+    <t xml:space="preserve">7.35692024230957</t>
   </si>
   <si>
     <t xml:space="preserve">7.33866357803345</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39951372146606</t>
+    <t xml:space="preserve">7.39951467514038</t>
   </si>
   <si>
     <t xml:space="preserve">7.38126039505005</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21087694168091</t>
+    <t xml:space="preserve">7.21087598800659</t>
   </si>
   <si>
     <t xml:space="preserve">7.16219568252563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05266284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73623657226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90053415298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15610980987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14393901824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94313049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08917284011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8883638381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50904560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42385530471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80721855163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37922096252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76258277893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53134918212891</t>
+    <t xml:space="preserve">7.05266189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73623514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90053462982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15611028671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14393997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9431300163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08917236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88836240768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5090479850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42385625839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80721807479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3792200088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76258373260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53134822845459</t>
   </si>
   <si>
     <t xml:space="preserve">8.55568885803223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49483776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40964603424072</t>
+    <t xml:space="preserve">8.49483871459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40964508056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.62262439727783</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64088153839111</t>
+    <t xml:space="preserve">8.6408805847168</t>
   </si>
   <si>
     <t xml:space="preserve">8.71998691558838</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66522216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67739009857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74432754516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75041484832764</t>
+    <t xml:space="preserve">8.66522026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67739105224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7443265914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.750412940979</t>
   </si>
   <si>
     <t xml:space="preserve">8.63479518890381</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">8.73215770721436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79300880432129</t>
+    <t xml:space="preserve">8.79300975799561</t>
   </si>
   <si>
     <t xml:space="preserve">8.83560562133789</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">8.78083896636963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79909324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60436916351318</t>
+    <t xml:space="preserve">8.79909229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6043701171875</t>
   </si>
   <si>
     <t xml:space="preserve">8.5678596496582</t>
@@ -698,46 +698,46 @@
     <t xml:space="preserve">8.46441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3366231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31228446960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24534797668457</t>
+    <t xml:space="preserve">8.33662414550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31228351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24534702301025</t>
   </si>
   <si>
     <t xml:space="preserve">8.34879398345947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34270858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67130565643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38326644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47454357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51105403900146</t>
+    <t xml:space="preserve">8.34271049499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67130661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38326740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47454261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51105499267578</t>
   </si>
   <si>
     <t xml:space="preserve">9.37109565734863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07292556762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96947860717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93296718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09117984771729</t>
+    <t xml:space="preserve">9.07292366027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96947765350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9329662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0911808013916</t>
   </si>
   <si>
     <t xml:space="preserve">9.11552047729492</t>
@@ -746,34 +746,34 @@
     <t xml:space="preserve">8.9025411605835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85385894775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75649833679199</t>
+    <t xml:space="preserve">8.85385990142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75649738311768</t>
   </si>
   <si>
     <t xml:space="preserve">8.8234338760376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98773288726807</t>
+    <t xml:space="preserve">8.98773193359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.13377571105957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96339225769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99381732940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0424976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91471099853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89645671844482</t>
+    <t xml:space="preserve">8.96339321136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99381828308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04249858856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91471195220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89645767211914</t>
   </si>
   <si>
     <t xml:space="preserve">8.82951927185059</t>
@@ -785,49 +785,49 @@
     <t xml:space="preserve">8.58002948760986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22709178924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35487937927246</t>
+    <t xml:space="preserve">8.22709274291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35487842559814</t>
   </si>
   <si>
     <t xml:space="preserve">8.62871074676514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54351902008057</t>
+    <t xml:space="preserve">8.54351806640625</t>
   </si>
   <si>
     <t xml:space="preserve">8.64696598052979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87211513519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88428783416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87820148468018</t>
+    <t xml:space="preserve">8.8721170425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88428592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87820053100586</t>
   </si>
   <si>
     <t xml:space="preserve">8.86602973937988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95122337341309</t>
+    <t xml:space="preserve">8.95122146606445</t>
   </si>
   <si>
     <t xml:space="preserve">9.06683921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89037227630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71390151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68956184387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54960346221924</t>
+    <t xml:space="preserve">8.8903694152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71390247344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68956089019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54960536956787</t>
   </si>
   <si>
     <t xml:space="preserve">8.44007110595703</t>
@@ -836,25 +836,25 @@
     <t xml:space="preserve">9.01815795898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84169101715088</t>
+    <t xml:space="preserve">8.84168910980225</t>
   </si>
   <si>
     <t xml:space="preserve">8.95730781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1276912689209</t>
+    <t xml:space="preserve">9.12769031524658</t>
   </si>
   <si>
     <t xml:space="preserve">9.27981948852539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29807567596436</t>
+    <t xml:space="preserve">9.29807472229004</t>
   </si>
   <si>
     <t xml:space="preserve">9.32849979400635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30416107177734</t>
+    <t xml:space="preserve">9.30416011810303</t>
   </si>
   <si>
     <t xml:space="preserve">9.03032779693604</t>
@@ -863,90 +863,90 @@
     <t xml:space="preserve">8.97556304931641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12160682678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15811729431152</t>
+    <t xml:space="preserve">9.12160587310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15811634063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20679664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3931188583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42524242401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27104663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24534606933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21964740753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03332614898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91767978668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02690410614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89840602874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84058284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8213062286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97550296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03975200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13612365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31602001190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32244396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25819683074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37384414672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38669109344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27747058868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43809223175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34171962738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30959510803223</t>
   </si>
   <si>
     <t xml:space="preserve">9.20679759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39311790466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42524337768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27104568481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24534702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21964740753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03332710266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91768074035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02690124511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1232738494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89840507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8405818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82130718231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97550487518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03975105285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13612461090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31601905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3224458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25819492340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37384414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38669300079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27747058868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4380931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34171962738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30959510803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2067985534668</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.33529472351074</t>
   </si>
   <si>
@@ -962,22 +962,22 @@
     <t xml:space="preserve">9.6693868637085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63726329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63083839416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74005794525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88783168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9520788192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8107328414917</t>
+    <t xml:space="preserve">9.63726139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63083744049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7400598526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88782978057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95207786560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81073379516602</t>
   </si>
   <si>
     <t xml:space="preserve">9.77860832214355</t>
@@ -986,40 +986,40 @@
     <t xml:space="preserve">9.65653705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61798858642578</t>
+    <t xml:space="preserve">9.61798763275146</t>
   </si>
   <si>
     <t xml:space="preserve">9.84928226470947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86855697631836</t>
+    <t xml:space="preserve">9.86855602264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.89425563812256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.170524597168</t>
+    <t xml:space="preserve">10.1705236434937</t>
   </si>
   <si>
     <t xml:space="preserve">10.1833734512329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2347717285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3311452865601</t>
+    <t xml:space="preserve">10.2347726821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3311443328857</t>
   </si>
   <si>
     <t xml:space="preserve">10.2925958633423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1576747894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0998506546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91995525360107</t>
+    <t xml:space="preserve">10.1576738357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0998516082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91995429992676</t>
   </si>
   <si>
     <t xml:space="preserve">9.95850372314453</t>
@@ -1031,28 +1031,28 @@
     <t xml:space="preserve">9.91353034973145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96492767333984</t>
+    <t xml:space="preserve">9.96492958068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.87498092651367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80430793762207</t>
+    <t xml:space="preserve">9.80430698394775</t>
   </si>
   <si>
     <t xml:space="preserve">9.7914571762085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77218532562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78503322601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75290870666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62441158294678</t>
+    <t xml:space="preserve">9.77218341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7850341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75290966033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62441253662109</t>
   </si>
   <si>
     <t xml:space="preserve">9.61156368255615</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">9.66296100616455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70793533325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7657585144043</t>
+    <t xml:space="preserve">9.70793437957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76575756072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.72078418731689</t>
@@ -1079,25 +1079,25 @@
     <t xml:space="preserve">10.042028427124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84285831451416</t>
+    <t xml:space="preserve">9.84285736083984</t>
   </si>
   <si>
     <t xml:space="preserve">9.99062824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0099039077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97135353088379</t>
+    <t xml:space="preserve">10.0099020004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97135448455811</t>
   </si>
   <si>
     <t xml:space="preserve">10.1255512237549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1640996932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2283477783203</t>
+    <t xml:space="preserve">10.164098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2283487319946</t>
   </si>
   <si>
     <t xml:space="preserve">10.0291767120361</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">10.0934257507324</t>
   </si>
   <si>
-    <t xml:space="preserve">10.054877281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1127014160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0484523773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2219219207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1191253662109</t>
+    <t xml:space="preserve">10.0548763275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1127004623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.048451423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2219228744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1191244125366</t>
   </si>
   <si>
     <t xml:space="preserve">10.0356025695801</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">9.97777843475342</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1319751739502</t>
+    <t xml:space="preserve">10.1319742202759</t>
   </si>
   <si>
     <t xml:space="preserve">9.88140678405762</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">9.72721004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67581176757812</t>
+    <t xml:space="preserve">9.67581081390381</t>
   </si>
   <si>
     <t xml:space="preserve">9.70151042938232</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">9.75933361053467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8364315032959</t>
+    <t xml:space="preserve">9.83643341064453</t>
   </si>
   <si>
     <t xml:space="preserve">9.82358264923096</t>
@@ -1166,46 +1166,46 @@
     <t xml:space="preserve">9.90068054199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8300085067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79788208007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65011215209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56658840179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0677270889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0741510391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1769495010376</t>
+    <t xml:space="preserve">9.83000755310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79788398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65011310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56659030914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0677280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0741500854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1769485473633</t>
   </si>
   <si>
     <t xml:space="preserve">10.1512498855591</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3889694213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.401819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2990207672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4082431793213</t>
+    <t xml:space="preserve">10.3889675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4018182754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2990217208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4082450866699</t>
   </si>
   <si>
     <t xml:space="preserve">10.4210920333862</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2701072692871</t>
+    <t xml:space="preserve">10.2701082229614</t>
   </si>
   <si>
     <t xml:space="preserve">10.2604713439941</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">10.2444095611572</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0869998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86213207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9617166519165</t>
+    <t xml:space="preserve">10.0870008468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86213111877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171569824219</t>
   </si>
   <si>
     <t xml:space="preserve">9.91031837463379</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">9.89746761322021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45736789703369</t>
+    <t xml:space="preserve">9.45736694335938</t>
   </si>
   <si>
     <t xml:space="preserve">9.74327182769775</t>
@@ -1247,19 +1247,19 @@
     <t xml:space="preserve">9.83964443206787</t>
   </si>
   <si>
-    <t xml:space="preserve">10.103063583374</t>
+    <t xml:space="preserve">10.1030626296997</t>
   </si>
   <si>
     <t xml:space="preserve">10.0805759429932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0227537155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0388145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0645151138306</t>
+    <t xml:space="preserve">10.0227527618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0388154983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0645141601562</t>
   </si>
   <si>
     <t xml:space="preserve">10.1448240280151</t>
@@ -1268,61 +1268,61 @@
     <t xml:space="preserve">10.2572593688965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4114551544189</t>
+    <t xml:space="preserve">10.4114561080933</t>
   </si>
   <si>
     <t xml:space="preserve">10.3921804428101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4435796737671</t>
+    <t xml:space="preserve">10.4435787200928</t>
   </si>
   <si>
     <t xml:space="preserve">10.5335283279419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.629900932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7391233444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8676195144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9575662612915</t>
+    <t xml:space="preserve">10.6298999786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7391223907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8676204681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9575672149658</t>
   </si>
   <si>
     <t xml:space="preserve">10.7326974868774</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8194341659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845102310181</t>
+    <t xml:space="preserve">10.8194332122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845111846924</t>
   </si>
   <si>
     <t xml:space="preserve">10.755184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8097972869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065843582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7808847427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.62668800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5399513244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6009893417358</t>
+    <t xml:space="preserve">10.8097953796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8065824508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7808837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6266899108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5399522781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6009883880615</t>
   </si>
   <si>
     <t xml:space="preserve">10.6074132919312</t>
@@ -1340,19 +1340,19 @@
     <t xml:space="preserve">10.3839750289917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3500623703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2279767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1092844009399</t>
+    <t xml:space="preserve">10.350061416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2279787063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1092834472656</t>
   </si>
   <si>
     <t xml:space="preserve">10.0889368057251</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93293952941895</t>
+    <t xml:space="preserve">9.93294048309326</t>
   </si>
   <si>
     <t xml:space="preserve">9.58703422546387</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">9.64468479156494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86850547790527</t>
+    <t xml:space="preserve">9.86850643157959</t>
   </si>
   <si>
     <t xml:space="preserve">9.97702503204346</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">9.96345996856689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74642276763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77016067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61077117919922</t>
+    <t xml:space="preserve">9.74641990661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77015972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61077308654785</t>
   </si>
   <si>
     <t xml:space="preserve">9.89224433898926</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">9.84476757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87528800964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99398231506348</t>
+    <t xml:space="preserve">9.87528896331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99398136138916</t>
   </si>
   <si>
     <t xml:space="preserve">9.89902782440186</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">9.85494136810303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92276668548584</t>
+    <t xml:space="preserve">9.92276573181152</t>
   </si>
   <si>
     <t xml:space="preserve">9.79050731658936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86172389984131</t>
+    <t xml:space="preserve">9.86172294616699</t>
   </si>
   <si>
     <t xml:space="preserve">9.69216251373291</t>
@@ -1415,31 +1415,31 @@
     <t xml:space="preserve">9.61416339874268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60738086700439</t>
+    <t xml:space="preserve">9.60737991333008</t>
   </si>
   <si>
     <t xml:space="preserve">9.70233535766602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68198871612549</t>
+    <t xml:space="preserve">9.68198776245117</t>
   </si>
   <si>
     <t xml:space="preserve">9.90241813659668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86511516571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8210277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74302864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75320339202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79728889465332</t>
+    <t xml:space="preserve">9.86511421203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82102870941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7430305480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75320529937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79728984832764</t>
   </si>
   <si>
     <t xml:space="preserve">9.94311332702637</t>
@@ -1448,16 +1448,16 @@
     <t xml:space="preserve">9.94989585876465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90920162200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84137630462646</t>
+    <t xml:space="preserve">9.90919971466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84137535095215</t>
   </si>
   <si>
     <t xml:space="preserve">9.98380851745605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9973726272583</t>
+    <t xml:space="preserve">9.99737358093262</t>
   </si>
   <si>
     <t xml:space="preserve">10.0177211761475</t>
@@ -1469,19 +1469,19 @@
     <t xml:space="preserve">10.1431970596313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.309365272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.207631111145</t>
+    <t xml:space="preserve">10.3093671798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2076301574707</t>
   </si>
   <si>
     <t xml:space="preserve">10.0482416152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1330213546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957202911377</t>
+    <t xml:space="preserve">10.1330223083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957193374634</t>
   </si>
   <si>
     <t xml:space="preserve">10.1635437011719</t>
@@ -1490,64 +1490,64 @@
     <t xml:space="preserve">10.1872825622559</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1703262329102</t>
+    <t xml:space="preserve">10.1703252792358</t>
   </si>
   <si>
     <t xml:space="preserve">9.96006965637207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80407333374023</t>
+    <t xml:space="preserve">9.80407238006592</t>
   </si>
   <si>
     <t xml:space="preserve">9.82441997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94650363922119</t>
+    <t xml:space="preserve">9.94650459289551</t>
   </si>
   <si>
     <t xml:space="preserve">10.0211114883423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0753707885742</t>
+    <t xml:space="preserve">10.0753717422485</t>
   </si>
   <si>
     <t xml:space="preserve">10.0143299102783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72946453094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85833263397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0312852859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0550231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0380687713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2584991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.197455406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.183892250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2517166137695</t>
+    <t xml:space="preserve">9.72946643829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85833168029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.031286239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0550241470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.038067817688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2584981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1974573135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1838912963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2517156600952</t>
   </si>
   <si>
     <t xml:space="preserve">10.2686729431152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2788457870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3941488265991</t>
+    <t xml:space="preserve">10.2788467407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3941478729248</t>
   </si>
   <si>
     <t xml:space="preserve">10.5128412246704</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">10.0923271179199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98041820526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0618076324463</t>
+    <t xml:space="preserve">9.9804162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.061806678772</t>
   </si>
   <si>
     <t xml:space="preserve">10.0245027542114</t>
@@ -1574,91 +1574,91 @@
     <t xml:space="preserve">9.80068111419678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78372478485107</t>
+    <t xml:space="preserve">9.78372573852539</t>
   </si>
   <si>
     <t xml:space="preserve">9.68537902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59042644500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70572566986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65485858917236</t>
+    <t xml:space="preserve">9.59042453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70572853088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65485668182373</t>
   </si>
   <si>
     <t xml:space="preserve">9.50225257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52938270568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49886035919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37677574157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32590770721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52599048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42086219787598</t>
+    <t xml:space="preserve">9.52938175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49886226654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37677669525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32590675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52599239349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42086315155029</t>
   </si>
   <si>
     <t xml:space="preserve">9.62433624267578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75659465789795</t>
+    <t xml:space="preserve">9.75659561157227</t>
   </si>
   <si>
     <t xml:space="preserve">9.71590042114258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74981307983398</t>
+    <t xml:space="preserve">9.74981212615967</t>
   </si>
   <si>
     <t xml:space="preserve">9.75998592376709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66503143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80746269226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60399055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68877029418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64807605743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66842460632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91259288787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97024250030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.00754737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0991115570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1805000305176</t>
+    <t xml:space="preserve">9.72607326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66503238677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80746459960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60398960113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68877124786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64807415008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66842365264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9125919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97024345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075464248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0991106033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1805009841919</t>
   </si>
   <si>
     <t xml:space="preserve">10.0685892105103</t>
@@ -1667,28 +1667,28 @@
     <t xml:space="preserve">9.66164016723633</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73624801635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77694320678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83798408508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99059104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95328712463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0448503494263</t>
+    <t xml:space="preserve">9.73624706268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77694225311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83798503875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99059009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95328807830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0448513031006</t>
   </si>
   <si>
     <t xml:space="preserve">10.1160669326782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1398048400879</t>
+    <t xml:space="preserve">10.1398038864136</t>
   </si>
   <si>
     <t xml:space="preserve">10.1601524353027</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">10.3297147750854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4246692657471</t>
+    <t xml:space="preserve">10.4246683120728</t>
   </si>
   <si>
     <t xml:space="preserve">10.4416255950928</t>
@@ -1706,67 +1706,67 @@
     <t xml:space="preserve">10.3873653411865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4314527511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4111051559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4823188781738</t>
+    <t xml:space="preserve">10.4314517974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4111061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4823207855225</t>
   </si>
   <si>
     <t xml:space="preserve">10.4755382537842</t>
   </si>
   <si>
-    <t xml:space="preserve">10.37380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2958011627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3432788848877</t>
+    <t xml:space="preserve">10.3738012313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.295802116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.343279838562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3907566070557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.166934967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2245864868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3025856018066</t>
+    <t xml:space="preserve">10.1669359207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2245845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3025846481323</t>
   </si>
   <si>
     <t xml:space="preserve">10.3805837631226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2856302261353</t>
+    <t xml:space="preserve">10.2856283187866</t>
   </si>
   <si>
     <t xml:space="preserve">10.3263235092163</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3229312896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3704099655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.478928565979</t>
+    <t xml:space="preserve">10.3229322433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3704090118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4789295196533</t>
   </si>
   <si>
     <t xml:space="preserve">10.5264072418213</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5331878662109</t>
+    <t xml:space="preserve">10.5331888198853</t>
   </si>
   <si>
     <t xml:space="preserve">10.6450996398926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7095336914062</t>
+    <t xml:space="preserve">10.7095327377319</t>
   </si>
   <si>
     <t xml:space="preserve">10.7739667892456</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">10.7671852111816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8417921066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7129240036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6654481887817</t>
+    <t xml:space="preserve">10.8417901992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7129259109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6654491424561</t>
   </si>
   <si>
     <t xml:space="preserve">10.7163152694702</t>
@@ -1790,28 +1790,28 @@
     <t xml:space="preserve">10.6925773620605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7230987548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8553562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0825700759888</t>
+    <t xml:space="preserve">10.7230978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8553581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0825691223145</t>
   </si>
   <si>
     <t xml:space="preserve">11.1775236129761</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1639575958252</t>
+    <t xml:space="preserve">11.1639595031738</t>
   </si>
   <si>
     <t xml:space="preserve">11.1368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1741342544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0893516540527</t>
+    <t xml:space="preserve">11.1741333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0893526077271</t>
   </si>
   <si>
     <t xml:space="preserve">11.0757875442505</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">11.191089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3097810745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2826528549194</t>
+    <t xml:space="preserve">11.3097820281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2826538085938</t>
   </si>
   <si>
     <t xml:space="preserve">11.3369121551514</t>
@@ -1835,25 +1835,25 @@
     <t xml:space="preserve">11.3301305770874</t>
   </si>
   <si>
-    <t xml:space="preserve">11.279260635376</t>
+    <t xml:space="preserve">11.2792615890503</t>
   </si>
   <si>
     <t xml:space="preserve">11.3233480453491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3063907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3335208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4047384262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4657802581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5302133560181</t>
+    <t xml:space="preserve">11.3063917160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3335199356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4047374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.465781211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5302124023438</t>
   </si>
   <si>
     <t xml:space="preserve">11.6658630371094</t>
@@ -1862,22 +1862,22 @@
     <t xml:space="preserve">11.5607347488403</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5369958877563</t>
+    <t xml:space="preserve">11.5369968414307</t>
   </si>
   <si>
     <t xml:space="preserve">11.5709075927734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6929931640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6624717712402</t>
+    <t xml:space="preserve">11.6929922103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6624708175659</t>
   </si>
   <si>
     <t xml:space="preserve">11.7336864471436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7302961349487</t>
+    <t xml:space="preserve">11.7302951812744</t>
   </si>
   <si>
     <t xml:space="preserve">11.7404708862305</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">11.5776901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4318675994873</t>
+    <t xml:space="preserve">11.431866645813</t>
   </si>
   <si>
     <t xml:space="preserve">11.472562789917</t>
@@ -1910,22 +1910,22 @@
     <t xml:space="preserve">11.6732530593872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6947374343872</t>
+    <t xml:space="preserve">11.6947383880615</t>
   </si>
   <si>
     <t xml:space="preserve">11.6696739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4261827468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6553497314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5228624343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.440505027771</t>
+    <t xml:space="preserve">11.4261808395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.655348777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5228614807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4405040740967</t>
   </si>
   <si>
     <t xml:space="preserve">11.3187589645386</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">11.3832130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2543048858643</t>
+    <t xml:space="preserve">11.2543067932129</t>
   </si>
   <si>
     <t xml:space="preserve">11.2292404174805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3796319961548</t>
+    <t xml:space="preserve">11.3796329498291</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865324020386</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">11.3259201049805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3545665740967</t>
+    <t xml:space="preserve">11.3545656204224</t>
   </si>
   <si>
     <t xml:space="preserve">11.4440860748291</t>
@@ -1958,22 +1958,22 @@
     <t xml:space="preserve">11.5622520446777</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5371856689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5873155593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5550889968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6267051696777</t>
+    <t xml:space="preserve">11.537184715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5873165130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5550880432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6267042160034</t>
   </si>
   <si>
     <t xml:space="preserve">11.8558721542358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9239063262939</t>
+    <t xml:space="preserve">11.9239053726196</t>
   </si>
   <si>
     <t xml:space="preserve">11.9453916549683</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">11.9525527954102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8988418579102</t>
+    <t xml:space="preserve">11.8988409042358</t>
   </si>
   <si>
     <t xml:space="preserve">11.8594522476196</t>
@@ -1991,82 +1991,82 @@
     <t xml:space="preserve">11.8236455917358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9095830917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0062637329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2211074829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2461729049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1852998733521</t>
+    <t xml:space="preserve">11.9095821380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0062627792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2211084365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2461748123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1853017807007</t>
   </si>
   <si>
     <t xml:space="preserve">12.2569160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2927236557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3249492645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3213691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2712392807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2963037490845</t>
+    <t xml:space="preserve">12.292724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3249502182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3213701248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2712411880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2963047027588</t>
   </si>
   <si>
     <t xml:space="preserve">12.2318506240845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1029443740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1387510299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1244287490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1709785461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0886211395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1101045608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668750762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0599756240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0707159042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7735147476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6983194351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6804141998291</t>
+    <t xml:space="preserve">12.1029434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1387519836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1244277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1709804534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0886220932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1101055145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668741226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0599746704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0707168579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7735157012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6983184814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6804151535034</t>
   </si>
   <si>
     <t xml:space="preserve">11.7699337005615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.451247215271</t>
+    <t xml:space="preserve">11.4512462615967</t>
   </si>
   <si>
     <t xml:space="preserve">11.4870557785034</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">11.4011163711548</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5837335586548</t>
+    <t xml:space="preserve">11.5837345123291</t>
   </si>
   <si>
     <t xml:space="preserve">11.6159610748291</t>
@@ -2087,34 +2087,34 @@
     <t xml:space="preserve">11.7269649505615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6875772476196</t>
+    <t xml:space="preserve">11.6875762939453</t>
   </si>
   <si>
     <t xml:space="preserve">11.5765743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5908966064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7663536071777</t>
+    <t xml:space="preserve">11.590895652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7663545608521</t>
   </si>
   <si>
     <t xml:space="preserve">11.6481876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7591915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7949981689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8200645446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8487119674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0563936233521</t>
+    <t xml:space="preserve">11.7591924667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7949991226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8200635910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8487100601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0563945770264</t>
   </si>
   <si>
     <t xml:space="preserve">12.2067852020264</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">12.2497549057007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3177900314331</t>
+    <t xml:space="preserve">12.3177890777588</t>
   </si>
   <si>
     <t xml:space="preserve">12.2998847961426</t>
@@ -2141,25 +2141,25 @@
     <t xml:space="preserve">12.443115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4073085784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8083524703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7797060012817</t>
+    <t xml:space="preserve">12.4073076248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8083515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7797069549561</t>
   </si>
   <si>
     <t xml:space="preserve">12.8262567520142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7940292358398</t>
+    <t xml:space="preserve">12.7940282821655</t>
   </si>
   <si>
     <t xml:space="preserve">12.8620634078979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8190946578979</t>
+    <t xml:space="preserve">12.8190937042236</t>
   </si>
   <si>
     <t xml:space="preserve">12.7904491424561</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">12.7045106887817</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4932451248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5612821578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6400556564331</t>
+    <t xml:space="preserve">12.4932460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5612812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6400566101074</t>
   </si>
   <si>
     <t xml:space="preserve">12.7259950637817</t>
@@ -2189,22 +2189,22 @@
     <t xml:space="preserve">12.7689638137817</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7976112365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9372596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8656435012817</t>
+    <t xml:space="preserve">12.7976093292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9372606277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8656444549561</t>
   </si>
   <si>
     <t xml:space="preserve">12.9659051895142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9694862365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9623250961304</t>
+    <t xml:space="preserve">12.9694871902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.962327003479</t>
   </si>
   <si>
     <t xml:space="preserve">13.0303583145142</t>
@@ -2213,52 +2213,52 @@
     <t xml:space="preserve">13.1592664718628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.144944190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1700077056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1771678924561</t>
+    <t xml:space="preserve">13.1449432373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1700086593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.177170753479</t>
   </si>
   <si>
     <t xml:space="preserve">13.1735897064209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521043777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0590047836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0160369873047</t>
+    <t xml:space="preserve">13.1521034240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0590057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0160360336304</t>
   </si>
   <si>
     <t xml:space="preserve">13.2487859725952</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3132371902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3168172836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7715730667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.735767364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7429275512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9649333953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8467702865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7286071777344</t>
+    <t xml:space="preserve">13.3132381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3168182373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7715749740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7357683181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7429285049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9649353027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8467712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7286062240601</t>
   </si>
   <si>
     <t xml:space="preserve">13.6426677703857</t>
@@ -2267,58 +2267,58 @@
     <t xml:space="preserve">13.3920164108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3490438461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.359787940979</t>
+    <t xml:space="preserve">13.3490447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3597898483276</t>
   </si>
   <si>
     <t xml:space="preserve">13.2774324417114</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3848543167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3884334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2702703475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0983963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0840711593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0625848770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0411014556885</t>
+    <t xml:space="preserve">13.3848533630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3884353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2702693939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0983934402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0840702056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0625839233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0411005020142</t>
   </si>
   <si>
     <t xml:space="preserve">13.0482625961304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0769081115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1485223770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.134202003479</t>
+    <t xml:space="preserve">13.0769090652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1485242843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1342010498047</t>
   </si>
   <si>
     <t xml:space="preserve">13.2380418777466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2559452056885</t>
+    <t xml:space="preserve">13.2559471130371</t>
   </si>
   <si>
     <t xml:space="preserve">13.3024969100952</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2452039718628</t>
+    <t xml:space="preserve">13.2452049255371</t>
   </si>
   <si>
     <t xml:space="preserve">13.5889568328857</t>
@@ -2327,19 +2327,19 @@
     <t xml:space="preserve">13.3776912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3203992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1879138946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0912313461304</t>
+    <t xml:space="preserve">13.3204002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.187912940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0912322998047</t>
   </si>
   <si>
     <t xml:space="preserve">13.2272987365723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1986532211304</t>
+    <t xml:space="preserve">13.198655128479</t>
   </si>
   <si>
     <t xml:space="preserve">13.0339393615723</t>
@@ -2351,13 +2351,13 @@
     <t xml:space="preserve">13.1091356277466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0733289718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9873905181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8441600799561</t>
+    <t xml:space="preserve">13.0733280181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9873895645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8441581726074</t>
   </si>
   <si>
     <t xml:space="preserve">12.9909706115723</t>
@@ -2369,13 +2369,13 @@
     <t xml:space="preserve">13.0661678314209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8119325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6006679534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6651210784912</t>
+    <t xml:space="preserve">12.8119316101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6006669998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6651220321655</t>
   </si>
   <si>
     <t xml:space="preserve">12.8513212203979</t>
@@ -2390,28 +2390,28 @@
     <t xml:space="preserve">13.4063367843628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4457263946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4493093490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.520923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.486083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4144668579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3643388748169</t>
+    <t xml:space="preserve">13.4457273483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4493083953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5209217071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4860849380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4144678115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3643379211426</t>
   </si>
   <si>
     <t xml:space="preserve">11.6446075439453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5085391998291</t>
+    <t xml:space="preserve">11.5085382461548</t>
   </si>
   <si>
     <t xml:space="preserve">11.268627166748</t>
@@ -2420,58 +2420,58 @@
     <t xml:space="preserve">10.9141330718994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8542308807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70383930206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44699573516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64393711090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08892154693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77023363113403</t>
+    <t xml:space="preserve">9.85423183441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7038402557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44699478149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64393615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08892059326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77023315429688</t>
   </si>
   <si>
     <t xml:space="preserve">7.43722343444824</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68787479400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79888010025024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80246019363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66542053222656</t>
+    <t xml:space="preserve">7.68787527084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887866973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80246067047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66542148590088</t>
   </si>
   <si>
     <t xml:space="preserve">8.91607475280762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06646633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8623628616333</t>
+    <t xml:space="preserve">9.06646537780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86236190795898</t>
   </si>
   <si>
     <t xml:space="preserve">8.85520172119141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88742923736572</t>
+    <t xml:space="preserve">8.88742828369141</t>
   </si>
   <si>
     <t xml:space="preserve">8.66184043884277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8301362991333</t>
+    <t xml:space="preserve">8.83013725280762</t>
   </si>
   <si>
     <t xml:space="preserve">8.72629451751709</t>
@@ -2480,31 +2480,31 @@
     <t xml:space="preserve">8.98410797119141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15598487854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21685695648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40663814544678</t>
+    <t xml:space="preserve">9.15598392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21685791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40663719177246</t>
   </si>
   <si>
     <t xml:space="preserve">9.02349758148193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87310695648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97336578369141</t>
+    <t xml:space="preserve">8.8731050491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97336673736572</t>
   </si>
   <si>
     <t xml:space="preserve">8.71197128295898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9268159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85878276824951</t>
+    <t xml:space="preserve">8.92681789398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8587818145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.12733840942383</t>
@@ -2519,25 +2519,25 @@
     <t xml:space="preserve">9.32069969177246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09511184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26340770721436</t>
+    <t xml:space="preserve">9.09511089324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26340675354004</t>
   </si>
   <si>
     <t xml:space="preserve">9.12017726898193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18104934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29205322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20969581604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17030906677246</t>
+    <t xml:space="preserve">9.18104839324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29205417633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20969390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17030715942383</t>
   </si>
   <si>
     <t xml:space="preserve">8.99485111236572</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">9.25962352752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09553909301758</t>
+    <t xml:space="preserve">9.09554004669189</t>
   </si>
   <si>
     <t xml:space="preserve">9.14401912689209</t>
@@ -2558,25 +2558,25 @@
     <t xml:space="preserve">8.87178707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08062171936035</t>
+    <t xml:space="preserve">9.08062267303467</t>
   </si>
   <si>
     <t xml:space="preserve">9.04706001281738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29691696166992</t>
+    <t xml:space="preserve">9.29691791534424</t>
   </si>
   <si>
     <t xml:space="preserve">9.4871072769165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52812767028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31183433532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61389923095703</t>
+    <t xml:space="preserve">9.52812671661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31183338165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61390018463135</t>
   </si>
   <si>
     <t xml:space="preserve">9.90477752685547</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">10.4007625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4455127716064</t>
+    <t xml:space="preserve">10.4455118179321</t>
   </si>
   <si>
     <t xml:space="preserve">10.7289333343506</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">10.7550373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6394329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4194087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0166549682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0129241943359</t>
+    <t xml:space="preserve">10.6394319534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4194078445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0166540145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0129251480103</t>
   </si>
   <si>
     <t xml:space="preserve">9.99800777435303</t>
@@ -2612,40 +2612,40 @@
     <t xml:space="preserve">10.2217607498169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1471767425537</t>
+    <t xml:space="preserve">10.1471757888794</t>
   </si>
   <si>
     <t xml:space="preserve">10.0203828811646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.154634475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658229827881</t>
+    <t xml:space="preserve">10.1546325683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658220291138</t>
   </si>
   <si>
     <t xml:space="preserve">9.89358997344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91969394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0091962814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0464878082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0427570343018</t>
+    <t xml:space="preserve">9.9196949005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0091972351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0464868545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0427579879761</t>
   </si>
   <si>
     <t xml:space="preserve">10.3187198638916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.251594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3560123443604</t>
+    <t xml:space="preserve">10.2515935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.356011390686</t>
   </si>
   <si>
     <t xml:space="preserve">10.2590522766113</t>
@@ -2657,22 +2657,22 @@
     <t xml:space="preserve">10.0651330947876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1732797622681</t>
+    <t xml:space="preserve">10.1732816696167</t>
   </si>
   <si>
     <t xml:space="preserve">10.2254886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3038024902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3075313568115</t>
+    <t xml:space="preserve">10.3038034439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3075323104858</t>
   </si>
   <si>
     <t xml:space="preserve">10.2105722427368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2776975631714</t>
+    <t xml:space="preserve">10.2776985168457</t>
   </si>
   <si>
     <t xml:space="preserve">10.4268665313721</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">10.1359882354736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800504684448</t>
+    <t xml:space="preserve">10.0800514221191</t>
   </si>
   <si>
     <t xml:space="preserve">10.0688629150391</t>
@@ -2699,16 +2699,16 @@
     <t xml:space="preserve">9.49829387664795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64746284484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72204685211182</t>
+    <t xml:space="preserve">9.64746189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7220458984375</t>
   </si>
   <si>
     <t xml:space="preserve">9.47591876983643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87867164611816</t>
+    <t xml:space="preserve">9.8786735534668</t>
   </si>
   <si>
     <t xml:space="preserve">9.82273483276367</t>
@@ -2720,37 +2720,37 @@
     <t xml:space="preserve">9.62881565093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80036067962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71831703186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65119171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85629940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9122371673584</t>
+    <t xml:space="preserve">9.80036163330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71831798553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65119075775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85629749298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91223621368408</t>
   </si>
   <si>
     <t xml:space="preserve">9.87494468688965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69967079162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71458625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71086025238037</t>
+    <t xml:space="preserve">9.69967174530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7145881652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71085929870605</t>
   </si>
   <si>
     <t xml:space="preserve">9.66610813140869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56169033050537</t>
+    <t xml:space="preserve">9.56168937683105</t>
   </si>
   <si>
     <t xml:space="preserve">9.46100234985352</t>
@@ -2759,25 +2759,25 @@
     <t xml:space="preserve">9.65864944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5766077041626</t>
+    <t xml:space="preserve">9.57660675048828</t>
   </si>
   <si>
     <t xml:space="preserve">9.56542015075684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55050182342529</t>
+    <t xml:space="preserve">9.55050277709961</t>
   </si>
   <si>
     <t xml:space="preserve">9.4535436630249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19249820709229</t>
+    <t xml:space="preserve">9.1924991607666</t>
   </si>
   <si>
     <t xml:space="preserve">8.83449554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78601360321045</t>
+    <t xml:space="preserve">8.78601455688477</t>
   </si>
   <si>
     <t xml:space="preserve">8.74872303009033</t>
@@ -2789,10 +2789,10 @@
     <t xml:space="preserve">8.61447143554688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95382881164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90162086486816</t>
+    <t xml:space="preserve">8.95382976531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90161991119385</t>
   </si>
   <si>
     <t xml:space="preserve">8.96874523162842</t>
@@ -2801,16 +2801,16 @@
     <t xml:space="preserve">8.84941101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00230979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22979068756104</t>
+    <t xml:space="preserve">9.00230884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22978973388672</t>
   </si>
   <si>
     <t xml:space="preserve">9.1999568939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38641738891602</t>
+    <t xml:space="preserve">9.38641929626465</t>
   </si>
   <si>
     <t xml:space="preserve">9.33047962188721</t>
@@ -2825,10 +2825,10 @@
     <t xml:space="preserve">9.20741558074951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88670253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.054518699646</t>
+    <t xml:space="preserve">8.88670349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05451965332031</t>
   </si>
   <si>
     <t xml:space="preserve">9.10299777984619</t>
@@ -2840,19 +2840,19 @@
     <t xml:space="preserve">8.8978910446167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90907859802246</t>
+    <t xml:space="preserve">8.90907764434814</t>
   </si>
   <si>
     <t xml:space="preserve">8.8568696975708</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47276210784912</t>
+    <t xml:space="preserve">8.4727611541748</t>
   </si>
   <si>
     <t xml:space="preserve">8.49886608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58463764190674</t>
+    <t xml:space="preserve">8.58463859558105</t>
   </si>
   <si>
     <t xml:space="preserve">8.80466079711914</t>
@@ -2864,46 +2864,46 @@
     <t xml:space="preserve">9.09926795959473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23352146148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81527709960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0539455413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0390300750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1695518493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4156799316406</t>
+    <t xml:space="preserve">9.2335205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81527805328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0539445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0390291213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1695508956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4156789779663</t>
   </si>
   <si>
     <t xml:space="preserve">10.538743019104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6133251190186</t>
+    <t xml:space="preserve">10.6133260726929</t>
   </si>
   <si>
     <t xml:space="preserve">10.493992805481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5946807861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6058683395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7252035140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8109760284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7923288345337</t>
+    <t xml:space="preserve">10.5946817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6058692932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7252044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8109750747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.792329788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.6804523468018</t>
@@ -2912,31 +2912,31 @@
     <t xml:space="preserve">10.7587661743164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8669147491455</t>
+    <t xml:space="preserve">10.8669137954712</t>
   </si>
   <si>
     <t xml:space="preserve">10.8147048950195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7102870941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6841812133789</t>
+    <t xml:space="preserve">10.7102861404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6841821670532</t>
   </si>
   <si>
     <t xml:space="preserve">10.7065572738647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5051794052124</t>
+    <t xml:space="preserve">10.5051803588867</t>
   </si>
   <si>
     <t xml:space="preserve">10.635703086853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6506195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.661808013916</t>
+    <t xml:space="preserve">10.6506185531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6618070602417</t>
   </si>
   <si>
     <t xml:space="preserve">10.3597412109375</t>
@@ -2948,25 +2948,25 @@
     <t xml:space="preserve">10.7140159606934</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6767234802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3783855438232</t>
+    <t xml:space="preserve">10.6767225265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3783874511719</t>
   </si>
   <si>
     <t xml:space="preserve">10.7997875213623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8482656478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.740119934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7848720550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8184337615967</t>
+    <t xml:space="preserve">10.8482666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7401208877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7848711013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8184328079224</t>
   </si>
   <si>
     <t xml:space="preserve">11.045916557312</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">10.9303092956543</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8221626281738</t>
+    <t xml:space="preserve">10.8221645355225</t>
   </si>
   <si>
     <t xml:space="preserve">10.7438497543335</t>
@@ -2987,19 +2987,19 @@
     <t xml:space="preserve">10.6319742202759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7960586547852</t>
+    <t xml:space="preserve">10.7960596084595</t>
   </si>
   <si>
     <t xml:space="preserve">11.150333404541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5008792877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5866508483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7246322631836</t>
+    <t xml:space="preserve">11.5008783340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5866498947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7246313095093</t>
   </si>
   <si>
     <t xml:space="preserve">11.7992153167725</t>
@@ -3008,13 +3008,13 @@
     <t xml:space="preserve">11.7544651031494</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7097148895264</t>
+    <t xml:space="preserve">11.7097139358521</t>
   </si>
   <si>
     <t xml:space="preserve">11.6836099624634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8029451370239</t>
+    <t xml:space="preserve">11.8029441833496</t>
   </si>
   <si>
     <t xml:space="preserve">11.7470064163208</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">11.6761512756348</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5083379745483</t>
+    <t xml:space="preserve">11.508337020874</t>
   </si>
   <si>
     <t xml:space="preserve">11.620213508606</t>
@@ -3032,16 +3032,16 @@
     <t xml:space="preserve">11.5903797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5642747879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6090250015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8104038238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5978374481201</t>
+    <t xml:space="preserve">11.5642757415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6090259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8104028701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5978393554688</t>
   </si>
   <si>
     <t xml:space="preserve">11.8066740036011</t>
@@ -3050,85 +3050,85 @@
     <t xml:space="preserve">11.8402366638184</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9558410644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9894065856934</t>
+    <t xml:space="preserve">11.9558439254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.989405632019</t>
   </si>
   <si>
     <t xml:space="preserve">11.9371948242188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3063879013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.328763961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3958892822266</t>
+    <t xml:space="preserve">12.3063869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3287630081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3958883285522</t>
   </si>
   <si>
     <t xml:space="preserve">12.5040349960327</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6084547042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5562429428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5972652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4928483963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5748910903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.477931022644</t>
+    <t xml:space="preserve">12.608452796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5562448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5972661972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.492847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5748920440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4779300689697</t>
   </si>
   <si>
     <t xml:space="preserve">12.5338697433472</t>
   </si>
   <si>
-    <t xml:space="preserve">12.53014087677</t>
+    <t xml:space="preserve">12.5301389694214</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487871170044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6233711242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7240581512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7837247848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7016849517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7799968719482</t>
+    <t xml:space="preserve">12.6233701705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7240591049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7837266921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7016839981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7799987792969</t>
   </si>
   <si>
     <t xml:space="preserve">12.8061017990112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.757622718811</t>
+    <t xml:space="preserve">12.7576217651367</t>
   </si>
   <si>
     <t xml:space="preserve">12.6532049179077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.731517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7427043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6979541778564</t>
+    <t xml:space="preserve">12.7315168380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7427034378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6979551315308</t>
   </si>
   <si>
     <t xml:space="preserve">12.7688102722168</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">12.563702583313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5860786437988</t>
+    <t xml:space="preserve">12.5860805511475</t>
   </si>
   <si>
     <t xml:space="preserve">12.5152244567871</t>
@@ -3149,13 +3149,13 @@
     <t xml:space="preserve">12.4443683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793098449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5599746704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7166004180908</t>
+    <t xml:space="preserve">12.6793088912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5599737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7165994644165</t>
   </si>
   <si>
     <t xml:space="preserve">12.8433933258057</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">12.9552698135376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0969791412354</t>
+    <t xml:space="preserve">13.0969800949097</t>
   </si>
   <si>
     <t xml:space="preserve">12.9851036071777</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">13.0820646286011</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1566476821899</t>
+    <t xml:space="preserve">13.1566457748413</t>
   </si>
   <si>
     <t xml:space="preserve">13.1603765487671</t>
@@ -3185,16 +3185,16 @@
     <t xml:space="preserve">13.1864805221558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0037498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0112075805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1715641021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3693351745605</t>
+    <t xml:space="preserve">13.0037508010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0112085342407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1715650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3693342208862</t>
   </si>
   <si>
     <t xml:space="preserve">13.2427616119385</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">13.1003656387329</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2150745391846</t>
+    <t xml:space="preserve">13.2150726318359</t>
   </si>
   <si>
     <t xml:space="preserve">13.3258247375488</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">13.3930673599243</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4088897705078</t>
+    <t xml:space="preserve">13.4088907241821</t>
   </si>
   <si>
     <t xml:space="preserve">13.5156850814819</t>
@@ -3224,25 +3224,25 @@
     <t xml:space="preserve">13.6462144851685</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6264390945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5908374786377</t>
+    <t xml:space="preserve">13.6264381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5908393859863</t>
   </si>
   <si>
     <t xml:space="preserve">13.5473289489746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.559193611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5671062469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5789737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6383047103882</t>
+    <t xml:space="preserve">13.5591955184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5671052932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5789728164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6383028030396</t>
   </si>
   <si>
     <t xml:space="preserve">13.3614234924316</t>
@@ -3251,34 +3251,34 @@
     <t xml:space="preserve">13.3970222473145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3574695587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.175518989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4603090286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2506723403931</t>
+    <t xml:space="preserve">13.3574686050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1755199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4603099822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2506713867188</t>
   </si>
   <si>
     <t xml:space="preserve">13.2981367111206</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3732919692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4998636245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4484443664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5631523132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.321870803833</t>
+    <t xml:space="preserve">13.3732900619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4998645782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4484434127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5631504058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3218698501587</t>
   </si>
   <si>
     <t xml:space="preserve">13.1082773208618</t>
@@ -3287,40 +3287,40 @@
     <t xml:space="preserve">13.4523983001709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4563550949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3891124725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2902269363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2388067245483</t>
+    <t xml:space="preserve">13.4563541412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3891115188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.290225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2388076782227</t>
   </si>
   <si>
     <t xml:space="preserve">12.835352897644</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9658823013306</t>
+    <t xml:space="preserve">12.9658813476562</t>
   </si>
   <si>
     <t xml:space="preserve">13.2467184066772</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2823171615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2546262741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297815322876</t>
+    <t xml:space="preserve">13.2823162078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2546272277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297805786133</t>
   </si>
   <si>
     <t xml:space="preserve">13.1913404464722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1122331619263</t>
+    <t xml:space="preserve">13.112232208252</t>
   </si>
   <si>
     <t xml:space="preserve">13.1517868041992</t>
@@ -3332,43 +3332,43 @@
     <t xml:space="preserve">13.4207563400269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4721775054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6027059555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6976366043091</t>
+    <t xml:space="preserve">13.4721765518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6027050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6976356506348</t>
   </si>
   <si>
     <t xml:space="preserve">13.7451000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6659908294678</t>
+    <t xml:space="preserve">13.6659917831421</t>
   </si>
   <si>
     <t xml:space="preserve">13.6699485778809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5038194656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.571063041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5512838363647</t>
+    <t xml:space="preserve">13.5038185119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5710620880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5512847900391</t>
   </si>
   <si>
     <t xml:space="preserve">13.5117301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5394191741943</t>
+    <t xml:space="preserve">13.53941822052</t>
   </si>
   <si>
     <t xml:space="preserve">13.662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7253246307373</t>
+    <t xml:space="preserve">13.725323677063</t>
   </si>
   <si>
     <t xml:space="preserve">13.7411451339722</t>
@@ -3377,13 +3377,13 @@
     <t xml:space="preserve">13.7015914916992</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9705591201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0378046035767</t>
+    <t xml:space="preserve">13.8716726303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9705600738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0378036499023</t>
   </si>
   <si>
     <t xml:space="preserve">13.7886114120483</t>
@@ -3398,55 +3398,55 @@
     <t xml:space="preserve">14.0140695571899</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1366901397705</t>
+    <t xml:space="preserve">14.1366872787476</t>
   </si>
   <si>
     <t xml:space="preserve">13.9903364181519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8044319152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2237071990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3384132385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5005855560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7339572906494</t>
+    <t xml:space="preserve">13.8044328689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2237062454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3384122848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5005865097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7339582443237</t>
   </si>
   <si>
     <t xml:space="preserve">14.4373006820679</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5717849731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5480508804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5638732910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.536187171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8288860321045</t>
+    <t xml:space="preserve">14.5717840194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5480518341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5638723373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5361862182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8288869857788</t>
   </si>
   <si>
     <t xml:space="preserve">14.7023134231567</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8407516479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8684415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9475498199463</t>
+    <t xml:space="preserve">14.8407535552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8684406280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.947548866272</t>
   </si>
   <si>
     <t xml:space="preserve">15.0227022171021</t>
@@ -3458,25 +3458,25 @@
     <t xml:space="preserve">14.8130655288696</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8644847869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9253063201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1158752441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0631656646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0956029891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1564254760742</t>
+    <t xml:space="preserve">14.8644866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9253072738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1158761978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0631675720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0956039428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1564245223999</t>
   </si>
   <si>
     <t xml:space="preserve">15.2618446350098</t>
@@ -3485,22 +3485,22 @@
     <t xml:space="preserve">15.2091331481934</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2780628204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2861738204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.375376701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3915948867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4686336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037580490112</t>
+    <t xml:space="preserve">15.2780647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2861728668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3753757476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3915939331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.468635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037609100342</t>
   </si>
   <si>
     <t xml:space="preserve">15.4929618835449</t>
@@ -3509,10 +3509,10 @@
     <t xml:space="preserve">15.3875408172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3956508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4240322113037</t>
+    <t xml:space="preserve">15.3956499099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4240341186523</t>
   </si>
   <si>
     <t xml:space="preserve">15.5294542312622</t>
@@ -3521,34 +3521,34 @@
     <t xml:space="preserve">15.5172901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6024398803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2172441482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0834379196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.82799243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9212503433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8969240188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8563756942749</t>
+    <t xml:space="preserve">15.6024379730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2172422409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.083438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8279943466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9212512969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8969230651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8563766479492</t>
   </si>
   <si>
     <t xml:space="preserve">14.3211574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4346876144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3779220581055</t>
+    <t xml:space="preserve">14.4346885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3779239654541</t>
   </si>
   <si>
     <t xml:space="preserve">14.702299118042</t>
@@ -3560,88 +3560,88 @@
     <t xml:space="preserve">14.7509546279907</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0915498733521</t>
+    <t xml:space="preserve">15.0915479660034</t>
   </si>
   <si>
     <t xml:space="preserve">15.164532661438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.998291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0712747573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023460388184</t>
+    <t xml:space="preserve">14.9982900619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0712738037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.002345085144</t>
   </si>
   <si>
     <t xml:space="preserve">14.9617986679077</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8158302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9131412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1118211746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0428905487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2050800323486</t>
+    <t xml:space="preserve">14.8158292770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9131422042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1118221282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0428924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2050790786743</t>
   </si>
   <si>
     <t xml:space="preserve">15.1483135223389</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1077661514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4118690490723</t>
+    <t xml:space="preserve">15.1077651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4118671417236</t>
   </si>
   <si>
     <t xml:space="preserve">15.3226652145386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9739627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0591115951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9699077606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0753297805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.201024055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1848058700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9536895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0672197341919</t>
+    <t xml:space="preserve">14.9739637374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0591106414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9699068069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0753307342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2010259628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1848077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9536905288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0672206878662</t>
   </si>
   <si>
     <t xml:space="preserve">15.2902278900146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1807498931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3064479827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5117301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6374216079712</t>
+    <t xml:space="preserve">15.1807489395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3064470291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5117282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6374225616455</t>
   </si>
   <si>
     <t xml:space="preserve">14.8239393234253</t>
@@ -3653,19 +3653,19 @@
     <t xml:space="preserve">15.1361503601074</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8766489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1239862442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0996580123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8847589492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3713207244873</t>
+    <t xml:space="preserve">14.8766479492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1239852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0996589660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8847599029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3713216781616</t>
   </si>
   <si>
     <t xml:space="preserve">15.0347843170166</t>
@@ -3674,19 +3674,19 @@
     <t xml:space="preserve">14.6941890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7347354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1630249023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5076723098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0576019287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9684009552002</t>
+    <t xml:space="preserve">14.7347364425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1630258560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5076732635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0576028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9684000015259</t>
   </si>
   <si>
     <t xml:space="preserve">13.9075794219971</t>
@@ -3701,40 +3701,40 @@
     <t xml:space="preserve">13.1169147491455</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7535009384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6237516403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9237976074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3089942932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5238914489746</t>
+    <t xml:space="preserve">13.7534999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6237506866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9237985610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3089933395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5238924026489</t>
   </si>
   <si>
     <t xml:space="preserve">15.2253532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1929168701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3105020523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4605264663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7484073638916</t>
+    <t xml:space="preserve">15.1929159164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3105010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4605255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7484064102173</t>
   </si>
   <si>
     <t xml:space="preserve">16.3322811126709</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9997968673706</t>
+    <t xml:space="preserve">15.9997987747192</t>
   </si>
   <si>
     <t xml:space="preserve">16.3160648345947</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">17.1188926696777</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4620342254639</t>
+    <t xml:space="preserve">16.4620323181152</t>
   </si>
   <si>
     <t xml:space="preserve">16.3890476226807</t>
@@ -3755,19 +3755,19 @@
     <t xml:space="preserve">16.2025318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6997528076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8822107315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7646293640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.630823135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5578355789185</t>
+    <t xml:space="preserve">15.6997537612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.882212638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.764627456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6308212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5578374862671</t>
   </si>
   <si>
     <t xml:space="preserve">15.6227121353149</t>
@@ -3776,43 +3776,43 @@
     <t xml:space="preserve">15.1402044296265</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9334173202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6455335617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6820259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5968761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6779718399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5563297271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8442125320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7590637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5887660980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3819780349731</t>
+    <t xml:space="preserve">14.9334163665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6455316543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6820240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5968770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6779708862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5563316345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8442134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7590646743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5887670516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3819789886475</t>
   </si>
   <si>
     <t xml:space="preserve">14.1427516937256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3617038726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4022512435913</t>
+    <t xml:space="preserve">14.3617029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4022521972656</t>
   </si>
   <si>
     <t xml:space="preserve">14.3292675018311</t>
@@ -3827,40 +3827,40 @@
     <t xml:space="preserve">15.0282354354858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8945932388306</t>
+    <t xml:space="preserve">14.8945922851562</t>
   </si>
   <si>
     <t xml:space="preserve">14.9635696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0239219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7264633178711</t>
+    <t xml:space="preserve">15.0239229202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7264623641968</t>
   </si>
   <si>
     <t xml:space="preserve">14.6919755935669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6143779754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.579888343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152225494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4117593765259</t>
+    <t xml:space="preserve">14.6143770217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798892974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152215957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4117584228516</t>
   </si>
   <si>
     <t xml:space="preserve">14.6014423370361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5066003799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3427810668945</t>
+    <t xml:space="preserve">14.5066022872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3427820205688</t>
   </si>
   <si>
     <t xml:space="preserve">14.213451385498</t>
@@ -3872,13 +3872,13 @@
     <t xml:space="preserve">13.3598680496216</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3771123886108</t>
+    <t xml:space="preserve">13.3771133422852</t>
   </si>
   <si>
     <t xml:space="preserve">13.9203014373779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5150651931763</t>
+    <t xml:space="preserve">13.515064239502</t>
   </si>
   <si>
     <t xml:space="preserve">13.4633321762085</t>
@@ -3887,7 +3887,7 @@
     <t xml:space="preserve">13.7090616226196</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5236864089966</t>
+    <t xml:space="preserve">13.5236873626709</t>
   </si>
   <si>
     <t xml:space="preserve">13.381422996521</t>
@@ -3899,7 +3899,7 @@
     <t xml:space="preserve">13.8125267028809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3943567276001</t>
+    <t xml:space="preserve">13.3943557739258</t>
   </si>
   <si>
     <t xml:space="preserve">13.5538644790649</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">13.4159116744995</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1270742416382</t>
+    <t xml:space="preserve">13.1270723342896</t>
   </si>
   <si>
     <t xml:space="preserve">13.4202222824097</t>
@@ -3926,10 +3926,10 @@
     <t xml:space="preserve">13.1917381286621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2520933151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0796518325806</t>
+    <t xml:space="preserve">13.2520923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0796508789062</t>
   </si>
   <si>
     <t xml:space="preserve">13.1184511184692</t>
@@ -3941,43 +3941,43 @@
     <t xml:space="preserve">12.4717969894409</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5580167770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5407733917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6614818572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.299355506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2777996063232</t>
+    <t xml:space="preserve">12.5580177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5407724380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6614828109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2993564605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2778005599976</t>
   </si>
   <si>
     <t xml:space="preserve">12.3252220153809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5450839996338</t>
+    <t xml:space="preserve">12.5450849533081</t>
   </si>
   <si>
     <t xml:space="preserve">12.2950448989868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2519340515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4502410888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5752611160278</t>
+    <t xml:space="preserve">12.251935005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4502420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5752620697021</t>
   </si>
   <si>
     <t xml:space="preserve">12.8339233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5881958007812</t>
+    <t xml:space="preserve">12.5881938934326</t>
   </si>
   <si>
     <t xml:space="preserve">12.6528596878052</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">13.24778175354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2865810394287</t>
+    <t xml:space="preserve">13.2865800857544</t>
   </si>
   <si>
     <t xml:space="preserve">13.0192975997925</t>
@@ -4025,22 +4025,22 @@
     <t xml:space="preserve">12.6269941329956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7778797149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6226825714111</t>
+    <t xml:space="preserve">12.7778787612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6226835250854</t>
   </si>
   <si>
     <t xml:space="preserve">12.5105962753296</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9546318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6011266708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5666399002075</t>
+    <t xml:space="preserve">12.9546308517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6011276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5666389465332</t>
   </si>
   <si>
     <t xml:space="preserve">12.6571712493896</t>
@@ -4052,16 +4052,16 @@
     <t xml:space="preserve">13.2952032089233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0925846099854</t>
+    <t xml:space="preserve">13.0925855636597</t>
   </si>
   <si>
     <t xml:space="preserve">13.2132930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1658716201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8253011703491</t>
+    <t xml:space="preserve">13.1658725738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8253002166748</t>
   </si>
   <si>
     <t xml:space="preserve">12.8597888946533</t>
@@ -4070,7 +4070,7 @@
     <t xml:space="preserve">12.4416198730469</t>
   </si>
   <si>
-    <t xml:space="preserve">12.562328338623</t>
+    <t xml:space="preserve">12.5623273849487</t>
   </si>
   <si>
     <t xml:space="preserve">12.2562456130981</t>
@@ -4079,34 +4079,34 @@
     <t xml:space="preserve">12.1312255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9372291564941</t>
+    <t xml:space="preserve">11.9372301101685</t>
   </si>
   <si>
     <t xml:space="preserve">12.0881156921387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5019731521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2476243972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9674072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8510093688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0708713531494</t>
+    <t xml:space="preserve">12.501974105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2476234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9674081802368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8510084152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0708723068237</t>
   </si>
   <si>
     <t xml:space="preserve">12.0579376220703</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9027423858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1182928085327</t>
+    <t xml:space="preserve">11.9027414321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.118293762207</t>
   </si>
   <si>
     <t xml:space="preserve">12.2734899520874</t>
@@ -4115,10 +4115,10 @@
     <t xml:space="preserve">12.415753364563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8922548294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525732040405</t>
+    <t xml:space="preserve">12.8922557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525722503662</t>
   </si>
   <si>
     <t xml:space="preserve">13.0792932510376</t>
@@ -4127,7 +4127,7 @@
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173452377319</t>
+    <t xml:space="preserve">13.2173442840576</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4136,7 +4136,7 @@
     <t xml:space="preserve">13.2529716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266481399536</t>
+    <t xml:space="preserve">13.4266490936279</t>
   </si>
   <si>
     <t xml:space="preserve">13.4221954345703</t>
@@ -4175,13 +4175,13 @@
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346811294556</t>
+    <t xml:space="preserve">15.2346820831299</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367101669312</t>
+    <t xml:space="preserve">15.1367111206055</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4190,10 +4190,10 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1233501434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0610036849976</t>
+    <t xml:space="preserve">15.123348236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
@@ -4205,28 +4205,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524948120117</t>
+    <t xml:space="preserve">15.0877237319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524938583374</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326539993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3281993865967</t>
+    <t xml:space="preserve">15.3326549530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.328200340271</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192949295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217205047607</t>
+    <t xml:space="preserve">15.3192939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217195510864</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4247,7 +4247,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006853103638</t>
+    <t xml:space="preserve">14.9006843566895</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075654983521</t>
+    <t xml:space="preserve">15.0075645446777</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860931396484</t>
+    <t xml:space="preserve">15.3860921859741</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439859390259</t>
@@ -4289,22 +4289,22 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4974250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840660095215</t>
+    <t xml:space="preserve">15.49742603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840650558472</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6087579727173</t>
+    <t xml:space="preserve">15.5196905136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953989028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.608757019043</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4316,10 +4316,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115810394287</t>
+    <t xml:space="preserve">15.9561147689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115800857544</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427547454834</t>
+    <t xml:space="preserve">15.9427528381348</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4343,31 +4343,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297912597656</t>
+    <t xml:space="preserve">16.1297931671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698703765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.22776222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500305175781</t>
+    <t xml:space="preserve">16.1698722839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2277641296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500324249268</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544822692871</t>
+    <t xml:space="preserve">16.2544841766357</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034687042236</t>
+    <t xml:space="preserve">16.3034706115723</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476039886475</t>
+    <t xml:space="preserve">16.1476058959961</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4436,7 +4436,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026746749878</t>
+    <t xml:space="preserve">15.9026737213135</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4451,13 +4451,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2901096343994</t>
+    <t xml:space="preserve">16.290111541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216789245605</t>
+    <t xml:space="preserve">16.5216808319092</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4472,16 +4472,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289585113525</t>
+    <t xml:space="preserve">16.8289566040039</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070877075195</t>
+    <t xml:space="preserve">17.0026340484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070896148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4493,7 +4493,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.926929473877</t>
+    <t xml:space="preserve">16.9269275665283</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4505,22 +4505,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4815998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002113342285</t>
+    <t xml:space="preserve">16.4816017150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002094268799</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022384643555</t>
+    <t xml:space="preserve">16.5706653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022365570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -5250,6 +5250,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.7800006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5</t>
   </si>
 </sst>
 </file>
@@ -61933,7 +61936,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6507986111</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>2087372</v>
@@ -61954,6 +61957,32 @@
         <v>1743</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6504861111</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>4550925</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>23.8500003814697</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>23.3799991607666</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>23.7999992370605</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="1749">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">G.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39883136749268</t>
+    <t xml:space="preserve">9.39882946014404</t>
   </si>
   <si>
     <t xml:space="preserve">9.22084331512451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20361995697021</t>
+    <t xml:space="preserve">9.2036190032959</t>
   </si>
   <si>
     <t xml:space="preserve">9.10601234436035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84764575958252</t>
+    <t xml:space="preserve">8.84764671325684</t>
   </si>
   <si>
     <t xml:space="preserve">8.97395992279053</t>
@@ -65,61 +65,61 @@
     <t xml:space="preserve">9.15194606781006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04285717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84190464019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65243434906006</t>
+    <t xml:space="preserve">9.04285621643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84190559387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65243625640869</t>
   </si>
   <si>
     <t xml:space="preserve">8.71559143066406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37110137939453</t>
+    <t xml:space="preserve">8.37110233306885</t>
   </si>
   <si>
     <t xml:space="preserve">8.526123046875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56631278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12421703338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01512908935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68786525726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77972841262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48691177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30318403244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22280216217041</t>
+    <t xml:space="preserve">8.56631374359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12421798706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01512813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68786382675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9175238609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77972936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48691082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3031849861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22280311584473</t>
   </si>
   <si>
     <t xml:space="preserve">7.02759218215942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53382301330566</t>
+    <t xml:space="preserve">6.80941438674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53382396697998</t>
   </si>
   <si>
     <t xml:space="preserve">6.8783130645752</t>
@@ -128,61 +128,61 @@
     <t xml:space="preserve">6.29268169403076</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40176820755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66013669967651</t>
+    <t xml:space="preserve">6.40176868438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66013622283936</t>
   </si>
   <si>
     <t xml:space="preserve">6.68310213088989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83812189102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79219198226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72329187393188</t>
+    <t xml:space="preserve">6.83812236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79219102859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7232928276062</t>
   </si>
   <si>
     <t xml:space="preserve">6.96443557739258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95869445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02184963226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33189249038696</t>
+    <t xml:space="preserve">6.95869398117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185010910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33189105987549</t>
   </si>
   <si>
     <t xml:space="preserve">7.35485744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41227197647095</t>
+    <t xml:space="preserve">7.41227245330811</t>
   </si>
   <si>
     <t xml:space="preserve">7.52710151672363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52135944366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44672107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31466579437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38930606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45246171951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44098138809204</t>
+    <t xml:space="preserve">7.52136087417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44672203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31466627120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38930702209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4524621963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44098043441772</t>
   </si>
   <si>
     <t xml:space="preserve">7.9806809425354</t>
@@ -191,19 +191,19 @@
     <t xml:space="preserve">7.91178178787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86585187911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95197343826294</t>
+    <t xml:space="preserve">7.86584997177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95197248458862</t>
   </si>
   <si>
     <t xml:space="preserve">7.96919679641724</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8371434211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74528026580811</t>
+    <t xml:space="preserve">7.83714199066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74527883529663</t>
   </si>
   <si>
     <t xml:space="preserve">7.64767408370972</t>
@@ -212,34 +212,34 @@
     <t xml:space="preserve">7.60174179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43523740768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49839544296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55580854415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48117017745972</t>
+    <t xml:space="preserve">7.43523931503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49839353561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55580902099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48117065429688</t>
   </si>
   <si>
     <t xml:space="preserve">7.37208223342896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28595924377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05055665969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07352352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91850280761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11945629119873</t>
+    <t xml:space="preserve">7.28596019744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05055713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0735239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91850423812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11945486068726</t>
   </si>
   <si>
     <t xml:space="preserve">7.20557832717896</t>
@@ -248,37 +248,37 @@
     <t xml:space="preserve">7.22854423522949</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50413513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56729316711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55006742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61896705627441</t>
+    <t xml:space="preserve">7.50413465499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5672926902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55006694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61896562576294</t>
   </si>
   <si>
     <t xml:space="preserve">7.6706395149231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82565927505493</t>
+    <t xml:space="preserve">7.82566022872925</t>
   </si>
   <si>
     <t xml:space="preserve">7.90604019165039</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86010932922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9290075302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87733268737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84862518310547</t>
+    <t xml:space="preserve">7.86010789871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92900705337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87733316421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84862565994263</t>
   </si>
   <si>
     <t xml:space="preserve">7.64193248748779</t>
@@ -287,22 +287,22 @@
     <t xml:space="preserve">7.46394634246826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42375516891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60748243331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14816331863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23428630828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1251974105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18261241912842</t>
+    <t xml:space="preserve">7.42375707626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60748434066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14816284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23428535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12519693374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1826114654541</t>
   </si>
   <si>
     <t xml:space="preserve">7.32040739059448</t>
@@ -320,109 +320,109 @@
     <t xml:space="preserve">7.98368692398071</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02019882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92892122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8863263130188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83764410018921</t>
+    <t xml:space="preserve">8.02019691467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92892026901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88632488250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83764314651489</t>
   </si>
   <si>
     <t xml:space="preserve">7.61857938766479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60641002655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73419666290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88024044036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84372901916504</t>
+    <t xml:space="preserve">7.60640811920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73419523239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88023948669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84372997283936</t>
   </si>
   <si>
     <t xml:space="preserve">7.4907922744751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24738550186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04049253463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06483316421509</t>
+    <t xml:space="preserve">7.24738597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04049301147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06483221054077</t>
   </si>
   <si>
     <t xml:space="preserve">6.98572635650635</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25955581665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47862005233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61249351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65508985519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64495849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08208417892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17640352249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32244729995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41980886459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49283123016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3102765083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18857431411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97255229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98472261428833</t>
+    <t xml:space="preserve">7.25955724716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47862100601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61249399185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65509033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64495944976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08208465576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17640399932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32244777679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41981029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49283075332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31027698516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18857479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9725513458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98472213745117</t>
   </si>
   <si>
     <t xml:space="preserve">6.45023536682129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49891519546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82751369476318</t>
+    <t xml:space="preserve">6.49891662597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82751274108887</t>
   </si>
   <si>
     <t xml:space="preserve">6.76057624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93704557418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87010908126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90661907196045</t>
+    <t xml:space="preserve">6.93704462051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87010955810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90662002563477</t>
   </si>
   <si>
     <t xml:space="preserve">6.82142734527588</t>
@@ -431,25 +431,25 @@
     <t xml:space="preserve">6.91270446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83968210220337</t>
+    <t xml:space="preserve">6.83968353271484</t>
   </si>
   <si>
     <t xml:space="preserve">6.79708671569824</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74840593338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87619304656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68755483627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16828012466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13785409927368</t>
+    <t xml:space="preserve">6.74840545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8761944770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68755578994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16827869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13785314559937</t>
   </si>
   <si>
     <t xml:space="preserve">6.85793876647949</t>
@@ -458,25 +458,25 @@
     <t xml:space="preserve">7.13176918029785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27781200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36300373077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36908864974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41168594360352</t>
+    <t xml:space="preserve">7.27781248092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3630051612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36908960342407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41168546676636</t>
   </si>
   <si>
     <t xml:space="preserve">7.1500244140625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95530128479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97355651855469</t>
+    <t xml:space="preserve">6.95530080795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97355556488037</t>
   </si>
   <si>
     <t xml:space="preserve">6.80317211151123</t>
@@ -485,10 +485,10 @@
     <t xml:space="preserve">7.10742855072021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08308792114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88227987289429</t>
+    <t xml:space="preserve">7.08308935165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88227891921997</t>
   </si>
   <si>
     <t xml:space="preserve">6.80925703048706</t>
@@ -497,139 +497,139 @@
     <t xml:space="preserve">6.67538499832153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84576892852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01006650924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05874824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.003981590271</t>
+    <t xml:space="preserve">6.84576797485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01006746292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0587477684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00398206710815</t>
   </si>
   <si>
     <t xml:space="preserve">6.94921493530273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04657793045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22304630279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32649421691895</t>
+    <t xml:space="preserve">7.04657745361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22304534912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32649326324463</t>
   </si>
   <si>
     <t xml:space="preserve">6.76666164398193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69363975524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79100275039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86402320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81534242630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65712833404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62670230865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63887357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66930055618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60844850540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57802295684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55976724624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83359718322754</t>
+    <t xml:space="preserve">6.69364023208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79100179672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86402273178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81534337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65712881088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62670373916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63887500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66929960250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60844755172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57802248001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55976676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83359813690186</t>
   </si>
   <si>
     <t xml:space="preserve">6.92487478256226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91879034042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25347375869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23521661758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26564073562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3569188117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33866310119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39951419830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38125896453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21087551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16219520568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05266141891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73623561859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90053510665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15610837936401</t>
+    <t xml:space="preserve">6.91878986358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25347280502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23521709442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26564121246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35691928863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33866357803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39951515197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38125991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21087598800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16219425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05266189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73623657226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90053415298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15611028671265</t>
   </si>
   <si>
     <t xml:space="preserve">7.14393997192383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94312906265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08917284011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88836431503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50904703140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42385482788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8072190284729</t>
+    <t xml:space="preserve">6.9431300163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08917379379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8883638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50904655456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42385578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80721807479858</t>
   </si>
   <si>
     <t xml:space="preserve">8.37922096252441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76258277893066</t>
+    <t xml:space="preserve">8.76258373260498</t>
   </si>
   <si>
     <t xml:space="preserve">8.53134918212891</t>
@@ -638,28 +638,28 @@
     <t xml:space="preserve">8.55568885803223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49483680725098</t>
+    <t xml:space="preserve">8.49483776092529</t>
   </si>
   <si>
     <t xml:space="preserve">8.40964603424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62262630462646</t>
+    <t xml:space="preserve">8.62262535095215</t>
   </si>
   <si>
     <t xml:space="preserve">8.64087963104248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71998691558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66522026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67739200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74432754516602</t>
+    <t xml:space="preserve">8.7199878692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66522121429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67739295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7443265914917</t>
   </si>
   <si>
     <t xml:space="preserve">8.750412940979</t>
@@ -668,64 +668,64 @@
     <t xml:space="preserve">8.63479518890381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58611297607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59219932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73215770721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79300785064697</t>
+    <t xml:space="preserve">8.58611392974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59219837188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73215675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79300975799561</t>
   </si>
   <si>
     <t xml:space="preserve">8.83560562133789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78083992004395</t>
+    <t xml:space="preserve">8.78083896636963</t>
   </si>
   <si>
     <t xml:space="preserve">8.79909324645996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6043701171875</t>
+    <t xml:space="preserve">8.60437202453613</t>
   </si>
   <si>
     <t xml:space="preserve">8.5678596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46441268920898</t>
+    <t xml:space="preserve">8.46441173553467</t>
   </si>
   <si>
     <t xml:space="preserve">8.33662414550781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31228351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24534702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34879398345947</t>
+    <t xml:space="preserve">8.31228256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24534797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34879493713379</t>
   </si>
   <si>
     <t xml:space="preserve">8.3427095413208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67130756378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38326644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47454452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51105403900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37109565734863</t>
+    <t xml:space="preserve">8.67130661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38326740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47454357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51105308532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37109661102295</t>
   </si>
   <si>
     <t xml:space="preserve">9.07292366027832</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">9.09117984771729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11551952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90254020690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85385990142822</t>
+    <t xml:space="preserve">9.11552047729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9025411605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85386085510254</t>
   </si>
   <si>
     <t xml:space="preserve">8.75649833679199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82343482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98773288726807</t>
+    <t xml:space="preserve">8.8234338760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98773384094238</t>
   </si>
   <si>
     <t xml:space="preserve">9.13377666473389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96339321136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99381828308105</t>
+    <t xml:space="preserve">8.96339225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99381732940674</t>
   </si>
   <si>
     <t xml:space="preserve">9.04249954223633</t>
@@ -773,34 +773,34 @@
     <t xml:space="preserve">8.91471195220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89645671844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8295202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73824310302734</t>
+    <t xml:space="preserve">8.89645576477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82951831817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73824405670166</t>
   </si>
   <si>
     <t xml:space="preserve">8.58002948760986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22709274291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35488128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62871074676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54351806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64696598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87211608886719</t>
+    <t xml:space="preserve">8.22709369659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35487937927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62871170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54351902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6469669342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87211418151855</t>
   </si>
   <si>
     <t xml:space="preserve">8.88428688049316</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">8.95122146606445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06683826446533</t>
+    <t xml:space="preserve">9.06684017181396</t>
   </si>
   <si>
     <t xml:space="preserve">8.89037132263184</t>
@@ -824,19 +824,19 @@
     <t xml:space="preserve">8.71390247344971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68956089019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54960441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44007205963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01815795898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84168910980225</t>
+    <t xml:space="preserve">8.68956184387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54960346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44007110595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01815891265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84169006347656</t>
   </si>
   <si>
     <t xml:space="preserve">8.95730781555176</t>
@@ -845,40 +845,40 @@
     <t xml:space="preserve">9.12769031524658</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27981948852539</t>
+    <t xml:space="preserve">9.27981853485107</t>
   </si>
   <si>
     <t xml:space="preserve">9.29807472229004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32849979400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30416011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03032875061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97556304931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12160682678223</t>
+    <t xml:space="preserve">9.32850074768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30415916442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03032970428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97556209564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12160491943359</t>
   </si>
   <si>
     <t xml:space="preserve">9.15811634063721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2067985534668</t>
+    <t xml:space="preserve">9.20679664611816</t>
   </si>
   <si>
     <t xml:space="preserve">9.39311790466309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27104759216309</t>
+    <t xml:space="preserve">9.42524147033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27104663848877</t>
   </si>
   <si>
     <t xml:space="preserve">9.24534702301025</t>
@@ -893,46 +893,46 @@
     <t xml:space="preserve">8.91768074035645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02690410614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1232738494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89840507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8405818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82130813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97550296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03975105285645</t>
+    <t xml:space="preserve">9.02690315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12327575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89840602874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84058094024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82130718231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97550392150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03975200653076</t>
   </si>
   <si>
     <t xml:space="preserve">9.13612461090088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31602001190186</t>
+    <t xml:space="preserve">9.31601905822754</t>
   </si>
   <si>
     <t xml:space="preserve">9.32244491577148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25819683074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37384414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38669300079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2774715423584</t>
+    <t xml:space="preserve">9.2581958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3738431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38669395446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.43809223175049</t>
@@ -950,40 +950,40 @@
     <t xml:space="preserve">9.33529472351074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38027000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41881847381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47021579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6693868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63726234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63083648681641</t>
+    <t xml:space="preserve">9.38026905059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4188175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66938591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63726329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63083744049072</t>
   </si>
   <si>
     <t xml:space="preserve">9.74005889892578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88783168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95207786560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81073474884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77860832214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65653514862061</t>
+    <t xml:space="preserve">9.88783073425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95207977294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8107328414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77860736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65653705596924</t>
   </si>
   <si>
     <t xml:space="preserve">9.61798763275146</t>
@@ -992,28 +992,28 @@
     <t xml:space="preserve">9.84928226470947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86855697631836</t>
+    <t xml:space="preserve">9.86855506896973</t>
   </si>
   <si>
     <t xml:space="preserve">9.89425563812256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.170524597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1833724975586</t>
+    <t xml:space="preserve">10.1705236434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1833734512329</t>
   </si>
   <si>
     <t xml:space="preserve">10.2347726821899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3311452865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.292594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1576747894287</t>
+    <t xml:space="preserve">10.3311443328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2925968170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1576738357544</t>
   </si>
   <si>
     <t xml:space="preserve">10.0998516082764</t>
@@ -1022,115 +1022,115 @@
     <t xml:space="preserve">9.91995525360107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95850372314453</t>
+    <t xml:space="preserve">9.95850467681885</t>
   </si>
   <si>
     <t xml:space="preserve">9.9970531463623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91353034973145</t>
+    <t xml:space="preserve">9.91353130340576</t>
   </si>
   <si>
     <t xml:space="preserve">9.96492862701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87498092651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80430889129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7914571762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77218437194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78503227233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75290966033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62441158294678</t>
+    <t xml:space="preserve">9.87498188018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80430698394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79145908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77218341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78503322601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75291061401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62441253662109</t>
   </si>
   <si>
     <t xml:space="preserve">9.61156272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66296291351318</t>
+    <t xml:space="preserve">9.66296005249023</t>
   </si>
   <si>
     <t xml:space="preserve">9.70793533325195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7657585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72078609466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68866062164307</t>
+    <t xml:space="preserve">9.76575946807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72078418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68866157531738</t>
   </si>
   <si>
     <t xml:space="preserve">9.98420429229736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0420274734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84285545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99062919616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0099010467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97135448455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255493164062</t>
+    <t xml:space="preserve">10.042028427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84285640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99062824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0099029541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97135353088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255502700806</t>
   </si>
   <si>
     <t xml:space="preserve">10.164098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2283477783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0291776657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93922996520996</t>
+    <t xml:space="preserve">10.228346824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0291757583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93923091888428</t>
   </si>
   <si>
     <t xml:space="preserve">9.94565486907959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9263801574707</t>
+    <t xml:space="preserve">9.92637920379639</t>
   </si>
   <si>
     <t xml:space="preserve">9.81715774536133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0934267044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.054877281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1127014160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.048451423645</t>
+    <t xml:space="preserve">10.0934257507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0548782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.112699508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0484523773193</t>
   </si>
   <si>
     <t xml:space="preserve">10.2219228744507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1191244125366</t>
+    <t xml:space="preserve">10.1191253662109</t>
   </si>
   <si>
     <t xml:space="preserve">10.0356025695801</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">10.1319742202759</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88140678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72721099853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67580986022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70151138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75933361053467</t>
+    <t xml:space="preserve">9.8814058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72721004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67581081390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70150947570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75933265686035</t>
   </si>
   <si>
     <t xml:space="preserve">9.83643341064453</t>
@@ -1163,22 +1163,22 @@
     <t xml:space="preserve">9.82358264923096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90067863464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8300085067749</t>
+    <t xml:space="preserve">9.90068054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83000659942627</t>
   </si>
   <si>
     <t xml:space="preserve">9.79788303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65011310577393</t>
+    <t xml:space="preserve">9.65011215209961</t>
   </si>
   <si>
     <t xml:space="preserve">9.56658935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0677261352539</t>
+    <t xml:space="preserve">10.0677251815796</t>
   </si>
   <si>
     <t xml:space="preserve">10.0741510391235</t>
@@ -1193,22 +1193,22 @@
     <t xml:space="preserve">10.3889684677124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4018182754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2990217208862</t>
+    <t xml:space="preserve">10.4018201828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2990207672119</t>
   </si>
   <si>
     <t xml:space="preserve">10.4082431793213</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4210929870605</t>
+    <t xml:space="preserve">10.4210920333862</t>
   </si>
   <si>
     <t xml:space="preserve">10.2701101303101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2604722976685</t>
+    <t xml:space="preserve">10.2604713439941</t>
   </si>
   <si>
     <t xml:space="preserve">10.2444095611572</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">10.0870008468628</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86213207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171569824219</t>
+    <t xml:space="preserve">9.86213111877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171760559082</t>
   </si>
   <si>
     <t xml:space="preserve">9.91031742095947</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">9.90710544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89746856689453</t>
+    <t xml:space="preserve">9.89746761322021</t>
   </si>
   <si>
     <t xml:space="preserve">9.45736694335938</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">9.94886589050293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83964443206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.103063583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0805759429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0227527618408</t>
+    <t xml:space="preserve">9.83964347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1030645370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0805749893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0227537155151</t>
   </si>
   <si>
     <t xml:space="preserve">10.0388154983521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0645141601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1448249816895</t>
+    <t xml:space="preserve">10.0645160675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1448240280151</t>
   </si>
   <si>
     <t xml:space="preserve">10.2572593688965</t>
@@ -1271,52 +1271,52 @@
     <t xml:space="preserve">10.4114561080933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3921804428101</t>
+    <t xml:space="preserve">10.3921813964844</t>
   </si>
   <si>
     <t xml:space="preserve">10.4435787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5335283279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6298990249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7391233444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8676204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9575653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7326965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.819432258606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6845092773438</t>
+    <t xml:space="preserve">10.5335292816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6298999786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7391223907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.867621421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9575681686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7326974868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8194332122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6845102310181</t>
   </si>
   <si>
     <t xml:space="preserve">10.755184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8097953796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8065824508667</t>
+    <t xml:space="preserve">10.8097972869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.806583404541</t>
   </si>
   <si>
     <t xml:space="preserve">10.7808847427368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6266889572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.639536857605</t>
+    <t xml:space="preserve">10.62668800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395359039307</t>
   </si>
   <si>
     <t xml:space="preserve">10.5399522781372</t>
@@ -1325,109 +1325,109 @@
     <t xml:space="preserve">10.6009883880615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6074142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.395393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4307317733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3568439483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3839740753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3500623703003</t>
+    <t xml:space="preserve">10.6074123382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3953943252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4307308197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3568449020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3839750289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350061416626</t>
   </si>
   <si>
     <t xml:space="preserve">10.2279777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1092834472656</t>
+    <t xml:space="preserve">10.1092844009399</t>
   </si>
   <si>
     <t xml:space="preserve">10.0889368057251</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93293952941895</t>
+    <t xml:space="preserve">9.93294048309326</t>
   </si>
   <si>
     <t xml:space="preserve">9.58703327178955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64468479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86850547790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97702503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96345996856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74641990661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77016067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61077308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89224529266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84476661682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87528800964355</t>
+    <t xml:space="preserve">9.64468383789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86850643157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97702693939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96346092224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74642086029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77015972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61077213287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89224338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84476757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87528896331787</t>
   </si>
   <si>
     <t xml:space="preserve">9.99398136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89902687072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85494136810303</t>
+    <t xml:space="preserve">9.89902782440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85494041442871</t>
   </si>
   <si>
     <t xml:space="preserve">9.92276573181152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79050827026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86172199249268</t>
+    <t xml:space="preserve">9.79050731658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86172294616699</t>
   </si>
   <si>
     <t xml:space="preserve">9.69216156005859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70911693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61416244506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60738086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7023344039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68198680877686</t>
+    <t xml:space="preserve">9.7091178894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61416339874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60738182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70233535766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68198871612549</t>
   </si>
   <si>
     <t xml:space="preserve">9.902419090271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86511421203613</t>
+    <t xml:space="preserve">9.86511516571045</t>
   </si>
   <si>
     <t xml:space="preserve">9.82102870941162</t>
@@ -1439,19 +1439,19 @@
     <t xml:space="preserve">9.75320339202881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79728889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94311332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94989585876465</t>
+    <t xml:space="preserve">9.79729080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94311237335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94989681243896</t>
   </si>
   <si>
     <t xml:space="preserve">9.90920162200928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84137630462646</t>
+    <t xml:space="preserve">9.84137535095215</t>
   </si>
   <si>
     <t xml:space="preserve">9.98380851745605</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">9.99737358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0177211761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0651979446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1431970596313</t>
+    <t xml:space="preserve">10.0177221298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0651988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.143196105957</t>
   </si>
   <si>
     <t xml:space="preserve">10.3093671798706</t>
@@ -1478,70 +1478,70 @@
     <t xml:space="preserve">10.0482416152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1330232620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957202911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1635437011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1872835159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1703262329102</t>
+    <t xml:space="preserve">10.1330223083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957193374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1635446548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1872825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1703252792358</t>
   </si>
   <si>
     <t xml:space="preserve">9.96006965637207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80407238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82441997528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94650459289551</t>
+    <t xml:space="preserve">9.80407047271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94650554656982</t>
   </si>
   <si>
     <t xml:space="preserve">10.0211114883423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0753707885742</t>
+    <t xml:space="preserve">10.0753726959229</t>
   </si>
   <si>
     <t xml:space="preserve">10.0143299102783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72946548461914</t>
+    <t xml:space="preserve">9.72946453094482</t>
   </si>
   <si>
     <t xml:space="preserve">9.85833263397217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.031286239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0550241470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.038067817688</t>
+    <t xml:space="preserve">10.0312843322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.055025100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0380697250366</t>
   </si>
   <si>
     <t xml:space="preserve">10.2584981918335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1974573135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1838932037354</t>
+    <t xml:space="preserve">10.1974563598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1838912963867</t>
   </si>
   <si>
     <t xml:space="preserve">10.2517156600952</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2686729431152</t>
+    <t xml:space="preserve">10.2686719894409</t>
   </si>
   <si>
     <t xml:space="preserve">10.2788457870483</t>
@@ -1550,10 +1550,10 @@
     <t xml:space="preserve">10.3941488265991</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5128412246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5297966003418</t>
+    <t xml:space="preserve">10.5128421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5297975540161</t>
   </si>
   <si>
     <t xml:space="preserve">10.4687547683716</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">10.0923280715942</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98041725158691</t>
+    <t xml:space="preserve">9.9804162979126</t>
   </si>
   <si>
     <t xml:space="preserve">10.061806678772</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">10.0245027542114</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80068016052246</t>
+    <t xml:space="preserve">9.80068111419678</t>
   </si>
   <si>
     <t xml:space="preserve">9.78372478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.685378074646</t>
+    <t xml:space="preserve">9.68537998199463</t>
   </si>
   <si>
     <t xml:space="preserve">9.59042549133301</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">9.70572757720947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65485763549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50225257873535</t>
+    <t xml:space="preserve">9.65485668182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50225353240967</t>
   </si>
   <si>
     <t xml:space="preserve">9.52938270568848</t>
@@ -1598,19 +1598,19 @@
     <t xml:space="preserve">9.49886131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37677669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32590770721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52599143981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42086219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62433624267578</t>
+    <t xml:space="preserve">9.37677478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32590675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5259895324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42086315155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62433528900146</t>
   </si>
   <si>
     <t xml:space="preserve">9.75659561157227</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">9.71590042114258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74981117248535</t>
+    <t xml:space="preserve">9.74981307983398</t>
   </si>
   <si>
     <t xml:space="preserve">9.75998687744141</t>
@@ -1628,28 +1628,28 @@
     <t xml:space="preserve">9.72607421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66503143310547</t>
+    <t xml:space="preserve">9.66503238677979</t>
   </si>
   <si>
     <t xml:space="preserve">9.80746364593506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60399055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68876934051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64807415008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66842365264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9125919342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97024440765381</t>
+    <t xml:space="preserve">9.60398864746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68877029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64807605743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66842460632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91259098052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97024250030518</t>
   </si>
   <si>
     <t xml:space="preserve">10.00754737854</t>
@@ -1658,28 +1658,28 @@
     <t xml:space="preserve">10.0991106033325</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1805019378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0685911178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66164016723633</t>
+    <t xml:space="preserve">10.1804990768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0685892105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66164112091064</t>
   </si>
   <si>
     <t xml:space="preserve">9.73624706268311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77694225311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83798503875732</t>
+    <t xml:space="preserve">9.77694320678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83798599243164</t>
   </si>
   <si>
     <t xml:space="preserve">9.99059009552002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95328807830811</t>
+    <t xml:space="preserve">9.95328712463379</t>
   </si>
   <si>
     <t xml:space="preserve">10.0448503494263</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">10.1398048400879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1601524353027</t>
+    <t xml:space="preserve">10.1601514816284</t>
   </si>
   <si>
     <t xml:space="preserve">10.3297138214111</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">10.4416255950928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3873653411865</t>
+    <t xml:space="preserve">10.3873643875122</t>
   </si>
   <si>
     <t xml:space="preserve">10.4314517974854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4111051559448</t>
+    <t xml:space="preserve">10.4111042022705</t>
   </si>
   <si>
     <t xml:space="preserve">10.4823217391968</t>
@@ -1721,16 +1721,16 @@
     <t xml:space="preserve">10.3738012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">10.295802116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3432788848877</t>
+    <t xml:space="preserve">10.2958030700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3432807922363</t>
   </si>
   <si>
     <t xml:space="preserve">10.3907556533813</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1669359207153</t>
+    <t xml:space="preserve">10.1669368743896</t>
   </si>
   <si>
     <t xml:space="preserve">10.2245855331421</t>
@@ -1739,43 +1739,43 @@
     <t xml:space="preserve">10.3025846481323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3805837631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2856283187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.326322555542</t>
+    <t xml:space="preserve">10.3805828094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2856292724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3263235092163</t>
   </si>
   <si>
     <t xml:space="preserve">10.3229322433472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3704090118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4789295196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5264072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5331878662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6450996398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7095336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7739686965942</t>
+    <t xml:space="preserve">10.3704099655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.478928565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.526406288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5331897735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6450986862183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7095327377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7739667892456</t>
   </si>
   <si>
     <t xml:space="preserve">10.7671842575073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8417921066284</t>
+    <t xml:space="preserve">10.8417930603027</t>
   </si>
   <si>
     <t xml:space="preserve">10.7129249572754</t>
@@ -1784,19 +1784,19 @@
     <t xml:space="preserve">10.6654481887817</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7163152694702</t>
+    <t xml:space="preserve">10.7163162231445</t>
   </si>
   <si>
     <t xml:space="preserve">10.6925773620605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7230997085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.855357170105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0825700759888</t>
+    <t xml:space="preserve">10.7230987548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8553552627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0825691223145</t>
   </si>
   <si>
     <t xml:space="preserve">11.1775245666504</t>
@@ -1805,31 +1805,31 @@
     <t xml:space="preserve">11.1639585494995</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1368293762207</t>
+    <t xml:space="preserve">11.1368284225464</t>
   </si>
   <si>
     <t xml:space="preserve">11.1741333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0893526077271</t>
+    <t xml:space="preserve">11.0893535614014</t>
   </si>
   <si>
     <t xml:space="preserve">11.0757865905762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.113091468811</t>
+    <t xml:space="preserve">11.1130895614624</t>
   </si>
   <si>
     <t xml:space="preserve">11.1910886764526</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3097820281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2826538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3369131088257</t>
+    <t xml:space="preserve">11.3097829818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2826528549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3369121551514</t>
   </si>
   <si>
     <t xml:space="preserve">11.3301305770874</t>
@@ -1838,31 +1838,31 @@
     <t xml:space="preserve">11.279260635376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3233489990234</t>
+    <t xml:space="preserve">11.3233470916748</t>
   </si>
   <si>
     <t xml:space="preserve">11.3063917160034</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3335199356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4047374725342</t>
+    <t xml:space="preserve">11.3335208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4047384262085</t>
   </si>
   <si>
     <t xml:space="preserve">11.4657802581787</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5302124023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6658620834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5607347488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5369958877563</t>
+    <t xml:space="preserve">11.5302133560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6658630371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5607328414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.536994934082</t>
   </si>
   <si>
     <t xml:space="preserve">11.5709075927734</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">11.7302961349487</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7404699325562</t>
+    <t xml:space="preserve">11.7404689788818</t>
   </si>
   <si>
     <t xml:space="preserve">11.6353416442871</t>
@@ -1889,28 +1889,28 @@
     <t xml:space="preserve">11.5912551879883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5776901245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4318675994873</t>
+    <t xml:space="preserve">11.577691078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.431866645813</t>
   </si>
   <si>
     <t xml:space="preserve">11.472562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5234298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6183853149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5336027145386</t>
+    <t xml:space="preserve">11.5234308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6183843612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5336046218872</t>
   </si>
   <si>
     <t xml:space="preserve">11.6732530593872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6947383880615</t>
+    <t xml:space="preserve">11.6947374343872</t>
   </si>
   <si>
     <t xml:space="preserve">11.6696739196777</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">11.4261817932129</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553497314453</t>
+    <t xml:space="preserve">11.655348777771</t>
   </si>
   <si>
     <t xml:space="preserve">11.5228624343872</t>
@@ -1949,13 +1949,13 @@
     <t xml:space="preserve">11.3259201049805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3545656204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4440860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5622501373291</t>
+    <t xml:space="preserve">11.3545665740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4440841674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5622510910034</t>
   </si>
   <si>
     <t xml:space="preserve">11.537184715271</t>
@@ -1964,43 +1964,43 @@
     <t xml:space="preserve">11.5873165130615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5550880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6267051696777</t>
+    <t xml:space="preserve">11.5550889968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6267042160034</t>
   </si>
   <si>
     <t xml:space="preserve">11.8558721542358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9239053726196</t>
+    <t xml:space="preserve">11.9239063262939</t>
   </si>
   <si>
     <t xml:space="preserve">11.9453916549683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9525518417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8988418579102</t>
+    <t xml:space="preserve">11.9525527954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8988409042358</t>
   </si>
   <si>
     <t xml:space="preserve">11.8594522476196</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8236455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9095830917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0062637329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2211093902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2461748123169</t>
+    <t xml:space="preserve">11.8236446380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9095821380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0062627792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2211084365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2461738586426</t>
   </si>
   <si>
     <t xml:space="preserve">12.1853008270264</t>
@@ -2012,37 +2012,37 @@
     <t xml:space="preserve">12.292724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.324951171875</t>
+    <t xml:space="preserve">12.3249502182007</t>
   </si>
   <si>
     <t xml:space="preserve">12.3213701248169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.271240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2963047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2318506240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1029434204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1387529373169</t>
+    <t xml:space="preserve">12.2712392807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2963037490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2318496704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1029443740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1387519836426</t>
   </si>
   <si>
     <t xml:space="preserve">12.1244287490845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1709785461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0886211395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1101064682007</t>
+    <t xml:space="preserve">12.1709794998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0886201858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1101055145264</t>
   </si>
   <si>
     <t xml:space="preserve">11.9668750762939</t>
@@ -2051,34 +2051,34 @@
     <t xml:space="preserve">12.0599756240845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0707168579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7735157012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.698317527771</t>
+    <t xml:space="preserve">12.0707159042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7735147476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6983184814453</t>
   </si>
   <si>
     <t xml:space="preserve">11.6804151535034</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7699346542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4512462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4870557785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5515089035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4011173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5837335586548</t>
+    <t xml:space="preserve">11.7699337005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.451247215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4870548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5515079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4011154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5837345123291</t>
   </si>
   <si>
     <t xml:space="preserve">11.6159610748291</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">11.7269649505615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6875762939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5765733718872</t>
+    <t xml:space="preserve">11.6875772476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5765743255615</t>
   </si>
   <si>
     <t xml:space="preserve">11.590895652771</t>
@@ -2102,10 +2102,10 @@
     <t xml:space="preserve">11.6481885910034</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7591915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.794997215271</t>
+    <t xml:space="preserve">11.7591905593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7949981689453</t>
   </si>
   <si>
     <t xml:space="preserve">11.8200635910034</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">11.8487110137939</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0563936233521</t>
+    <t xml:space="preserve">12.0563945770264</t>
   </si>
   <si>
     <t xml:space="preserve">12.2067852020264</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">12.3177890777588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2998838424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4180498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5326328277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5147314071655</t>
+    <t xml:space="preserve">12.2998847961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4180507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5326347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5147304534912</t>
   </si>
   <si>
     <t xml:space="preserve">12.443115234375</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">12.4073076248169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8083515167236</t>
+    <t xml:space="preserve">12.8083524703979</t>
   </si>
   <si>
     <t xml:space="preserve">12.7797060012817</t>
@@ -2153,22 +2153,22 @@
     <t xml:space="preserve">12.8262567520142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7940282821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620634078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8190937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7904481887817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7331562042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7045087814331</t>
+    <t xml:space="preserve">12.7940301895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620624542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8190946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7904491424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7331571578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7045106887817</t>
   </si>
   <si>
     <t xml:space="preserve">12.4932460784912</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">12.7259950637817</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7080917358398</t>
+    <t xml:space="preserve">12.7080936431885</t>
   </si>
   <si>
     <t xml:space="preserve">12.7689647674561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7976093292236</t>
+    <t xml:space="preserve">12.7976102828979</t>
   </si>
   <si>
     <t xml:space="preserve">12.9372587203979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8656444549561</t>
+    <t xml:space="preserve">12.8656463623047</t>
   </si>
   <si>
     <t xml:space="preserve">12.9659042358398</t>
@@ -2204,25 +2204,25 @@
     <t xml:space="preserve">12.9694862365723</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9623260498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0303583145142</t>
+    <t xml:space="preserve">12.9623231887817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0303573608398</t>
   </si>
   <si>
     <t xml:space="preserve">13.1592655181885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.144944190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1700096130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1771697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1735897064209</t>
+    <t xml:space="preserve">13.1449422836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1700086593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1771678924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1735887527466</t>
   </si>
   <si>
     <t xml:space="preserve">13.1521043777466</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">13.0160341262817</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2487859725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3132381439209</t>
+    <t xml:space="preserve">13.2487850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3132371902466</t>
   </si>
   <si>
     <t xml:space="preserve">13.316819190979</t>
@@ -2246,37 +2246,37 @@
     <t xml:space="preserve">13.7715740203857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7357683181763</t>
+    <t xml:space="preserve">13.7357692718506</t>
   </si>
   <si>
     <t xml:space="preserve">13.7429294586182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9649353027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8467683792114</t>
+    <t xml:space="preserve">13.9649343490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8467702865601</t>
   </si>
   <si>
     <t xml:space="preserve">13.7286052703857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6426668167114</t>
+    <t xml:space="preserve">13.6426677703857</t>
   </si>
   <si>
     <t xml:space="preserve">13.3920154571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.349045753479</t>
+    <t xml:space="preserve">13.3490467071533</t>
   </si>
   <si>
     <t xml:space="preserve">13.3597888946533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2774324417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3848533630371</t>
+    <t xml:space="preserve">13.2774314880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3848543167114</t>
   </si>
   <si>
     <t xml:space="preserve">13.3884334564209</t>
@@ -2285,22 +2285,22 @@
     <t xml:space="preserve">13.2702693939209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0983934402466</t>
+    <t xml:space="preserve">13.0983924865723</t>
   </si>
   <si>
     <t xml:space="preserve">13.0840702056885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0625839233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0410995483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0482635498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0769090652466</t>
+    <t xml:space="preserve">13.0625858306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0411005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0482606887817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0769071578979</t>
   </si>
   <si>
     <t xml:space="preserve">13.1485252380371</t>
@@ -2309,31 +2309,31 @@
     <t xml:space="preserve">13.1342000961304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2380418777466</t>
+    <t xml:space="preserve">13.2380437850952</t>
   </si>
   <si>
     <t xml:space="preserve">13.2559461593628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3024969100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2452049255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5889558792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3776912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3204002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1879119873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0912322998047</t>
+    <t xml:space="preserve">13.3024959564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2452039718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5889568328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3776922225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3203992843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.187912940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.091233253479</t>
   </si>
   <si>
     <t xml:space="preserve">13.2272996902466</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">13.198655128479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0339384078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1019735336304</t>
+    <t xml:space="preserve">13.0339393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1019744873047</t>
   </si>
   <si>
     <t xml:space="preserve">13.1091346740723</t>
@@ -2357,31 +2357,31 @@
     <t xml:space="preserve">12.9873895645142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8441581726074</t>
+    <t xml:space="preserve">12.8441610336304</t>
   </si>
   <si>
     <t xml:space="preserve">12.9909696578979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6901874542236</t>
+    <t xml:space="preserve">12.6901865005493</t>
   </si>
   <si>
     <t xml:space="preserve">13.0661668777466</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8119325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6006669998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6651220321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8513221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.123459815979</t>
+    <t xml:space="preserve">12.8119335174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6006679534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6651229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8513212203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1234579086304</t>
   </si>
   <si>
     <t xml:space="preserve">13.2058153152466</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">13.4063367843628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4457273483276</t>
+    <t xml:space="preserve">13.4457263946533</t>
   </si>
   <si>
     <t xml:space="preserve">13.4493064880371</t>
@@ -2399,10 +2399,10 @@
     <t xml:space="preserve">13.5209226608276</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4860849380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4144687652588</t>
+    <t xml:space="preserve">12.486083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4144697189331</t>
   </si>
   <si>
     <t xml:space="preserve">12.3643379211426</t>
@@ -2414,22 +2414,22 @@
     <t xml:space="preserve">11.5085391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2686281204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9141340255737</t>
+    <t xml:space="preserve">11.268627166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9141330718994</t>
   </si>
   <si>
     <t xml:space="preserve">9.85423183441162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7038402557373</t>
+    <t xml:space="preserve">9.70383930206299</t>
   </si>
   <si>
     <t xml:space="preserve">8.44699478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64393615722656</t>
+    <t xml:space="preserve">8.64393711090088</t>
   </si>
   <si>
     <t xml:space="preserve">8.08892059326172</t>
@@ -2438,19 +2438,19 @@
     <t xml:space="preserve">7.77023315429688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43722343444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68787527084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7988805770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80246067047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66542053222656</t>
+    <t xml:space="preserve">7.43722295761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68787622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887962341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80246162414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6654224395752</t>
   </si>
   <si>
     <t xml:space="preserve">8.9160737991333</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">8.8623628616333</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85520172119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88742733001709</t>
+    <t xml:space="preserve">8.85520076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88742828369141</t>
   </si>
   <si>
     <t xml:space="preserve">8.66184043884277</t>
@@ -2480,16 +2480,16 @@
     <t xml:space="preserve">8.98410797119141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15598297119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21685791015625</t>
+    <t xml:space="preserve">9.15598487854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21685695648193</t>
   </si>
   <si>
     <t xml:space="preserve">9.40663719177246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02349662780762</t>
+    <t xml:space="preserve">9.02349758148193</t>
   </si>
   <si>
     <t xml:space="preserve">8.8731050491333</t>
@@ -2498,10 +2498,10 @@
     <t xml:space="preserve">8.97336483001709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71197128295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92681789398193</t>
+    <t xml:space="preserve">8.7119722366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92681694030762</t>
   </si>
   <si>
     <t xml:space="preserve">8.85878086090088</t>
@@ -2510,10 +2510,10 @@
     <t xml:space="preserve">9.12733745574951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28847217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52480125427246</t>
+    <t xml:space="preserve">9.28847312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52480220794678</t>
   </si>
   <si>
     <t xml:space="preserve">9.32069969177246</t>
@@ -2522,13 +2522,13 @@
     <t xml:space="preserve">9.09511184692383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26340675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12017726898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18104934692383</t>
+    <t xml:space="preserve">9.26340770721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12017631530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18105030059814</t>
   </si>
   <si>
     <t xml:space="preserve">9.29205322265625</t>
@@ -2537,16 +2537,16 @@
     <t xml:space="preserve">9.20969581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17030620574951</t>
+    <t xml:space="preserve">9.17030715942383</t>
   </si>
   <si>
     <t xml:space="preserve">8.99485015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88384819030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25962448120117</t>
+    <t xml:space="preserve">8.8838472366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25962352752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.09553909301758</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">9.14401912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87178611755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08062267303467</t>
+    <t xml:space="preserve">8.87178707122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08062362670898</t>
   </si>
   <si>
     <t xml:space="preserve">9.04706001281738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29691791534424</t>
+    <t xml:space="preserve">9.29691696166992</t>
   </si>
   <si>
     <t xml:space="preserve">9.48710632324219</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">9.52812671661377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31183338165283</t>
+    <t xml:space="preserve">9.31183242797852</t>
   </si>
   <si>
     <t xml:space="preserve">9.61390018463135</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">10.4007625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4455118179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7289342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7550373077393</t>
+    <t xml:space="preserve">10.4455127716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7289333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7550363540649</t>
   </si>
   <si>
     <t xml:space="preserve">10.6394319534302</t>
@@ -2603,19 +2603,19 @@
     <t xml:space="preserve">10.0166549682617</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0129261016846</t>
+    <t xml:space="preserve">10.0129251480103</t>
   </si>
   <si>
     <t xml:space="preserve">9.99800872802734</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2217607498169</t>
+    <t xml:space="preserve">10.2217597961426</t>
   </si>
   <si>
     <t xml:space="preserve">10.1471757888794</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0203828811646</t>
+    <t xml:space="preserve">10.0203838348389</t>
   </si>
   <si>
     <t xml:space="preserve">10.154634475708</t>
@@ -2627,25 +2627,25 @@
     <t xml:space="preserve">9.89359092712402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91969394683838</t>
+    <t xml:space="preserve">9.9196949005127</t>
   </si>
   <si>
     <t xml:space="preserve">10.0091953277588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0464868545532</t>
+    <t xml:space="preserve">10.0464878082275</t>
   </si>
   <si>
     <t xml:space="preserve">10.0427579879761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3187208175659</t>
+    <t xml:space="preserve">10.3187198638916</t>
   </si>
   <si>
     <t xml:space="preserve">10.2515926361084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.356011390686</t>
+    <t xml:space="preserve">10.3560123443604</t>
   </si>
   <si>
     <t xml:space="preserve">10.2590532302856</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">9.99055004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0651340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1732807159424</t>
+    <t xml:space="preserve">10.0651330947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1732816696167</t>
   </si>
   <si>
     <t xml:space="preserve">10.225489616394</t>
@@ -2666,19 +2666,19 @@
     <t xml:space="preserve">10.3038024902344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3075323104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2105722427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2776985168457</t>
+    <t xml:space="preserve">10.3075313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2105712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2776975631714</t>
   </si>
   <si>
     <t xml:space="preserve">10.4268674850464</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3746576309204</t>
+    <t xml:space="preserve">10.3746566772461</t>
   </si>
   <si>
     <t xml:space="preserve">10.1359882354736</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">10.0688619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55423355102539</t>
+    <t xml:space="preserve">9.55423259735107</t>
   </si>
   <si>
     <t xml:space="preserve">9.44235610961914</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">9.49829387664795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64746189117432</t>
+    <t xml:space="preserve">9.64746284484863</t>
   </si>
   <si>
     <t xml:space="preserve">9.7220458984375</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">9.62881565093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80036067962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71831798553467</t>
+    <t xml:space="preserve">9.80035972595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71831607818604</t>
   </si>
   <si>
     <t xml:space="preserve">9.65119075775146</t>
@@ -2732,16 +2732,16 @@
     <t xml:space="preserve">9.85629749298096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9122371673584</t>
+    <t xml:space="preserve">9.91223621368408</t>
   </si>
   <si>
     <t xml:space="preserve">9.87494373321533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69967079162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71458721160889</t>
+    <t xml:space="preserve">9.69967174530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7145881652832</t>
   </si>
   <si>
     <t xml:space="preserve">9.71085929870605</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">9.56169033050537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46100234985352</t>
+    <t xml:space="preserve">9.46100330352783</t>
   </si>
   <si>
     <t xml:space="preserve">9.65864944458008</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">9.56542015075684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55050182342529</t>
+    <t xml:space="preserve">9.55050277709961</t>
   </si>
   <si>
     <t xml:space="preserve">9.4535436630249</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">8.74872303009033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67786884307861</t>
+    <t xml:space="preserve">8.67786979675293</t>
   </si>
   <si>
     <t xml:space="preserve">8.61447143554688</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">8.95382881164551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90161991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96874618530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8494119644165</t>
+    <t xml:space="preserve">8.90162086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96874713897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84941101074219</t>
   </si>
   <si>
     <t xml:space="preserve">9.00230884552002</t>
@@ -2807,25 +2807,25 @@
     <t xml:space="preserve">9.22979068756104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19995784759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38641834259033</t>
+    <t xml:space="preserve">9.1999568939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38641738891602</t>
   </si>
   <si>
     <t xml:space="preserve">9.33047962188721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30810356140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21114540100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20741653442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88670349121094</t>
+    <t xml:space="preserve">9.30810451507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21114444732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20741558074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88670444488525</t>
   </si>
   <si>
     <t xml:space="preserve">9.054518699646</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">8.99485111236572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8568696975708</t>
+    <t xml:space="preserve">8.85687065124512</t>
   </si>
   <si>
     <t xml:space="preserve">8.4727611541748</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">8.58463859558105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80466079711914</t>
+    <t xml:space="preserve">8.80466175079346</t>
   </si>
   <si>
     <t xml:space="preserve">8.97620391845703</t>
@@ -2867,10 +2867,10 @@
     <t xml:space="preserve">9.09926891326904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2335205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81527709960938</t>
+    <t xml:space="preserve">9.23351955413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81527614593506</t>
   </si>
   <si>
     <t xml:space="preserve">10.0539455413818</t>
@@ -2900,13 +2900,13 @@
     <t xml:space="preserve">10.6058692932129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7252035140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8109760284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.792329788208</t>
+    <t xml:space="preserve">10.7252025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8109750747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7923288345337</t>
   </si>
   <si>
     <t xml:space="preserve">10.6804523468018</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">10.5051803588867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6357021331787</t>
+    <t xml:space="preserve">10.635703086853</t>
   </si>
   <si>
     <t xml:space="preserve">10.6506195068359</t>
@@ -2942,19 +2942,19 @@
     <t xml:space="preserve">10.6618070602417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3597421646118</t>
+    <t xml:space="preserve">10.3597412109375</t>
   </si>
   <si>
     <t xml:space="preserve">10.5163679122925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7140159606934</t>
+    <t xml:space="preserve">10.714015007019</t>
   </si>
   <si>
     <t xml:space="preserve">10.6767234802246</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3783864974976</t>
+    <t xml:space="preserve">10.3783874511719</t>
   </si>
   <si>
     <t xml:space="preserve">10.7997875213623</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">11.0459156036377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9303092956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8221635818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7438497543335</t>
+    <t xml:space="preserve">10.9303102493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8221626281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7438488006592</t>
   </si>
   <si>
     <t xml:space="preserve">10.5089101791382</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">10.6319742202759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7960596084595</t>
+    <t xml:space="preserve">10.7960586547852</t>
   </si>
   <si>
     <t xml:space="preserve">11.150333404541</t>
@@ -3014,10 +3014,10 @@
     <t xml:space="preserve">11.7097129821777</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6836090087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8029451370239</t>
+    <t xml:space="preserve">11.6836099624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8029441833496</t>
   </si>
   <si>
     <t xml:space="preserve">11.7470064163208</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">11.508337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6202125549316</t>
+    <t xml:space="preserve">11.620213508606</t>
   </si>
   <si>
     <t xml:space="preserve">11.5903787612915</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">11.8402366638184</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9558439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.989405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9371948242188</t>
+    <t xml:space="preserve">11.9558429718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9894065856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9371957778931</t>
   </si>
   <si>
     <t xml:space="preserve">12.3063869476318</t>
@@ -3068,52 +3068,52 @@
     <t xml:space="preserve">12.328763961792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3958883285522</t>
+    <t xml:space="preserve">12.3958892822266</t>
   </si>
   <si>
     <t xml:space="preserve">12.504035949707</t>
   </si>
   <si>
-    <t xml:space="preserve">12.608452796936</t>
+    <t xml:space="preserve">12.6084537506104</t>
   </si>
   <si>
     <t xml:space="preserve">12.5562438964844</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5972661972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4928483963013</t>
+    <t xml:space="preserve">12.5972652435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4928493499756</t>
   </si>
   <si>
     <t xml:space="preserve">12.5748910903931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.477931022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338697433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5301399230957</t>
+    <t xml:space="preserve">12.4779319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5301389694214</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487871170044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6233701705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7240600585938</t>
+    <t xml:space="preserve">12.6233711242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7240581512451</t>
   </si>
   <si>
     <t xml:space="preserve">12.7837266921997</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7016849517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7799978256226</t>
+    <t xml:space="preserve">12.7016839981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7799968719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.8061017990112</t>
@@ -3122,31 +3122,31 @@
     <t xml:space="preserve">12.7576208114624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6532039642334</t>
+    <t xml:space="preserve">12.6532049179077</t>
   </si>
   <si>
     <t xml:space="preserve">12.731517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7427034378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6979551315308</t>
+    <t xml:space="preserve">12.7427043914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6979541778564</t>
   </si>
   <si>
     <t xml:space="preserve">12.7688102722168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8471221923828</t>
+    <t xml:space="preserve">12.8471231460571</t>
   </si>
   <si>
     <t xml:space="preserve">12.5637035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5860795974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5152225494385</t>
+    <t xml:space="preserve">12.5860786437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5152235031128</t>
   </si>
   <si>
     <t xml:space="preserve">12.4443674087524</t>
@@ -3167,10 +3167,10 @@
     <t xml:space="preserve">12.9552717208862</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0969800949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9851036071777</t>
+    <t xml:space="preserve">13.096981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9851045608521</t>
   </si>
   <si>
     <t xml:space="preserve">13.0373125076294</t>
@@ -3179,16 +3179,16 @@
     <t xml:space="preserve">13.0820646286011</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1566467285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1603765487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1864805221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0037508010864</t>
+    <t xml:space="preserve">13.1566476821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1603775024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1864814758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0037498474121</t>
   </si>
   <si>
     <t xml:space="preserve">13.0112085342407</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">13.1715641021729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3693342208862</t>
+    <t xml:space="preserve">13.3693351745605</t>
   </si>
   <si>
     <t xml:space="preserve">13.2427606582642</t>
@@ -3218,19 +3218,19 @@
     <t xml:space="preserve">13.3930683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4088907241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5156841278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6462154388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6264371871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5908393859863</t>
+    <t xml:space="preserve">13.4088897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5156850814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6462144851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6264381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.590838432312</t>
   </si>
   <si>
     <t xml:space="preserve">13.5473289489746</t>
@@ -3242,13 +3242,13 @@
     <t xml:space="preserve">13.5671062469482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5789728164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6383028030396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.361424446106</t>
+    <t xml:space="preserve">13.5789737701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6383037567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3614234924316</t>
   </si>
   <si>
     <t xml:space="preserve">13.3970232009888</t>
@@ -3260,19 +3260,19 @@
     <t xml:space="preserve">13.1755199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4603080749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2506723403931</t>
+    <t xml:space="preserve">13.4603099822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2506732940674</t>
   </si>
   <si>
     <t xml:space="preserve">13.2981376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">13.373291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4998645782471</t>
+    <t xml:space="preserve">13.3732919692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4998636245728</t>
   </si>
   <si>
     <t xml:space="preserve">13.4484434127808</t>
@@ -3293,34 +3293,34 @@
     <t xml:space="preserve">13.4563550949097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3891115188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2902269363403</t>
+    <t xml:space="preserve">13.3891124725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.290225982666</t>
   </si>
   <si>
     <t xml:space="preserve">13.2388067245483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8353519439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9658813476562</t>
+    <t xml:space="preserve">12.835352897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9658803939819</t>
   </si>
   <si>
     <t xml:space="preserve">13.2467174530029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2823171615601</t>
+    <t xml:space="preserve">13.2823181152344</t>
   </si>
   <si>
     <t xml:space="preserve">13.2546272277832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3297805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1913404464722</t>
+    <t xml:space="preserve">13.3297815322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1913414001465</t>
   </si>
   <si>
     <t xml:space="preserve">13.1122331619263</t>
@@ -3332,10 +3332,10 @@
     <t xml:space="preserve">13.3535127639771</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4207553863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4721775054932</t>
+    <t xml:space="preserve">13.4207563400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4721765518188</t>
   </si>
   <si>
     <t xml:space="preserve">13.6027050018311</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">13.7451009750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6659908294678</t>
+    <t xml:space="preserve">13.6659917831421</t>
   </si>
   <si>
     <t xml:space="preserve">13.6699485778809</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">13.5710620880127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5512847900391</t>
+    <t xml:space="preserve">13.5512838363647</t>
   </si>
   <si>
     <t xml:space="preserve">13.5117301940918</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">13.662036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7253227233887</t>
+    <t xml:space="preserve">13.725323677063</t>
   </si>
   <si>
     <t xml:space="preserve">13.7411460876465</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">13.9705591201782</t>
   </si>
   <si>
-    <t xml:space="preserve">14.037802696228</t>
+    <t xml:space="preserve">14.0378036499023</t>
   </si>
   <si>
     <t xml:space="preserve">13.788610458374</t>
@@ -3395,106 +3395,106 @@
     <t xml:space="preserve">13.9626483917236</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9230937957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0140686035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1366872787476</t>
+    <t xml:space="preserve">13.923095703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0140695571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1366882324219</t>
   </si>
   <si>
     <t xml:space="preserve">13.9903373718262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8044319152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2237062454224</t>
+    <t xml:space="preserve">13.8044328689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.223708152771</t>
   </si>
   <si>
     <t xml:space="preserve">14.3384132385254</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5005874633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7339582443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4373016357422</t>
+    <t xml:space="preserve">14.5005865097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7339572906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4372987747192</t>
   </si>
   <si>
     <t xml:space="preserve">14.5717840194702</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5480518341064</t>
+    <t xml:space="preserve">14.5480508804321</t>
   </si>
   <si>
     <t xml:space="preserve">14.5638723373413</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5361852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8288869857788</t>
+    <t xml:space="preserve">14.5361862182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8288879394531</t>
   </si>
   <si>
     <t xml:space="preserve">14.7023124694824</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8407526016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8684406280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.947548866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0227031707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.801197052002</t>
+    <t xml:space="preserve">14.8407535552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8684396743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9475507736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0227041244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8011980056763</t>
   </si>
   <si>
     <t xml:space="preserve">14.8130655288696</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8644847869873</t>
+    <t xml:space="preserve">14.8644866943359</t>
   </si>
   <si>
     <t xml:space="preserve">14.9253072738647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9901809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1158752441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0631675720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0956029891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1564235687256</t>
+    <t xml:space="preserve">14.9901819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1158761978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0631656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0956020355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1564245223999</t>
   </si>
   <si>
     <t xml:space="preserve">15.2618446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">15.209132194519</t>
+    <t xml:space="preserve">15.209135055542</t>
   </si>
   <si>
     <t xml:space="preserve">15.2780647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2861738204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3753757476807</t>
+    <t xml:space="preserve">15.2861728668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.375376701355</t>
   </si>
   <si>
     <t xml:space="preserve">15.3915948867798</t>
@@ -3503,16 +3503,16 @@
     <t xml:space="preserve">15.468635559082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4037599563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4929637908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3875408172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3956508636475</t>
+    <t xml:space="preserve">15.4037609100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4929618835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3875417709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3956499099731</t>
   </si>
   <si>
     <t xml:space="preserve">15.4240341186523</t>
@@ -3524,25 +3524,25 @@
     <t xml:space="preserve">15.5172901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6024379730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2172441482544</t>
+    <t xml:space="preserve">15.6024398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2172422409058</t>
   </si>
   <si>
     <t xml:space="preserve">15.083438873291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8279943466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9212512969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8969240188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8563776016235</t>
+    <t xml:space="preserve">14.8279933929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9212493896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8969230651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8563766479492</t>
   </si>
   <si>
     <t xml:space="preserve">14.3211574554443</t>
@@ -3551,40 +3551,40 @@
     <t xml:space="preserve">14.4346885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3779230117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7022981643677</t>
+    <t xml:space="preserve">14.3779239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7022972106934</t>
   </si>
   <si>
     <t xml:space="preserve">14.6293144226074</t>
   </si>
   <si>
-    <t xml:space="preserve">14.750955581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0915479660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1645336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.998291015625</t>
+    <t xml:space="preserve">14.7509546279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0915498733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.164532661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9982900619507</t>
   </si>
   <si>
     <t xml:space="preserve">15.0712738037109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0023460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9617977142334</t>
+    <t xml:space="preserve">15.002345085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9617986679077</t>
   </si>
   <si>
     <t xml:space="preserve">14.8158292770386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.913143157959</t>
+    <t xml:space="preserve">14.9131422042847</t>
   </si>
   <si>
     <t xml:space="preserve">15.1118221282959</t>
@@ -3593,31 +3593,31 @@
     <t xml:space="preserve">15.0428905487061</t>
   </si>
   <si>
-    <t xml:space="preserve">15.205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1483125686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1077661514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4118680953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3226652145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9739637374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0591096878052</t>
+    <t xml:space="preserve">15.2050790786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1483135223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1077651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4118690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3226671218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9739618301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0591106414795</t>
   </si>
   <si>
     <t xml:space="preserve">14.9699068069458</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0753307342529</t>
+    <t xml:space="preserve">15.0753288269043</t>
   </si>
   <si>
     <t xml:space="preserve">15.2010259628296</t>
@@ -3626,22 +3626,22 @@
     <t xml:space="preserve">15.1848068237305</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9536895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0672197341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2902269363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1807498931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3064479827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5117273330688</t>
+    <t xml:space="preserve">14.953688621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0672206878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2902278900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1807508468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3064470291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5117292404175</t>
   </si>
   <si>
     <t xml:space="preserve">14.6374225616455</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">14.8117742538452</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1361513137817</t>
+    <t xml:space="preserve">15.1361503601074</t>
   </si>
   <si>
     <t xml:space="preserve">14.8766479492188</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">15.1239852905273</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0996580123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8847599029541</t>
+    <t xml:space="preserve">15.0996589660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8847579956055</t>
   </si>
   <si>
     <t xml:space="preserve">15.3713216781616</t>
@@ -3674,7 +3674,7 @@
     <t xml:space="preserve">15.0347843170166</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941900253296</t>
+    <t xml:space="preserve">14.6941890716553</t>
   </si>
   <si>
     <t xml:space="preserve">14.7347364425659</t>
@@ -3683,37 +3683,37 @@
     <t xml:space="preserve">14.1630258560181</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5076732635498</t>
+    <t xml:space="preserve">14.5076742172241</t>
   </si>
   <si>
     <t xml:space="preserve">14.0576028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9683990478516</t>
+    <t xml:space="preserve">13.9684000015259</t>
   </si>
   <si>
     <t xml:space="preserve">13.9075794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1615161895752</t>
+    <t xml:space="preserve">13.1615171432495</t>
   </si>
   <si>
     <t xml:space="preserve">12.8655242919922</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1169137954712</t>
+    <t xml:space="preserve">13.1169157028198</t>
   </si>
   <si>
     <t xml:space="preserve">13.7535009384155</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6237516403198</t>
+    <t xml:space="preserve">13.6237506866455</t>
   </si>
   <si>
     <t xml:space="preserve">13.9237985610962</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3089933395386</t>
+    <t xml:space="preserve">14.3089942932129</t>
   </si>
   <si>
     <t xml:space="preserve">14.5238924026489</t>
@@ -3722,34 +3722,34 @@
     <t xml:space="preserve">15.2253532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1929168701172</t>
+    <t xml:space="preserve">15.1929159164429</t>
   </si>
   <si>
     <t xml:space="preserve">15.3105010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">15.460524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7484083175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3322830200195</t>
+    <t xml:space="preserve">15.4605255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7484064102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3322811126709</t>
   </si>
   <si>
     <t xml:space="preserve">15.9997987747192</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3160648345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8431739807129</t>
+    <t xml:space="preserve">16.3160667419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8431720733643</t>
   </si>
   <si>
     <t xml:space="preserve">17.1188926696777</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4620304107666</t>
+    <t xml:space="preserve">16.4620323181152</t>
   </si>
   <si>
     <t xml:space="preserve">16.3890476226807</t>
@@ -3761,49 +3761,49 @@
     <t xml:space="preserve">15.6997518539429</t>
   </si>
   <si>
-    <t xml:space="preserve">15.882212638855</t>
+    <t xml:space="preserve">15.8822107315063</t>
   </si>
   <si>
     <t xml:space="preserve">15.764627456665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6308212280273</t>
+    <t xml:space="preserve">15.630823135376</t>
   </si>
   <si>
     <t xml:space="preserve">15.5578374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6227121353149</t>
+    <t xml:space="preserve">15.6227130889893</t>
   </si>
   <si>
     <t xml:space="preserve">15.1402044296265</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9334154129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6455326080322</t>
+    <t xml:space="preserve">14.9334163665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6455316543579</t>
   </si>
   <si>
     <t xml:space="preserve">14.6820240020752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5968761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6779708862305</t>
+    <t xml:space="preserve">14.5968751907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6779689788818</t>
   </si>
   <si>
     <t xml:space="preserve">14.5563316345215</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8442125320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7590637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5887680053711</t>
+    <t xml:space="preserve">14.8442115783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7590646743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5887670516968</t>
   </si>
   <si>
     <t xml:space="preserve">14.3819789886475</t>
@@ -3812,13 +3812,13 @@
     <t xml:space="preserve">14.1427516937256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3617029190063</t>
+    <t xml:space="preserve">14.3617038726807</t>
   </si>
   <si>
     <t xml:space="preserve">14.4022521972656</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3292665481567</t>
+    <t xml:space="preserve">14.3292684555054</t>
   </si>
   <si>
     <t xml:space="preserve">14.4468536376953</t>
@@ -3830,25 +3830,25 @@
     <t xml:space="preserve">15.0282354354858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8945922851562</t>
+    <t xml:space="preserve">14.8945932388306</t>
   </si>
   <si>
     <t xml:space="preserve">14.9635696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0239229202271</t>
+    <t xml:space="preserve">15.0239238739014</t>
   </si>
   <si>
     <t xml:space="preserve">14.7264623641968</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6919755935669</t>
+    <t xml:space="preserve">14.6919746398926</t>
   </si>
   <si>
     <t xml:space="preserve">14.6143770217896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5798892974854</t>
+    <t xml:space="preserve">14.579888343811</t>
   </si>
   <si>
     <t xml:space="preserve">14.5152215957642</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">14.4117584228516</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6014423370361</t>
+    <t xml:space="preserve">14.6014432907104</t>
   </si>
   <si>
     <t xml:space="preserve">14.5066022872925</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">14.213451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5193767547607</t>
+    <t xml:space="preserve">13.5193758010864</t>
   </si>
   <si>
     <t xml:space="preserve">13.3598680496216</t>
@@ -3887,7 +3887,7 @@
     <t xml:space="preserve">13.4633321762085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7090616226196</t>
+    <t xml:space="preserve">13.7090606689453</t>
   </si>
   <si>
     <t xml:space="preserve">13.5236873626709</t>
@@ -3902,7 +3902,7 @@
     <t xml:space="preserve">13.8125267028809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3943557739258</t>
+    <t xml:space="preserve">13.3943567276001</t>
   </si>
   <si>
     <t xml:space="preserve">13.5538644790649</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">12.4717969894409</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5580177307129</t>
+    <t xml:space="preserve">12.5580167770386</t>
   </si>
   <si>
     <t xml:space="preserve">12.5407724380493</t>
@@ -3959,34 +3959,34 @@
     <t xml:space="preserve">12.2778005599976</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3252220153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5450849533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2950448989868</t>
+    <t xml:space="preserve">12.3252229690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5450839996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2950458526611</t>
   </si>
   <si>
     <t xml:space="preserve">12.251935005188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4502420425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5752620697021</t>
+    <t xml:space="preserve">12.4502410888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5752611160278</t>
   </si>
   <si>
     <t xml:space="preserve">12.8339233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5881938934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6528596878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7606353759766</t>
+    <t xml:space="preserve">12.5881948471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528606414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7606363296509</t>
   </si>
   <si>
     <t xml:space="preserve">12.9675645828247</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">12.8209896087646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9977416992188</t>
+    <t xml:space="preserve">12.9977407455444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6959705352783</t>
@@ -4028,13 +4028,13 @@
     <t xml:space="preserve">12.6269941329956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7778787612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6226835250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5105962753296</t>
+    <t xml:space="preserve">12.7778797149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6226825714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5105953216553</t>
   </si>
   <si>
     <t xml:space="preserve">12.9546308517456</t>
@@ -4049,13 +4049,13 @@
     <t xml:space="preserve">12.6571712493896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8899660110474</t>
+    <t xml:space="preserve">12.8899669647217</t>
   </si>
   <si>
     <t xml:space="preserve">13.2952032089233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0925855636597</t>
+    <t xml:space="preserve">13.0925846099854</t>
   </si>
   <si>
     <t xml:space="preserve">13.2132930755615</t>
@@ -4064,10 +4064,10 @@
     <t xml:space="preserve">13.1658725738525</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8253002166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8597888946533</t>
+    <t xml:space="preserve">12.8253011703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8597898483276</t>
   </si>
   <si>
     <t xml:space="preserve">12.4416198730469</t>
@@ -4091,10 +4091,10 @@
     <t xml:space="preserve">12.501974105835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2476234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9674081802368</t>
+    <t xml:space="preserve">12.2476243972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9674072265625</t>
   </si>
   <si>
     <t xml:space="preserve">11.8510084152222</t>
@@ -4115,13 +4115,13 @@
     <t xml:space="preserve">12.2734899520874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.415753364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8922557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0525722503662</t>
+    <t xml:space="preserve">12.4157524108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8922548294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0525732040405</t>
   </si>
   <si>
     <t xml:space="preserve">13.0792932510376</t>
@@ -4130,7 +4130,7 @@
     <t xml:space="preserve">12.8655347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2173442840576</t>
+    <t xml:space="preserve">13.2173452377319</t>
   </si>
   <si>
     <t xml:space="preserve">13.2307043075562</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">13.2529716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4266490936279</t>
+    <t xml:space="preserve">13.4266481399536</t>
   </si>
   <si>
     <t xml:space="preserve">13.4221954345703</t>
@@ -4178,13 +4178,13 @@
     <t xml:space="preserve">15.2124147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2346820831299</t>
+    <t xml:space="preserve">15.2346811294556</t>
   </si>
   <si>
     <t xml:space="preserve">15.2079629898071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1367111206055</t>
+    <t xml:space="preserve">15.1367101669312</t>
   </si>
   <si>
     <t xml:space="preserve">15.3727340698242</t>
@@ -4193,10 +4193,10 @@
     <t xml:space="preserve">15.2035083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.123348236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0610046386719</t>
+    <t xml:space="preserve">15.1233501434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0610036849976</t>
   </si>
   <si>
     <t xml:space="preserve">15.0966310501099</t>
@@ -4208,28 +4208,28 @@
     <t xml:space="preserve">14.8784189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0877237319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2524938583374</t>
+    <t xml:space="preserve">15.0877246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2524948120117</t>
   </si>
   <si>
     <t xml:space="preserve">15.3460130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326549530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.328200340271</t>
+    <t xml:space="preserve">15.3326539993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3281993865967</t>
   </si>
   <si>
     <t xml:space="preserve">15.426173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217195510864</t>
+    <t xml:space="preserve">15.3192949295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217205047607</t>
   </si>
   <si>
     <t xml:space="preserve">15.3771858215332</t>
@@ -4250,7 +4250,7 @@
     <t xml:space="preserve">14.8606052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9006843566895</t>
+    <t xml:space="preserve">14.9006853103638</t>
   </si>
   <si>
     <t xml:space="preserve">15.012017250061</t>
@@ -4274,13 +4274,13 @@
     <t xml:space="preserve">14.9407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0075645446777</t>
+    <t xml:space="preserve">15.0075654983521</t>
   </si>
   <si>
     <t xml:space="preserve">15.3816404342651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3860921859741</t>
+    <t xml:space="preserve">15.3860931396484</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439859390259</t>
@@ -4292,22 +4292,22 @@
     <t xml:space="preserve">15.435079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.49742603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4840650558472</t>
+    <t xml:space="preserve">15.4974250793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4840660095215</t>
   </si>
   <si>
     <t xml:space="preserve">15.4573459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5196905136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5953989028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.608757019043</t>
+    <t xml:space="preserve">15.5196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5953979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6087579727173</t>
   </si>
   <si>
     <t xml:space="preserve">15.4707069396973</t>
@@ -4319,10 +4319,10 @@
     <t xml:space="preserve">15.8893156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9561147689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9115800857544</t>
+    <t xml:space="preserve">15.9561157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9115810394287</t>
   </si>
   <si>
     <t xml:space="preserve">15.9516611099243</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">16.0407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9427528381348</t>
+    <t xml:space="preserve">15.9427547454834</t>
   </si>
   <si>
     <t xml:space="preserve">16.196590423584</t>
@@ -4346,31 +4346,31 @@
     <t xml:space="preserve">16.0763511657715</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297931671143</t>
+    <t xml:space="preserve">16.1297912597656</t>
   </si>
   <si>
     <t xml:space="preserve">16.125337600708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1698722839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2277641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2500324249268</t>
+    <t xml:space="preserve">16.1698703765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.22776222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2500305175781</t>
   </si>
   <si>
     <t xml:space="preserve">16.26784324646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2544841766357</t>
+    <t xml:space="preserve">16.2544822692871</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3034706115723</t>
+    <t xml:space="preserve">16.3034687042236</t>
   </si>
   <si>
     <t xml:space="preserve">16.3168296813965</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">16.3569087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1476058959961</t>
+    <t xml:space="preserve">16.1476039886475</t>
   </si>
   <si>
     <t xml:space="preserve">16.1743240356445</t>
@@ -4439,7 +4439,7 @@
     <t xml:space="preserve">15.7557172775269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9026737213135</t>
+    <t xml:space="preserve">15.9026746749878</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030712127686</t>
@@ -4454,13 +4454,13 @@
     <t xml:space="preserve">16.3435497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.290111541748</t>
+    <t xml:space="preserve">16.2901096343994</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5216808319092</t>
+    <t xml:space="preserve">16.5216789245605</t>
   </si>
   <si>
     <t xml:space="preserve">16.7621574401855</t>
@@ -4475,16 +4475,16 @@
     <t xml:space="preserve">16.7265319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8289566040039</t>
+    <t xml:space="preserve">16.8289585113525</t>
   </si>
   <si>
     <t xml:space="preserve">16.9803695678711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0026340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0070896148682</t>
+    <t xml:space="preserve">17.0026359558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0070877075195</t>
   </si>
   <si>
     <t xml:space="preserve">17.0427150726318</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">16.8200511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9269275665283</t>
+    <t xml:space="preserve">16.926929473877</t>
   </si>
   <si>
     <t xml:space="preserve">16.8155975341797</t>
@@ -4508,22 +4508,22 @@
     <t xml:space="preserve">16.6152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4816017150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9002094268799</t>
+    <t xml:space="preserve">16.4815998077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9002113342285</t>
   </si>
   <si>
     <t xml:space="preserve">16.7977848052979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5706653594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8022365570068</t>
+    <t xml:space="preserve">16.5706672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022384643555</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176265716553</t>
@@ -5256,6 +5256,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5699996948242</t>
   </si>
 </sst>
 </file>
@@ -61991,7 +61994,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6496412037</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>2583211</v>
@@ -62012,6 +62015,32 @@
         <v>1728</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6498611111</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>2168271</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>23.7199993133545</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>23.5100002288818</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>23.6599998474121</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>23.5699996948242</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/G.MI.xlsx
+++ b/data/G.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1748">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30122661590576</t>
+    <t xml:space="preserve">9.30122470855713</t>
   </si>
   <si>
     <t xml:space="preserve">G.MI</t>
@@ -47,169 +47,169 @@
     <t xml:space="preserve">9.39883041381836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22084331512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20361995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10601234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84764671325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97395992279053</t>
+    <t xml:space="preserve">9.2208423614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2036190032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1060152053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84764575958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97395896911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.15194511413574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04285621643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84190559387207</t>
+    <t xml:space="preserve">9.0428581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84190464019775</t>
   </si>
   <si>
     <t xml:space="preserve">8.65243530273438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71559143066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37110233306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52612400054932</t>
+    <t xml:space="preserve">8.71559238433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37110137939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52612209320068</t>
   </si>
   <si>
     <t xml:space="preserve">8.56631278991699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12421798706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01513004302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68786334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9175238609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7797269821167</t>
+    <t xml:space="preserve">8.38832569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12421703338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01512813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68786478042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77972745895386</t>
   </si>
   <si>
     <t xml:space="preserve">7.48691082000732</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30318450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22280263900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02759265899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80941534042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53382349014282</t>
+    <t xml:space="preserve">7.30318403244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22280406951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02759170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80941438674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53382396697998</t>
   </si>
   <si>
     <t xml:space="preserve">6.87831258773804</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29268026351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40176773071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6601357460022</t>
+    <t xml:space="preserve">6.29268074035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40176725387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66013622283936</t>
   </si>
   <si>
     <t xml:space="preserve">6.68310213088989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83812141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79219102859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7232928276062</t>
+    <t xml:space="preserve">6.83812236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7921895980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72329235076904</t>
   </si>
   <si>
     <t xml:space="preserve">6.96443605422974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95869255065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0218505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33189153671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35485744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41227197647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52710151672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52136135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44672155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31466817855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38930559158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4524621963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44097948074341</t>
+    <t xml:space="preserve">6.9586935043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185010910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33189105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35485792160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41227245330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52710247039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52136039733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44672107696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31466627120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38930654525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45246267318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44097852706909</t>
   </si>
   <si>
     <t xml:space="preserve">7.98067998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91178131103516</t>
+    <t xml:space="preserve">7.91178226470947</t>
   </si>
   <si>
     <t xml:space="preserve">7.86584997177124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95197248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96919679641724</t>
+    <t xml:space="preserve">7.95197296142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96919727325439</t>
   </si>
   <si>
     <t xml:space="preserve">7.83714246749878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74527978897095</t>
+    <t xml:space="preserve">7.74527883529663</t>
   </si>
   <si>
     <t xml:space="preserve">7.64767360687256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60174226760864</t>
+    <t xml:space="preserve">7.60174322128296</t>
   </si>
   <si>
     <t xml:space="preserve">7.43523788452148</t>
@@ -221,124 +221,124 @@
     <t xml:space="preserve">7.55580997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48116874694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3720817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2859582901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05055809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07352352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9185037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11945581436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20557880401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22854471206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50413608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56729364395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55006790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61896705627441</t>
+    <t xml:space="preserve">7.48116970062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37208271026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28595876693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05055665969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0735239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91850328445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11945629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20557928085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22854566574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5041356086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5672926902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55006837844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61896657943726</t>
   </si>
   <si>
     <t xml:space="preserve">7.67063903808594</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82566022872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90604114532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86010885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92900705337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8773341178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84862470626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64193201065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46394491195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42375564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60748291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14816331863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23428535461426</t>
+    <t xml:space="preserve">7.82565975189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90604162216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86010837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9290075302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87733268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84862565994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64193105697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46394681930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42375469207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60748147964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14816188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23428583145142</t>
   </si>
   <si>
     <t xml:space="preserve">7.12519693374634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18261241912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32040786743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38734531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81330347061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92283630371094</t>
+    <t xml:space="preserve">7.18261194229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32040882110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38734436035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81330442428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92283487319946</t>
   </si>
   <si>
     <t xml:space="preserve">7.98368692398071</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02019882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92891931533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88632440567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83764362335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61857891082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60640811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73419570922852</t>
+    <t xml:space="preserve">8.02019786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92892026901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88632392883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83764505386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61858034133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60640907287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73419809341431</t>
   </si>
   <si>
     <t xml:space="preserve">7.88023948669434</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">7.24738645553589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04049158096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06483221054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98572683334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25955724716187</t>
+    <t xml:space="preserve">7.04049110412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06483268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98572444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25955677032471</t>
   </si>
   <si>
     <t xml:space="preserve">7.47862195968628</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">7.61249399185181</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65509080886841</t>
+    <t xml:space="preserve">7.65509128570557</t>
   </si>
   <si>
     <t xml:space="preserve">6.64495944976807</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08208513259888</t>
+    <t xml:space="preserve">6.08208465576172</t>
   </si>
   <si>
     <t xml:space="preserve">6.17640399932861</t>
@@ -386,43 +386,43 @@
     <t xml:space="preserve">6.32244777679443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41980886459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4928297996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3102765083313</t>
+    <t xml:space="preserve">6.41980981826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49283075332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31027698516846</t>
   </si>
   <si>
     <t xml:space="preserve">6.18857479095459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9725513458252</t>
+    <t xml:space="preserve">5.97255325317383</t>
   </si>
   <si>
     <t xml:space="preserve">5.98472309112549</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45023536682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49891567230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82751274108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76057624816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93704509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87010812759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90661954879761</t>
+    <t xml:space="preserve">6.45023441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4989161491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82751321792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76057720184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93704414367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87010765075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90662002563477</t>
   </si>
   <si>
     <t xml:space="preserve">6.82142734527588</t>
@@ -431,28 +431,28 @@
     <t xml:space="preserve">6.91270446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83968257904053</t>
+    <t xml:space="preserve">6.83968353271484</t>
   </si>
   <si>
     <t xml:space="preserve">6.7970871925354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74840688705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87619352340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68755435943604</t>
+    <t xml:space="preserve">6.74840545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87619495391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68755483627319</t>
   </si>
   <si>
     <t xml:space="preserve">7.16828012466431</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13785362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85793828964233</t>
+    <t xml:space="preserve">7.13785457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85793924331665</t>
   </si>
   <si>
     <t xml:space="preserve">7.13176870346069</t>
@@ -461,16 +461,16 @@
     <t xml:space="preserve">7.27781200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3630051612854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3690881729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41168546676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15002346038818</t>
+    <t xml:space="preserve">7.36300325393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36908912658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41168451309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15002489089966</t>
   </si>
   <si>
     <t xml:space="preserve">6.95530033111572</t>
@@ -479,25 +479,25 @@
     <t xml:space="preserve">6.97355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80317258834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10742807388306</t>
+    <t xml:space="preserve">6.80317211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10742998123169</t>
   </si>
   <si>
     <t xml:space="preserve">7.08308839797974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88227796554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80925607681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67538547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84576892852783</t>
+    <t xml:space="preserve">6.88227891921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8092565536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67538499832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84576797485352</t>
   </si>
   <si>
     <t xml:space="preserve">7.01006746292114</t>
@@ -506,142 +506,142 @@
     <t xml:space="preserve">7.0587477684021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00398206710815</t>
+    <t xml:space="preserve">7.003981590271</t>
   </si>
   <si>
     <t xml:space="preserve">6.94921541213989</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04657697677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22304677963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32649374008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76666212081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69363975524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79100179672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86402368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81534242630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65712976455688</t>
+    <t xml:space="preserve">7.04657745361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22304630279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32649278640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76666069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69364023208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79100275039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86402320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81534290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65712833404541</t>
   </si>
   <si>
     <t xml:space="preserve">6.62670373916626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63887310028076</t>
+    <t xml:space="preserve">6.63887357711792</t>
   </si>
   <si>
     <t xml:space="preserve">6.6693000793457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60844898223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5780234336853</t>
+    <t xml:space="preserve">6.60844755172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57802248001099</t>
   </si>
   <si>
     <t xml:space="preserve">6.55976676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83359718322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92487525939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91879081726074</t>
+    <t xml:space="preserve">6.83359813690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92487573623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91878986358643</t>
   </si>
   <si>
     <t xml:space="preserve">7.25347232818604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23521661758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26564073562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35691833496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33866405487061</t>
+    <t xml:space="preserve">7.23521709442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26564168930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3569188117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33866357803345</t>
   </si>
   <si>
     <t xml:space="preserve">7.39951419830322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38125944137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21087694168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16219520568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05266237258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73623561859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90053367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15610933303833</t>
+    <t xml:space="preserve">7.38125991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21087741851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.162193775177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05266189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73623609542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90053510665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15610980987549</t>
   </si>
   <si>
     <t xml:space="preserve">7.14393901824951</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94313097000122</t>
+    <t xml:space="preserve">6.94313049316406</t>
   </si>
   <si>
     <t xml:space="preserve">7.08917331695557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88836336135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50904703140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42385482788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80721855163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3792200088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76258277893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53134918212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55568790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49483871459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40964508056641</t>
+    <t xml:space="preserve">6.8883638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50904560089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42385578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80721664428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37922096252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76258373260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53134822845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55568981170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49483680725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40964603424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.62262439727783</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">8.7199878692627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66522312164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67739295959473</t>
+    <t xml:space="preserve">8.66522121429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67739200592041</t>
   </si>
   <si>
     <t xml:space="preserve">8.74432754516602</t>
@@ -668,19 +668,19 @@
     <t xml:space="preserve">8.63479423522949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58611392974854</t>
+    <t xml:space="preserve">8.58611488342285</t>
   </si>
   <si>
     <t xml:space="preserve">8.59219932556152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73215770721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79300975799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83560466766357</t>
+    <t xml:space="preserve">8.73215866088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79300785064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83560371398926</t>
   </si>
   <si>
     <t xml:space="preserve">8.78083896636963</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">8.60436916351318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5678596496582</t>
+    <t xml:space="preserve">8.56786060333252</t>
   </si>
   <si>
     <t xml:space="preserve">8.46441173553467</t>
@@ -701,22 +701,22 @@
     <t xml:space="preserve">8.33662414550781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31228542327881</t>
+    <t xml:space="preserve">8.31228256225586</t>
   </si>
   <si>
     <t xml:space="preserve">8.24534702301025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34879493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3427095413208</t>
+    <t xml:space="preserve">8.34879398345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34271049499512</t>
   </si>
   <si>
     <t xml:space="preserve">8.67130565643311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38326549530029</t>
+    <t xml:space="preserve">9.38326644897461</t>
   </si>
   <si>
     <t xml:space="preserve">9.47454357147217</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">9.37109565734863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07292366027832</t>
+    <t xml:space="preserve">9.07292556762695</t>
   </si>
   <si>
     <t xml:space="preserve">8.9694766998291</t>
@@ -740,94 +740,94 @@
     <t xml:space="preserve">9.09117984771729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11551952362061</t>
+    <t xml:space="preserve">9.11552047729492</t>
   </si>
   <si>
     <t xml:space="preserve">8.9025411605835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85386085510254</t>
+    <t xml:space="preserve">8.85385990142822</t>
   </si>
   <si>
     <t xml:space="preserve">8.75649833679199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8234338760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98773193359375</t>
+    <t xml:space="preserve">8.82343482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98773384094238</t>
   </si>
   <si>
     <t xml:space="preserve">9.1337776184082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96339225769043</t>
+    <t xml:space="preserve">8.96339321136475</t>
   </si>
   <si>
     <t xml:space="preserve">8.99381828308105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04249954223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91471195220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89645481109619</t>
+    <t xml:space="preserve">9.04249858856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91471099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89645576477051</t>
   </si>
   <si>
     <t xml:space="preserve">8.82951927185059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73824214935303</t>
+    <t xml:space="preserve">8.73824310302734</t>
   </si>
   <si>
     <t xml:space="preserve">8.58002948760986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22709178924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35487937927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62870979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54351806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64696502685547</t>
+    <t xml:space="preserve">8.22709274291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35487842559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62871074676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54351902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64696598052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.87211513519287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88428497314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87820148468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8660306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95122241973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06684017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89037132263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71390056610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68956279754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54960536956787</t>
+    <t xml:space="preserve">8.88428592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87820243835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86602973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95122337341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06683921813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89037036895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71390342712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68955993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54960346221924</t>
   </si>
   <si>
     <t xml:space="preserve">8.44007110595703</t>
@@ -842,10 +842,10 @@
     <t xml:space="preserve">8.95730781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12769031524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27982044219971</t>
+    <t xml:space="preserve">9.12769222259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27981853485107</t>
   </si>
   <si>
     <t xml:space="preserve">9.29807472229004</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">9.03032875061035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97556209564209</t>
+    <t xml:space="preserve">8.97556304931641</t>
   </si>
   <si>
     <t xml:space="preserve">9.12160587310791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15811538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20679759979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3931188583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27104759216309</t>
+    <t xml:space="preserve">9.15811729431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2067985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39311790466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42524337768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27104663848877</t>
   </si>
   <si>
     <t xml:space="preserve">9.24534702301025</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">9.0269021987915</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1232738494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89840602874756</t>
+    <t xml:space="preserve">9.12327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89840507507324</t>
   </si>
   <si>
     <t xml:space="preserve">8.84058094024658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82130718231201</t>
+    <t xml:space="preserve">8.8213062286377</t>
   </si>
   <si>
     <t xml:space="preserve">8.97550392150879</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">9.03975105285645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1361255645752</t>
+    <t xml:space="preserve">9.13612461090088</t>
   </si>
   <si>
     <t xml:space="preserve">9.31602001190186</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">9.32244491577148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25819683074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3738431930542</t>
+    <t xml:space="preserve">9.2581958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37384510040283</t>
   </si>
   <si>
     <t xml:space="preserve">9.38669300079346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27746963500977</t>
+    <t xml:space="preserve">9.27747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.43809127807617</t>
@@ -941,28 +941,28 @@
     <t xml:space="preserve">9.34171962738037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30959320068359</t>
+    <t xml:space="preserve">9.30959510803223</t>
   </si>
   <si>
     <t xml:space="preserve">9.33529472351074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38026809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41881847381592</t>
+    <t xml:space="preserve">9.38026905059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4188175201416</t>
   </si>
   <si>
     <t xml:space="preserve">9.47021579742432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66938591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63726234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63083648681641</t>
+    <t xml:space="preserve">9.6693868637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63726329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63083744049072</t>
   </si>
   <si>
     <t xml:space="preserve">9.74005889892578</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">9.88783073425293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95207977294922</t>
+    <t xml:space="preserve">9.9520788192749</t>
   </si>
   <si>
     <t xml:space="preserve">9.8107328414917</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">9.77860927581787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65653705596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61798763275146</t>
+    <t xml:space="preserve">9.65653610229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61798858642578</t>
   </si>
   <si>
     <t xml:space="preserve">9.84928226470947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86855697631836</t>
+    <t xml:space="preserve">9.86855602264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.89425563812256</t>
@@ -998,76 +998,76 @@
     <t xml:space="preserve">10.1705236434937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1833734512329</t>
+    <t xml:space="preserve">10.1833724975586</t>
   </si>
   <si>
     <t xml:space="preserve">10.2347726821899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3311433792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.292594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1576738357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0998516082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91995429992676</t>
+    <t xml:space="preserve">10.3311452865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2925968170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1576747894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0998506546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91995525360107</t>
   </si>
   <si>
     <t xml:space="preserve">9.95850372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9970531463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91353130340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96492862701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87498188018799</t>
+    <t xml:space="preserve">9.99705410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91352939605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96492958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87497997283936</t>
   </si>
   <si>
     <t xml:space="preserve">9.80430793762207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79145812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77218341827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78503322601318</t>
+    <t xml:space="preserve">9.79145908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77218437194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78503227233887</t>
   </si>
   <si>
     <t xml:space="preserve">9.75290966033936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62441158294678</t>
+    <t xml:space="preserve">9.62441253662109</t>
   </si>
   <si>
     <t xml:space="preserve">9.61156177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66296100616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70793628692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76575946807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72078514099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68866062164307</t>
+    <t xml:space="preserve">9.66296195983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70793533325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76575756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72078609466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68865966796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.98420333862305</t>
@@ -1082,22 +1082,22 @@
     <t xml:space="preserve">9.99062824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0099029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97135353088379</t>
+    <t xml:space="preserve">10.0099020004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97135448455811</t>
   </si>
   <si>
     <t xml:space="preserve">10.1255502700806</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1640996932983</t>
+    <t xml:space="preserve">10.164098739624</t>
   </si>
   <si>
     <t xml:space="preserve">10.2283487319946</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0291757583618</t>
+    <t xml:space="preserve">10.0291767120361</t>
   </si>
   <si>
     <t xml:space="preserve">9.93922996520996</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">9.94565486907959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92637920379639</t>
+    <t xml:space="preserve">9.9263801574707</t>
   </si>
   <si>
     <t xml:space="preserve">9.81715774536133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0934257507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0548763275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1127004623413</t>
+    <t xml:space="preserve">10.0934247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0548753738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.112699508667</t>
   </si>
   <si>
     <t xml:space="preserve">10.0484533309937</t>
@@ -1130,73 +1130,73 @@
     <t xml:space="preserve">10.1191253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0356025695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97777843475342</t>
+    <t xml:space="preserve">10.0356035232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97777938842773</t>
   </si>
   <si>
     <t xml:space="preserve">10.1319742202759</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88140678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72721099853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67581081390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70151233673096</t>
+    <t xml:space="preserve">9.8814058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72720909118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67581176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70151042938232</t>
   </si>
   <si>
     <t xml:space="preserve">9.75933361053467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8364315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82358169555664</t>
+    <t xml:space="preserve">9.83643341064453<